--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -904,7 +904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,8 +948,8 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
-        <f>"21.07.2021"</f>
-        <v>21.07.2021</v>
+        <f>"27.07.2021"</f>
+        <v>27.07.2021</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -973,8 +973,8 @@
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="str">
-        <f t="shared" ref="A3:A6" si="0">"21.07.2021"</f>
-        <v>21.07.2021</v>
+        <f t="shared" ref="A3:A6" si="0">"27.07.2021"</f>
+        <v>27.07.2021</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6"/>
@@ -997,7 +997,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>21.07.2021</v>
+        <v>27.07.2021</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
@@ -1020,7 +1020,7 @@
     <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>21.07.2021</v>
+        <v>27.07.2021</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -1043,7 +1043,7 @@
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>21.07.2021</v>
+        <v>27.07.2021</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -904,7 +904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -981,7 +981,7 @@
     <t>summary</t>
   </si>
   <si>
-    <t>summary.html</t>
+    <t>20191101_summary.html</t>
   </si>
 </sst>
 </file>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="435">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -982,6 +982,348 @@
   </si>
   <si>
     <t>20191101_summary.html</t>
+  </si>
+  <si>
+    <t>BBS/BES Seminar: Causal inference in drug development: why, when, how?</t>
+  </si>
+  <si>
+    <t>Miguel Hernan</t>
+  </si>
+  <si>
+    <t> Beyond intention-to-treat. Causal inference guidelines for causal inference</t>
+  </si>
+  <si>
+    <t>Christine Fletcher</t>
+  </si>
+  <si>
+    <t> The Final ICH E9(R1) E9 addendum</t>
+  </si>
+  <si>
+    <t>Frank Pétavy</t>
+  </si>
+  <si>
+    <t> A regulator’s perspective</t>
+  </si>
+  <si>
+    <t>Valentine Jehl</t>
+  </si>
+  <si>
+    <t>Thibaut Sanglier</t>
+  </si>
+  <si>
+    <t> Implementing the Principal Stratum estimand strategy using Instrumental Variable methods: An emulation of the CANTOS trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adverse reactions confounded by prior medication: (how) can causal inference solve the problem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Treatment sequencing and effectiveness: challenges and considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principal stratification techniques in the context of regulatory decision making</t>
+  </si>
+  <si>
+    <t>1_Hernan.pdf</t>
+  </si>
+  <si>
+    <t>2_Fletcher.pdf</t>
+  </si>
+  <si>
+    <t>7_Bowden.pdf</t>
+  </si>
+  <si>
+    <t>BBS/EFSPI Seminar: Precision medicine in drug development</t>
+  </si>
+  <si>
+    <t>Niko Beerenwinkel</t>
+  </si>
+  <si>
+    <t>Stephen Senn</t>
+  </si>
+  <si>
+    <t> Precision medicine: The honeymoon is over. It’s high time for tough love</t>
+  </si>
+  <si>
+    <t>Tomasz Burzykowski</t>
+  </si>
+  <si>
+    <t> Generalized pairwise comparisons for precision medicine</t>
+  </si>
+  <si>
+    <t>Adam Heathfield</t>
+  </si>
+  <si>
+    <t> Valuation of Regenerative Medicine/Advance Therapeutics (RM/ATs): Challenges and opportunities for creating a better framework</t>
+  </si>
+  <si>
+    <t> Mutational interactions define novel cancer subgroups: can they inform precision oncology?</t>
+  </si>
+  <si>
+    <t>Mario Ouwens</t>
+  </si>
+  <si>
+    <t> Difficulties with network meta-analysis when starting to use PDL1 thresholds</t>
+  </si>
+  <si>
+    <t>Georgina Bermann</t>
+  </si>
+  <si>
+    <t> Cardiovascular medicine: approaches to the use of early biomarker response to identify a patient subgroup with enhanced therapeutic benefit</t>
+  </si>
+  <si>
+    <t>Laurent Essioux</t>
+  </si>
+  <si>
+    <t> Examples of personalized Healthcare at Roche: statistical perspectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioinformatics for precision oncology</t>
+  </si>
+  <si>
+    <t>2_Senn.pdf</t>
+  </si>
+  <si>
+    <t>3_Burzykowski.pdf</t>
+  </si>
+  <si>
+    <t>4_Heathfield.pdf</t>
+  </si>
+  <si>
+    <t>5_Kuipers.pdf</t>
+  </si>
+  <si>
+    <t>6_Ouwens.pdf</t>
+  </si>
+  <si>
+    <t>7_Bermann.pdf</t>
+  </si>
+  <si>
+    <t>8_Essioux.pdf</t>
+  </si>
+  <si>
+    <t>Jack Kuipers</t>
+  </si>
+  <si>
+    <t>BBS Spring Seminar: Synthetic controls - what do we need and how far can we go?</t>
+  </si>
+  <si>
+    <t>Tom Brookland</t>
+  </si>
+  <si>
+    <t> RWD/RWE Global Regulatory Overview</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach and Hans Ulrich Burger</t>
+  </si>
+  <si>
+    <t> External controls in drug development</t>
+  </si>
+  <si>
+    <t>Somnath Sarkar</t>
+  </si>
+  <si>
+    <t> Considerations for Developing External Control Arm from Real-World Data</t>
+  </si>
+  <si>
+    <t>Laurence Colin and Yue Li</t>
+  </si>
+  <si>
+    <t> Making better use of early phase safety data</t>
+  </si>
+  <si>
+    <t>Cornelia Dunger-Baldauf</t>
+  </si>
+  <si>
+    <t> For the sake of the patient – reducing placebo exposure by using historical controls</t>
+  </si>
+  <si>
+    <t>Gonzalo Duran-Pacheco</t>
+  </si>
+  <si>
+    <t> Electronic Health Records used to derive Control Arms for Single-Arm oncology trials: Proof of concept using RCT’s in lung cancer</t>
+  </si>
+  <si>
+    <t> A Decision Making Framework For Utilising External Control Arms</t>
+  </si>
+  <si>
+    <t>Meinhard Kieser</t>
+  </si>
+  <si>
+    <t> Synthetic controls – what do we need and how far can we go? Rejoinder</t>
+  </si>
+  <si>
+    <t>Norbert Benda</t>
+  </si>
+  <si>
+    <t>Kit Roes</t>
+  </si>
+  <si>
+    <t>Jan Müller-Berghaus</t>
+  </si>
+  <si>
+    <t>1_Brookland.zip</t>
+  </si>
+  <si>
+    <t>10_Roes.pdf</t>
+  </si>
+  <si>
+    <t>2_Rufibach_Burger.pdf</t>
+  </si>
+  <si>
+    <t>3_Sarkar.pdf</t>
+  </si>
+  <si>
+    <t>4_Colin_Li.pdf</t>
+  </si>
+  <si>
+    <t>5_DungerBaldauf.pdf</t>
+  </si>
+  <si>
+    <t>6_Duran_Pacheco.pdf</t>
+  </si>
+  <si>
+    <t>7_Harbron.pdf</t>
+  </si>
+  <si>
+    <t>8_Kieser.pdf</t>
+  </si>
+  <si>
+    <t>9_Benda.pdf</t>
+  </si>
+  <si>
+    <t>BBS/EFSPI Seminar: Small populations and level of evidence</t>
+  </si>
+  <si>
+    <t>Daniel O’Connor</t>
+  </si>
+  <si>
+    <t> Rare diseases and orphan drugs: A Regulator’s (clinical)Perspectives</t>
+  </si>
+  <si>
+    <t> In search of the lost loss function</t>
+  </si>
+  <si>
+    <t>Henriette Thole</t>
+  </si>
+  <si>
+    <t> The potential and challenges of registry use when generating evidence in small populations</t>
+  </si>
+  <si>
+    <t> Rare diseases and orphan drugs:The HTA perspective</t>
+  </si>
+  <si>
+    <t>Adele Morganti</t>
+  </si>
+  <si>
+    <t> Borrowing external controls for an event-driven pediatric trial in PAH: a case study</t>
+  </si>
+  <si>
+    <t>Andreas Kaiser</t>
+  </si>
+  <si>
+    <t> Bayesian analysis for small sample size trials using informative priors derived from historical data</t>
+  </si>
+  <si>
+    <t> Using a non-interventional study to strengthen the evidence collected in a Phase III program: a Hemophilia A case Study</t>
+  </si>
+  <si>
+    <t> Hockey sticks and broken sticks – a design for a single-treatment double-blind randomized clinical trial suitable for chronic diseases</t>
+  </si>
+  <si>
+    <t>European Statistical Meeting on Small populations and level of evidence</t>
+  </si>
+  <si>
+    <t>Hans Hockey and Kristian Brock</t>
+  </si>
+  <si>
+    <t>3_Senn.pdf</t>
+  </si>
+  <si>
+    <t>4_Thole.pdf</t>
+  </si>
+  <si>
+    <t>5_Schiel.pdf</t>
+  </si>
+  <si>
+    <t>6_Morganti.pdf</t>
+  </si>
+  <si>
+    <t>7_Kaiser.pdf</t>
+  </si>
+  <si>
+    <t>8_Asikanius.pdf</t>
+  </si>
+  <si>
+    <t>9_Hockey.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: RCTs, personalized medicine, and surrogacy</t>
+  </si>
+  <si>
+    <t>Everardo D. Saad</t>
+  </si>
+  <si>
+    <t>Evaluation of Time-to-event Surrogate Endpoints Using Accelerated Failure-time Models</t>
+  </si>
+  <si>
+    <t>Precision Medicine Needs Randomized Trials</t>
+  </si>
+  <si>
+    <t>A statistical approach for personalized medicine and benefit / risk assessment</t>
+  </si>
+  <si>
+    <t>1_Burzykowski.pdf</t>
+  </si>
+  <si>
+    <t>2_Saad.pdf</t>
+  </si>
+  <si>
+    <t>3_Buyse.pdf</t>
+  </si>
+  <si>
+    <t>BBS Spring Seminar: New developments in HTA, adaptive designs and multiplicity – in remembrance of Willi Maurer</t>
+  </si>
+  <si>
+    <t>Jason Wang</t>
+  </si>
+  <si>
+    <t>Christoph Gerlinger</t>
+  </si>
+  <si>
+    <t>Susan Edwards</t>
+  </si>
+  <si>
+    <t>Carsten Schwenke</t>
+  </si>
+  <si>
+    <t>Sense and sensibility of estimands for health technology assessment (HTA)</t>
+  </si>
+  <si>
+    <t>EQ-5D-5L Utility Index for different countries</t>
+  </si>
+  <si>
+    <t>Whose perspective? Implications on cost-effectiveness modelling of differences between country value sets (a case study)</t>
+  </si>
+  <si>
+    <t>Real World Evidence and HTA – Experiences with IQWiG</t>
+  </si>
+  <si>
+    <t>HTA AND SAFETY Some results of the ATF / APF Project Group</t>
+  </si>
+  <si>
+    <t>1_Wang.pdf</t>
+  </si>
+  <si>
+    <t>2_Gerliner.pdf</t>
+  </si>
+  <si>
+    <t>3_Edwards.pdf</t>
+  </si>
+  <si>
+    <t>4_Schwenke.pdf</t>
+  </si>
+  <si>
+    <t>5_Friede.pdf</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1085,10 +1427,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,19 +1785,20 @@
   <dimension ref="A1:J944"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I130" sqref="I130:I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="40.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46" style="8" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="31" style="8" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="15" customWidth="1"/>
     <col min="9" max="9" width="23" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="14.42578125" style="7"/>
   </cols>
@@ -1513,7 +1859,7 @@
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
@@ -1535,7 +1881,7 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1559,7 +1905,7 @@
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1583,7 +1929,7 @@
       <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1607,7 +1953,7 @@
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1635,7 +1981,7 @@
       <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1659,7 +2005,7 @@
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1683,7 +2029,7 @@
       <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1707,7 +2053,7 @@
       <c r="H10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1731,7 +2077,7 @@
       <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1755,7 +2101,7 @@
       <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1779,7 +2125,7 @@
       <c r="H13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1803,7 +2149,7 @@
       <c r="H14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1831,7 +2177,7 @@
       <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1855,7 +2201,7 @@
       <c r="H16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="16" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1879,7 +2225,7 @@
       <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1903,7 +2249,7 @@
       <c r="H18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1931,7 +2277,7 @@
       <c r="H19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1955,7 +2301,7 @@
       <c r="H20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1979,7 +2325,7 @@
       <c r="H21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2003,7 +2349,7 @@
       <c r="H22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2027,7 +2373,7 @@
       <c r="H23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2051,7 +2397,7 @@
       <c r="H24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2075,7 +2421,7 @@
       <c r="H25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2099,7 +2445,7 @@
       <c r="H26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2123,7 +2469,7 @@
       <c r="H27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2147,7 +2493,7 @@
       <c r="H28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2175,7 +2521,7 @@
       <c r="H29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
@@ -2197,7 +2543,7 @@
       <c r="H30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2221,7 +2567,7 @@
       <c r="H31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2245,7 +2591,7 @@
       <c r="H32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="16" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2269,7 +2615,7 @@
       <c r="H33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="16" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2293,7 +2639,7 @@
       <c r="H34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2317,7 +2663,7 @@
       <c r="H35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
@@ -2343,7 +2689,7 @@
       <c r="H36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="16" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2367,7 +2713,7 @@
       <c r="H37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2391,7 +2737,7 @@
       <c r="H38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="16" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2415,7 +2761,7 @@
       <c r="H39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="16" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2436,10 +2782,10 @@
       <c r="G40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2463,7 +2809,7 @@
       <c r="H41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="16" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2487,7 +2833,7 @@
       <c r="H42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="16" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2511,7 +2857,7 @@
       <c r="H43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="16" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2536,10 +2882,10 @@
       <c r="G44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="16" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2560,10 +2906,10 @@
       <c r="G45" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="16" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2584,10 +2930,10 @@
       <c r="G46" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2608,10 +2954,10 @@
       <c r="G47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2632,10 +2978,10 @@
       <c r="G48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2656,10 +3002,10 @@
       <c r="G49" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="16" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2680,10 +3026,10 @@
       <c r="G50" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="16" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2707,7 +3053,7 @@
       <c r="H51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2731,7 +3077,7 @@
       <c r="H52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I52" s="12"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
@@ -2751,7 +3097,7 @@
       <c r="H53" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="16" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2776,10 +3122,10 @@
       <c r="G54" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="16" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2800,10 +3146,10 @@
       <c r="G55" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2824,10 +3170,10 @@
       <c r="G56" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="16" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2848,10 +3194,10 @@
       <c r="G57" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="16" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2872,10 +3218,10 @@
       <c r="G58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="16" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2900,10 +3246,10 @@
       <c r="G59" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="16" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2924,10 +3270,10 @@
       <c r="G60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="16" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2948,10 +3294,10 @@
       <c r="G61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="16" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2972,10 +3318,10 @@
       <c r="G62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="16" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2996,10 +3342,10 @@
       <c r="G63" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="16" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3020,10 +3366,10 @@
       <c r="G64" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="16" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3042,10 +3388,10 @@
         <v>185</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="16" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3068,10 +3414,10 @@
       <c r="G66" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="I66" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3092,10 +3438,10 @@
       <c r="G67" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3116,10 +3462,10 @@
       <c r="G68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="16" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3140,10 +3486,10 @@
       <c r="G69" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="16" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3166,10 +3512,10 @@
       <c r="G70" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="16" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3190,10 +3536,10 @@
       <c r="G71" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="16" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3214,10 +3560,10 @@
       <c r="G72" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="16" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3238,10 +3584,10 @@
       <c r="G73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="I73" s="16" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3262,10 +3608,10 @@
       <c r="G74" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="16" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3286,10 +3632,10 @@
       <c r="G75" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="I75" s="16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3310,10 +3656,10 @@
         <v>276</v>
       </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="16" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3332,10 +3678,10 @@
         <v>278</v>
       </c>
       <c r="G77" s="4"/>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="16" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3354,10 +3700,10 @@
         <v>280</v>
       </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="I78" s="16" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3376,10 +3722,10 @@
         <v>282</v>
       </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="16" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3398,10 +3744,10 @@
         <v>283</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I80" s="12"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
@@ -3418,10 +3764,10 @@
         <v>285</v>
       </c>
       <c r="G81" s="4"/>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I81" s="12"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
@@ -3442,10 +3788,10 @@
         <v>293</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="I82" s="16" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3464,10 +3810,10 @@
         <v>295</v>
       </c>
       <c r="G83" s="4"/>
-      <c r="H83" s="15" t="s">
+      <c r="H83" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="I83" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3486,10 +3832,10 @@
         <v>297</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="15" t="s">
+      <c r="H84" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="I84" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3508,10 +3854,10 @@
         <v>299</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="I85" s="16" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3530,7 +3876,7 @@
         <v>134</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="15" t="s">
+      <c r="H86" s="17" t="s">
         <v>301</v>
       </c>
       <c r="J86" s="7" t="s">
@@ -3552,7 +3898,7 @@
         <v>302</v>
       </c>
       <c r="G87" s="4"/>
-      <c r="H87" s="15" t="s">
+      <c r="H87" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3571,10 +3917,10 @@
         <v>316</v>
       </c>
       <c r="G88" s="4"/>
-      <c r="H88" s="15" t="s">
+      <c r="H88" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="16" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3593,10 +3939,10 @@
         <v>305</v>
       </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="15" t="s">
+      <c r="H89" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="I89" s="12" t="s">
+      <c r="I89" s="16" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3615,496 +3961,930 @@
         <v>307</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="15" t="s">
+      <c r="H90" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="I90" s="16" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="13"/>
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="str">
+        <f>"21.08.2019"</f>
+        <v>21.08.2019</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>321</v>
+      </c>
       <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="12"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="9" t="str">
+        <f t="shared" ref="A92:A97" si="13">"21.08.2019"</f>
+        <v>21.08.2019</v>
+      </c>
       <c r="B92" s="13"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="12"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I92" s="16" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>21.08.2019</v>
+      </c>
       <c r="B93" s="13"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
+        <v>3</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>21.08.2019</v>
+      </c>
       <c r="B94" s="13"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3">
+        <v>4</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>21.08.2019</v>
+      </c>
       <c r="B95" s="13"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="12"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3">
+        <v>5</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>21.08.2019</v>
+      </c>
       <c r="B96" s="13"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
+        <v>6</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>21.08.2019</v>
+      </c>
       <c r="B97" s="13"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="13"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
+        <v>7</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="str">
+        <f>"04.06.2019"</f>
+        <v>04.06.2019</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>337</v>
+      </c>
       <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="12"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="str">
+        <f t="shared" ref="A99:A105" si="14">"04.06.2019"</f>
+        <v>04.06.2019</v>
+      </c>
       <c r="B99" s="13"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>04.06.2019</v>
+      </c>
       <c r="B100" s="13"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>04.06.2019</v>
+      </c>
       <c r="B101" s="13"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <v>4</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>04.06.2019</v>
+      </c>
       <c r="B102" s="13"/>
       <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="12"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3">
+        <v>5</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>04.06.2019</v>
+      </c>
       <c r="B103" s="13"/>
       <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="12"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3">
+        <v>6</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>04.06.2019</v>
+      </c>
       <c r="B104" s="13"/>
       <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="12"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3">
+        <v>7</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>04.06.2019</v>
+      </c>
       <c r="B105" s="13"/>
       <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="12"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="13"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3">
+        <v>8</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="str">
+        <f>"10.05.2019"</f>
+        <v>10.05.2019</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="12"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="str">
+        <f t="shared" ref="A107:A117" si="15">"10.05.2019"</f>
+        <v>10.05.2019</v>
+      </c>
       <c r="B107" s="13"/>
       <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="12"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3">
+        <v>2</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B108" s="13"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="12"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3">
+        <v>3</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B109" s="13"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="12"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3">
+        <v>4</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B110" s="13"/>
       <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="12"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3">
+        <v>5</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B111" s="13"/>
       <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="12"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3">
+        <v>6</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B112" s="13"/>
       <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="12"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3">
+        <v>7</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B113" s="13"/>
       <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="12"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B114" s="13"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="12"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3">
+        <v>9</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B115" s="13"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="12"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3">
+        <v>10</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B116" s="13"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="12"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>10.05.2019</v>
+      </c>
       <c r="B117" s="13"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="12"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="13"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3">
+        <v>12</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="str">
+        <f>"27.06.2018"</f>
+        <v>27.06.2018</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>390</v>
+      </c>
       <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="12"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="str">
+        <f t="shared" ref="A119:A126" si="16">"27.06.2018"</f>
+        <v>27.06.2018</v>
+      </c>
       <c r="B119" s="13"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="12"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3">
+        <v>2</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B120" s="13"/>
       <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="12"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3">
+        <v>3</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B121" s="13"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="12"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3">
+        <v>4</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B122" s="13"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="12"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3">
+        <v>5</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B123" s="13"/>
       <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="12"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3">
+        <v>6</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B124" s="13"/>
       <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="12"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3">
+        <v>7</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="I124" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B125" s="13"/>
       <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="12"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3">
+        <v>8</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>27.06.2018</v>
+      </c>
       <c r="B126" s="13"/>
       <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="12"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="13"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3">
+        <v>9</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="str">
+        <f>"26.06.2018"</f>
+        <v>26.06.2018</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="12"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="str">
+        <f t="shared" ref="A128:A129" si="17">"26.06.2018"</f>
+        <v>26.06.2018</v>
+      </c>
       <c r="B128" s="13"/>
       <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="12"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I128" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>26.06.2018</v>
+      </c>
       <c r="B129" s="13"/>
       <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="12"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="13"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3">
+        <v>3</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="str">
+        <f>"17.04.2018"</f>
+        <v>17.04.2018</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>420</v>
+      </c>
       <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="12"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="str">
+        <f t="shared" ref="A131:A134" si="18">"17.04.2018"</f>
+        <v>17.04.2018</v>
+      </c>
       <c r="B131" s="13"/>
       <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="12"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3">
+        <v>2</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>17.04.2018</v>
+      </c>
       <c r="B132" s="13"/>
       <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="12"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3">
+        <v>3</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>17.04.2018</v>
+      </c>
       <c r="B133" s="13"/>
       <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="12"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3">
+        <v>4</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>17.04.2018</v>
+      </c>
       <c r="B134" s="13"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="12"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3">
+        <v>5</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
@@ -4115,7 +4895,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="12"/>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
@@ -4126,7 +4906,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="12"/>
+      <c r="I136" s="16"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
@@ -4137,7 +4917,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="12"/>
+      <c r="I137" s="16"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
@@ -4148,7 +4928,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="12"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
@@ -4159,7 +4939,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="12"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
@@ -4170,7 +4950,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="12"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
@@ -4181,7 +4961,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="12"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
@@ -4192,7 +4972,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="12"/>
+      <c r="I142" s="16"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
@@ -4203,7 +4983,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="12"/>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
@@ -4214,7 +4994,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="12"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
@@ -4225,7 +5005,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="12"/>
+      <c r="I145" s="16"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
@@ -4236,7 +5016,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="12"/>
+      <c r="I146" s="16"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
@@ -4247,7 +5027,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="12"/>
+      <c r="I147" s="16"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
@@ -4258,7 +5038,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="12"/>
+      <c r="I148" s="16"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
@@ -4269,7 +5049,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="12"/>
+      <c r="I149" s="16"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
@@ -4280,7 +5060,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="12"/>
+      <c r="I150" s="16"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
@@ -4291,7 +5071,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="12"/>
+      <c r="I151" s="16"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
@@ -4302,7 +5082,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="12"/>
+      <c r="I152" s="16"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
@@ -4313,7 +5093,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="12"/>
+      <c r="I153" s="16"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
@@ -4324,7 +5104,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="12"/>
+      <c r="I154" s="16"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
@@ -4335,7 +5115,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="12"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
@@ -4346,7 +5126,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="12"/>
+      <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
@@ -4357,7 +5137,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="12"/>
+      <c r="I157" s="16"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
@@ -4368,7 +5148,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="12"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
@@ -4379,7 +5159,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="12"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
@@ -4390,7 +5170,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="12"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
@@ -4401,7 +5181,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="12"/>
+      <c r="I161" s="16"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
@@ -4412,7 +5192,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="12"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
@@ -4423,7 +5203,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="12"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
@@ -4434,7 +5214,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="12"/>
+      <c r="I164" s="16"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
@@ -4445,7 +5225,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="12"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
@@ -4456,7 +5236,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="12"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
@@ -4467,7 +5247,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="12"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
@@ -4478,7 +5258,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="12"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
@@ -4489,7 +5269,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="12"/>
+      <c r="I169" s="16"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
@@ -4500,7 +5280,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="1"/>
-      <c r="I170" s="12"/>
+      <c r="I170" s="16"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
@@ -4511,7 +5291,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="12"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
@@ -4522,7 +5302,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="12"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
@@ -4533,7 +5313,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="1"/>
-      <c r="I173" s="12"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
@@ -4544,7 +5324,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="1"/>
-      <c r="I174" s="12"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
@@ -4555,7 +5335,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="12"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
@@ -4566,7 +5346,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="1"/>
-      <c r="I176" s="12"/>
+      <c r="I176" s="16"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
@@ -4577,7 +5357,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="12"/>
+      <c r="I177" s="16"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
@@ -4588,7 +5368,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="1"/>
-      <c r="I178" s="12"/>
+      <c r="I178" s="16"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
@@ -4599,7 +5379,7 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="12"/>
+      <c r="I179" s="16"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
@@ -4610,7 +5390,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="1"/>
-      <c r="I180" s="12"/>
+      <c r="I180" s="16"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
@@ -4621,7 +5401,7 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="12"/>
+      <c r="I181" s="16"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
@@ -4632,7 +5412,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="1"/>
-      <c r="I182" s="12"/>
+      <c r="I182" s="16"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
@@ -4643,7 +5423,7 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="1"/>
-      <c r="I183" s="12"/>
+      <c r="I183" s="16"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
@@ -4654,7 +5434,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="12"/>
+      <c r="I184" s="16"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
@@ -4665,7 +5445,7 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="12"/>
+      <c r="I185" s="16"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
@@ -4676,7 +5456,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="12"/>
+      <c r="I186" s="16"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
@@ -4687,7 +5467,7 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="12"/>
+      <c r="I187" s="16"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
@@ -4698,7 +5478,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="1"/>
-      <c r="I188" s="12"/>
+      <c r="I188" s="16"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
@@ -4709,7 +5489,7 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="12"/>
+      <c r="I189" s="16"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
@@ -4720,7 +5500,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="1"/>
-      <c r="I190" s="12"/>
+      <c r="I190" s="16"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
@@ -4731,7 +5511,7 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="1"/>
-      <c r="I191" s="12"/>
+      <c r="I191" s="16"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
@@ -4742,7 +5522,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="12"/>
+      <c r="I192" s="16"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
@@ -4753,7 +5533,7 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="12"/>
+      <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
@@ -4764,7 +5544,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="12"/>
+      <c r="I194" s="16"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
@@ -4775,7 +5555,7 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="12"/>
+      <c r="I195" s="16"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
@@ -4786,7 +5566,7 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="1"/>
-      <c r="I196" s="12"/>
+      <c r="I196" s="16"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
@@ -4797,7 +5577,7 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="1"/>
-      <c r="I197" s="12"/>
+      <c r="I197" s="16"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
@@ -4808,7 +5588,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="12"/>
+      <c r="I198" s="16"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
@@ -4819,7 +5599,7 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="1"/>
-      <c r="I199" s="12"/>
+      <c r="I199" s="16"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
@@ -4830,7 +5610,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="1"/>
-      <c r="I200" s="12"/>
+      <c r="I200" s="16"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
@@ -4841,7 +5621,7 @@
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="1"/>
-      <c r="I201" s="12"/>
+      <c r="I201" s="16"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
@@ -4852,7 +5632,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="1"/>
-      <c r="I202" s="12"/>
+      <c r="I202" s="16"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
@@ -4863,7 +5643,7 @@
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="1"/>
-      <c r="I203" s="12"/>
+      <c r="I203" s="16"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
@@ -4874,7 +5654,7 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="1"/>
-      <c r="I204" s="12"/>
+      <c r="I204" s="16"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
@@ -4885,7 +5665,7 @@
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="1"/>
-      <c r="I205" s="12"/>
+      <c r="I205" s="16"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
@@ -4896,7 +5676,7 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="1"/>
-      <c r="I206" s="12"/>
+      <c r="I206" s="16"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
@@ -4907,7 +5687,7 @@
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="1"/>
-      <c r="I207" s="12"/>
+      <c r="I207" s="16"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
@@ -4918,7 +5698,7 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="1"/>
-      <c r="I208" s="12"/>
+      <c r="I208" s="16"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
@@ -4929,7 +5709,7 @@
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="1"/>
-      <c r="I209" s="12"/>
+      <c r="I209" s="16"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
@@ -4940,7 +5720,7 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="1"/>
-      <c r="I210" s="12"/>
+      <c r="I210" s="16"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
@@ -4951,7 +5731,7 @@
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="1"/>
-      <c r="I211" s="12"/>
+      <c r="I211" s="16"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
@@ -4962,7 +5742,7 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="1"/>
-      <c r="I212" s="12"/>
+      <c r="I212" s="16"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
@@ -4973,7 +5753,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="1"/>
-      <c r="I213" s="12"/>
+      <c r="I213" s="16"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
@@ -4984,7 +5764,7 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="1"/>
-      <c r="I214" s="12"/>
+      <c r="I214" s="16"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
@@ -4995,7 +5775,7 @@
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="1"/>
-      <c r="I215" s="12"/>
+      <c r="I215" s="16"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
@@ -5006,7 +5786,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="1"/>
-      <c r="I216" s="12"/>
+      <c r="I216" s="16"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
@@ -5017,7 +5797,7 @@
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="1"/>
-      <c r="I217" s="12"/>
+      <c r="I217" s="16"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
@@ -5028,7 +5808,7 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="1"/>
-      <c r="I218" s="12"/>
+      <c r="I218" s="16"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
@@ -5039,7 +5819,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="1"/>
-      <c r="I219" s="12"/>
+      <c r="I219" s="16"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
@@ -5050,7 +5830,7 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="1"/>
-      <c r="I220" s="12"/>
+      <c r="I220" s="16"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
@@ -5061,7 +5841,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="1"/>
-      <c r="I221" s="12"/>
+      <c r="I221" s="16"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
@@ -5072,7 +5852,7 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="1"/>
-      <c r="I222" s="12"/>
+      <c r="I222" s="16"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
@@ -5083,7 +5863,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="1"/>
-      <c r="I223" s="12"/>
+      <c r="I223" s="16"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
@@ -5094,7 +5874,7 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="1"/>
-      <c r="I224" s="12"/>
+      <c r="I224" s="16"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
@@ -5105,7 +5885,7 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="1"/>
-      <c r="I225" s="12"/>
+      <c r="I225" s="16"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
@@ -5116,7 +5896,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="1"/>
-      <c r="I226" s="12"/>
+      <c r="I226" s="16"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
@@ -5127,7 +5907,7 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="1"/>
-      <c r="I227" s="12"/>
+      <c r="I227" s="16"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
@@ -5138,7 +5918,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="1"/>
-      <c r="I228" s="12"/>
+      <c r="I228" s="16"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
@@ -5149,7 +5929,7 @@
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="1"/>
-      <c r="I229" s="12"/>
+      <c r="I229" s="16"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
@@ -5160,7 +5940,7 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="1"/>
-      <c r="I230" s="12"/>
+      <c r="I230" s="16"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
@@ -5171,7 +5951,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="1"/>
-      <c r="I231" s="12"/>
+      <c r="I231" s="16"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
@@ -5182,7 +5962,7 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="1"/>
-      <c r="I232" s="12"/>
+      <c r="I232" s="16"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
@@ -5193,7 +5973,7 @@
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="1"/>
-      <c r="I233" s="12"/>
+      <c r="I233" s="16"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
@@ -5204,7 +5984,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="1"/>
-      <c r="I234" s="12"/>
+      <c r="I234" s="16"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
@@ -5215,7 +5995,7 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="1"/>
-      <c r="I235" s="12"/>
+      <c r="I235" s="16"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
@@ -5226,7 +6006,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="1"/>
-      <c r="I236" s="12"/>
+      <c r="I236" s="16"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
@@ -5237,7 +6017,7 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="1"/>
-      <c r="I237" s="12"/>
+      <c r="I237" s="16"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
@@ -5248,7 +6028,7 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="1"/>
-      <c r="I238" s="12"/>
+      <c r="I238" s="16"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
@@ -5259,7 +6039,7 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="1"/>
-      <c r="I239" s="12"/>
+      <c r="I239" s="16"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
@@ -5270,7 +6050,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="1"/>
-      <c r="I240" s="12"/>
+      <c r="I240" s="16"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
@@ -5281,7 +6061,7 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="1"/>
-      <c r="I241" s="12"/>
+      <c r="I241" s="16"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
@@ -5292,7 +6072,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="1"/>
-      <c r="I242" s="12"/>
+      <c r="I242" s="16"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
@@ -5303,7 +6083,7 @@
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="1"/>
-      <c r="I243" s="12"/>
+      <c r="I243" s="16"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
@@ -5314,7 +6094,7 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="1"/>
-      <c r="I244" s="12"/>
+      <c r="I244" s="16"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
@@ -5325,7 +6105,7 @@
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="1"/>
-      <c r="I245" s="12"/>
+      <c r="I245" s="16"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
@@ -5336,7 +6116,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="1"/>
-      <c r="I246" s="12"/>
+      <c r="I246" s="16"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
@@ -5347,7 +6127,7 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="1"/>
-      <c r="I247" s="12"/>
+      <c r="I247" s="16"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
@@ -5358,7 +6138,7 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="1"/>
-      <c r="I248" s="12"/>
+      <c r="I248" s="16"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
@@ -5369,7 +6149,7 @@
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="1"/>
-      <c r="I249" s="12"/>
+      <c r="I249" s="16"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
@@ -5380,7 +6160,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="1"/>
-      <c r="I250" s="12"/>
+      <c r="I250" s="16"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
@@ -5391,7 +6171,7 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="1"/>
-      <c r="I251" s="12"/>
+      <c r="I251" s="16"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
@@ -5402,7 +6182,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="1"/>
-      <c r="I252" s="12"/>
+      <c r="I252" s="16"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
@@ -5413,7 +6193,7 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="1"/>
-      <c r="I253" s="12"/>
+      <c r="I253" s="16"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
@@ -5424,7 +6204,7 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="1"/>
-      <c r="I254" s="12"/>
+      <c r="I254" s="16"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
@@ -5435,7 +6215,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="1"/>
-      <c r="I255" s="12"/>
+      <c r="I255" s="16"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
@@ -5446,7 +6226,7 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="1"/>
-      <c r="I256" s="12"/>
+      <c r="I256" s="16"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
@@ -5457,7 +6237,7 @@
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
       <c r="H257" s="1"/>
-      <c r="I257" s="12"/>
+      <c r="I257" s="16"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
@@ -5468,7 +6248,7 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="1"/>
-      <c r="I258" s="12"/>
+      <c r="I258" s="16"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
@@ -5479,7 +6259,7 @@
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
       <c r="H259" s="1"/>
-      <c r="I259" s="12"/>
+      <c r="I259" s="16"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
@@ -5490,7 +6270,7 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="1"/>
-      <c r="I260" s="12"/>
+      <c r="I260" s="16"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
@@ -5501,7 +6281,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
       <c r="H261" s="1"/>
-      <c r="I261" s="12"/>
+      <c r="I261" s="16"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
@@ -5512,7 +6292,7 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="1"/>
-      <c r="I262" s="12"/>
+      <c r="I262" s="16"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
@@ -5523,7 +6303,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="1"/>
-      <c r="I263" s="12"/>
+      <c r="I263" s="16"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
@@ -5534,7 +6314,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="1"/>
-      <c r="I264" s="12"/>
+      <c r="I264" s="16"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
@@ -5545,7 +6325,7 @@
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
       <c r="H265" s="1"/>
-      <c r="I265" s="12"/>
+      <c r="I265" s="16"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
@@ -5556,7 +6336,7 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="1"/>
-      <c r="I266" s="12"/>
+      <c r="I266" s="16"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
@@ -5567,7 +6347,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
       <c r="H267" s="1"/>
-      <c r="I267" s="12"/>
+      <c r="I267" s="16"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
@@ -5578,7 +6358,7 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="1"/>
-      <c r="I268" s="12"/>
+      <c r="I268" s="16"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
@@ -5589,7 +6369,7 @@
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="1"/>
-      <c r="I269" s="12"/>
+      <c r="I269" s="16"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
@@ -5600,7 +6380,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="1"/>
-      <c r="I270" s="12"/>
+      <c r="I270" s="16"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
@@ -5611,7 +6391,7 @@
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="1"/>
-      <c r="I271" s="12"/>
+      <c r="I271" s="16"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
@@ -5622,7 +6402,7 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="1"/>
-      <c r="I272" s="12"/>
+      <c r="I272" s="16"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
@@ -5633,7 +6413,7 @@
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
       <c r="H273" s="1"/>
-      <c r="I273" s="12"/>
+      <c r="I273" s="16"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
@@ -5644,7 +6424,7 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="1"/>
-      <c r="I274" s="12"/>
+      <c r="I274" s="16"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
@@ -5655,7 +6435,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="1"/>
-      <c r="I275" s="12"/>
+      <c r="I275" s="16"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
@@ -5666,7 +6446,7 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="1"/>
-      <c r="I276" s="12"/>
+      <c r="I276" s="16"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
@@ -5677,7 +6457,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="1"/>
-      <c r="I277" s="12"/>
+      <c r="I277" s="16"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
@@ -5688,7 +6468,7 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="1"/>
-      <c r="I278" s="12"/>
+      <c r="I278" s="16"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
@@ -5699,7 +6479,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="1"/>
-      <c r="I279" s="12"/>
+      <c r="I279" s="16"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
@@ -5710,7 +6490,7 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="1"/>
-      <c r="I280" s="12"/>
+      <c r="I280" s="16"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
@@ -5721,7 +6501,7 @@
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
       <c r="H281" s="1"/>
-      <c r="I281" s="12"/>
+      <c r="I281" s="16"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
@@ -5732,7 +6512,7 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="1"/>
-      <c r="I282" s="12"/>
+      <c r="I282" s="16"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
@@ -5743,7 +6523,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
       <c r="H283" s="1"/>
-      <c r="I283" s="12"/>
+      <c r="I283" s="16"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
@@ -5754,7 +6534,7 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="1"/>
-      <c r="I284" s="12"/>
+      <c r="I284" s="16"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
@@ -5765,7 +6545,7 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="1"/>
-      <c r="I285" s="12"/>
+      <c r="I285" s="16"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
@@ -5776,7 +6556,7 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="1"/>
-      <c r="I286" s="12"/>
+      <c r="I286" s="16"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
@@ -5787,7 +6567,7 @@
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="1"/>
-      <c r="I287" s="12"/>
+      <c r="I287" s="16"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
@@ -5798,7 +6578,7 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="1"/>
-      <c r="I288" s="12"/>
+      <c r="I288" s="16"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
@@ -5809,7 +6589,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="1"/>
-      <c r="I289" s="12"/>
+      <c r="I289" s="16"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
@@ -5820,7 +6600,7 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="1"/>
-      <c r="I290" s="12"/>
+      <c r="I290" s="16"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
@@ -5831,7 +6611,7 @@
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" s="1"/>
-      <c r="I291" s="12"/>
+      <c r="I291" s="16"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
@@ -5842,7 +6622,7 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="1"/>
-      <c r="I292" s="12"/>
+      <c r="I292" s="16"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
@@ -5853,7 +6633,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="1"/>
-      <c r="I293" s="12"/>
+      <c r="I293" s="16"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
@@ -5864,7 +6644,7 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="1"/>
-      <c r="I294" s="12"/>
+      <c r="I294" s="16"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
@@ -5875,7 +6655,7 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="1"/>
-      <c r="I295" s="12"/>
+      <c r="I295" s="16"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
@@ -5886,7 +6666,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="1"/>
-      <c r="I296" s="12"/>
+      <c r="I296" s="16"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
@@ -5897,7 +6677,7 @@
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="1"/>
-      <c r="I297" s="12"/>
+      <c r="I297" s="16"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
@@ -5908,7 +6688,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="1"/>
-      <c r="I298" s="12"/>
+      <c r="I298" s="16"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
@@ -5919,7 +6699,7 @@
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="1"/>
-      <c r="I299" s="12"/>
+      <c r="I299" s="16"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
@@ -5930,7 +6710,7 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="1"/>
-      <c r="I300" s="12"/>
+      <c r="I300" s="16"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
@@ -5941,7 +6721,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="1"/>
-      <c r="I301" s="12"/>
+      <c r="I301" s="16"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
@@ -5952,7 +6732,7 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="1"/>
-      <c r="I302" s="12"/>
+      <c r="I302" s="16"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
@@ -5963,7 +6743,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="1"/>
-      <c r="I303" s="12"/>
+      <c r="I303" s="16"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
@@ -5974,7 +6754,7 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="1"/>
-      <c r="I304" s="12"/>
+      <c r="I304" s="16"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
@@ -5985,7 +6765,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="1"/>
-      <c r="I305" s="12"/>
+      <c r="I305" s="16"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
@@ -5996,7 +6776,7 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="1"/>
-      <c r="I306" s="12"/>
+      <c r="I306" s="16"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
@@ -6007,7 +6787,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" s="1"/>
-      <c r="I307" s="12"/>
+      <c r="I307" s="16"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
@@ -6018,7 +6798,7 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="1"/>
-      <c r="I308" s="12"/>
+      <c r="I308" s="16"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
@@ -6029,7 +6809,7 @@
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="1"/>
-      <c r="I309" s="12"/>
+      <c r="I309" s="16"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
@@ -6040,7 +6820,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="1"/>
-      <c r="I310" s="12"/>
+      <c r="I310" s="16"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
@@ -6051,7 +6831,7 @@
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="1"/>
-      <c r="I311" s="12"/>
+      <c r="I311" s="16"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
@@ -6062,7 +6842,7 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="1"/>
-      <c r="I312" s="12"/>
+      <c r="I312" s="16"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
@@ -6073,7 +6853,7 @@
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="1"/>
-      <c r="I313" s="12"/>
+      <c r="I313" s="16"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
@@ -6084,7 +6864,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="1"/>
-      <c r="I314" s="12"/>
+      <c r="I314" s="16"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
@@ -6095,7 +6875,7 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="1"/>
-      <c r="I315" s="12"/>
+      <c r="I315" s="16"/>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
@@ -6106,7 +6886,7 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="1"/>
-      <c r="I316" s="12"/>
+      <c r="I316" s="16"/>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
@@ -6117,7 +6897,7 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" s="1"/>
-      <c r="I317" s="12"/>
+      <c r="I317" s="16"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
@@ -6128,7 +6908,7 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="1"/>
-      <c r="I318" s="12"/>
+      <c r="I318" s="16"/>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
@@ -6139,7 +6919,7 @@
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="1"/>
-      <c r="I319" s="12"/>
+      <c r="I319" s="16"/>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
@@ -6150,7 +6930,7 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="1"/>
-      <c r="I320" s="12"/>
+      <c r="I320" s="16"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
@@ -6161,7 +6941,7 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="1"/>
-      <c r="I321" s="12"/>
+      <c r="I321" s="16"/>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
@@ -6172,7 +6952,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" s="1"/>
-      <c r="I322" s="12"/>
+      <c r="I322" s="16"/>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
@@ -6183,7 +6963,7 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="1"/>
-      <c r="I323" s="12"/>
+      <c r="I323" s="16"/>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
@@ -6194,7 +6974,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="1"/>
-      <c r="I324" s="12"/>
+      <c r="I324" s="16"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
@@ -6205,7 +6985,7 @@
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
       <c r="H325" s="1"/>
-      <c r="I325" s="12"/>
+      <c r="I325" s="16"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
@@ -6216,7 +6996,7 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="1"/>
-      <c r="I326" s="12"/>
+      <c r="I326" s="16"/>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
@@ -6227,7 +7007,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" s="1"/>
-      <c r="I327" s="12"/>
+      <c r="I327" s="16"/>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
@@ -6238,7 +7018,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="1"/>
-      <c r="I328" s="12"/>
+      <c r="I328" s="16"/>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
@@ -6249,7 +7029,7 @@
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" s="1"/>
-      <c r="I329" s="12"/>
+      <c r="I329" s="16"/>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
@@ -6260,7 +7040,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="1"/>
-      <c r="I330" s="12"/>
+      <c r="I330" s="16"/>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
@@ -6271,7 +7051,7 @@
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="1"/>
-      <c r="I331" s="12"/>
+      <c r="I331" s="16"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
@@ -6282,7 +7062,7 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="1"/>
-      <c r="I332" s="12"/>
+      <c r="I332" s="16"/>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
@@ -6293,7 +7073,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="1"/>
-      <c r="I333" s="12"/>
+      <c r="I333" s="16"/>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
@@ -6304,7 +7084,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="1"/>
-      <c r="I334" s="12"/>
+      <c r="I334" s="16"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
@@ -6315,7 +7095,7 @@
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
       <c r="H335" s="1"/>
-      <c r="I335" s="12"/>
+      <c r="I335" s="16"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
@@ -6326,7 +7106,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" s="1"/>
-      <c r="I336" s="12"/>
+      <c r="I336" s="16"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
@@ -6337,7 +7117,7 @@
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
       <c r="H337" s="1"/>
-      <c r="I337" s="12"/>
+      <c r="I337" s="16"/>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
@@ -6348,7 +7128,7 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="1"/>
-      <c r="I338" s="12"/>
+      <c r="I338" s="16"/>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="9"/>
@@ -6359,7 +7139,7 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" s="1"/>
-      <c r="I339" s="12"/>
+      <c r="I339" s="16"/>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
@@ -6370,7 +7150,7 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="1"/>
-      <c r="I340" s="12"/>
+      <c r="I340" s="16"/>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
@@ -6381,7 +7161,7 @@
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
       <c r="H341" s="1"/>
-      <c r="I341" s="12"/>
+      <c r="I341" s="16"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
@@ -6392,7 +7172,7 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" s="1"/>
-      <c r="I342" s="12"/>
+      <c r="I342" s="16"/>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
@@ -6403,7 +7183,7 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="12"/>
+      <c r="I343" s="16"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
@@ -6414,7 +7194,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="1"/>
-      <c r="I344" s="12"/>
+      <c r="I344" s="16"/>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
@@ -6425,7 +7205,7 @@
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
       <c r="H345" s="1"/>
-      <c r="I345" s="12"/>
+      <c r="I345" s="16"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="9"/>
@@ -6436,7 +7216,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="12"/>
+      <c r="I346" s="16"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
@@ -6447,7 +7227,7 @@
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="12"/>
+      <c r="I347" s="16"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
@@ -6458,7 +7238,7 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" s="1"/>
-      <c r="I348" s="12"/>
+      <c r="I348" s="16"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
@@ -6469,7 +7249,7 @@
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
       <c r="H349" s="1"/>
-      <c r="I349" s="12"/>
+      <c r="I349" s="16"/>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
@@ -6480,7 +7260,7 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="1"/>
-      <c r="I350" s="12"/>
+      <c r="I350" s="16"/>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
@@ -6491,7 +7271,7 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
       <c r="H351" s="1"/>
-      <c r="I351" s="12"/>
+      <c r="I351" s="16"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
@@ -6502,7 +7282,7 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" s="1"/>
-      <c r="I352" s="12"/>
+      <c r="I352" s="16"/>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="9"/>
@@ -6513,7 +7293,7 @@
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
       <c r="H353" s="1"/>
-      <c r="I353" s="12"/>
+      <c r="I353" s="16"/>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
@@ -6524,7 +7304,7 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="1"/>
-      <c r="I354" s="12"/>
+      <c r="I354" s="16"/>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
@@ -6535,7 +7315,7 @@
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
       <c r="H355" s="1"/>
-      <c r="I355" s="12"/>
+      <c r="I355" s="16"/>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
@@ -6546,7 +7326,7 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="1"/>
-      <c r="I356" s="12"/>
+      <c r="I356" s="16"/>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
@@ -6557,7 +7337,7 @@
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" s="1"/>
-      <c r="I357" s="12"/>
+      <c r="I357" s="16"/>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
@@ -6568,7 +7348,7 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="1"/>
-      <c r="I358" s="12"/>
+      <c r="I358" s="16"/>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
@@ -6579,7 +7359,7 @@
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
       <c r="H359" s="1"/>
-      <c r="I359" s="12"/>
+      <c r="I359" s="16"/>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="9"/>
@@ -6590,7 +7370,7 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="1"/>
-      <c r="I360" s="12"/>
+      <c r="I360" s="16"/>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
@@ -6601,7 +7381,7 @@
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" s="1"/>
-      <c r="I361" s="12"/>
+      <c r="I361" s="16"/>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
@@ -6612,7 +7392,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="1"/>
-      <c r="I362" s="12"/>
+      <c r="I362" s="16"/>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
@@ -6623,7 +7403,7 @@
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" s="1"/>
-      <c r="I363" s="12"/>
+      <c r="I363" s="16"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
@@ -6634,7 +7414,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" s="1"/>
-      <c r="I364" s="12"/>
+      <c r="I364" s="16"/>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
@@ -6645,7 +7425,7 @@
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
       <c r="H365" s="1"/>
-      <c r="I365" s="12"/>
+      <c r="I365" s="16"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
@@ -6656,7 +7436,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" s="1"/>
-      <c r="I366" s="12"/>
+      <c r="I366" s="16"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="9"/>
@@ -6667,7 +7447,7 @@
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
       <c r="H367" s="1"/>
-      <c r="I367" s="12"/>
+      <c r="I367" s="16"/>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
@@ -6678,7 +7458,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" s="1"/>
-      <c r="I368" s="12"/>
+      <c r="I368" s="16"/>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
@@ -6689,7 +7469,7 @@
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
       <c r="H369" s="1"/>
-      <c r="I369" s="12"/>
+      <c r="I369" s="16"/>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
@@ -6700,7 +7480,7 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" s="1"/>
-      <c r="I370" s="12"/>
+      <c r="I370" s="16"/>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
@@ -6711,7 +7491,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
       <c r="H371" s="1"/>
-      <c r="I371" s="12"/>
+      <c r="I371" s="16"/>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
@@ -6722,7 +7502,7 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" s="1"/>
-      <c r="I372" s="12"/>
+      <c r="I372" s="16"/>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
@@ -6733,7 +7513,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" s="1"/>
-      <c r="I373" s="12"/>
+      <c r="I373" s="16"/>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
@@ -6744,7 +7524,7 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="1"/>
-      <c r="I374" s="12"/>
+      <c r="I374" s="16"/>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
@@ -6755,7 +7535,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
       <c r="H375" s="1"/>
-      <c r="I375" s="12"/>
+      <c r="I375" s="16"/>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
@@ -6766,7 +7546,7 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="1"/>
-      <c r="I376" s="12"/>
+      <c r="I376" s="16"/>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
@@ -6777,7 +7557,7 @@
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
       <c r="H377" s="1"/>
-      <c r="I377" s="12"/>
+      <c r="I377" s="16"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="9"/>
@@ -6788,7 +7568,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="1"/>
-      <c r="I378" s="12"/>
+      <c r="I378" s="16"/>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
@@ -6799,7 +7579,7 @@
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" s="1"/>
-      <c r="I379" s="12"/>
+      <c r="I379" s="16"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
@@ -6810,7 +7590,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" s="1"/>
-      <c r="I380" s="12"/>
+      <c r="I380" s="16"/>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
@@ -6821,7 +7601,7 @@
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" s="1"/>
-      <c r="I381" s="12"/>
+      <c r="I381" s="16"/>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
@@ -6832,7 +7612,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" s="1"/>
-      <c r="I382" s="12"/>
+      <c r="I382" s="16"/>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
@@ -6843,7 +7623,7 @@
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" s="1"/>
-      <c r="I383" s="12"/>
+      <c r="I383" s="16"/>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
@@ -6854,7 +7634,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="1"/>
-      <c r="I384" s="12"/>
+      <c r="I384" s="16"/>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
@@ -6865,7 +7645,7 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="1"/>
-      <c r="I385" s="12"/>
+      <c r="I385" s="16"/>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
@@ -6876,7 +7656,7 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="1"/>
-      <c r="I386" s="12"/>
+      <c r="I386" s="16"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
@@ -6887,7 +7667,7 @@
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" s="1"/>
-      <c r="I387" s="12"/>
+      <c r="I387" s="16"/>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
@@ -6898,7 +7678,7 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="1"/>
-      <c r="I388" s="12"/>
+      <c r="I388" s="16"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
@@ -6909,7 +7689,7 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" s="1"/>
-      <c r="I389" s="12"/>
+      <c r="I389" s="16"/>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
@@ -6920,7 +7700,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="1"/>
-      <c r="I390" s="12"/>
+      <c r="I390" s="16"/>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
@@ -6931,7 +7711,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
       <c r="H391" s="1"/>
-      <c r="I391" s="12"/>
+      <c r="I391" s="16"/>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
@@ -6942,7 +7722,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="1"/>
-      <c r="I392" s="12"/>
+      <c r="I392" s="16"/>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
@@ -6953,7 +7733,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
       <c r="H393" s="1"/>
-      <c r="I393" s="12"/>
+      <c r="I393" s="16"/>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
@@ -6964,7 +7744,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="1"/>
-      <c r="I394" s="12"/>
+      <c r="I394" s="16"/>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
@@ -6975,7 +7755,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" s="1"/>
-      <c r="I395" s="12"/>
+      <c r="I395" s="16"/>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
@@ -6986,7 +7766,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="1"/>
-      <c r="I396" s="12"/>
+      <c r="I396" s="16"/>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
@@ -6997,7 +7777,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" s="1"/>
-      <c r="I397" s="12"/>
+      <c r="I397" s="16"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
@@ -7008,7 +7788,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="1"/>
-      <c r="I398" s="12"/>
+      <c r="I398" s="16"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
@@ -7019,7 +7799,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" s="1"/>
-      <c r="I399" s="12"/>
+      <c r="I399" s="16"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
@@ -7030,7 +7810,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="1"/>
-      <c r="I400" s="12"/>
+      <c r="I400" s="16"/>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
@@ -7041,7 +7821,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" s="1"/>
-      <c r="I401" s="12"/>
+      <c r="I401" s="16"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="10"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="517">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -1324,6 +1324,252 @@
   </si>
   <si>
     <t>5_Friede.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Competing Risks and Multi-State Models</t>
+  </si>
+  <si>
+    <t>Claudia Schmoor</t>
+  </si>
+  <si>
+    <t> Competing risks with applications to oncology</t>
+  </si>
+  <si>
+    <t>Jan Beyersmann</t>
+  </si>
+  <si>
+    <t> Analysis of co-time-to-event outcomes in randomized clinical trials</t>
+  </si>
+  <si>
+    <t>Ekkehard Glimm and Lillian Yau</t>
+  </si>
+  <si>
+    <t> A discrete semi-Markov model for the effect of need-based treatments on the disease states</t>
+  </si>
+  <si>
+    <t>1_Schmoor.pdf</t>
+  </si>
+  <si>
+    <t>2_Beyersmann.pdf</t>
+  </si>
+  <si>
+    <t>3_Glimm.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Future of Biomedical Research: Are we ready?</t>
+  </si>
+  <si>
+    <t>BBS Seminar Emerging topics for statistical methodology in drug development: Estimands and advanced analytics</t>
+  </si>
+  <si>
+    <t>BBS / PSI 1-Day Scientific Meeting: Empower the immune system to fight cancer</t>
+  </si>
+  <si>
+    <t>Jorge Martinalbo</t>
+  </si>
+  <si>
+    <t> Realising the potential of cancer immunotherapy</t>
+  </si>
+  <si>
+    <t>Andrew Stone</t>
+  </si>
+  <si>
+    <t>Daniel Sabanés Bové</t>
+  </si>
+  <si>
+    <t>Matt Whiley</t>
+  </si>
+  <si>
+    <t>Claude Berge</t>
+  </si>
+  <si>
+    <t>Sergio Fracchia</t>
+  </si>
+  <si>
+    <t>Nicholas Latimer</t>
+  </si>
+  <si>
+    <t>Statistical, clinical and ethical considerations when minimizing</t>
+  </si>
+  <si>
+    <t>Statistical issues in the development of cancer immunotherapy</t>
+  </si>
+  <si>
+    <t>Bayesian Learning in Early Phase Cancer Immunotherapy: A Case Study</t>
+  </si>
+  <si>
+    <t>An adaptive phase II basket trial design</t>
+  </si>
+  <si>
+    <t>Statistical Challenges in Immunotherapy: Non Proportional Hazard Model</t>
+  </si>
+  <si>
+    <t>Challenges in development and approval: the case of cell based therapeutics</t>
+  </si>
+  <si>
+    <t>Cancer Immunotherapy from the Health Technology Assessment (HTA) and Payer Perspectives</t>
+  </si>
+  <si>
+    <t>Estimating survival benefit for health technology assessment: New challenges presented by immuno-oncology treatments?</t>
+  </si>
+  <si>
+    <t>1_Martinalbo.pdf</t>
+  </si>
+  <si>
+    <t>2_Stone.pdf</t>
+  </si>
+  <si>
+    <t>3_Sabanes.pdf</t>
+  </si>
+  <si>
+    <t>4_Whiley.pdf</t>
+  </si>
+  <si>
+    <t>5_Heinzmann.pdf</t>
+  </si>
+  <si>
+    <t>6_Berge.pdf</t>
+  </si>
+  <si>
+    <t>7_Fracchia.pdf</t>
+  </si>
+  <si>
+    <t>8_Sorensen.pdf</t>
+  </si>
+  <si>
+    <t>9_Latimer.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar Innovative model-based dose escalation designs: what next?</t>
+  </si>
+  <si>
+    <t> Model-based D/E designs: Current status and next steps</t>
+  </si>
+  <si>
+    <t>Daniel Lorand</t>
+  </si>
+  <si>
+    <t> Tailoring dose escalation designs to early clinical development goals</t>
+  </si>
+  <si>
+    <t>Andreas Krause</t>
+  </si>
+  <si>
+    <t> Guiding dose escalation studies in Phase 1 with unblinded modeling</t>
+  </si>
+  <si>
+    <t>1_Sabanes.pdf</t>
+  </si>
+  <si>
+    <t>2_Lorand.pdf</t>
+  </si>
+  <si>
+    <t>3_Krause.pdf</t>
+  </si>
+  <si>
+    <t>BBS Spring Seminar The use of external data for decision making</t>
+  </si>
+  <si>
+    <t>David Evans</t>
+  </si>
+  <si>
+    <t>Ralf Bender</t>
+  </si>
+  <si>
+    <t>Frank Bretz</t>
+  </si>
+  <si>
+    <t>David Dejardin</t>
+  </si>
+  <si>
+    <t>Eva-Maria Didden</t>
+  </si>
+  <si>
+    <t>Dynamic borrowing of historical data: Performance and comparison of existing methods based on a case study</t>
+  </si>
+  <si>
+    <t>GetReal: 3 Years on!</t>
+  </si>
+  <si>
+    <t>The Use of External Data for Decision Making</t>
+  </si>
+  <si>
+    <t>Threshold-crossing: A Useful Way to Establish the Counterfactual in Clinical Trials?</t>
+  </si>
+  <si>
+    <t>Use of registries and observational data in the benefit assessment of medical interventions</t>
+  </si>
+  <si>
+    <t>Reality and Real-World Data</t>
+  </si>
+  <si>
+    <t>1_Evans.pdf</t>
+  </si>
+  <si>
+    <t>2_Bender.pdf</t>
+  </si>
+  <si>
+    <t>3_Bretz.pdf</t>
+  </si>
+  <si>
+    <t>4_Dejardin.pdf</t>
+  </si>
+  <si>
+    <t>5_Didden.pdf</t>
+  </si>
+  <si>
+    <t>6_Friede.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Biomarker analyses</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Safety monitoring during the life cycle of a drug</t>
+  </si>
+  <si>
+    <t>Conny Berlin</t>
+  </si>
+  <si>
+    <t>Yusuf Tanrikulu</t>
+  </si>
+  <si>
+    <t>Pritibha Singh</t>
+  </si>
+  <si>
+    <t>Gianmario Candore</t>
+  </si>
+  <si>
+    <t>Soheila Aghlmandi</t>
+  </si>
+  <si>
+    <t>Adverse Drug Reaction (ADR) screening in clinical trials</t>
+  </si>
+  <si>
+    <t>Screening for adverse reactions in EudraVigilance</t>
+  </si>
+  <si>
+    <t>Choice of priors in rare events meta-analysis</t>
+  </si>
+  <si>
+    <t>Signal Detection – Quantitative Analysis of Safety Data</t>
+  </si>
+  <si>
+    <t>Safety monitoring during the life cycle of a drug</t>
+  </si>
+  <si>
+    <t>1_Berlin.pdf</t>
+  </si>
+  <si>
+    <t>2_Tanrikulu.pdf</t>
+  </si>
+  <si>
+    <t>3_Singh.pdf</t>
+  </si>
+  <si>
+    <t>4_Candore.pdf</t>
+  </si>
+  <si>
+    <t>5_Aghlmandi.pdf</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1687,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1782,11 +2039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J944"/>
+  <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I130" sqref="I130:I134"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,338 +5143,634 @@
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="13"/>
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="str">
+        <f>"20.03.2018"</f>
+        <v>20.03.2018</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>435</v>
+      </c>
       <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="16"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="str">
+        <f t="shared" ref="A136:A137" si="19">"20.03.2018"</f>
+        <v>20.03.2018</v>
+      </c>
       <c r="B136" s="13"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="16"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3">
+        <v>2</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>20.03.2018</v>
+      </c>
       <c r="B137" s="13"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="13"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3">
+        <v>3</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="str">
+        <f>"14.11.2017"</f>
+        <v>14.11.2017</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>445</v>
+      </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="1"/>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="13"/>
+    <row r="139" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="str">
+        <f>"11.09.2017"</f>
+        <v>11.09.2017</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>446</v>
+      </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
-      <c r="E139" s="3"/>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="1"/>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="13"/>
+    <row r="140" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="str">
+        <f>"26.06.2017"</f>
+        <v>26.06.2017</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>473</v>
+      </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
+      <c r="H140" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="str">
+        <f t="shared" ref="A141:A142" si="20">"26.06.2017"</f>
+        <v>26.06.2017</v>
+      </c>
       <c r="B141" s="13"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
+      <c r="H141" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>26.06.2017</v>
+      </c>
       <c r="B142" s="13"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
+      <c r="E142" s="3">
+        <v>3</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="13"/>
+      <c r="H142" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="str">
+        <f t="shared" ref="A143:A151" si="21">"15.06.2017"</f>
+        <v>15.06.2017</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>447</v>
+      </c>
       <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B144" s="13"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3">
+        <v>2</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B145" s="13"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="16"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3">
+        <v>3</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B146" s="13"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="16"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3">
+        <v>4</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B147" s="13"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
+        <v>5</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B148" s="13"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="16"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3">
+        <v>6</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B149" s="13"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="16"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3">
+        <v>7</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B150" s="13"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="16"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3">
+        <v>8</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
       <c r="B151" s="13"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="16"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="13"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3">
+        <v>9</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="str">
+        <f>"05.05.2017"</f>
+        <v>05.05.2017</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>482</v>
+      </c>
       <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="16"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="str">
+        <f t="shared" ref="A153:A157" si="22">"05.05.2017"</f>
+        <v>05.05.2017</v>
+      </c>
       <c r="B153" s="13"/>
       <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="16"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>05.05.2017</v>
+      </c>
       <c r="B154" s="13"/>
       <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="16"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3">
+        <v>3</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>05.05.2017</v>
+      </c>
       <c r="B155" s="13"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="16"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3">
+        <v>4</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>05.05.2017</v>
+      </c>
       <c r="B156" s="13"/>
       <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="16"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3">
+        <v>5</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>05.05.2017</v>
+      </c>
       <c r="B157" s="13"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="16"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3">
+        <v>6</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="13"/>
+      <c r="A158" s="9" t="str">
+        <f>"13.03.2017"</f>
+        <v>13.03.2017</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>500</v>
+      </c>
       <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="16"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="13"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="str">
+        <f>"29.11.2016"</f>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>501</v>
+      </c>
       <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="16"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="str">
+        <f t="shared" ref="A160:A163" si="23">"29.11.2016"</f>
+        <v>29.11.2016</v>
+      </c>
       <c r="B160" s="13"/>
       <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="16"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3">
+        <v>2</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>29.11.2016</v>
+      </c>
       <c r="B161" s="13"/>
       <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="16"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3">
+        <v>3</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>29.11.2016</v>
+      </c>
       <c r="B162" s="13"/>
       <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="16"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3">
+        <v>4</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H162" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>29.11.2016</v>
+      </c>
       <c r="B163" s="13"/>
       <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="16"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3">
+        <v>5</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
+      <c r="A164" s="9" t="str">
+        <f>"14.11.2016"</f>
+        <v>14.11.2016</v>
+      </c>
       <c r="B164" s="13"/>
       <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
+      <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="16"/>
+      <c r="I164" s="12"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
+      <c r="A165" s="9" t="str">
+        <f>"17.10.2016"</f>
+        <v>17.10.2016</v>
+      </c>
       <c r="B165" s="13"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -7824,26 +8377,26 @@
       <c r="I401" s="16"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" s="10"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="2"/>
+      <c r="A402" s="9"/>
+      <c r="B402" s="13"/>
+      <c r="C402" s="11"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="3"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
-      <c r="H402" s="14"/>
-      <c r="I402" s="2"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="16"/>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403" s="10"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="2"/>
+      <c r="A403" s="9"/>
+      <c r="B403" s="13"/>
+      <c r="C403" s="11"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="3"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
-      <c r="H403" s="14"/>
-      <c r="I403" s="2"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="16"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="10"/>
@@ -13795,6 +14348,28 @@
       <c r="G944" s="4"/>
       <c r="H944" s="14"/>
       <c r="I944" s="2"/>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A945" s="10"/>
+      <c r="B945" s="6"/>
+      <c r="C945" s="4"/>
+      <c r="D945" s="4"/>
+      <c r="E945" s="2"/>
+      <c r="F945" s="4"/>
+      <c r="G945" s="4"/>
+      <c r="H945" s="14"/>
+      <c r="I945" s="2"/>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A946" s="10"/>
+      <c r="B946" s="6"/>
+      <c r="C946" s="4"/>
+      <c r="D946" s="4"/>
+      <c r="E946" s="2"/>
+      <c r="F946" s="4"/>
+      <c r="G946" s="4"/>
+      <c r="H946" s="14"/>
+      <c r="I946" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="520">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -1570,6 +1570,15 @@
   </si>
   <si>
     <t>5_Aghlmandi.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Synthesis of Evidence: Observational studies and Meta-analysis</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Missing Data and Graphical Models</t>
+  </si>
+  <si>
+    <t>9_Moffa.pdf</t>
   </si>
 </sst>
 </file>
@@ -1687,18 +1696,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2042,8 +2040,8 @@
   <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,7 +3332,9 @@
       <c r="H52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I52" s="16"/>
+      <c r="I52" s="16" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
@@ -5754,27 +5754,35 @@
         <v>516</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
         <f>"14.11.2016"</f>
         <v>14.11.2016</v>
       </c>
-      <c r="B164" s="13"/>
+      <c r="B164" s="13" t="s">
+        <v>517</v>
+      </c>
       <c r="C164" s="11"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
       <c r="F164" s="4"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
         <f>"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
-      <c r="B165" s="13"/>
+      <c r="B165" s="13" t="s">
+        <v>518</v>
+      </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="1"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="533">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -786,9 +786,6 @@
     <t>BBS Virtual Seminar: Impact of COVID-19 on clinical trials</t>
   </si>
   <si>
-    <t>Frank Pétavy</t>
-  </si>
-  <si>
     <t>Natalie Dimier</t>
   </si>
   <si>
@@ -1579,6 +1576,48 @@
   </si>
   <si>
     <t>9_Moffa.pdf</t>
+  </si>
+  <si>
+    <t>PSI/BBS One Day Meeting: Time-to-Event and Recurrent Event Endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBS Seminar: Adaptive Designs </t>
+  </si>
+  <si>
+    <t>Frank Petavy</t>
+  </si>
+  <si>
+    <t>1_Koenig.pdf</t>
+  </si>
+  <si>
+    <t>2_Bauer.pdf</t>
+  </si>
+  <si>
+    <t>3_Lawrence.pdf</t>
+  </si>
+  <si>
+    <t>Franz König</t>
+  </si>
+  <si>
+    <t>Peter Bauer</t>
+  </si>
+  <si>
+    <t>David Lawrence</t>
+  </si>
+  <si>
+    <t>Alexander Strasak</t>
+  </si>
+  <si>
+    <t>Regulatory and methodological issues in adaptive designs for confirmatory trials</t>
+  </si>
+  <si>
+    <t>DMC membership experience</t>
+  </si>
+  <si>
+    <t>Using a DMC for dose selection in a phase IIb/III adaptive design: the INHANCE study</t>
+  </si>
+  <si>
+    <t>Adaptive seamless phase II/III study in gastric cancer</t>
   </si>
 </sst>
 </file>
@@ -2040,8 +2079,8 @@
   <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2087,7 +2126,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3333,7 +3372,7 @@
         <v>191</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,16 +3803,16 @@
         <v>1</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>255</v>
+        <v>521</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3788,16 +3827,16 @@
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>264</v>
-      </c>
       <c r="I71" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3812,16 +3851,16 @@
         <v>3</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3836,16 +3875,16 @@
         <v>4</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3860,16 +3899,16 @@
         <v>5</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3884,16 +3923,16 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3902,7 +3941,7 @@
         <v>04.02.2020</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -3910,14 +3949,14 @@
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3932,14 +3971,14 @@
         <v>2</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3954,14 +3993,14 @@
         <v>3</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3976,14 +4015,14 @@
         <v>4</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3998,11 +4037,11 @@
         <v>5</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I80" s="16"/>
     </row>
@@ -4018,11 +4057,11 @@
         <v>6</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I81" s="16"/>
     </row>
@@ -4032,24 +4071,24 @@
         <v>01.11.2019</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4064,14 +4103,14 @@
         <v>2</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4086,14 +4125,14 @@
         <v>3</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4108,14 +4147,14 @@
         <v>4</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4134,10 +4173,10 @@
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -4152,11 +4191,11 @@
         <v>6</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4171,14 +4210,14 @@
         <v>7</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4193,14 +4232,14 @@
         <v>8</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4215,14 +4254,14 @@
         <v>9</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4231,7 +4270,7 @@
         <v>21.08.2019</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="3"/>
@@ -4239,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H91" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H91" s="17" t="s">
-        <v>323</v>
-      </c>
       <c r="I91" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4260,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H92" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="H92" s="17" t="s">
-        <v>325</v>
-      </c>
       <c r="I92" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4281,10 +4320,10 @@
         <v>3</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H93" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4299,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I94" s="16"/>
     </row>
@@ -4318,10 +4357,10 @@
         <v>5</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I95" s="16"/>
     </row>
@@ -4340,7 +4379,7 @@
         <v>146</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I96" s="16"/>
     </row>
@@ -4359,10 +4398,10 @@
         <v>179</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -4371,7 +4410,7 @@
         <v>04.06.2019</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="3"/>
@@ -4379,10 +4418,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4397,13 +4436,13 @@
         <v>2</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H99" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="H99" s="17" t="s">
-        <v>340</v>
-      </c>
       <c r="I99" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4418,13 +4457,13 @@
         <v>3</v>
       </c>
       <c r="F100" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H100" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="H100" s="17" t="s">
-        <v>342</v>
-      </c>
       <c r="I100" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4439,13 +4478,13 @@
         <v>4</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H101" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="H101" s="17" t="s">
-        <v>344</v>
-      </c>
       <c r="I101" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4460,13 +4499,13 @@
         <v>5</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4481,13 +4520,13 @@
         <v>6</v>
       </c>
       <c r="F103" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="H103" s="17" t="s">
-        <v>347</v>
-      </c>
       <c r="I103" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -4502,13 +4541,13 @@
         <v>7</v>
       </c>
       <c r="F104" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H104" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="H104" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="I104" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4523,13 +4562,13 @@
         <v>8</v>
       </c>
       <c r="F105" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H105" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="H105" s="17" t="s">
-        <v>351</v>
-      </c>
       <c r="I105" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
@@ -4538,7 +4577,7 @@
         <v>10.05.2019</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="3"/>
@@ -4546,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="F106" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H106" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="H106" s="17" t="s">
-        <v>363</v>
-      </c>
       <c r="I106" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4567,13 +4606,13 @@
         <v>2</v>
       </c>
       <c r="F107" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H107" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="H107" s="17" t="s">
-        <v>365</v>
-      </c>
       <c r="I107" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4588,13 +4627,13 @@
         <v>3</v>
       </c>
       <c r="F108" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H108" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="H108" s="17" t="s">
-        <v>367</v>
-      </c>
       <c r="I108" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4609,13 +4648,13 @@
         <v>4</v>
       </c>
       <c r="F109" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H109" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="H109" s="17" t="s">
-        <v>369</v>
-      </c>
       <c r="I109" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4630,13 +4669,13 @@
         <v>5</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H110" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="H110" s="17" t="s">
-        <v>371</v>
-      </c>
       <c r="I110" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4651,13 +4690,13 @@
         <v>6</v>
       </c>
       <c r="F111" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H111" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="H111" s="17" t="s">
-        <v>373</v>
-      </c>
       <c r="I111" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4672,13 +4711,13 @@
         <v>7</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4693,13 +4732,13 @@
         <v>8</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H113" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="H113" s="17" t="s">
-        <v>376</v>
-      </c>
       <c r="I113" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4714,13 +4753,13 @@
         <v>9</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4735,13 +4774,13 @@
         <v>10</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4756,10 +4795,10 @@
         <v>11</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4777,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4786,7 +4825,7 @@
         <v>27.06.2018</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="3"/>
@@ -4797,7 +4836,7 @@
         <v>27</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>53</v>
@@ -4815,10 +4854,10 @@
         <v>2</v>
       </c>
       <c r="F119" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H119" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="H119" s="17" t="s">
-        <v>392</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>54</v>
@@ -4836,13 +4875,13 @@
         <v>3</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4857,13 +4896,13 @@
         <v>4</v>
       </c>
       <c r="F121" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H121" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="H121" s="17" t="s">
-        <v>395</v>
-      </c>
       <c r="I121" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4881,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4899,13 +4938,13 @@
         <v>6</v>
       </c>
       <c r="F123" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H123" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="H123" s="17" t="s">
-        <v>398</v>
-      </c>
       <c r="I123" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4920,13 +4959,13 @@
         <v>7</v>
       </c>
       <c r="F124" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H124" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="H124" s="17" t="s">
-        <v>400</v>
-      </c>
       <c r="I124" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4944,10 +4983,10 @@
         <v>97</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4962,13 +5001,13 @@
         <v>9</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4977,7 +5016,7 @@
         <v>26.06.2018</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="3"/>
@@ -4985,13 +5024,13 @@
         <v>1</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5006,13 +5045,13 @@
         <v>2</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5030,10 +5069,10 @@
         <v>41</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="57" x14ac:dyDescent="0.25">
@@ -5042,7 +5081,7 @@
         <v>17.04.2018</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="3"/>
@@ -5050,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5071,13 +5110,13 @@
         <v>2</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5092,13 +5131,13 @@
         <v>3</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5113,13 +5152,13 @@
         <v>4</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5137,10 +5176,10 @@
         <v>10</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5149,7 +5188,7 @@
         <v>20.03.2018</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="3"/>
@@ -5157,13 +5196,13 @@
         <v>1</v>
       </c>
       <c r="F135" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H135" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="H135" s="15" t="s">
-        <v>437</v>
-      </c>
       <c r="I135" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5178,13 +5217,13 @@
         <v>2</v>
       </c>
       <c r="F136" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H136" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="H136" s="15" t="s">
-        <v>439</v>
-      </c>
       <c r="I136" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5199,13 +5238,13 @@
         <v>3</v>
       </c>
       <c r="F137" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H137" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="H137" s="15" t="s">
-        <v>441</v>
-      </c>
       <c r="I137" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -5214,7 +5253,7 @@
         <v>14.11.2017</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -5232,7 +5271,7 @@
         <v>11.09.2017</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -5250,7 +5289,7 @@
         <v>26.06.2017</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -5258,14 +5297,14 @@
         <v>1</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -5280,14 +5319,14 @@
         <v>2</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -5302,14 +5341,14 @@
         <v>3</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
@@ -5318,7 +5357,7 @@
         <v>15.06.2017</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="3"/>
@@ -5326,13 +5365,13 @@
         <v>1</v>
       </c>
       <c r="F143" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H143" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="H143" s="15" t="s">
-        <v>449</v>
-      </c>
       <c r="I143" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5347,13 +5386,13 @@
         <v>2</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5368,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5389,13 +5428,13 @@
         <v>4</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5413,10 +5452,10 @@
         <v>121</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5431,13 +5470,13 @@
         <v>6</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5452,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5476,10 +5515,10 @@
         <v>209</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5494,13 +5533,13 @@
         <v>9</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -5509,7 +5548,7 @@
         <v>05.05.2017</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="3"/>
@@ -5517,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H152" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I152" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="I152" s="12" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5538,13 +5577,13 @@
         <v>2</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5559,13 +5598,13 @@
         <v>3</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -5580,13 +5619,13 @@
         <v>4</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5601,13 +5640,13 @@
         <v>5</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5625,10 +5664,10 @@
         <v>10</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5637,7 +5676,7 @@
         <v>13.03.2017</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="3"/>
@@ -5653,7 +5692,7 @@
         <v>29.11.2016</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="3"/>
@@ -5661,13 +5700,13 @@
         <v>1</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H159" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="I159" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5682,13 +5721,13 @@
         <v>2</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5703,13 +5742,13 @@
         <v>3</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5724,13 +5763,13 @@
         <v>4</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5745,13 +5784,13 @@
         <v>5</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
@@ -5760,7 +5799,7 @@
         <v>14.11.2016</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="3"/>
@@ -5776,7 +5815,7 @@
         <v>17.10.2016</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -5788,59 +5827,110 @@
       <c r="H165" s="1"/>
       <c r="I165" s="16"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="13"/>
+    <row r="166" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="str">
+        <f>"14.09.2016"</f>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>519</v>
+      </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="3"/>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="1"/>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="13"/>
+    <row r="167" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="str">
+        <f>"04.05.2016"</f>
+        <v>04.05.2016</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>520</v>
+      </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="4"/>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>525</v>
+      </c>
       <c r="G167" s="4"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="16"/>
+      <c r="H167" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I167" s="16" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
+      <c r="A168" s="9" t="str">
+        <f>"04.05.2016"</f>
+        <v>04.05.2016</v>
+      </c>
       <c r="B168" s="13"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="4"/>
+      <c r="E168" s="3">
+        <v>2</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="16"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
+      <c r="H168" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I168" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="str">
+        <f>"04.05.2016"</f>
+        <v>04.05.2016</v>
+      </c>
       <c r="B169" s="13"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="4"/>
+      <c r="E169" s="3">
+        <v>3</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="G169" s="4"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="16"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
+      <c r="H169" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I169" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="str">
+        <f>"04.05.2016"</f>
+        <v>04.05.2016</v>
+      </c>
       <c r="B170" s="13"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="4"/>
+      <c r="E170" s="3">
+        <v>4</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="G170" s="4"/>
-      <c r="H170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="I170" s="16"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="577">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -1618,6 +1618,138 @@
   </si>
   <si>
     <t>Adaptive seamless phase II/III study in gastric cancer</t>
+  </si>
+  <si>
+    <t>BBS Spring Seminar</t>
+  </si>
+  <si>
+    <t>Beat Neuenschwander</t>
+  </si>
+  <si>
+    <t>Melissa Penny</t>
+  </si>
+  <si>
+    <t>Iain Bennett</t>
+  </si>
+  <si>
+    <t>Viktoriya Stalbovskaya</t>
+  </si>
+  <si>
+    <t>Daniel Sabanes</t>
+  </si>
+  <si>
+    <t>Karine Lheritier</t>
+  </si>
+  <si>
+    <t>Alessandro Matano</t>
+  </si>
+  <si>
+    <t>Event projection: quantify uncertainty and manage expectations of broader teams</t>
+  </si>
+  <si>
+    <t>Predicting milestone events for time-to-event trials</t>
+  </si>
+  <si>
+    <t>Model-based public health impact and cost-effectiveness estimates informing the WHO recommendation on malaria vaccine RTS</t>
+  </si>
+  <si>
+    <t>Designing in Treatment Switching (case study review and recommendations) (presentation not available)</t>
+  </si>
+  <si>
+    <t>Practical aspects of handling treatment switching in randomized clinical trials</t>
+  </si>
+  <si>
+    <t>Cancer immunotherapies: Which efficacy endpoints and statistical analyses to use?</t>
+  </si>
+  <si>
+    <t>Non-Proportional Hazards – So What?</t>
+  </si>
+  <si>
+    <t>Complex study design in patients with Hereditary Periodic Fevers</t>
+  </si>
+  <si>
+    <t>Bayesian dual endpoint decision making in combination studies</t>
+  </si>
+  <si>
+    <t>Bayesian approach for Combination Phase I Trials in Oncology (presentation not available)</t>
+  </si>
+  <si>
+    <t>2_Neuenschwander.pdf</t>
+  </si>
+  <si>
+    <t>5_Stalbovskaya.pdf</t>
+  </si>
+  <si>
+    <t>6_Sabanes.pdf</t>
+  </si>
+  <si>
+    <t>7_Stone.pdf</t>
+  </si>
+  <si>
+    <t>9_Dejardin.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Disease and Product Registries</t>
+  </si>
+  <si>
+    <t>Eva‐Maria Didden</t>
+  </si>
+  <si>
+    <t>Heiner C. Bucher</t>
+  </si>
+  <si>
+    <t>Yvonne Geissbühler</t>
+  </si>
+  <si>
+    <t>Brian Hennessy</t>
+  </si>
+  <si>
+    <t>Helene Karcher</t>
+  </si>
+  <si>
+    <t>Clinical registries: Use and Emerging Best Practices</t>
+  </si>
+  <si>
+    <t>Learning and Predicting Real‐World Treatment Effect based on Randomized Controlled Trials and Registry Data – A Case Study in Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Making Better Use of Registry Data in Designing Pragmatic Trials</t>
+  </si>
+  <si>
+    <t>Use of Registries to Collect Pregnancy Data</t>
+  </si>
+  <si>
+    <t>Registries in Rare Diseases / Orphan Drugs along with 2 Case Studies – presentation currently not available</t>
+  </si>
+  <si>
+    <t>Leveraging Real‐World Registry Data to Optimize the Design of Phase 3 Studies – a Case Study in Schizophrenia</t>
+  </si>
+  <si>
+    <t>1_Friede.pdf</t>
+  </si>
+  <si>
+    <t>2_Didden.pdf</t>
+  </si>
+  <si>
+    <t>3_Bucher.pdf</t>
+  </si>
+  <si>
+    <t>4_Geissbuehler.pdf</t>
+  </si>
+  <si>
+    <t>6_Karcher.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Prediction</t>
+  </si>
+  <si>
+    <t>Bayesian Predictive Power: the bathtub problem</t>
+  </si>
+  <si>
+    <t>Designing Phase 2 to predict success in Phase 3 study</t>
+  </si>
+  <si>
+    <t>2_Degtyarev.pdf</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1730,6 +1862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2079,8 +2212,8 @@
   <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5931,205 +6064,392 @@
       <c r="H170" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="I170" s="16"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="13"/>
+      <c r="I170" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="str">
+        <f>"28.04.2016"</f>
+        <v>28.04.2016</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>533</v>
+      </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="4"/>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G171" s="4"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="16"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
+      <c r="H171" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="str">
+        <f t="shared" ref="A172:A180" si="24">"28.04.2016"</f>
+        <v>28.04.2016</v>
+      </c>
       <c r="B172" s="13"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="4"/>
+      <c r="E172" s="3">
+        <v>2</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="G172" s="4"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="16"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
+      <c r="H172" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B173" s="13"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="4"/>
+      <c r="E173" s="3">
+        <v>3</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="G173" s="4"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="16"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
+      <c r="H173" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B174" s="13"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
+      <c r="E174" s="3">
+        <v>4</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>536</v>
+      </c>
       <c r="G174" s="4"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="16"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
+      <c r="H174" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B175" s="13"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="4"/>
+      <c r="E175" s="3">
+        <v>5</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="G175" s="4"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="16"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
+      <c r="H175" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B176" s="13"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="4"/>
+      <c r="E176" s="3">
+        <v>6</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>538</v>
+      </c>
       <c r="G176" s="4"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="16"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
+      <c r="H176" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B177" s="13"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="4"/>
+      <c r="E177" s="3">
+        <v>7</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="G177" s="4"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="16"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
+      <c r="H177" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B178" s="13"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="4"/>
+      <c r="E178" s="3">
+        <v>8</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="16"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
+      <c r="H178" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B179" s="13"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="4"/>
+      <c r="E179" s="3">
+        <v>9</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="16"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
+      <c r="H179" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
       <c r="B180" s="13"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="4"/>
+      <c r="E180" s="3">
+        <v>10</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="16"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="13"/>
+      <c r="H180" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I180" s="9"/>
+    </row>
+    <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="str">
+        <f>"13.01.2016"</f>
+        <v>13.01.2016</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>556</v>
+      </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="4"/>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G181" s="4"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="16"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
+      <c r="H181" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I181" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="str">
+        <f t="shared" ref="A182:A186" si="25">"13.01.2016"</f>
+        <v>13.01.2016</v>
+      </c>
       <c r="B182" s="13"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="4"/>
+      <c r="E182" s="3">
+        <v>2</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="G182" s="4"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="16"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+      <c r="H182" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I182" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>13.01.2016</v>
+      </c>
       <c r="B183" s="13"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="4"/>
+      <c r="E183" s="3">
+        <v>3</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="G183" s="4"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="16"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+      <c r="H183" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>13.01.2016</v>
+      </c>
       <c r="B184" s="13"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="4"/>
+      <c r="E184" s="3">
+        <v>4</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="G184" s="4"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="16"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
+      <c r="H184" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>13.01.2016</v>
+      </c>
       <c r="B185" s="13"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="4"/>
+      <c r="E185" s="3">
+        <v>5</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="G185" s="4"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="16"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
+      <c r="H185" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>13.01.2016</v>
+      </c>
       <c r="B186" s="13"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="4"/>
+      <c r="E186" s="3">
+        <v>6</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="G186" s="4"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="16"/>
+      <c r="H186" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="13"/>
+      <c r="A187" s="9" t="str">
+        <f>"27.10.2015"</f>
+        <v>27.10.2015</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>573</v>
+      </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="16"/>
+      <c r="E187" s="3">
+        <v>1</v>
+      </c>
+      <c r="F187" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="9" t="str">
+        <f>"27.10.2015"</f>
+        <v>27.10.2015</v>
+      </c>
       <c r="B188" s="13"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="16"/>
+      <c r="E188" s="3">
+        <v>2</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="634">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -1749,7 +1749,178 @@
     <t>Designing Phase 2 to predict success in Phase 3 study</t>
   </si>
   <si>
-    <t>2_Degtyarev.pdf</t>
+    <t>Joint BBS/EFSPI Seminar: Health Technology Assessment</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Bayesian Methods in Adaptive Dose-Finding Trials</t>
+  </si>
+  <si>
+    <t>Ying Yuan</t>
+  </si>
+  <si>
+    <t>Daniel Sabanes Bove</t>
+  </si>
+  <si>
+    <t>Bayesian Learning in Oncology: A Case Study</t>
+  </si>
+  <si>
+    <t>Bayesian Data Augmentation Continual Reassessment Method (DA-CRM) for Phase I Trials with Delayed Toxicities</t>
+  </si>
+  <si>
+    <t>Bayesian modelling for combination dose-escalation trial that incorporates pharmacokinetic data</t>
+  </si>
+  <si>
+    <t>2_Yuan.pdf</t>
+  </si>
+  <si>
+    <t>3_Lorand.pdf</t>
+  </si>
+  <si>
+    <t>Joint BBS-EFSPI Seminar: Data Sharing in Clinical Development</t>
+  </si>
+  <si>
+    <t>Sabine Atzor</t>
+  </si>
+  <si>
+    <t> Clinical Trial Data Transparency – Environment &amp; Expectations</t>
+  </si>
+  <si>
+    <t>Stefan Driessen</t>
+  </si>
+  <si>
+    <t> EFSPI position on EMA policy on publication of clinical data</t>
+  </si>
+  <si>
+    <t> Big thunder</t>
+  </si>
+  <si>
+    <t>Rebecca Sudlow</t>
+  </si>
+  <si>
+    <t> Overview of Data Sharing Initiatives in Industry and Current Experiences</t>
+  </si>
+  <si>
+    <t>Janice Branson</t>
+  </si>
+  <si>
+    <t> Practicalities of accessing and using data – Advice for Researchers</t>
+  </si>
+  <si>
+    <t>Sally Hollis</t>
+  </si>
+  <si>
+    <t> Considerations for analysis plans for data sharing requests</t>
+  </si>
+  <si>
+    <t>Katherine Tucker</t>
+  </si>
+  <si>
+    <t> Principles to maintain patient confidentiality</t>
+  </si>
+  <si>
+    <t>Guilliaume Breton</t>
+  </si>
+  <si>
+    <t> Patient Confidentiality Implementation</t>
+  </si>
+  <si>
+    <t>1_Atzor.pdf</t>
+  </si>
+  <si>
+    <t>2_Driessen.pdf</t>
+  </si>
+  <si>
+    <t>3_Koenig.pdf</t>
+  </si>
+  <si>
+    <t>4_Sudlow.pdf</t>
+  </si>
+  <si>
+    <t>5_Branson.pdf</t>
+  </si>
+  <si>
+    <t>6_Hollis.pdf</t>
+  </si>
+  <si>
+    <t>7_Tucker.pdf</t>
+  </si>
+  <si>
+    <t>8_Breton.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Meta-Analysis of Clinical Safety Data</t>
+  </si>
+  <si>
+    <t>Stephen Evans</t>
+  </si>
+  <si>
+    <t> Do meta-analyses of adverse events have adverse effects?</t>
+  </si>
+  <si>
+    <t>Brenda Crowe</t>
+  </si>
+  <si>
+    <t> Comparison of Bayesian and Frequentist Meta-Analytical Approaches for Analyzing Time to Event Data</t>
+  </si>
+  <si>
+    <t>Michael Gaffney</t>
+  </si>
+  <si>
+    <t> Model Selection in Meta‐Analysis of Clinical Safety Data – Fixed or Random Study Effect</t>
+  </si>
+  <si>
+    <t>Amy Xia</t>
+  </si>
+  <si>
+    <t> Bayesian Meta-Analysis in Drug Safety Evaluation</t>
+  </si>
+  <si>
+    <t>Jim Slattery</t>
+  </si>
+  <si>
+    <t> Meta-analysis in EU regulation</t>
+  </si>
+  <si>
+    <t>Tarek A. Hammad</t>
+  </si>
+  <si>
+    <t> Sources of Bias in Meta-analysis of RCTs</t>
+  </si>
+  <si>
+    <t>Mark Levenson</t>
+  </si>
+  <si>
+    <t> Meta‐Analysis for Safety: Context and Examples at US FDA</t>
+  </si>
+  <si>
+    <t>2_Crowe.pdf</t>
+  </si>
+  <si>
+    <t>3_Gaffney.pdf</t>
+  </si>
+  <si>
+    <t>4_Xia.pdf</t>
+  </si>
+  <si>
+    <t>5_Slattery.pdf</t>
+  </si>
+  <si>
+    <t>6_Hammad.pdf</t>
+  </si>
+  <si>
+    <t>7_Levenson.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Applications for statisticians working with "Real-World Data"</t>
+  </si>
+  <si>
+    <t>BBS seminar: Adaptive / Flexible Designs in early development</t>
+  </si>
+  <si>
+    <t>Pamela Landsman-Blumberg</t>
+  </si>
+  <si>
+    <t>Applications for statisticians working with “Real-World Data”</t>
   </si>
 </sst>
 </file>
@@ -2212,8 +2383,8 @@
   <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6384,6 +6555,7 @@
       <c r="H185" s="1" t="s">
         <v>566</v>
       </c>
+      <c r="I185" s="12"/>
     </row>
     <row r="186" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="str">
@@ -6407,7 +6579,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="str">
         <f>"27.10.2015"</f>
         <v>27.10.2015</v>
@@ -6420,17 +6592,18 @@
       <c r="E187" s="3">
         <v>1</v>
       </c>
-      <c r="F187" s="18" t="s">
+      <c r="F187" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H187" s="4" t="s">
+      <c r="G187" s="4"/>
+      <c r="H187" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="I187" s="7" t="s">
+      <c r="I187" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
         <f>"27.10.2015"</f>
         <v>27.10.2015</v>
@@ -6441,242 +6614,452 @@
       <c r="E188" s="3">
         <v>2</v>
       </c>
-      <c r="F188" s="12" t="s">
+      <c r="F188" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H188" s="4" t="s">
+      <c r="G188" s="4"/>
+      <c r="H188" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="I188" s="7" t="s">
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="str">
+        <f>"23.06.2015"</f>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B189" s="13" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="13"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
-      <c r="E189" s="3"/>
+      <c r="E189" s="3">
+        <v>1</v>
+      </c>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="1"/>
-      <c r="I189" s="16"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="13"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="str">
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>577</v>
+      </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="16"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="str">
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
+      </c>
       <c r="B191" s="13"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="16"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
+      <c r="E191" s="3">
+        <v>2</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="str">
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
+      </c>
       <c r="B192" s="13"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="16"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="13"/>
+      <c r="E192" s="3">
+        <v>3</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I192" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="str">
+        <f>"13.11.2014"</f>
+        <v>13.11.2014</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>585</v>
+      </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="16"/>
+      <c r="E193" s="3">
+        <v>1</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="I193" s="12" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="9" t="str">
+        <f t="shared" ref="A194:A200" si="26">"13.11.2014"</f>
+        <v>13.11.2014</v>
+      </c>
       <c r="B194" s="13"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="16"/>
+      <c r="E194" s="3">
+        <v>2</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="I194" s="12" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
+      <c r="A195" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
       <c r="B195" s="13"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="16"/>
+      <c r="E195" s="3">
+        <v>3</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
       <c r="B196" s="13"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="16"/>
+      <c r="E196" s="3">
+        <v>4</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
+      <c r="A197" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
       <c r="B197" s="13"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="16"/>
+      <c r="E197" s="3">
+        <v>5</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="I197" s="16" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
       <c r="B198" s="13"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="16"/>
+      <c r="E198" s="3">
+        <v>6</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="I198" s="16" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
+      <c r="A199" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
       <c r="B199" s="13"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="16"/>
+      <c r="E199" s="3">
+        <v>7</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="I199" s="16" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
       <c r="B200" s="13"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="16"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
-      <c r="B201" s="13"/>
+      <c r="E200" s="3">
+        <v>8</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I200" s="16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="str">
+        <f>"02.10.2014"</f>
+        <v>02.10.2014</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>609</v>
+      </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="16"/>
+      <c r="E201" s="3">
+        <v>1</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="I201" s="16" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
+      <c r="A202" s="9" t="str">
+        <f t="shared" ref="A202:A207" si="27">"02.10.2014"</f>
+        <v>02.10.2014</v>
+      </c>
       <c r="B202" s="13"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="16"/>
+      <c r="E202" s="3">
+        <v>2</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="I202" s="16" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
+      <c r="A203" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
       <c r="B203" s="13"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="16"/>
+      <c r="E203" s="3">
+        <v>3</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="I203" s="16" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+      <c r="A204" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
       <c r="B204" s="13"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="16"/>
+      <c r="E204" s="3">
+        <v>4</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="I204" s="16" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
+      <c r="A205" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
       <c r="B205" s="13"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="16"/>
+      <c r="E205" s="3">
+        <v>5</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="I205" s="16" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
       <c r="B206" s="13"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="16"/>
+      <c r="E206" s="3">
+        <v>6</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="I206" s="16" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
+      <c r="A207" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
       <c r="B207" s="13"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="16"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
-      <c r="B208" s="13"/>
+      <c r="E207" s="3">
+        <v>7</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="I207" s="16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="str">
+        <f>"07.05.2014"</f>
+        <v>07.05.2014</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>630</v>
+      </c>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="4"/>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>632</v>
+      </c>
       <c r="G208" s="4"/>
-      <c r="H208" s="1"/>
+      <c r="H208" s="15" t="s">
+        <v>633</v>
+      </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
-      <c r="B209" s="13"/>
+    <row r="209" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="str">
+        <f>"04.02.2014"</f>
+        <v>04.02.2014</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>631</v>
+      </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
-      <c r="E209" s="3"/>
+      <c r="E209" s="3">
+        <v>1</v>
+      </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="1"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="679">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -1815,9 +1815,6 @@
     <t>Katherine Tucker</t>
   </si>
   <si>
-    <t> Principles to maintain patient confidentiality</t>
-  </si>
-  <si>
     <t>Guilliaume Breton</t>
   </si>
   <si>
@@ -1921,6 +1918,144 @@
   </si>
   <si>
     <t>Applications for statisticians working with “Real-World Data”</t>
+  </si>
+  <si>
+    <t>BBS Seminar: IPD meta-analysis of treatment-covariate interaction with a continuous predictor</t>
+  </si>
+  <si>
+    <t>1_Sauerbrei.pdf</t>
+  </si>
+  <si>
+    <t>3_Sauerbrei.pdf</t>
+  </si>
+  <si>
+    <t>Summary of event</t>
+  </si>
+  <si>
+    <t>Willi Sauerbrei, Patrick Royston, Benjamin Kasenda and Matthias Briel</t>
+  </si>
+  <si>
+    <t>A method for IPD meta-analysis of treatment-covariate interaction with a continuous predictor in randomised trials</t>
+  </si>
+  <si>
+    <t>Willi Sauerbrei and Patrick Royston</t>
+  </si>
+  <si>
+    <t>Towards stratified medicine – instead of dichotomization</t>
+  </si>
+  <si>
+    <t>A new strategy for meta-analysis of continuous covariates in observational studies with IPD</t>
+  </si>
+  <si>
+    <t> Health Technology Assessment – Why is it so important?</t>
+  </si>
+  <si>
+    <t>Matthias Egger and Mike Chambers</t>
+  </si>
+  <si>
+    <t> Moving HTA forward: The challenges of incorporating real world evidence into Health Technology Assessment</t>
+  </si>
+  <si>
+    <t>Mike Chambers and Matthias Egger</t>
+  </si>
+  <si>
+    <t> GetReal: Clinical effectiveness in drug development</t>
+  </si>
+  <si>
+    <t>Claudia Nicolay</t>
+  </si>
+  <si>
+    <t> Health Technology Assessment – What’s in for Stats?</t>
+  </si>
+  <si>
+    <t>Jens Grüger</t>
+  </si>
+  <si>
+    <t> HTA and personalized healthcare</t>
+  </si>
+  <si>
+    <t>Skip Olson</t>
+  </si>
+  <si>
+    <t> HTA – Use of observational</t>
+  </si>
+  <si>
+    <t>Bruno Falissard</t>
+  </si>
+  <si>
+    <t> The place of subjectivity in the French system (HAS): a good thing or an archaism?</t>
+  </si>
+  <si>
+    <t> Biometrical topics of Health Technology Assessment in Germany</t>
+  </si>
+  <si>
+    <t>Friedhelm Leverkus</t>
+  </si>
+  <si>
+    <t> 30 Months AMNOG Health Technology Assessment: Outcomes and Issues</t>
+  </si>
+  <si>
+    <t>Lou Garrison</t>
+  </si>
+  <si>
+    <t> HTA in Emerging Markets: A Framework and Examples</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t> Using early health economic models to support drug development decisions</t>
+  </si>
+  <si>
+    <t> Using indirect treatment comparisons to support an HTA</t>
+  </si>
+  <si>
+    <t>Mike Branson</t>
+  </si>
+  <si>
+    <t> Principles to maintain patient confidentiality+H211</t>
+  </si>
+  <si>
+    <t>1_Branson.pdf</t>
+  </si>
+  <si>
+    <t>2_Sorensen.pdf</t>
+  </si>
+  <si>
+    <t>3_Egger.pdf</t>
+  </si>
+  <si>
+    <t>4_Chambers.pdf</t>
+  </si>
+  <si>
+    <t>5_Nicolay.pdf</t>
+  </si>
+  <si>
+    <t>6_Grueger.pdf</t>
+  </si>
+  <si>
+    <t>7_Olson.pdf</t>
+  </si>
+  <si>
+    <t>8_Falissard.pdf</t>
+  </si>
+  <si>
+    <t>9_Bender.pdf</t>
+  </si>
+  <si>
+    <t>10_Leverkus.pdf</t>
+  </si>
+  <si>
+    <t>11_Garrison.pdf</t>
+  </si>
+  <si>
+    <t>12_Nixon.pdf</t>
+  </si>
+  <si>
+    <t>13_Fletcher.pdf</t>
+  </si>
+  <si>
+    <t>summary.pdf</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2033,7 +2168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2383,8 +2517,8 @@
   <dimension ref="A1:J946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I213" sqref="I213:I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6719,17 +6853,17 @@
       <c r="E193" s="3">
         <v>1</v>
       </c>
-      <c r="F193" s="12" t="s">
+      <c r="F193" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="H193" s="4" t="s">
+      <c r="H193" s="1" t="s">
         <v>587</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
         <f t="shared" ref="A194:A200" si="26">"13.11.2014"</f>
         <v>13.11.2014</v>
@@ -6740,14 +6874,14 @@
       <c r="E194" s="3">
         <v>2</v>
       </c>
-      <c r="F194" s="12" t="s">
+      <c r="F194" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="H194" s="4" t="s">
+      <c r="H194" s="1" t="s">
         <v>589</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6761,17 +6895,17 @@
       <c r="E195" s="3">
         <v>3</v>
       </c>
-      <c r="F195" s="12" t="s">
+      <c r="F195" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="H195" s="4" t="s">
+      <c r="H195" s="1" t="s">
         <v>590</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="str">
         <f t="shared" si="26"/>
         <v>13.11.2014</v>
@@ -6782,17 +6916,17 @@
       <c r="E196" s="3">
         <v>4</v>
       </c>
-      <c r="F196" s="12" t="s">
+      <c r="F196" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="H196" s="4" t="s">
+      <c r="H196" s="1" t="s">
         <v>592</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
         <f t="shared" si="26"/>
         <v>13.11.2014</v>
@@ -6803,17 +6937,17 @@
       <c r="E197" s="3">
         <v>5</v>
       </c>
-      <c r="F197" s="12" t="s">
+      <c r="F197" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="H197" s="4" t="s">
+      <c r="H197" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="I197" s="16" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I197" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
         <f t="shared" si="26"/>
         <v>13.11.2014</v>
@@ -6824,17 +6958,17 @@
       <c r="E198" s="3">
         <v>6</v>
       </c>
-      <c r="F198" s="12" t="s">
+      <c r="F198" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="H198" s="4" t="s">
+      <c r="H198" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="I198" s="16" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="str">
         <f t="shared" si="26"/>
         <v>13.11.2014</v>
@@ -6845,17 +6979,17 @@
       <c r="E199" s="3">
         <v>7</v>
       </c>
-      <c r="F199" s="12" t="s">
+      <c r="F199" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="H199" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="I199" s="16" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="str">
         <f t="shared" si="26"/>
         <v>13.11.2014</v>
@@ -6866,14 +7000,14 @@
       <c r="E200" s="3">
         <v>8</v>
       </c>
-      <c r="F200" s="12" t="s">
+      <c r="F200" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H200" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="I200" s="16" t="s">
-        <v>608</v>
+      <c r="I200" s="12" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -6882,24 +7016,24 @@
         <v>02.10.2014</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="3">
         <v>1</v>
       </c>
-      <c r="F201" s="12" t="s">
+      <c r="F201" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="H201" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H201" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="I201" s="16" t="s">
+      <c r="I201" s="12" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
         <f t="shared" ref="A202:A207" si="27">"02.10.2014"</f>
         <v>02.10.2014</v>
@@ -6910,17 +7044,17 @@
       <c r="E202" s="3">
         <v>2</v>
       </c>
-      <c r="F202" s="12" t="s">
+      <c r="F202" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="H202" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="H202" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="I202" s="16" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I202" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
         <f t="shared" si="27"/>
         <v>02.10.2014</v>
@@ -6931,17 +7065,17 @@
       <c r="E203" s="3">
         <v>3</v>
       </c>
-      <c r="F203" s="12" t="s">
+      <c r="F203" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="H203" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="I203" s="16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I203" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
         <f t="shared" si="27"/>
         <v>02.10.2014</v>
@@ -6952,14 +7086,14 @@
       <c r="E204" s="3">
         <v>4</v>
       </c>
-      <c r="F204" s="12" t="s">
+      <c r="F204" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="H204" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="I204" s="16" t="s">
-        <v>626</v>
+      <c r="I204" s="12" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6973,17 +7107,17 @@
       <c r="E205" s="3">
         <v>5</v>
       </c>
-      <c r="F205" s="12" t="s">
+      <c r="F205" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H205" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="I205" s="16" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I205" s="12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="str">
         <f t="shared" si="27"/>
         <v>02.10.2014</v>
@@ -6994,17 +7128,17 @@
       <c r="E206" s="3">
         <v>6</v>
       </c>
-      <c r="F206" s="12" t="s">
+      <c r="F206" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H206" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="I206" s="16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I206" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
         <f t="shared" si="27"/>
         <v>02.10.2014</v>
@@ -7015,14 +7149,14 @@
       <c r="E207" s="3">
         <v>7</v>
       </c>
-      <c r="F207" s="12" t="s">
+      <c r="F207" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H207" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="I207" s="16" t="s">
-        <v>629</v>
+      <c r="I207" s="12" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
@@ -7031,21 +7165,20 @@
         <v>07.05.2014</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="3">
         <v>1</v>
       </c>
-      <c r="F208" s="18" t="s">
+      <c r="F208" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="G208" s="4"/>
-      <c r="H208" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="I208" s="16"/>
+      <c r="I208" s="12"/>
     </row>
     <row r="209" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="str">
@@ -7053,7 +7186,7 @@
         <v>04.02.2014</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -7061,196 +7194,369 @@
         <v>1</v>
       </c>
       <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
       <c r="H209" s="1"/>
-      <c r="I209" s="16"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
-      <c r="B210" s="13"/>
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="str">
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>633</v>
+      </c>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="16"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I210" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="str">
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
+      </c>
       <c r="B211" s="13"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="16"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
+      <c r="E211" s="3">
+        <v>2</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="str">
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
+      </c>
       <c r="B212" s="13"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="16"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
-      <c r="B213" s="13"/>
+      <c r="E212" s="3">
+        <v>3</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I212" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="str">
+        <f>"04.06.2013"</f>
+        <v>04.06.2013</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>576</v>
+      </c>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="16"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
+      <c r="E213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I213" s="12" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="str">
+        <f t="shared" ref="A214:A226" si="28">"04.06.2013"</f>
+        <v>04.06.2013</v>
+      </c>
       <c r="B214" s="13"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="16"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I214" s="12" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B215" s="13"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="16"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+      <c r="E215" s="3">
+        <v>3</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I215" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B216" s="13"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="16"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
+      <c r="E216" s="3">
+        <v>4</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I216" s="12" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B217" s="13"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="16"/>
+      <c r="E217" s="3">
+        <v>5</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I217" s="12" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
+      <c r="A218" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B218" s="13"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="16"/>
+      <c r="E218" s="3">
+        <v>6</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I218" s="12" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
+      <c r="A219" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B219" s="13"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="16"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
+      <c r="E219" s="3">
+        <v>7</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I219" s="12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B220" s="13"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="16"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="9"/>
+      <c r="E220" s="3">
+        <v>8</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I220" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B221" s="13"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="16"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
+      <c r="E221" s="3">
+        <v>9</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I221" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B222" s="13"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="16"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
+      <c r="E222" s="3">
+        <v>10</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I222" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B223" s="13"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="16"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="9"/>
+      <c r="E223" s="3">
+        <v>11</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I223" s="12" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B224" s="13"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="16"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="9"/>
+      <c r="E224" s="3">
+        <v>12</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="I224" s="12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B225" s="13"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="16"/>
+      <c r="E225" s="3">
+        <v>13</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I225" s="12" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
+      <c r="A226" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B226" s="13"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="16"/>
+      <c r="E226" s="3">
+        <v>14</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I226" s="12" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
@@ -7259,9 +7565,8 @@
       <c r="D227" s="11"/>
       <c r="E227" s="3"/>
       <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
       <c r="H227" s="1"/>
-      <c r="I227" s="16"/>
+      <c r="I227" s="12"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
@@ -7270,9 +7575,8 @@
       <c r="D228" s="11"/>
       <c r="E228" s="3"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
       <c r="H228" s="1"/>
-      <c r="I228" s="16"/>
+      <c r="I228" s="12"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="897">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -2056,6 +2056,660 @@
   </si>
   <si>
     <t>summary.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Optimal Design for Non-linear Models</t>
+  </si>
+  <si>
+    <t>Experiments for Building Enzyme Kinetic Models</t>
+  </si>
+  <si>
+    <t>Optimal Population Designs for Non-linear Mixed Effects Models</t>
+  </si>
+  <si>
+    <t>Anthony Atkinson</t>
+  </si>
+  <si>
+    <t>London School of Economics</t>
+  </si>
+  <si>
+    <t>Tobias Mielke</t>
+  </si>
+  <si>
+    <t>Aptiv Solutions</t>
+  </si>
+  <si>
+    <t>Barbara Bogacka</t>
+  </si>
+  <si>
+    <t>Queen Mary College, University of London</t>
+  </si>
+  <si>
+    <t>Population Optimum Design for Non-linear Mixed Effects Models in the Presence of Covariates</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Benefit-Risk &amp; Comparative Effectiveness</t>
+  </si>
+  <si>
+    <t>Andrea Beyer</t>
+  </si>
+  <si>
+    <t>Christoph Dierig and Richard Nixon</t>
+  </si>
+  <si>
+    <t>Christian Hove Rasmussen</t>
+  </si>
+  <si>
+    <t>Understanding the risk tolerance of regulatory assessors in Europe: the role of quantitative models in risk communication</t>
+  </si>
+  <si>
+    <t>A case study using the BRAT framework for benefit risk assessment</t>
+  </si>
+  <si>
+    <t>Benefit-risk assessment from a clinical point of view: a structured approach with focus on transparency</t>
+  </si>
+  <si>
+    <t>Biometrical requirements in (early) benefit assessments</t>
+  </si>
+  <si>
+    <t>Benefit-risk assessment and comparative effectiveness research: are they really converging?</t>
+  </si>
+  <si>
+    <t>1_Beyer.pdf</t>
+  </si>
+  <si>
+    <t>2_Dierig.pdf</t>
+  </si>
+  <si>
+    <t>3_Rasmussen.pdf</t>
+  </si>
+  <si>
+    <t>4_Bender.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBS Seminar: Emerging Topics in Pharmaceutical Statistics </t>
+  </si>
+  <si>
+    <t>Stephen A. Julious</t>
+  </si>
+  <si>
+    <t>Eric Derobert</t>
+  </si>
+  <si>
+    <t>Lisa Hampson</t>
+  </si>
+  <si>
+    <t>Sample sizes for multiple must-win trials</t>
+  </si>
+  <si>
+    <t>A parameterized strategy of gatekeeping</t>
+  </si>
+  <si>
+    <t>Group sequential tests for delayed responses</t>
+  </si>
+  <si>
+    <t>1_Julious.pdf</t>
+  </si>
+  <si>
+    <t>2_Derobert.pdf</t>
+  </si>
+  <si>
+    <t>Recurrent event approaches in cardiovascular outcome trials</t>
+  </si>
+  <si>
+    <t>Mouna Akacha &amp;  Günther Müller-Velten</t>
+  </si>
+  <si>
+    <t>4_Hampson.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Experiences in the Development and Implementation of Flexible Designs</t>
+  </si>
+  <si>
+    <t>Boris Choy</t>
+  </si>
+  <si>
+    <t>Business School The University of Sydney</t>
+  </si>
+  <si>
+    <t>Nonignorable dropout models for longitudinal binary data with random effects: An application of Monte Carlo approximation through the Gibbs output</t>
+  </si>
+  <si>
+    <t>BBS Seminar</t>
+  </si>
+  <si>
+    <t>Implementing Current Regulatory Guidance on the Treatment of Missing Data: An Industry Perspective</t>
+  </si>
+  <si>
+    <t>BBS Fall Conference: Current Topics in Pharmaceutical Statistics: Dose Finding and Multiregional Trials</t>
+  </si>
+  <si>
+    <t>Andy Grieve</t>
+  </si>
+  <si>
+    <t> Dose Selection in Drug Development: What Can Go Wrong? Can we put it Right?</t>
+  </si>
+  <si>
+    <t>Didier Renard</t>
+  </si>
+  <si>
+    <t> Use of modeling &amp; simulation to support design and analysis of a new dose and regimen finding study</t>
+  </si>
+  <si>
+    <t> On the efficiency of two-stage adaptive designs</t>
+  </si>
+  <si>
+    <t>H.M. James Hung</t>
+  </si>
+  <si>
+    <t> Planning and Analyzing Multi-regional Clinical Trials: A Regulatory Perspective</t>
+  </si>
+  <si>
+    <t>Philip Hougaard</t>
+  </si>
+  <si>
+    <t> Global drug development strategies</t>
+  </si>
+  <si>
+    <t> Designing clinical trials in a multiregional regulatory environment</t>
+  </si>
+  <si>
+    <t>Kevin J. Carroll</t>
+  </si>
+  <si>
+    <t> Consistency of treatment effect across regions in a multi-regional trial: reasonable goal or unrealistic requirement?</t>
+  </si>
+  <si>
+    <t>Jorgen Seldrup</t>
+  </si>
+  <si>
+    <t>1_Grieve.pdf</t>
+  </si>
+  <si>
+    <t>2_Renard.pdf</t>
+  </si>
+  <si>
+    <t>3_Bornkamp.pdf</t>
+  </si>
+  <si>
+    <t>Bjoern Bornkamp</t>
+  </si>
+  <si>
+    <t>Powerful Modification of Step Down Procedures for Dose Finding</t>
+  </si>
+  <si>
+    <t>Georg Gutjahr</t>
+  </si>
+  <si>
+    <t>5_Hung.pdf</t>
+  </si>
+  <si>
+    <t>6_Hougaard.pdf</t>
+  </si>
+  <si>
+    <t>8_Carroll.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar Quantitative Benefit-Risk: What Matters to Whom and How? – Getting the Values and Weights</t>
+  </si>
+  <si>
+    <t>John Ferguson</t>
+  </si>
+  <si>
+    <t>Gordon Francis</t>
+  </si>
+  <si>
+    <t>Lawrence Phillips</t>
+  </si>
+  <si>
+    <t>Structured Benefit-Risk Optimization (BRO): A Framework Quantitative Decision Support Tools</t>
+  </si>
+  <si>
+    <t>Clinical Perspective on Benefit-Risk Assessments</t>
+  </si>
+  <si>
+    <t>Quantitative Benefit-Risk: Determining Values &amp; Assessing Weights</t>
+  </si>
+  <si>
+    <t>Beyond the Probability of Risk: Measuring Perception</t>
+  </si>
+  <si>
+    <t>1_Ferguson.pdf</t>
+  </si>
+  <si>
+    <t>2_Francis.pdf</t>
+  </si>
+  <si>
+    <t>3_Phillips.pdf</t>
+  </si>
+  <si>
+    <t>4_Beyer.pdf</t>
+  </si>
+  <si>
+    <t>BBS Spring Conference: Comparative Quantitative Assessments: Benefit-Risk &amp; Effectiveness</t>
+  </si>
+  <si>
+    <t>Melvin (Skip) Olson</t>
+  </si>
+  <si>
+    <t>John Doyle</t>
+  </si>
+  <si>
+    <t>Deborah Ashby</t>
+  </si>
+  <si>
+    <t>Michael Forstner</t>
+  </si>
+  <si>
+    <t>Industry Perspective on Comparative Effectiveness Research (CER) and the impact of Health Technology Assessment (HTA) in Europe</t>
+  </si>
+  <si>
+    <t>Some Issues with Indirect Comparisons</t>
+  </si>
+  <si>
+    <t>Health Care Reform in Germany and Update on IQWiG Requirements</t>
+  </si>
+  <si>
+    <t>Effect of Comparative Effectiveness Research on Drug Development Innovation: a 360° Appraisal and Summary Discussion</t>
+  </si>
+  <si>
+    <t>Current Methodological Approaches to Benefit-Risk Decision-Making</t>
+  </si>
+  <si>
+    <t>Structured Benefit-Risk Optimization (BRO): State-of-the-art and Role of Fully Quantitative Decision Support Tools</t>
+  </si>
+  <si>
+    <t>Considerations for Implementing a Quantitative Benefit-Risk Assessment</t>
+  </si>
+  <si>
+    <t>Benefit-Risk Assessment of Multiple Sclerosis Treatments: Lessons Learnt in the use of Multi-Criteria Decision Analysis</t>
+  </si>
+  <si>
+    <t>Convergence of CER and BRA and Concluding Summary Discussion</t>
+  </si>
+  <si>
+    <t>2_Olson.pdf</t>
+  </si>
+  <si>
+    <t>3_Leverkus.pdf</t>
+  </si>
+  <si>
+    <t>4_Doyle.pdf</t>
+  </si>
+  <si>
+    <t>5_Ashby.pdf</t>
+  </si>
+  <si>
+    <t>6_Ferguson.pdf</t>
+  </si>
+  <si>
+    <t>7_Forstner.pdf</t>
+  </si>
+  <si>
+    <t>8_Nixon.pdf</t>
+  </si>
+  <si>
+    <t>9_Doyle.pdf</t>
+  </si>
+  <si>
+    <t>BBS Spring Seminar: Multiplicity in Clinical Trials</t>
+  </si>
+  <si>
+    <t>Huque Mohammad</t>
+  </si>
+  <si>
+    <t>Ferber Georg</t>
+  </si>
+  <si>
+    <t>Wolf Michael</t>
+  </si>
+  <si>
+    <t>Maurer Willi / Glimm Ekkehard</t>
+  </si>
+  <si>
+    <t>Some key multiplicity questions on primary and secondary endpoints of RCCTs and possible answers</t>
+  </si>
+  <si>
+    <t>Confirmatory statistics in PK/PD studies</t>
+  </si>
+  <si>
+    <t>Control of the false discovery rate under dependence using the bootstrap and sub sampling</t>
+  </si>
+  <si>
+    <t>Multiple and repeated testing of primary</t>
+  </si>
+  <si>
+    <t>gMCP: A GUI for graphical multiple test procedures</t>
+  </si>
+  <si>
+    <t>Kornelius Rohmeyer</t>
+  </si>
+  <si>
+    <t>1_Huque.pdf</t>
+  </si>
+  <si>
+    <t>2_Ferber.pdf</t>
+  </si>
+  <si>
+    <t>4_Wolf.pdf</t>
+  </si>
+  <si>
+    <t>5_Maurer.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Statistical Challenges in Biomedical Research</t>
+  </si>
+  <si>
+    <t>1_Kalisch.pdf</t>
+  </si>
+  <si>
+    <t>Harald Binder</t>
+  </si>
+  <si>
+    <t>Martin Wolkewitz</t>
+  </si>
+  <si>
+    <t>Fitting and evaluating risk prediction models with high-dimensional molecular data</t>
+  </si>
+  <si>
+    <t>Healthcare epidemiology hospital-acquired infections statistical modeling of outbreaks</t>
+  </si>
+  <si>
+    <t>Kalisch Markus</t>
+  </si>
+  <si>
+    <t> Can one extract causal information from high-dimensional observational data?</t>
+  </si>
+  <si>
+    <t>Sauerbrei Willi</t>
+  </si>
+  <si>
+    <t> Regression model-building with continuous variables – multivariable fractional polynomials</t>
+  </si>
+  <si>
+    <t>BBS Fall Conference</t>
+  </si>
+  <si>
+    <t>Helmut Schäfer</t>
+  </si>
+  <si>
+    <t>University of Marburg</t>
+  </si>
+  <si>
+    <t>Optimized and flexible designs for genome-wide associations studies</t>
+  </si>
+  <si>
+    <t>Maximo Carreras</t>
+  </si>
+  <si>
+    <t>Point Estimation in Two-Stage Adaptive Designs With Mid-Trial Treatment Selection</t>
+  </si>
+  <si>
+    <t>The A to Z of DMC interaction in a phase II/III adaptive design with treatment selection</t>
+  </si>
+  <si>
+    <t>Reinhard Eisebitt</t>
+  </si>
+  <si>
+    <t>ClinResearch</t>
+  </si>
+  <si>
+    <t>Methods to protect the blinding, including controlled emergency unblinding, in adaptive design trials with flexible randomization schemes</t>
+  </si>
+  <si>
+    <t>University of Göttingen</t>
+  </si>
+  <si>
+    <t>The role of DMCs in adaptive design trials: The perspective of a DMC member</t>
+  </si>
+  <si>
+    <t>Sue-Jane Wang</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>Adaptive Design Consideration: A Regulatory Perspective on How to Maintain Validity and Integrity of Trials</t>
+  </si>
+  <si>
+    <t>James Hung</t>
+  </si>
+  <si>
+    <t>Emerging Challenges in Design and Analysis of Non-inferiority Trials</t>
+  </si>
+  <si>
+    <t>IQWiG</t>
+  </si>
+  <si>
+    <t>The importance of Non-inferiority testing in benefit assessments of medical interventions</t>
+  </si>
+  <si>
+    <t>Heinz Schmidli</t>
+  </si>
+  <si>
+    <t>Estimating the placebo-effect in a non-inferiority trial: a case study</t>
+  </si>
+  <si>
+    <t>Bremen and Vienna</t>
+  </si>
+  <si>
+    <t>Georg Gutjahr, Werner Brannath, Peter Bauer</t>
+  </si>
+  <si>
+    <t>Unblinded SampleSize Modification for Fisher’s Exact Test</t>
+  </si>
+  <si>
+    <t>11_Gutjahr.pdf</t>
+  </si>
+  <si>
+    <t>6_Wang.pdf</t>
+  </si>
+  <si>
+    <t>7_Hung.pdf</t>
+  </si>
+  <si>
+    <t>BBS/EFSPI European Statistical Meeting on Oncology</t>
+  </si>
+  <si>
+    <t>Understanding Progression-free Survival</t>
+  </si>
+  <si>
+    <t>Bertil Jonsson</t>
+  </si>
+  <si>
+    <t>Oncology Dose Finding – A Case Study</t>
+  </si>
+  <si>
+    <t>Medical Products Agency</t>
+  </si>
+  <si>
+    <t>IDDI and University of Hasselt</t>
+  </si>
+  <si>
+    <t>The Time to Progression Ratio for Phase II Trials of Personalized Medicine</t>
+  </si>
+  <si>
+    <t>Adaptive Bayesian Designs for Phase I Oncology Trials</t>
+  </si>
+  <si>
+    <t>Bayesian Hierarchical Modelling of Clinical Response in NSCLC Subpopulations</t>
+  </si>
+  <si>
+    <t>IRESSA: A Journey of Experience from Broad to Biomarker Populations</t>
+  </si>
+  <si>
+    <t>Optimal Cost-Effective Go-No Go Decisions in Late-Stage Oncology Drug Development</t>
+  </si>
+  <si>
+    <t>Stuart Bailey</t>
+  </si>
+  <si>
+    <t>Simon Wandel</t>
+  </si>
+  <si>
+    <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>Claire Watkins</t>
+  </si>
+  <si>
+    <t>Cong Chen</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Jonas Wiedemann</t>
+  </si>
+  <si>
+    <t>BBS Seminar Epidemiology</t>
+  </si>
+  <si>
+    <t>Noah Jamie Robinson</t>
+  </si>
+  <si>
+    <t>Epidemiology: the basics and in practice (at Roche)</t>
+  </si>
+  <si>
+    <t>Jim Young</t>
+  </si>
+  <si>
+    <t>Approximate Bayesian methods for the analysis of epidemiological data</t>
+  </si>
+  <si>
+    <t>Basel Institute for Clinical Epidemiology and Biostatistics</t>
+  </si>
+  <si>
+    <t>2_Young</t>
+  </si>
+  <si>
+    <t>Benda Norbert</t>
+  </si>
+  <si>
+    <t>Brannath Werner</t>
+  </si>
+  <si>
+    <t>Fleischer Frank</t>
+  </si>
+  <si>
+    <t>Friede Tim</t>
+  </si>
+  <si>
+    <t>Glimm Ekkehard</t>
+  </si>
+  <si>
+    <t>Guthjahr Georg</t>
+  </si>
+  <si>
+    <t>Wang Sue-Jane</t>
+  </si>
+  <si>
+    <t>The use of adaptive designs in dose finding studies</t>
+  </si>
+  <si>
+    <t>Challenges in the application of adaptive phase II/III designs in oncology</t>
+  </si>
+  <si>
+    <t>Statistical modeling in the context of progression-free survival</t>
+  </si>
+  <si>
+    <t>Blinded sample size reestimation with count data</t>
+  </si>
+  <si>
+    <t>Some lessons learned from designing and adaptive clinical trial with time-to-event as the primary endpoint</t>
+  </si>
+  <si>
+    <t>Multiple Type I error control in response adaptive Phase II/III designs with treatment selection</t>
+  </si>
+  <si>
+    <t>U.S. FDA Draft Guidance on Adaptive Design Clinical Trials – Statistical Considerations and Issues</t>
+  </si>
+  <si>
+    <t>1_Benda.pdf</t>
+  </si>
+  <si>
+    <t>2_Brannath.pdf</t>
+  </si>
+  <si>
+    <t>3_Fleischer.pdf</t>
+  </si>
+  <si>
+    <t>4_Friede.pdf</t>
+  </si>
+  <si>
+    <t>5_Glimm.pdf</t>
+  </si>
+  <si>
+    <t>6_Gutjahr.pdf</t>
+  </si>
+  <si>
+    <t>7_Wang.pdf</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Enhanced Statistical Methodology</t>
+  </si>
+  <si>
+    <t>University of Zürich</t>
+  </si>
+  <si>
+    <t>Leonhard Held</t>
+  </si>
+  <si>
+    <t>A Nomogram for P Values</t>
+  </si>
+  <si>
+    <t>Estimation of two ordered monotone regression curves</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Challenges and Evaluation of Biomarkers</t>
+  </si>
+  <si>
+    <t>Eric Holmgren</t>
+  </si>
+  <si>
+    <t>Genentech</t>
+  </si>
+  <si>
+    <t>Quantifying the usefulness of PD biomarkers in phase 2 screening trials of oncology drugs</t>
+  </si>
+  <si>
+    <t>Martin Schumacher</t>
+  </si>
+  <si>
+    <t>Class prediction with gene expression data</t>
+  </si>
+  <si>
+    <t>BBS Seminar: Operational and Implementation Considerations in Adaptive Designs</t>
+  </si>
+  <si>
+    <t>Eva Miller</t>
+  </si>
+  <si>
+    <t>ICON Clinical Research</t>
+  </si>
+  <si>
+    <t>Logistical Considerations in the Implementation of Adaptive Trial Designs</t>
+  </si>
+  <si>
+    <t>Considerations and Experiences in Adaptive Dose Finding</t>
+  </si>
+  <si>
+    <t>Damian Roqueiro</t>
+  </si>
+  <si>
+    <t>Machine Learning and Computational Biology Lab ETH Zurich</t>
+  </si>
+  <si>
+    <t>Applications of Machine Learning and Deep Learning</t>
+  </si>
+  <si>
+    <t>Jonas Dorn</t>
+  </si>
+  <si>
+    <t>Machine learning when the ground truth isn’t truth and privacy is a problem – case study from the Assess MS project</t>
+  </si>
+  <si>
+    <t>Big clinical data: What should biometrician do with it?</t>
   </si>
 </sst>
 </file>
@@ -2514,11 +3168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J946"/>
+  <dimension ref="A1:J950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I213" sqref="I213:I226"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5698,160 +6352,168 @@
       <c r="E138" s="3">
         <v>1</v>
       </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="1"/>
+      <c r="F138" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
-        <f>"11.09.2017"</f>
-        <v>11.09.2017</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>445</v>
-      </c>
+        <f>"14.11.2017"</f>
+        <v>14.11.2017</v>
+      </c>
+      <c r="B139" s="13"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="3">
-        <v>1</v>
-      </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="str">
-        <f>"26.06.2017"</f>
-        <v>26.06.2017</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>472</v>
-      </c>
+        <f>"14.11.2017"</f>
+        <v>14.11.2017</v>
+      </c>
+      <c r="B140" s="13"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G140" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H140" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I140" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
-        <f t="shared" ref="A141:A142" si="20">"26.06.2017"</f>
-        <v>26.06.2017</v>
-      </c>
-      <c r="B141" s="13"/>
+        <f>"11.09.2017"</f>
+        <v>11.09.2017</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>445</v>
+      </c>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="3">
-        <v>2</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H141" s="1"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f>"26.06.2017"</f>
         <v>26.06.2017</v>
       </c>
-      <c r="B142" s="13"/>
+      <c r="B142" s="13" t="s">
+        <v>472</v>
+      </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
-        <f t="shared" ref="A143:A151" si="21">"15.06.2017"</f>
-        <v>15.06.2017</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>446</v>
-      </c>
+        <f t="shared" ref="A143:A144" si="20">"26.06.2017"</f>
+        <v>26.06.2017</v>
+      </c>
+      <c r="B143" s="13"/>
       <c r="C143" s="11"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>448</v>
+        <v>474</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>15.06.2017</v>
+        <f t="shared" si="20"/>
+        <v>26.06.2017</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>456</v>
+        <v>476</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="A145:A153" si="21">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
-      <c r="B145" s="13"/>
+      <c r="B145" s="13" t="s">
+        <v>446</v>
+      </c>
       <c r="C145" s="11"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5863,16 +6525,16 @@
       <c r="C146" s="11"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5884,19 +6546,19 @@
       <c r="C147" s="11"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
         <f t="shared" si="21"/>
         <v>15.06.2017</v>
@@ -5905,19 +6567,19 @@
       <c r="C148" s="11"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
         <f t="shared" si="21"/>
         <v>15.06.2017</v>
@@ -5926,16 +6588,16 @@
       <c r="C149" s="11"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>453</v>
+        <v>121</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5947,19 +6609,19 @@
       <c r="C150" s="11"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
         <f t="shared" si="21"/>
         <v>15.06.2017</v>
@@ -5968,105 +6630,105 @@
       <c r="C151" s="11"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
-        <f>"05.05.2017"</f>
-        <v>05.05.2017</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>481</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
+      </c>
+      <c r="B152" s="13"/>
       <c r="C152" s="11"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
-        <f t="shared" ref="A153:A157" si="22">"05.05.2017"</f>
-        <v>05.05.2017</v>
+        <f t="shared" si="21"/>
+        <v>15.06.2017</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="11"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
-      <c r="B154" s="13"/>
+      <c r="B154" s="13" t="s">
+        <v>481</v>
+      </c>
       <c r="C154" s="11"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="A155:A159" si="22">"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="11"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
         <f t="shared" si="22"/>
         <v>05.05.2017</v>
@@ -6075,19 +6737,19 @@
       <c r="C156" s="11"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="str">
         <f t="shared" si="22"/>
         <v>05.05.2017</v>
@@ -6096,118 +6758,118 @@
       <c r="C157" s="11"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>10</v>
+        <v>485</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
-        <f>"13.03.2017"</f>
-        <v>13.03.2017</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>499</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>05.05.2017</v>
+      </c>
+      <c r="B158" s="13"/>
       <c r="C158" s="11"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3">
-        <v>1</v>
-      </c>
-      <c r="F158" s="4"/>
-      <c r="I158" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
-        <f>"29.11.2016"</f>
-        <v>29.11.2016</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>500</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>05.05.2017</v>
+      </c>
+      <c r="B159" s="13"/>
       <c r="C159" s="11"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>501</v>
+        <v>10</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
-        <f t="shared" ref="A160:A163" si="23">"29.11.2016"</f>
-        <v>29.11.2016</v>
-      </c>
-      <c r="B160" s="13"/>
+        <f>"13.03.2017"</f>
+        <v>13.03.2017</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>499</v>
+      </c>
       <c r="C160" s="11"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3">
-        <v>2</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>512</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="I160" s="12"/>
     </row>
     <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f>"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
-      <c r="B161" s="13"/>
+      <c r="B161" s="13" t="s">
+        <v>500</v>
+      </c>
       <c r="C161" s="11"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="A162:A165" si="23">"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="11"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -6219,139 +6881,137 @@
       <c r="C163" s="11"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
-        <f>"14.11.2016"</f>
-        <v>14.11.2016</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>516</v>
-      </c>
+        <f t="shared" si="23"/>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B164" s="13"/>
       <c r="C164" s="11"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3">
+        <v>4</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B165" s="13"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3">
+        <v>5</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H165" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="str">
+        <f>"14.11.2016"</f>
+        <v>14.11.2016</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3">
         <v>1</v>
       </c>
-      <c r="F164" s="4"/>
-      <c r="I164" s="12"/>
-    </row>
-    <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="str">
+      <c r="F166" s="4"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="str">
         <f>"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B167" s="13" t="s">
         <v>517</v>
-      </c>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="3">
-        <v>1</v>
-      </c>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="16"/>
-    </row>
-    <row r="166" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="str">
-        <f>"14.09.2016"</f>
-        <v>14.09.2016</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="3">
-        <v>1</v>
-      </c>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="16"/>
-    </row>
-    <row r="167" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="str">
-        <f>"04.05.2016"</f>
-        <v>04.05.2016</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>520</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
       <c r="E167" s="3">
         <v>1</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>525</v>
-      </c>
+      <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I167" s="16" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H167" s="1"/>
+      <c r="I167" s="16"/>
+    </row>
+    <row r="168" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
-        <f>"04.05.2016"</f>
-        <v>04.05.2016</v>
-      </c>
-      <c r="B168" s="13"/>
+        <f>"14.09.2016"</f>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>519</v>
+      </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
       <c r="E168" s="3">
-        <v>2</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>526</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I168" s="16" t="s">
-        <v>523</v>
-      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
       </c>
-      <c r="B169" s="13"/>
+      <c r="B169" s="13" t="s">
+        <v>520</v>
+      </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -6360,101 +7020,107 @@
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I170" s="16" t="s">
-        <v>169</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="str">
-        <f>"28.04.2016"</f>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>533</v>
-      </c>
+        <f>"04.05.2016"</f>
+        <v>04.05.2016</v>
+      </c>
+      <c r="B171" s="13"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>177</v>
+        <v>527</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I171" s="9" t="s">
-        <v>551</v>
+        <v>531</v>
+      </c>
+      <c r="I171" s="16" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
-        <f t="shared" ref="A172:A180" si="24">"28.04.2016"</f>
-        <v>28.04.2016</v>
+        <f>"04.05.2016"</f>
+        <v>04.05.2016</v>
       </c>
       <c r="B172" s="13"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="I172" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="B173" s="13"/>
+      <c r="B173" s="13" t="s">
+        <v>533</v>
+      </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>535</v>
+        <v>177</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="A174:A182" si="24">"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
       <c r="B174" s="13"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
         <f t="shared" si="24"/>
         <v>28.04.2016</v>
@@ -6463,20 +7129,17 @@
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I175" s="9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="str">
         <f t="shared" si="24"/>
         <v>28.04.2016</v>
@@ -6485,20 +7148,17 @@
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="str">
         <f t="shared" si="24"/>
         <v>28.04.2016</v>
@@ -6507,20 +7167,20 @@
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>449</v>
+        <v>537</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="str">
         <f t="shared" si="24"/>
         <v>28.04.2016</v>
@@ -6529,14 +7189,17 @@
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -6548,20 +7211,20 @@
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="str">
         <f t="shared" si="24"/>
         <v>28.04.2016</v>
@@ -6570,108 +7233,106 @@
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I180" s="9"/>
     </row>
     <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="str">
-        <f>"13.01.2016"</f>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>556</v>
-      </c>
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
+      </c>
+      <c r="B181" s="13"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>10</v>
+        <v>485</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I181" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="str">
-        <f t="shared" ref="A182:A186" si="25">"13.01.2016"</f>
-        <v>13.01.2016</v>
+        <f t="shared" si="24"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I182" s="12" t="s">
-        <v>569</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="I182" s="9"/>
     </row>
     <row r="183" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
-      <c r="B183" s="13"/>
+      <c r="B183" s="13" t="s">
+        <v>556</v>
+      </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>558</v>
+        <v>10</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I183" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="A184:A188" si="25">"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I184" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="str">
         <f t="shared" si="25"/>
         <v>13.01.2016</v>
@@ -6680,18 +7341,20 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I185" s="12"/>
-    </row>
-    <row r="186" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="str">
         <f t="shared" si="25"/>
         <v>13.01.2016</v>
@@ -6700,233 +7363,238 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I186" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="str">
-        <f>"27.10.2015"</f>
-        <v>27.10.2015</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>573</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>13.01.2016</v>
+      </c>
+      <c r="B187" s="13"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>177</v>
+        <v>560</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I187" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="I187" s="9"/>
+    </row>
+    <row r="188" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
-        <f>"27.10.2015"</f>
-        <v>27.10.2015</v>
+        <f t="shared" si="25"/>
+        <v>13.01.2016</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>259</v>
+        <v>561</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="I188" s="12"/>
+        <v>567</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="189" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="str">
-        <f>"23.06.2015"</f>
-        <v>23.06.2015</v>
+        <f>"27.10.2015"</f>
+        <v>27.10.2015</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="3">
         <v>1</v>
       </c>
-      <c r="F189" s="4"/>
+      <c r="F189" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="12"/>
+      <c r="H189" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="190" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="str">
-        <f>"13.04.2015"</f>
-        <v>13.04.2015</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>577</v>
-      </c>
+        <f>"27.10.2015"</f>
+        <v>27.10.2015</v>
+      </c>
+      <c r="B190" s="13"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>579</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G190" s="4"/>
       <c r="H190" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="I190" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="I190" s="9"/>
+    </row>
+    <row r="191" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="str">
-        <f>"13.04.2015"</f>
-        <v>13.04.2015</v>
-      </c>
-      <c r="B191" s="13"/>
+        <f>"23.06.2015"</f>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>576</v>
+      </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="3">
-        <v>2</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I191" s="12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="9"/>
+    </row>
+    <row r="192" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
       </c>
-      <c r="B192" s="13"/>
+      <c r="B192" s="13" t="s">
+        <v>577</v>
+      </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="G192" s="4"/>
       <c r="H192" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="I192" s="12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
-        <f>"13.11.2014"</f>
-        <v>13.11.2014</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>585</v>
-      </c>
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
+      </c>
+      <c r="B193" s="13"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>586</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="G193" s="4"/>
       <c r="H193" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="I193" s="12" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
-        <f t="shared" ref="A194:A200" si="26">"13.11.2014"</f>
-        <v>13.11.2014</v>
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>588</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="G194" s="4"/>
       <c r="H194" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I194" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f>"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
-      <c r="B195" s="13"/>
+      <c r="B195" s="13" t="s">
+        <v>585</v>
+      </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>525</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="G195" s="4"/>
       <c r="H195" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>602</v>
+        <v>587</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="A196:A202" si="26">"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>591</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="G196" s="4"/>
       <c r="H196" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I196" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
         <f t="shared" si="26"/>
         <v>13.11.2014</v>
@@ -6935,16 +7603,17 @@
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>593</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="G197" s="4"/>
       <c r="H197" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="I197" s="12" t="s">
-        <v>604</v>
+        <v>590</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -6956,16 +7625,17 @@
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>595</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="G198" s="4"/>
       <c r="H198" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I198" s="12" t="s">
-        <v>605</v>
+        <v>592</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -6977,16 +7647,17 @@
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>597</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="G199" s="4"/>
       <c r="H199" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="I199" s="12" t="s">
-        <v>606</v>
+        <v>594</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -6998,105 +7669,110 @@
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>598</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="G200" s="4"/>
       <c r="H200" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I200" s="12" t="s">
-        <v>607</v>
+        <v>596</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
-        <f>"02.10.2014"</f>
-        <v>02.10.2014</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>608</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
+      </c>
+      <c r="B201" s="13"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>609</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="G201" s="4"/>
       <c r="H201" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="I201" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
-        <f t="shared" ref="A202:A207" si="27">"02.10.2014"</f>
-        <v>02.10.2014</v>
+        <f t="shared" si="26"/>
+        <v>13.11.2014</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>611</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="G202" s="4"/>
       <c r="H202" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I202" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f>"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
-      <c r="B203" s="13"/>
+      <c r="B203" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>613</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="G203" s="4"/>
       <c r="H203" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I203" s="12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="A204:A209" si="27">"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>615</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="G204" s="4"/>
       <c r="H204" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I204" s="12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="I204" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="str">
         <f t="shared" si="27"/>
         <v>02.10.2014</v>
@@ -7105,16 +7781,17 @@
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>617</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="G205" s="4"/>
       <c r="H205" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I205" s="12" t="s">
-        <v>626</v>
+        <v>614</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -7126,19 +7803,20 @@
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>619</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="G206" s="4"/>
       <c r="H206" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="I206" s="12" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
         <f t="shared" si="27"/>
         <v>02.10.2014</v>
@@ -7147,63 +7825,70 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>621</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="G207" s="4"/>
       <c r="H207" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="I207" s="12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="str">
-        <f>"07.05.2014"</f>
-        <v>07.05.2014</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>629</v>
-      </c>
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
+      <c r="B208" s="13"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>631</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="G208" s="4"/>
       <c r="H208" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I208" s="12"/>
+        <v>620</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="209" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="str">
-        <f>"04.02.2014"</f>
-        <v>04.02.2014</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>630</v>
-      </c>
+        <f t="shared" si="27"/>
+        <v>02.10.2014</v>
+      </c>
+      <c r="B209" s="13"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="3">
-        <v>1</v>
-      </c>
-      <c r="F209" s="4"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="12"/>
-    </row>
-    <row r="210" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G209" s="4"/>
+      <c r="H209" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="str">
-        <f>"18.06.2013"</f>
-        <v>18.06.2013</v>
+        <f>"07.05.2014"</f>
+        <v>07.05.2014</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -7211,144 +7896,147 @@
         <v>1</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>637</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="G210" s="4"/>
       <c r="H210" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I210" s="12" t="s">
-        <v>634</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="I210" s="9"/>
     </row>
     <row r="211" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="str">
-        <f>"18.06.2013"</f>
-        <v>18.06.2013</v>
-      </c>
-      <c r="B211" s="13"/>
+        <f>"04.02.2014"</f>
+        <v>04.02.2014</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>630</v>
+      </c>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="3">
-        <v>2</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I211" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="9"/>
+    </row>
+    <row r="212" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
       </c>
-      <c r="B212" s="13"/>
+      <c r="B212" s="13" t="s">
+        <v>633</v>
+      </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>639</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="G212" s="4"/>
       <c r="H212" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>635</v>
+        <v>638</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="str">
-        <f>"04.06.2013"</f>
-        <v>04.06.2013</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>576</v>
-      </c>
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
+      </c>
+      <c r="B213" s="13"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>663</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G213" s="4"/>
       <c r="H213" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I213" s="12" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
-        <f t="shared" ref="A214:A226" si="28">"04.06.2013"</f>
-        <v>04.06.2013</v>
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>209</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G214" s="4"/>
       <c r="H214" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="I214" s="12" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="I214" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
-      <c r="B215" s="13"/>
+      <c r="B215" s="13" t="s">
+        <v>576</v>
+      </c>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>643</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="G215" s="4"/>
       <c r="H215" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I215" s="12" t="s">
-        <v>667</v>
+        <v>35</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="A216:A228" si="28">"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>645</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G216" s="4"/>
       <c r="H216" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="I216" s="12" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="I216" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7357,19 +8045,20 @@
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
       <c r="E217" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>647</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="G217" s="4"/>
       <c r="H217" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="I217" s="12" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7378,19 +8067,20 @@
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
       <c r="E218" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>649</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="G218" s="4"/>
       <c r="H218" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="I218" s="12" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="I218" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7399,19 +8089,20 @@
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
       <c r="E219" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>651</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="G219" s="4"/>
       <c r="H219" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I219" s="12" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7420,19 +8111,20 @@
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>653</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="G220" s="4"/>
       <c r="H220" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="I220" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="I220" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7441,16 +8133,17 @@
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>483</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G221" s="4"/>
       <c r="H221" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="I221" s="12" t="s">
-        <v>673</v>
+        <v>652</v>
+      </c>
+      <c r="I221" s="9" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
@@ -7462,19 +8155,20 @@
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>656</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="G222" s="4"/>
       <c r="H222" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I222" s="12" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="I222" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7483,16 +8177,17 @@
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>658</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="G223" s="4"/>
       <c r="H223" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="I223" s="12" t="s">
-        <v>675</v>
+        <v>655</v>
+      </c>
+      <c r="I223" s="9" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
@@ -7504,16 +8199,17 @@
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>660</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G224" s="4"/>
       <c r="H224" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="I224" s="12" t="s">
-        <v>676</v>
+        <v>657</v>
+      </c>
+      <c r="I224" s="9" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
@@ -7525,19 +8221,20 @@
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="G225" s="4"/>
       <c r="H225" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I225" s="12" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="str">
         <f t="shared" si="28"/>
         <v>04.06.2013</v>
@@ -7546,895 +8243,1799 @@
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="G226" s="4"/>
       <c r="H226" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I226" s="12" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
+        <v>661</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B227" s="13"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="4"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="12"/>
+      <c r="E227" s="3">
+        <v>13</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G227" s="4"/>
+      <c r="H227" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I227" s="9" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+      <c r="A228" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>04.06.2013</v>
+      </c>
       <c r="B228" s="13"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="4"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="12"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="9"/>
-      <c r="B229" s="13"/>
+      <c r="E228" s="3">
+        <v>14</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G228" s="4"/>
+      <c r="H228" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I228" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="str">
+        <f>"28.11.2012"</f>
+        <v>28.11.2012</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>679</v>
+      </c>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="16"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="9"/>
+      <c r="E229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I229" s="9"/>
+    </row>
+    <row r="230" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="str">
+        <f t="shared" ref="A230:A231" si="29">"28.11.2012"</f>
+        <v>28.11.2012</v>
+      </c>
       <c r="B230" s="13"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="4"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="16"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="9"/>
+      <c r="E230" s="3">
+        <v>2</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I230" s="9"/>
+    </row>
+    <row r="231" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="str">
+        <f t="shared" si="29"/>
+        <v>28.11.2012</v>
+      </c>
       <c r="B231" s="13"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="16"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="9"/>
-      <c r="B232" s="13"/>
+      <c r="E231" s="3">
+        <v>3</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I231" s="9"/>
+    </row>
+    <row r="232" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="str">
+        <f>"25.09.2012"</f>
+        <v>25.09.2012</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>689</v>
+      </c>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="4"/>
+      <c r="E232" s="3">
+        <v>1</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>690</v>
+      </c>
       <c r="G232" s="4"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="16"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="9"/>
+      <c r="H232" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I232" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="str">
+        <f t="shared" ref="A233:A236" si="30">"25.09.2012"</f>
+        <v>25.09.2012</v>
+      </c>
       <c r="B233" s="13"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="4"/>
+      <c r="E233" s="3">
+        <v>2</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>691</v>
+      </c>
       <c r="G233" s="4"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="16"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="9"/>
+      <c r="H233" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>25.09.2012</v>
+      </c>
       <c r="B234" s="13"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="4"/>
+      <c r="E234" s="3">
+        <v>3</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>692</v>
+      </c>
       <c r="G234" s="4"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="16"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
+      <c r="H234" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I234" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>25.09.2012</v>
+      </c>
       <c r="B235" s="13"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="4"/>
+      <c r="E235" s="3">
+        <v>4</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="G235" s="4"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="16"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+      <c r="H235" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I235" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>25.09.2012</v>
+      </c>
       <c r="B236" s="13"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="4"/>
+      <c r="E236" s="3">
+        <v>5</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="G236" s="4"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="16"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="9"/>
-      <c r="B237" s="13"/>
+      <c r="H236" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="I236" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="str">
+        <f>"09.07.2012"</f>
+        <v>09.07.2012</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>702</v>
+      </c>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="4"/>
+      <c r="E237" s="3">
+        <v>1</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="G237" s="4"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="16"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
+      <c r="H237" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="I237" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="str">
+        <f t="shared" ref="A238:A240" si="31">"09.07.2012"</f>
+        <v>09.07.2012</v>
+      </c>
       <c r="B238" s="13"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="4"/>
+      <c r="E238" s="3">
+        <v>2</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="G238" s="4"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="16"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
+      <c r="H238" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="I238" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>09.07.2012</v>
+      </c>
       <c r="B239" s="13"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="4"/>
+      <c r="E239" s="3">
+        <v>3</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>712</v>
+      </c>
       <c r="G239" s="4"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="16"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="9"/>
+      <c r="H239" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="I239" s="9"/>
+    </row>
+    <row r="240" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>09.07.2012</v>
+      </c>
       <c r="B240" s="13"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="4"/>
+      <c r="E240" s="3">
+        <v>4</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="G240" s="4"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="16"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="9"/>
-      <c r="B241" s="13"/>
+      <c r="H240" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I240" s="9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="str">
+        <f>"22.05.2012"</f>
+        <v>22.05.2012</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>714</v>
+      </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
-      <c r="E241" s="3"/>
+      <c r="E241" s="3">
+        <v>1</v>
+      </c>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="1"/>
-      <c r="I241" s="16"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="9"/>
-      <c r="B242" s="13"/>
+      <c r="I241" s="9"/>
+    </row>
+    <row r="242" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A242" s="9" t="str">
+        <f>"29.11.2011"</f>
+        <v>29.11.2011</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>718</v>
+      </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="4"/>
-      <c r="G242" s="4"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="16"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="9"/>
+      <c r="E242" s="3">
+        <v>1</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="I242" s="9"/>
+    </row>
+    <row r="243" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="str">
+        <f>"29.11.2011"</f>
+        <v>29.11.2011</v>
+      </c>
       <c r="B243" s="13"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="4"/>
-      <c r="G243" s="4"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="16"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="9"/>
-      <c r="B244" s="13"/>
+      <c r="E243" s="3">
+        <v>2</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="I243" s="9"/>
+    </row>
+    <row r="244" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="str">
+        <f>"16.09.2011"</f>
+        <v>16.09.2011</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>720</v>
+      </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="4"/>
+      <c r="E244" s="3">
+        <v>1</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>721</v>
+      </c>
       <c r="G244" s="4"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="16"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="9"/>
+      <c r="H244" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="str">
+        <f t="shared" ref="A245:A251" si="32">"16.09.2011"</f>
+        <v>16.09.2011</v>
+      </c>
       <c r="B245" s="13"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="4"/>
+      <c r="E245" s="3">
+        <v>2</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>723</v>
+      </c>
       <c r="G245" s="4"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="16"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
+      <c r="H245" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>16.09.2011</v>
+      </c>
       <c r="B246" s="13"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="4"/>
+      <c r="E246" s="3">
+        <v>3</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>737</v>
+      </c>
       <c r="G246" s="4"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="16"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
+      <c r="H246" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="I246" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>16.09.2011</v>
+      </c>
       <c r="B247" s="13"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="4"/>
+      <c r="E247" s="3">
+        <v>4</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>739</v>
+      </c>
       <c r="G247" s="4"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="16"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+      <c r="H247" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I247" s="9"/>
+    </row>
+    <row r="248" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>16.09.2011</v>
+      </c>
       <c r="B248" s="13"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="4"/>
+      <c r="E248" s="3">
+        <v>5</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="G248" s="4"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="16"/>
+      <c r="H248" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="I248" s="9" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
+      <c r="A249" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>16.09.2011</v>
+      </c>
       <c r="B249" s="13"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="4"/>
+      <c r="E249" s="3">
+        <v>6</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>728</v>
+      </c>
       <c r="G249" s="4"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="16"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="9"/>
+      <c r="H249" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>16.09.2011</v>
+      </c>
       <c r="B250" s="13"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="4"/>
+      <c r="E250" s="3">
+        <v>7</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>733</v>
+      </c>
       <c r="G250" s="4"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="16"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
+      <c r="H250" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I250" s="9"/>
+    </row>
+    <row r="251" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>16.09.2011</v>
+      </c>
       <c r="B251" s="13"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="4"/>
+      <c r="E251" s="3">
+        <v>8</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>731</v>
+      </c>
       <c r="G251" s="4"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="16"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="9"/>
-      <c r="B252" s="13"/>
+      <c r="H251" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="str">
+        <f>"21.07.2011"</f>
+        <v>21.07.2011</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>743</v>
+      </c>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="4"/>
+      <c r="E252" s="3">
+        <v>1</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>744</v>
+      </c>
       <c r="G252" s="4"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="16"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
+      <c r="H252" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="9" t="str">
+        <f t="shared" ref="A253:A255" si="33">"21.07.2011"</f>
+        <v>21.07.2011</v>
+      </c>
       <c r="B253" s="13"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="4"/>
+      <c r="E253" s="3">
+        <v>2</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="G253" s="4"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="16"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="H253" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>21.07.2011</v>
+      </c>
       <c r="B254" s="13"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="4"/>
+      <c r="E254" s="3">
+        <v>3</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>746</v>
+      </c>
       <c r="G254" s="4"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="16"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
+      <c r="H254" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>21.07.2011</v>
+      </c>
       <c r="B255" s="13"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="4"/>
+      <c r="E255" s="3">
+        <v>4</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>690</v>
+      </c>
       <c r="G255" s="4"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="16"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
-      <c r="B256" s="13"/>
+      <c r="H255" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="I255" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="str">
+        <f>"10.05.2011"</f>
+        <v>10.05.2011</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>755</v>
+      </c>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="4"/>
+      <c r="E256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="G256" s="4"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="16"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="9"/>
+      <c r="H256" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I256" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="str">
+        <f t="shared" ref="A257:A264" si="34">"10.05.2011"</f>
+        <v>10.05.2011</v>
+      </c>
       <c r="B257" s="13"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="4"/>
+      <c r="E257" s="3">
+        <v>2</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>756</v>
+      </c>
       <c r="G257" s="4"/>
-      <c r="H257" s="1"/>
-      <c r="I257" s="16"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+      <c r="H257" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I257" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B258" s="13"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="4"/>
+      <c r="E258" s="3">
+        <v>3</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>656</v>
+      </c>
       <c r="G258" s="4"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="16"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
+      <c r="H258" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I258" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B259" s="13"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="4"/>
+      <c r="E259" s="3">
+        <v>4</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>757</v>
+      </c>
       <c r="G259" s="4"/>
-      <c r="H259" s="1"/>
-      <c r="I259" s="16"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+      <c r="H259" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I259" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B260" s="13"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="4"/>
+      <c r="E260" s="3">
+        <v>5</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>758</v>
+      </c>
       <c r="G260" s="4"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="16"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
+      <c r="H260" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="I260" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B261" s="13"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="4"/>
+      <c r="E261" s="3">
+        <v>6</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>744</v>
+      </c>
       <c r="G261" s="4"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="16"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
+      <c r="H261" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I261" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B262" s="13"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="4"/>
+      <c r="E262" s="3">
+        <v>7</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>759</v>
+      </c>
       <c r="G262" s="4"/>
-      <c r="H262" s="1"/>
-      <c r="I262" s="16"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="9"/>
+      <c r="H262" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I262" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B263" s="13"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="4"/>
+      <c r="E263" s="3">
+        <v>8</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>660</v>
+      </c>
       <c r="G263" s="4"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="16"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
+      <c r="H263" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>10.05.2011</v>
+      </c>
       <c r="B264" s="13"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="4"/>
+      <c r="E264" s="3">
+        <v>9</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>757</v>
+      </c>
       <c r="G264" s="4"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="16"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
-      <c r="B265" s="13"/>
+      <c r="H264" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="I264" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="str">
+        <f>"07.05.2011"</f>
+        <v>07.05.2011</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>777</v>
+      </c>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="4"/>
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>778</v>
+      </c>
       <c r="G265" s="4"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="16"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+      <c r="H265" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I265" s="9" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="str">
+        <f t="shared" ref="A266:A269" si="35">"07.05.2011"</f>
+        <v>07.05.2011</v>
+      </c>
       <c r="B266" s="13"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="4"/>
+      <c r="E266" s="3">
+        <v>2</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>779</v>
+      </c>
       <c r="G266" s="4"/>
-      <c r="H266" s="1"/>
-      <c r="I266" s="16"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
+      <c r="H266" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>07.05.2011</v>
+      </c>
       <c r="B267" s="13"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="4"/>
+      <c r="E267" s="3">
+        <v>3</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="G267" s="4"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="16"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
+      <c r="H267" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="I267" s="9"/>
+    </row>
+    <row r="268" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>07.05.2011</v>
+      </c>
       <c r="B268" s="13"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="4"/>
+      <c r="E268" s="3">
+        <v>4</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>780</v>
+      </c>
       <c r="G268" s="4"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="16"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
+      <c r="H268" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="I268" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>07.05.2011</v>
+      </c>
       <c r="B269" s="13"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="4"/>
+      <c r="E269" s="3">
+        <v>5</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>781</v>
+      </c>
       <c r="G269" s="4"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="16"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
-      <c r="B270" s="13"/>
+      <c r="H269" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I269" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="str">
+        <f>"13.01.2011"</f>
+        <v>13.01.2011</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>792</v>
+      </c>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="4"/>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>798</v>
+      </c>
       <c r="G270" s="4"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="16"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
+      <c r="H270" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="I270" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="str">
+        <f>"13.01.2011"</f>
+        <v>13.01.2011</v>
+      </c>
       <c r="B271" s="13"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="4"/>
+      <c r="E271" s="3">
+        <v>2</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>800</v>
+      </c>
       <c r="G271" s="4"/>
-      <c r="H271" s="1"/>
-      <c r="I271" s="16"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="9"/>
-      <c r="B272" s="13"/>
+      <c r="H271" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I271" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="str">
+        <f>"30.11.2010"</f>
+        <v>30.11.2010</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>718</v>
+      </c>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="4"/>
+      <c r="E272" s="3">
+        <v>1</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="G272" s="4"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="16"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
+      <c r="H272" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="I272" s="9"/>
+    </row>
+    <row r="273" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="str">
+        <f>"30.11.2010"</f>
+        <v>30.11.2010</v>
+      </c>
       <c r="B273" s="13"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="4"/>
+      <c r="E273" s="3">
+        <v>2</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>795</v>
+      </c>
       <c r="G273" s="4"/>
-      <c r="H273" s="1"/>
-      <c r="I273" s="16"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
-      <c r="B274" s="13"/>
+      <c r="H273" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="I273" s="9"/>
+    </row>
+    <row r="274" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="str">
+        <f>"04.10.2010"</f>
+        <v>04.10.2010</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>802</v>
+      </c>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="1"/>
-      <c r="I274" s="16"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
+      <c r="E274" s="3">
+        <v>1</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="9" t="str">
+        <f t="shared" ref="A275:A284" si="36">"04.10.2010"</f>
+        <v>04.10.2010</v>
+      </c>
       <c r="B275" s="13"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="4"/>
-      <c r="H275" s="1"/>
-      <c r="I275" s="16"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
+      <c r="E275" s="3">
+        <v>2</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B276" s="13"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="1"/>
-      <c r="I276" s="16"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+      <c r="E276" s="3">
+        <v>3</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B277" s="13"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="1"/>
-      <c r="I277" s="16"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
+      <c r="E277" s="3">
+        <v>4</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B278" s="13"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="4"/>
-      <c r="H278" s="1"/>
-      <c r="I278" s="16"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
+      <c r="E278" s="3">
+        <v>5</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I278" s="9"/>
+    </row>
+    <row r="279" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B279" s="13"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="4"/>
-      <c r="G279" s="4"/>
-      <c r="H279" s="1"/>
-      <c r="I279" s="16"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
+      <c r="E279" s="3">
+        <v>6</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="I279" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B280" s="13"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="4"/>
-      <c r="G280" s="4"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="16"/>
+      <c r="E280" s="3">
+        <v>7</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I280" s="12" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" s="9"/>
+      <c r="A281" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B281" s="13"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="4"/>
-      <c r="G281" s="4"/>
+      <c r="E281" s="3">
+        <v>8</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="H281" s="1"/>
-      <c r="I281" s="16"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
+    </row>
+    <row r="282" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B282" s="13"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="4"/>
-      <c r="G282" s="4"/>
-      <c r="H282" s="1"/>
-      <c r="I282" s="16"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" s="9"/>
+      <c r="E282" s="3">
+        <v>9</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I282" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B283" s="13"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="4"/>
-      <c r="G283" s="4"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="16"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="9"/>
+      <c r="E283" s="3">
+        <v>10</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I283" s="9"/>
+    </row>
+    <row r="284" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B284" s="13"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="4"/>
-      <c r="G284" s="4"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="16"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="9"/>
-      <c r="B285" s="13"/>
+      <c r="E284" s="3">
+        <v>11</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="I284" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="9" t="str">
+        <f>"24.06.2010"</f>
+        <v>24.06.2010</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>829</v>
+      </c>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="4"/>
-      <c r="G285" s="4"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="16"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="9"/>
+      <c r="E285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="I285" s="9"/>
+    </row>
+    <row r="286" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="str">
+        <f t="shared" ref="A286:A291" si="37">"24.06.2010"</f>
+        <v>24.06.2010</v>
+      </c>
       <c r="B286" s="13"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="4"/>
-      <c r="G286" s="4"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="16"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
+      <c r="E286" s="3">
+        <v>2</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="I286" s="9"/>
+    </row>
+    <row r="287" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B287" s="13"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="4"/>
-      <c r="G287" s="4"/>
-      <c r="H287" s="1"/>
-      <c r="I287" s="16"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
+      <c r="E287" s="3">
+        <v>3</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I287" s="9"/>
+    </row>
+    <row r="288" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B288" s="13"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="4"/>
-      <c r="G288" s="4"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="16"/>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="9"/>
+      <c r="E288" s="3">
+        <v>4</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="I288" s="9"/>
+    </row>
+    <row r="289" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B289" s="13"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="4"/>
-      <c r="G289" s="4"/>
-      <c r="H289" s="1"/>
-      <c r="I289" s="16"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
+      <c r="E289" s="3">
+        <v>5</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="I289" s="9"/>
+    </row>
+    <row r="290" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B290" s="13"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="4"/>
-      <c r="G290" s="4"/>
-      <c r="H290" s="1"/>
-      <c r="I290" s="16"/>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
+      <c r="E290" s="3">
+        <v>6</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="I290" s="9"/>
+    </row>
+    <row r="291" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B291" s="13"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="4"/>
-      <c r="G291" s="4"/>
-      <c r="H291" s="1"/>
-      <c r="I291" s="16"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="9"/>
-      <c r="B292" s="13"/>
+      <c r="E291" s="3">
+        <v>7</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I291" s="9"/>
+    </row>
+    <row r="292" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="str">
+        <f>"28.04.2010"</f>
+        <v>28.04.2010</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>847</v>
+      </c>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="4"/>
-      <c r="G292" s="4"/>
-      <c r="H292" s="1"/>
-      <c r="I292" s="16"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" s="9"/>
+      <c r="E292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I292" s="9"/>
+    </row>
+    <row r="293" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="str">
+        <f>"28.04.2010"</f>
+        <v>28.04.2010</v>
+      </c>
       <c r="B293" s="13"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="4"/>
-      <c r="G293" s="4"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="16"/>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
-      <c r="B294" s="13"/>
+      <c r="E293" s="3">
+        <v>2</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="I293" s="9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="str">
+        <f>"12.03.2010"</f>
+        <v>12.03.2010</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>718</v>
+      </c>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="4"/>
+      <c r="E294" s="3">
+        <v>1</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>854</v>
+      </c>
       <c r="G294" s="4"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="16"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
+      <c r="H294" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="I294" s="9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="str">
+        <f t="shared" ref="A295:A300" si="38">"12.03.2010"</f>
+        <v>12.03.2010</v>
+      </c>
       <c r="B295" s="13"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="4"/>
+      <c r="E295" s="3">
+        <v>2</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>855</v>
+      </c>
       <c r="G295" s="4"/>
-      <c r="H295" s="1"/>
-      <c r="I295" s="16"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
+      <c r="H295" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I295" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B296" s="13"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="4"/>
+      <c r="E296" s="3">
+        <v>3</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>856</v>
+      </c>
       <c r="G296" s="4"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="16"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
+      <c r="H296" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="I296" s="9" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B297" s="13"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="4"/>
+      <c r="E297" s="3">
+        <v>4</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>857</v>
+      </c>
       <c r="G297" s="4"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="16"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
+      <c r="H297" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I297" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B298" s="13"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="4"/>
+      <c r="E298" s="3">
+        <v>5</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>858</v>
+      </c>
       <c r="G298" s="4"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="16"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
+      <c r="H298" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="I298" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B299" s="13"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="4"/>
+      <c r="E299" s="3">
+        <v>6</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>859</v>
+      </c>
       <c r="G299" s="4"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="16"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
+      <c r="H299" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="I299" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A300" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B300" s="13"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="4"/>
+      <c r="E300" s="3">
+        <v>7</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="G300" s="4"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="16"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="9"/>
-      <c r="B301" s="13"/>
+      <c r="H300" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I300" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A301" s="9" t="str">
+        <f>"12.01.2010"</f>
+        <v>12.01.2010</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>875</v>
+      </c>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="4"/>
-      <c r="G301" s="4"/>
-      <c r="H301" s="1"/>
-      <c r="I301" s="16"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="9"/>
+      <c r="E301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I301" s="9"/>
+    </row>
+    <row r="302" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="str">
+        <f>"12.01.2010"</f>
+        <v>12.01.2010</v>
+      </c>
       <c r="B302" s="13"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="4"/>
-      <c r="G302" s="4"/>
-      <c r="H302" s="1"/>
-      <c r="I302" s="16"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" s="9"/>
-      <c r="B303" s="13"/>
+      <c r="E302" s="3">
+        <v>2</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="I302" s="9"/>
+    </row>
+    <row r="303" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="9" t="str">
+        <f>"07.12.2009"</f>
+        <v>07.12.2009</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>880</v>
+      </c>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="4"/>
-      <c r="G303" s="4"/>
-      <c r="H303" s="1"/>
-      <c r="I303" s="16"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" s="9"/>
+      <c r="E303" s="3">
+        <v>1</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="I303" s="9"/>
+    </row>
+    <row r="304" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="str">
+        <f>"07.12.2009"</f>
+        <v>07.12.2009</v>
+      </c>
       <c r="B304" s="13"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="4"/>
-      <c r="G304" s="4"/>
-      <c r="H304" s="1"/>
-      <c r="I304" s="16"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" s="9"/>
-      <c r="B305" s="13"/>
+      <c r="E304" s="3">
+        <v>2</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="I304" s="9"/>
+    </row>
+    <row r="305" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="str">
+        <f>"26.10.2009"</f>
+        <v>26.10.2009</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>886</v>
+      </c>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
-      <c r="E305" s="3"/>
-      <c r="F305" s="4"/>
-      <c r="G305" s="4"/>
-      <c r="H305" s="1"/>
-      <c r="I305" s="16"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
+      <c r="E305" s="3">
+        <v>1</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="I305" s="9"/>
+    </row>
+    <row r="306" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="str">
+        <f>"26.10.2009"</f>
+        <v>26.10.2009</v>
+      </c>
       <c r="B306" s="13"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="4"/>
-      <c r="G306" s="4"/>
-      <c r="H306" s="1"/>
-      <c r="I306" s="16"/>
+      <c r="E306" s="3">
+        <v>2</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="I306" s="9"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
@@ -9504,48 +11105,48 @@
       <c r="I403" s="16"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404" s="10"/>
-      <c r="B404" s="6"/>
-      <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="2"/>
+      <c r="A404" s="9"/>
+      <c r="B404" s="13"/>
+      <c r="C404" s="11"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="3"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
-      <c r="H404" s="14"/>
-      <c r="I404" s="2"/>
+      <c r="H404" s="1"/>
+      <c r="I404" s="16"/>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405" s="10"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="2"/>
+      <c r="A405" s="9"/>
+      <c r="B405" s="13"/>
+      <c r="C405" s="11"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="3"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
-      <c r="H405" s="14"/>
-      <c r="I405" s="2"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="16"/>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406" s="10"/>
-      <c r="B406" s="6"/>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="2"/>
+      <c r="A406" s="9"/>
+      <c r="B406" s="13"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="3"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
-      <c r="H406" s="14"/>
-      <c r="I406" s="2"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="16"/>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" s="10"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
-      <c r="E407" s="2"/>
+      <c r="A407" s="9"/>
+      <c r="B407" s="13"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="3"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
-      <c r="H407" s="14"/>
-      <c r="I407" s="2"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="16"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="10"/>
@@ -15475,6 +17076,50 @@
       <c r="G946" s="4"/>
       <c r="H946" s="14"/>
       <c r="I946" s="2"/>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A947" s="10"/>
+      <c r="B947" s="6"/>
+      <c r="C947" s="4"/>
+      <c r="D947" s="4"/>
+      <c r="E947" s="2"/>
+      <c r="F947" s="4"/>
+      <c r="G947" s="4"/>
+      <c r="H947" s="14"/>
+      <c r="I947" s="2"/>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A948" s="10"/>
+      <c r="B948" s="6"/>
+      <c r="C948" s="4"/>
+      <c r="D948" s="4"/>
+      <c r="E948" s="2"/>
+      <c r="F948" s="4"/>
+      <c r="G948" s="4"/>
+      <c r="H948" s="14"/>
+      <c r="I948" s="2"/>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A949" s="10"/>
+      <c r="B949" s="6"/>
+      <c r="C949" s="4"/>
+      <c r="D949" s="4"/>
+      <c r="E949" s="2"/>
+      <c r="F949" s="4"/>
+      <c r="G949" s="4"/>
+      <c r="H949" s="14"/>
+      <c r="I949" s="2"/>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A950" s="10"/>
+      <c r="B950" s="6"/>
+      <c r="C950" s="4"/>
+      <c r="D950" s="4"/>
+      <c r="E950" s="2"/>
+      <c r="F950" s="4"/>
+      <c r="G950" s="4"/>
+      <c r="H950" s="14"/>
+      <c r="I950" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="976">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -2710,6 +2710,243 @@
   </si>
   <si>
     <t>Big clinical data: What should biometrician do with it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Ruberg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stef van Buuren, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baldur Magnusson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa Barata </t>
+  </si>
+  <si>
+    <t>Eli Lilly</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>The patient perspective – the estimands they want</t>
+  </si>
+  <si>
+    <t>Individual causal effect: What is it? Why we need it? How to estimate it?</t>
+  </si>
+  <si>
+    <t>Using principal stratification to disentangle post-randomization outcomes in a randomized controlled phase 3 study</t>
+  </si>
+  <si>
+    <t>Estimands in early Parkinson disease</t>
+  </si>
+  <si>
+    <t>Netherlands Organisation for Applied Scientific Research and University of Utrecht</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Biogen</t>
+  </si>
+  <si>
+    <t>Jouni Kerman</t>
+  </si>
+  <si>
+    <t>Fabio Pellegrini</t>
+  </si>
+  <si>
+    <t>Making what’s advanced today routine tomorrow</t>
+  </si>
+  <si>
+    <t>Causal Measurement using Geo Experiments in a Time-Based Regression Framework</t>
+  </si>
+  <si>
+    <t>A Smartphone-Based Study Capturing Longitudinal Vision Test Data, Movement Scores and User-reported Outcomes</t>
+  </si>
+  <si>
+    <t>Individualized medicine based on a treatment response continuous score</t>
+  </si>
+  <si>
+    <t>Statistical perspectives on umbrella trials</t>
+  </si>
+  <si>
+    <t>Comparison of clinical development plans for a confirmatory trial with subpopulation selection</t>
+  </si>
+  <si>
+    <t>Werner Vach</t>
+  </si>
+  <si>
+    <t>Universitätsspital Basel</t>
+  </si>
+  <si>
+    <t>2_Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>Kay Brodersen</t>
+  </si>
+  <si>
+    <t>Google, Zurich</t>
+  </si>
+  <si>
+    <t>Inferring causal effects in the absence of an experiment using CausalImpact</t>
+  </si>
+  <si>
+    <t>David Rasmussen</t>
+  </si>
+  <si>
+    <t>ETH Zurich</t>
+  </si>
+  <si>
+    <t>Using HIV phylogenetics to quantify how human mobility impacts antiretroviral-based prevention strategies</t>
+  </si>
+  <si>
+    <t>Almut Mecke</t>
+  </si>
+  <si>
+    <t>Different endpoints for meta-analyses of safety information</t>
+  </si>
+  <si>
+    <t>Pfizer Germany</t>
+  </si>
+  <si>
+    <t>Meta-analysis in support of the German Benefit Assessment for Reimbursement (Arzneimittelmarkt-Neuordnungsgesetz – AMNOG</t>
+  </si>
+  <si>
+    <t>Jane Hutton</t>
+  </si>
+  <si>
+    <t>Uni Warwick</t>
+  </si>
+  <si>
+    <t>Missing data and how to see biased results using Chain Event Graphs</t>
+  </si>
+  <si>
+    <t>Cancer profiling and subtype discovery with Bayesian inference for acyclic digraphs</t>
+  </si>
+  <si>
+    <t>Markus Elze</t>
+  </si>
+  <si>
+    <t>Propensity scores methods and covariate adjustment in practice</t>
+  </si>
+  <si>
+    <t>Lilla Di Scala</t>
+  </si>
+  <si>
+    <t>Actelion, Basel</t>
+  </si>
+  <si>
+    <t>Informative censoring in a rare disease: a regulatory experience in PAH</t>
+  </si>
+  <si>
+    <t>Dominic Magirr</t>
+  </si>
+  <si>
+    <t>Unblinded sample-size reassessment in time-to-event clinical trials</t>
+  </si>
+  <si>
+    <t>Tobias Bluhmki</t>
+  </si>
+  <si>
+    <t>Universität Ulm</t>
+  </si>
+  <si>
+    <t>Analyzing non-monotonous time-to-event outcome probabilities in randomized clinical trials</t>
+  </si>
+  <si>
+    <t>Jennifer Rogers</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>The analysis of recurrent events: A summary of methodology</t>
+  </si>
+  <si>
+    <t>Recurrent event data endpoints in chronic heart failure studies: What is the estimand of interest?</t>
+  </si>
+  <si>
+    <t>Ekkehard Glimm</t>
+  </si>
+  <si>
+    <t>Sample size and interim analysis considerations for recurrent event data analyses</t>
+  </si>
+  <si>
+    <t>IMI GetReal Initiative Update</t>
+  </si>
+  <si>
+    <t>Chrissie Fletcher &amp; Matthias Egger</t>
+  </si>
+  <si>
+    <t>Amgen &amp; University of Bern</t>
+  </si>
+  <si>
+    <t>Expert panel discussion on trends and burning issues, eg. Structured benefit risk and real world evidence; dual EMA-HTA consultation</t>
+  </si>
+  <si>
+    <t>Panelists</t>
+  </si>
+  <si>
+    <t>Pascale Brasseur</t>
+  </si>
+  <si>
+    <t>Medtronic</t>
+  </si>
+  <si>
+    <t>Overview of HTA for medical devices and diagnostics</t>
+  </si>
+  <si>
+    <t>NICE’s approach to the development of guidance for medical devices and diagnostics</t>
+  </si>
+  <si>
+    <t>Sheryl Warttig</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>EUnetHTA core model applied to Colorectal Cancer screening</t>
+  </si>
+  <si>
+    <t>Karsten Berndt</t>
+  </si>
+  <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>Valéry Risson</t>
+  </si>
+  <si>
+    <t>Uses of Social Media for Outcomes Research – results of a real-world pilot</t>
+  </si>
+  <si>
+    <t>Adjusting overall survival for treatment switch/crossover</t>
+  </si>
+  <si>
+    <t>Using the EUnetHTA HTA core model as a framework for planning, generating and presenting evidence</t>
+  </si>
+  <si>
+    <t>Pierre Ducorneau</t>
+  </si>
+  <si>
+    <t>Predicting long term survival using nonparametric Bayesian methods: the melanoma case</t>
+  </si>
+  <si>
+    <t>Yovanna Castro</t>
+  </si>
+  <si>
+    <t>Nathalie Barbier</t>
+  </si>
+  <si>
+    <t>Reimbursement challenges with new emerging cancer therapies</t>
+  </si>
+  <si>
+    <t>The value of Oncology therapies and emerging access hurdles in Canada and the United States</t>
+  </si>
+  <si>
+    <t>Won Lee</t>
   </si>
 </sst>
 </file>
@@ -3168,11 +3405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J950"/>
+  <dimension ref="A1:J979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6363,7 +6600,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -6420,421 +6657,437 @@
       <c r="E141" s="3">
         <v>1</v>
       </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="1"/>
+      <c r="F141" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>903</v>
+      </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
-        <f>"26.06.2017"</f>
-        <v>26.06.2017</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>472</v>
-      </c>
+        <f t="shared" ref="A142:A148" si="20">"11.09.2017"</f>
+        <v>11.09.2017</v>
+      </c>
+      <c r="B142" s="13"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G142" s="4"/>
+        <v>898</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="H142" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
-        <f t="shared" ref="A143:A144" si="20">"26.06.2017"</f>
-        <v>26.06.2017</v>
+        <f t="shared" si="20"/>
+        <v>11.09.2017</v>
       </c>
       <c r="B143" s="13"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="G143" s="4"/>
+        <v>899</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H143" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>479</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>26.06.2017</v>
+        <v>11.09.2017</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="G144" s="4"/>
+        <v>900</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H144" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
-        <f t="shared" ref="A145:A153" si="21">"15.06.2017"</f>
-        <v>15.06.2017</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>446</v>
-      </c>
+        <f t="shared" si="20"/>
+        <v>11.09.2017</v>
+      </c>
+      <c r="B145" s="13"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>15.06.2017</v>
+        <f t="shared" si="20"/>
+        <v>11.09.2017</v>
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="11"/>
       <c r="E146" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H146" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>15.06.2017</v>
+        <f t="shared" si="20"/>
+        <v>11.09.2017</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="3"/>
+      <c r="D147" s="11"/>
       <c r="E147" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>15.06.2017</v>
+        <f t="shared" si="20"/>
+        <v>11.09.2017</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="11"/>
       <c r="E148" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>15.06.2017</v>
-      </c>
-      <c r="B149" s="13"/>
+        <f>"26.06.2017"</f>
+        <v>26.06.2017</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>472</v>
+      </c>
       <c r="C149" s="11"/>
-      <c r="D149" s="3"/>
+      <c r="D149" s="11"/>
       <c r="E149" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="G149" s="4"/>
+      <c r="H149" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I149" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>15.06.2017</v>
+        <f t="shared" ref="A150:A151" si="21">"26.06.2017"</f>
+        <v>26.06.2017</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="11"/>
       <c r="E150" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>459</v>
+        <v>474</v>
+      </c>
+      <c r="G150" s="4"/>
+      <c r="H150" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>15.06.2017</v>
+        <v>26.06.2017</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="11"/>
       <c r="E151" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>460</v>
+        <v>476</v>
+      </c>
+      <c r="G151" s="4"/>
+      <c r="H151" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="A152:A160" si="22">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
-      <c r="B152" s="13"/>
+      <c r="B152" s="13" t="s">
+        <v>446</v>
+      </c>
       <c r="C152" s="11"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>209</v>
+        <v>447</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15.06.2017</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="11"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
-        <f>"05.05.2017"</f>
-        <v>05.05.2017</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>481</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>15.06.2017</v>
+      </c>
+      <c r="B154" s="13"/>
       <c r="C154" s="11"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
-        <f t="shared" ref="A155:A159" si="22">"05.05.2017"</f>
-        <v>05.05.2017</v>
+        <f t="shared" si="22"/>
+        <v>15.06.2017</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="11"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>05.05.2017</v>
+        <v>15.06.2017</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="11"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>484</v>
+        <v>121</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>05.05.2017</v>
+        <v>15.06.2017</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="11"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>05.05.2017</v>
+        <v>15.06.2017</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="11"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>05.05.2017</v>
+        <v>15.06.2017</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="11"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
-        <f>"13.03.2017"</f>
-        <v>13.03.2017</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>499</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>15.06.2017</v>
+      </c>
+      <c r="B160" s="13"/>
       <c r="C160" s="11"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3">
-        <v>1</v>
-      </c>
-      <c r="F160" s="4"/>
-      <c r="I160" s="12"/>
-    </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
-        <f>"29.11.2016"</f>
-        <v>29.11.2016</v>
+        <f>"05.05.2017"</f>
+        <v>05.05.2017</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="3"/>
@@ -6842,19 +7095,19 @@
         <v>1</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
-        <f t="shared" ref="A162:A165" si="23">"29.11.2016"</f>
-        <v>29.11.2016</v>
+        <f t="shared" ref="A162:A166" si="23">"05.05.2017"</f>
+        <v>05.05.2017</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="11"/>
@@ -6863,19 +7116,19 @@
         <v>2</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>29.11.2016</v>
+        <v>05.05.2017</v>
       </c>
       <c r="B163" s="13"/>
       <c r="C163" s="11"/>
@@ -6884,19 +7137,19 @@
         <v>3</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>29.11.2016</v>
+        <v>05.05.2017</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="11"/>
@@ -6905,19 +7158,19 @@
         <v>4</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>29.11.2016</v>
+        <v>05.05.2017</v>
       </c>
       <c r="B165" s="13"/>
       <c r="C165" s="11"/>
@@ -6926,1719 +7179,1731 @@
         <v>5</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
-        <f>"14.11.2016"</f>
-        <v>14.11.2016</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>516</v>
-      </c>
+        <f t="shared" si="23"/>
+        <v>05.05.2017</v>
+      </c>
+      <c r="B166" s="13"/>
       <c r="C166" s="11"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3">
+        <v>6</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="str">
+        <f>"13.03.2017"</f>
+        <v>13.03.2017</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3">
         <v>1</v>
       </c>
-      <c r="F166" s="4"/>
-      <c r="I166" s="12"/>
-    </row>
-    <row r="167" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="str">
+      <c r="F167" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="str">
+        <f>"13.03.2017"</f>
+        <v>13.03.2017</v>
+      </c>
+      <c r="B168" s="13"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3">
+        <v>2</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H168" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="str">
+        <f>"29.11.2016"</f>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="str">
+        <f t="shared" ref="A170:A173" si="24">"29.11.2016"</f>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B170" s="13"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3">
+        <v>2</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B171" s="13"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3">
+        <v>3</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3">
+        <v>4</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>29.11.2016</v>
+      </c>
+      <c r="B173" s="13"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3">
+        <v>5</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="str">
+        <f>"14.11.2016"</f>
+        <v>14.11.2016</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="str">
+        <f t="shared" ref="A175:A177" si="25">"14.11.2016"</f>
+        <v>14.11.2016</v>
+      </c>
+      <c r="B175" s="13"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3">
+        <v>2</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="H175" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>14.11.2016</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3">
+        <v>3</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H176" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>14.11.2016</v>
+      </c>
+      <c r="B177" s="13"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3">
+        <v>4</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="H177" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="str">
         <f>"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B178" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="3">
+      <c r="C178" s="11"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="16"/>
-    </row>
-    <row r="168" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="str">
+      <c r="F178" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="H178" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="str">
+        <f t="shared" ref="A179:A180" si="26">"17.10.2016"</f>
+        <v>17.10.2016</v>
+      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3">
+        <v>2</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H179" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>17.10.2016</v>
+      </c>
+      <c r="B180" s="13"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3">
+        <v>3</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="str">
         <f>"14.09.2016"</f>
         <v>14.09.2016</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B181" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="3">
+      <c r="C181" s="11"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3">
         <v>1</v>
       </c>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="16"/>
-    </row>
-    <row r="169" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="str">
+      <c r="F181" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="str">
+        <f t="shared" ref="A182:A186" si="27">"14.09.2016"</f>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3">
+        <v>2</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B183" s="13"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3">
+        <v>3</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B184" s="13"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3">
+        <v>4</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="H184" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B185" s="13"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3">
+        <v>5</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>14.09.2016</v>
+      </c>
+      <c r="B186" s="13"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3">
+        <v>6</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B187" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="3">
+      <c r="C187" s="11"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3">
         <v>1</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F187" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="1" t="s">
+      <c r="H187" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="I169" s="16" t="s">
+      <c r="I187" s="12" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="str">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="3">
+      <c r="B188" s="13"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3">
         <v>2</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F188" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="1" t="s">
+      <c r="H188" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="I170" s="16" t="s">
+      <c r="I188" s="12" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="str">
+    <row r="189" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
       </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="3">
+      <c r="B189" s="13"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3">
         <v>3</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F189" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G171" s="4"/>
-      <c r="H171" s="1" t="s">
+      <c r="H189" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="I171" s="16" t="s">
+      <c r="I189" s="12" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="str">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="3">
+      <c r="B190" s="13"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3">
         <v>4</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F190" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G172" s="4"/>
-      <c r="H172" s="1" t="s">
+      <c r="H190" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="I172" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="str">
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B191" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="3">
-        <v>1</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G173" s="4"/>
-      <c r="H173" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="str">
-        <f t="shared" ref="A174:A182" si="24">"28.04.2016"</f>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B174" s="13"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="3">
-        <v>2</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B175" s="13"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="3">
-        <v>3</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="G175" s="4"/>
-      <c r="H175" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B176" s="13"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="3">
-        <v>4</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G176" s="4"/>
-      <c r="H176" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B177" s="13"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="3">
-        <v>5</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G177" s="4"/>
-      <c r="H177" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I177" s="9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="3">
-        <v>6</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G178" s="4"/>
-      <c r="H178" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I178" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B179" s="13"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="3">
-        <v>7</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="G179" s="4"/>
-      <c r="H179" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I179" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="3">
-        <v>8</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="G180" s="4"/>
-      <c r="H180" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I180" s="9"/>
-    </row>
-    <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B181" s="13"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="3">
-        <v>9</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="G181" s="4"/>
-      <c r="H181" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I181" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v>28.04.2016</v>
-      </c>
-      <c r="B182" s="13"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="3">
-        <v>10</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G182" s="4"/>
-      <c r="H182" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I182" s="9"/>
-    </row>
-    <row r="183" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="str">
-        <f>"13.01.2016"</f>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="3">
-        <v>1</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="4"/>
-      <c r="H183" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I183" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="str">
-        <f t="shared" ref="A184:A188" si="25">"13.01.2016"</f>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="3">
-        <v>2</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G184" s="4"/>
-      <c r="H184" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I184" s="9" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="str">
-        <f t="shared" si="25"/>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B185" s="13"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="3">
-        <v>3</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="G185" s="4"/>
-      <c r="H185" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I185" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="str">
-        <f t="shared" si="25"/>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="3">
-        <v>4</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="G186" s="4"/>
-      <c r="H186" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="str">
-        <f t="shared" si="25"/>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B187" s="13"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="3">
-        <v>5</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G187" s="4"/>
-      <c r="H187" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I187" s="9"/>
-    </row>
-    <row r="188" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A188" s="9" t="str">
-        <f t="shared" si="25"/>
-        <v>13.01.2016</v>
-      </c>
-      <c r="B188" s="13"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="3">
-        <v>6</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G188" s="4"/>
-      <c r="H188" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I188" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="str">
-        <f>"27.10.2015"</f>
-        <v>27.10.2015</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="3">
-        <v>1</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G189" s="4"/>
-      <c r="H189" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="I189" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="str">
-        <f>"27.10.2015"</f>
-        <v>27.10.2015</v>
-      </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="3">
-        <v>2</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G190" s="4"/>
-      <c r="H190" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="I190" s="9"/>
-    </row>
-    <row r="191" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="str">
-        <f>"23.06.2015"</f>
-        <v>23.06.2015</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>576</v>
-      </c>
       <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
+      <c r="D191" s="3"/>
       <c r="E191" s="3">
         <v>1</v>
       </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="9"/>
+      <c r="F191" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="192" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="str">
-        <f>"13.04.2015"</f>
-        <v>13.04.2015</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>577</v>
-      </c>
+        <f t="shared" ref="A192:A200" si="28">"28.04.2016"</f>
+        <v>28.04.2016</v>
+      </c>
+      <c r="B192" s="13"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="1" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
-        <f>"13.04.2015"</f>
-        <v>13.04.2015</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B193" s="13"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
-        <f>"13.04.2015"</f>
-        <v>13.04.2015</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="I194" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
-        <f>"13.11.2014"</f>
-        <v>13.11.2014</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>585</v>
-      </c>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
+      </c>
+      <c r="B195" s="13"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="1" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="str">
-        <f t="shared" ref="A196:A202" si="26">"13.11.2014"</f>
-        <v>13.11.2014</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
       <c r="E196" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="1" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
-        <f t="shared" si="26"/>
-        <v>13.11.2014</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="1" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>602</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
-        <f t="shared" si="26"/>
-        <v>13.11.2014</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I198" s="9" t="s">
-        <v>603</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="I198" s="9"/>
     </row>
     <row r="199" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="str">
-        <f t="shared" si="26"/>
-        <v>13.11.2014</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>593</v>
+        <v>485</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="1" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="str">
-        <f t="shared" si="26"/>
-        <v>13.11.2014</v>
+        <f t="shared" si="28"/>
+        <v>28.04.2016</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>595</v>
+        <v>540</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I200" s="9" t="s">
-        <v>605</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="I200" s="9"/>
     </row>
     <row r="201" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
-        <f t="shared" si="26"/>
-        <v>13.11.2014</v>
-      </c>
-      <c r="B201" s="13"/>
+        <f>"13.01.2016"</f>
+        <v>13.01.2016</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>556</v>
+      </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>597</v>
+        <v>10</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="1" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
-        <f t="shared" si="26"/>
-        <v>13.11.2014</v>
+        <f t="shared" ref="A202:A206" si="29">"13.01.2016"</f>
+        <v>13.01.2016</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="1" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
-        <f>"02.10.2014"</f>
-        <v>02.10.2014</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>608</v>
-      </c>
+        <f t="shared" si="29"/>
+        <v>13.01.2016</v>
+      </c>
+      <c r="B203" s="13"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="1" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
-        <f t="shared" ref="A204:A209" si="27">"02.10.2014"</f>
-        <v>02.10.2014</v>
+        <f t="shared" si="29"/>
+        <v>13.01.2016</v>
       </c>
       <c r="B204" s="13"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="1" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>02.10.2014</v>
+        <f t="shared" si="29"/>
+        <v>13.01.2016</v>
       </c>
       <c r="B205" s="13"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
       <c r="E205" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>613</v>
+        <v>560</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="I205" s="9"/>
+    </row>
+    <row r="206" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>02.10.2014</v>
+        <f t="shared" si="29"/>
+        <v>13.01.2016</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="1" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>02.10.2014</v>
-      </c>
-      <c r="B207" s="13"/>
+        <f>"27.10.2015"</f>
+        <v>27.10.2015</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>573</v>
+      </c>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>617</v>
+        <v>177</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="1" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>626</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>02.10.2014</v>
+        <f>"27.10.2015"</f>
+        <v>27.10.2015</v>
       </c>
       <c r="B208" s="13"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>619</v>
+        <v>259</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="I208" s="9" t="s">
-        <v>627</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="I208" s="9"/>
     </row>
     <row r="209" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>02.10.2014</v>
-      </c>
-      <c r="B209" s="13"/>
+        <f>"23.06.2015"</f>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>576</v>
+      </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="G209" s="4"/>
+        <v>952</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>953</v>
+      </c>
       <c r="H209" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="I209" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+      <c r="I209" s="9"/>
+    </row>
+    <row r="210" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="str">
-        <f>"07.05.2014"</f>
-        <v>07.05.2014</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>629</v>
-      </c>
+        <f t="shared" ref="A210:A219" si="30">"23.06.2015"</f>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B210" s="13"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>631</v>
+        <v>955</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="1" t="s">
-        <v>632</v>
+        <v>954</v>
       </c>
       <c r="I210" s="9"/>
     </row>
     <row r="211" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="str">
-        <f>"04.02.2014"</f>
-        <v>04.02.2014</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>630</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B211" s="13"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="3">
-        <v>1</v>
-      </c>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>958</v>
+      </c>
       <c r="I211" s="9"/>
     </row>
-    <row r="212" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="str">
-        <f>"18.06.2013"</f>
-        <v>18.06.2013</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>633</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B212" s="13"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G212" s="4"/>
+        <v>960</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>961</v>
+      </c>
       <c r="H212" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I212" s="9" t="s">
-        <v>634</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="I212" s="9"/>
     </row>
     <row r="213" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="str">
-        <f>"18.06.2013"</f>
-        <v>18.06.2013</v>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
       </c>
       <c r="B213" s="13"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="G213" s="4"/>
+        <v>963</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>964</v>
+      </c>
       <c r="H213" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I213" s="9" t="s">
-        <v>309</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="I213" s="9"/>
     </row>
     <row r="214" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
-        <f>"18.06.2013"</f>
-        <v>18.06.2013</v>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
       </c>
       <c r="B214" s="13"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
       <c r="E214" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="G214" s="4"/>
+        <v>965</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>902</v>
+      </c>
       <c r="H214" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="I214" s="9" t="s">
-        <v>635</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="I214" s="9"/>
     </row>
     <row r="215" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
-        <f>"04.06.2013"</f>
-        <v>04.06.2013</v>
-      </c>
-      <c r="B215" s="13" t="s">
-        <v>576</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
+      </c>
+      <c r="B215" s="13"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="G215" s="4"/>
+        <v>843</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>842</v>
+      </c>
       <c r="H215" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I215" s="9" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+      <c r="I215" s="9"/>
+    </row>
+    <row r="216" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
-        <f t="shared" ref="A216:A228" si="28">"04.06.2013"</f>
-        <v>04.06.2013</v>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
       </c>
       <c r="B216" s="13"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G216" s="4"/>
+        <v>969</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H216" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="I216" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+      <c r="I216" s="9"/>
+    </row>
+    <row r="217" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
       </c>
       <c r="B217" s="13"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
       <c r="E217" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="G217" s="4"/>
+        <v>971</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H217" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I217" s="9" t="s">
-        <v>667</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="I217" s="9"/>
     </row>
     <row r="218" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
       </c>
       <c r="B218" s="13"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
       <c r="E218" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="G218" s="4"/>
+        <v>972</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>902</v>
+      </c>
       <c r="H218" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="I218" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+      <c r="I218" s="9"/>
+    </row>
+    <row r="219" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="30"/>
+        <v>23.06.2015</v>
       </c>
       <c r="B219" s="13"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
       <c r="E219" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="G219" s="4"/>
+        <v>975</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H219" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="I219" s="9" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+      <c r="I219" s="9"/>
+    </row>
+    <row r="220" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
-      </c>
-      <c r="B220" s="13"/>
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>577</v>
+      </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>649</v>
+        <v>579</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="1" t="s">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="1" t="s">
-        <v>652</v>
+        <v>581</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>671</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f>"13.04.2015"</f>
+        <v>13.04.2015</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>653</v>
+        <v>474</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="1" t="s">
-        <v>654</v>
+        <v>582</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
-      </c>
-      <c r="B223" s="13"/>
+        <f>"13.11.2014"</f>
+        <v>13.11.2014</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>585</v>
+      </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>483</v>
+        <v>586</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="1" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" ref="A224:A230" si="31">"13.11.2014"</f>
+        <v>13.11.2014</v>
       </c>
       <c r="B224" s="13"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="1" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="31"/>
+        <v>13.11.2014</v>
       </c>
       <c r="B225" s="13"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>658</v>
+        <v>525</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="1" t="s">
-        <v>659</v>
+        <v>590</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="31"/>
+        <v>13.11.2014</v>
       </c>
       <c r="B226" s="13"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>660</v>
+        <v>591</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="1" t="s">
-        <v>661</v>
+        <v>592</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>676</v>
+        <v>603</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="31"/>
+        <v>13.11.2014</v>
       </c>
       <c r="B227" s="13"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>201</v>
+        <v>593</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="1" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v>04.06.2013</v>
+        <f t="shared" si="31"/>
+        <v>13.11.2014</v>
       </c>
       <c r="B228" s="13"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
       <c r="E228" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>185</v>
+        <v>595</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="1" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>678</v>
+        <v>605</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="str">
-        <f>"28.11.2012"</f>
-        <v>28.11.2012</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>679</v>
-      </c>
+        <f t="shared" si="31"/>
+        <v>13.11.2014</v>
+      </c>
+      <c r="B229" s="13"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
       <c r="E229" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>683</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="G229" s="4"/>
       <c r="H229" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I229" s="9"/>
+        <v>664</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="230" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="str">
-        <f t="shared" ref="A230:A231" si="29">"28.11.2012"</f>
-        <v>28.11.2012</v>
+        <f t="shared" si="31"/>
+        <v>13.11.2014</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
       <c r="E230" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>685</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="G230" s="4"/>
       <c r="H230" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="I230" s="9"/>
-    </row>
-    <row r="231" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="I230" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>28.11.2012</v>
-      </c>
-      <c r="B231" s="13"/>
+        <f>"02.10.2014"</f>
+        <v>02.10.2014</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
       <c r="E231" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>687</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="G231" s="4"/>
       <c r="H231" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I231" s="9"/>
+        <v>610</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="232" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="str">
-        <f>"25.09.2012"</f>
-        <v>25.09.2012</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>689</v>
-      </c>
+        <f t="shared" ref="A232:A237" si="32">"02.10.2014"</f>
+        <v>02.10.2014</v>
+      </c>
+      <c r="B232" s="13"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
       <c r="E232" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>690</v>
+        <v>611</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="1" t="s">
-        <v>693</v>
+        <v>612</v>
       </c>
       <c r="I232" s="9" t="s">
-        <v>698</v>
+        <v>623</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="str">
-        <f t="shared" ref="A233:A236" si="30">"25.09.2012"</f>
-        <v>25.09.2012</v>
+        <f t="shared" si="32"/>
+        <v>02.10.2014</v>
       </c>
       <c r="B233" s="13"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
       <c r="E233" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>691</v>
+        <v>613</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="1" t="s">
-        <v>694</v>
+        <v>614</v>
       </c>
       <c r="I233" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="30"/>
-        <v>25.09.2012</v>
+        <f t="shared" si="32"/>
+        <v>02.10.2014</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
       <c r="E234" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>692</v>
+        <v>615</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="1" t="s">
-        <v>695</v>
+        <v>616</v>
       </c>
       <c r="I234" s="9" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="str">
-        <f t="shared" si="30"/>
-        <v>25.09.2012</v>
+        <f t="shared" si="32"/>
+        <v>02.10.2014</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>483</v>
+        <v>617</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="1" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="I235" s="9" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="str">
-        <f t="shared" si="30"/>
-        <v>25.09.2012</v>
+        <f t="shared" si="32"/>
+        <v>02.10.2014</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>209</v>
+        <v>619</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="1" t="s">
-        <v>697</v>
+        <v>620</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>219</v>
+        <v>627</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="str">
-        <f>"09.07.2012"</f>
-        <v>09.07.2012</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>702</v>
-      </c>
+        <f t="shared" si="32"/>
+        <v>02.10.2014</v>
+      </c>
+      <c r="B237" s="13"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
       <c r="E237" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>703</v>
+        <v>621</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="1" t="s">
-        <v>706</v>
+        <v>622</v>
       </c>
       <c r="I237" s="9" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="str">
-        <f t="shared" ref="A238:A240" si="31">"09.07.2012"</f>
-        <v>09.07.2012</v>
-      </c>
-      <c r="B238" s="13"/>
+        <f>"07.05.2014"</f>
+        <v>07.05.2014</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>629</v>
+      </c>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="I238" s="9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="I238" s="9"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>09.07.2012</v>
+        <f>"07.05.2014"</f>
+        <v>07.05.2014</v>
       </c>
       <c r="B239" s="13"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
       <c r="E239" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>712</v>
+        <v>27</v>
       </c>
       <c r="G239" s="4"/>
-      <c r="H239" s="1" t="s">
-        <v>711</v>
-      </c>
+      <c r="H239" s="1"/>
       <c r="I239" s="9"/>
     </row>
     <row r="240" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>09.07.2012</v>
-      </c>
-      <c r="B240" s="13"/>
+        <f>"04.02.2014"</f>
+        <v>04.02.2014</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>630</v>
+      </c>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
       <c r="E240" s="3">
-        <v>4</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>705</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F240" s="4"/>
       <c r="G240" s="4"/>
-      <c r="H240" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="H240" s="1"/>
+      <c r="I240" s="9"/>
+    </row>
+    <row r="241" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="str">
-        <f>"22.05.2012"</f>
-        <v>22.05.2012</v>
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>714</v>
+        <v>633</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
       <c r="E241" s="3">
         <v>1</v>
       </c>
-      <c r="F241" s="4"/>
+      <c r="F241" s="4" t="s">
+        <v>637</v>
+      </c>
       <c r="G241" s="4"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="9"/>
-    </row>
-    <row r="242" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="H241" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I241" s="9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="str">
-        <f>"29.11.2011"</f>
-        <v>29.11.2011</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>718</v>
-      </c>
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
+      </c>
+      <c r="B242" s="13"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
       <c r="E242" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>716</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G242" s="4"/>
       <c r="H242" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="I242" s="9"/>
-    </row>
-    <row r="243" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="I242" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="str">
-        <f>"29.11.2011"</f>
-        <v>29.11.2011</v>
+        <f>"18.06.2013"</f>
+        <v>18.06.2013</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
       <c r="E243" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G243" s="4"/>
       <c r="H243" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="I243" s="9"/>
-    </row>
-    <row r="244" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="I243" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="str">
-        <f>"16.09.2011"</f>
-        <v>16.09.2011</v>
+        <f>"04.06.2013"</f>
+        <v>04.06.2013</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -8646,20 +8911,20 @@
         <v>1</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>721</v>
+        <v>663</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="1" t="s">
-        <v>722</v>
+        <v>35</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="str">
-        <f t="shared" ref="A245:A251" si="32">"16.09.2011"</f>
-        <v>16.09.2011</v>
+        <f t="shared" ref="A245:A257" si="33">"04.06.2013"</f>
+        <v>04.06.2013</v>
       </c>
       <c r="B245" s="13"/>
       <c r="C245" s="11"/>
@@ -8668,20 +8933,20 @@
         <v>2</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>723</v>
+        <v>209</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="1" t="s">
-        <v>724</v>
+        <v>642</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v>16.09.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B246" s="13"/>
       <c r="C246" s="11"/>
@@ -8690,20 +8955,20 @@
         <v>3</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>737</v>
+        <v>643</v>
       </c>
       <c r="G246" s="4"/>
       <c r="H246" s="1" t="s">
-        <v>725</v>
+        <v>644</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>736</v>
+        <v>667</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v>16.09.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B247" s="13"/>
       <c r="C247" s="11"/>
@@ -8712,18 +8977,20 @@
         <v>4</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>739</v>
+        <v>645</v>
       </c>
       <c r="G247" s="4"/>
       <c r="H247" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="I247" s="9"/>
-    </row>
-    <row r="248" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v>16.09.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B248" s="13"/>
       <c r="C248" s="11"/>
@@ -8732,20 +8999,20 @@
         <v>5</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>726</v>
+        <v>647</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="1" t="s">
-        <v>727</v>
+        <v>648</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>740</v>
+        <v>669</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v>16.09.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B249" s="13"/>
       <c r="C249" s="11"/>
@@ -8754,20 +9021,20 @@
         <v>6</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>728</v>
+        <v>649</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="1" t="s">
-        <v>729</v>
+        <v>650</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v>16.09.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B250" s="13"/>
       <c r="C250" s="11"/>
@@ -8776,18 +9043,20 @@
         <v>7</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>733</v>
+        <v>651</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="I250" s="9"/>
-    </row>
-    <row r="251" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="I250" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v>16.09.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B251" s="13"/>
       <c r="C251" s="11"/>
@@ -8796,756 +9065,751 @@
         <v>8</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>731</v>
+        <v>653</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="1" t="s">
-        <v>732</v>
+        <v>654</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
-        <f>"21.07.2011"</f>
-        <v>21.07.2011</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>743</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
+      </c>
+      <c r="B252" s="13"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>744</v>
+        <v>483</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="1" t="s">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="str">
-        <f t="shared" ref="A253:A255" si="33">"21.07.2011"</f>
-        <v>21.07.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B253" s="13"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>745</v>
+        <v>656</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="1" t="s">
-        <v>748</v>
+        <v>657</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="str">
         <f t="shared" si="33"/>
-        <v>21.07.2011</v>
+        <v>04.06.2013</v>
       </c>
       <c r="B254" s="13"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>746</v>
+        <v>658</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="1" t="s">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="str">
         <f t="shared" si="33"/>
-        <v>21.07.2011</v>
+        <v>04.06.2013</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="1" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="str">
-        <f>"10.05.2011"</f>
-        <v>10.05.2011</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>755</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
+      </c>
+      <c r="B256" s="13"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="1" t="s">
-        <v>760</v>
+        <v>662</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="str">
-        <f t="shared" ref="A257:A264" si="34">"10.05.2011"</f>
-        <v>10.05.2011</v>
+        <f t="shared" si="33"/>
+        <v>04.06.2013</v>
       </c>
       <c r="B257" s="13"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>756</v>
+        <v>185</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="1" t="s">
-        <v>761</v>
+        <v>636</v>
       </c>
       <c r="I257" s="9" t="s">
-        <v>769</v>
+        <v>678</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>10.05.2011</v>
-      </c>
-      <c r="B258" s="13"/>
+        <f>"28.11.2012"</f>
+        <v>28.11.2012</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>679</v>
+      </c>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="G258" s="4"/>
+        <v>682</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>683</v>
+      </c>
       <c r="H258" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="I258" s="9" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="I258" s="9"/>
+    </row>
+    <row r="259" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>10.05.2011</v>
+        <f t="shared" ref="A259:A260" si="34">"28.11.2012"</f>
+        <v>28.11.2012</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="G259" s="4"/>
+        <v>684</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>685</v>
+      </c>
       <c r="H259" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="I259" s="9" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="I259" s="9"/>
+    </row>
+    <row r="260" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>10.05.2011</v>
+        <v>28.11.2012</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="G260" s="4"/>
+        <v>686</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="H260" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="I260" s="9" t="s">
-        <v>772</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="I260" s="9"/>
     </row>
     <row r="261" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>10.05.2011</v>
-      </c>
-      <c r="B261" s="13"/>
+        <f>"25.09.2012"</f>
+        <v>25.09.2012</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>689</v>
+      </c>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
       <c r="E261" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>744</v>
+        <v>690</v>
       </c>
       <c r="G261" s="4"/>
       <c r="H261" s="1" t="s">
-        <v>765</v>
+        <v>693</v>
       </c>
       <c r="I261" s="9" t="s">
-        <v>773</v>
+        <v>698</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>10.05.2011</v>
+        <f t="shared" ref="A262:A265" si="35">"25.09.2012"</f>
+        <v>25.09.2012</v>
       </c>
       <c r="B262" s="13"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
       <c r="E262" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>759</v>
+        <v>691</v>
       </c>
       <c r="G262" s="4"/>
       <c r="H262" s="1" t="s">
-        <v>766</v>
+        <v>694</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>774</v>
+        <v>699</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>10.05.2011</v>
+        <f t="shared" si="35"/>
+        <v>25.09.2012</v>
       </c>
       <c r="B263" s="13"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
       <c r="E263" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="G263" s="4"/>
       <c r="H263" s="1" t="s">
-        <v>767</v>
+        <v>695</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>775</v>
+        <v>700</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>10.05.2011</v>
+        <f t="shared" si="35"/>
+        <v>25.09.2012</v>
       </c>
       <c r="B264" s="13"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>757</v>
+        <v>483</v>
       </c>
       <c r="G264" s="4"/>
       <c r="H264" s="1" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
       <c r="I264" s="9" t="s">
-        <v>776</v>
+        <v>701</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="str">
-        <f>"07.05.2011"</f>
-        <v>07.05.2011</v>
-      </c>
-      <c r="B265" s="13" t="s">
-        <v>777</v>
-      </c>
+        <f t="shared" si="35"/>
+        <v>25.09.2012</v>
+      </c>
+      <c r="B265" s="13"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
       <c r="E265" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>778</v>
+        <v>209</v>
       </c>
       <c r="G265" s="4"/>
       <c r="H265" s="1" t="s">
-        <v>782</v>
+        <v>697</v>
       </c>
       <c r="I265" s="9" t="s">
-        <v>788</v>
+        <v>219</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="str">
-        <f t="shared" ref="A266:A269" si="35">"07.05.2011"</f>
-        <v>07.05.2011</v>
-      </c>
-      <c r="B266" s="13"/>
+        <f>"09.07.2012"</f>
+        <v>09.07.2012</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>702</v>
+      </c>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
       <c r="E266" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>779</v>
+        <v>703</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="1" t="s">
-        <v>783</v>
+        <v>706</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>789</v>
+        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="str">
-        <f t="shared" si="35"/>
-        <v>07.05.2011</v>
+        <f t="shared" ref="A267:A269" si="36">"09.07.2012"</f>
+        <v>09.07.2012</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
       <c r="E267" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>787</v>
+        <v>704</v>
       </c>
       <c r="G267" s="4"/>
       <c r="H267" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="I267" s="9"/>
-    </row>
-    <row r="268" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+      <c r="I267" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="str">
-        <f t="shared" si="35"/>
-        <v>07.05.2011</v>
+        <f t="shared" si="36"/>
+        <v>09.07.2012</v>
       </c>
       <c r="B268" s="13"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
       <c r="E268" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>780</v>
+        <v>712</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="I268" s="9" t="s">
-        <v>790</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="I268" s="9"/>
     </row>
     <row r="269" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="str">
-        <f t="shared" si="35"/>
-        <v>07.05.2011</v>
+        <f t="shared" si="36"/>
+        <v>09.07.2012</v>
       </c>
       <c r="B269" s="13"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>781</v>
+        <v>705</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="1" t="s">
-        <v>785</v>
+        <v>708</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>791</v>
+        <v>713</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="str">
-        <f>"13.01.2011"</f>
-        <v>13.01.2011</v>
+        <f>"22.05.2012"</f>
+        <v>22.05.2012</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>792</v>
+        <v>714</v>
       </c>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="3">
         <v>1</v>
       </c>
-      <c r="F270" s="4" t="s">
-        <v>798</v>
-      </c>
+      <c r="F270" s="4"/>
       <c r="G270" s="4"/>
-      <c r="H270" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="I270" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="H270" s="1"/>
+      <c r="I270" s="9"/>
+    </row>
+    <row r="271" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="str">
-        <f>"13.01.2011"</f>
-        <v>13.01.2011</v>
-      </c>
-      <c r="B271" s="13"/>
+        <f>"29.11.2011"</f>
+        <v>29.11.2011</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>718</v>
+      </c>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
       <c r="E271" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="G271" s="4"/>
+        <v>715</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>716</v>
+      </c>
       <c r="H271" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="I271" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="I271" s="9"/>
+    </row>
+    <row r="272" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="str">
-        <f>"30.11.2010"</f>
-        <v>30.11.2010</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>718</v>
-      </c>
+        <f>"29.11.2011"</f>
+        <v>29.11.2011</v>
+      </c>
+      <c r="B272" s="13"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
       <c r="E272" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G272" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H272" s="1" t="s">
-        <v>796</v>
+        <v>719</v>
       </c>
       <c r="I272" s="9"/>
     </row>
-    <row r="273" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="str">
-        <f>"30.11.2010"</f>
-        <v>30.11.2010</v>
-      </c>
-      <c r="B273" s="13"/>
+        <f>"16.09.2011"</f>
+        <v>16.09.2011</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>720</v>
+      </c>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>795</v>
+        <v>721</v>
       </c>
       <c r="G273" s="4"/>
       <c r="H273" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="I273" s="9"/>
-    </row>
-    <row r="274" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="I273" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="str">
-        <f>"04.10.2010"</f>
-        <v>04.10.2010</v>
-      </c>
-      <c r="B274" s="13" t="s">
-        <v>802</v>
-      </c>
+        <f t="shared" ref="A274:A280" si="37">"16.09.2011"</f>
+        <v>16.09.2011</v>
+      </c>
+      <c r="B274" s="13"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="G274" s="4" t="s">
-        <v>804</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="G274" s="4"/>
       <c r="H274" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="I274" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="str">
-        <f t="shared" ref="A275:A284" si="36">"04.10.2010"</f>
-        <v>04.10.2010</v>
+        <f t="shared" si="37"/>
+        <v>16.09.2011</v>
       </c>
       <c r="B275" s="13"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
       <c r="E275" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="G275" s="4"/>
       <c r="H275" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="I275" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="37"/>
+        <v>16.09.2011</v>
       </c>
       <c r="B276" s="13"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
       <c r="E276" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="G276" s="4"/>
       <c r="H276" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="I276" s="9"/>
+    </row>
+    <row r="277" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="37"/>
+        <v>16.09.2011</v>
       </c>
       <c r="B277" s="13"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
       <c r="E277" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>810</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="G277" s="4"/>
       <c r="H277" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+      <c r="I277" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="37"/>
+        <v>16.09.2011</v>
       </c>
       <c r="B278" s="13"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
       <c r="E278" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>812</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="G278" s="4"/>
       <c r="H278" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="I278" s="9"/>
-    </row>
-    <row r="279" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="I278" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="37"/>
+        <v>16.09.2011</v>
       </c>
       <c r="B279" s="13"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G279" s="4" t="s">
-        <v>815</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="G279" s="4"/>
       <c r="H279" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="I279" s="12" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="I279" s="9"/>
+    </row>
+    <row r="280" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="37"/>
+        <v>16.09.2011</v>
       </c>
       <c r="B280" s="13"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
       <c r="E280" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>815</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="G280" s="4"/>
       <c r="H280" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="I280" s="12" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="I280" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
-      </c>
-      <c r="B281" s="13"/>
+        <f>"21.07.2011"</f>
+        <v>21.07.2011</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>743</v>
+      </c>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
       <c r="E281" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H281" s="1"/>
-    </row>
-    <row r="282" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="G281" s="4"/>
+      <c r="H281" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I281" s="9" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" ref="A282:A284" si="38">"21.07.2011"</f>
+        <v>21.07.2011</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
       <c r="E282" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>819</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="G282" s="4"/>
       <c r="H282" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="I282" s="12" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="I282" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="38"/>
+        <v>21.07.2011</v>
       </c>
       <c r="B283" s="13"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
       <c r="E283" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="G283" s="4"/>
       <c r="H283" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="I283" s="9"/>
+        <v>749</v>
+      </c>
+      <c r="I283" s="9" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="284" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="str">
-        <f t="shared" si="36"/>
-        <v>04.10.2010</v>
+        <f t="shared" si="38"/>
+        <v>21.07.2011</v>
       </c>
       <c r="B284" s="13"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
       <c r="E284" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="G284" s="4" t="s">
-        <v>823</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="G284" s="4"/>
       <c r="H284" s="1" t="s">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="str">
-        <f>"24.06.2010"</f>
-        <v>24.06.2010</v>
+        <f>"10.05.2011"</f>
+        <v>10.05.2011</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>829</v>
+        <v>755</v>
       </c>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -9553,20 +9817,20 @@
         <v>1</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="G285" s="4" t="s">
-        <v>833</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G285" s="4"/>
       <c r="H285" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="I285" s="9"/>
-    </row>
-    <row r="286" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="I285" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="str">
-        <f t="shared" ref="A286:A291" si="37">"24.06.2010"</f>
-        <v>24.06.2010</v>
+        <f t="shared" ref="A286:A293" si="39">"10.05.2011"</f>
+        <v>10.05.2011</v>
       </c>
       <c r="B286" s="13"/>
       <c r="C286" s="11"/>
@@ -9575,20 +9839,20 @@
         <v>2</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G286" s="4" t="s">
-        <v>834</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="G286" s="4"/>
       <c r="H286" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="I286" s="9"/>
+        <v>761</v>
+      </c>
+      <c r="I286" s="9" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="287" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>24.06.2010</v>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
       </c>
       <c r="B287" s="13"/>
       <c r="C287" s="11"/>
@@ -9597,20 +9861,20 @@
         <v>3</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="G287" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G287" s="4"/>
       <c r="H287" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="I287" s="9"/>
-    </row>
-    <row r="288" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="I287" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>24.06.2010</v>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
       </c>
       <c r="B288" s="13"/>
       <c r="C288" s="11"/>
@@ -9619,20 +9883,20 @@
         <v>4</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="G288" s="4"/>
       <c r="H288" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="I288" s="9"/>
-    </row>
-    <row r="289" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+      <c r="I288" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>24.06.2010</v>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
       </c>
       <c r="B289" s="13"/>
       <c r="C289" s="11"/>
@@ -9641,20 +9905,20 @@
         <v>5</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="G289" s="4" t="s">
-        <v>842</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="G289" s="4"/>
       <c r="H289" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="I289" s="9"/>
-    </row>
-    <row r="290" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+      <c r="I289" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>24.06.2010</v>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
       </c>
       <c r="B290" s="13"/>
       <c r="C290" s="11"/>
@@ -9663,20 +9927,20 @@
         <v>6</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="G290" s="4" t="s">
-        <v>845</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="G290" s="4"/>
       <c r="H290" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="I290" s="9"/>
-    </row>
-    <row r="291" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+      <c r="I290" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>24.06.2010</v>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
       </c>
       <c r="B291" s="13"/>
       <c r="C291" s="11"/>
@@ -9685,71 +9949,67 @@
         <v>7</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="G291" s="4"/>
       <c r="H291" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="I291" s="9"/>
-    </row>
-    <row r="292" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="I291" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="str">
-        <f>"28.04.2010"</f>
-        <v>28.04.2010</v>
-      </c>
-      <c r="B292" s="13" t="s">
-        <v>847</v>
-      </c>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
+      </c>
+      <c r="B292" s="13"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
       <c r="E292" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="G292" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="G292" s="4"/>
       <c r="H292" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="I292" s="9"/>
+        <v>767</v>
+      </c>
+      <c r="I292" s="9" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="293" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="str">
-        <f>"28.04.2010"</f>
-        <v>28.04.2010</v>
+        <f t="shared" si="39"/>
+        <v>10.05.2011</v>
       </c>
       <c r="B293" s="13"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
       <c r="E293" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="G293" s="4" t="s">
-        <v>852</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="G293" s="4"/>
       <c r="H293" s="1" t="s">
-        <v>851</v>
+        <v>768</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="str">
-        <f>"12.03.2010"</f>
-        <v>12.03.2010</v>
+        <f>"07.05.2011"</f>
+        <v>07.05.2011</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
@@ -9757,20 +10017,20 @@
         <v>1</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>854</v>
+        <v>778</v>
       </c>
       <c r="G294" s="4"/>
       <c r="H294" s="1" t="s">
-        <v>861</v>
+        <v>782</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="str">
-        <f t="shared" ref="A295:A300" si="38">"12.03.2010"</f>
-        <v>12.03.2010</v>
+        <f t="shared" ref="A295:A298" si="40">"07.05.2011"</f>
+        <v>07.05.2011</v>
       </c>
       <c r="B295" s="13"/>
       <c r="C295" s="11"/>
@@ -9779,20 +10039,20 @@
         <v>2</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>855</v>
+        <v>779</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="1" t="s">
-        <v>862</v>
+        <v>783</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>869</v>
+        <v>789</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v>12.03.2010</v>
+        <f t="shared" si="40"/>
+        <v>07.05.2011</v>
       </c>
       <c r="B296" s="13"/>
       <c r="C296" s="11"/>
@@ -9801,20 +10061,18 @@
         <v>3</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>856</v>
+        <v>787</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="I296" s="9" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="I296" s="9"/>
+    </row>
+    <row r="297" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v>12.03.2010</v>
+        <f t="shared" si="40"/>
+        <v>07.05.2011</v>
       </c>
       <c r="B297" s="13"/>
       <c r="C297" s="11"/>
@@ -9823,20 +10081,20 @@
         <v>4</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>857</v>
+        <v>780</v>
       </c>
       <c r="G297" s="4"/>
       <c r="H297" s="1" t="s">
-        <v>864</v>
+        <v>784</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v>12.03.2010</v>
+        <f t="shared" si="40"/>
+        <v>07.05.2011</v>
       </c>
       <c r="B298" s="13"/>
       <c r="C298" s="11"/>
@@ -9845,67 +10103,69 @@
         <v>5</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>858</v>
+        <v>781</v>
       </c>
       <c r="G298" s="4"/>
       <c r="H298" s="1" t="s">
-        <v>865</v>
+        <v>785</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>872</v>
+        <v>791</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v>12.03.2010</v>
-      </c>
-      <c r="B299" s="13"/>
+        <f>"13.01.2011"</f>
+        <v>13.01.2011</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>792</v>
+      </c>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
       <c r="E299" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>859</v>
+        <v>798</v>
       </c>
       <c r="G299" s="4"/>
       <c r="H299" s="1" t="s">
-        <v>866</v>
+        <v>799</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v>12.03.2010</v>
+        <f>"13.01.2011"</f>
+        <v>13.01.2011</v>
       </c>
       <c r="B300" s="13"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
       <c r="E300" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G300" s="4"/>
       <c r="H300" s="1" t="s">
-        <v>867</v>
+        <v>801</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="str">
-        <f>"12.01.2010"</f>
-        <v>12.01.2010</v>
+        <f>"30.11.2010"</f>
+        <v>30.11.2010</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>875</v>
+        <v>718</v>
       </c>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
@@ -9913,20 +10173,18 @@
         <v>1</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>876</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="G301" s="4"/>
       <c r="H301" s="1" t="s">
-        <v>878</v>
+        <v>796</v>
       </c>
       <c r="I301" s="9"/>
     </row>
-    <row r="302" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="str">
-        <f>"12.01.2010"</f>
-        <v>12.01.2010</v>
+        <f>"30.11.2010"</f>
+        <v>30.11.2010</v>
       </c>
       <c r="B302" s="13"/>
       <c r="C302" s="11"/>
@@ -9935,23 +10193,21 @@
         <v>2</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G302" s="4" t="s">
-        <v>876</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="G302" s="4"/>
       <c r="H302" s="1" t="s">
-        <v>879</v>
+        <v>797</v>
       </c>
       <c r="I302" s="9"/>
     </row>
-    <row r="303" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="str">
-        <f>"07.12.2009"</f>
-        <v>07.12.2009</v>
+        <f>"04.10.2010"</f>
+        <v>04.10.2010</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>880</v>
+        <v>802</v>
       </c>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -9959,20 +10215,19 @@
         <v>1</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>881</v>
+        <v>803</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>882</v>
+        <v>804</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="I303" s="9"/>
-    </row>
-    <row r="304" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="str">
-        <f>"07.12.2009"</f>
-        <v>07.12.2009</v>
+        <f t="shared" ref="A304:A313" si="41">"04.10.2010"</f>
+        <v>04.10.2010</v>
       </c>
       <c r="B304" s="13"/>
       <c r="C304" s="11"/>
@@ -9981,380 +10236,713 @@
         <v>2</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>884</v>
+        <v>806</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="I304" s="9"/>
+        <v>807</v>
+      </c>
     </row>
     <row r="305" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="str">
-        <f>"26.10.2009"</f>
-        <v>26.10.2009</v>
-      </c>
-      <c r="B305" s="13" t="s">
-        <v>886</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
+      <c r="B305" s="13"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>887</v>
+        <v>527</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>888</v>
+        <v>69</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="I305" s="9"/>
-    </row>
-    <row r="306" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="str">
-        <f>"26.10.2009"</f>
-        <v>26.10.2009</v>
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
       </c>
       <c r="B306" s="13"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>376</v>
+        <v>809</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>69</v>
+        <v>810</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="I306" s="9"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B307" s="13"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="4"/>
-      <c r="G307" s="4"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="16"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
+      <c r="E307" s="3">
+        <v>5</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I307" s="9"/>
+    </row>
+    <row r="308" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B308" s="13"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="4"/>
-      <c r="H308" s="1"/>
-      <c r="I308" s="16"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="9"/>
+      <c r="E308" s="3">
+        <v>6</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="I308" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B309" s="13"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
-      <c r="H309" s="1"/>
-      <c r="I309" s="16"/>
+      <c r="E309" s="3">
+        <v>7</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="G309" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I309" s="12" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
+      <c r="A310" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B310" s="13"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
+      <c r="E310" s="3">
+        <v>8</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="H310" s="1"/>
-      <c r="I310" s="16"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A311" s="9"/>
+    </row>
+    <row r="311" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B311" s="13"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="4"/>
-      <c r="H311" s="1"/>
-      <c r="I311" s="16"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A312" s="9"/>
+      <c r="E311" s="3">
+        <v>9</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I311" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B312" s="13"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="4"/>
-      <c r="H312" s="1"/>
-      <c r="I312" s="16"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="9"/>
+      <c r="E312" s="3">
+        <v>10</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I312" s="9"/>
+    </row>
+    <row r="313" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v>04.10.2010</v>
+      </c>
       <c r="B313" s="13"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="4"/>
-      <c r="H313" s="1"/>
-      <c r="I313" s="16"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
-      <c r="B314" s="13"/>
+      <c r="E313" s="3">
+        <v>11</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="I313" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A314" s="9" t="str">
+        <f>"24.06.2010"</f>
+        <v>24.06.2010</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>829</v>
+      </c>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="4"/>
-      <c r="H314" s="1"/>
-      <c r="I314" s="16"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
+      <c r="E314" s="3">
+        <v>1</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G314" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="I314" s="9"/>
+    </row>
+    <row r="315" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="str">
+        <f t="shared" ref="A315:A320" si="42">"24.06.2010"</f>
+        <v>24.06.2010</v>
+      </c>
       <c r="B315" s="13"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="16"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
+      <c r="E315" s="3">
+        <v>2</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="I315" s="9"/>
+    </row>
+    <row r="316" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A316" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B316" s="13"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="4"/>
-      <c r="H316" s="1"/>
-      <c r="I316" s="16"/>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
+      <c r="E316" s="3">
+        <v>3</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I316" s="9"/>
+    </row>
+    <row r="317" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B317" s="13"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
-      <c r="H317" s="1"/>
-      <c r="I317" s="16"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A318" s="9"/>
+      <c r="E317" s="3">
+        <v>4</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="I317" s="9"/>
+    </row>
+    <row r="318" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B318" s="13"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
-      <c r="H318" s="1"/>
-      <c r="I318" s="16"/>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
+      <c r="E318" s="3">
+        <v>5</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="I318" s="9"/>
+    </row>
+    <row r="319" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B319" s="13"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
-      <c r="H319" s="1"/>
-      <c r="I319" s="16"/>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
+      <c r="E319" s="3">
+        <v>6</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G319" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="I319" s="9"/>
+    </row>
+    <row r="320" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A320" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>24.06.2010</v>
+      </c>
       <c r="B320" s="13"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="4"/>
-      <c r="G320" s="4"/>
-      <c r="H320" s="1"/>
-      <c r="I320" s="16"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" s="9"/>
-      <c r="B321" s="13"/>
+      <c r="E320" s="3">
+        <v>7</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I320" s="9"/>
+    </row>
+    <row r="321" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="str">
+        <f>"28.04.2010"</f>
+        <v>28.04.2010</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>847</v>
+      </c>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="4"/>
-      <c r="G321" s="4"/>
-      <c r="H321" s="1"/>
-      <c r="I321" s="16"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" s="9"/>
+      <c r="E321" s="3">
+        <v>1</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I321" s="9"/>
+    </row>
+    <row r="322" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="9" t="str">
+        <f>"28.04.2010"</f>
+        <v>28.04.2010</v>
+      </c>
       <c r="B322" s="13"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="1"/>
-      <c r="I322" s="16"/>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A323" s="9"/>
-      <c r="B323" s="13"/>
+      <c r="E322" s="3">
+        <v>2</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="I322" s="9" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="9" t="str">
+        <f>"12.03.2010"</f>
+        <v>12.03.2010</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>718</v>
+      </c>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="4"/>
+      <c r="E323" s="3">
+        <v>1</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>854</v>
+      </c>
       <c r="G323" s="4"/>
-      <c r="H323" s="1"/>
-      <c r="I323" s="16"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A324" s="9"/>
+      <c r="H323" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="I323" s="9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="9" t="str">
+        <f t="shared" ref="A324:A329" si="43">"12.03.2010"</f>
+        <v>12.03.2010</v>
+      </c>
       <c r="B324" s="13"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="4"/>
+      <c r="E324" s="3">
+        <v>2</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>855</v>
+      </c>
       <c r="G324" s="4"/>
-      <c r="H324" s="1"/>
-      <c r="I324" s="16"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A325" s="9"/>
+      <c r="H324" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I324" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A325" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B325" s="13"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="4"/>
+      <c r="E325" s="3">
+        <v>3</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>856</v>
+      </c>
       <c r="G325" s="4"/>
-      <c r="H325" s="1"/>
-      <c r="I325" s="16"/>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
+      <c r="H325" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="I325" s="9" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A326" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B326" s="13"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="4"/>
+      <c r="E326" s="3">
+        <v>4</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>857</v>
+      </c>
       <c r="G326" s="4"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="16"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
+      <c r="H326" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I326" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A327" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B327" s="13"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="4"/>
+      <c r="E327" s="3">
+        <v>5</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>858</v>
+      </c>
       <c r="G327" s="4"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="16"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A328" s="9"/>
+      <c r="H327" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="I327" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B328" s="13"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="4"/>
+      <c r="E328" s="3">
+        <v>6</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>859</v>
+      </c>
       <c r="G328" s="4"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="16"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" s="9"/>
+      <c r="H328" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="I328" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A329" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v>12.03.2010</v>
+      </c>
       <c r="B329" s="13"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="4"/>
+      <c r="E329" s="3">
+        <v>7</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="G329" s="4"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="16"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" s="9"/>
-      <c r="B330" s="13"/>
+      <c r="H329" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I329" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A330" s="9" t="str">
+        <f>"12.01.2010"</f>
+        <v>12.01.2010</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>875</v>
+      </c>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="4"/>
-      <c r="G330" s="4"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="16"/>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
+      <c r="E330" s="3">
+        <v>1</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I330" s="9"/>
+    </row>
+    <row r="331" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A331" s="9" t="str">
+        <f>"12.01.2010"</f>
+        <v>12.01.2010</v>
+      </c>
       <c r="B331" s="13"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="4"/>
-      <c r="G331" s="4"/>
-      <c r="H331" s="1"/>
-      <c r="I331" s="16"/>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
-      <c r="B332" s="13"/>
+      <c r="E331" s="3">
+        <v>2</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G331" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="I331" s="9"/>
+    </row>
+    <row r="332" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="9" t="str">
+        <f>"07.12.2009"</f>
+        <v>07.12.2009</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>880</v>
+      </c>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="4"/>
-      <c r="G332" s="4"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="16"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A333" s="9"/>
+      <c r="E332" s="3">
+        <v>1</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="I332" s="9"/>
+    </row>
+    <row r="333" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A333" s="9" t="str">
+        <f>"07.12.2009"</f>
+        <v>07.12.2009</v>
+      </c>
       <c r="B333" s="13"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="4"/>
-      <c r="G333" s="4"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="16"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
-      <c r="B334" s="13"/>
+      <c r="E333" s="3">
+        <v>2</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="I333" s="9"/>
+    </row>
+    <row r="334" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="9" t="str">
+        <f>"26.10.2009"</f>
+        <v>26.10.2009</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>886</v>
+      </c>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
-      <c r="E334" s="3"/>
-      <c r="F334" s="4"/>
-      <c r="G334" s="4"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="16"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
+      <c r="E334" s="3">
+        <v>1</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="I334" s="9"/>
+    </row>
+    <row r="335" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A335" s="9" t="str">
+        <f>"26.10.2009"</f>
+        <v>26.10.2009</v>
+      </c>
       <c r="B335" s="13"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
-      <c r="E335" s="3"/>
-      <c r="F335" s="4"/>
-      <c r="G335" s="4"/>
-      <c r="H335" s="1"/>
-      <c r="I335" s="16"/>
+      <c r="E335" s="3">
+        <v>2</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="I335" s="9"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
@@ -11149,323 +11737,323 @@
       <c r="I407" s="16"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408" s="10"/>
-      <c r="B408" s="6"/>
-      <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
-      <c r="E408" s="2"/>
+      <c r="A408" s="9"/>
+      <c r="B408" s="13"/>
+      <c r="C408" s="11"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="3"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
-      <c r="H408" s="14"/>
-      <c r="I408" s="2"/>
+      <c r="H408" s="1"/>
+      <c r="I408" s="16"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409" s="10"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
-      <c r="E409" s="2"/>
+      <c r="A409" s="9"/>
+      <c r="B409" s="13"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="3"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
-      <c r="H409" s="14"/>
-      <c r="I409" s="2"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="16"/>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410" s="10"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
-      <c r="E410" s="2"/>
+      <c r="A410" s="9"/>
+      <c r="B410" s="13"/>
+      <c r="C410" s="11"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="3"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
-      <c r="H410" s="14"/>
-      <c r="I410" s="2"/>
+      <c r="H410" s="1"/>
+      <c r="I410" s="16"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411" s="10"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
-      <c r="E411" s="2"/>
+      <c r="A411" s="9"/>
+      <c r="B411" s="13"/>
+      <c r="C411" s="11"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="3"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
-      <c r="H411" s="14"/>
-      <c r="I411" s="2"/>
+      <c r="H411" s="1"/>
+      <c r="I411" s="16"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412" s="10"/>
-      <c r="B412" s="6"/>
-      <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
-      <c r="E412" s="2"/>
+      <c r="A412" s="9"/>
+      <c r="B412" s="13"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="3"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
-      <c r="H412" s="14"/>
-      <c r="I412" s="2"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="16"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413" s="10"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
-      <c r="E413" s="2"/>
+      <c r="A413" s="9"/>
+      <c r="B413" s="13"/>
+      <c r="C413" s="11"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="3"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
-      <c r="H413" s="14"/>
-      <c r="I413" s="2"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="16"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414" s="10"/>
-      <c r="B414" s="6"/>
-      <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
-      <c r="E414" s="2"/>
+      <c r="A414" s="9"/>
+      <c r="B414" s="13"/>
+      <c r="C414" s="11"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="3"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
-      <c r="H414" s="14"/>
-      <c r="I414" s="2"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="16"/>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415" s="10"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
-      <c r="E415" s="2"/>
+      <c r="A415" s="9"/>
+      <c r="B415" s="13"/>
+      <c r="C415" s="11"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="3"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
-      <c r="H415" s="14"/>
-      <c r="I415" s="2"/>
+      <c r="H415" s="1"/>
+      <c r="I415" s="16"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416" s="10"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
-      <c r="E416" s="2"/>
+      <c r="A416" s="9"/>
+      <c r="B416" s="13"/>
+      <c r="C416" s="11"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="3"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
-      <c r="H416" s="14"/>
-      <c r="I416" s="2"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="16"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417" s="10"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
-      <c r="E417" s="2"/>
+      <c r="A417" s="9"/>
+      <c r="B417" s="13"/>
+      <c r="C417" s="11"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="3"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
-      <c r="H417" s="14"/>
-      <c r="I417" s="2"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="16"/>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418" s="10"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
-      <c r="E418" s="2"/>
+      <c r="A418" s="9"/>
+      <c r="B418" s="13"/>
+      <c r="C418" s="11"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="3"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
-      <c r="H418" s="14"/>
-      <c r="I418" s="2"/>
+      <c r="H418" s="1"/>
+      <c r="I418" s="16"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419" s="10"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="2"/>
+      <c r="A419" s="9"/>
+      <c r="B419" s="13"/>
+      <c r="C419" s="11"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="3"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
-      <c r="H419" s="14"/>
-      <c r="I419" s="2"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="16"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420" s="10"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="2"/>
+      <c r="A420" s="9"/>
+      <c r="B420" s="13"/>
+      <c r="C420" s="11"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="3"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
-      <c r="H420" s="14"/>
-      <c r="I420" s="2"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="16"/>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A421" s="10"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="2"/>
+      <c r="A421" s="9"/>
+      <c r="B421" s="13"/>
+      <c r="C421" s="11"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="3"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
-      <c r="H421" s="14"/>
-      <c r="I421" s="2"/>
+      <c r="H421" s="1"/>
+      <c r="I421" s="16"/>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A422" s="10"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="2"/>
+      <c r="A422" s="9"/>
+      <c r="B422" s="13"/>
+      <c r="C422" s="11"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="3"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
-      <c r="H422" s="14"/>
-      <c r="I422" s="2"/>
+      <c r="H422" s="1"/>
+      <c r="I422" s="16"/>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423" s="10"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="2"/>
+      <c r="A423" s="9"/>
+      <c r="B423" s="13"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="3"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
-      <c r="H423" s="14"/>
-      <c r="I423" s="2"/>
+      <c r="H423" s="1"/>
+      <c r="I423" s="16"/>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A424" s="10"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="2"/>
+      <c r="A424" s="9"/>
+      <c r="B424" s="13"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="3"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
-      <c r="H424" s="14"/>
-      <c r="I424" s="2"/>
+      <c r="H424" s="1"/>
+      <c r="I424" s="16"/>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A425" s="10"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
-      <c r="E425" s="2"/>
+      <c r="A425" s="9"/>
+      <c r="B425" s="13"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="3"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
-      <c r="H425" s="14"/>
-      <c r="I425" s="2"/>
+      <c r="H425" s="1"/>
+      <c r="I425" s="16"/>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426" s="10"/>
-      <c r="B426" s="6"/>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
-      <c r="E426" s="2"/>
+      <c r="A426" s="9"/>
+      <c r="B426" s="13"/>
+      <c r="C426" s="11"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="3"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
-      <c r="H426" s="14"/>
-      <c r="I426" s="2"/>
+      <c r="H426" s="1"/>
+      <c r="I426" s="16"/>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A427" s="10"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="2"/>
+      <c r="A427" s="9"/>
+      <c r="B427" s="13"/>
+      <c r="C427" s="11"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="3"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
-      <c r="H427" s="14"/>
-      <c r="I427" s="2"/>
+      <c r="H427" s="1"/>
+      <c r="I427" s="16"/>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A428" s="10"/>
-      <c r="B428" s="6"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="2"/>
+      <c r="A428" s="9"/>
+      <c r="B428" s="13"/>
+      <c r="C428" s="11"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="3"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
-      <c r="H428" s="14"/>
-      <c r="I428" s="2"/>
+      <c r="H428" s="1"/>
+      <c r="I428" s="16"/>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A429" s="10"/>
-      <c r="B429" s="6"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="2"/>
+      <c r="A429" s="9"/>
+      <c r="B429" s="13"/>
+      <c r="C429" s="11"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="3"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
-      <c r="H429" s="14"/>
-      <c r="I429" s="2"/>
+      <c r="H429" s="1"/>
+      <c r="I429" s="16"/>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A430" s="10"/>
-      <c r="B430" s="6"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="2"/>
+      <c r="A430" s="9"/>
+      <c r="B430" s="13"/>
+      <c r="C430" s="11"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="3"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
-      <c r="H430" s="14"/>
-      <c r="I430" s="2"/>
+      <c r="H430" s="1"/>
+      <c r="I430" s="16"/>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A431" s="10"/>
-      <c r="B431" s="6"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="2"/>
+      <c r="A431" s="9"/>
+      <c r="B431" s="13"/>
+      <c r="C431" s="11"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="3"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
-      <c r="H431" s="14"/>
-      <c r="I431" s="2"/>
+      <c r="H431" s="1"/>
+      <c r="I431" s="16"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A432" s="10"/>
-      <c r="B432" s="6"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="2"/>
+      <c r="A432" s="9"/>
+      <c r="B432" s="13"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="3"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
-      <c r="H432" s="14"/>
-      <c r="I432" s="2"/>
+      <c r="H432" s="1"/>
+      <c r="I432" s="16"/>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433" s="10"/>
-      <c r="B433" s="6"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="2"/>
+      <c r="A433" s="9"/>
+      <c r="B433" s="13"/>
+      <c r="C433" s="11"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="3"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
-      <c r="H433" s="14"/>
-      <c r="I433" s="2"/>
+      <c r="H433" s="1"/>
+      <c r="I433" s="16"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A434" s="10"/>
-      <c r="B434" s="6"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="2"/>
+      <c r="A434" s="9"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="3"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
-      <c r="H434" s="14"/>
-      <c r="I434" s="2"/>
+      <c r="H434" s="1"/>
+      <c r="I434" s="16"/>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A435" s="10"/>
-      <c r="B435" s="6"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-      <c r="E435" s="2"/>
+      <c r="A435" s="9"/>
+      <c r="B435" s="13"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="3"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
-      <c r="H435" s="14"/>
-      <c r="I435" s="2"/>
+      <c r="H435" s="1"/>
+      <c r="I435" s="16"/>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A436" s="10"/>
-      <c r="B436" s="6"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="2"/>
+      <c r="A436" s="9"/>
+      <c r="B436" s="13"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="3"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
-      <c r="H436" s="14"/>
-      <c r="I436" s="2"/>
+      <c r="H436" s="1"/>
+      <c r="I436" s="16"/>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="10"/>
@@ -17120,6 +17708,325 @@
       <c r="G950" s="4"/>
       <c r="H950" s="14"/>
       <c r="I950" s="2"/>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A951" s="10"/>
+      <c r="B951" s="6"/>
+      <c r="C951" s="4"/>
+      <c r="D951" s="4"/>
+      <c r="E951" s="2"/>
+      <c r="F951" s="4"/>
+      <c r="G951" s="4"/>
+      <c r="H951" s="14"/>
+      <c r="I951" s="2"/>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A952" s="10"/>
+      <c r="B952" s="6"/>
+      <c r="C952" s="4"/>
+      <c r="D952" s="4"/>
+      <c r="E952" s="2"/>
+      <c r="F952" s="4"/>
+      <c r="G952" s="4"/>
+      <c r="H952" s="14"/>
+      <c r="I952" s="2"/>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A953" s="10"/>
+      <c r="B953" s="6"/>
+      <c r="C953" s="4"/>
+      <c r="D953" s="4"/>
+      <c r="E953" s="2"/>
+      <c r="F953" s="4"/>
+      <c r="G953" s="4"/>
+      <c r="H953" s="14"/>
+      <c r="I953" s="2"/>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A954" s="10"/>
+      <c r="B954" s="6"/>
+      <c r="C954" s="4"/>
+      <c r="D954" s="4"/>
+      <c r="E954" s="2"/>
+      <c r="F954" s="4"/>
+      <c r="G954" s="4"/>
+      <c r="H954" s="14"/>
+      <c r="I954" s="2"/>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A955" s="10"/>
+      <c r="B955" s="6"/>
+      <c r="C955" s="4"/>
+      <c r="D955" s="4"/>
+      <c r="E955" s="2"/>
+      <c r="F955" s="4"/>
+      <c r="G955" s="4"/>
+      <c r="H955" s="14"/>
+      <c r="I955" s="2"/>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A956" s="10"/>
+      <c r="B956" s="6"/>
+      <c r="C956" s="4"/>
+      <c r="D956" s="4"/>
+      <c r="E956" s="2"/>
+      <c r="F956" s="4"/>
+      <c r="G956" s="4"/>
+      <c r="H956" s="14"/>
+      <c r="I956" s="2"/>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A957" s="10"/>
+      <c r="B957" s="6"/>
+      <c r="C957" s="4"/>
+      <c r="D957" s="4"/>
+      <c r="E957" s="2"/>
+      <c r="F957" s="4"/>
+      <c r="G957" s="4"/>
+      <c r="H957" s="14"/>
+      <c r="I957" s="2"/>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A958" s="10"/>
+      <c r="B958" s="6"/>
+      <c r="C958" s="4"/>
+      <c r="D958" s="4"/>
+      <c r="E958" s="2"/>
+      <c r="F958" s="4"/>
+      <c r="G958" s="4"/>
+      <c r="H958" s="14"/>
+      <c r="I958" s="2"/>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A959" s="10"/>
+      <c r="B959" s="6"/>
+      <c r="C959" s="4"/>
+      <c r="D959" s="4"/>
+      <c r="E959" s="2"/>
+      <c r="F959" s="4"/>
+      <c r="G959" s="4"/>
+      <c r="H959" s="14"/>
+      <c r="I959" s="2"/>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A960" s="10"/>
+      <c r="B960" s="6"/>
+      <c r="C960" s="4"/>
+      <c r="D960" s="4"/>
+      <c r="E960" s="2"/>
+      <c r="F960" s="4"/>
+      <c r="G960" s="4"/>
+      <c r="H960" s="14"/>
+      <c r="I960" s="2"/>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A961" s="10"/>
+      <c r="B961" s="6"/>
+      <c r="C961" s="4"/>
+      <c r="D961" s="4"/>
+      <c r="E961" s="2"/>
+      <c r="F961" s="4"/>
+      <c r="G961" s="4"/>
+      <c r="H961" s="14"/>
+      <c r="I961" s="2"/>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A962" s="10"/>
+      <c r="B962" s="6"/>
+      <c r="C962" s="4"/>
+      <c r="D962" s="4"/>
+      <c r="E962" s="2"/>
+      <c r="F962" s="4"/>
+      <c r="G962" s="4"/>
+      <c r="H962" s="14"/>
+      <c r="I962" s="2"/>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A963" s="10"/>
+      <c r="B963" s="6"/>
+      <c r="C963" s="4"/>
+      <c r="D963" s="4"/>
+      <c r="E963" s="2"/>
+      <c r="F963" s="4"/>
+      <c r="G963" s="4"/>
+      <c r="H963" s="14"/>
+      <c r="I963" s="2"/>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A964" s="10"/>
+      <c r="B964" s="6"/>
+      <c r="C964" s="4"/>
+      <c r="D964" s="4"/>
+      <c r="E964" s="2"/>
+      <c r="F964" s="4"/>
+      <c r="G964" s="4"/>
+      <c r="H964" s="14"/>
+      <c r="I964" s="2"/>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A965" s="10"/>
+      <c r="B965" s="6"/>
+      <c r="C965" s="4"/>
+      <c r="D965" s="4"/>
+      <c r="E965" s="2"/>
+      <c r="F965" s="4"/>
+      <c r="G965" s="4"/>
+      <c r="H965" s="14"/>
+      <c r="I965" s="2"/>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A966" s="10"/>
+      <c r="B966" s="6"/>
+      <c r="C966" s="4"/>
+      <c r="D966" s="4"/>
+      <c r="E966" s="2"/>
+      <c r="F966" s="4"/>
+      <c r="G966" s="4"/>
+      <c r="H966" s="14"/>
+      <c r="I966" s="2"/>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A967" s="10"/>
+      <c r="B967" s="6"/>
+      <c r="C967" s="4"/>
+      <c r="D967" s="4"/>
+      <c r="E967" s="2"/>
+      <c r="F967" s="4"/>
+      <c r="G967" s="4"/>
+      <c r="H967" s="14"/>
+      <c r="I967" s="2"/>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A968" s="10"/>
+      <c r="B968" s="6"/>
+      <c r="C968" s="4"/>
+      <c r="D968" s="4"/>
+      <c r="E968" s="2"/>
+      <c r="F968" s="4"/>
+      <c r="G968" s="4"/>
+      <c r="H968" s="14"/>
+      <c r="I968" s="2"/>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A969" s="10"/>
+      <c r="B969" s="6"/>
+      <c r="C969" s="4"/>
+      <c r="D969" s="4"/>
+      <c r="E969" s="2"/>
+      <c r="F969" s="4"/>
+      <c r="G969" s="4"/>
+      <c r="H969" s="14"/>
+      <c r="I969" s="2"/>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A970" s="10"/>
+      <c r="B970" s="6"/>
+      <c r="C970" s="4"/>
+      <c r="D970" s="4"/>
+      <c r="E970" s="2"/>
+      <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
+      <c r="H970" s="14"/>
+      <c r="I970" s="2"/>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A971" s="10"/>
+      <c r="B971" s="6"/>
+      <c r="C971" s="4"/>
+      <c r="D971" s="4"/>
+      <c r="E971" s="2"/>
+      <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
+      <c r="H971" s="14"/>
+      <c r="I971" s="2"/>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A972" s="10"/>
+      <c r="B972" s="6"/>
+      <c r="C972" s="4"/>
+      <c r="D972" s="4"/>
+      <c r="E972" s="2"/>
+      <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
+      <c r="H972" s="14"/>
+      <c r="I972" s="2"/>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A973" s="10"/>
+      <c r="B973" s="6"/>
+      <c r="C973" s="4"/>
+      <c r="D973" s="4"/>
+      <c r="E973" s="2"/>
+      <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
+      <c r="H973" s="14"/>
+      <c r="I973" s="2"/>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A974" s="10"/>
+      <c r="B974" s="6"/>
+      <c r="C974" s="4"/>
+      <c r="D974" s="4"/>
+      <c r="E974" s="2"/>
+      <c r="F974" s="4"/>
+      <c r="G974" s="4"/>
+      <c r="H974" s="14"/>
+      <c r="I974" s="2"/>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A975" s="10"/>
+      <c r="B975" s="6"/>
+      <c r="C975" s="4"/>
+      <c r="D975" s="4"/>
+      <c r="E975" s="2"/>
+      <c r="F975" s="4"/>
+      <c r="G975" s="4"/>
+      <c r="H975" s="14"/>
+      <c r="I975" s="2"/>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A976" s="10"/>
+      <c r="B976" s="6"/>
+      <c r="C976" s="4"/>
+      <c r="D976" s="4"/>
+      <c r="E976" s="2"/>
+      <c r="F976" s="4"/>
+      <c r="G976" s="4"/>
+      <c r="H976" s="14"/>
+      <c r="I976" s="2"/>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A977" s="10"/>
+      <c r="B977" s="6"/>
+      <c r="C977" s="4"/>
+      <c r="D977" s="4"/>
+      <c r="E977" s="2"/>
+      <c r="F977" s="4"/>
+      <c r="G977" s="4"/>
+      <c r="H977" s="14"/>
+      <c r="I977" s="2"/>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A978" s="10"/>
+      <c r="B978" s="6"/>
+      <c r="C978" s="4"/>
+      <c r="D978" s="4"/>
+      <c r="E978" s="2"/>
+      <c r="F978" s="4"/>
+      <c r="G978" s="4"/>
+      <c r="H978" s="14"/>
+      <c r="I978" s="2"/>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A979" s="10"/>
+      <c r="B979" s="6"/>
+      <c r="C979" s="4"/>
+      <c r="D979" s="4"/>
+      <c r="E979" s="2"/>
+      <c r="F979" s="4"/>
+      <c r="G979" s="4"/>
+      <c r="H979" s="14"/>
+      <c r="I979" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -3408,8 +3408,8 @@
   <dimension ref="A1:J979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H239" sqref="H239"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A258" sqref="A258:XFD263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="13185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27680" windowHeight="13190"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -2991,9 +2991,6 @@
     <t>Marc Vandemeulebroecke</t>
   </si>
   <si>
-    <t>Ekkehard Glimm, Frank Bretz Dong Xi</t>
-  </si>
-  <si>
     <t>Novartis &amp; Gilead</t>
   </si>
   <si>
@@ -3004,6 +3001,9 @@
   </si>
   <si>
     <t>https://streamingmedia.roche.com/media/BBS+Seminar+Graphical+approaches+to+multiple+test+problems+29+Mar+2022+-+Part+2/1_2i02bql4</t>
+  </si>
+  <si>
+    <t>Ekkehard Glimm, Frank Bretz &amp; Dong Xi</t>
   </si>
 </sst>
 </file>
@@ -3464,26 +3464,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="40.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="40.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="8" customWidth="1"/>
     <col min="6" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="38.7265625" style="8" customWidth="1"/>
     <col min="8" max="8" width="31" style="8" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="35.81640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="7"/>
+    <col min="11" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>318</v>
@@ -3518,7 +3518,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>986</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>988</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>986</v>
       </c>
@@ -3558,19 +3558,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>990</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>991</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>987</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -3599,7 +3599,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="str">
         <f t="shared" ref="A5:A7" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -3624,7 +3624,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -3649,7 +3649,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>21.02.2022</v>
@@ -3674,7 +3674,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="str">
         <f>"27.07.2021"</f>
         <v>27.07.2021</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="str">
         <f t="shared" ref="A9:A12" si="1">"27.07.2021"</f>
         <v>27.07.2021</v>
@@ -3726,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>27.07.2021</v>
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>27.07.2021</v>
@@ -3776,7 +3776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>27.07.2021</v>
@@ -3801,7 +3801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="str">
         <f>"28.06.2021"</f>
         <v>28.06.2021</v>
@@ -3830,7 +3830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="str">
         <f t="shared" ref="A14:A20" si="2">"28.06.2021"</f>
         <v>28.06.2021</v>
@@ -3855,7 +3855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>28.06.2021</v>
@@ -3880,7 +3880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v>28.06.2021</v>
@@ -3905,7 +3905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>28.06.2021</v>
@@ -3930,7 +3930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>28.06.2021</v>
@@ -3955,7 +3955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>28.06.2021</v>
@@ -3980,7 +3980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v>28.06.2021</v>
@@ -4005,7 +4005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="str">
         <f>"16.06.2021"</f>
         <v>16.06.2021</v>
@@ -4034,7 +4034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="str">
         <f t="shared" ref="A22:A24" si="3">"16.06.2021"</f>
         <v>16.06.2021</v>
@@ -4059,7 +4059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="str">
         <f t="shared" si="3"/>
         <v>16.06.2021</v>
@@ -4084,7 +4084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="str">
         <f t="shared" si="3"/>
         <v>16.06.2021</v>
@@ -4109,7 +4109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="str">
         <f>"22.03.2021"</f>
         <v>22.03.2021</v>
@@ -4138,7 +4138,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="str">
         <f t="shared" ref="A26:A34" si="4">"22.03.2021"</f>
         <v>22.03.2021</v>
@@ -4163,7 +4163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4188,7 +4188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4213,7 +4213,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4238,7 +4238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4263,7 +4263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4288,7 +4288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4313,7 +4313,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4338,7 +4338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="str">
         <f t="shared" si="4"/>
         <v>22.03.2021</v>
@@ -4363,7 +4363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="str">
         <f>"08.03.2021"</f>
         <v>08.03.2021</v>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="str">
         <f t="shared" ref="A36:A41" si="5">"08.03.2021"</f>
         <v>08.03.2021</v>
@@ -4415,7 +4415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="str">
         <f t="shared" si="5"/>
         <v>08.03.2021</v>
@@ -4440,7 +4440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="str">
         <f t="shared" si="5"/>
         <v>08.03.2021</v>
@@ -4465,7 +4465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="str">
         <f t="shared" si="5"/>
         <v>08.03.2021</v>
@@ -4490,7 +4490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="str">
         <f t="shared" si="5"/>
         <v>08.03.2021</v>
@@ -4515,7 +4515,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="str">
         <f t="shared" si="5"/>
         <v>08.03.2021</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="str">
         <f>"03.11.2020"</f>
         <v>03.11.2020</v>
@@ -4567,7 +4567,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="str">
         <f t="shared" ref="A43:A49" si="6">"03.11.2020"</f>
         <v>03.11.2020</v>
@@ -4592,7 +4592,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="str">
         <f t="shared" si="6"/>
         <v>03.11.2020</v>
@@ -4617,7 +4617,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="str">
         <f t="shared" si="6"/>
         <v>03.11.2020</v>
@@ -4642,7 +4642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="str">
         <f t="shared" si="6"/>
         <v>03.11.2020</v>
@@ -4667,7 +4667,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="str">
         <f t="shared" si="6"/>
         <v>03.11.2020</v>
@@ -4692,7 +4692,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="str">
         <f t="shared" si="6"/>
         <v>03.11.2020</v>
@@ -4717,7 +4717,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="str">
         <f t="shared" si="6"/>
         <v>03.11.2020</v>
@@ -4742,7 +4742,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="str">
         <f>"07.09.2020"</f>
         <v>07.09.2020</v>
@@ -4771,7 +4771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="str">
         <f t="shared" ref="A51:A59" si="7">"07.09.2020"</f>
         <v>07.09.2020</v>
@@ -4796,7 +4796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4821,7 +4821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4846,7 +4846,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4871,7 +4871,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4896,7 +4896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4921,7 +4921,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4946,7 +4946,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4971,7 +4971,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="str">
         <f t="shared" si="7"/>
         <v>07.09.2020</v>
@@ -4994,7 +4994,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="str">
         <f>"30.06.2020"</f>
         <v>30.06.2020</v>
@@ -5023,7 +5023,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="str">
         <f t="shared" ref="A61:A64" si="8">"30.06.2020"</f>
         <v>30.06.2020</v>
@@ -5048,7 +5048,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="str">
         <f t="shared" si="8"/>
         <v>30.06.2020</v>
@@ -5073,7 +5073,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="str">
         <f t="shared" si="8"/>
         <v>30.06.2020</v>
@@ -5098,7 +5098,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="str">
         <f t="shared" si="8"/>
         <v>30.06.2020</v>
@@ -5123,7 +5123,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="str">
         <f>"29.06.2020"</f>
         <v>29.06.2020</v>
@@ -5152,7 +5152,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="str">
         <f t="shared" ref="A66:A71" si="9">"29.06.2020"</f>
         <v>29.06.2020</v>
@@ -5177,7 +5177,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="str">
         <f t="shared" si="9"/>
         <v>29.06.2020</v>
@@ -5202,7 +5202,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="str">
         <f t="shared" si="9"/>
         <v>29.06.2020</v>
@@ -5227,7 +5227,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="str">
         <f t="shared" si="9"/>
         <v>29.06.2020</v>
@@ -5252,7 +5252,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="str">
         <f t="shared" si="9"/>
         <v>29.06.2020</v>
@@ -5277,7 +5277,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="str">
         <f t="shared" si="9"/>
         <v>29.06.2020</v>
@@ -5300,7 +5300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="str">
         <f>"03.06.2020"</f>
         <v>03.06.2020</v>
@@ -5327,7 +5327,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="str">
         <f t="shared" ref="A73:A75" si="10">"03.06.2020"</f>
         <v>03.06.2020</v>
@@ -5352,7 +5352,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="str">
         <f t="shared" si="10"/>
         <v>03.06.2020</v>
@@ -5377,7 +5377,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="str">
         <f t="shared" si="10"/>
         <v>03.06.2020</v>
@@ -5402,7 +5402,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="str">
         <f>"06.05.2020"</f>
         <v>06.05.2020</v>
@@ -5429,7 +5429,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="str">
         <f t="shared" ref="A77:A81" si="11">"06.05.2020"</f>
         <v>06.05.2020</v>
@@ -5454,7 +5454,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="str">
         <f t="shared" si="11"/>
         <v>06.05.2020</v>
@@ -5479,7 +5479,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="str">
         <f t="shared" si="11"/>
         <v>06.05.2020</v>
@@ -5504,7 +5504,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="str">
         <f t="shared" si="11"/>
         <v>06.05.2020</v>
@@ -5529,7 +5529,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="str">
         <f t="shared" si="11"/>
         <v>06.05.2020</v>
@@ -5554,7 +5554,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="str">
         <f>"04.02.2020"</f>
         <v>04.02.2020</v>
@@ -5579,7 +5579,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="str">
         <f t="shared" ref="A83:A87" si="12">"04.02.2020"</f>
         <v>04.02.2020</v>
@@ -5602,7 +5602,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="str">
         <f t="shared" si="12"/>
         <v>04.02.2020</v>
@@ -5625,7 +5625,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="str">
         <f t="shared" si="12"/>
         <v>04.02.2020</v>
@@ -5648,7 +5648,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="str">
         <f t="shared" si="12"/>
         <v>04.02.2020</v>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="J86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="str">
         <f t="shared" si="12"/>
         <v>04.02.2020</v>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="str">
         <f>"01.11.2019"</f>
         <v>01.11.2019</v>
@@ -5717,7 +5717,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="str">
         <f t="shared" ref="A89:A96" si="13">"01.11.2019"</f>
         <v>01.11.2019</v>
@@ -5740,7 +5740,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5763,7 +5763,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5786,7 +5786,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5809,7 +5809,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5829,7 +5829,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5852,7 +5852,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5875,7 +5875,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="str">
         <f t="shared" si="13"/>
         <v>01.11.2019</v>
@@ -5898,7 +5898,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="str">
         <f>"21.08.2019"</f>
         <v>21.08.2019</v>
@@ -5922,7 +5922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="str">
         <f t="shared" ref="A98:A103" si="14">"21.08.2019"</f>
         <v>21.08.2019</v>
@@ -5944,7 +5944,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="str">
         <f t="shared" si="14"/>
         <v>21.08.2019</v>
@@ -5963,7 +5963,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="str">
         <f t="shared" si="14"/>
         <v>21.08.2019</v>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="str">
         <f t="shared" si="14"/>
         <v>21.08.2019</v>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="str">
         <f t="shared" si="14"/>
         <v>21.08.2019</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="str">
         <f t="shared" si="14"/>
         <v>21.08.2019</v>
@@ -6045,7 +6045,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="str">
         <f>"04.06.2019"</f>
         <v>04.06.2019</v>
@@ -6066,7 +6066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="str">
         <f t="shared" ref="A105:A111" si="15">"04.06.2019"</f>
         <v>04.06.2019</v>
@@ -6088,7 +6088,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="str">
         <f t="shared" si="15"/>
         <v>04.06.2019</v>
@@ -6110,7 +6110,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="str">
         <f t="shared" si="15"/>
         <v>04.06.2019</v>
@@ -6132,7 +6132,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="str">
         <f t="shared" si="15"/>
         <v>04.06.2019</v>
@@ -6154,7 +6154,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="str">
         <f t="shared" si="15"/>
         <v>04.06.2019</v>
@@ -6176,7 +6176,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="str">
         <f t="shared" si="15"/>
         <v>04.06.2019</v>
@@ -6198,7 +6198,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="str">
         <f t="shared" si="15"/>
         <v>04.06.2019</v>
@@ -6220,7 +6220,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="str">
         <f>"10.05.2019"</f>
         <v>10.05.2019</v>
@@ -6244,7 +6244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="str">
         <f t="shared" ref="A113:A123" si="16">"10.05.2019"</f>
         <v>10.05.2019</v>
@@ -6266,7 +6266,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6288,7 +6288,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6310,7 +6310,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6332,7 +6332,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6354,7 +6354,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6376,7 +6376,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6398,7 +6398,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6420,7 +6420,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6442,7 +6442,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6461,7 +6461,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="str">
         <f t="shared" si="16"/>
         <v>10.05.2019</v>
@@ -6480,7 +6480,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="str">
         <f>"27.06.2018"</f>
         <v>27.06.2018</v>
@@ -6504,7 +6504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="str">
         <f t="shared" ref="A125:A132" si="17">"27.06.2018"</f>
         <v>27.06.2018</v>
@@ -6526,7 +6526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6548,7 +6548,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6570,7 +6570,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6592,7 +6592,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6614,7 +6614,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6636,7 +6636,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6658,7 +6658,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="str">
         <f t="shared" si="17"/>
         <v>27.06.2018</v>
@@ -6680,7 +6680,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="str">
         <f>"26.06.2018"</f>
         <v>26.06.2018</v>
@@ -6704,7 +6704,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="str">
         <f t="shared" ref="A134:A135" si="18">"26.06.2018"</f>
         <v>26.06.2018</v>
@@ -6726,7 +6726,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="str">
         <f t="shared" si="18"/>
         <v>26.06.2018</v>
@@ -6748,7 +6748,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="str">
         <f>"17.04.2018"</f>
         <v>17.04.2018</v>
@@ -6772,7 +6772,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="str">
         <f t="shared" ref="A137:A140" si="19">"17.04.2018"</f>
         <v>17.04.2018</v>
@@ -6794,7 +6794,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="str">
         <f t="shared" si="19"/>
         <v>17.04.2018</v>
@@ -6816,7 +6816,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="str">
         <f t="shared" si="19"/>
         <v>17.04.2018</v>
@@ -6838,7 +6838,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="str">
         <f t="shared" si="19"/>
         <v>17.04.2018</v>
@@ -6860,7 +6860,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="str">
         <f>"20.03.2018"</f>
         <v>20.03.2018</v>
@@ -6884,7 +6884,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="str">
         <f t="shared" ref="A142:A143" si="20">"20.03.2018"</f>
         <v>20.03.2018</v>
@@ -6906,7 +6906,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="str">
         <f t="shared" si="20"/>
         <v>20.03.2018</v>
@@ -6928,7 +6928,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="str">
         <f>"11.09.2017"</f>
         <v>11.09.2017</v>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="str">
         <f t="shared" ref="A148:A154" si="21">"11.09.2017"</f>
         <v>11.09.2017</v>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="str">
         <f t="shared" si="21"/>
         <v>11.09.2017</v>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="str">
         <f t="shared" si="21"/>
         <v>11.09.2017</v>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="J150" s="16"/>
     </row>
-    <row r="151" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="str">
         <f t="shared" si="21"/>
         <v>11.09.2017</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J151" s="16"/>
     </row>
-    <row r="152" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="str">
         <f t="shared" si="21"/>
         <v>11.09.2017</v>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="J152" s="16"/>
     </row>
-    <row r="153" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="str">
         <f t="shared" si="21"/>
         <v>11.09.2017</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="J153" s="16"/>
     </row>
-    <row r="154" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="str">
         <f t="shared" si="21"/>
         <v>11.09.2017</v>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="J154" s="16"/>
     </row>
-    <row r="155" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="str">
         <f>"26.06.2017"</f>
         <v>26.06.2017</v>
@@ -7210,7 +7210,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="str">
         <f t="shared" ref="A156:A157" si="22">"26.06.2017"</f>
         <v>26.06.2017</v>
@@ -7233,7 +7233,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="str">
         <f t="shared" si="22"/>
         <v>26.06.2017</v>
@@ -7256,7 +7256,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="str">
         <f t="shared" ref="A158:A166" si="23">"15.06.2017"</f>
         <v>15.06.2017</v>
@@ -7280,7 +7280,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7302,7 +7302,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7324,7 +7324,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7346,7 +7346,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7368,7 +7368,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7390,7 +7390,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7412,7 +7412,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7434,7 +7434,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="str">
         <f t="shared" si="23"/>
         <v>15.06.2017</v>
@@ -7456,7 +7456,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="str">
         <f>"05.05.2017"</f>
         <v>05.05.2017</v>
@@ -7480,7 +7480,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="str">
         <f t="shared" ref="A168:A172" si="24">"05.05.2017"</f>
         <v>05.05.2017</v>
@@ -7502,7 +7502,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="str">
         <f t="shared" si="24"/>
         <v>05.05.2017</v>
@@ -7524,7 +7524,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="str">
         <f t="shared" si="24"/>
         <v>05.05.2017</v>
@@ -7546,7 +7546,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="str">
         <f t="shared" si="24"/>
         <v>05.05.2017</v>
@@ -7568,7 +7568,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="str">
         <f t="shared" si="24"/>
         <v>05.05.2017</v>
@@ -7590,7 +7590,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="str">
         <f>"13.03.2017"</f>
         <v>13.03.2017</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="J173" s="12"/>
     </row>
-    <row r="174" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="str">
         <f>"13.03.2017"</f>
         <v>13.03.2017</v>
@@ -7640,7 +7640,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="str">
         <f>"29.11.2016"</f>
         <v>29.11.2016</v>
@@ -7664,7 +7664,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="str">
         <f t="shared" ref="A176:A179" si="25">"29.11.2016"</f>
         <v>29.11.2016</v>
@@ -7686,7 +7686,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="str">
         <f t="shared" si="25"/>
         <v>29.11.2016</v>
@@ -7708,7 +7708,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="str">
         <f t="shared" si="25"/>
         <v>29.11.2016</v>
@@ -7730,7 +7730,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="str">
         <f t="shared" si="25"/>
         <v>29.11.2016</v>
@@ -7752,7 +7752,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="str">
         <f>"14.11.2016"</f>
         <v>14.11.2016</v>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="J180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="str">
         <f t="shared" ref="A181:A183" si="26">"14.11.2016"</f>
         <v>14.11.2016</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="J181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="str">
         <f t="shared" si="26"/>
         <v>14.11.2016</v>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="J182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="str">
         <f t="shared" si="26"/>
         <v>14.11.2016</v>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="J183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="str">
         <f>"17.10.2016"</f>
         <v>17.10.2016</v>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="J184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="str">
         <f t="shared" ref="A185:A186" si="27">"17.10.2016"</f>
         <v>17.10.2016</v>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="J185" s="12"/>
     </row>
-    <row r="186" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="str">
         <f t="shared" si="27"/>
         <v>17.10.2016</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="J186" s="12"/>
     </row>
-    <row r="187" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="str">
         <f>"14.09.2016"</f>
         <v>14.09.2016</v>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="J187" s="12"/>
     </row>
-    <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="str">
         <f t="shared" ref="A188:A192" si="28">"14.09.2016"</f>
         <v>14.09.2016</v>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J188" s="12"/>
     </row>
-    <row r="189" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="str">
         <f t="shared" si="28"/>
         <v>14.09.2016</v>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="J189" s="12"/>
     </row>
-    <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="str">
         <f t="shared" si="28"/>
         <v>14.09.2016</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="J190" s="12"/>
     </row>
-    <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="str">
         <f t="shared" si="28"/>
         <v>14.09.2016</v>
@@ -8034,7 +8034,7 @@
       </c>
       <c r="J191" s="12"/>
     </row>
-    <row r="192" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="str">
         <f t="shared" si="28"/>
         <v>14.09.2016</v>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="J192" s="12"/>
     </row>
-    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8081,7 +8081,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8103,7 +8103,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8125,7 +8125,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="J196" s="12"/>
     </row>
-    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
@@ -8169,7 +8169,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="str">
         <f t="shared" ref="A198:A206" si="29">"28.04.2016"</f>
         <v>28.04.2016</v>
@@ -8192,7 +8192,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8212,7 +8212,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8232,7 +8232,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8255,7 +8255,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8278,7 +8278,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8301,7 +8301,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8345,7 +8345,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="str">
         <f t="shared" si="29"/>
         <v>28.04.2016</v>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="str">
         <f>"13.01.2016"</f>
         <v>13.01.2016</v>
@@ -8391,7 +8391,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="str">
         <f t="shared" ref="A208:A212" si="30">"13.01.2016"</f>
         <v>13.01.2016</v>
@@ -8414,7 +8414,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="str">
         <f t="shared" si="30"/>
         <v>13.01.2016</v>
@@ -8437,7 +8437,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="str">
         <f t="shared" si="30"/>
         <v>13.01.2016</v>
@@ -8460,7 +8460,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="str">
         <f t="shared" si="30"/>
         <v>13.01.2016</v>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="str">
         <f t="shared" si="30"/>
         <v>13.01.2016</v>
@@ -8504,7 +8504,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="str">
         <f>"27.10.2015"</f>
         <v>27.10.2015</v>
@@ -8529,7 +8529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="str">
         <f>"27.10.2015"</f>
         <v>27.10.2015</v>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="str">
         <f>"23.06.2015"</f>
         <v>23.06.2015</v>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="str">
         <f t="shared" ref="A216:A225" si="31">"23.06.2015"</f>
         <v>23.06.2015</v>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="J219" s="9"/>
     </row>
-    <row r="220" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="str">
         <f t="shared" si="31"/>
         <v>23.06.2015</v>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
@@ -8828,7 +8828,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
@@ -8851,7 +8851,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
@@ -8874,7 +8874,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="str">
         <f>"13.11.2014"</f>
         <v>13.11.2014</v>
@@ -8899,7 +8899,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="str">
         <f t="shared" ref="A230:A236" si="32">"13.11.2014"</f>
         <v>13.11.2014</v>
@@ -8922,7 +8922,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.11.2014</v>
@@ -8945,7 +8945,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.11.2014</v>
@@ -8968,7 +8968,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.11.2014</v>
@@ -8991,7 +8991,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.11.2014</v>
@@ -9014,7 +9014,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.11.2014</v>
@@ -9037,7 +9037,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.11.2014</v>
@@ -9060,7 +9060,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="str">
         <f>"02.10.2014"</f>
         <v>02.10.2014</v>
@@ -9085,7 +9085,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="str">
         <f t="shared" ref="A238:A243" si="33">"02.10.2014"</f>
         <v>02.10.2014</v>
@@ -9108,7 +9108,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="str">
         <f t="shared" si="33"/>
         <v>02.10.2014</v>
@@ -9131,7 +9131,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="str">
         <f t="shared" si="33"/>
         <v>02.10.2014</v>
@@ -9154,7 +9154,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="str">
         <f t="shared" si="33"/>
         <v>02.10.2014</v>
@@ -9177,7 +9177,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="str">
         <f t="shared" si="33"/>
         <v>02.10.2014</v>
@@ -9200,7 +9200,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="str">
         <f t="shared" si="33"/>
         <v>02.10.2014</v>
@@ -9223,7 +9223,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="str">
         <f>"07.05.2014"</f>
         <v>07.05.2014</v>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="str">
         <f>"07.05.2014"</f>
         <v>07.05.2014</v>
@@ -9265,7 +9265,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="str">
         <f>"04.02.2014"</f>
         <v>04.02.2014</v>
@@ -9284,7 +9284,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
@@ -9309,7 +9309,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
@@ -9332,7 +9332,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
@@ -9355,7 +9355,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="str">
         <f>"04.06.2013"</f>
         <v>04.06.2013</v>
@@ -9380,7 +9380,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="str">
         <f t="shared" ref="A251:A263" si="34">"04.06.2013"</f>
         <v>04.06.2013</v>
@@ -9403,7 +9403,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9426,7 +9426,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9449,7 +9449,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9472,7 +9472,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9495,7 +9495,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9518,7 +9518,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9541,7 +9541,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9564,7 +9564,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9587,7 +9587,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9610,7 +9610,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9633,7 +9633,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9656,7 +9656,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="str">
         <f t="shared" si="34"/>
         <v>04.06.2013</v>
@@ -9679,7 +9679,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="str">
         <f>"28.11.2012"</f>
         <v>28.11.2012</v>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="str">
         <f t="shared" ref="A265:A266" si="35">"28.11.2012"</f>
         <v>28.11.2012</v>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="str">
         <f t="shared" si="35"/>
         <v>28.11.2012</v>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="str">
         <f>"25.09.2012"</f>
         <v>25.09.2012</v>
@@ -9775,7 +9775,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="str">
         <f t="shared" ref="A268:A271" si="36">"25.09.2012"</f>
         <v>25.09.2012</v>
@@ -9798,7 +9798,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="str">
         <f t="shared" si="36"/>
         <v>25.09.2012</v>
@@ -9821,7 +9821,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="str">
         <f t="shared" si="36"/>
         <v>25.09.2012</v>
@@ -9844,7 +9844,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="str">
         <f t="shared" si="36"/>
         <v>25.09.2012</v>
@@ -9867,7 +9867,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="str">
         <f>"09.07.2012"</f>
         <v>09.07.2012</v>
@@ -9892,7 +9892,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="str">
         <f t="shared" ref="A273:A275" si="37">"09.07.2012"</f>
         <v>09.07.2012</v>
@@ -9915,7 +9915,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="str">
         <f t="shared" si="37"/>
         <v>09.07.2012</v>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="str">
         <f t="shared" si="37"/>
         <v>09.07.2012</v>
@@ -9959,7 +9959,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="str">
         <f>"22.05.2012"</f>
         <v>22.05.2012</v>
@@ -9978,7 +9978,7 @@
       <c r="I276" s="1"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="str">
         <f>"29.11.2011"</f>
         <v>29.11.2011</v>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="str">
         <f>"29.11.2011"</f>
         <v>29.11.2011</v>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="str">
         <f>"16.09.2011"</f>
         <v>16.09.2011</v>
@@ -10051,7 +10051,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="str">
         <f t="shared" ref="A280:A286" si="38">"16.09.2011"</f>
         <v>16.09.2011</v>
@@ -10074,7 +10074,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="str">
         <f t="shared" si="38"/>
         <v>16.09.2011</v>
@@ -10097,7 +10097,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="str">
         <f t="shared" si="38"/>
         <v>16.09.2011</v>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="str">
         <f t="shared" si="38"/>
         <v>16.09.2011</v>
@@ -10141,7 +10141,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="str">
         <f t="shared" si="38"/>
         <v>16.09.2011</v>
@@ -10164,7 +10164,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="str">
         <f t="shared" si="38"/>
         <v>16.09.2011</v>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="str">
         <f t="shared" si="38"/>
         <v>16.09.2011</v>
@@ -10208,7 +10208,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="str">
         <f>"21.07.2011"</f>
         <v>21.07.2011</v>
@@ -10233,7 +10233,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="str">
         <f t="shared" ref="A288:A290" si="39">"21.07.2011"</f>
         <v>21.07.2011</v>
@@ -10256,7 +10256,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="str">
         <f t="shared" si="39"/>
         <v>21.07.2011</v>
@@ -10279,7 +10279,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="str">
         <f t="shared" si="39"/>
         <v>21.07.2011</v>
@@ -10302,7 +10302,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="str">
         <f>"10.05.2011"</f>
         <v>10.05.2011</v>
@@ -10327,7 +10327,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="str">
         <f t="shared" ref="A292:A299" si="40">"10.05.2011"</f>
         <v>10.05.2011</v>
@@ -10350,7 +10350,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10373,7 +10373,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10396,7 +10396,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10419,7 +10419,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10442,7 +10442,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10465,7 +10465,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10488,7 +10488,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="str">
         <f t="shared" si="40"/>
         <v>10.05.2011</v>
@@ -10511,7 +10511,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="str">
         <f>"07.05.2011"</f>
         <v>07.05.2011</v>
@@ -10536,7 +10536,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="str">
         <f t="shared" ref="A301:A304" si="41">"07.05.2011"</f>
         <v>07.05.2011</v>
@@ -10559,7 +10559,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="str">
         <f t="shared" si="41"/>
         <v>07.05.2011</v>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="str">
         <f t="shared" si="41"/>
         <v>07.05.2011</v>
@@ -10603,7 +10603,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="str">
         <f t="shared" si="41"/>
         <v>07.05.2011</v>
@@ -10626,7 +10626,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="str">
         <f>"13.01.2011"</f>
         <v>13.01.2011</v>
@@ -10651,7 +10651,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="str">
         <f>"13.01.2011"</f>
         <v>13.01.2011</v>
@@ -10674,7 +10674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="str">
         <f>"30.11.2010"</f>
         <v>30.11.2010</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="str">
         <f>"30.11.2010"</f>
         <v>30.11.2010</v>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="str">
         <f>"04.10.2010"</f>
         <v>04.10.2010</v>
@@ -10742,7 +10742,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="str">
         <f t="shared" ref="A310:A319" si="42">"04.10.2010"</f>
         <v>04.10.2010</v>
@@ -10764,7 +10764,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10786,7 +10786,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10808,7 +10808,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10856,7 +10856,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10881,7 +10881,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10926,7 +10926,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="str">
         <f t="shared" si="42"/>
         <v>04.10.2010</v>
@@ -10974,7 +10974,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="str">
         <f>"24.06.2010"</f>
         <v>24.06.2010</v>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="J320" s="9"/>
     </row>
-    <row r="321" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="str">
         <f t="shared" ref="A321:A326" si="43">"24.06.2010"</f>
         <v>24.06.2010</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="str">
         <f t="shared" si="43"/>
         <v>24.06.2010</v>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="str">
         <f t="shared" si="43"/>
         <v>24.06.2010</v>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="str">
         <f t="shared" si="43"/>
         <v>24.06.2010</v>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="str">
         <f t="shared" si="43"/>
         <v>24.06.2010</v>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="str">
         <f t="shared" si="43"/>
         <v>24.06.2010</v>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="str">
         <f>"28.04.2010"</f>
         <v>28.04.2010</v>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="str">
         <f>"28.04.2010"</f>
         <v>28.04.2010</v>
@@ -11187,7 +11187,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="str">
         <f>"12.03.2010"</f>
         <v>12.03.2010</v>
@@ -11212,7 +11212,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="str">
         <f t="shared" ref="A330:A335" si="44">"12.03.2010"</f>
         <v>12.03.2010</v>
@@ -11235,7 +11235,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="str">
         <f t="shared" si="44"/>
         <v>12.03.2010</v>
@@ -11258,7 +11258,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="str">
         <f t="shared" si="44"/>
         <v>12.03.2010</v>
@@ -11281,7 +11281,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="str">
         <f t="shared" si="44"/>
         <v>12.03.2010</v>
@@ -11304,7 +11304,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="str">
         <f t="shared" si="44"/>
         <v>12.03.2010</v>
@@ -11327,7 +11327,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="str">
         <f t="shared" si="44"/>
         <v>12.03.2010</v>
@@ -11350,7 +11350,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="str">
         <f>"12.01.2010"</f>
         <v>12.01.2010</v>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="str">
         <f>"12.01.2010"</f>
         <v>12.01.2010</v>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="str">
         <f>"07.12.2009"</f>
         <v>07.12.2009</v>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="str">
         <f>"07.12.2009"</f>
         <v>07.12.2009</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="str">
         <f>"26.10.2009"</f>
         <v>26.10.2009</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="str">
         <f>"26.10.2009"</f>
         <v>26.10.2009</v>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="9"/>
       <c r="B342" s="13"/>
       <c r="C342" s="11"/>
@@ -11506,7 +11506,7 @@
       <c r="I342" s="1"/>
       <c r="J342" s="16"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="9"/>
       <c r="B343" s="13"/>
       <c r="C343" s="11"/>
@@ -11518,7 +11518,7 @@
       <c r="I343" s="1"/>
       <c r="J343" s="16"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="9"/>
       <c r="B344" s="13"/>
       <c r="C344" s="11"/>
@@ -11530,7 +11530,7 @@
       <c r="I344" s="1"/>
       <c r="J344" s="16"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="9"/>
       <c r="B345" s="13"/>
       <c r="C345" s="11"/>
@@ -11542,7 +11542,7 @@
       <c r="I345" s="1"/>
       <c r="J345" s="16"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="9"/>
       <c r="B346" s="13"/>
       <c r="C346" s="11"/>
@@ -11554,7 +11554,7 @@
       <c r="I346" s="1"/>
       <c r="J346" s="16"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="9"/>
       <c r="B347" s="13"/>
       <c r="C347" s="11"/>
@@ -11566,7 +11566,7 @@
       <c r="I347" s="1"/>
       <c r="J347" s="16"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="9"/>
       <c r="B348" s="13"/>
       <c r="C348" s="11"/>
@@ -11578,7 +11578,7 @@
       <c r="I348" s="1"/>
       <c r="J348" s="16"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="9"/>
       <c r="B349" s="13"/>
       <c r="C349" s="11"/>
@@ -11590,7 +11590,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="16"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="9"/>
       <c r="B350" s="13"/>
       <c r="C350" s="11"/>
@@ -11602,7 +11602,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="16"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="9"/>
       <c r="B351" s="13"/>
       <c r="C351" s="11"/>
@@ -11614,7 +11614,7 @@
       <c r="I351" s="1"/>
       <c r="J351" s="16"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="9"/>
       <c r="B352" s="13"/>
       <c r="C352" s="11"/>
@@ -11626,7 +11626,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="16"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="9"/>
       <c r="B353" s="13"/>
       <c r="C353" s="11"/>
@@ -11638,7 +11638,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="16"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" s="9"/>
       <c r="B354" s="13"/>
       <c r="C354" s="11"/>
@@ -11650,7 +11650,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="16"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" s="9"/>
       <c r="B355" s="13"/>
       <c r="C355" s="11"/>
@@ -11662,7 +11662,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="16"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" s="9"/>
       <c r="B356" s="13"/>
       <c r="C356" s="11"/>
@@ -11674,7 +11674,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="16"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="9"/>
       <c r="B357" s="13"/>
       <c r="C357" s="11"/>
@@ -11686,7 +11686,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="16"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" s="9"/>
       <c r="B358" s="13"/>
       <c r="C358" s="11"/>
@@ -11698,7 +11698,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="16"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" s="9"/>
       <c r="B359" s="13"/>
       <c r="C359" s="11"/>
@@ -11710,7 +11710,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="16"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" s="9"/>
       <c r="B360" s="13"/>
       <c r="C360" s="11"/>
@@ -11722,7 +11722,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="16"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" s="9"/>
       <c r="B361" s="13"/>
       <c r="C361" s="11"/>
@@ -11734,7 +11734,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="16"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" s="9"/>
       <c r="B362" s="13"/>
       <c r="C362" s="11"/>
@@ -11746,7 +11746,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="16"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" s="9"/>
       <c r="B363" s="13"/>
       <c r="C363" s="11"/>
@@ -11758,7 +11758,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="16"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" s="9"/>
       <c r="B364" s="13"/>
       <c r="C364" s="11"/>
@@ -11770,7 +11770,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="16"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" s="9"/>
       <c r="B365" s="13"/>
       <c r="C365" s="11"/>
@@ -11782,7 +11782,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="16"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" s="9"/>
       <c r="B366" s="13"/>
       <c r="C366" s="11"/>
@@ -11794,7 +11794,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="16"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" s="9"/>
       <c r="B367" s="13"/>
       <c r="C367" s="11"/>
@@ -11806,7 +11806,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="16"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="9"/>
       <c r="B368" s="13"/>
       <c r="C368" s="11"/>
@@ -11818,7 +11818,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="16"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" s="9"/>
       <c r="B369" s="13"/>
       <c r="C369" s="11"/>
@@ -11830,7 +11830,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="16"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" s="9"/>
       <c r="B370" s="13"/>
       <c r="C370" s="11"/>
@@ -11842,7 +11842,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="16"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" s="9"/>
       <c r="B371" s="13"/>
       <c r="C371" s="11"/>
@@ -11854,7 +11854,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="16"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" s="9"/>
       <c r="B372" s="13"/>
       <c r="C372" s="11"/>
@@ -11866,7 +11866,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="16"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" s="9"/>
       <c r="B373" s="13"/>
       <c r="C373" s="11"/>
@@ -11878,7 +11878,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="16"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" s="9"/>
       <c r="B374" s="13"/>
       <c r="C374" s="11"/>
@@ -11890,7 +11890,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="16"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" s="9"/>
       <c r="B375" s="13"/>
       <c r="C375" s="11"/>
@@ -11902,7 +11902,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="16"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" s="9"/>
       <c r="B376" s="13"/>
       <c r="C376" s="11"/>
@@ -11914,7 +11914,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="16"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" s="9"/>
       <c r="B377" s="13"/>
       <c r="C377" s="11"/>
@@ -11926,7 +11926,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="16"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" s="9"/>
       <c r="B378" s="13"/>
       <c r="C378" s="11"/>
@@ -11938,7 +11938,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="16"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" s="9"/>
       <c r="B379" s="13"/>
       <c r="C379" s="11"/>
@@ -11950,7 +11950,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="16"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" s="9"/>
       <c r="B380" s="13"/>
       <c r="C380" s="11"/>
@@ -11962,7 +11962,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="16"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" s="9"/>
       <c r="B381" s="13"/>
       <c r="C381" s="11"/>
@@ -11974,7 +11974,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="16"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" s="9"/>
       <c r="B382" s="13"/>
       <c r="C382" s="11"/>
@@ -11986,7 +11986,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="16"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" s="9"/>
       <c r="B383" s="13"/>
       <c r="C383" s="11"/>
@@ -11998,7 +11998,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="16"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" s="9"/>
       <c r="B384" s="13"/>
       <c r="C384" s="11"/>
@@ -12010,7 +12010,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="16"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="9"/>
       <c r="B385" s="13"/>
       <c r="C385" s="11"/>
@@ -12022,7 +12022,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="16"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" s="9"/>
       <c r="B386" s="13"/>
       <c r="C386" s="11"/>
@@ -12034,7 +12034,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="16"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" s="9"/>
       <c r="B387" s="13"/>
       <c r="C387" s="11"/>
@@ -12046,7 +12046,7 @@
       <c r="I387" s="1"/>
       <c r="J387" s="16"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" s="9"/>
       <c r="B388" s="13"/>
       <c r="C388" s="11"/>
@@ -12058,7 +12058,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="16"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" s="9"/>
       <c r="B389" s="13"/>
       <c r="C389" s="11"/>
@@ -12070,7 +12070,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="16"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="9"/>
       <c r="B390" s="13"/>
       <c r="C390" s="11"/>
@@ -12082,7 +12082,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="16"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="9"/>
       <c r="B391" s="13"/>
       <c r="C391" s="11"/>
@@ -12094,7 +12094,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="16"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="9"/>
       <c r="B392" s="13"/>
       <c r="C392" s="11"/>
@@ -12106,7 +12106,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="16"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="9"/>
       <c r="B393" s="13"/>
       <c r="C393" s="11"/>
@@ -12118,7 +12118,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="16"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="9"/>
       <c r="B394" s="13"/>
       <c r="C394" s="11"/>
@@ -12130,7 +12130,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="16"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="9"/>
       <c r="B395" s="13"/>
       <c r="C395" s="11"/>
@@ -12142,7 +12142,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="16"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="9"/>
       <c r="B396" s="13"/>
       <c r="C396" s="11"/>
@@ -12154,7 +12154,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="16"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" s="9"/>
       <c r="B397" s="13"/>
       <c r="C397" s="11"/>
@@ -12166,7 +12166,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="16"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="9"/>
       <c r="B398" s="13"/>
       <c r="C398" s="11"/>
@@ -12178,7 +12178,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="16"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="9"/>
       <c r="B399" s="13"/>
       <c r="C399" s="11"/>
@@ -12190,7 +12190,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="16"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="9"/>
       <c r="B400" s="13"/>
       <c r="C400" s="11"/>
@@ -12202,7 +12202,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="16"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" s="9"/>
       <c r="B401" s="13"/>
       <c r="C401" s="11"/>
@@ -12214,7 +12214,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="16"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="9"/>
       <c r="B402" s="13"/>
       <c r="C402" s="11"/>
@@ -12226,7 +12226,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="16"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="9"/>
       <c r="B403" s="13"/>
       <c r="C403" s="11"/>
@@ -12238,7 +12238,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="16"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="9"/>
       <c r="B404" s="13"/>
       <c r="C404" s="11"/>
@@ -12250,7 +12250,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="16"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="9"/>
       <c r="B405" s="13"/>
       <c r="C405" s="11"/>
@@ -12262,7 +12262,7 @@
       <c r="I405" s="1"/>
       <c r="J405" s="16"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="9"/>
       <c r="B406" s="13"/>
       <c r="C406" s="11"/>
@@ -12274,7 +12274,7 @@
       <c r="I406" s="1"/>
       <c r="J406" s="16"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="9"/>
       <c r="B407" s="13"/>
       <c r="C407" s="11"/>
@@ -12286,7 +12286,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="16"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="9"/>
       <c r="B408" s="13"/>
       <c r="C408" s="11"/>
@@ -12298,7 +12298,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="16"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="9"/>
       <c r="B409" s="13"/>
       <c r="C409" s="11"/>
@@ -12310,7 +12310,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="16"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" s="9"/>
       <c r="B410" s="13"/>
       <c r="C410" s="11"/>
@@ -12322,7 +12322,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="16"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="9"/>
       <c r="B411" s="13"/>
       <c r="C411" s="11"/>
@@ -12334,7 +12334,7 @@
       <c r="I411" s="1"/>
       <c r="J411" s="16"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="9"/>
       <c r="B412" s="13"/>
       <c r="C412" s="11"/>
@@ -12346,7 +12346,7 @@
       <c r="I412" s="1"/>
       <c r="J412" s="16"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="9"/>
       <c r="B413" s="13"/>
       <c r="C413" s="11"/>
@@ -12358,7 +12358,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="16"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="9"/>
       <c r="B414" s="13"/>
       <c r="C414" s="11"/>
@@ -12370,7 +12370,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="16"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" s="9"/>
       <c r="B415" s="13"/>
       <c r="C415" s="11"/>
@@ -12382,7 +12382,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="16"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" s="9"/>
       <c r="B416" s="13"/>
       <c r="C416" s="11"/>
@@ -12394,7 +12394,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="16"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="9"/>
       <c r="B417" s="13"/>
       <c r="C417" s="11"/>
@@ -12406,7 +12406,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="16"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="9"/>
       <c r="B418" s="13"/>
       <c r="C418" s="11"/>
@@ -12418,7 +12418,7 @@
       <c r="I418" s="1"/>
       <c r="J418" s="16"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="9"/>
       <c r="B419" s="13"/>
       <c r="C419" s="11"/>
@@ -12430,7 +12430,7 @@
       <c r="I419" s="1"/>
       <c r="J419" s="16"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="9"/>
       <c r="B420" s="13"/>
       <c r="C420" s="11"/>
@@ -12442,7 +12442,7 @@
       <c r="I420" s="1"/>
       <c r="J420" s="16"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="9"/>
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
@@ -12454,7 +12454,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="16"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="9"/>
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
@@ -12466,7 +12466,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="16"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="9"/>
       <c r="B423" s="13"/>
       <c r="C423" s="11"/>
@@ -12478,7 +12478,7 @@
       <c r="I423" s="1"/>
       <c r="J423" s="16"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="9"/>
       <c r="B424" s="13"/>
       <c r="C424" s="11"/>
@@ -12490,7 +12490,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="16"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="9"/>
       <c r="B425" s="13"/>
       <c r="C425" s="11"/>
@@ -12502,7 +12502,7 @@
       <c r="I425" s="1"/>
       <c r="J425" s="16"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="9"/>
       <c r="B426" s="13"/>
       <c r="C426" s="11"/>
@@ -12514,7 +12514,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="16"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="9"/>
       <c r="B427" s="13"/>
       <c r="C427" s="11"/>
@@ -12526,7 +12526,7 @@
       <c r="I427" s="1"/>
       <c r="J427" s="16"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="9"/>
       <c r="B428" s="13"/>
       <c r="C428" s="11"/>
@@ -12538,7 +12538,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="16"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="9"/>
       <c r="B429" s="13"/>
       <c r="C429" s="11"/>
@@ -12550,7 +12550,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="16"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="9"/>
       <c r="B430" s="13"/>
       <c r="C430" s="11"/>
@@ -12562,7 +12562,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="16"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="9"/>
       <c r="B431" s="13"/>
       <c r="C431" s="11"/>
@@ -12574,7 +12574,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="16"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="9"/>
       <c r="B432" s="13"/>
       <c r="C432" s="11"/>
@@ -12586,7 +12586,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="16"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="9"/>
       <c r="B433" s="13"/>
       <c r="C433" s="11"/>
@@ -12598,7 +12598,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="16"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="9"/>
       <c r="B434" s="13"/>
       <c r="C434" s="11"/>
@@ -12610,7 +12610,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="16"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="9"/>
       <c r="B435" s="13"/>
       <c r="C435" s="11"/>
@@ -12622,7 +12622,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="16"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="9"/>
       <c r="B436" s="13"/>
       <c r="C436" s="11"/>
@@ -12634,7 +12634,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="16"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" s="9"/>
       <c r="B437" s="13"/>
       <c r="C437" s="11"/>
@@ -12646,7 +12646,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="16"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" s="9"/>
       <c r="B438" s="13"/>
       <c r="C438" s="11"/>
@@ -12658,7 +12658,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="16"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" s="9"/>
       <c r="B439" s="13"/>
       <c r="C439" s="11"/>
@@ -12670,7 +12670,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="16"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="9"/>
       <c r="B440" s="13"/>
       <c r="C440" s="11"/>
@@ -12682,7 +12682,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="16"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="9"/>
       <c r="B441" s="13"/>
       <c r="C441" s="11"/>
@@ -12694,7 +12694,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="16"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="9"/>
       <c r="B442" s="13"/>
       <c r="C442" s="11"/>
@@ -12706,7 +12706,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="16"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="10"/>
       <c r="B443" s="6"/>
       <c r="C443" s="4"/>
@@ -12718,7 +12718,7 @@
       <c r="I443" s="14"/>
       <c r="J443" s="2"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="10"/>
       <c r="B444" s="6"/>
       <c r="C444" s="4"/>
@@ -12730,7 +12730,7 @@
       <c r="I444" s="14"/>
       <c r="J444" s="2"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="10"/>
       <c r="B445" s="6"/>
       <c r="C445" s="4"/>
@@ -12742,7 +12742,7 @@
       <c r="I445" s="14"/>
       <c r="J445" s="2"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" s="10"/>
       <c r="B446" s="6"/>
       <c r="C446" s="4"/>
@@ -12754,7 +12754,7 @@
       <c r="I446" s="14"/>
       <c r="J446" s="2"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" s="10"/>
       <c r="B447" s="6"/>
       <c r="C447" s="4"/>
@@ -12766,7 +12766,7 @@
       <c r="I447" s="14"/>
       <c r="J447" s="2"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" s="10"/>
       <c r="B448" s="6"/>
       <c r="C448" s="4"/>
@@ -12778,7 +12778,7 @@
       <c r="I448" s="14"/>
       <c r="J448" s="2"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" s="10"/>
       <c r="B449" s="6"/>
       <c r="C449" s="4"/>
@@ -12790,7 +12790,7 @@
       <c r="I449" s="14"/>
       <c r="J449" s="2"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" s="10"/>
       <c r="B450" s="6"/>
       <c r="C450" s="4"/>
@@ -12802,7 +12802,7 @@
       <c r="I450" s="14"/>
       <c r="J450" s="2"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" s="10"/>
       <c r="B451" s="6"/>
       <c r="C451" s="4"/>
@@ -12814,7 +12814,7 @@
       <c r="I451" s="14"/>
       <c r="J451" s="2"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" s="10"/>
       <c r="B452" s="6"/>
       <c r="C452" s="4"/>
@@ -12826,7 +12826,7 @@
       <c r="I452" s="14"/>
       <c r="J452" s="2"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" s="10"/>
       <c r="B453" s="6"/>
       <c r="C453" s="4"/>
@@ -12838,7 +12838,7 @@
       <c r="I453" s="14"/>
       <c r="J453" s="2"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" s="10"/>
       <c r="B454" s="6"/>
       <c r="C454" s="4"/>
@@ -12850,7 +12850,7 @@
       <c r="I454" s="14"/>
       <c r="J454" s="2"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" s="10"/>
       <c r="B455" s="6"/>
       <c r="C455" s="4"/>
@@ -12862,7 +12862,7 @@
       <c r="I455" s="14"/>
       <c r="J455" s="2"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" s="10"/>
       <c r="B456" s="6"/>
       <c r="C456" s="4"/>
@@ -12874,7 +12874,7 @@
       <c r="I456" s="14"/>
       <c r="J456" s="2"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" s="10"/>
       <c r="B457" s="6"/>
       <c r="C457" s="4"/>
@@ -12886,7 +12886,7 @@
       <c r="I457" s="14"/>
       <c r="J457" s="2"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" s="10"/>
       <c r="B458" s="6"/>
       <c r="C458" s="4"/>
@@ -12898,7 +12898,7 @@
       <c r="I458" s="14"/>
       <c r="J458" s="2"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" s="10"/>
       <c r="B459" s="6"/>
       <c r="C459" s="4"/>
@@ -12910,7 +12910,7 @@
       <c r="I459" s="14"/>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" s="10"/>
       <c r="B460" s="6"/>
       <c r="C460" s="4"/>
@@ -12922,7 +12922,7 @@
       <c r="I460" s="14"/>
       <c r="J460" s="2"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" s="10"/>
       <c r="B461" s="6"/>
       <c r="C461" s="4"/>
@@ -12934,7 +12934,7 @@
       <c r="I461" s="14"/>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" s="10"/>
       <c r="B462" s="6"/>
       <c r="C462" s="4"/>
@@ -12946,7 +12946,7 @@
       <c r="I462" s="14"/>
       <c r="J462" s="2"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" s="10"/>
       <c r="B463" s="6"/>
       <c r="C463" s="4"/>
@@ -12958,7 +12958,7 @@
       <c r="I463" s="14"/>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" s="10"/>
       <c r="B464" s="6"/>
       <c r="C464" s="4"/>
@@ -12970,7 +12970,7 @@
       <c r="I464" s="14"/>
       <c r="J464" s="2"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" s="10"/>
       <c r="B465" s="6"/>
       <c r="C465" s="4"/>
@@ -12982,7 +12982,7 @@
       <c r="I465" s="14"/>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" s="10"/>
       <c r="B466" s="6"/>
       <c r="C466" s="4"/>
@@ -12994,7 +12994,7 @@
       <c r="I466" s="14"/>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" s="10"/>
       <c r="B467" s="6"/>
       <c r="C467" s="4"/>
@@ -13006,7 +13006,7 @@
       <c r="I467" s="14"/>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" s="10"/>
       <c r="B468" s="6"/>
       <c r="C468" s="4"/>
@@ -13018,7 +13018,7 @@
       <c r="I468" s="14"/>
       <c r="J468" s="2"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" s="10"/>
       <c r="B469" s="6"/>
       <c r="C469" s="4"/>
@@ -13030,7 +13030,7 @@
       <c r="I469" s="14"/>
       <c r="J469" s="2"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" s="10"/>
       <c r="B470" s="6"/>
       <c r="C470" s="4"/>
@@ -13042,7 +13042,7 @@
       <c r="I470" s="14"/>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" s="10"/>
       <c r="B471" s="6"/>
       <c r="C471" s="4"/>
@@ -13054,7 +13054,7 @@
       <c r="I471" s="14"/>
       <c r="J471" s="2"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" s="10"/>
       <c r="B472" s="6"/>
       <c r="C472" s="4"/>
@@ -13066,7 +13066,7 @@
       <c r="I472" s="14"/>
       <c r="J472" s="2"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" s="10"/>
       <c r="B473" s="6"/>
       <c r="C473" s="4"/>
@@ -13078,7 +13078,7 @@
       <c r="I473" s="14"/>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" s="10"/>
       <c r="B474" s="6"/>
       <c r="C474" s="4"/>
@@ -13090,7 +13090,7 @@
       <c r="I474" s="14"/>
       <c r="J474" s="2"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" s="10"/>
       <c r="B475" s="6"/>
       <c r="C475" s="4"/>
@@ -13102,7 +13102,7 @@
       <c r="I475" s="14"/>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" s="10"/>
       <c r="B476" s="6"/>
       <c r="C476" s="4"/>
@@ -13114,7 +13114,7 @@
       <c r="I476" s="14"/>
       <c r="J476" s="2"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" s="10"/>
       <c r="B477" s="6"/>
       <c r="C477" s="4"/>
@@ -13126,7 +13126,7 @@
       <c r="I477" s="14"/>
       <c r="J477" s="2"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" s="10"/>
       <c r="B478" s="6"/>
       <c r="C478" s="4"/>
@@ -13138,7 +13138,7 @@
       <c r="I478" s="14"/>
       <c r="J478" s="2"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" s="10"/>
       <c r="B479" s="6"/>
       <c r="C479" s="4"/>
@@ -13150,7 +13150,7 @@
       <c r="I479" s="14"/>
       <c r="J479" s="2"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" s="10"/>
       <c r="B480" s="6"/>
       <c r="C480" s="4"/>
@@ -13162,7 +13162,7 @@
       <c r="I480" s="14"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" s="10"/>
       <c r="B481" s="6"/>
       <c r="C481" s="4"/>
@@ -13174,7 +13174,7 @@
       <c r="I481" s="14"/>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" s="10"/>
       <c r="B482" s="6"/>
       <c r="C482" s="4"/>
@@ -13186,7 +13186,7 @@
       <c r="I482" s="14"/>
       <c r="J482" s="2"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" s="10"/>
       <c r="B483" s="6"/>
       <c r="C483" s="4"/>
@@ -13198,7 +13198,7 @@
       <c r="I483" s="14"/>
       <c r="J483" s="2"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" s="10"/>
       <c r="B484" s="6"/>
       <c r="C484" s="4"/>
@@ -13210,7 +13210,7 @@
       <c r="I484" s="14"/>
       <c r="J484" s="2"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" s="10"/>
       <c r="B485" s="6"/>
       <c r="C485" s="4"/>
@@ -13222,7 +13222,7 @@
       <c r="I485" s="14"/>
       <c r="J485" s="2"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" s="10"/>
       <c r="B486" s="6"/>
       <c r="C486" s="4"/>
@@ -13234,7 +13234,7 @@
       <c r="I486" s="14"/>
       <c r="J486" s="2"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" s="10"/>
       <c r="B487" s="6"/>
       <c r="C487" s="4"/>
@@ -13246,7 +13246,7 @@
       <c r="I487" s="14"/>
       <c r="J487" s="2"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" s="10"/>
       <c r="B488" s="6"/>
       <c r="C488" s="4"/>
@@ -13258,7 +13258,7 @@
       <c r="I488" s="14"/>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" s="10"/>
       <c r="B489" s="6"/>
       <c r="C489" s="4"/>
@@ -13270,7 +13270,7 @@
       <c r="I489" s="14"/>
       <c r="J489" s="2"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" s="10"/>
       <c r="B490" s="6"/>
       <c r="C490" s="4"/>
@@ -13282,7 +13282,7 @@
       <c r="I490" s="14"/>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" s="10"/>
       <c r="B491" s="6"/>
       <c r="C491" s="4"/>
@@ -13294,7 +13294,7 @@
       <c r="I491" s="14"/>
       <c r="J491" s="2"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" s="10"/>
       <c r="B492" s="6"/>
       <c r="C492" s="4"/>
@@ -13306,7 +13306,7 @@
       <c r="I492" s="14"/>
       <c r="J492" s="2"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" s="10"/>
       <c r="B493" s="6"/>
       <c r="C493" s="4"/>
@@ -13318,7 +13318,7 @@
       <c r="I493" s="14"/>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" s="10"/>
       <c r="B494" s="6"/>
       <c r="C494" s="4"/>
@@ -13330,7 +13330,7 @@
       <c r="I494" s="14"/>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" s="10"/>
       <c r="B495" s="6"/>
       <c r="C495" s="4"/>
@@ -13342,7 +13342,7 @@
       <c r="I495" s="14"/>
       <c r="J495" s="2"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" s="10"/>
       <c r="B496" s="6"/>
       <c r="C496" s="4"/>
@@ -13354,7 +13354,7 @@
       <c r="I496" s="14"/>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" s="10"/>
       <c r="B497" s="6"/>
       <c r="C497" s="4"/>
@@ -13366,7 +13366,7 @@
       <c r="I497" s="14"/>
       <c r="J497" s="2"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" s="10"/>
       <c r="B498" s="6"/>
       <c r="C498" s="4"/>
@@ -13378,7 +13378,7 @@
       <c r="I498" s="14"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" s="10"/>
       <c r="B499" s="6"/>
       <c r="C499" s="4"/>
@@ -13390,7 +13390,7 @@
       <c r="I499" s="14"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" s="10"/>
       <c r="B500" s="6"/>
       <c r="C500" s="4"/>
@@ -13402,7 +13402,7 @@
       <c r="I500" s="14"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" s="10"/>
       <c r="B501" s="6"/>
       <c r="C501" s="4"/>
@@ -13414,7 +13414,7 @@
       <c r="I501" s="14"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" s="10"/>
       <c r="B502" s="6"/>
       <c r="C502" s="4"/>
@@ -13426,7 +13426,7 @@
       <c r="I502" s="14"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" s="10"/>
       <c r="B503" s="6"/>
       <c r="C503" s="4"/>
@@ -13438,7 +13438,7 @@
       <c r="I503" s="14"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" s="10"/>
       <c r="B504" s="6"/>
       <c r="C504" s="4"/>
@@ -13450,7 +13450,7 @@
       <c r="I504" s="14"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" s="10"/>
       <c r="B505" s="6"/>
       <c r="C505" s="4"/>
@@ -13462,7 +13462,7 @@
       <c r="I505" s="14"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" s="10"/>
       <c r="B506" s="6"/>
       <c r="C506" s="4"/>
@@ -13474,7 +13474,7 @@
       <c r="I506" s="14"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" s="10"/>
       <c r="B507" s="6"/>
       <c r="C507" s="4"/>
@@ -13486,7 +13486,7 @@
       <c r="I507" s="14"/>
       <c r="J507" s="2"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" s="10"/>
       <c r="B508" s="6"/>
       <c r="C508" s="4"/>
@@ -13498,7 +13498,7 @@
       <c r="I508" s="14"/>
       <c r="J508" s="2"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" s="10"/>
       <c r="B509" s="6"/>
       <c r="C509" s="4"/>
@@ -13510,7 +13510,7 @@
       <c r="I509" s="14"/>
       <c r="J509" s="2"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" s="10"/>
       <c r="B510" s="6"/>
       <c r="C510" s="4"/>
@@ -13522,7 +13522,7 @@
       <c r="I510" s="14"/>
       <c r="J510" s="2"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" s="10"/>
       <c r="B511" s="6"/>
       <c r="C511" s="4"/>
@@ -13534,7 +13534,7 @@
       <c r="I511" s="14"/>
       <c r="J511" s="2"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" s="10"/>
       <c r="B512" s="6"/>
       <c r="C512" s="4"/>
@@ -13546,7 +13546,7 @@
       <c r="I512" s="14"/>
       <c r="J512" s="2"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" s="10"/>
       <c r="B513" s="6"/>
       <c r="C513" s="4"/>
@@ -13558,7 +13558,7 @@
       <c r="I513" s="14"/>
       <c r="J513" s="2"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" s="10"/>
       <c r="B514" s="6"/>
       <c r="C514" s="4"/>
@@ -13570,7 +13570,7 @@
       <c r="I514" s="14"/>
       <c r="J514" s="2"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" s="10"/>
       <c r="B515" s="6"/>
       <c r="C515" s="4"/>
@@ -13582,7 +13582,7 @@
       <c r="I515" s="14"/>
       <c r="J515" s="2"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516" s="10"/>
       <c r="B516" s="6"/>
       <c r="C516" s="4"/>
@@ -13594,7 +13594,7 @@
       <c r="I516" s="14"/>
       <c r="J516" s="2"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" s="10"/>
       <c r="B517" s="6"/>
       <c r="C517" s="4"/>
@@ -13606,7 +13606,7 @@
       <c r="I517" s="14"/>
       <c r="J517" s="2"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" s="10"/>
       <c r="B518" s="6"/>
       <c r="C518" s="4"/>
@@ -13618,7 +13618,7 @@
       <c r="I518" s="14"/>
       <c r="J518" s="2"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" s="10"/>
       <c r="B519" s="6"/>
       <c r="C519" s="4"/>
@@ -13630,7 +13630,7 @@
       <c r="I519" s="14"/>
       <c r="J519" s="2"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" s="10"/>
       <c r="B520" s="6"/>
       <c r="C520" s="4"/>
@@ -13642,7 +13642,7 @@
       <c r="I520" s="14"/>
       <c r="J520" s="2"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" s="10"/>
       <c r="B521" s="6"/>
       <c r="C521" s="4"/>
@@ -13654,7 +13654,7 @@
       <c r="I521" s="14"/>
       <c r="J521" s="2"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" s="10"/>
       <c r="B522" s="6"/>
       <c r="C522" s="4"/>
@@ -13666,7 +13666,7 @@
       <c r="I522" s="14"/>
       <c r="J522" s="2"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" s="10"/>
       <c r="B523" s="6"/>
       <c r="C523" s="4"/>
@@ -13678,7 +13678,7 @@
       <c r="I523" s="14"/>
       <c r="J523" s="2"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" s="10"/>
       <c r="B524" s="6"/>
       <c r="C524" s="4"/>
@@ -13690,7 +13690,7 @@
       <c r="I524" s="14"/>
       <c r="J524" s="2"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" s="10"/>
       <c r="B525" s="6"/>
       <c r="C525" s="4"/>
@@ -13702,7 +13702,7 @@
       <c r="I525" s="14"/>
       <c r="J525" s="2"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" s="10"/>
       <c r="B526" s="6"/>
       <c r="C526" s="4"/>
@@ -13714,7 +13714,7 @@
       <c r="I526" s="14"/>
       <c r="J526" s="2"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" s="10"/>
       <c r="B527" s="6"/>
       <c r="C527" s="4"/>
@@ -13726,7 +13726,7 @@
       <c r="I527" s="14"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" s="10"/>
       <c r="B528" s="6"/>
       <c r="C528" s="4"/>
@@ -13738,7 +13738,7 @@
       <c r="I528" s="14"/>
       <c r="J528" s="2"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" s="10"/>
       <c r="B529" s="6"/>
       <c r="C529" s="4"/>
@@ -13750,7 +13750,7 @@
       <c r="I529" s="14"/>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" s="10"/>
       <c r="B530" s="6"/>
       <c r="C530" s="4"/>
@@ -13762,7 +13762,7 @@
       <c r="I530" s="14"/>
       <c r="J530" s="2"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" s="10"/>
       <c r="B531" s="6"/>
       <c r="C531" s="4"/>
@@ -13774,7 +13774,7 @@
       <c r="I531" s="14"/>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" s="10"/>
       <c r="B532" s="6"/>
       <c r="C532" s="4"/>
@@ -13786,7 +13786,7 @@
       <c r="I532" s="14"/>
       <c r="J532" s="2"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" s="10"/>
       <c r="B533" s="6"/>
       <c r="C533" s="4"/>
@@ -13798,7 +13798,7 @@
       <c r="I533" s="14"/>
       <c r="J533" s="2"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" s="10"/>
       <c r="B534" s="6"/>
       <c r="C534" s="4"/>
@@ -13810,7 +13810,7 @@
       <c r="I534" s="14"/>
       <c r="J534" s="2"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" s="10"/>
       <c r="B535" s="6"/>
       <c r="C535" s="4"/>
@@ -13822,7 +13822,7 @@
       <c r="I535" s="14"/>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" s="10"/>
       <c r="B536" s="6"/>
       <c r="C536" s="4"/>
@@ -13834,7 +13834,7 @@
       <c r="I536" s="14"/>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" s="10"/>
       <c r="B537" s="6"/>
       <c r="C537" s="4"/>
@@ -13846,7 +13846,7 @@
       <c r="I537" s="14"/>
       <c r="J537" s="2"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" s="10"/>
       <c r="B538" s="6"/>
       <c r="C538" s="4"/>
@@ -13858,7 +13858,7 @@
       <c r="I538" s="14"/>
       <c r="J538" s="2"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" s="10"/>
       <c r="B539" s="6"/>
       <c r="C539" s="4"/>
@@ -13870,7 +13870,7 @@
       <c r="I539" s="14"/>
       <c r="J539" s="2"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" s="10"/>
       <c r="B540" s="6"/>
       <c r="C540" s="4"/>
@@ -13882,7 +13882,7 @@
       <c r="I540" s="14"/>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" s="10"/>
       <c r="B541" s="6"/>
       <c r="C541" s="4"/>
@@ -13894,7 +13894,7 @@
       <c r="I541" s="14"/>
       <c r="J541" s="2"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" s="10"/>
       <c r="B542" s="6"/>
       <c r="C542" s="4"/>
@@ -13906,7 +13906,7 @@
       <c r="I542" s="14"/>
       <c r="J542" s="2"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" s="10"/>
       <c r="B543" s="6"/>
       <c r="C543" s="4"/>
@@ -13918,7 +13918,7 @@
       <c r="I543" s="14"/>
       <c r="J543" s="2"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" s="10"/>
       <c r="B544" s="6"/>
       <c r="C544" s="4"/>
@@ -13930,7 +13930,7 @@
       <c r="I544" s="14"/>
       <c r="J544" s="2"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" s="10"/>
       <c r="B545" s="6"/>
       <c r="C545" s="4"/>
@@ -13942,7 +13942,7 @@
       <c r="I545" s="14"/>
       <c r="J545" s="2"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" s="10"/>
       <c r="B546" s="6"/>
       <c r="C546" s="4"/>
@@ -13954,7 +13954,7 @@
       <c r="I546" s="14"/>
       <c r="J546" s="2"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" s="10"/>
       <c r="B547" s="6"/>
       <c r="C547" s="4"/>
@@ -13966,7 +13966,7 @@
       <c r="I547" s="14"/>
       <c r="J547" s="2"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" s="10"/>
       <c r="B548" s="6"/>
       <c r="C548" s="4"/>
@@ -13978,7 +13978,7 @@
       <c r="I548" s="14"/>
       <c r="J548" s="2"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" s="10"/>
       <c r="B549" s="6"/>
       <c r="C549" s="4"/>
@@ -13990,7 +13990,7 @@
       <c r="I549" s="14"/>
       <c r="J549" s="2"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" s="10"/>
       <c r="B550" s="6"/>
       <c r="C550" s="4"/>
@@ -14002,7 +14002,7 @@
       <c r="I550" s="14"/>
       <c r="J550" s="2"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" s="10"/>
       <c r="B551" s="6"/>
       <c r="C551" s="4"/>
@@ -14014,7 +14014,7 @@
       <c r="I551" s="14"/>
       <c r="J551" s="2"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" s="10"/>
       <c r="B552" s="6"/>
       <c r="C552" s="4"/>
@@ -14026,7 +14026,7 @@
       <c r="I552" s="14"/>
       <c r="J552" s="2"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" s="10"/>
       <c r="B553" s="6"/>
       <c r="C553" s="4"/>
@@ -14038,7 +14038,7 @@
       <c r="I553" s="14"/>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" s="10"/>
       <c r="B554" s="6"/>
       <c r="C554" s="4"/>
@@ -14050,7 +14050,7 @@
       <c r="I554" s="14"/>
       <c r="J554" s="2"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" s="10"/>
       <c r="B555" s="6"/>
       <c r="C555" s="4"/>
@@ -14062,7 +14062,7 @@
       <c r="I555" s="14"/>
       <c r="J555" s="2"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" s="10"/>
       <c r="B556" s="6"/>
       <c r="C556" s="4"/>
@@ -14074,7 +14074,7 @@
       <c r="I556" s="14"/>
       <c r="J556" s="2"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" s="10"/>
       <c r="B557" s="6"/>
       <c r="C557" s="4"/>
@@ -14086,7 +14086,7 @@
       <c r="I557" s="14"/>
       <c r="J557" s="2"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" s="10"/>
       <c r="B558" s="6"/>
       <c r="C558" s="4"/>
@@ -14098,7 +14098,7 @@
       <c r="I558" s="14"/>
       <c r="J558" s="2"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" s="10"/>
       <c r="B559" s="6"/>
       <c r="C559" s="4"/>
@@ -14110,7 +14110,7 @@
       <c r="I559" s="14"/>
       <c r="J559" s="2"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" s="10"/>
       <c r="B560" s="6"/>
       <c r="C560" s="4"/>
@@ -14122,7 +14122,7 @@
       <c r="I560" s="14"/>
       <c r="J560" s="2"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" s="10"/>
       <c r="B561" s="6"/>
       <c r="C561" s="4"/>
@@ -14134,7 +14134,7 @@
       <c r="I561" s="14"/>
       <c r="J561" s="2"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" s="10"/>
       <c r="B562" s="6"/>
       <c r="C562" s="4"/>
@@ -14146,7 +14146,7 @@
       <c r="I562" s="14"/>
       <c r="J562" s="2"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" s="10"/>
       <c r="B563" s="6"/>
       <c r="C563" s="4"/>
@@ -14158,7 +14158,7 @@
       <c r="I563" s="14"/>
       <c r="J563" s="2"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" s="10"/>
       <c r="B564" s="6"/>
       <c r="C564" s="4"/>
@@ -14170,7 +14170,7 @@
       <c r="I564" s="14"/>
       <c r="J564" s="2"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" s="10"/>
       <c r="B565" s="6"/>
       <c r="C565" s="4"/>
@@ -14182,7 +14182,7 @@
       <c r="I565" s="14"/>
       <c r="J565" s="2"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" s="10"/>
       <c r="B566" s="6"/>
       <c r="C566" s="4"/>
@@ -14194,7 +14194,7 @@
       <c r="I566" s="14"/>
       <c r="J566" s="2"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A567" s="10"/>
       <c r="B567" s="6"/>
       <c r="C567" s="4"/>
@@ -14206,7 +14206,7 @@
       <c r="I567" s="14"/>
       <c r="J567" s="2"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A568" s="10"/>
       <c r="B568" s="6"/>
       <c r="C568" s="4"/>
@@ -14218,7 +14218,7 @@
       <c r="I568" s="14"/>
       <c r="J568" s="2"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A569" s="10"/>
       <c r="B569" s="6"/>
       <c r="C569" s="4"/>
@@ -14230,7 +14230,7 @@
       <c r="I569" s="14"/>
       <c r="J569" s="2"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A570" s="10"/>
       <c r="B570" s="6"/>
       <c r="C570" s="4"/>
@@ -14242,7 +14242,7 @@
       <c r="I570" s="14"/>
       <c r="J570" s="2"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A571" s="10"/>
       <c r="B571" s="6"/>
       <c r="C571" s="4"/>
@@ -14254,7 +14254,7 @@
       <c r="I571" s="14"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A572" s="10"/>
       <c r="B572" s="6"/>
       <c r="C572" s="4"/>
@@ -14266,7 +14266,7 @@
       <c r="I572" s="14"/>
       <c r="J572" s="2"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A573" s="10"/>
       <c r="B573" s="6"/>
       <c r="C573" s="4"/>
@@ -14278,7 +14278,7 @@
       <c r="I573" s="14"/>
       <c r="J573" s="2"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A574" s="10"/>
       <c r="B574" s="6"/>
       <c r="C574" s="4"/>
@@ -14290,7 +14290,7 @@
       <c r="I574" s="14"/>
       <c r="J574" s="2"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A575" s="10"/>
       <c r="B575" s="6"/>
       <c r="C575" s="4"/>
@@ -14302,7 +14302,7 @@
       <c r="I575" s="14"/>
       <c r="J575" s="2"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A576" s="10"/>
       <c r="B576" s="6"/>
       <c r="C576" s="4"/>
@@ -14314,7 +14314,7 @@
       <c r="I576" s="14"/>
       <c r="J576" s="2"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A577" s="10"/>
       <c r="B577" s="6"/>
       <c r="C577" s="4"/>
@@ -14326,7 +14326,7 @@
       <c r="I577" s="14"/>
       <c r="J577" s="2"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A578" s="10"/>
       <c r="B578" s="6"/>
       <c r="C578" s="4"/>
@@ -14338,7 +14338,7 @@
       <c r="I578" s="14"/>
       <c r="J578" s="2"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A579" s="10"/>
       <c r="B579" s="6"/>
       <c r="C579" s="4"/>
@@ -14350,7 +14350,7 @@
       <c r="I579" s="14"/>
       <c r="J579" s="2"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A580" s="10"/>
       <c r="B580" s="6"/>
       <c r="C580" s="4"/>
@@ -14362,7 +14362,7 @@
       <c r="I580" s="14"/>
       <c r="J580" s="2"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A581" s="10"/>
       <c r="B581" s="6"/>
       <c r="C581" s="4"/>
@@ -14374,7 +14374,7 @@
       <c r="I581" s="14"/>
       <c r="J581" s="2"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A582" s="10"/>
       <c r="B582" s="6"/>
       <c r="C582" s="4"/>
@@ -14386,7 +14386,7 @@
       <c r="I582" s="14"/>
       <c r="J582" s="2"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A583" s="10"/>
       <c r="B583" s="6"/>
       <c r="C583" s="4"/>
@@ -14398,7 +14398,7 @@
       <c r="I583" s="14"/>
       <c r="J583" s="2"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A584" s="10"/>
       <c r="B584" s="6"/>
       <c r="C584" s="4"/>
@@ -14410,7 +14410,7 @@
       <c r="I584" s="14"/>
       <c r="J584" s="2"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A585" s="10"/>
       <c r="B585" s="6"/>
       <c r="C585" s="4"/>
@@ -14422,7 +14422,7 @@
       <c r="I585" s="14"/>
       <c r="J585" s="2"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A586" s="10"/>
       <c r="B586" s="6"/>
       <c r="C586" s="4"/>
@@ -14434,7 +14434,7 @@
       <c r="I586" s="14"/>
       <c r="J586" s="2"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A587" s="10"/>
       <c r="B587" s="6"/>
       <c r="C587" s="4"/>
@@ -14446,7 +14446,7 @@
       <c r="I587" s="14"/>
       <c r="J587" s="2"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588" s="10"/>
       <c r="B588" s="6"/>
       <c r="C588" s="4"/>
@@ -14458,7 +14458,7 @@
       <c r="I588" s="14"/>
       <c r="J588" s="2"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A589" s="10"/>
       <c r="B589" s="6"/>
       <c r="C589" s="4"/>
@@ -14470,7 +14470,7 @@
       <c r="I589" s="14"/>
       <c r="J589" s="2"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A590" s="10"/>
       <c r="B590" s="6"/>
       <c r="C590" s="4"/>
@@ -14482,7 +14482,7 @@
       <c r="I590" s="14"/>
       <c r="J590" s="2"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A591" s="10"/>
       <c r="B591" s="6"/>
       <c r="C591" s="4"/>
@@ -14494,7 +14494,7 @@
       <c r="I591" s="14"/>
       <c r="J591" s="2"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A592" s="10"/>
       <c r="B592" s="6"/>
       <c r="C592" s="4"/>
@@ -14506,7 +14506,7 @@
       <c r="I592" s="14"/>
       <c r="J592" s="2"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A593" s="10"/>
       <c r="B593" s="6"/>
       <c r="C593" s="4"/>
@@ -14518,7 +14518,7 @@
       <c r="I593" s="14"/>
       <c r="J593" s="2"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A594" s="10"/>
       <c r="B594" s="6"/>
       <c r="C594" s="4"/>
@@ -14530,7 +14530,7 @@
       <c r="I594" s="14"/>
       <c r="J594" s="2"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A595" s="10"/>
       <c r="B595" s="6"/>
       <c r="C595" s="4"/>
@@ -14542,7 +14542,7 @@
       <c r="I595" s="14"/>
       <c r="J595" s="2"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A596" s="10"/>
       <c r="B596" s="6"/>
       <c r="C596" s="4"/>
@@ -14554,7 +14554,7 @@
       <c r="I596" s="14"/>
       <c r="J596" s="2"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A597" s="10"/>
       <c r="B597" s="6"/>
       <c r="C597" s="4"/>
@@ -14566,7 +14566,7 @@
       <c r="I597" s="14"/>
       <c r="J597" s="2"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A598" s="10"/>
       <c r="B598" s="6"/>
       <c r="C598" s="4"/>
@@ -14578,7 +14578,7 @@
       <c r="I598" s="14"/>
       <c r="J598" s="2"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A599" s="10"/>
       <c r="B599" s="6"/>
       <c r="C599" s="4"/>
@@ -14590,7 +14590,7 @@
       <c r="I599" s="14"/>
       <c r="J599" s="2"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A600" s="10"/>
       <c r="B600" s="6"/>
       <c r="C600" s="4"/>
@@ -14602,7 +14602,7 @@
       <c r="I600" s="14"/>
       <c r="J600" s="2"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A601" s="10"/>
       <c r="B601" s="6"/>
       <c r="C601" s="4"/>
@@ -14614,7 +14614,7 @@
       <c r="I601" s="14"/>
       <c r="J601" s="2"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A602" s="10"/>
       <c r="B602" s="6"/>
       <c r="C602" s="4"/>
@@ -14626,7 +14626,7 @@
       <c r="I602" s="14"/>
       <c r="J602" s="2"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A603" s="10"/>
       <c r="B603" s="6"/>
       <c r="C603" s="4"/>
@@ -14638,7 +14638,7 @@
       <c r="I603" s="14"/>
       <c r="J603" s="2"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A604" s="10"/>
       <c r="B604" s="6"/>
       <c r="C604" s="4"/>
@@ -14650,7 +14650,7 @@
       <c r="I604" s="14"/>
       <c r="J604" s="2"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A605" s="10"/>
       <c r="B605" s="6"/>
       <c r="C605" s="4"/>
@@ -14662,7 +14662,7 @@
       <c r="I605" s="14"/>
       <c r="J605" s="2"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A606" s="10"/>
       <c r="B606" s="6"/>
       <c r="C606" s="4"/>
@@ -14674,7 +14674,7 @@
       <c r="I606" s="14"/>
       <c r="J606" s="2"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A607" s="10"/>
       <c r="B607" s="6"/>
       <c r="C607" s="4"/>
@@ -14686,7 +14686,7 @@
       <c r="I607" s="14"/>
       <c r="J607" s="2"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A608" s="10"/>
       <c r="B608" s="6"/>
       <c r="C608" s="4"/>
@@ -14698,7 +14698,7 @@
       <c r="I608" s="14"/>
       <c r="J608" s="2"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A609" s="10"/>
       <c r="B609" s="6"/>
       <c r="C609" s="4"/>
@@ -14710,7 +14710,7 @@
       <c r="I609" s="14"/>
       <c r="J609" s="2"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A610" s="10"/>
       <c r="B610" s="6"/>
       <c r="C610" s="4"/>
@@ -14722,7 +14722,7 @@
       <c r="I610" s="14"/>
       <c r="J610" s="2"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A611" s="10"/>
       <c r="B611" s="6"/>
       <c r="C611" s="4"/>
@@ -14734,7 +14734,7 @@
       <c r="I611" s="14"/>
       <c r="J611" s="2"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A612" s="10"/>
       <c r="B612" s="6"/>
       <c r="C612" s="4"/>
@@ -14746,7 +14746,7 @@
       <c r="I612" s="14"/>
       <c r="J612" s="2"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A613" s="10"/>
       <c r="B613" s="6"/>
       <c r="C613" s="4"/>
@@ -14758,7 +14758,7 @@
       <c r="I613" s="14"/>
       <c r="J613" s="2"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A614" s="10"/>
       <c r="B614" s="6"/>
       <c r="C614" s="4"/>
@@ -14770,7 +14770,7 @@
       <c r="I614" s="14"/>
       <c r="J614" s="2"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A615" s="10"/>
       <c r="B615" s="6"/>
       <c r="C615" s="4"/>
@@ -14782,7 +14782,7 @@
       <c r="I615" s="14"/>
       <c r="J615" s="2"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A616" s="10"/>
       <c r="B616" s="6"/>
       <c r="C616" s="4"/>
@@ -14794,7 +14794,7 @@
       <c r="I616" s="14"/>
       <c r="J616" s="2"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A617" s="10"/>
       <c r="B617" s="6"/>
       <c r="C617" s="4"/>
@@ -14806,7 +14806,7 @@
       <c r="I617" s="14"/>
       <c r="J617" s="2"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A618" s="10"/>
       <c r="B618" s="6"/>
       <c r="C618" s="4"/>
@@ -14818,7 +14818,7 @@
       <c r="I618" s="14"/>
       <c r="J618" s="2"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A619" s="10"/>
       <c r="B619" s="6"/>
       <c r="C619" s="4"/>
@@ -14830,7 +14830,7 @@
       <c r="I619" s="14"/>
       <c r="J619" s="2"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A620" s="10"/>
       <c r="B620" s="6"/>
       <c r="C620" s="4"/>
@@ -14842,7 +14842,7 @@
       <c r="I620" s="14"/>
       <c r="J620" s="2"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A621" s="10"/>
       <c r="B621" s="6"/>
       <c r="C621" s="4"/>
@@ -14854,7 +14854,7 @@
       <c r="I621" s="14"/>
       <c r="J621" s="2"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A622" s="10"/>
       <c r="B622" s="6"/>
       <c r="C622" s="4"/>
@@ -14866,7 +14866,7 @@
       <c r="I622" s="14"/>
       <c r="J622" s="2"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A623" s="10"/>
       <c r="B623" s="6"/>
       <c r="C623" s="4"/>
@@ -14878,7 +14878,7 @@
       <c r="I623" s="14"/>
       <c r="J623" s="2"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A624" s="10"/>
       <c r="B624" s="6"/>
       <c r="C624" s="4"/>
@@ -14890,7 +14890,7 @@
       <c r="I624" s="14"/>
       <c r="J624" s="2"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A625" s="10"/>
       <c r="B625" s="6"/>
       <c r="C625" s="4"/>
@@ -14902,7 +14902,7 @@
       <c r="I625" s="14"/>
       <c r="J625" s="2"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A626" s="10"/>
       <c r="B626" s="6"/>
       <c r="C626" s="4"/>
@@ -14914,7 +14914,7 @@
       <c r="I626" s="14"/>
       <c r="J626" s="2"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A627" s="10"/>
       <c r="B627" s="6"/>
       <c r="C627" s="4"/>
@@ -14926,7 +14926,7 @@
       <c r="I627" s="14"/>
       <c r="J627" s="2"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" s="10"/>
       <c r="B628" s="6"/>
       <c r="C628" s="4"/>
@@ -14938,7 +14938,7 @@
       <c r="I628" s="14"/>
       <c r="J628" s="2"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" s="10"/>
       <c r="B629" s="6"/>
       <c r="C629" s="4"/>
@@ -14950,7 +14950,7 @@
       <c r="I629" s="14"/>
       <c r="J629" s="2"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A630" s="10"/>
       <c r="B630" s="6"/>
       <c r="C630" s="4"/>
@@ -14962,7 +14962,7 @@
       <c r="I630" s="14"/>
       <c r="J630" s="2"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A631" s="10"/>
       <c r="B631" s="6"/>
       <c r="C631" s="4"/>
@@ -14974,7 +14974,7 @@
       <c r="I631" s="14"/>
       <c r="J631" s="2"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A632" s="10"/>
       <c r="B632" s="6"/>
       <c r="C632" s="4"/>
@@ -14986,7 +14986,7 @@
       <c r="I632" s="14"/>
       <c r="J632" s="2"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A633" s="10"/>
       <c r="B633" s="6"/>
       <c r="C633" s="4"/>
@@ -14998,7 +14998,7 @@
       <c r="I633" s="14"/>
       <c r="J633" s="2"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A634" s="10"/>
       <c r="B634" s="6"/>
       <c r="C634" s="4"/>
@@ -15010,7 +15010,7 @@
       <c r="I634" s="14"/>
       <c r="J634" s="2"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A635" s="10"/>
       <c r="B635" s="6"/>
       <c r="C635" s="4"/>
@@ -15022,7 +15022,7 @@
       <c r="I635" s="14"/>
       <c r="J635" s="2"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A636" s="10"/>
       <c r="B636" s="6"/>
       <c r="C636" s="4"/>
@@ -15034,7 +15034,7 @@
       <c r="I636" s="14"/>
       <c r="J636" s="2"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A637" s="10"/>
       <c r="B637" s="6"/>
       <c r="C637" s="4"/>
@@ -15046,7 +15046,7 @@
       <c r="I637" s="14"/>
       <c r="J637" s="2"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A638" s="10"/>
       <c r="B638" s="6"/>
       <c r="C638" s="4"/>
@@ -15058,7 +15058,7 @@
       <c r="I638" s="14"/>
       <c r="J638" s="2"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A639" s="10"/>
       <c r="B639" s="6"/>
       <c r="C639" s="4"/>
@@ -15070,7 +15070,7 @@
       <c r="I639" s="14"/>
       <c r="J639" s="2"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A640" s="10"/>
       <c r="B640" s="6"/>
       <c r="C640" s="4"/>
@@ -15082,7 +15082,7 @@
       <c r="I640" s="14"/>
       <c r="J640" s="2"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A641" s="10"/>
       <c r="B641" s="6"/>
       <c r="C641" s="4"/>
@@ -15094,7 +15094,7 @@
       <c r="I641" s="14"/>
       <c r="J641" s="2"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A642" s="10"/>
       <c r="B642" s="6"/>
       <c r="C642" s="4"/>
@@ -15106,7 +15106,7 @@
       <c r="I642" s="14"/>
       <c r="J642" s="2"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A643" s="10"/>
       <c r="B643" s="6"/>
       <c r="C643" s="4"/>
@@ -15118,7 +15118,7 @@
       <c r="I643" s="14"/>
       <c r="J643" s="2"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A644" s="10"/>
       <c r="B644" s="6"/>
       <c r="C644" s="4"/>
@@ -15130,7 +15130,7 @@
       <c r="I644" s="14"/>
       <c r="J644" s="2"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A645" s="10"/>
       <c r="B645" s="6"/>
       <c r="C645" s="4"/>
@@ -15142,7 +15142,7 @@
       <c r="I645" s="14"/>
       <c r="J645" s="2"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A646" s="10"/>
       <c r="B646" s="6"/>
       <c r="C646" s="4"/>
@@ -15154,7 +15154,7 @@
       <c r="I646" s="14"/>
       <c r="J646" s="2"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A647" s="10"/>
       <c r="B647" s="6"/>
       <c r="C647" s="4"/>
@@ -15166,7 +15166,7 @@
       <c r="I647" s="14"/>
       <c r="J647" s="2"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A648" s="10"/>
       <c r="B648" s="6"/>
       <c r="C648" s="4"/>
@@ -15178,7 +15178,7 @@
       <c r="I648" s="14"/>
       <c r="J648" s="2"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A649" s="10"/>
       <c r="B649" s="6"/>
       <c r="C649" s="4"/>
@@ -15190,7 +15190,7 @@
       <c r="I649" s="14"/>
       <c r="J649" s="2"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A650" s="10"/>
       <c r="B650" s="6"/>
       <c r="C650" s="4"/>
@@ -15202,7 +15202,7 @@
       <c r="I650" s="14"/>
       <c r="J650" s="2"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A651" s="10"/>
       <c r="B651" s="6"/>
       <c r="C651" s="4"/>
@@ -15214,7 +15214,7 @@
       <c r="I651" s="14"/>
       <c r="J651" s="2"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A652" s="10"/>
       <c r="B652" s="6"/>
       <c r="C652" s="4"/>
@@ -15226,7 +15226,7 @@
       <c r="I652" s="14"/>
       <c r="J652" s="2"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A653" s="10"/>
       <c r="B653" s="6"/>
       <c r="C653" s="4"/>
@@ -15238,7 +15238,7 @@
       <c r="I653" s="14"/>
       <c r="J653" s="2"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A654" s="10"/>
       <c r="B654" s="6"/>
       <c r="C654" s="4"/>
@@ -15250,7 +15250,7 @@
       <c r="I654" s="14"/>
       <c r="J654" s="2"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A655" s="10"/>
       <c r="B655" s="6"/>
       <c r="C655" s="4"/>
@@ -15262,7 +15262,7 @@
       <c r="I655" s="14"/>
       <c r="J655" s="2"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A656" s="10"/>
       <c r="B656" s="6"/>
       <c r="C656" s="4"/>
@@ -15274,7 +15274,7 @@
       <c r="I656" s="14"/>
       <c r="J656" s="2"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A657" s="10"/>
       <c r="B657" s="6"/>
       <c r="C657" s="4"/>
@@ -15286,7 +15286,7 @@
       <c r="I657" s="14"/>
       <c r="J657" s="2"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A658" s="10"/>
       <c r="B658" s="6"/>
       <c r="C658" s="4"/>
@@ -15298,7 +15298,7 @@
       <c r="I658" s="14"/>
       <c r="J658" s="2"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A659" s="10"/>
       <c r="B659" s="6"/>
       <c r="C659" s="4"/>
@@ -15310,7 +15310,7 @@
       <c r="I659" s="14"/>
       <c r="J659" s="2"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A660" s="10"/>
       <c r="B660" s="6"/>
       <c r="C660" s="4"/>
@@ -15322,7 +15322,7 @@
       <c r="I660" s="14"/>
       <c r="J660" s="2"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A661" s="10"/>
       <c r="B661" s="6"/>
       <c r="C661" s="4"/>
@@ -15334,7 +15334,7 @@
       <c r="I661" s="14"/>
       <c r="J661" s="2"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A662" s="10"/>
       <c r="B662" s="6"/>
       <c r="C662" s="4"/>
@@ -15346,7 +15346,7 @@
       <c r="I662" s="14"/>
       <c r="J662" s="2"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A663" s="10"/>
       <c r="B663" s="6"/>
       <c r="C663" s="4"/>
@@ -15358,7 +15358,7 @@
       <c r="I663" s="14"/>
       <c r="J663" s="2"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A664" s="10"/>
       <c r="B664" s="6"/>
       <c r="C664" s="4"/>
@@ -15370,7 +15370,7 @@
       <c r="I664" s="14"/>
       <c r="J664" s="2"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A665" s="10"/>
       <c r="B665" s="6"/>
       <c r="C665" s="4"/>
@@ -15382,7 +15382,7 @@
       <c r="I665" s="14"/>
       <c r="J665" s="2"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A666" s="10"/>
       <c r="B666" s="6"/>
       <c r="C666" s="4"/>
@@ -15394,7 +15394,7 @@
       <c r="I666" s="14"/>
       <c r="J666" s="2"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A667" s="10"/>
       <c r="B667" s="6"/>
       <c r="C667" s="4"/>
@@ -15406,7 +15406,7 @@
       <c r="I667" s="14"/>
       <c r="J667" s="2"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A668" s="10"/>
       <c r="B668" s="6"/>
       <c r="C668" s="4"/>
@@ -15418,7 +15418,7 @@
       <c r="I668" s="14"/>
       <c r="J668" s="2"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A669" s="10"/>
       <c r="B669" s="6"/>
       <c r="C669" s="4"/>
@@ -15430,7 +15430,7 @@
       <c r="I669" s="14"/>
       <c r="J669" s="2"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A670" s="10"/>
       <c r="B670" s="6"/>
       <c r="C670" s="4"/>
@@ -15442,7 +15442,7 @@
       <c r="I670" s="14"/>
       <c r="J670" s="2"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A671" s="10"/>
       <c r="B671" s="6"/>
       <c r="C671" s="4"/>
@@ -15454,7 +15454,7 @@
       <c r="I671" s="14"/>
       <c r="J671" s="2"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A672" s="10"/>
       <c r="B672" s="6"/>
       <c r="C672" s="4"/>
@@ -15466,7 +15466,7 @@
       <c r="I672" s="14"/>
       <c r="J672" s="2"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A673" s="10"/>
       <c r="B673" s="6"/>
       <c r="C673" s="4"/>
@@ -15478,7 +15478,7 @@
       <c r="I673" s="14"/>
       <c r="J673" s="2"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A674" s="10"/>
       <c r="B674" s="6"/>
       <c r="C674" s="4"/>
@@ -15490,7 +15490,7 @@
       <c r="I674" s="14"/>
       <c r="J674" s="2"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A675" s="10"/>
       <c r="B675" s="6"/>
       <c r="C675" s="4"/>
@@ -15502,7 +15502,7 @@
       <c r="I675" s="14"/>
       <c r="J675" s="2"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A676" s="10"/>
       <c r="B676" s="6"/>
       <c r="C676" s="4"/>
@@ -15514,7 +15514,7 @@
       <c r="I676" s="14"/>
       <c r="J676" s="2"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A677" s="10"/>
       <c r="B677" s="6"/>
       <c r="C677" s="4"/>
@@ -15526,7 +15526,7 @@
       <c r="I677" s="14"/>
       <c r="J677" s="2"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A678" s="10"/>
       <c r="B678" s="6"/>
       <c r="C678" s="4"/>
@@ -15538,7 +15538,7 @@
       <c r="I678" s="14"/>
       <c r="J678" s="2"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A679" s="10"/>
       <c r="B679" s="6"/>
       <c r="C679" s="4"/>
@@ -15550,7 +15550,7 @@
       <c r="I679" s="14"/>
       <c r="J679" s="2"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A680" s="10"/>
       <c r="B680" s="6"/>
       <c r="C680" s="4"/>
@@ -15562,7 +15562,7 @@
       <c r="I680" s="14"/>
       <c r="J680" s="2"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A681" s="10"/>
       <c r="B681" s="6"/>
       <c r="C681" s="4"/>
@@ -15574,7 +15574,7 @@
       <c r="I681" s="14"/>
       <c r="J681" s="2"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A682" s="10"/>
       <c r="B682" s="6"/>
       <c r="C682" s="4"/>
@@ -15586,7 +15586,7 @@
       <c r="I682" s="14"/>
       <c r="J682" s="2"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A683" s="10"/>
       <c r="B683" s="6"/>
       <c r="C683" s="4"/>
@@ -15598,7 +15598,7 @@
       <c r="I683" s="14"/>
       <c r="J683" s="2"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A684" s="10"/>
       <c r="B684" s="6"/>
       <c r="C684" s="4"/>
@@ -15610,7 +15610,7 @@
       <c r="I684" s="14"/>
       <c r="J684" s="2"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A685" s="10"/>
       <c r="B685" s="6"/>
       <c r="C685" s="4"/>
@@ -15622,7 +15622,7 @@
       <c r="I685" s="14"/>
       <c r="J685" s="2"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A686" s="10"/>
       <c r="B686" s="6"/>
       <c r="C686" s="4"/>
@@ -15634,7 +15634,7 @@
       <c r="I686" s="14"/>
       <c r="J686" s="2"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A687" s="10"/>
       <c r="B687" s="6"/>
       <c r="C687" s="4"/>
@@ -15646,7 +15646,7 @@
       <c r="I687" s="14"/>
       <c r="J687" s="2"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A688" s="10"/>
       <c r="B688" s="6"/>
       <c r="C688" s="4"/>
@@ -15658,7 +15658,7 @@
       <c r="I688" s="14"/>
       <c r="J688" s="2"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A689" s="10"/>
       <c r="B689" s="6"/>
       <c r="C689" s="4"/>
@@ -15670,7 +15670,7 @@
       <c r="I689" s="14"/>
       <c r="J689" s="2"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A690" s="10"/>
       <c r="B690" s="6"/>
       <c r="C690" s="4"/>
@@ -15682,7 +15682,7 @@
       <c r="I690" s="14"/>
       <c r="J690" s="2"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A691" s="10"/>
       <c r="B691" s="6"/>
       <c r="C691" s="4"/>
@@ -15694,7 +15694,7 @@
       <c r="I691" s="14"/>
       <c r="J691" s="2"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A692" s="10"/>
       <c r="B692" s="6"/>
       <c r="C692" s="4"/>
@@ -15706,7 +15706,7 @@
       <c r="I692" s="14"/>
       <c r="J692" s="2"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A693" s="10"/>
       <c r="B693" s="6"/>
       <c r="C693" s="4"/>
@@ -15718,7 +15718,7 @@
       <c r="I693" s="14"/>
       <c r="J693" s="2"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A694" s="10"/>
       <c r="B694" s="6"/>
       <c r="C694" s="4"/>
@@ -15730,7 +15730,7 @@
       <c r="I694" s="14"/>
       <c r="J694" s="2"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A695" s="10"/>
       <c r="B695" s="6"/>
       <c r="C695" s="4"/>
@@ -15742,7 +15742,7 @@
       <c r="I695" s="14"/>
       <c r="J695" s="2"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A696" s="10"/>
       <c r="B696" s="6"/>
       <c r="C696" s="4"/>
@@ -15754,7 +15754,7 @@
       <c r="I696" s="14"/>
       <c r="J696" s="2"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A697" s="10"/>
       <c r="B697" s="6"/>
       <c r="C697" s="4"/>
@@ -15766,7 +15766,7 @@
       <c r="I697" s="14"/>
       <c r="J697" s="2"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A698" s="10"/>
       <c r="B698" s="6"/>
       <c r="C698" s="4"/>
@@ -15778,7 +15778,7 @@
       <c r="I698" s="14"/>
       <c r="J698" s="2"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A699" s="10"/>
       <c r="B699" s="6"/>
       <c r="C699" s="4"/>
@@ -15790,7 +15790,7 @@
       <c r="I699" s="14"/>
       <c r="J699" s="2"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A700" s="10"/>
       <c r="B700" s="6"/>
       <c r="C700" s="4"/>
@@ -15802,7 +15802,7 @@
       <c r="I700" s="14"/>
       <c r="J700" s="2"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A701" s="10"/>
       <c r="B701" s="6"/>
       <c r="C701" s="4"/>
@@ -15814,7 +15814,7 @@
       <c r="I701" s="14"/>
       <c r="J701" s="2"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A702" s="10"/>
       <c r="B702" s="6"/>
       <c r="C702" s="4"/>
@@ -15826,7 +15826,7 @@
       <c r="I702" s="14"/>
       <c r="J702" s="2"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A703" s="10"/>
       <c r="B703" s="6"/>
       <c r="C703" s="4"/>
@@ -15838,7 +15838,7 @@
       <c r="I703" s="14"/>
       <c r="J703" s="2"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A704" s="10"/>
       <c r="B704" s="6"/>
       <c r="C704" s="4"/>
@@ -15850,7 +15850,7 @@
       <c r="I704" s="14"/>
       <c r="J704" s="2"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A705" s="10"/>
       <c r="B705" s="6"/>
       <c r="C705" s="4"/>
@@ -15862,7 +15862,7 @@
       <c r="I705" s="14"/>
       <c r="J705" s="2"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A706" s="10"/>
       <c r="B706" s="6"/>
       <c r="C706" s="4"/>
@@ -15874,7 +15874,7 @@
       <c r="I706" s="14"/>
       <c r="J706" s="2"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A707" s="10"/>
       <c r="B707" s="6"/>
       <c r="C707" s="4"/>
@@ -15886,7 +15886,7 @@
       <c r="I707" s="14"/>
       <c r="J707" s="2"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A708" s="10"/>
       <c r="B708" s="6"/>
       <c r="C708" s="4"/>
@@ -15898,7 +15898,7 @@
       <c r="I708" s="14"/>
       <c r="J708" s="2"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A709" s="10"/>
       <c r="B709" s="6"/>
       <c r="C709" s="4"/>
@@ -15910,7 +15910,7 @@
       <c r="I709" s="14"/>
       <c r="J709" s="2"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A710" s="10"/>
       <c r="B710" s="6"/>
       <c r="C710" s="4"/>
@@ -15922,7 +15922,7 @@
       <c r="I710" s="14"/>
       <c r="J710" s="2"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A711" s="10"/>
       <c r="B711" s="6"/>
       <c r="C711" s="4"/>
@@ -15934,7 +15934,7 @@
       <c r="I711" s="14"/>
       <c r="J711" s="2"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A712" s="10"/>
       <c r="B712" s="6"/>
       <c r="C712" s="4"/>
@@ -15946,7 +15946,7 @@
       <c r="I712" s="14"/>
       <c r="J712" s="2"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A713" s="10"/>
       <c r="B713" s="6"/>
       <c r="C713" s="4"/>
@@ -15958,7 +15958,7 @@
       <c r="I713" s="14"/>
       <c r="J713" s="2"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A714" s="10"/>
       <c r="B714" s="6"/>
       <c r="C714" s="4"/>
@@ -15970,7 +15970,7 @@
       <c r="I714" s="14"/>
       <c r="J714" s="2"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A715" s="10"/>
       <c r="B715" s="6"/>
       <c r="C715" s="4"/>
@@ -15982,7 +15982,7 @@
       <c r="I715" s="14"/>
       <c r="J715" s="2"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A716" s="10"/>
       <c r="B716" s="6"/>
       <c r="C716" s="4"/>
@@ -15994,7 +15994,7 @@
       <c r="I716" s="14"/>
       <c r="J716" s="2"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A717" s="10"/>
       <c r="B717" s="6"/>
       <c r="C717" s="4"/>
@@ -16006,7 +16006,7 @@
       <c r="I717" s="14"/>
       <c r="J717" s="2"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A718" s="10"/>
       <c r="B718" s="6"/>
       <c r="C718" s="4"/>
@@ -16018,7 +16018,7 @@
       <c r="I718" s="14"/>
       <c r="J718" s="2"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A719" s="10"/>
       <c r="B719" s="6"/>
       <c r="C719" s="4"/>
@@ -16030,7 +16030,7 @@
       <c r="I719" s="14"/>
       <c r="J719" s="2"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A720" s="10"/>
       <c r="B720" s="6"/>
       <c r="C720" s="4"/>
@@ -16042,7 +16042,7 @@
       <c r="I720" s="14"/>
       <c r="J720" s="2"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A721" s="10"/>
       <c r="B721" s="6"/>
       <c r="C721" s="4"/>
@@ -16054,7 +16054,7 @@
       <c r="I721" s="14"/>
       <c r="J721" s="2"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A722" s="10"/>
       <c r="B722" s="6"/>
       <c r="C722" s="4"/>
@@ -16066,7 +16066,7 @@
       <c r="I722" s="14"/>
       <c r="J722" s="2"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A723" s="10"/>
       <c r="B723" s="6"/>
       <c r="C723" s="4"/>
@@ -16078,7 +16078,7 @@
       <c r="I723" s="14"/>
       <c r="J723" s="2"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A724" s="10"/>
       <c r="B724" s="6"/>
       <c r="C724" s="4"/>
@@ -16090,7 +16090,7 @@
       <c r="I724" s="14"/>
       <c r="J724" s="2"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A725" s="10"/>
       <c r="B725" s="6"/>
       <c r="C725" s="4"/>
@@ -16102,7 +16102,7 @@
       <c r="I725" s="14"/>
       <c r="J725" s="2"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A726" s="10"/>
       <c r="B726" s="6"/>
       <c r="C726" s="4"/>
@@ -16114,7 +16114,7 @@
       <c r="I726" s="14"/>
       <c r="J726" s="2"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A727" s="10"/>
       <c r="B727" s="6"/>
       <c r="C727" s="4"/>
@@ -16126,7 +16126,7 @@
       <c r="I727" s="14"/>
       <c r="J727" s="2"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A728" s="10"/>
       <c r="B728" s="6"/>
       <c r="C728" s="4"/>
@@ -16138,7 +16138,7 @@
       <c r="I728" s="14"/>
       <c r="J728" s="2"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A729" s="10"/>
       <c r="B729" s="6"/>
       <c r="C729" s="4"/>
@@ -16150,7 +16150,7 @@
       <c r="I729" s="14"/>
       <c r="J729" s="2"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A730" s="10"/>
       <c r="B730" s="6"/>
       <c r="C730" s="4"/>
@@ -16162,7 +16162,7 @@
       <c r="I730" s="14"/>
       <c r="J730" s="2"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A731" s="10"/>
       <c r="B731" s="6"/>
       <c r="C731" s="4"/>
@@ -16174,7 +16174,7 @@
       <c r="I731" s="14"/>
       <c r="J731" s="2"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A732" s="10"/>
       <c r="B732" s="6"/>
       <c r="C732" s="4"/>
@@ -16186,7 +16186,7 @@
       <c r="I732" s="14"/>
       <c r="J732" s="2"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A733" s="10"/>
       <c r="B733" s="6"/>
       <c r="C733" s="4"/>
@@ -16198,7 +16198,7 @@
       <c r="I733" s="14"/>
       <c r="J733" s="2"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A734" s="10"/>
       <c r="B734" s="6"/>
       <c r="C734" s="4"/>
@@ -16210,7 +16210,7 @@
       <c r="I734" s="14"/>
       <c r="J734" s="2"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A735" s="10"/>
       <c r="B735" s="6"/>
       <c r="C735" s="4"/>
@@ -16222,7 +16222,7 @@
       <c r="I735" s="14"/>
       <c r="J735" s="2"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A736" s="10"/>
       <c r="B736" s="6"/>
       <c r="C736" s="4"/>
@@ -16234,7 +16234,7 @@
       <c r="I736" s="14"/>
       <c r="J736" s="2"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A737" s="10"/>
       <c r="B737" s="6"/>
       <c r="C737" s="4"/>
@@ -16246,7 +16246,7 @@
       <c r="I737" s="14"/>
       <c r="J737" s="2"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A738" s="10"/>
       <c r="B738" s="6"/>
       <c r="C738" s="4"/>
@@ -16258,7 +16258,7 @@
       <c r="I738" s="14"/>
       <c r="J738" s="2"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A739" s="10"/>
       <c r="B739" s="6"/>
       <c r="C739" s="4"/>
@@ -16270,7 +16270,7 @@
       <c r="I739" s="14"/>
       <c r="J739" s="2"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A740" s="10"/>
       <c r="B740" s="6"/>
       <c r="C740" s="4"/>
@@ -16282,7 +16282,7 @@
       <c r="I740" s="14"/>
       <c r="J740" s="2"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A741" s="10"/>
       <c r="B741" s="6"/>
       <c r="C741" s="4"/>
@@ -16294,7 +16294,7 @@
       <c r="I741" s="14"/>
       <c r="J741" s="2"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A742" s="10"/>
       <c r="B742" s="6"/>
       <c r="C742" s="4"/>
@@ -16306,7 +16306,7 @@
       <c r="I742" s="14"/>
       <c r="J742" s="2"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A743" s="10"/>
       <c r="B743" s="6"/>
       <c r="C743" s="4"/>
@@ -16318,7 +16318,7 @@
       <c r="I743" s="14"/>
       <c r="J743" s="2"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A744" s="10"/>
       <c r="B744" s="6"/>
       <c r="C744" s="4"/>
@@ -16330,7 +16330,7 @@
       <c r="I744" s="14"/>
       <c r="J744" s="2"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A745" s="10"/>
       <c r="B745" s="6"/>
       <c r="C745" s="4"/>
@@ -16342,7 +16342,7 @@
       <c r="I745" s="14"/>
       <c r="J745" s="2"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A746" s="10"/>
       <c r="B746" s="6"/>
       <c r="C746" s="4"/>
@@ -16354,7 +16354,7 @@
       <c r="I746" s="14"/>
       <c r="J746" s="2"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A747" s="10"/>
       <c r="B747" s="6"/>
       <c r="C747" s="4"/>
@@ -16366,7 +16366,7 @@
       <c r="I747" s="14"/>
       <c r="J747" s="2"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A748" s="10"/>
       <c r="B748" s="6"/>
       <c r="C748" s="4"/>
@@ -16378,7 +16378,7 @@
       <c r="I748" s="14"/>
       <c r="J748" s="2"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A749" s="10"/>
       <c r="B749" s="6"/>
       <c r="C749" s="4"/>
@@ -16390,7 +16390,7 @@
       <c r="I749" s="14"/>
       <c r="J749" s="2"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A750" s="10"/>
       <c r="B750" s="6"/>
       <c r="C750" s="4"/>
@@ -16402,7 +16402,7 @@
       <c r="I750" s="14"/>
       <c r="J750" s="2"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A751" s="10"/>
       <c r="B751" s="6"/>
       <c r="C751" s="4"/>
@@ -16414,7 +16414,7 @@
       <c r="I751" s="14"/>
       <c r="J751" s="2"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A752" s="10"/>
       <c r="B752" s="6"/>
       <c r="C752" s="4"/>
@@ -16426,7 +16426,7 @@
       <c r="I752" s="14"/>
       <c r="J752" s="2"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A753" s="10"/>
       <c r="B753" s="6"/>
       <c r="C753" s="4"/>
@@ -16438,7 +16438,7 @@
       <c r="I753" s="14"/>
       <c r="J753" s="2"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A754" s="10"/>
       <c r="B754" s="6"/>
       <c r="C754" s="4"/>
@@ -16450,7 +16450,7 @@
       <c r="I754" s="14"/>
       <c r="J754" s="2"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A755" s="10"/>
       <c r="B755" s="6"/>
       <c r="C755" s="4"/>
@@ -16462,7 +16462,7 @@
       <c r="I755" s="14"/>
       <c r="J755" s="2"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A756" s="10"/>
       <c r="B756" s="6"/>
       <c r="C756" s="4"/>
@@ -16474,7 +16474,7 @@
       <c r="I756" s="14"/>
       <c r="J756" s="2"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A757" s="10"/>
       <c r="B757" s="6"/>
       <c r="C757" s="4"/>
@@ -16486,7 +16486,7 @@
       <c r="I757" s="14"/>
       <c r="J757" s="2"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A758" s="10"/>
       <c r="B758" s="6"/>
       <c r="C758" s="4"/>
@@ -16498,7 +16498,7 @@
       <c r="I758" s="14"/>
       <c r="J758" s="2"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A759" s="10"/>
       <c r="B759" s="6"/>
       <c r="C759" s="4"/>
@@ -16510,7 +16510,7 @@
       <c r="I759" s="14"/>
       <c r="J759" s="2"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A760" s="10"/>
       <c r="B760" s="6"/>
       <c r="C760" s="4"/>
@@ -16522,7 +16522,7 @@
       <c r="I760" s="14"/>
       <c r="J760" s="2"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A761" s="10"/>
       <c r="B761" s="6"/>
       <c r="C761" s="4"/>
@@ -16534,7 +16534,7 @@
       <c r="I761" s="14"/>
       <c r="J761" s="2"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A762" s="10"/>
       <c r="B762" s="6"/>
       <c r="C762" s="4"/>
@@ -16546,7 +16546,7 @@
       <c r="I762" s="14"/>
       <c r="J762" s="2"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A763" s="10"/>
       <c r="B763" s="6"/>
       <c r="C763" s="4"/>
@@ -16558,7 +16558,7 @@
       <c r="I763" s="14"/>
       <c r="J763" s="2"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A764" s="10"/>
       <c r="B764" s="6"/>
       <c r="C764" s="4"/>
@@ -16570,7 +16570,7 @@
       <c r="I764" s="14"/>
       <c r="J764" s="2"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A765" s="10"/>
       <c r="B765" s="6"/>
       <c r="C765" s="4"/>
@@ -16582,7 +16582,7 @@
       <c r="I765" s="14"/>
       <c r="J765" s="2"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A766" s="10"/>
       <c r="B766" s="6"/>
       <c r="C766" s="4"/>
@@ -16594,7 +16594,7 @@
       <c r="I766" s="14"/>
       <c r="J766" s="2"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A767" s="10"/>
       <c r="B767" s="6"/>
       <c r="C767" s="4"/>
@@ -16606,7 +16606,7 @@
       <c r="I767" s="14"/>
       <c r="J767" s="2"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A768" s="10"/>
       <c r="B768" s="6"/>
       <c r="C768" s="4"/>
@@ -16618,7 +16618,7 @@
       <c r="I768" s="14"/>
       <c r="J768" s="2"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A769" s="10"/>
       <c r="B769" s="6"/>
       <c r="C769" s="4"/>
@@ -16630,7 +16630,7 @@
       <c r="I769" s="14"/>
       <c r="J769" s="2"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A770" s="10"/>
       <c r="B770" s="6"/>
       <c r="C770" s="4"/>
@@ -16642,7 +16642,7 @@
       <c r="I770" s="14"/>
       <c r="J770" s="2"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A771" s="10"/>
       <c r="B771" s="6"/>
       <c r="C771" s="4"/>
@@ -16654,7 +16654,7 @@
       <c r="I771" s="14"/>
       <c r="J771" s="2"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A772" s="10"/>
       <c r="B772" s="6"/>
       <c r="C772" s="4"/>
@@ -16666,7 +16666,7 @@
       <c r="I772" s="14"/>
       <c r="J772" s="2"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A773" s="10"/>
       <c r="B773" s="6"/>
       <c r="C773" s="4"/>
@@ -16678,7 +16678,7 @@
       <c r="I773" s="14"/>
       <c r="J773" s="2"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A774" s="10"/>
       <c r="B774" s="6"/>
       <c r="C774" s="4"/>
@@ -16690,7 +16690,7 @@
       <c r="I774" s="14"/>
       <c r="J774" s="2"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A775" s="10"/>
       <c r="B775" s="6"/>
       <c r="C775" s="4"/>
@@ -16702,7 +16702,7 @@
       <c r="I775" s="14"/>
       <c r="J775" s="2"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A776" s="10"/>
       <c r="B776" s="6"/>
       <c r="C776" s="4"/>
@@ -16714,7 +16714,7 @@
       <c r="I776" s="14"/>
       <c r="J776" s="2"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A777" s="10"/>
       <c r="B777" s="6"/>
       <c r="C777" s="4"/>
@@ -16726,7 +16726,7 @@
       <c r="I777" s="14"/>
       <c r="J777" s="2"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A778" s="10"/>
       <c r="B778" s="6"/>
       <c r="C778" s="4"/>
@@ -16738,7 +16738,7 @@
       <c r="I778" s="14"/>
       <c r="J778" s="2"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A779" s="10"/>
       <c r="B779" s="6"/>
       <c r="C779" s="4"/>
@@ -16750,7 +16750,7 @@
       <c r="I779" s="14"/>
       <c r="J779" s="2"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A780" s="10"/>
       <c r="B780" s="6"/>
       <c r="C780" s="4"/>
@@ -16762,7 +16762,7 @@
       <c r="I780" s="14"/>
       <c r="J780" s="2"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A781" s="10"/>
       <c r="B781" s="6"/>
       <c r="C781" s="4"/>
@@ -16774,7 +16774,7 @@
       <c r="I781" s="14"/>
       <c r="J781" s="2"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A782" s="10"/>
       <c r="B782" s="6"/>
       <c r="C782" s="4"/>
@@ -16786,7 +16786,7 @@
       <c r="I782" s="14"/>
       <c r="J782" s="2"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A783" s="10"/>
       <c r="B783" s="6"/>
       <c r="C783" s="4"/>
@@ -16798,7 +16798,7 @@
       <c r="I783" s="14"/>
       <c r="J783" s="2"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A784" s="10"/>
       <c r="B784" s="6"/>
       <c r="C784" s="4"/>
@@ -16810,7 +16810,7 @@
       <c r="I784" s="14"/>
       <c r="J784" s="2"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A785" s="10"/>
       <c r="B785" s="6"/>
       <c r="C785" s="4"/>
@@ -16822,7 +16822,7 @@
       <c r="I785" s="14"/>
       <c r="J785" s="2"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A786" s="10"/>
       <c r="B786" s="6"/>
       <c r="C786" s="4"/>
@@ -16834,7 +16834,7 @@
       <c r="I786" s="14"/>
       <c r="J786" s="2"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A787" s="10"/>
       <c r="B787" s="6"/>
       <c r="C787" s="4"/>
@@ -16846,7 +16846,7 @@
       <c r="I787" s="14"/>
       <c r="J787" s="2"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A788" s="10"/>
       <c r="B788" s="6"/>
       <c r="C788" s="4"/>
@@ -16858,7 +16858,7 @@
       <c r="I788" s="14"/>
       <c r="J788" s="2"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A789" s="10"/>
       <c r="B789" s="6"/>
       <c r="C789" s="4"/>
@@ -16870,7 +16870,7 @@
       <c r="I789" s="14"/>
       <c r="J789" s="2"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A790" s="10"/>
       <c r="B790" s="6"/>
       <c r="C790" s="4"/>
@@ -16882,7 +16882,7 @@
       <c r="I790" s="14"/>
       <c r="J790" s="2"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A791" s="10"/>
       <c r="B791" s="6"/>
       <c r="C791" s="4"/>
@@ -16894,7 +16894,7 @@
       <c r="I791" s="14"/>
       <c r="J791" s="2"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A792" s="10"/>
       <c r="B792" s="6"/>
       <c r="C792" s="4"/>
@@ -16906,7 +16906,7 @@
       <c r="I792" s="14"/>
       <c r="J792" s="2"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A793" s="10"/>
       <c r="B793" s="6"/>
       <c r="C793" s="4"/>
@@ -16918,7 +16918,7 @@
       <c r="I793" s="14"/>
       <c r="J793" s="2"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A794" s="10"/>
       <c r="B794" s="6"/>
       <c r="C794" s="4"/>
@@ -16930,7 +16930,7 @@
       <c r="I794" s="14"/>
       <c r="J794" s="2"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A795" s="10"/>
       <c r="B795" s="6"/>
       <c r="C795" s="4"/>
@@ -16942,7 +16942,7 @@
       <c r="I795" s="14"/>
       <c r="J795" s="2"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A796" s="10"/>
       <c r="B796" s="6"/>
       <c r="C796" s="4"/>
@@ -16954,7 +16954,7 @@
       <c r="I796" s="14"/>
       <c r="J796" s="2"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A797" s="10"/>
       <c r="B797" s="6"/>
       <c r="C797" s="4"/>
@@ -16966,7 +16966,7 @@
       <c r="I797" s="14"/>
       <c r="J797" s="2"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A798" s="10"/>
       <c r="B798" s="6"/>
       <c r="C798" s="4"/>
@@ -16978,7 +16978,7 @@
       <c r="I798" s="14"/>
       <c r="J798" s="2"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A799" s="10"/>
       <c r="B799" s="6"/>
       <c r="C799" s="4"/>
@@ -16990,7 +16990,7 @@
       <c r="I799" s="14"/>
       <c r="J799" s="2"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A800" s="10"/>
       <c r="B800" s="6"/>
       <c r="C800" s="4"/>
@@ -17002,7 +17002,7 @@
       <c r="I800" s="14"/>
       <c r="J800" s="2"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A801" s="10"/>
       <c r="B801" s="6"/>
       <c r="C801" s="4"/>
@@ -17014,7 +17014,7 @@
       <c r="I801" s="14"/>
       <c r="J801" s="2"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A802" s="10"/>
       <c r="B802" s="6"/>
       <c r="C802" s="4"/>
@@ -17026,7 +17026,7 @@
       <c r="I802" s="14"/>
       <c r="J802" s="2"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A803" s="10"/>
       <c r="B803" s="6"/>
       <c r="C803" s="4"/>
@@ -17038,7 +17038,7 @@
       <c r="I803" s="14"/>
       <c r="J803" s="2"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A804" s="10"/>
       <c r="B804" s="6"/>
       <c r="C804" s="4"/>
@@ -17050,7 +17050,7 @@
       <c r="I804" s="14"/>
       <c r="J804" s="2"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A805" s="10"/>
       <c r="B805" s="6"/>
       <c r="C805" s="4"/>
@@ -17062,7 +17062,7 @@
       <c r="I805" s="14"/>
       <c r="J805" s="2"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A806" s="10"/>
       <c r="B806" s="6"/>
       <c r="C806" s="4"/>
@@ -17074,7 +17074,7 @@
       <c r="I806" s="14"/>
       <c r="J806" s="2"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A807" s="10"/>
       <c r="B807" s="6"/>
       <c r="C807" s="4"/>
@@ -17086,7 +17086,7 @@
       <c r="I807" s="14"/>
       <c r="J807" s="2"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A808" s="10"/>
       <c r="B808" s="6"/>
       <c r="C808" s="4"/>
@@ -17098,7 +17098,7 @@
       <c r="I808" s="14"/>
       <c r="J808" s="2"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A809" s="10"/>
       <c r="B809" s="6"/>
       <c r="C809" s="4"/>
@@ -17110,7 +17110,7 @@
       <c r="I809" s="14"/>
       <c r="J809" s="2"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A810" s="10"/>
       <c r="B810" s="6"/>
       <c r="C810" s="4"/>
@@ -17122,7 +17122,7 @@
       <c r="I810" s="14"/>
       <c r="J810" s="2"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A811" s="10"/>
       <c r="B811" s="6"/>
       <c r="C811" s="4"/>
@@ -17134,7 +17134,7 @@
       <c r="I811" s="14"/>
       <c r="J811" s="2"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A812" s="10"/>
       <c r="B812" s="6"/>
       <c r="C812" s="4"/>
@@ -17146,7 +17146,7 @@
       <c r="I812" s="14"/>
       <c r="J812" s="2"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A813" s="10"/>
       <c r="B813" s="6"/>
       <c r="C813" s="4"/>
@@ -17158,7 +17158,7 @@
       <c r="I813" s="14"/>
       <c r="J813" s="2"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A814" s="10"/>
       <c r="B814" s="6"/>
       <c r="C814" s="4"/>
@@ -17170,7 +17170,7 @@
       <c r="I814" s="14"/>
       <c r="J814" s="2"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A815" s="10"/>
       <c r="B815" s="6"/>
       <c r="C815" s="4"/>
@@ -17182,7 +17182,7 @@
       <c r="I815" s="14"/>
       <c r="J815" s="2"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A816" s="10"/>
       <c r="B816" s="6"/>
       <c r="C816" s="4"/>
@@ -17194,7 +17194,7 @@
       <c r="I816" s="14"/>
       <c r="J816" s="2"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A817" s="10"/>
       <c r="B817" s="6"/>
       <c r="C817" s="4"/>
@@ -17206,7 +17206,7 @@
       <c r="I817" s="14"/>
       <c r="J817" s="2"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A818" s="10"/>
       <c r="B818" s="6"/>
       <c r="C818" s="4"/>
@@ -17218,7 +17218,7 @@
       <c r="I818" s="14"/>
       <c r="J818" s="2"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A819" s="10"/>
       <c r="B819" s="6"/>
       <c r="C819" s="4"/>
@@ -17230,7 +17230,7 @@
       <c r="I819" s="14"/>
       <c r="J819" s="2"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A820" s="10"/>
       <c r="B820" s="6"/>
       <c r="C820" s="4"/>
@@ -17242,7 +17242,7 @@
       <c r="I820" s="14"/>
       <c r="J820" s="2"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A821" s="10"/>
       <c r="B821" s="6"/>
       <c r="C821" s="4"/>
@@ -17254,7 +17254,7 @@
       <c r="I821" s="14"/>
       <c r="J821" s="2"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A822" s="10"/>
       <c r="B822" s="6"/>
       <c r="C822" s="4"/>
@@ -17266,7 +17266,7 @@
       <c r="I822" s="14"/>
       <c r="J822" s="2"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A823" s="10"/>
       <c r="B823" s="6"/>
       <c r="C823" s="4"/>
@@ -17278,7 +17278,7 @@
       <c r="I823" s="14"/>
       <c r="J823" s="2"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A824" s="10"/>
       <c r="B824" s="6"/>
       <c r="C824" s="4"/>
@@ -17290,7 +17290,7 @@
       <c r="I824" s="14"/>
       <c r="J824" s="2"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A825" s="10"/>
       <c r="B825" s="6"/>
       <c r="C825" s="4"/>
@@ -17302,7 +17302,7 @@
       <c r="I825" s="14"/>
       <c r="J825" s="2"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A826" s="10"/>
       <c r="B826" s="6"/>
       <c r="C826" s="4"/>
@@ -17314,7 +17314,7 @@
       <c r="I826" s="14"/>
       <c r="J826" s="2"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A827" s="10"/>
       <c r="B827" s="6"/>
       <c r="C827" s="4"/>
@@ -17326,7 +17326,7 @@
       <c r="I827" s="14"/>
       <c r="J827" s="2"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A828" s="10"/>
       <c r="B828" s="6"/>
       <c r="C828" s="4"/>
@@ -17338,7 +17338,7 @@
       <c r="I828" s="14"/>
       <c r="J828" s="2"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A829" s="10"/>
       <c r="B829" s="6"/>
       <c r="C829" s="4"/>
@@ -17350,7 +17350,7 @@
       <c r="I829" s="14"/>
       <c r="J829" s="2"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A830" s="10"/>
       <c r="B830" s="6"/>
       <c r="C830" s="4"/>
@@ -17362,7 +17362,7 @@
       <c r="I830" s="14"/>
       <c r="J830" s="2"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A831" s="10"/>
       <c r="B831" s="6"/>
       <c r="C831" s="4"/>
@@ -17374,7 +17374,7 @@
       <c r="I831" s="14"/>
       <c r="J831" s="2"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A832" s="10"/>
       <c r="B832" s="6"/>
       <c r="C832" s="4"/>
@@ -17386,7 +17386,7 @@
       <c r="I832" s="14"/>
       <c r="J832" s="2"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A833" s="10"/>
       <c r="B833" s="6"/>
       <c r="C833" s="4"/>
@@ -17398,7 +17398,7 @@
       <c r="I833" s="14"/>
       <c r="J833" s="2"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A834" s="10"/>
       <c r="B834" s="6"/>
       <c r="C834" s="4"/>
@@ -17410,7 +17410,7 @@
       <c r="I834" s="14"/>
       <c r="J834" s="2"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A835" s="10"/>
       <c r="B835" s="6"/>
       <c r="C835" s="4"/>
@@ -17422,7 +17422,7 @@
       <c r="I835" s="14"/>
       <c r="J835" s="2"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A836" s="10"/>
       <c r="B836" s="6"/>
       <c r="C836" s="4"/>
@@ -17434,7 +17434,7 @@
       <c r="I836" s="14"/>
       <c r="J836" s="2"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A837" s="10"/>
       <c r="B837" s="6"/>
       <c r="C837" s="4"/>
@@ -17446,7 +17446,7 @@
       <c r="I837" s="14"/>
       <c r="J837" s="2"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A838" s="10"/>
       <c r="B838" s="6"/>
       <c r="C838" s="4"/>
@@ -17458,7 +17458,7 @@
       <c r="I838" s="14"/>
       <c r="J838" s="2"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A839" s="10"/>
       <c r="B839" s="6"/>
       <c r="C839" s="4"/>
@@ -17470,7 +17470,7 @@
       <c r="I839" s="14"/>
       <c r="J839" s="2"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A840" s="10"/>
       <c r="B840" s="6"/>
       <c r="C840" s="4"/>
@@ -17482,7 +17482,7 @@
       <c r="I840" s="14"/>
       <c r="J840" s="2"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A841" s="10"/>
       <c r="B841" s="6"/>
       <c r="C841" s="4"/>
@@ -17494,7 +17494,7 @@
       <c r="I841" s="14"/>
       <c r="J841" s="2"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A842" s="10"/>
       <c r="B842" s="6"/>
       <c r="C842" s="4"/>
@@ -17506,7 +17506,7 @@
       <c r="I842" s="14"/>
       <c r="J842" s="2"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A843" s="10"/>
       <c r="B843" s="6"/>
       <c r="C843" s="4"/>
@@ -17518,7 +17518,7 @@
       <c r="I843" s="14"/>
       <c r="J843" s="2"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A844" s="10"/>
       <c r="B844" s="6"/>
       <c r="C844" s="4"/>
@@ -17530,7 +17530,7 @@
       <c r="I844" s="14"/>
       <c r="J844" s="2"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A845" s="10"/>
       <c r="B845" s="6"/>
       <c r="C845" s="4"/>
@@ -17542,7 +17542,7 @@
       <c r="I845" s="14"/>
       <c r="J845" s="2"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A846" s="10"/>
       <c r="B846" s="6"/>
       <c r="C846" s="4"/>
@@ -17554,7 +17554,7 @@
       <c r="I846" s="14"/>
       <c r="J846" s="2"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A847" s="10"/>
       <c r="B847" s="6"/>
       <c r="C847" s="4"/>
@@ -17566,7 +17566,7 @@
       <c r="I847" s="14"/>
       <c r="J847" s="2"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A848" s="10"/>
       <c r="B848" s="6"/>
       <c r="C848" s="4"/>
@@ -17578,7 +17578,7 @@
       <c r="I848" s="14"/>
       <c r="J848" s="2"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A849" s="10"/>
       <c r="B849" s="6"/>
       <c r="C849" s="4"/>
@@ -17590,7 +17590,7 @@
       <c r="I849" s="14"/>
       <c r="J849" s="2"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A850" s="10"/>
       <c r="B850" s="6"/>
       <c r="C850" s="4"/>
@@ -17602,7 +17602,7 @@
       <c r="I850" s="14"/>
       <c r="J850" s="2"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A851" s="10"/>
       <c r="B851" s="6"/>
       <c r="C851" s="4"/>
@@ -17614,7 +17614,7 @@
       <c r="I851" s="14"/>
       <c r="J851" s="2"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A852" s="10"/>
       <c r="B852" s="6"/>
       <c r="C852" s="4"/>
@@ -17626,7 +17626,7 @@
       <c r="I852" s="14"/>
       <c r="J852" s="2"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A853" s="10"/>
       <c r="B853" s="6"/>
       <c r="C853" s="4"/>
@@ -17638,7 +17638,7 @@
       <c r="I853" s="14"/>
       <c r="J853" s="2"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A854" s="10"/>
       <c r="B854" s="6"/>
       <c r="C854" s="4"/>
@@ -17650,7 +17650,7 @@
       <c r="I854" s="14"/>
       <c r="J854" s="2"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A855" s="10"/>
       <c r="B855" s="6"/>
       <c r="C855" s="4"/>
@@ -17662,7 +17662,7 @@
       <c r="I855" s="14"/>
       <c r="J855" s="2"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A856" s="10"/>
       <c r="B856" s="6"/>
       <c r="C856" s="4"/>
@@ -17674,7 +17674,7 @@
       <c r="I856" s="14"/>
       <c r="J856" s="2"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A857" s="10"/>
       <c r="B857" s="6"/>
       <c r="C857" s="4"/>
@@ -17686,7 +17686,7 @@
       <c r="I857" s="14"/>
       <c r="J857" s="2"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A858" s="10"/>
       <c r="B858" s="6"/>
       <c r="C858" s="4"/>
@@ -17698,7 +17698,7 @@
       <c r="I858" s="14"/>
       <c r="J858" s="2"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A859" s="10"/>
       <c r="B859" s="6"/>
       <c r="C859" s="4"/>
@@ -17710,7 +17710,7 @@
       <c r="I859" s="14"/>
       <c r="J859" s="2"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A860" s="10"/>
       <c r="B860" s="6"/>
       <c r="C860" s="4"/>
@@ -17722,7 +17722,7 @@
       <c r="I860" s="14"/>
       <c r="J860" s="2"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A861" s="10"/>
       <c r="B861" s="6"/>
       <c r="C861" s="4"/>
@@ -17734,7 +17734,7 @@
       <c r="I861" s="14"/>
       <c r="J861" s="2"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A862" s="10"/>
       <c r="B862" s="6"/>
       <c r="C862" s="4"/>
@@ -17746,7 +17746,7 @@
       <c r="I862" s="14"/>
       <c r="J862" s="2"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A863" s="10"/>
       <c r="B863" s="6"/>
       <c r="C863" s="4"/>
@@ -17758,7 +17758,7 @@
       <c r="I863" s="14"/>
       <c r="J863" s="2"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A864" s="10"/>
       <c r="B864" s="6"/>
       <c r="C864" s="4"/>
@@ -17770,7 +17770,7 @@
       <c r="I864" s="14"/>
       <c r="J864" s="2"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A865" s="10"/>
       <c r="B865" s="6"/>
       <c r="C865" s="4"/>
@@ -17782,7 +17782,7 @@
       <c r="I865" s="14"/>
       <c r="J865" s="2"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A866" s="10"/>
       <c r="B866" s="6"/>
       <c r="C866" s="4"/>
@@ -17794,7 +17794,7 @@
       <c r="I866" s="14"/>
       <c r="J866" s="2"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A867" s="10"/>
       <c r="B867" s="6"/>
       <c r="C867" s="4"/>
@@ -17806,7 +17806,7 @@
       <c r="I867" s="14"/>
       <c r="J867" s="2"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A868" s="10"/>
       <c r="B868" s="6"/>
       <c r="C868" s="4"/>
@@ -17818,7 +17818,7 @@
       <c r="I868" s="14"/>
       <c r="J868" s="2"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A869" s="10"/>
       <c r="B869" s="6"/>
       <c r="C869" s="4"/>
@@ -17830,7 +17830,7 @@
       <c r="I869" s="14"/>
       <c r="J869" s="2"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A870" s="10"/>
       <c r="B870" s="6"/>
       <c r="C870" s="4"/>
@@ -17842,7 +17842,7 @@
       <c r="I870" s="14"/>
       <c r="J870" s="2"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A871" s="10"/>
       <c r="B871" s="6"/>
       <c r="C871" s="4"/>
@@ -17854,7 +17854,7 @@
       <c r="I871" s="14"/>
       <c r="J871" s="2"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A872" s="10"/>
       <c r="B872" s="6"/>
       <c r="C872" s="4"/>
@@ -17866,7 +17866,7 @@
       <c r="I872" s="14"/>
       <c r="J872" s="2"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A873" s="10"/>
       <c r="B873" s="6"/>
       <c r="C873" s="4"/>
@@ -17878,7 +17878,7 @@
       <c r="I873" s="14"/>
       <c r="J873" s="2"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A874" s="10"/>
       <c r="B874" s="6"/>
       <c r="C874" s="4"/>
@@ -17890,7 +17890,7 @@
       <c r="I874" s="14"/>
       <c r="J874" s="2"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A875" s="10"/>
       <c r="B875" s="6"/>
       <c r="C875" s="4"/>
@@ -17902,7 +17902,7 @@
       <c r="I875" s="14"/>
       <c r="J875" s="2"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A876" s="10"/>
       <c r="B876" s="6"/>
       <c r="C876" s="4"/>
@@ -17914,7 +17914,7 @@
       <c r="I876" s="14"/>
       <c r="J876" s="2"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A877" s="10"/>
       <c r="B877" s="6"/>
       <c r="C877" s="4"/>
@@ -17926,7 +17926,7 @@
       <c r="I877" s="14"/>
       <c r="J877" s="2"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A878" s="10"/>
       <c r="B878" s="6"/>
       <c r="C878" s="4"/>
@@ -17938,7 +17938,7 @@
       <c r="I878" s="14"/>
       <c r="J878" s="2"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A879" s="10"/>
       <c r="B879" s="6"/>
       <c r="C879" s="4"/>
@@ -17950,7 +17950,7 @@
       <c r="I879" s="14"/>
       <c r="J879" s="2"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A880" s="10"/>
       <c r="B880" s="6"/>
       <c r="C880" s="4"/>
@@ -17962,7 +17962,7 @@
       <c r="I880" s="14"/>
       <c r="J880" s="2"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A881" s="10"/>
       <c r="B881" s="6"/>
       <c r="C881" s="4"/>
@@ -17974,7 +17974,7 @@
       <c r="I881" s="14"/>
       <c r="J881" s="2"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A882" s="10"/>
       <c r="B882" s="6"/>
       <c r="C882" s="4"/>
@@ -17986,7 +17986,7 @@
       <c r="I882" s="14"/>
       <c r="J882" s="2"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A883" s="10"/>
       <c r="B883" s="6"/>
       <c r="C883" s="4"/>
@@ -17998,7 +17998,7 @@
       <c r="I883" s="14"/>
       <c r="J883" s="2"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A884" s="10"/>
       <c r="B884" s="6"/>
       <c r="C884" s="4"/>
@@ -18010,7 +18010,7 @@
       <c r="I884" s="14"/>
       <c r="J884" s="2"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A885" s="10"/>
       <c r="B885" s="6"/>
       <c r="C885" s="4"/>
@@ -18022,7 +18022,7 @@
       <c r="I885" s="14"/>
       <c r="J885" s="2"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A886" s="10"/>
       <c r="B886" s="6"/>
       <c r="C886" s="4"/>
@@ -18034,7 +18034,7 @@
       <c r="I886" s="14"/>
       <c r="J886" s="2"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A887" s="10"/>
       <c r="B887" s="6"/>
       <c r="C887" s="4"/>
@@ -18046,7 +18046,7 @@
       <c r="I887" s="14"/>
       <c r="J887" s="2"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A888" s="10"/>
       <c r="B888" s="6"/>
       <c r="C888" s="4"/>
@@ -18058,7 +18058,7 @@
       <c r="I888" s="14"/>
       <c r="J888" s="2"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A889" s="10"/>
       <c r="B889" s="6"/>
       <c r="C889" s="4"/>
@@ -18070,7 +18070,7 @@
       <c r="I889" s="14"/>
       <c r="J889" s="2"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A890" s="10"/>
       <c r="B890" s="6"/>
       <c r="C890" s="4"/>
@@ -18082,7 +18082,7 @@
       <c r="I890" s="14"/>
       <c r="J890" s="2"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A891" s="10"/>
       <c r="B891" s="6"/>
       <c r="C891" s="4"/>
@@ -18094,7 +18094,7 @@
       <c r="I891" s="14"/>
       <c r="J891" s="2"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A892" s="10"/>
       <c r="B892" s="6"/>
       <c r="C892" s="4"/>
@@ -18106,7 +18106,7 @@
       <c r="I892" s="14"/>
       <c r="J892" s="2"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A893" s="10"/>
       <c r="B893" s="6"/>
       <c r="C893" s="4"/>
@@ -18118,7 +18118,7 @@
       <c r="I893" s="14"/>
       <c r="J893" s="2"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A894" s="10"/>
       <c r="B894" s="6"/>
       <c r="C894" s="4"/>
@@ -18130,7 +18130,7 @@
       <c r="I894" s="14"/>
       <c r="J894" s="2"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A895" s="10"/>
       <c r="B895" s="6"/>
       <c r="C895" s="4"/>
@@ -18142,7 +18142,7 @@
       <c r="I895" s="14"/>
       <c r="J895" s="2"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A896" s="10"/>
       <c r="B896" s="6"/>
       <c r="C896" s="4"/>
@@ -18154,7 +18154,7 @@
       <c r="I896" s="14"/>
       <c r="J896" s="2"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A897" s="10"/>
       <c r="B897" s="6"/>
       <c r="C897" s="4"/>
@@ -18166,7 +18166,7 @@
       <c r="I897" s="14"/>
       <c r="J897" s="2"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A898" s="10"/>
       <c r="B898" s="6"/>
       <c r="C898" s="4"/>
@@ -18178,7 +18178,7 @@
       <c r="I898" s="14"/>
       <c r="J898" s="2"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A899" s="10"/>
       <c r="B899" s="6"/>
       <c r="C899" s="4"/>
@@ -18190,7 +18190,7 @@
       <c r="I899" s="14"/>
       <c r="J899" s="2"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A900" s="10"/>
       <c r="B900" s="6"/>
       <c r="C900" s="4"/>
@@ -18202,7 +18202,7 @@
       <c r="I900" s="14"/>
       <c r="J900" s="2"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A901" s="10"/>
       <c r="B901" s="6"/>
       <c r="C901" s="4"/>
@@ -18214,7 +18214,7 @@
       <c r="I901" s="14"/>
       <c r="J901" s="2"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A902" s="10"/>
       <c r="B902" s="6"/>
       <c r="C902" s="4"/>
@@ -18226,7 +18226,7 @@
       <c r="I902" s="14"/>
       <c r="J902" s="2"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A903" s="10"/>
       <c r="B903" s="6"/>
       <c r="C903" s="4"/>
@@ -18238,7 +18238,7 @@
       <c r="I903" s="14"/>
       <c r="J903" s="2"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A904" s="10"/>
       <c r="B904" s="6"/>
       <c r="C904" s="4"/>
@@ -18250,7 +18250,7 @@
       <c r="I904" s="14"/>
       <c r="J904" s="2"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A905" s="10"/>
       <c r="B905" s="6"/>
       <c r="C905" s="4"/>
@@ -18262,7 +18262,7 @@
       <c r="I905" s="14"/>
       <c r="J905" s="2"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A906" s="10"/>
       <c r="B906" s="6"/>
       <c r="C906" s="4"/>
@@ -18274,7 +18274,7 @@
       <c r="I906" s="14"/>
       <c r="J906" s="2"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A907" s="10"/>
       <c r="B907" s="6"/>
       <c r="C907" s="4"/>
@@ -18286,7 +18286,7 @@
       <c r="I907" s="14"/>
       <c r="J907" s="2"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A908" s="10"/>
       <c r="B908" s="6"/>
       <c r="C908" s="4"/>
@@ -18298,7 +18298,7 @@
       <c r="I908" s="14"/>
       <c r="J908" s="2"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A909" s="10"/>
       <c r="B909" s="6"/>
       <c r="C909" s="4"/>
@@ -18310,7 +18310,7 @@
       <c r="I909" s="14"/>
       <c r="J909" s="2"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A910" s="10"/>
       <c r="B910" s="6"/>
       <c r="C910" s="4"/>
@@ -18322,7 +18322,7 @@
       <c r="I910" s="14"/>
       <c r="J910" s="2"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A911" s="10"/>
       <c r="B911" s="6"/>
       <c r="C911" s="4"/>
@@ -18334,7 +18334,7 @@
       <c r="I911" s="14"/>
       <c r="J911" s="2"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A912" s="10"/>
       <c r="B912" s="6"/>
       <c r="C912" s="4"/>
@@ -18346,7 +18346,7 @@
       <c r="I912" s="14"/>
       <c r="J912" s="2"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A913" s="10"/>
       <c r="B913" s="6"/>
       <c r="C913" s="4"/>
@@ -18358,7 +18358,7 @@
       <c r="I913" s="14"/>
       <c r="J913" s="2"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A914" s="10"/>
       <c r="B914" s="6"/>
       <c r="C914" s="4"/>
@@ -18370,7 +18370,7 @@
       <c r="I914" s="14"/>
       <c r="J914" s="2"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A915" s="10"/>
       <c r="B915" s="6"/>
       <c r="C915" s="4"/>
@@ -18382,7 +18382,7 @@
       <c r="I915" s="14"/>
       <c r="J915" s="2"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A916" s="10"/>
       <c r="B916" s="6"/>
       <c r="C916" s="4"/>
@@ -18394,7 +18394,7 @@
       <c r="I916" s="14"/>
       <c r="J916" s="2"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A917" s="10"/>
       <c r="B917" s="6"/>
       <c r="C917" s="4"/>
@@ -18406,7 +18406,7 @@
       <c r="I917" s="14"/>
       <c r="J917" s="2"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A918" s="10"/>
       <c r="B918" s="6"/>
       <c r="C918" s="4"/>
@@ -18418,7 +18418,7 @@
       <c r="I918" s="14"/>
       <c r="J918" s="2"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A919" s="10"/>
       <c r="B919" s="6"/>
       <c r="C919" s="4"/>
@@ -18430,7 +18430,7 @@
       <c r="I919" s="14"/>
       <c r="J919" s="2"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A920" s="10"/>
       <c r="B920" s="6"/>
       <c r="C920" s="4"/>
@@ -18442,7 +18442,7 @@
       <c r="I920" s="14"/>
       <c r="J920" s="2"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A921" s="10"/>
       <c r="B921" s="6"/>
       <c r="C921" s="4"/>
@@ -18454,7 +18454,7 @@
       <c r="I921" s="14"/>
       <c r="J921" s="2"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A922" s="10"/>
       <c r="B922" s="6"/>
       <c r="C922" s="4"/>
@@ -18466,7 +18466,7 @@
       <c r="I922" s="14"/>
       <c r="J922" s="2"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A923" s="10"/>
       <c r="B923" s="6"/>
       <c r="C923" s="4"/>
@@ -18478,7 +18478,7 @@
       <c r="I923" s="14"/>
       <c r="J923" s="2"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A924" s="10"/>
       <c r="B924" s="6"/>
       <c r="C924" s="4"/>
@@ -18490,7 +18490,7 @@
       <c r="I924" s="14"/>
       <c r="J924" s="2"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A925" s="10"/>
       <c r="B925" s="6"/>
       <c r="C925" s="4"/>
@@ -18502,7 +18502,7 @@
       <c r="I925" s="14"/>
       <c r="J925" s="2"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A926" s="10"/>
       <c r="B926" s="6"/>
       <c r="C926" s="4"/>
@@ -18514,7 +18514,7 @@
       <c r="I926" s="14"/>
       <c r="J926" s="2"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A927" s="10"/>
       <c r="B927" s="6"/>
       <c r="C927" s="4"/>
@@ -18526,7 +18526,7 @@
       <c r="I927" s="14"/>
       <c r="J927" s="2"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A928" s="10"/>
       <c r="B928" s="6"/>
       <c r="C928" s="4"/>
@@ -18538,7 +18538,7 @@
       <c r="I928" s="14"/>
       <c r="J928" s="2"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A929" s="10"/>
       <c r="B929" s="6"/>
       <c r="C929" s="4"/>
@@ -18550,7 +18550,7 @@
       <c r="I929" s="14"/>
       <c r="J929" s="2"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A930" s="10"/>
       <c r="B930" s="6"/>
       <c r="C930" s="4"/>
@@ -18562,7 +18562,7 @@
       <c r="I930" s="14"/>
       <c r="J930" s="2"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A931" s="10"/>
       <c r="B931" s="6"/>
       <c r="C931" s="4"/>
@@ -18574,7 +18574,7 @@
       <c r="I931" s="14"/>
       <c r="J931" s="2"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A932" s="10"/>
       <c r="B932" s="6"/>
       <c r="C932" s="4"/>
@@ -18586,7 +18586,7 @@
       <c r="I932" s="14"/>
       <c r="J932" s="2"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A933" s="10"/>
       <c r="B933" s="6"/>
       <c r="C933" s="4"/>
@@ -18598,7 +18598,7 @@
       <c r="I933" s="14"/>
       <c r="J933" s="2"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A934" s="10"/>
       <c r="B934" s="6"/>
       <c r="C934" s="4"/>
@@ -18610,7 +18610,7 @@
       <c r="I934" s="14"/>
       <c r="J934" s="2"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A935" s="10"/>
       <c r="B935" s="6"/>
       <c r="C935" s="4"/>
@@ -18622,7 +18622,7 @@
       <c r="I935" s="14"/>
       <c r="J935" s="2"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A936" s="10"/>
       <c r="B936" s="6"/>
       <c r="C936" s="4"/>
@@ -18634,7 +18634,7 @@
       <c r="I936" s="14"/>
       <c r="J936" s="2"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A937" s="10"/>
       <c r="B937" s="6"/>
       <c r="C937" s="4"/>
@@ -18646,7 +18646,7 @@
       <c r="I937" s="14"/>
       <c r="J937" s="2"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A938" s="10"/>
       <c r="B938" s="6"/>
       <c r="C938" s="4"/>
@@ -18658,7 +18658,7 @@
       <c r="I938" s="14"/>
       <c r="J938" s="2"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A939" s="10"/>
       <c r="B939" s="6"/>
       <c r="C939" s="4"/>
@@ -18670,7 +18670,7 @@
       <c r="I939" s="14"/>
       <c r="J939" s="2"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A940" s="10"/>
       <c r="B940" s="6"/>
       <c r="C940" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="I940" s="14"/>
       <c r="J940" s="2"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A941" s="10"/>
       <c r="B941" s="6"/>
       <c r="C941" s="4"/>
@@ -18694,7 +18694,7 @@
       <c r="I941" s="14"/>
       <c r="J941" s="2"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A942" s="10"/>
       <c r="B942" s="6"/>
       <c r="C942" s="4"/>
@@ -18706,7 +18706,7 @@
       <c r="I942" s="14"/>
       <c r="J942" s="2"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A943" s="10"/>
       <c r="B943" s="6"/>
       <c r="C943" s="4"/>
@@ -18718,7 +18718,7 @@
       <c r="I943" s="14"/>
       <c r="J943" s="2"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A944" s="10"/>
       <c r="B944" s="6"/>
       <c r="C944" s="4"/>
@@ -18730,7 +18730,7 @@
       <c r="I944" s="14"/>
       <c r="J944" s="2"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A945" s="10"/>
       <c r="B945" s="6"/>
       <c r="C945" s="4"/>
@@ -18742,7 +18742,7 @@
       <c r="I945" s="14"/>
       <c r="J945" s="2"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A946" s="10"/>
       <c r="B946" s="6"/>
       <c r="C946" s="4"/>
@@ -18754,7 +18754,7 @@
       <c r="I946" s="14"/>
       <c r="J946" s="2"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A947" s="10"/>
       <c r="B947" s="6"/>
       <c r="C947" s="4"/>
@@ -18766,7 +18766,7 @@
       <c r="I947" s="14"/>
       <c r="J947" s="2"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A948" s="10"/>
       <c r="B948" s="6"/>
       <c r="C948" s="4"/>
@@ -18778,7 +18778,7 @@
       <c r="I948" s="14"/>
       <c r="J948" s="2"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A949" s="10"/>
       <c r="B949" s="6"/>
       <c r="C949" s="4"/>
@@ -18790,7 +18790,7 @@
       <c r="I949" s="14"/>
       <c r="J949" s="2"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A950" s="10"/>
       <c r="B950" s="6"/>
       <c r="C950" s="4"/>
@@ -18802,7 +18802,7 @@
       <c r="I950" s="14"/>
       <c r="J950" s="2"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A951" s="10"/>
       <c r="B951" s="6"/>
       <c r="C951" s="4"/>
@@ -18814,7 +18814,7 @@
       <c r="I951" s="14"/>
       <c r="J951" s="2"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A952" s="10"/>
       <c r="B952" s="6"/>
       <c r="C952" s="4"/>
@@ -18826,7 +18826,7 @@
       <c r="I952" s="14"/>
       <c r="J952" s="2"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A953" s="10"/>
       <c r="B953" s="6"/>
       <c r="C953" s="4"/>
@@ -18838,7 +18838,7 @@
       <c r="I953" s="14"/>
       <c r="J953" s="2"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A954" s="10"/>
       <c r="B954" s="6"/>
       <c r="C954" s="4"/>
@@ -18850,7 +18850,7 @@
       <c r="I954" s="14"/>
       <c r="J954" s="2"/>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A955" s="10"/>
       <c r="B955" s="6"/>
       <c r="C955" s="4"/>
@@ -18862,7 +18862,7 @@
       <c r="I955" s="14"/>
       <c r="J955" s="2"/>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A956" s="10"/>
       <c r="B956" s="6"/>
       <c r="C956" s="4"/>
@@ -18874,7 +18874,7 @@
       <c r="I956" s="14"/>
       <c r="J956" s="2"/>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A957" s="10"/>
       <c r="B957" s="6"/>
       <c r="C957" s="4"/>
@@ -18886,7 +18886,7 @@
       <c r="I957" s="14"/>
       <c r="J957" s="2"/>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A958" s="10"/>
       <c r="B958" s="6"/>
       <c r="C958" s="4"/>
@@ -18898,7 +18898,7 @@
       <c r="I958" s="14"/>
       <c r="J958" s="2"/>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A959" s="10"/>
       <c r="B959" s="6"/>
       <c r="C959" s="4"/>
@@ -18910,7 +18910,7 @@
       <c r="I959" s="14"/>
       <c r="J959" s="2"/>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A960" s="10"/>
       <c r="B960" s="6"/>
       <c r="C960" s="4"/>
@@ -18922,7 +18922,7 @@
       <c r="I960" s="14"/>
       <c r="J960" s="2"/>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A961" s="10"/>
       <c r="B961" s="6"/>
       <c r="C961" s="4"/>
@@ -18934,7 +18934,7 @@
       <c r="I961" s="14"/>
       <c r="J961" s="2"/>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A962" s="10"/>
       <c r="B962" s="6"/>
       <c r="C962" s="4"/>
@@ -18946,7 +18946,7 @@
       <c r="I962" s="14"/>
       <c r="J962" s="2"/>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A963" s="10"/>
       <c r="B963" s="6"/>
       <c r="C963" s="4"/>
@@ -18958,7 +18958,7 @@
       <c r="I963" s="14"/>
       <c r="J963" s="2"/>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A964" s="10"/>
       <c r="B964" s="6"/>
       <c r="C964" s="4"/>
@@ -18970,7 +18970,7 @@
       <c r="I964" s="14"/>
       <c r="J964" s="2"/>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A965" s="10"/>
       <c r="B965" s="6"/>
       <c r="C965" s="4"/>
@@ -18982,7 +18982,7 @@
       <c r="I965" s="14"/>
       <c r="J965" s="2"/>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A966" s="10"/>
       <c r="B966" s="6"/>
       <c r="C966" s="4"/>
@@ -18994,7 +18994,7 @@
       <c r="I966" s="14"/>
       <c r="J966" s="2"/>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A967" s="10"/>
       <c r="B967" s="6"/>
       <c r="C967" s="4"/>
@@ -19006,7 +19006,7 @@
       <c r="I967" s="14"/>
       <c r="J967" s="2"/>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A968" s="10"/>
       <c r="B968" s="6"/>
       <c r="C968" s="4"/>
@@ -19018,7 +19018,7 @@
       <c r="I968" s="14"/>
       <c r="J968" s="2"/>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A969" s="10"/>
       <c r="B969" s="6"/>
       <c r="C969" s="4"/>
@@ -19030,7 +19030,7 @@
       <c r="I969" s="14"/>
       <c r="J969" s="2"/>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A970" s="10"/>
       <c r="B970" s="6"/>
       <c r="C970" s="4"/>
@@ -19042,7 +19042,7 @@
       <c r="I970" s="14"/>
       <c r="J970" s="2"/>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A971" s="10"/>
       <c r="B971" s="6"/>
       <c r="C971" s="4"/>
@@ -19054,7 +19054,7 @@
       <c r="I971" s="14"/>
       <c r="J971" s="2"/>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A972" s="10"/>
       <c r="B972" s="6"/>
       <c r="C972" s="4"/>
@@ -19066,7 +19066,7 @@
       <c r="I972" s="14"/>
       <c r="J972" s="2"/>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A973" s="10"/>
       <c r="B973" s="6"/>
       <c r="C973" s="4"/>
@@ -19078,7 +19078,7 @@
       <c r="I973" s="14"/>
       <c r="J973" s="2"/>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A974" s="10"/>
       <c r="B974" s="6"/>
       <c r="C974" s="4"/>
@@ -19090,7 +19090,7 @@
       <c r="I974" s="14"/>
       <c r="J974" s="2"/>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A975" s="10"/>
       <c r="B975" s="6"/>
       <c r="C975" s="4"/>
@@ -19102,7 +19102,7 @@
       <c r="I975" s="14"/>
       <c r="J975" s="2"/>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A976" s="10"/>
       <c r="B976" s="6"/>
       <c r="C976" s="4"/>
@@ -19114,7 +19114,7 @@
       <c r="I976" s="14"/>
       <c r="J976" s="2"/>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A977" s="10"/>
       <c r="B977" s="6"/>
       <c r="C977" s="4"/>
@@ -19126,7 +19126,7 @@
       <c r="I977" s="14"/>
       <c r="J977" s="2"/>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A978" s="10"/>
       <c r="B978" s="6"/>
       <c r="C978" s="4"/>
@@ -19138,7 +19138,7 @@
       <c r="I978" s="14"/>
       <c r="J978" s="2"/>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A979" s="10"/>
       <c r="B979" s="6"/>
       <c r="C979" s="4"/>
@@ -19150,7 +19150,7 @@
       <c r="I979" s="14"/>
       <c r="J979" s="2"/>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A980" s="10"/>
       <c r="B980" s="6"/>
       <c r="C980" s="4"/>
@@ -19162,7 +19162,7 @@
       <c r="I980" s="14"/>
       <c r="J980" s="2"/>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A981" s="10"/>
       <c r="B981" s="6"/>
       <c r="C981" s="4"/>
@@ -19174,7 +19174,7 @@
       <c r="I981" s="14"/>
       <c r="J981" s="2"/>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A982" s="10"/>
       <c r="B982" s="6"/>
       <c r="C982" s="4"/>
@@ -19186,7 +19186,7 @@
       <c r="I982" s="14"/>
       <c r="J982" s="2"/>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A983" s="10"/>
       <c r="B983" s="6"/>
       <c r="C983" s="4"/>
@@ -19198,7 +19198,7 @@
       <c r="I983" s="14"/>
       <c r="J983" s="2"/>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A984" s="10"/>
       <c r="B984" s="6"/>
       <c r="C984" s="4"/>
@@ -19210,7 +19210,7 @@
       <c r="I984" s="14"/>
       <c r="J984" s="2"/>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A985" s="10"/>
       <c r="B985" s="6"/>
       <c r="C985" s="4"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1033">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3115,6 +3115,9 @@
   </si>
   <si>
     <t>6_DiBidino.pdf</t>
+  </si>
+  <si>
+    <t>https://streamingmedia.roche.com/media/t/1_yynoypov</t>
   </si>
 </sst>
 </file>
@@ -3575,9 +3578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="C2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3636,7 +3639,9 @@
       <c r="B2" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>1032</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1">
@@ -3703,7 +3708,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>1003</v>
       </c>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -3045,9 +3045,6 @@
     <t>Novartis Gene Therapies, USA</t>
   </si>
   <si>
-    <t>An open dialog on the issues faced An open dialog on the issues faced and lessons learned with respect to Novartis Gene Therapies’ Spinal Muscular Atrophy (SMA) registries</t>
-  </si>
-  <si>
     <t>Entela Xoxi</t>
   </si>
   <si>
@@ -3118,6 +3115,9 @@
   </si>
   <si>
     <t>https://streamingmedia.roche.com/media/t/1_yynoypov</t>
+  </si>
+  <si>
+    <t>An open dialog on the issues faced and lessons learned with respect to Novartis Gene Therapies’ Spinal Muscular Atrophy (SMA) registries</t>
   </si>
 </sst>
 </file>
@@ -3578,9 +3578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="1" sqref="C2 C2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3640,7 +3640,7 @@
         <v>1004</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1003</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>1007</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -3696,16 +3696,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>1011</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.35">
@@ -3722,16 +3722,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>1014</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.35">
@@ -3748,16 +3748,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>1017</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.35">
@@ -3774,16 +3774,16 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>1020</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.35">
@@ -3800,16 +3800,16 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>1023</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.35">
@@ -3826,13 +3826,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="14" t="s">
         <v>1025</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>1026</v>
       </c>
       <c r="J9" s="2"/>
     </row>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1036">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3028,9 +3028,6 @@
   </si>
   <si>
     <t>2_BBS_Spring_Seminar_and_Assembly_24MAY2022_Masterslides.pdf</t>
-  </si>
-  <si>
-    <t>23.06.2022</t>
   </si>
   <si>
     <t>BBS / EFSPI Seminar Registry studies and HTA</t>
@@ -3593,9 +3590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,11 +3645,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>44757</v>
+      <c r="A2" s="18" t="str">
+        <f>"15.07.2022"</f>
+        <v>15.07.2022</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3670,15 +3668,16 @@
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>44757</v>
+      <c r="A3" s="18" t="str">
+        <f>"15.07.2022"</f>
+        <v>15.07.2022</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3690,24 +3689,25 @@
         <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>1036</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>44735</v>
+      <c r="A4" s="18" t="str">
+        <f>"23.06.2022"</f>
+        <v>23.06.2022</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3718,7 +3718,7 @@
         <v>209</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>35</v>
@@ -3726,11 +3726,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="str">
+        <f t="shared" ref="A5:A11" si="0">"23.06.2022"</f>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3739,22 +3740,23 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>1007</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3763,24 +3765,25 @@
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>1010</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3789,24 +3792,25 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>1013</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3815,24 +3819,25 @@
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>1016</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3841,24 +3846,25 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>1019</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3867,24 +3873,25 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>1022</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23.06.2022</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3893,13 +3900,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="14" t="s">
         <v>1024</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>1025</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -4040,7 +4047,7 @@
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
-        <f t="shared" ref="A17:A19" si="0">"21.02.2022"</f>
+        <f t="shared" ref="A17:A19" si="1">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B17" s="3"/>
@@ -4065,7 +4072,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.02.2022</v>
       </c>
       <c r="B18" s="3"/>
@@ -4090,7 +4097,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.02.2022</v>
       </c>
       <c r="B19" s="3"/>
@@ -4142,7 +4149,7 @@
     </row>
     <row r="21" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
-        <f t="shared" ref="A21:A24" si="1">"27.07.2021"</f>
+        <f t="shared" ref="A21:A24" si="2">"27.07.2021"</f>
         <v>27.07.2021</v>
       </c>
       <c r="B21" s="13"/>
@@ -4167,7 +4174,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.07.2021</v>
       </c>
       <c r="B22" s="13"/>
@@ -4192,7 +4199,7 @@
     </row>
     <row r="23" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.07.2021</v>
       </c>
       <c r="B23" s="13"/>
@@ -4217,7 +4224,7 @@
     </row>
     <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.07.2021</v>
       </c>
       <c r="B24" s="13"/>
@@ -4271,7 +4278,7 @@
     </row>
     <row r="26" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
-        <f t="shared" ref="A26:A32" si="2">"28.06.2021"</f>
+        <f t="shared" ref="A26:A32" si="3">"28.06.2021"</f>
         <v>28.06.2021</v>
       </c>
       <c r="B26" s="13"/>
@@ -4296,7 +4303,7 @@
     </row>
     <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.06.2021</v>
       </c>
       <c r="B27" s="13"/>
@@ -4321,7 +4328,7 @@
     </row>
     <row r="28" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.06.2021</v>
       </c>
       <c r="B28" s="13"/>
@@ -4346,7 +4353,7 @@
     </row>
     <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.06.2021</v>
       </c>
       <c r="B29" s="13"/>
@@ -4371,7 +4378,7 @@
     </row>
     <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.06.2021</v>
       </c>
       <c r="B30" s="13"/>
@@ -4396,7 +4403,7 @@
     </row>
     <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.06.2021</v>
       </c>
       <c r="B31" s="13"/>
@@ -4421,7 +4428,7 @@
     </row>
     <row r="32" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.06.2021</v>
       </c>
       <c r="B32" s="13"/>
@@ -4475,7 +4482,7 @@
     </row>
     <row r="34" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
-        <f t="shared" ref="A34:A36" si="3">"16.06.2021"</f>
+        <f t="shared" ref="A34:A36" si="4">"16.06.2021"</f>
         <v>16.06.2021</v>
       </c>
       <c r="B34" s="13"/>
@@ -4500,7 +4507,7 @@
     </row>
     <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.06.2021</v>
       </c>
       <c r="B35" s="13"/>
@@ -4525,7 +4532,7 @@
     </row>
     <row r="36" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.06.2021</v>
       </c>
       <c r="B36" s="13"/>
@@ -4579,7 +4586,7 @@
     </row>
     <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
-        <f t="shared" ref="A38:A46" si="4">"22.03.2021"</f>
+        <f t="shared" ref="A38:A46" si="5">"22.03.2021"</f>
         <v>22.03.2021</v>
       </c>
       <c r="B38" s="13"/>
@@ -4604,7 +4611,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B39" s="13"/>
@@ -4629,7 +4636,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B40" s="13"/>
@@ -4654,7 +4661,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B41" s="13"/>
@@ -4679,7 +4686,7 @@
     </row>
     <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B42" s="13"/>
@@ -4704,7 +4711,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B43" s="13"/>
@@ -4729,7 +4736,7 @@
     </row>
     <row r="44" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B44" s="13"/>
@@ -4754,7 +4761,7 @@
     </row>
     <row r="45" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B45" s="13"/>
@@ -4779,7 +4786,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.03.2021</v>
       </c>
       <c r="B46" s="13"/>
@@ -4831,7 +4838,7 @@
     </row>
     <row r="48" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
-        <f t="shared" ref="A48:A53" si="5">"08.03.2021"</f>
+        <f t="shared" ref="A48:A53" si="6">"08.03.2021"</f>
         <v>08.03.2021</v>
       </c>
       <c r="B48" s="13"/>
@@ -4856,7 +4863,7 @@
     </row>
     <row r="49" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>08.03.2021</v>
       </c>
       <c r="B49" s="13"/>
@@ -4881,7 +4888,7 @@
     </row>
     <row r="50" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>08.03.2021</v>
       </c>
       <c r="B50" s="13"/>
@@ -4906,7 +4913,7 @@
     </row>
     <row r="51" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>08.03.2021</v>
       </c>
       <c r="B51" s="13"/>
@@ -4931,7 +4938,7 @@
     </row>
     <row r="52" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>08.03.2021</v>
       </c>
       <c r="B52" s="13"/>
@@ -4956,7 +4963,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>08.03.2021</v>
       </c>
       <c r="B53" s="13"/>
@@ -5008,7 +5015,7 @@
     </row>
     <row r="55" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
-        <f t="shared" ref="A55:A61" si="6">"03.11.2020"</f>
+        <f t="shared" ref="A55:A61" si="7">"03.11.2020"</f>
         <v>03.11.2020</v>
       </c>
       <c r="B55" s="13"/>
@@ -5033,7 +5040,7 @@
     </row>
     <row r="56" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03.11.2020</v>
       </c>
       <c r="B56" s="13"/>
@@ -5058,7 +5065,7 @@
     </row>
     <row r="57" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03.11.2020</v>
       </c>
       <c r="B57" s="13"/>
@@ -5083,7 +5090,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03.11.2020</v>
       </c>
       <c r="B58" s="13"/>
@@ -5108,7 +5115,7 @@
     </row>
     <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03.11.2020</v>
       </c>
       <c r="B59" s="13"/>
@@ -5133,7 +5140,7 @@
     </row>
     <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03.11.2020</v>
       </c>
       <c r="B60" s="13"/>
@@ -5158,7 +5165,7 @@
     </row>
     <row r="61" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>03.11.2020</v>
       </c>
       <c r="B61" s="13"/>
@@ -5212,7 +5219,7 @@
     </row>
     <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
-        <f t="shared" ref="A63:A71" si="7">"07.09.2020"</f>
+        <f t="shared" ref="A63:A71" si="8">"07.09.2020"</f>
         <v>07.09.2020</v>
       </c>
       <c r="B63" s="13"/>
@@ -5237,7 +5244,7 @@
     </row>
     <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B64" s="13"/>
@@ -5262,7 +5269,7 @@
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B65" s="13"/>
@@ -5287,7 +5294,7 @@
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B66" s="13"/>
@@ -5312,7 +5319,7 @@
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B67" s="13"/>
@@ -5337,7 +5344,7 @@
     </row>
     <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B68" s="13"/>
@@ -5362,7 +5369,7 @@
     </row>
     <row r="69" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B69" s="13"/>
@@ -5387,7 +5394,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B70" s="13"/>
@@ -5412,7 +5419,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>07.09.2020</v>
       </c>
       <c r="B71" s="13"/>
@@ -5464,7 +5471,7 @@
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="str">
-        <f t="shared" ref="A73:A76" si="8">"30.06.2020"</f>
+        <f t="shared" ref="A73:A76" si="9">"30.06.2020"</f>
         <v>30.06.2020</v>
       </c>
       <c r="B73" s="13"/>
@@ -5489,7 +5496,7 @@
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.06.2020</v>
       </c>
       <c r="B74" s="13"/>
@@ -5514,7 +5521,7 @@
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.06.2020</v>
       </c>
       <c r="B75" s="13"/>
@@ -5539,7 +5546,7 @@
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.06.2020</v>
       </c>
       <c r="B76" s="13"/>
@@ -5593,7 +5600,7 @@
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
-        <f t="shared" ref="A78:A83" si="9">"29.06.2020"</f>
+        <f t="shared" ref="A78:A83" si="10">"29.06.2020"</f>
         <v>29.06.2020</v>
       </c>
       <c r="B78" s="13"/>
@@ -5618,7 +5625,7 @@
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.06.2020</v>
       </c>
       <c r="B79" s="13"/>
@@ -5643,7 +5650,7 @@
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.06.2020</v>
       </c>
       <c r="B80" s="13"/>
@@ -5668,7 +5675,7 @@
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.06.2020</v>
       </c>
       <c r="B81" s="13"/>
@@ -5693,7 +5700,7 @@
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.06.2020</v>
       </c>
       <c r="B82" s="13"/>
@@ -5718,7 +5725,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.06.2020</v>
       </c>
       <c r="B83" s="13"/>
@@ -5768,7 +5775,7 @@
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
-        <f t="shared" ref="A85:A87" si="10">"03.06.2020"</f>
+        <f t="shared" ref="A85:A87" si="11">"03.06.2020"</f>
         <v>03.06.2020</v>
       </c>
       <c r="B85" s="13"/>
@@ -5793,7 +5800,7 @@
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>03.06.2020</v>
       </c>
       <c r="B86" s="13"/>
@@ -5818,7 +5825,7 @@
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>03.06.2020</v>
       </c>
       <c r="B87" s="13"/>
@@ -5870,7 +5877,7 @@
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
-        <f t="shared" ref="A89:A93" si="11">"06.05.2020"</f>
+        <f t="shared" ref="A89:A93" si="12">"06.05.2020"</f>
         <v>06.05.2020</v>
       </c>
       <c r="B89" s="13"/>
@@ -5895,7 +5902,7 @@
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>06.05.2020</v>
       </c>
       <c r="B90" s="13"/>
@@ -5920,7 +5927,7 @@
     </row>
     <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>06.05.2020</v>
       </c>
       <c r="B91" s="13"/>
@@ -5945,7 +5952,7 @@
     </row>
     <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>06.05.2020</v>
       </c>
       <c r="B92" s="13"/>
@@ -5970,7 +5977,7 @@
     </row>
     <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>06.05.2020</v>
       </c>
       <c r="B93" s="13"/>
@@ -6020,7 +6027,7 @@
     </row>
     <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
-        <f t="shared" ref="A95:A99" si="12">"04.02.2020"</f>
+        <f t="shared" ref="A95:A99" si="13">"04.02.2020"</f>
         <v>04.02.2020</v>
       </c>
       <c r="B95" s="13"/>
@@ -6043,7 +6050,7 @@
     </row>
     <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04.02.2020</v>
       </c>
       <c r="B96" s="13"/>
@@ -6066,7 +6073,7 @@
     </row>
     <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04.02.2020</v>
       </c>
       <c r="B97" s="13"/>
@@ -6089,7 +6096,7 @@
     </row>
     <row r="98" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04.02.2020</v>
       </c>
       <c r="B98" s="13"/>
@@ -6110,7 +6117,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>04.02.2020</v>
       </c>
       <c r="B99" s="13"/>
@@ -6158,7 +6165,7 @@
     </row>
     <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
-        <f t="shared" ref="A101:A108" si="13">"01.11.2019"</f>
+        <f t="shared" ref="A101:A108" si="14">"01.11.2019"</f>
         <v>01.11.2019</v>
       </c>
       <c r="B101" s="13"/>
@@ -6181,7 +6188,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B102" s="13"/>
@@ -6204,7 +6211,7 @@
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B103" s="13"/>
@@ -6227,7 +6234,7 @@
     </row>
     <row r="104" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B104" s="13"/>
@@ -6250,7 +6257,7 @@
     </row>
     <row r="105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B105" s="13"/>
@@ -6270,7 +6277,7 @@
     </row>
     <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B106" s="13"/>
@@ -6293,7 +6300,7 @@
     </row>
     <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B107" s="13"/>
@@ -6316,7 +6323,7 @@
     </row>
     <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>01.11.2019</v>
       </c>
       <c r="B108" s="13"/>
@@ -6363,7 +6370,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="str">
-        <f t="shared" ref="A110:A115" si="14">"21.08.2019"</f>
+        <f t="shared" ref="A110:A115" si="15">"21.08.2019"</f>
         <v>21.08.2019</v>
       </c>
       <c r="B110" s="13"/>
@@ -6385,7 +6392,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.08.2019</v>
       </c>
       <c r="B111" s="13"/>
@@ -6404,7 +6411,7 @@
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.08.2019</v>
       </c>
       <c r="B112" s="13"/>
@@ -6424,7 +6431,7 @@
     </row>
     <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.08.2019</v>
       </c>
       <c r="B113" s="13"/>
@@ -6444,7 +6451,7 @@
     </row>
     <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.08.2019</v>
       </c>
       <c r="B114" s="13"/>
@@ -6464,7 +6471,7 @@
     </row>
     <row r="115" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.08.2019</v>
       </c>
       <c r="B115" s="13"/>
@@ -6507,7 +6514,7 @@
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="str">
-        <f t="shared" ref="A117:A123" si="15">"04.06.2019"</f>
+        <f t="shared" ref="A117:A123" si="16">"04.06.2019"</f>
         <v>04.06.2019</v>
       </c>
       <c r="B117" s="13"/>
@@ -6529,7 +6536,7 @@
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>04.06.2019</v>
       </c>
       <c r="B118" s="13"/>
@@ -6551,7 +6558,7 @@
     </row>
     <row r="119" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>04.06.2019</v>
       </c>
       <c r="B119" s="13"/>
@@ -6573,7 +6580,7 @@
     </row>
     <row r="120" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>04.06.2019</v>
       </c>
       <c r="B120" s="13"/>
@@ -6595,7 +6602,7 @@
     </row>
     <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>04.06.2019</v>
       </c>
       <c r="B121" s="13"/>
@@ -6617,7 +6624,7 @@
     </row>
     <row r="122" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>04.06.2019</v>
       </c>
       <c r="B122" s="13"/>
@@ -6639,7 +6646,7 @@
     </row>
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>04.06.2019</v>
       </c>
       <c r="B123" s="13"/>
@@ -6685,7 +6692,7 @@
     </row>
     <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="str">
-        <f t="shared" ref="A125:A135" si="16">"10.05.2019"</f>
+        <f t="shared" ref="A125:A135" si="17">"10.05.2019"</f>
         <v>10.05.2019</v>
       </c>
       <c r="B125" s="13"/>
@@ -6707,7 +6714,7 @@
     </row>
     <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B126" s="13"/>
@@ -6729,7 +6736,7 @@
     </row>
     <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B127" s="13"/>
@@ -6751,7 +6758,7 @@
     </row>
     <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B128" s="13"/>
@@ -6773,7 +6780,7 @@
     </row>
     <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B129" s="13"/>
@@ -6795,7 +6802,7 @@
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B130" s="13"/>
@@ -6817,7 +6824,7 @@
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B131" s="13"/>
@@ -6839,7 +6846,7 @@
     </row>
     <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B132" s="13"/>
@@ -6861,7 +6868,7 @@
     </row>
     <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B133" s="13"/>
@@ -6883,7 +6890,7 @@
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B134" s="13"/>
@@ -6902,7 +6909,7 @@
     </row>
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.05.2019</v>
       </c>
       <c r="B135" s="13"/>
@@ -6945,7 +6952,7 @@
     </row>
     <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="str">
-        <f t="shared" ref="A137:A144" si="17">"27.06.2018"</f>
+        <f t="shared" ref="A137:A144" si="18">"27.06.2018"</f>
         <v>27.06.2018</v>
       </c>
       <c r="B137" s="13"/>
@@ -6967,7 +6974,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B138" s="13"/>
@@ -6989,7 +6996,7 @@
     </row>
     <row r="139" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B139" s="13"/>
@@ -7011,7 +7018,7 @@
     </row>
     <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B140" s="13"/>
@@ -7033,7 +7040,7 @@
     </row>
     <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B141" s="13"/>
@@ -7055,7 +7062,7 @@
     </row>
     <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B142" s="13"/>
@@ -7077,7 +7084,7 @@
     </row>
     <row r="143" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B143" s="13"/>
@@ -7099,7 +7106,7 @@
     </row>
     <row r="144" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.06.2018</v>
       </c>
       <c r="B144" s="13"/>
@@ -7145,7 +7152,7 @@
     </row>
     <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
-        <f t="shared" ref="A146:A147" si="18">"26.06.2018"</f>
+        <f t="shared" ref="A146:A147" si="19">"26.06.2018"</f>
         <v>26.06.2018</v>
       </c>
       <c r="B146" s="13"/>
@@ -7167,7 +7174,7 @@
     </row>
     <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26.06.2018</v>
       </c>
       <c r="B147" s="13"/>
@@ -7213,7 +7220,7 @@
     </row>
     <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
-        <f t="shared" ref="A149:A152" si="19">"17.04.2018"</f>
+        <f t="shared" ref="A149:A152" si="20">"17.04.2018"</f>
         <v>17.04.2018</v>
       </c>
       <c r="B149" s="13"/>
@@ -7235,7 +7242,7 @@
     </row>
     <row r="150" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17.04.2018</v>
       </c>
       <c r="B150" s="13"/>
@@ -7257,7 +7264,7 @@
     </row>
     <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17.04.2018</v>
       </c>
       <c r="B151" s="13"/>
@@ -7279,7 +7286,7 @@
     </row>
     <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17.04.2018</v>
       </c>
       <c r="B152" s="13"/>
@@ -7325,7 +7332,7 @@
     </row>
     <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
-        <f t="shared" ref="A154:A155" si="20">"20.03.2018"</f>
+        <f t="shared" ref="A154:A155" si="21">"20.03.2018"</f>
         <v>20.03.2018</v>
       </c>
       <c r="B154" s="13"/>
@@ -7347,7 +7354,7 @@
     </row>
     <row r="155" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20.03.2018</v>
       </c>
       <c r="B155" s="13"/>
@@ -7465,7 +7472,7 @@
     </row>
     <row r="160" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
-        <f t="shared" ref="A160:A166" si="21">"11.09.2017"</f>
+        <f t="shared" ref="A160:A166" si="22">"11.09.2017"</f>
         <v>11.09.2017</v>
       </c>
       <c r="B160" s="13"/>
@@ -7488,7 +7495,7 @@
     </row>
     <row r="161" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.09.2017</v>
       </c>
       <c r="B161" s="13"/>
@@ -7511,7 +7518,7 @@
     </row>
     <row r="162" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.09.2017</v>
       </c>
       <c r="B162" s="13"/>
@@ -7534,7 +7541,7 @@
     </row>
     <row r="163" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.09.2017</v>
       </c>
       <c r="B163" s="13"/>
@@ -7557,7 +7564,7 @@
     </row>
     <row r="164" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.09.2017</v>
       </c>
       <c r="B164" s="13"/>
@@ -7580,7 +7587,7 @@
     </row>
     <row r="165" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.09.2017</v>
       </c>
       <c r="B165" s="13"/>
@@ -7603,7 +7610,7 @@
     </row>
     <row r="166" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11.09.2017</v>
       </c>
       <c r="B166" s="13"/>
@@ -7651,7 +7658,7 @@
     </row>
     <row r="168" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
-        <f t="shared" ref="A168:A169" si="22">"26.06.2017"</f>
+        <f t="shared" ref="A168:A169" si="23">"26.06.2017"</f>
         <v>26.06.2017</v>
       </c>
       <c r="B168" s="13"/>
@@ -7674,7 +7681,7 @@
     </row>
     <row r="169" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26.06.2017</v>
       </c>
       <c r="B169" s="13"/>
@@ -7697,7 +7704,7 @@
     </row>
     <row r="170" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
-        <f t="shared" ref="A170:A178" si="23">"15.06.2017"</f>
+        <f t="shared" ref="A170:A178" si="24">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
       <c r="B170" s="13" t="s">
@@ -7721,7 +7728,7 @@
     </row>
     <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B171" s="13"/>
@@ -7743,7 +7750,7 @@
     </row>
     <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B172" s="13"/>
@@ -7765,7 +7772,7 @@
     </row>
     <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B173" s="13"/>
@@ -7787,7 +7794,7 @@
     </row>
     <row r="174" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B174" s="13"/>
@@ -7809,7 +7816,7 @@
     </row>
     <row r="175" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B175" s="13"/>
@@ -7831,7 +7838,7 @@
     </row>
     <row r="176" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B176" s="13"/>
@@ -7853,7 +7860,7 @@
     </row>
     <row r="177" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B177" s="13"/>
@@ -7875,7 +7882,7 @@
     </row>
     <row r="178" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.06.2017</v>
       </c>
       <c r="B178" s="13"/>
@@ -7921,7 +7928,7 @@
     </row>
     <row r="180" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="str">
-        <f t="shared" ref="A180:A184" si="24">"05.05.2017"</f>
+        <f t="shared" ref="A180:A184" si="25">"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
       <c r="B180" s="13"/>
@@ -7943,7 +7950,7 @@
     </row>
     <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>05.05.2017</v>
       </c>
       <c r="B181" s="13"/>
@@ -7965,7 +7972,7 @@
     </row>
     <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>05.05.2017</v>
       </c>
       <c r="B182" s="13"/>
@@ -7987,7 +7994,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>05.05.2017</v>
       </c>
       <c r="B183" s="13"/>
@@ -8009,7 +8016,7 @@
     </row>
     <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>05.05.2017</v>
       </c>
       <c r="B184" s="13"/>
@@ -8105,7 +8112,7 @@
     </row>
     <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
-        <f t="shared" ref="A188:A191" si="25">"29.11.2016"</f>
+        <f t="shared" ref="A188:A191" si="26">"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
       <c r="B188" s="13"/>
@@ -8127,7 +8134,7 @@
     </row>
     <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>29.11.2016</v>
       </c>
       <c r="B189" s="13"/>
@@ -8149,7 +8156,7 @@
     </row>
     <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>29.11.2016</v>
       </c>
       <c r="B190" s="13"/>
@@ -8171,7 +8178,7 @@
     </row>
     <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>29.11.2016</v>
       </c>
       <c r="B191" s="13"/>
@@ -8218,7 +8225,7 @@
     </row>
     <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
-        <f t="shared" ref="A193:A195" si="26">"14.11.2016"</f>
+        <f t="shared" ref="A193:A195" si="27">"14.11.2016"</f>
         <v>14.11.2016</v>
       </c>
       <c r="B193" s="13"/>
@@ -8241,7 +8248,7 @@
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>14.11.2016</v>
       </c>
       <c r="B194" s="13"/>
@@ -8264,7 +8271,7 @@
     </row>
     <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>14.11.2016</v>
       </c>
       <c r="B195" s="13"/>
@@ -8312,7 +8319,7 @@
     </row>
     <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
-        <f t="shared" ref="A197:A198" si="27">"17.10.2016"</f>
+        <f t="shared" ref="A197:A198" si="28">"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
       <c r="B197" s="13"/>
@@ -8335,7 +8342,7 @@
     </row>
     <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>17.10.2016</v>
       </c>
       <c r="B198" s="13"/>
@@ -8383,7 +8390,7 @@
     </row>
     <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="str">
-        <f t="shared" ref="A200:A204" si="28">"14.09.2016"</f>
+        <f t="shared" ref="A200:A204" si="29">"14.09.2016"</f>
         <v>14.09.2016</v>
       </c>
       <c r="B200" s="13"/>
@@ -8406,7 +8413,7 @@
     </row>
     <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.09.2016</v>
       </c>
       <c r="B201" s="13"/>
@@ -8429,7 +8436,7 @@
     </row>
     <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.09.2016</v>
       </c>
       <c r="B202" s="13"/>
@@ -8452,7 +8459,7 @@
     </row>
     <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.09.2016</v>
       </c>
       <c r="B203" s="13"/>
@@ -8475,7 +8482,7 @@
     </row>
     <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.09.2016</v>
       </c>
       <c r="B204" s="13"/>
@@ -8610,7 +8617,7 @@
     </row>
     <row r="210" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="str">
-        <f t="shared" ref="A210:A218" si="29">"28.04.2016"</f>
+        <f t="shared" ref="A210:A218" si="30">"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
       <c r="B210" s="13"/>
@@ -8633,7 +8640,7 @@
     </row>
     <row r="211" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B211" s="13"/>
@@ -8653,7 +8660,7 @@
     </row>
     <row r="212" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B212" s="13"/>
@@ -8673,7 +8680,7 @@
     </row>
     <row r="213" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B213" s="13"/>
@@ -8696,7 +8703,7 @@
     </row>
     <row r="214" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B214" s="13"/>
@@ -8719,7 +8726,7 @@
     </row>
     <row r="215" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B215" s="13"/>
@@ -8742,7 +8749,7 @@
     </row>
     <row r="216" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B216" s="13"/>
@@ -8763,7 +8770,7 @@
     </row>
     <row r="217" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B217" s="13"/>
@@ -8786,7 +8793,7 @@
     </row>
     <row r="218" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>28.04.2016</v>
       </c>
       <c r="B218" s="13"/>
@@ -8832,7 +8839,7 @@
     </row>
     <row r="220" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
-        <f t="shared" ref="A220:A224" si="30">"13.01.2016"</f>
+        <f t="shared" ref="A220:A224" si="31">"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
       <c r="B220" s="13"/>
@@ -8855,7 +8862,7 @@
     </row>
     <row r="221" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.01.2016</v>
       </c>
       <c r="B221" s="13"/>
@@ -8878,7 +8885,7 @@
     </row>
     <row r="222" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.01.2016</v>
       </c>
       <c r="B222" s="13"/>
@@ -8901,7 +8908,7 @@
     </row>
     <row r="223" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.01.2016</v>
       </c>
       <c r="B223" s="13"/>
@@ -8922,7 +8929,7 @@
     </row>
     <row r="224" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.01.2016</v>
       </c>
       <c r="B224" s="13"/>
@@ -9016,7 +9023,7 @@
     </row>
     <row r="228" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="str">
-        <f t="shared" ref="A228:A237" si="31">"23.06.2015"</f>
+        <f t="shared" ref="A228:A237" si="32">"23.06.2015"</f>
         <v>23.06.2015</v>
       </c>
       <c r="B228" s="13"/>
@@ -9037,7 +9044,7 @@
     </row>
     <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B229" s="13"/>
@@ -9060,7 +9067,7 @@
     </row>
     <row r="230" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B230" s="13"/>
@@ -9083,7 +9090,7 @@
     </row>
     <row r="231" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B231" s="13"/>
@@ -9106,7 +9113,7 @@
     </row>
     <row r="232" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B232" s="13"/>
@@ -9129,7 +9136,7 @@
     </row>
     <row r="233" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B233" s="13"/>
@@ -9152,7 +9159,7 @@
     </row>
     <row r="234" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B234" s="13"/>
@@ -9175,7 +9182,7 @@
     </row>
     <row r="235" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B235" s="13"/>
@@ -9198,7 +9205,7 @@
     </row>
     <row r="236" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B236" s="13"/>
@@ -9221,7 +9228,7 @@
     </row>
     <row r="237" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.06.2015</v>
       </c>
       <c r="B237" s="13"/>
@@ -9340,7 +9347,7 @@
     </row>
     <row r="242" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="str">
-        <f t="shared" ref="A242:A248" si="32">"13.11.2014"</f>
+        <f t="shared" ref="A242:A248" si="33">"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
       <c r="B242" s="13"/>
@@ -9363,7 +9370,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.11.2014</v>
       </c>
       <c r="B243" s="13"/>
@@ -9386,7 +9393,7 @@
     </row>
     <row r="244" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.11.2014</v>
       </c>
       <c r="B244" s="13"/>
@@ -9409,7 +9416,7 @@
     </row>
     <row r="245" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.11.2014</v>
       </c>
       <c r="B245" s="13"/>
@@ -9432,7 +9439,7 @@
     </row>
     <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.11.2014</v>
       </c>
       <c r="B246" s="13"/>
@@ -9455,7 +9462,7 @@
     </row>
     <row r="247" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.11.2014</v>
       </c>
       <c r="B247" s="13"/>
@@ -9478,7 +9485,7 @@
     </row>
     <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.11.2014</v>
       </c>
       <c r="B248" s="13"/>
@@ -9526,7 +9533,7 @@
     </row>
     <row r="250" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
-        <f t="shared" ref="A250:A255" si="33">"02.10.2014"</f>
+        <f t="shared" ref="A250:A255" si="34">"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
       <c r="B250" s="13"/>
@@ -9549,7 +9556,7 @@
     </row>
     <row r="251" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>02.10.2014</v>
       </c>
       <c r="B251" s="13"/>
@@ -9572,7 +9579,7 @@
     </row>
     <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>02.10.2014</v>
       </c>
       <c r="B252" s="13"/>
@@ -9595,7 +9602,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>02.10.2014</v>
       </c>
       <c r="B253" s="13"/>
@@ -9618,7 +9625,7 @@
     </row>
     <row r="254" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>02.10.2014</v>
       </c>
       <c r="B254" s="13"/>
@@ -9641,7 +9648,7 @@
     </row>
     <row r="255" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>02.10.2014</v>
       </c>
       <c r="B255" s="13"/>
@@ -9821,7 +9828,7 @@
     </row>
     <row r="263" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="str">
-        <f t="shared" ref="A263:A275" si="34">"04.06.2013"</f>
+        <f t="shared" ref="A263:A275" si="35">"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
       <c r="B263" s="13"/>
@@ -9844,7 +9851,7 @@
     </row>
     <row r="264" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B264" s="13"/>
@@ -9867,7 +9874,7 @@
     </row>
     <row r="265" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B265" s="13"/>
@@ -9890,7 +9897,7 @@
     </row>
     <row r="266" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B266" s="13"/>
@@ -9913,7 +9920,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B267" s="13"/>
@@ -9936,7 +9943,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B268" s="13"/>
@@ -9959,7 +9966,7 @@
     </row>
     <row r="269" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B269" s="13"/>
@@ -9982,7 +9989,7 @@
     </row>
     <row r="270" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B270" s="13"/>
@@ -10005,7 +10012,7 @@
     </row>
     <row r="271" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B271" s="13"/>
@@ -10028,7 +10035,7 @@
     </row>
     <row r="272" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B272" s="13"/>
@@ -10051,7 +10058,7 @@
     </row>
     <row r="273" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B273" s="13"/>
@@ -10074,7 +10081,7 @@
     </row>
     <row r="274" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B274" s="13"/>
@@ -10097,7 +10104,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>04.06.2013</v>
       </c>
       <c r="B275" s="13"/>
@@ -10145,7 +10152,7 @@
     </row>
     <row r="277" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="str">
-        <f t="shared" ref="A277:A278" si="35">"28.11.2012"</f>
+        <f t="shared" ref="A277:A278" si="36">"28.11.2012"</f>
         <v>28.11.2012</v>
       </c>
       <c r="B277" s="13"/>
@@ -10168,7 +10175,7 @@
     </row>
     <row r="278" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>28.11.2012</v>
       </c>
       <c r="B278" s="13"/>
@@ -10216,7 +10223,7 @@
     </row>
     <row r="280" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="str">
-        <f t="shared" ref="A280:A283" si="36">"25.09.2012"</f>
+        <f t="shared" ref="A280:A283" si="37">"25.09.2012"</f>
         <v>25.09.2012</v>
       </c>
       <c r="B280" s="13"/>
@@ -10239,7 +10246,7 @@
     </row>
     <row r="281" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>25.09.2012</v>
       </c>
       <c r="B281" s="13"/>
@@ -10262,7 +10269,7 @@
     </row>
     <row r="282" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>25.09.2012</v>
       </c>
       <c r="B282" s="13"/>
@@ -10285,7 +10292,7 @@
     </row>
     <row r="283" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>25.09.2012</v>
       </c>
       <c r="B283" s="13"/>
@@ -10333,7 +10340,7 @@
     </row>
     <row r="285" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="str">
-        <f t="shared" ref="A285:A287" si="37">"09.07.2012"</f>
+        <f t="shared" ref="A285:A287" si="38">"09.07.2012"</f>
         <v>09.07.2012</v>
       </c>
       <c r="B285" s="13"/>
@@ -10356,7 +10363,7 @@
     </row>
     <row r="286" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>09.07.2012</v>
       </c>
       <c r="B286" s="13"/>
@@ -10377,7 +10384,7 @@
     </row>
     <row r="287" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>09.07.2012</v>
       </c>
       <c r="B287" s="13"/>
@@ -10492,7 +10499,7 @@
     </row>
     <row r="292" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="str">
-        <f t="shared" ref="A292:A298" si="38">"16.09.2011"</f>
+        <f t="shared" ref="A292:A298" si="39">"16.09.2011"</f>
         <v>16.09.2011</v>
       </c>
       <c r="B292" s="13"/>
@@ -10515,7 +10522,7 @@
     </row>
     <row r="293" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.09.2011</v>
       </c>
       <c r="B293" s="13"/>
@@ -10538,7 +10545,7 @@
     </row>
     <row r="294" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.09.2011</v>
       </c>
       <c r="B294" s="13"/>
@@ -10559,7 +10566,7 @@
     </row>
     <row r="295" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.09.2011</v>
       </c>
       <c r="B295" s="13"/>
@@ -10582,7 +10589,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.09.2011</v>
       </c>
       <c r="B296" s="13"/>
@@ -10605,7 +10612,7 @@
     </row>
     <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.09.2011</v>
       </c>
       <c r="B297" s="13"/>
@@ -10626,7 +10633,7 @@
     </row>
     <row r="298" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.09.2011</v>
       </c>
       <c r="B298" s="13"/>
@@ -10674,7 +10681,7 @@
     </row>
     <row r="300" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="str">
-        <f t="shared" ref="A300:A302" si="39">"21.07.2011"</f>
+        <f t="shared" ref="A300:A302" si="40">"21.07.2011"</f>
         <v>21.07.2011</v>
       </c>
       <c r="B300" s="13"/>
@@ -10697,7 +10704,7 @@
     </row>
     <row r="301" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>21.07.2011</v>
       </c>
       <c r="B301" s="13"/>
@@ -10720,7 +10727,7 @@
     </row>
     <row r="302" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>21.07.2011</v>
       </c>
       <c r="B302" s="13"/>
@@ -10768,7 +10775,7 @@
     </row>
     <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="str">
-        <f t="shared" ref="A304:A311" si="40">"10.05.2011"</f>
+        <f t="shared" ref="A304:A311" si="41">"10.05.2011"</f>
         <v>10.05.2011</v>
       </c>
       <c r="B304" s="13"/>
@@ -10791,7 +10798,7 @@
     </row>
     <row r="305" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B305" s="13"/>
@@ -10814,7 +10821,7 @@
     </row>
     <row r="306" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B306" s="13"/>
@@ -10837,7 +10844,7 @@
     </row>
     <row r="307" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B307" s="13"/>
@@ -10860,7 +10867,7 @@
     </row>
     <row r="308" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B308" s="13"/>
@@ -10883,7 +10890,7 @@
     </row>
     <row r="309" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B309" s="13"/>
@@ -10906,7 +10913,7 @@
     </row>
     <row r="310" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B310" s="13"/>
@@ -10929,7 +10936,7 @@
     </row>
     <row r="311" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10.05.2011</v>
       </c>
       <c r="B311" s="13"/>
@@ -10977,7 +10984,7 @@
     </row>
     <row r="313" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="str">
-        <f t="shared" ref="A313:A316" si="41">"07.05.2011"</f>
+        <f t="shared" ref="A313:A316" si="42">"07.05.2011"</f>
         <v>07.05.2011</v>
       </c>
       <c r="B313" s="13"/>
@@ -11000,7 +11007,7 @@
     </row>
     <row r="314" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>07.05.2011</v>
       </c>
       <c r="B314" s="13"/>
@@ -11021,7 +11028,7 @@
     </row>
     <row r="315" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>07.05.2011</v>
       </c>
       <c r="B315" s="13"/>
@@ -11044,7 +11051,7 @@
     </row>
     <row r="316" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>07.05.2011</v>
       </c>
       <c r="B316" s="13"/>
@@ -11183,7 +11190,7 @@
     </row>
     <row r="322" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="str">
-        <f t="shared" ref="A322:A331" si="42">"04.10.2010"</f>
+        <f t="shared" ref="A322:A331" si="43">"04.10.2010"</f>
         <v>04.10.2010</v>
       </c>
       <c r="B322" s="13"/>
@@ -11205,7 +11212,7 @@
     </row>
     <row r="323" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B323" s="13"/>
@@ -11227,7 +11234,7 @@
     </row>
     <row r="324" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B324" s="13"/>
@@ -11249,7 +11256,7 @@
     </row>
     <row r="325" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B325" s="13"/>
@@ -11272,7 +11279,7 @@
     </row>
     <row r="326" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B326" s="13"/>
@@ -11297,7 +11304,7 @@
     </row>
     <row r="327" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B327" s="13"/>
@@ -11322,7 +11329,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B328" s="13"/>
@@ -11342,7 +11349,7 @@
     </row>
     <row r="329" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B329" s="13"/>
@@ -11367,7 +11374,7 @@
     </row>
     <row r="330" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B330" s="13"/>
@@ -11390,7 +11397,7 @@
     </row>
     <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>04.10.2010</v>
       </c>
       <c r="B331" s="13"/>
@@ -11440,7 +11447,7 @@
     </row>
     <row r="333" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="str">
-        <f t="shared" ref="A333:A338" si="43">"24.06.2010"</f>
+        <f t="shared" ref="A333:A338" si="44">"24.06.2010"</f>
         <v>24.06.2010</v>
       </c>
       <c r="B333" s="13"/>
@@ -11463,7 +11470,7 @@
     </row>
     <row r="334" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24.06.2010</v>
       </c>
       <c r="B334" s="13"/>
@@ -11486,7 +11493,7 @@
     </row>
     <row r="335" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24.06.2010</v>
       </c>
       <c r="B335" s="13"/>
@@ -11509,7 +11516,7 @@
     </row>
     <row r="336" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24.06.2010</v>
       </c>
       <c r="B336" s="13"/>
@@ -11532,7 +11539,7 @@
     </row>
     <row r="337" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24.06.2010</v>
       </c>
       <c r="B337" s="13"/>
@@ -11555,7 +11562,7 @@
     </row>
     <row r="338" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24.06.2010</v>
       </c>
       <c r="B338" s="13"/>
@@ -11653,7 +11660,7 @@
     </row>
     <row r="342" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="str">
-        <f t="shared" ref="A342:A347" si="44">"12.03.2010"</f>
+        <f t="shared" ref="A342:A347" si="45">"12.03.2010"</f>
         <v>12.03.2010</v>
       </c>
       <c r="B342" s="13"/>
@@ -11676,7 +11683,7 @@
     </row>
     <row r="343" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12.03.2010</v>
       </c>
       <c r="B343" s="13"/>
@@ -11699,7 +11706,7 @@
     </row>
     <row r="344" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12.03.2010</v>
       </c>
       <c r="B344" s="13"/>
@@ -11722,7 +11729,7 @@
     </row>
     <row r="345" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12.03.2010</v>
       </c>
       <c r="B345" s="13"/>
@@ -11745,7 +11752,7 @@
     </row>
     <row r="346" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12.03.2010</v>
       </c>
       <c r="B346" s="13"/>
@@ -11768,7 +11775,7 @@
     </row>
     <row r="347" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12.03.2010</v>
       </c>
       <c r="B347" s="13"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="1037">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3127,6 +3127,9 @@
   </si>
   <si>
     <t>Comments to introduce panel discussion</t>
+  </si>
+  <si>
+    <t>5_Facey.pdf</t>
   </si>
 </sst>
 </file>
@@ -3590,9 +3593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3698,7 @@
         <v>1035</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1051">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3169,6 +3169,9 @@
   </si>
   <si>
     <t>Speakers + Gorana Capkun, Lilla di Scala, Andrew Thomson (01:58:15)</t>
+  </si>
+  <si>
+    <t>Panel discussion</t>
   </si>
 </sst>
 </file>
@@ -3632,9 +3635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="str">
-        <f>"15.07.2022"</f>
+        <f t="shared" ref="A2:A7" si="0">"15.07.2022"</f>
         <v>15.07.2022</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3719,7 +3722,7 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="str">
-        <f>"15.07.2022"</f>
+        <f t="shared" si="0"/>
         <v>15.07.2022</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3746,7 +3749,7 @@
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="str">
-        <f>"15.07.2022"</f>
+        <f t="shared" si="0"/>
         <v>15.07.2022</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3773,7 +3776,7 @@
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="str">
-        <f>"15.07.2022"</f>
+        <f t="shared" si="0"/>
         <v>15.07.2022</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3800,7 +3803,7 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="str">
-        <f>"15.07.2022"</f>
+        <f t="shared" si="0"/>
         <v>15.07.2022</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3827,7 +3830,7 @@
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
-        <f>"15.07.2022"</f>
+        <f t="shared" si="0"/>
         <v>15.07.2022</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -3843,6 +3846,9 @@
         <v>1049</v>
       </c>
       <c r="H7" s="7"/>
+      <c r="I7" s="15" t="s">
+        <v>1050</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3874,7 +3880,7 @@
     </row>
     <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="str">
-        <f t="shared" ref="A9:A15" si="0">"23.06.2022"</f>
+        <f t="shared" ref="A9:A15" si="1">"23.06.2022"</f>
         <v>23.06.2022</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3899,7 +3905,7 @@
     </row>
     <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.06.2022</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3926,7 +3932,7 @@
     </row>
     <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.06.2022</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3953,7 +3959,7 @@
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.06.2022</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3980,7 +3986,7 @@
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.06.2022</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4007,7 +4013,7 @@
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.06.2022</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4034,7 +4040,7 @@
     </row>
     <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.06.2022</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4194,7 +4200,7 @@
     </row>
     <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
-        <f t="shared" ref="A21:A23" si="1">"21.02.2022"</f>
+        <f t="shared" ref="A21:A23" si="2">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B21" s="3"/>
@@ -4219,7 +4225,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.02.2022</v>
       </c>
       <c r="B22" s="3"/>
@@ -4244,7 +4250,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.02.2022</v>
       </c>
       <c r="B23" s="3"/>
@@ -4296,7 +4302,7 @@
     </row>
     <row r="25" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
-        <f t="shared" ref="A25:A28" si="2">"27.07.2021"</f>
+        <f t="shared" ref="A25:A28" si="3">"27.07.2021"</f>
         <v>27.07.2021</v>
       </c>
       <c r="B25" s="13"/>
@@ -4321,7 +4327,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.07.2021</v>
       </c>
       <c r="B26" s="13"/>
@@ -4346,7 +4352,7 @@
     </row>
     <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.07.2021</v>
       </c>
       <c r="B27" s="13"/>
@@ -4371,7 +4377,7 @@
     </row>
     <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.07.2021</v>
       </c>
       <c r="B28" s="13"/>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
-        <f t="shared" ref="A30:A36" si="3">"28.06.2021"</f>
+        <f t="shared" ref="A30:A36" si="4">"28.06.2021"</f>
         <v>28.06.2021</v>
       </c>
       <c r="B30" s="13"/>
@@ -4450,7 +4456,7 @@
     </row>
     <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.06.2021</v>
       </c>
       <c r="B31" s="13"/>
@@ -4475,7 +4481,7 @@
     </row>
     <row r="32" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.06.2021</v>
       </c>
       <c r="B32" s="13"/>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.06.2021</v>
       </c>
       <c r="B33" s="13"/>
@@ -4525,7 +4531,7 @@
     </row>
     <row r="34" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.06.2021</v>
       </c>
       <c r="B34" s="13"/>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.06.2021</v>
       </c>
       <c r="B35" s="13"/>
@@ -4575,7 +4581,7 @@
     </row>
     <row r="36" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.06.2021</v>
       </c>
       <c r="B36" s="13"/>
@@ -4629,7 +4635,7 @@
     </row>
     <row r="38" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
-        <f t="shared" ref="A38:A40" si="4">"16.06.2021"</f>
+        <f t="shared" ref="A38:A40" si="5">"16.06.2021"</f>
         <v>16.06.2021</v>
       </c>
       <c r="B38" s="13"/>
@@ -4654,7 +4660,7 @@
     </row>
     <row r="39" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.06.2021</v>
       </c>
       <c r="B39" s="13"/>
@@ -4679,7 +4685,7 @@
     </row>
     <row r="40" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.06.2021</v>
       </c>
       <c r="B40" s="13"/>
@@ -4733,7 +4739,7 @@
     </row>
     <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
-        <f t="shared" ref="A42:A50" si="5">"22.03.2021"</f>
+        <f t="shared" ref="A42:A50" si="6">"22.03.2021"</f>
         <v>22.03.2021</v>
       </c>
       <c r="B42" s="13"/>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B43" s="13"/>
@@ -4783,7 +4789,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B44" s="13"/>
@@ -4808,7 +4814,7 @@
     </row>
     <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B45" s="13"/>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B46" s="13"/>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B47" s="13"/>
@@ -4883,7 +4889,7 @@
     </row>
     <row r="48" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B48" s="13"/>
@@ -4908,7 +4914,7 @@
     </row>
     <row r="49" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B49" s="13"/>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.03.2021</v>
       </c>
       <c r="B50" s="13"/>
@@ -4985,7 +4991,7 @@
     </row>
     <row r="52" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
-        <f t="shared" ref="A52:A57" si="6">"08.03.2021"</f>
+        <f t="shared" ref="A52:A57" si="7">"08.03.2021"</f>
         <v>08.03.2021</v>
       </c>
       <c r="B52" s="13"/>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="53" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>08.03.2021</v>
       </c>
       <c r="B53" s="13"/>
@@ -5035,7 +5041,7 @@
     </row>
     <row r="54" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>08.03.2021</v>
       </c>
       <c r="B54" s="13"/>
@@ -5060,7 +5066,7 @@
     </row>
     <row r="55" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>08.03.2021</v>
       </c>
       <c r="B55" s="13"/>
@@ -5085,7 +5091,7 @@
     </row>
     <row r="56" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>08.03.2021</v>
       </c>
       <c r="B56" s="13"/>
@@ -5110,7 +5116,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>08.03.2021</v>
       </c>
       <c r="B57" s="13"/>
@@ -5162,7 +5168,7 @@
     </row>
     <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
-        <f t="shared" ref="A59:A65" si="7">"03.11.2020"</f>
+        <f t="shared" ref="A59:A65" si="8">"03.11.2020"</f>
         <v>03.11.2020</v>
       </c>
       <c r="B59" s="13"/>
@@ -5187,7 +5193,7 @@
     </row>
     <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>03.11.2020</v>
       </c>
       <c r="B60" s="13"/>
@@ -5212,7 +5218,7 @@
     </row>
     <row r="61" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>03.11.2020</v>
       </c>
       <c r="B61" s="13"/>
@@ -5237,7 +5243,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>03.11.2020</v>
       </c>
       <c r="B62" s="13"/>
@@ -5262,7 +5268,7 @@
     </row>
     <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>03.11.2020</v>
       </c>
       <c r="B63" s="13"/>
@@ -5287,7 +5293,7 @@
     </row>
     <row r="64" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>03.11.2020</v>
       </c>
       <c r="B64" s="13"/>
@@ -5312,7 +5318,7 @@
     </row>
     <row r="65" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>03.11.2020</v>
       </c>
       <c r="B65" s="13"/>
@@ -5366,7 +5372,7 @@
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="str">
-        <f t="shared" ref="A67:A75" si="8">"07.09.2020"</f>
+        <f t="shared" ref="A67:A75" si="9">"07.09.2020"</f>
         <v>07.09.2020</v>
       </c>
       <c r="B67" s="13"/>
@@ -5391,7 +5397,7 @@
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B68" s="13"/>
@@ -5416,7 +5422,7 @@
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B69" s="13"/>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B70" s="13"/>
@@ -5466,7 +5472,7 @@
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B71" s="13"/>
@@ -5491,7 +5497,7 @@
     </row>
     <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B72" s="13"/>
@@ -5516,7 +5522,7 @@
     </row>
     <row r="73" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B73" s="13"/>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B74" s="13"/>
@@ -5566,7 +5572,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>07.09.2020</v>
       </c>
       <c r="B75" s="13"/>
@@ -5618,7 +5624,7 @@
     </row>
     <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="str">
-        <f t="shared" ref="A77:A80" si="9">"30.06.2020"</f>
+        <f t="shared" ref="A77:A80" si="10">"30.06.2020"</f>
         <v>30.06.2020</v>
       </c>
       <c r="B77" s="13"/>
@@ -5643,7 +5649,7 @@
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.06.2020</v>
       </c>
       <c r="B78" s="13"/>
@@ -5668,7 +5674,7 @@
     </row>
     <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.06.2020</v>
       </c>
       <c r="B79" s="13"/>
@@ -5693,7 +5699,7 @@
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.06.2020</v>
       </c>
       <c r="B80" s="13"/>
@@ -5747,7 +5753,7 @@
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
-        <f t="shared" ref="A82:A87" si="10">"29.06.2020"</f>
+        <f t="shared" ref="A82:A87" si="11">"29.06.2020"</f>
         <v>29.06.2020</v>
       </c>
       <c r="B82" s="13"/>
@@ -5772,7 +5778,7 @@
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.06.2020</v>
       </c>
       <c r="B83" s="13"/>
@@ -5797,7 +5803,7 @@
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.06.2020</v>
       </c>
       <c r="B84" s="13"/>
@@ -5822,7 +5828,7 @@
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.06.2020</v>
       </c>
       <c r="B85" s="13"/>
@@ -5847,7 +5853,7 @@
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.06.2020</v>
       </c>
       <c r="B86" s="13"/>
@@ -5872,7 +5878,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.06.2020</v>
       </c>
       <c r="B87" s="13"/>
@@ -5922,7 +5928,7 @@
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
-        <f t="shared" ref="A89:A91" si="11">"03.06.2020"</f>
+        <f t="shared" ref="A89:A91" si="12">"03.06.2020"</f>
         <v>03.06.2020</v>
       </c>
       <c r="B89" s="13"/>
@@ -5947,7 +5953,7 @@
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.06.2020</v>
       </c>
       <c r="B90" s="13"/>
@@ -5972,7 +5978,7 @@
     </row>
     <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.06.2020</v>
       </c>
       <c r="B91" s="13"/>
@@ -6024,7 +6030,7 @@
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
-        <f t="shared" ref="A93:A97" si="12">"06.05.2020"</f>
+        <f t="shared" ref="A93:A97" si="13">"06.05.2020"</f>
         <v>06.05.2020</v>
       </c>
       <c r="B93" s="13"/>
@@ -6049,7 +6055,7 @@
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>06.05.2020</v>
       </c>
       <c r="B94" s="13"/>
@@ -6074,7 +6080,7 @@
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>06.05.2020</v>
       </c>
       <c r="B95" s="13"/>
@@ -6099,7 +6105,7 @@
     </row>
     <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>06.05.2020</v>
       </c>
       <c r="B96" s="13"/>
@@ -6124,7 +6130,7 @@
     </row>
     <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>06.05.2020</v>
       </c>
       <c r="B97" s="13"/>
@@ -6174,7 +6180,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
-        <f t="shared" ref="A99:A103" si="13">"04.02.2020"</f>
+        <f t="shared" ref="A99:A103" si="14">"04.02.2020"</f>
         <v>04.02.2020</v>
       </c>
       <c r="B99" s="13"/>
@@ -6197,7 +6203,7 @@
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>04.02.2020</v>
       </c>
       <c r="B100" s="13"/>
@@ -6220,7 +6226,7 @@
     </row>
     <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>04.02.2020</v>
       </c>
       <c r="B101" s="13"/>
@@ -6243,7 +6249,7 @@
     </row>
     <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>04.02.2020</v>
       </c>
       <c r="B102" s="13"/>
@@ -6264,7 +6270,7 @@
     </row>
     <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>04.02.2020</v>
       </c>
       <c r="B103" s="13"/>
@@ -6312,7 +6318,7 @@
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="str">
-        <f t="shared" ref="A105:A112" si="14">"01.11.2019"</f>
+        <f t="shared" ref="A105:A112" si="15">"01.11.2019"</f>
         <v>01.11.2019</v>
       </c>
       <c r="B105" s="13"/>
@@ -6335,7 +6341,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B106" s="13"/>
@@ -6358,7 +6364,7 @@
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B107" s="13"/>
@@ -6381,7 +6387,7 @@
     </row>
     <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B108" s="13"/>
@@ -6404,7 +6410,7 @@
     </row>
     <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B109" s="13"/>
@@ -6424,7 +6430,7 @@
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B110" s="13"/>
@@ -6447,7 +6453,7 @@
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B111" s="13"/>
@@ -6470,7 +6476,7 @@
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>01.11.2019</v>
       </c>
       <c r="B112" s="13"/>
@@ -6517,7 +6523,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="str">
-        <f t="shared" ref="A114:A119" si="15">"21.08.2019"</f>
+        <f t="shared" ref="A114:A119" si="16">"21.08.2019"</f>
         <v>21.08.2019</v>
       </c>
       <c r="B114" s="13"/>
@@ -6539,7 +6545,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.08.2019</v>
       </c>
       <c r="B115" s="13"/>
@@ -6558,7 +6564,7 @@
     </row>
     <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.08.2019</v>
       </c>
       <c r="B116" s="13"/>
@@ -6578,7 +6584,7 @@
     </row>
     <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.08.2019</v>
       </c>
       <c r="B117" s="13"/>
@@ -6598,7 +6604,7 @@
     </row>
     <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.08.2019</v>
       </c>
       <c r="B118" s="13"/>
@@ -6618,7 +6624,7 @@
     </row>
     <row r="119" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.08.2019</v>
       </c>
       <c r="B119" s="13"/>
@@ -6661,7 +6667,7 @@
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="str">
-        <f t="shared" ref="A121:A127" si="16">"04.06.2019"</f>
+        <f t="shared" ref="A121:A127" si="17">"04.06.2019"</f>
         <v>04.06.2019</v>
       </c>
       <c r="B121" s="13"/>
@@ -6683,7 +6689,7 @@
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04.06.2019</v>
       </c>
       <c r="B122" s="13"/>
@@ -6705,7 +6711,7 @@
     </row>
     <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04.06.2019</v>
       </c>
       <c r="B123" s="13"/>
@@ -6727,7 +6733,7 @@
     </row>
     <row r="124" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04.06.2019</v>
       </c>
       <c r="B124" s="13"/>
@@ -6749,7 +6755,7 @@
     </row>
     <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04.06.2019</v>
       </c>
       <c r="B125" s="13"/>
@@ -6771,7 +6777,7 @@
     </row>
     <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04.06.2019</v>
       </c>
       <c r="B126" s="13"/>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>04.06.2019</v>
       </c>
       <c r="B127" s="13"/>
@@ -6839,7 +6845,7 @@
     </row>
     <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="str">
-        <f t="shared" ref="A129:A139" si="17">"10.05.2019"</f>
+        <f t="shared" ref="A129:A139" si="18">"10.05.2019"</f>
         <v>10.05.2019</v>
       </c>
       <c r="B129" s="13"/>
@@ -6861,7 +6867,7 @@
     </row>
     <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B130" s="13"/>
@@ -6883,7 +6889,7 @@
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B131" s="13"/>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B132" s="13"/>
@@ -6927,7 +6933,7 @@
     </row>
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B133" s="13"/>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B134" s="13"/>
@@ -6971,7 +6977,7 @@
     </row>
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B135" s="13"/>
@@ -6993,7 +6999,7 @@
     </row>
     <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B136" s="13"/>
@@ -7015,7 +7021,7 @@
     </row>
     <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B137" s="13"/>
@@ -7037,7 +7043,7 @@
     </row>
     <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B138" s="13"/>
@@ -7056,7 +7062,7 @@
     </row>
     <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.05.2019</v>
       </c>
       <c r="B139" s="13"/>
@@ -7099,7 +7105,7 @@
     </row>
     <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
-        <f t="shared" ref="A141:A148" si="18">"27.06.2018"</f>
+        <f t="shared" ref="A141:A148" si="19">"27.06.2018"</f>
         <v>27.06.2018</v>
       </c>
       <c r="B141" s="13"/>
@@ -7121,7 +7127,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B142" s="13"/>
@@ -7143,7 +7149,7 @@
     </row>
     <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B143" s="13"/>
@@ -7165,7 +7171,7 @@
     </row>
     <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B144" s="13"/>
@@ -7187,7 +7193,7 @@
     </row>
     <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B145" s="13"/>
@@ -7209,7 +7215,7 @@
     </row>
     <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B146" s="13"/>
@@ -7231,7 +7237,7 @@
     </row>
     <row r="147" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B147" s="13"/>
@@ -7253,7 +7259,7 @@
     </row>
     <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.06.2018</v>
       </c>
       <c r="B148" s="13"/>
@@ -7299,7 +7305,7 @@
     </row>
     <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
-        <f t="shared" ref="A150:A151" si="19">"26.06.2018"</f>
+        <f t="shared" ref="A150:A151" si="20">"26.06.2018"</f>
         <v>26.06.2018</v>
       </c>
       <c r="B150" s="13"/>
@@ -7321,7 +7327,7 @@
     </row>
     <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>26.06.2018</v>
       </c>
       <c r="B151" s="13"/>
@@ -7367,7 +7373,7 @@
     </row>
     <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
-        <f t="shared" ref="A153:A156" si="20">"17.04.2018"</f>
+        <f t="shared" ref="A153:A156" si="21">"17.04.2018"</f>
         <v>17.04.2018</v>
       </c>
       <c r="B153" s="13"/>
@@ -7389,7 +7395,7 @@
     </row>
     <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17.04.2018</v>
       </c>
       <c r="B154" s="13"/>
@@ -7411,7 +7417,7 @@
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17.04.2018</v>
       </c>
       <c r="B155" s="13"/>
@@ -7433,7 +7439,7 @@
     </row>
     <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17.04.2018</v>
       </c>
       <c r="B156" s="13"/>
@@ -7479,7 +7485,7 @@
     </row>
     <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
-        <f t="shared" ref="A158:A159" si="21">"20.03.2018"</f>
+        <f t="shared" ref="A158:A159" si="22">"20.03.2018"</f>
         <v>20.03.2018</v>
       </c>
       <c r="B158" s="13"/>
@@ -7501,7 +7507,7 @@
     </row>
     <row r="159" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20.03.2018</v>
       </c>
       <c r="B159" s="13"/>
@@ -7619,7 +7625,7 @@
     </row>
     <row r="164" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
-        <f t="shared" ref="A164:A170" si="22">"11.09.2017"</f>
+        <f t="shared" ref="A164:A170" si="23">"11.09.2017"</f>
         <v>11.09.2017</v>
       </c>
       <c r="B164" s="13"/>
@@ -7642,7 +7648,7 @@
     </row>
     <row r="165" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.09.2017</v>
       </c>
       <c r="B165" s="13"/>
@@ -7665,7 +7671,7 @@
     </row>
     <row r="166" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.09.2017</v>
       </c>
       <c r="B166" s="13"/>
@@ -7688,7 +7694,7 @@
     </row>
     <row r="167" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.09.2017</v>
       </c>
       <c r="B167" s="13"/>
@@ -7711,7 +7717,7 @@
     </row>
     <row r="168" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.09.2017</v>
       </c>
       <c r="B168" s="13"/>
@@ -7734,7 +7740,7 @@
     </row>
     <row r="169" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.09.2017</v>
       </c>
       <c r="B169" s="13"/>
@@ -7757,7 +7763,7 @@
     </row>
     <row r="170" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.09.2017</v>
       </c>
       <c r="B170" s="13"/>
@@ -7805,7 +7811,7 @@
     </row>
     <row r="172" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
-        <f t="shared" ref="A172:A173" si="23">"26.06.2017"</f>
+        <f t="shared" ref="A172:A173" si="24">"26.06.2017"</f>
         <v>26.06.2017</v>
       </c>
       <c r="B172" s="13"/>
@@ -7828,7 +7834,7 @@
     </row>
     <row r="173" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26.06.2017</v>
       </c>
       <c r="B173" s="13"/>
@@ -7851,7 +7857,7 @@
     </row>
     <row r="174" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
-        <f t="shared" ref="A174:A182" si="24">"15.06.2017"</f>
+        <f t="shared" ref="A174:A182" si="25">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
       <c r="B174" s="13" t="s">
@@ -7875,7 +7881,7 @@
     </row>
     <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B175" s="13"/>
@@ -7897,7 +7903,7 @@
     </row>
     <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B176" s="13"/>
@@ -7919,7 +7925,7 @@
     </row>
     <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B177" s="13"/>
@@ -7941,7 +7947,7 @@
     </row>
     <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B178" s="13"/>
@@ -7963,7 +7969,7 @@
     </row>
     <row r="179" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B179" s="13"/>
@@ -7985,7 +7991,7 @@
     </row>
     <row r="180" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B180" s="13"/>
@@ -8007,7 +8013,7 @@
     </row>
     <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B181" s="13"/>
@@ -8029,7 +8035,7 @@
     </row>
     <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.06.2017</v>
       </c>
       <c r="B182" s="13"/>
@@ -8075,7 +8081,7 @@
     </row>
     <row r="184" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
-        <f t="shared" ref="A184:A188" si="25">"05.05.2017"</f>
+        <f t="shared" ref="A184:A188" si="26">"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
       <c r="B184" s="13"/>
@@ -8097,7 +8103,7 @@
     </row>
     <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>05.05.2017</v>
       </c>
       <c r="B185" s="13"/>
@@ -8119,7 +8125,7 @@
     </row>
     <row r="186" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>05.05.2017</v>
       </c>
       <c r="B186" s="13"/>
@@ -8141,7 +8147,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>05.05.2017</v>
       </c>
       <c r="B187" s="13"/>
@@ -8163,7 +8169,7 @@
     </row>
     <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>05.05.2017</v>
       </c>
       <c r="B188" s="13"/>
@@ -8259,7 +8265,7 @@
     </row>
     <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="str">
-        <f t="shared" ref="A192:A195" si="26">"29.11.2016"</f>
+        <f t="shared" ref="A192:A195" si="27">"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
       <c r="B192" s="13"/>
@@ -8281,7 +8287,7 @@
     </row>
     <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29.11.2016</v>
       </c>
       <c r="B193" s="13"/>
@@ -8303,7 +8309,7 @@
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29.11.2016</v>
       </c>
       <c r="B194" s="13"/>
@@ -8325,7 +8331,7 @@
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29.11.2016</v>
       </c>
       <c r="B195" s="13"/>
@@ -8372,7 +8378,7 @@
     </row>
     <row r="197" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
-        <f t="shared" ref="A197:A199" si="27">"14.11.2016"</f>
+        <f t="shared" ref="A197:A199" si="28">"14.11.2016"</f>
         <v>14.11.2016</v>
       </c>
       <c r="B197" s="13"/>
@@ -8395,7 +8401,7 @@
     </row>
     <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14.11.2016</v>
       </c>
       <c r="B198" s="13"/>
@@ -8418,7 +8424,7 @@
     </row>
     <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14.11.2016</v>
       </c>
       <c r="B199" s="13"/>
@@ -8466,7 +8472,7 @@
     </row>
     <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
-        <f t="shared" ref="A201:A202" si="28">"17.10.2016"</f>
+        <f t="shared" ref="A201:A202" si="29">"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
       <c r="B201" s="13"/>
@@ -8489,7 +8495,7 @@
     </row>
     <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>17.10.2016</v>
       </c>
       <c r="B202" s="13"/>
@@ -8537,7 +8543,7 @@
     </row>
     <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
-        <f t="shared" ref="A204:A208" si="29">"14.09.2016"</f>
+        <f t="shared" ref="A204:A208" si="30">"14.09.2016"</f>
         <v>14.09.2016</v>
       </c>
       <c r="B204" s="13"/>
@@ -8560,7 +8566,7 @@
     </row>
     <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14.09.2016</v>
       </c>
       <c r="B205" s="13"/>
@@ -8583,7 +8589,7 @@
     </row>
     <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14.09.2016</v>
       </c>
       <c r="B206" s="13"/>
@@ -8606,7 +8612,7 @@
     </row>
     <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14.09.2016</v>
       </c>
       <c r="B207" s="13"/>
@@ -8629,7 +8635,7 @@
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14.09.2016</v>
       </c>
       <c r="B208" s="13"/>
@@ -8764,7 +8770,7 @@
     </row>
     <row r="214" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
-        <f t="shared" ref="A214:A222" si="30">"28.04.2016"</f>
+        <f t="shared" ref="A214:A222" si="31">"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
       <c r="B214" s="13"/>
@@ -8787,7 +8793,7 @@
     </row>
     <row r="215" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B215" s="13"/>
@@ -8807,7 +8813,7 @@
     </row>
     <row r="216" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B216" s="13"/>
@@ -8827,7 +8833,7 @@
     </row>
     <row r="217" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B217" s="13"/>
@@ -8850,7 +8856,7 @@
     </row>
     <row r="218" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B218" s="13"/>
@@ -8873,7 +8879,7 @@
     </row>
     <row r="219" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B219" s="13"/>
@@ -8896,7 +8902,7 @@
     </row>
     <row r="220" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B220" s="13"/>
@@ -8917,7 +8923,7 @@
     </row>
     <row r="221" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B221" s="13"/>
@@ -8940,7 +8946,7 @@
     </row>
     <row r="222" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28.04.2016</v>
       </c>
       <c r="B222" s="13"/>
@@ -8986,7 +8992,7 @@
     </row>
     <row r="224" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="str">
-        <f t="shared" ref="A224:A228" si="31">"13.01.2016"</f>
+        <f t="shared" ref="A224:A228" si="32">"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
       <c r="B224" s="13"/>
@@ -9009,7 +9015,7 @@
     </row>
     <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.01.2016</v>
       </c>
       <c r="B225" s="13"/>
@@ -9032,7 +9038,7 @@
     </row>
     <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.01.2016</v>
       </c>
       <c r="B226" s="13"/>
@@ -9055,7 +9061,7 @@
     </row>
     <row r="227" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.01.2016</v>
       </c>
       <c r="B227" s="13"/>
@@ -9076,7 +9082,7 @@
     </row>
     <row r="228" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.01.2016</v>
       </c>
       <c r="B228" s="13"/>
@@ -9170,7 +9176,7 @@
     </row>
     <row r="232" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="str">
-        <f t="shared" ref="A232:A241" si="32">"23.06.2015"</f>
+        <f t="shared" ref="A232:A241" si="33">"23.06.2015"</f>
         <v>23.06.2015</v>
       </c>
       <c r="B232" s="13"/>
@@ -9191,7 +9197,7 @@
     </row>
     <row r="233" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B233" s="13"/>
@@ -9214,7 +9220,7 @@
     </row>
     <row r="234" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B234" s="13"/>
@@ -9237,7 +9243,7 @@
     </row>
     <row r="235" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B235" s="13"/>
@@ -9260,7 +9266,7 @@
     </row>
     <row r="236" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B236" s="13"/>
@@ -9283,7 +9289,7 @@
     </row>
     <row r="237" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B237" s="13"/>
@@ -9306,7 +9312,7 @@
     </row>
     <row r="238" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B238" s="13"/>
@@ -9329,7 +9335,7 @@
     </row>
     <row r="239" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B239" s="13"/>
@@ -9352,7 +9358,7 @@
     </row>
     <row r="240" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B240" s="13"/>
@@ -9375,7 +9381,7 @@
     </row>
     <row r="241" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.06.2015</v>
       </c>
       <c r="B241" s="13"/>
@@ -9494,7 +9500,7 @@
     </row>
     <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
-        <f t="shared" ref="A246:A252" si="33">"13.11.2014"</f>
+        <f t="shared" ref="A246:A252" si="34">"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
       <c r="B246" s="13"/>
@@ -9517,7 +9523,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.11.2014</v>
       </c>
       <c r="B247" s="13"/>
@@ -9540,7 +9546,7 @@
     </row>
     <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.11.2014</v>
       </c>
       <c r="B248" s="13"/>
@@ -9563,7 +9569,7 @@
     </row>
     <row r="249" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.11.2014</v>
       </c>
       <c r="B249" s="13"/>
@@ -9586,7 +9592,7 @@
     </row>
     <row r="250" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.11.2014</v>
       </c>
       <c r="B250" s="13"/>
@@ -9609,7 +9615,7 @@
     </row>
     <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.11.2014</v>
       </c>
       <c r="B251" s="13"/>
@@ -9632,7 +9638,7 @@
     </row>
     <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.11.2014</v>
       </c>
       <c r="B252" s="13"/>
@@ -9680,7 +9686,7 @@
     </row>
     <row r="254" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="str">
-        <f t="shared" ref="A254:A259" si="34">"02.10.2014"</f>
+        <f t="shared" ref="A254:A259" si="35">"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
       <c r="B254" s="13"/>
@@ -9703,7 +9709,7 @@
     </row>
     <row r="255" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>02.10.2014</v>
       </c>
       <c r="B255" s="13"/>
@@ -9726,7 +9732,7 @@
     </row>
     <row r="256" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>02.10.2014</v>
       </c>
       <c r="B256" s="13"/>
@@ -9749,7 +9755,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>02.10.2014</v>
       </c>
       <c r="B257" s="13"/>
@@ -9772,7 +9778,7 @@
     </row>
     <row r="258" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>02.10.2014</v>
       </c>
       <c r="B258" s="13"/>
@@ -9795,7 +9801,7 @@
     </row>
     <row r="259" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>02.10.2014</v>
       </c>
       <c r="B259" s="13"/>
@@ -9975,7 +9981,7 @@
     </row>
     <row r="267" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="str">
-        <f t="shared" ref="A267:A279" si="35">"04.06.2013"</f>
+        <f t="shared" ref="A267:A279" si="36">"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
       <c r="B267" s="13"/>
@@ -9998,7 +10004,7 @@
     </row>
     <row r="268" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B268" s="13"/>
@@ -10021,7 +10027,7 @@
     </row>
     <row r="269" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B269" s="13"/>
@@ -10044,7 +10050,7 @@
     </row>
     <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B270" s="13"/>
@@ -10067,7 +10073,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B271" s="13"/>
@@ -10090,7 +10096,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B272" s="13"/>
@@ -10113,7 +10119,7 @@
     </row>
     <row r="273" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B273" s="13"/>
@@ -10136,7 +10142,7 @@
     </row>
     <row r="274" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B274" s="13"/>
@@ -10159,7 +10165,7 @@
     </row>
     <row r="275" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B275" s="13"/>
@@ -10182,7 +10188,7 @@
     </row>
     <row r="276" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B276" s="13"/>
@@ -10205,7 +10211,7 @@
     </row>
     <row r="277" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B277" s="13"/>
@@ -10228,7 +10234,7 @@
     </row>
     <row r="278" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B278" s="13"/>
@@ -10251,7 +10257,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>04.06.2013</v>
       </c>
       <c r="B279" s="13"/>
@@ -10299,7 +10305,7 @@
     </row>
     <row r="281" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="str">
-        <f t="shared" ref="A281:A282" si="36">"28.11.2012"</f>
+        <f t="shared" ref="A281:A282" si="37">"28.11.2012"</f>
         <v>28.11.2012</v>
       </c>
       <c r="B281" s="13"/>
@@ -10322,7 +10328,7 @@
     </row>
     <row r="282" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>28.11.2012</v>
       </c>
       <c r="B282" s="13"/>
@@ -10370,7 +10376,7 @@
     </row>
     <row r="284" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="str">
-        <f t="shared" ref="A284:A287" si="37">"25.09.2012"</f>
+        <f t="shared" ref="A284:A287" si="38">"25.09.2012"</f>
         <v>25.09.2012</v>
       </c>
       <c r="B284" s="13"/>
@@ -10393,7 +10399,7 @@
     </row>
     <row r="285" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>25.09.2012</v>
       </c>
       <c r="B285" s="13"/>
@@ -10416,7 +10422,7 @@
     </row>
     <row r="286" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>25.09.2012</v>
       </c>
       <c r="B286" s="13"/>
@@ -10439,7 +10445,7 @@
     </row>
     <row r="287" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>25.09.2012</v>
       </c>
       <c r="B287" s="13"/>
@@ -10487,7 +10493,7 @@
     </row>
     <row r="289" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="str">
-        <f t="shared" ref="A289:A291" si="38">"09.07.2012"</f>
+        <f t="shared" ref="A289:A291" si="39">"09.07.2012"</f>
         <v>09.07.2012</v>
       </c>
       <c r="B289" s="13"/>
@@ -10510,7 +10516,7 @@
     </row>
     <row r="290" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>09.07.2012</v>
       </c>
       <c r="B290" s="13"/>
@@ -10531,7 +10537,7 @@
     </row>
     <row r="291" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>09.07.2012</v>
       </c>
       <c r="B291" s="13"/>
@@ -10646,7 +10652,7 @@
     </row>
     <row r="296" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="str">
-        <f t="shared" ref="A296:A302" si="39">"16.09.2011"</f>
+        <f t="shared" ref="A296:A302" si="40">"16.09.2011"</f>
         <v>16.09.2011</v>
       </c>
       <c r="B296" s="13"/>
@@ -10669,7 +10675,7 @@
     </row>
     <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16.09.2011</v>
       </c>
       <c r="B297" s="13"/>
@@ -10692,7 +10698,7 @@
     </row>
     <row r="298" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16.09.2011</v>
       </c>
       <c r="B298" s="13"/>
@@ -10713,7 +10719,7 @@
     </row>
     <row r="299" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16.09.2011</v>
       </c>
       <c r="B299" s="13"/>
@@ -10736,7 +10742,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16.09.2011</v>
       </c>
       <c r="B300" s="13"/>
@@ -10759,7 +10765,7 @@
     </row>
     <row r="301" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16.09.2011</v>
       </c>
       <c r="B301" s="13"/>
@@ -10780,7 +10786,7 @@
     </row>
     <row r="302" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>16.09.2011</v>
       </c>
       <c r="B302" s="13"/>
@@ -10828,7 +10834,7 @@
     </row>
     <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="str">
-        <f t="shared" ref="A304:A306" si="40">"21.07.2011"</f>
+        <f t="shared" ref="A304:A306" si="41">"21.07.2011"</f>
         <v>21.07.2011</v>
       </c>
       <c r="B304" s="13"/>
@@ -10851,7 +10857,7 @@
     </row>
     <row r="305" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21.07.2011</v>
       </c>
       <c r="B305" s="13"/>
@@ -10874,7 +10880,7 @@
     </row>
     <row r="306" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21.07.2011</v>
       </c>
       <c r="B306" s="13"/>
@@ -10922,7 +10928,7 @@
     </row>
     <row r="308" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="str">
-        <f t="shared" ref="A308:A315" si="41">"10.05.2011"</f>
+        <f t="shared" ref="A308:A315" si="42">"10.05.2011"</f>
         <v>10.05.2011</v>
       </c>
       <c r="B308" s="13"/>
@@ -10945,7 +10951,7 @@
     </row>
     <row r="309" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B309" s="13"/>
@@ -10968,7 +10974,7 @@
     </row>
     <row r="310" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B310" s="13"/>
@@ -10991,7 +10997,7 @@
     </row>
     <row r="311" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B311" s="13"/>
@@ -11014,7 +11020,7 @@
     </row>
     <row r="312" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B312" s="13"/>
@@ -11037,7 +11043,7 @@
     </row>
     <row r="313" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B313" s="13"/>
@@ -11060,7 +11066,7 @@
     </row>
     <row r="314" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B314" s="13"/>
@@ -11083,7 +11089,7 @@
     </row>
     <row r="315" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.05.2011</v>
       </c>
       <c r="B315" s="13"/>
@@ -11131,7 +11137,7 @@
     </row>
     <row r="317" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="str">
-        <f t="shared" ref="A317:A320" si="42">"07.05.2011"</f>
+        <f t="shared" ref="A317:A320" si="43">"07.05.2011"</f>
         <v>07.05.2011</v>
       </c>
       <c r="B317" s="13"/>
@@ -11154,7 +11160,7 @@
     </row>
     <row r="318" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>07.05.2011</v>
       </c>
       <c r="B318" s="13"/>
@@ -11175,7 +11181,7 @@
     </row>
     <row r="319" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>07.05.2011</v>
       </c>
       <c r="B319" s="13"/>
@@ -11198,7 +11204,7 @@
     </row>
     <row r="320" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>07.05.2011</v>
       </c>
       <c r="B320" s="13"/>
@@ -11337,7 +11343,7 @@
     </row>
     <row r="326" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="str">
-        <f t="shared" ref="A326:A335" si="43">"04.10.2010"</f>
+        <f t="shared" ref="A326:A335" si="44">"04.10.2010"</f>
         <v>04.10.2010</v>
       </c>
       <c r="B326" s="13"/>
@@ -11359,7 +11365,7 @@
     </row>
     <row r="327" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B327" s="13"/>
@@ -11381,7 +11387,7 @@
     </row>
     <row r="328" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B328" s="13"/>
@@ -11403,7 +11409,7 @@
     </row>
     <row r="329" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B329" s="13"/>
@@ -11426,7 +11432,7 @@
     </row>
     <row r="330" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B330" s="13"/>
@@ -11451,7 +11457,7 @@
     </row>
     <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B331" s="13"/>
@@ -11476,7 +11482,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B332" s="13"/>
@@ -11496,7 +11502,7 @@
     </row>
     <row r="333" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B333" s="13"/>
@@ -11521,7 +11527,7 @@
     </row>
     <row r="334" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B334" s="13"/>
@@ -11544,7 +11550,7 @@
     </row>
     <row r="335" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>04.10.2010</v>
       </c>
       <c r="B335" s="13"/>
@@ -11594,7 +11600,7 @@
     </row>
     <row r="337" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="str">
-        <f t="shared" ref="A337:A342" si="44">"24.06.2010"</f>
+        <f t="shared" ref="A337:A342" si="45">"24.06.2010"</f>
         <v>24.06.2010</v>
       </c>
       <c r="B337" s="13"/>
@@ -11617,7 +11623,7 @@
     </row>
     <row r="338" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24.06.2010</v>
       </c>
       <c r="B338" s="13"/>
@@ -11640,7 +11646,7 @@
     </row>
     <row r="339" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24.06.2010</v>
       </c>
       <c r="B339" s="13"/>
@@ -11663,7 +11669,7 @@
     </row>
     <row r="340" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24.06.2010</v>
       </c>
       <c r="B340" s="13"/>
@@ -11686,7 +11692,7 @@
     </row>
     <row r="341" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24.06.2010</v>
       </c>
       <c r="B341" s="13"/>
@@ -11709,7 +11715,7 @@
     </row>
     <row r="342" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24.06.2010</v>
       </c>
       <c r="B342" s="13"/>
@@ -11807,7 +11813,7 @@
     </row>
     <row r="346" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="str">
-        <f t="shared" ref="A346:A351" si="45">"12.03.2010"</f>
+        <f t="shared" ref="A346:A351" si="46">"12.03.2010"</f>
         <v>12.03.2010</v>
       </c>
       <c r="B346" s="13"/>
@@ -11830,7 +11836,7 @@
     </row>
     <row r="347" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12.03.2010</v>
       </c>
       <c r="B347" s="13"/>
@@ -11853,7 +11859,7 @@
     </row>
     <row r="348" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12.03.2010</v>
       </c>
       <c r="B348" s="13"/>
@@ -11876,7 +11882,7 @@
     </row>
     <row r="349" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12.03.2010</v>
       </c>
       <c r="B349" s="13"/>
@@ -11899,7 +11905,7 @@
     </row>
     <row r="350" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12.03.2010</v>
       </c>
       <c r="B350" s="13"/>
@@ -11922,7 +11928,7 @@
     </row>
     <row r="351" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12.03.2010</v>
       </c>
       <c r="B351" s="13"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1051">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -1653,9 +1653,6 @@
     <t>Model-based public health impact and cost-effectiveness estimates informing the WHO recommendation on malaria vaccine RTS</t>
   </si>
   <si>
-    <t>Designing in Treatment Switching (case study review and recommendations) (presentation not available)</t>
-  </si>
-  <si>
     <t>Practical aspects of handling treatment switching in randomized clinical trials</t>
   </si>
   <si>
@@ -3172,6 +3169,9 @@
   </si>
   <si>
     <t>Panel discussion</t>
+  </si>
+  <si>
+    <t>Designing in Treatment Switching (case study review and recommendations)</t>
   </si>
 </sst>
 </file>
@@ -3636,8 +3636,8 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,7 +3667,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>318</v>
@@ -3697,10 +3697,10 @@
         <v>15.07.2022</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3711,13 +3711,13 @@
         <v>484</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3735,13 +3735,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>1040</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>1041</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>234</v>
@@ -3753,7 +3753,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3762,16 +3762,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3789,16 +3789,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3816,16 +3816,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3843,11 +3843,11 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="15" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3857,10 +3857,10 @@
         <v>23.06.2022</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3871,7 +3871,7 @@
         <v>209</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>35</v>
@@ -3884,7 +3884,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3893,13 +3893,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>1006</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -3909,7 +3909,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3918,16 +3918,16 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>1009</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3945,16 +3945,16 @@
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>1012</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3972,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>1015</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3999,16 +3999,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>1018</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4026,16 +4026,16 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="14" t="s">
         <v>1020</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>1021</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4053,13 +4053,13 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="14" t="s">
         <v>1023</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>1024</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -4069,20 +4069,20 @@
         <v>24.05.2022</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>999</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1000</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>66</v>
@@ -4105,37 +4105,37 @@
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>998</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>988</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>69</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4157,16 +4157,16 @@
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>987</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>21.02.2022</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>976</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>977</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4186,16 +4186,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -4211,16 +4211,16 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4236,16 +4236,16 @@
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4261,16 +4261,16 @@
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7542,13 +7542,13 @@
         <v>1</v>
       </c>
       <c r="G160" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="H160" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="I160" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="J160" s="16"/>
     </row>
@@ -7565,13 +7565,13 @@
         <v>2</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J161" s="16"/>
     </row>
@@ -7594,7 +7594,7 @@
         <v>66</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J162" s="16"/>
     </row>
@@ -7613,13 +7613,13 @@
         <v>1</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J163" s="16"/>
     </row>
@@ -7636,13 +7636,13 @@
         <v>2</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J164" s="16"/>
     </row>
@@ -7659,13 +7659,13 @@
         <v>3</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J165" s="16"/>
     </row>
@@ -7682,13 +7682,13 @@
         <v>4</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J166" s="16"/>
     </row>
@@ -7705,13 +7705,13 @@
         <v>5</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J167" s="16"/>
     </row>
@@ -7728,13 +7728,13 @@
         <v>6</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J168" s="16"/>
     </row>
@@ -7757,7 +7757,7 @@
         <v>69</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J169" s="16"/>
     </row>
@@ -7774,13 +7774,13 @@
         <v>8</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J170" s="16"/>
     </row>
@@ -8204,13 +8204,13 @@
         <v>1</v>
       </c>
       <c r="G189" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="H189" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="H189" s="8" t="s">
-        <v>919</v>
-      </c>
       <c r="I189" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J189" s="12"/>
     </row>
@@ -8233,10 +8233,10 @@
         <v>66</v>
       </c>
       <c r="I190" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8366,13 +8366,13 @@
         <v>1</v>
       </c>
       <c r="G196" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="H196" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="H196" s="8" t="s">
+      <c r="I196" s="15" t="s">
         <v>922</v>
-      </c>
-      <c r="I196" s="15" t="s">
-        <v>923</v>
       </c>
       <c r="J196" s="12"/>
     </row>
@@ -8389,13 +8389,13 @@
         <v>2</v>
       </c>
       <c r="G197" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="H197" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="H197" s="8" t="s">
+      <c r="I197" s="15" t="s">
         <v>925</v>
-      </c>
-      <c r="I197" s="15" t="s">
-        <v>926</v>
       </c>
       <c r="J197" s="12"/>
     </row>
@@ -8412,13 +8412,13 @@
         <v>3</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J198" s="12"/>
     </row>
@@ -8435,13 +8435,13 @@
         <v>4</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H199" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="I199" s="15" t="s">
         <v>929</v>
-      </c>
-      <c r="I199" s="15" t="s">
-        <v>930</v>
       </c>
       <c r="J199" s="12"/>
     </row>
@@ -8460,13 +8460,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H200" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="H200" s="8" t="s">
+      <c r="I200" s="15" t="s">
         <v>932</v>
-      </c>
-      <c r="I200" s="15" t="s">
-        <v>933</v>
       </c>
       <c r="J200" s="12"/>
     </row>
@@ -8489,7 +8489,7 @@
         <v>69</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J201" s="12"/>
     </row>
@@ -8506,13 +8506,13 @@
         <v>3</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J202" s="12"/>
     </row>
@@ -8531,13 +8531,13 @@
         <v>1</v>
       </c>
       <c r="G203" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="H203" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="H203" s="8" t="s">
+      <c r="I203" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="I203" s="15" t="s">
-        <v>939</v>
       </c>
       <c r="J203" s="12"/>
     </row>
@@ -8554,13 +8554,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="I204" s="15" t="s">
         <v>940</v>
-      </c>
-      <c r="H204" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I204" s="15" t="s">
-        <v>941</v>
       </c>
       <c r="J204" s="12"/>
     </row>
@@ -8577,13 +8577,13 @@
         <v>3</v>
       </c>
       <c r="G205" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="H205" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="H205" s="8" t="s">
+      <c r="I205" s="15" t="s">
         <v>943</v>
-      </c>
-      <c r="I205" s="15" t="s">
-        <v>944</v>
       </c>
       <c r="J205" s="12"/>
     </row>
@@ -8600,13 +8600,13 @@
         <v>4</v>
       </c>
       <c r="G206" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="H206" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="I206" s="15" t="s">
         <v>946</v>
-      </c>
-      <c r="I206" s="15" t="s">
-        <v>947</v>
       </c>
       <c r="J206" s="12"/>
     </row>
@@ -8629,7 +8629,7 @@
         <v>69</v>
       </c>
       <c r="I207" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J207" s="12"/>
     </row>
@@ -8646,13 +8646,13 @@
         <v>6</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J208" s="12"/>
     </row>
@@ -8788,7 +8788,7 @@
         <v>542</v>
       </c>
       <c r="J214" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -8811,7 +8811,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
         <f t="shared" si="31"/>
         <v>28.04.2016</v>
@@ -8828,7 +8828,10 @@
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="1" t="s">
-        <v>544</v>
+        <v>1050</v>
+      </c>
+      <c r="J216" s="7" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8848,10 +8851,10 @@
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J217" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8871,10 +8874,10 @@
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8894,10 +8897,10 @@
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8917,7 +8920,7 @@
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J220" s="9"/>
     </row>
@@ -8938,10 +8941,10 @@
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -8961,7 +8964,7 @@
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J222" s="9"/>
     </row>
@@ -8971,7 +8974,7 @@
         <v>13.01.2016</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -8984,10 +8987,10 @@
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -9003,14 +9006,14 @@
         <v>2</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9026,14 +9029,14 @@
         <v>3</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J225" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9049,14 +9052,14 @@
         <v>4</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -9072,11 +9075,11 @@
         <v>5</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J227" s="9"/>
     </row>
@@ -9093,14 +9096,14 @@
         <v>6</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9109,7 +9112,7 @@
         <v>27.10.2015</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -9122,7 +9125,7 @@
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J229" s="9" t="s">
         <v>169</v>
@@ -9145,7 +9148,7 @@
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J230" s="9"/>
     </row>
@@ -9155,7 +9158,7 @@
         <v>23.06.2015</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -9164,13 +9167,13 @@
         <v>1</v>
       </c>
       <c r="G231" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H231" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>953</v>
-      </c>
       <c r="I231" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J231" s="9"/>
     </row>
@@ -9187,11 +9190,11 @@
         <v>2</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J232" s="9"/>
     </row>
@@ -9208,13 +9211,13 @@
         <v>3</v>
       </c>
       <c r="G233" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="H233" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="H233" s="4" t="s">
+      <c r="I233" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="J233" s="9"/>
     </row>
@@ -9231,13 +9234,13 @@
         <v>4</v>
       </c>
       <c r="G234" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="H234" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="H234" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="I234" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J234" s="9"/>
     </row>
@@ -9254,13 +9257,13 @@
         <v>5</v>
       </c>
       <c r="G235" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="H235" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="H235" s="4" t="s">
-        <v>964</v>
-      </c>
       <c r="I235" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J235" s="9"/>
     </row>
@@ -9277,13 +9280,13 @@
         <v>6</v>
       </c>
       <c r="G236" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="I236" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="J236" s="9"/>
     </row>
@@ -9300,13 +9303,13 @@
         <v>7</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J237" s="9"/>
     </row>
@@ -9323,13 +9326,13 @@
         <v>8</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J238" s="9"/>
     </row>
@@ -9346,13 +9349,13 @@
         <v>9</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J239" s="9"/>
     </row>
@@ -9369,13 +9372,13 @@
         <v>10</v>
       </c>
       <c r="G240" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="I240" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="J240" s="9"/>
     </row>
@@ -9392,13 +9395,13 @@
         <v>11</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J241" s="9"/>
     </row>
@@ -9408,7 +9411,7 @@
         <v>13.04.2015</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -9417,11 +9420,11 @@
         <v>1</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J242" s="9" t="s">
         <v>478</v>
@@ -9440,14 +9443,14 @@
         <v>2</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9467,10 +9470,10 @@
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9479,7 +9482,7 @@
         <v>13.11.2014</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -9488,14 +9491,14 @@
         <v>1</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9511,14 +9514,14 @@
         <v>2</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -9538,10 +9541,10 @@
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9557,14 +9560,14 @@
         <v>4</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9580,14 +9583,14 @@
         <v>5</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9603,14 +9606,14 @@
         <v>6</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9626,14 +9629,14 @@
         <v>7</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9649,14 +9652,14 @@
         <v>8</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9665,7 +9668,7 @@
         <v>02.10.2014</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -9674,11 +9677,11 @@
         <v>1</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J253" s="9" t="s">
         <v>493</v>
@@ -9697,14 +9700,14 @@
         <v>2</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H254" s="4"/>
       <c r="I254" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9720,14 +9723,14 @@
         <v>3</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H255" s="4"/>
       <c r="I255" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9743,14 +9746,14 @@
         <v>4</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H256" s="4"/>
       <c r="I256" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J256" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -9766,14 +9769,14 @@
         <v>5</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H257" s="4"/>
       <c r="I257" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J257" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9789,14 +9792,14 @@
         <v>6</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H258" s="4"/>
       <c r="I258" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J258" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9812,14 +9815,14 @@
         <v>7</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H259" s="4"/>
       <c r="I259" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J259" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9828,7 +9831,7 @@
         <v>07.05.2014</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -9837,11 +9840,11 @@
         <v>1</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H260" s="4"/>
       <c r="I260" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J260" s="9"/>
     </row>
@@ -9870,7 +9873,7 @@
         <v>04.02.2014</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -9889,7 +9892,7 @@
         <v>18.06.2013</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -9898,14 +9901,14 @@
         <v>1</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H263" s="4"/>
       <c r="I263" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J263" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9921,11 +9924,11 @@
         <v>2</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H264" s="4"/>
       <c r="I264" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>309</v>
@@ -9944,14 +9947,14 @@
         <v>3</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H265" s="4"/>
       <c r="I265" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9960,7 +9963,7 @@
         <v>04.06.2013</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -9969,14 +9972,14 @@
         <v>1</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H266" s="4"/>
       <c r="I266" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J266" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9996,10 +9999,10 @@
       </c>
       <c r="H267" s="4"/>
       <c r="I267" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10015,14 +10018,14 @@
         <v>3</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H268" s="4"/>
       <c r="I268" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10038,14 +10041,14 @@
         <v>4</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H269" s="4"/>
       <c r="I269" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10061,14 +10064,14 @@
         <v>5</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H270" s="4"/>
       <c r="I270" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -10084,14 +10087,14 @@
         <v>6</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H271" s="4"/>
       <c r="I271" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J271" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -10107,14 +10110,14 @@
         <v>7</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H272" s="4"/>
       <c r="I272" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J272" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10130,14 +10133,14 @@
         <v>8</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H273" s="4"/>
       <c r="I273" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J273" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10157,10 +10160,10 @@
       </c>
       <c r="H274" s="4"/>
       <c r="I274" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J274" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10176,14 +10179,14 @@
         <v>10</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H275" s="4"/>
       <c r="I275" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J275" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10199,14 +10202,14 @@
         <v>11</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H276" s="4"/>
       <c r="I276" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J276" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10222,14 +10225,14 @@
         <v>12</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H277" s="4"/>
       <c r="I277" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10249,10 +10252,10 @@
       </c>
       <c r="H278" s="4"/>
       <c r="I278" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J278" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -10272,10 +10275,10 @@
       </c>
       <c r="H279" s="4"/>
       <c r="I279" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10284,7 +10287,7 @@
         <v>28.11.2012</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -10293,13 +10296,13 @@
         <v>1</v>
       </c>
       <c r="G280" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="H280" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="H280" s="4" t="s">
-        <v>683</v>
-      </c>
       <c r="I280" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J280" s="9"/>
     </row>
@@ -10316,13 +10319,13 @@
         <v>2</v>
       </c>
       <c r="G281" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H281" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="H281" s="4" t="s">
-        <v>685</v>
-      </c>
       <c r="I281" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J281" s="9"/>
     </row>
@@ -10339,13 +10342,13 @@
         <v>3</v>
       </c>
       <c r="G282" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="H282" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="H282" s="4" t="s">
+      <c r="I282" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="J282" s="9"/>
     </row>
@@ -10355,7 +10358,7 @@
         <v>25.09.2012</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -10364,14 +10367,14 @@
         <v>1</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H283" s="4"/>
       <c r="I283" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J283" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10387,14 +10390,14 @@
         <v>2</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H284" s="4"/>
       <c r="I284" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J284" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10410,14 +10413,14 @@
         <v>3</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H285" s="4"/>
       <c r="I285" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J285" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10437,10 +10440,10 @@
       </c>
       <c r="H286" s="4"/>
       <c r="I286" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J286" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10460,7 +10463,7 @@
       </c>
       <c r="H287" s="4"/>
       <c r="I287" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>219</v>
@@ -10472,7 +10475,7 @@
         <v>09.07.2012</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -10481,14 +10484,14 @@
         <v>1</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H288" s="4"/>
       <c r="I288" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J288" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10504,14 +10507,14 @@
         <v>2</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H289" s="4"/>
       <c r="I289" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J289" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10527,11 +10530,11 @@
         <v>3</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H290" s="4"/>
       <c r="I290" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J290" s="9"/>
     </row>
@@ -10548,14 +10551,14 @@
         <v>4</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H291" s="4"/>
       <c r="I291" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J291" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10564,7 +10567,7 @@
         <v>22.05.2012</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -10583,7 +10586,7 @@
         <v>29.11.2011</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -10592,13 +10595,13 @@
         <v>1</v>
       </c>
       <c r="G293" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="H293" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="H293" s="4" t="s">
+      <c r="I293" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="I293" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="J293" s="9"/>
     </row>
@@ -10621,7 +10624,7 @@
         <v>69</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J294" s="9"/>
     </row>
@@ -10631,7 +10634,7 @@
         <v>16.09.2011</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -10640,14 +10643,14 @@
         <v>1</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H295" s="4"/>
       <c r="I295" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J295" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10663,14 +10666,14 @@
         <v>2</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H296" s="4"/>
       <c r="I296" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J296" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10686,14 +10689,14 @@
         <v>3</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H297" s="4"/>
       <c r="I297" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10709,11 +10712,11 @@
         <v>4</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H298" s="4"/>
       <c r="I298" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J298" s="9"/>
     </row>
@@ -10730,14 +10733,14 @@
         <v>5</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H299" s="4"/>
       <c r="I299" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -10753,14 +10756,14 @@
         <v>6</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H300" s="4"/>
       <c r="I300" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10776,11 +10779,11 @@
         <v>7</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H301" s="4"/>
       <c r="I301" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J301" s="9"/>
     </row>
@@ -10797,14 +10800,14 @@
         <v>8</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H302" s="4"/>
       <c r="I302" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J302" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10813,7 +10816,7 @@
         <v>21.07.2011</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -10822,14 +10825,14 @@
         <v>1</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H303" s="4"/>
       <c r="I303" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J303" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10845,14 +10848,14 @@
         <v>2</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J304" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10868,14 +10871,14 @@
         <v>3</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H305" s="4"/>
       <c r="I305" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J305" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10891,14 +10894,14 @@
         <v>4</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H306" s="4"/>
       <c r="I306" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J306" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -10907,7 +10910,7 @@
         <v>10.05.2011</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -10920,7 +10923,7 @@
       </c>
       <c r="H307" s="4"/>
       <c r="I307" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>215</v>
@@ -10939,14 +10942,14 @@
         <v>2</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H308" s="4"/>
       <c r="I308" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J308" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10962,14 +10965,14 @@
         <v>3</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H309" s="4"/>
       <c r="I309" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J309" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10985,14 +10988,14 @@
         <v>4</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H310" s="4"/>
       <c r="I310" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J310" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11008,14 +11011,14 @@
         <v>5</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H311" s="4"/>
       <c r="I311" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J311" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11031,14 +11034,14 @@
         <v>6</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H312" s="4"/>
       <c r="I312" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J312" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11054,14 +11057,14 @@
         <v>7</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H313" s="4"/>
       <c r="I313" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J313" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11077,14 +11080,14 @@
         <v>8</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H314" s="4"/>
       <c r="I314" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J314" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11100,14 +11103,14 @@
         <v>9</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H315" s="4"/>
       <c r="I315" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J315" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11116,7 +11119,7 @@
         <v>07.05.2011</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -11125,14 +11128,14 @@
         <v>1</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H316" s="4"/>
       <c r="I316" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J316" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11148,14 +11151,14 @@
         <v>2</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H317" s="4"/>
       <c r="I317" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J317" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11171,11 +11174,11 @@
         <v>3</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H318" s="4"/>
       <c r="I318" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J318" s="9"/>
     </row>
@@ -11192,14 +11195,14 @@
         <v>4</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H319" s="4"/>
       <c r="I319" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J319" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11215,14 +11218,14 @@
         <v>5</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H320" s="4"/>
       <c r="I320" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J320" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11231,7 +11234,7 @@
         <v>13.01.2011</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -11240,14 +11243,14 @@
         <v>1</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H321" s="4"/>
       <c r="I321" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J321" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11263,11 +11266,11 @@
         <v>2</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H322" s="4"/>
       <c r="I322" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>309</v>
@@ -11279,7 +11282,7 @@
         <v>30.11.2010</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -11288,11 +11291,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H323" s="4"/>
       <c r="I323" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J323" s="9"/>
     </row>
@@ -11309,11 +11312,11 @@
         <v>2</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J324" s="9"/>
     </row>
@@ -11323,7 +11326,7 @@
         <v>04.10.2010</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -11332,13 +11335,13 @@
         <v>1</v>
       </c>
       <c r="G325" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="H325" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="H325" s="4" t="s">
+      <c r="I325" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11354,13 +11357,13 @@
         <v>2</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11382,7 +11385,7 @@
         <v>69</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11398,13 +11401,13 @@
         <v>4</v>
       </c>
       <c r="G328" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="H328" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="H328" s="4" t="s">
+      <c r="I328" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11423,10 +11426,10 @@
         <v>10</v>
       </c>
       <c r="H329" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="I329" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="J329" s="9"/>
     </row>
@@ -11443,16 +11446,16 @@
         <v>6</v>
       </c>
       <c r="G330" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="H330" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="H330" s="4" t="s">
+      <c r="I330" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="I330" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="J330" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11468,16 +11471,16 @@
         <v>7</v>
       </c>
       <c r="G331" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="H331" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="H331" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>818</v>
-      </c>
       <c r="J331" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -11516,13 +11519,13 @@
         <v>483</v>
       </c>
       <c r="H333" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I333" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="I333" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="J333" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11538,13 +11541,13 @@
         <v>10</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H334" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J334" s="9"/>
     </row>
@@ -11561,16 +11564,16 @@
         <v>11</v>
       </c>
       <c r="G335" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="H335" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="I335" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="H335" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="I335" s="1" t="s">
+      <c r="J335" s="9" t="s">
         <v>825</v>
-      </c>
-      <c r="J335" s="9" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11579,7 +11582,7 @@
         <v>24.06.2010</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -11588,13 +11591,13 @@
         <v>1</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J336" s="9"/>
     </row>
@@ -11614,10 +11617,10 @@
         <v>41</v>
       </c>
       <c r="H337" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="I337" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="J337" s="9"/>
     </row>
@@ -11634,13 +11637,13 @@
         <v>3</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H338" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J338" s="9"/>
     </row>
@@ -11657,13 +11660,13 @@
         <v>4</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H339" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J339" s="9"/>
     </row>
@@ -11680,13 +11683,13 @@
         <v>5</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J340" s="9"/>
     </row>
@@ -11703,13 +11706,13 @@
         <v>6</v>
       </c>
       <c r="G341" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="H341" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="H341" s="4" t="s">
-        <v>845</v>
-      </c>
       <c r="I341" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J341" s="9"/>
     </row>
@@ -11726,13 +11729,13 @@
         <v>7</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J342" s="9"/>
     </row>
@@ -11742,7 +11745,7 @@
         <v>28.04.2010</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -11751,13 +11754,13 @@
         <v>1</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H343" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J343" s="9"/>
     </row>
@@ -11774,16 +11777,16 @@
         <v>2</v>
       </c>
       <c r="G344" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="I344" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="H344" s="4" t="s">
+      <c r="J344" s="9" t="s">
         <v>852</v>
-      </c>
-      <c r="I344" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="J344" s="9" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11792,7 +11795,7 @@
         <v>12.03.2010</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -11801,14 +11804,14 @@
         <v>1</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H345" s="4"/>
       <c r="I345" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J345" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11824,14 +11827,14 @@
         <v>2</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H346" s="4"/>
       <c r="I346" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J346" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11847,14 +11850,14 @@
         <v>3</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H347" s="4"/>
       <c r="I347" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J347" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11870,14 +11873,14 @@
         <v>4</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H348" s="4"/>
       <c r="I348" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J348" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11893,14 +11896,14 @@
         <v>5</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H349" s="4"/>
       <c r="I349" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J349" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11916,14 +11919,14 @@
         <v>6</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H350" s="4"/>
       <c r="I350" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J350" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11939,14 +11942,14 @@
         <v>7</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H351" s="4"/>
       <c r="I351" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J351" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11955,7 +11958,7 @@
         <v>12.01.2010</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -11964,13 +11967,13 @@
         <v>1</v>
       </c>
       <c r="G352" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H352" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="I352" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="H352" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="J352" s="9"/>
     </row>
@@ -11990,10 +11993,10 @@
         <v>177</v>
       </c>
       <c r="H353" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J353" s="9"/>
     </row>
@@ -12003,7 +12006,7 @@
         <v>07.12.2009</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -12012,13 +12015,13 @@
         <v>1</v>
       </c>
       <c r="G354" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="H354" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="H354" s="4" t="s">
+      <c r="I354" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="I354" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="J354" s="9"/>
     </row>
@@ -12035,13 +12038,13 @@
         <v>2</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H355" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J355" s="9"/>
     </row>
@@ -12051,7 +12054,7 @@
         <v>26.10.2009</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -12060,13 +12063,13 @@
         <v>1</v>
       </c>
       <c r="G356" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="H356" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="H356" s="4" t="s">
+      <c r="I356" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="I356" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="J356" s="9"/>
     </row>
@@ -12089,7 +12092,7 @@
         <v>69</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J357" s="9"/>
     </row>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -870,9 +870,6 @@
     <t>Bartosz Jenner</t>
   </si>
   <si>
-    <t xml:space="preserve"> An experience with indirect treatment comparisons using MAIC methods in a rare disease (slide deck not available)</t>
-  </si>
-  <si>
     <t>Marius Thomas</t>
   </si>
   <si>
@@ -1668,9 +1665,6 @@
     <t>Bayesian dual endpoint decision making in combination studies</t>
   </si>
   <si>
-    <t>Bayesian approach for Combination Phase I Trials in Oncology (presentation not available)</t>
-  </si>
-  <si>
     <t>2_Neuenschwander.pdf</t>
   </si>
   <si>
@@ -1716,9 +1710,6 @@
     <t>Use of Registries to Collect Pregnancy Data</t>
   </si>
   <si>
-    <t>Registries in Rare Diseases / Orphan Drugs along with 2 Case Studies – presentation currently not available</t>
-  </si>
-  <si>
     <t>Leveraging Real‐World Registry Data to Optimize the Design of Phase 3 Studies – a Case Study in Schizophrenia</t>
   </si>
   <si>
@@ -3172,6 +3163,15 @@
   </si>
   <si>
     <t>Designing in Treatment Switching (case study review and recommendations)</t>
+  </si>
+  <si>
+    <t>Bayesian approach for Combination Phase I Trials in Oncology</t>
+  </si>
+  <si>
+    <t>Registries in Rare Diseases / Orphan Drugs along with 2 Case Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An experience with indirect treatment comparisons using MAIC methods in a rare disease</t>
   </si>
 </sst>
 </file>
@@ -3636,8 +3636,8 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J217" sqref="J217"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,10 +3667,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3688,7 +3688,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3697,10 +3697,10 @@
         <v>15.07.2022</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3708,16 +3708,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3735,13 +3735,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>234</v>
@@ -3753,7 +3753,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3762,16 +3762,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3789,16 +3789,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3816,16 +3816,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3843,11 +3843,11 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="15" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3857,10 +3857,10 @@
         <v>23.06.2022</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3871,7 +3871,7 @@
         <v>209</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>35</v>
@@ -3884,7 +3884,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3893,13 +3893,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -3909,7 +3909,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3918,16 +3918,16 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3945,16 +3945,16 @@
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3972,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3999,16 +3999,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4026,16 +4026,16 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4053,13 +4053,13 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -4069,20 +4069,20 @@
         <v>24.05.2022</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>66</v>
@@ -4105,37 +4105,37 @@
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>69</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4157,16 +4157,16 @@
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>21.02.2022</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4186,16 +4186,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -4211,16 +4211,16 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4236,16 +4236,16 @@
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4261,16 +4261,16 @@
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5567,7 +5567,7 @@
         <v>191</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>261</v>
@@ -6175,7 +6175,7 @@
         <v>276</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6198,7 +6198,7 @@
         <v>278</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6221,7 +6221,7 @@
         <v>280</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -6241,13 +6241,13 @@
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
         <f t="shared" si="14"/>
         <v>04.02.2020</v>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="17" t="s">
-        <v>283</v>
+        <v>1050</v>
       </c>
       <c r="J102" s="16"/>
     </row>
@@ -6281,11 +6281,11 @@
         <v>6</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J103" s="16"/>
     </row>
@@ -6295,25 +6295,25 @@
         <v>01.11.2019</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6329,14 +6329,14 @@
         <v>2</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -6352,14 +6352,14 @@
         <v>3</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6375,14 +6375,14 @@
         <v>4</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6402,10 +6402,10 @@
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -6421,11 +6421,11 @@
         <v>6</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6441,14 +6441,14 @@
         <v>7</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6464,14 +6464,14 @@
         <v>8</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6487,14 +6487,14 @@
         <v>9</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6503,7 +6503,7 @@
         <v>21.08.2019</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -6512,13 +6512,13 @@
         <v>1</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I113" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="I113" s="17" t="s">
-        <v>322</v>
-      </c>
       <c r="J113" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -6534,13 +6534,13 @@
         <v>2</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I114" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="I114" s="17" t="s">
-        <v>324</v>
-      </c>
       <c r="J114" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6556,10 +6556,10 @@
         <v>3</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I115" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="I115" s="17" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6575,10 +6575,10 @@
         <v>4</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J116" s="16"/>
     </row>
@@ -6595,10 +6595,10 @@
         <v>5</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J117" s="16"/>
     </row>
@@ -6618,7 +6618,7 @@
         <v>146</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J118" s="16"/>
     </row>
@@ -6638,10 +6638,10 @@
         <v>179</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -6650,7 +6650,7 @@
         <v>04.06.2019</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -6659,10 +6659,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6678,13 +6678,13 @@
         <v>2</v>
       </c>
       <c r="G121" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I121" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="I121" s="17" t="s">
-        <v>339</v>
-      </c>
       <c r="J121" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6700,13 +6700,13 @@
         <v>3</v>
       </c>
       <c r="G122" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I122" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="I122" s="17" t="s">
-        <v>341</v>
-      </c>
       <c r="J122" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6722,13 +6722,13 @@
         <v>4</v>
       </c>
       <c r="G123" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I123" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="I123" s="17" t="s">
-        <v>343</v>
-      </c>
       <c r="J123" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6744,13 +6744,13 @@
         <v>5</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6766,13 +6766,13 @@
         <v>6</v>
       </c>
       <c r="G125" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I125" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="I125" s="17" t="s">
-        <v>346</v>
-      </c>
       <c r="J125" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6788,13 +6788,13 @@
         <v>7</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I126" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="I126" s="17" t="s">
-        <v>348</v>
-      </c>
       <c r="J126" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6810,13 +6810,13 @@
         <v>8</v>
       </c>
       <c r="G127" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I127" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="I127" s="17" t="s">
-        <v>350</v>
-      </c>
       <c r="J127" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -6825,7 +6825,7 @@
         <v>10.05.2019</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -6834,13 +6834,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I128" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="I128" s="17" t="s">
-        <v>362</v>
-      </c>
       <c r="J128" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6856,13 +6856,13 @@
         <v>2</v>
       </c>
       <c r="G129" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I129" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="I129" s="17" t="s">
-        <v>364</v>
-      </c>
       <c r="J129" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6878,13 +6878,13 @@
         <v>3</v>
       </c>
       <c r="G130" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I130" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="I130" s="17" t="s">
-        <v>366</v>
-      </c>
       <c r="J130" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6900,13 +6900,13 @@
         <v>4</v>
       </c>
       <c r="G131" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I131" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="I131" s="17" t="s">
-        <v>368</v>
-      </c>
       <c r="J131" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6922,13 +6922,13 @@
         <v>5</v>
       </c>
       <c r="G132" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I132" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="I132" s="17" t="s">
-        <v>370</v>
-      </c>
       <c r="J132" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -6944,13 +6944,13 @@
         <v>6</v>
       </c>
       <c r="G133" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I133" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="I133" s="17" t="s">
-        <v>372</v>
-      </c>
       <c r="J133" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6966,13 +6966,13 @@
         <v>7</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J134" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6988,13 +6988,13 @@
         <v>8</v>
       </c>
       <c r="G135" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I135" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="I135" s="17" t="s">
-        <v>375</v>
-      </c>
       <c r="J135" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7010,13 +7010,13 @@
         <v>9</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7032,13 +7032,13 @@
         <v>10</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J137" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7054,10 +7054,10 @@
         <v>11</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7085,7 +7085,7 @@
         <v>27.06.2018</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -7097,7 +7097,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J140" s="16" t="s">
         <v>53</v>
@@ -7116,10 +7116,10 @@
         <v>2</v>
       </c>
       <c r="G141" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I141" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="I141" s="17" t="s">
-        <v>391</v>
       </c>
       <c r="J141" s="16" t="s">
         <v>54</v>
@@ -7138,13 +7138,13 @@
         <v>3</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I142" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J142" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7160,13 +7160,13 @@
         <v>4</v>
       </c>
       <c r="G143" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="I143" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="I143" s="17" t="s">
-        <v>394</v>
-      </c>
       <c r="J143" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7185,10 +7185,10 @@
         <v>0</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J144" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7204,13 +7204,13 @@
         <v>6</v>
       </c>
       <c r="G145" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I145" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="I145" s="17" t="s">
-        <v>397</v>
-      </c>
       <c r="J145" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7226,13 +7226,13 @@
         <v>7</v>
       </c>
       <c r="G146" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="I146" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="I146" s="17" t="s">
-        <v>399</v>
-      </c>
       <c r="J146" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7251,10 +7251,10 @@
         <v>97</v>
       </c>
       <c r="I147" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7270,13 +7270,13 @@
         <v>9</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J148" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
         <v>26.06.2018</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -7294,13 +7294,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I149" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7316,13 +7316,13 @@
         <v>2</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7341,10 +7341,10 @@
         <v>41</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J151" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -7353,7 +7353,7 @@
         <v>17.04.2018</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -7362,13 +7362,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7384,13 +7384,13 @@
         <v>2</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7406,13 +7406,13 @@
         <v>3</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7428,13 +7428,13 @@
         <v>4</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7453,10 +7453,10 @@
         <v>10</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
         <v>20.03.2018</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -7474,13 +7474,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I157" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="I157" s="15" t="s">
-        <v>436</v>
-      </c>
       <c r="J157" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7496,13 +7496,13 @@
         <v>2</v>
       </c>
       <c r="G158" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I158" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="I158" s="15" t="s">
-        <v>438</v>
-      </c>
       <c r="J158" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7518,13 +7518,13 @@
         <v>3</v>
       </c>
       <c r="G159" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I159" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="I159" s="15" t="s">
-        <v>440</v>
-      </c>
       <c r="J159" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -7533,7 +7533,7 @@
         <v>14.11.2017</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -7542,13 +7542,13 @@
         <v>1</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="J160" s="16"/>
     </row>
@@ -7565,13 +7565,13 @@
         <v>2</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J161" s="16"/>
     </row>
@@ -7594,7 +7594,7 @@
         <v>66</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J162" s="16"/>
     </row>
@@ -7604,7 +7604,7 @@
         <v>11.09.2017</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -7613,13 +7613,13 @@
         <v>1</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J163" s="16"/>
     </row>
@@ -7636,13 +7636,13 @@
         <v>2</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J164" s="16"/>
     </row>
@@ -7659,13 +7659,13 @@
         <v>3</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J165" s="16"/>
     </row>
@@ -7682,13 +7682,13 @@
         <v>4</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J166" s="16"/>
     </row>
@@ -7705,13 +7705,13 @@
         <v>5</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J167" s="16"/>
     </row>
@@ -7728,13 +7728,13 @@
         <v>6</v>
       </c>
       <c r="G168" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="I168" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="J168" s="16"/>
     </row>
@@ -7751,13 +7751,13 @@
         <v>7</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J169" s="16"/>
     </row>
@@ -7774,13 +7774,13 @@
         <v>8</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J170" s="16"/>
     </row>
@@ -7790,7 +7790,7 @@
         <v>26.06.2017</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -7799,14 +7799,14 @@
         <v>1</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J171" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -7822,14 +7822,14 @@
         <v>2</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -7845,14 +7845,14 @@
         <v>3</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -7861,7 +7861,7 @@
         <v>15.06.2017</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -7870,13 +7870,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I174" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="I174" s="15" t="s">
-        <v>448</v>
-      </c>
       <c r="J174" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7892,13 +7892,13 @@
         <v>2</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I175" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7914,13 +7914,13 @@
         <v>3</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I176" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7936,13 +7936,13 @@
         <v>4</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I177" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7961,10 +7961,10 @@
         <v>121</v>
       </c>
       <c r="I178" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7980,13 +7980,13 @@
         <v>6</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I179" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8002,13 +8002,13 @@
         <v>7</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I180" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8027,10 +8027,10 @@
         <v>209</v>
       </c>
       <c r="I181" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -8046,13 +8046,13 @@
         <v>9</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I182" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8061,7 +8061,7 @@
         <v>05.05.2017</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -8070,13 +8070,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I183" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="J183" s="12" t="s">
         <v>492</v>
-      </c>
-      <c r="J183" s="12" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8092,13 +8092,13 @@
         <v>2</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I184" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8114,13 +8114,13 @@
         <v>3</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -8136,13 +8136,13 @@
         <v>4</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -8158,13 +8158,13 @@
         <v>5</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8183,10 +8183,10 @@
         <v>10</v>
       </c>
       <c r="I188" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8195,7 +8195,7 @@
         <v>13.03.2017</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -8204,13 +8204,13 @@
         <v>1</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="I189" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J189" s="12"/>
     </row>
@@ -8233,10 +8233,10 @@
         <v>66</v>
       </c>
       <c r="I190" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="J190" s="12" t="s">
         <v>916</v>
-      </c>
-      <c r="J190" s="12" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8245,7 +8245,7 @@
         <v>29.11.2016</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -8254,13 +8254,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I191" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="J191" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="J191" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8276,13 +8276,13 @@
         <v>2</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8298,13 +8298,13 @@
         <v>3</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8320,13 +8320,13 @@
         <v>4</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8342,13 +8342,13 @@
         <v>5</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8357,7 +8357,7 @@
         <v>14.11.2016</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -8366,13 +8366,13 @@
         <v>1</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J196" s="12"/>
     </row>
@@ -8389,13 +8389,13 @@
         <v>2</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J197" s="12"/>
     </row>
@@ -8412,13 +8412,13 @@
         <v>3</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J198" s="12"/>
     </row>
@@ -8435,13 +8435,13 @@
         <v>4</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J199" s="12"/>
     </row>
@@ -8451,7 +8451,7 @@
         <v>17.10.2016</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -8460,13 +8460,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J200" s="12"/>
     </row>
@@ -8489,7 +8489,7 @@
         <v>69</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J201" s="12"/>
     </row>
@@ -8506,13 +8506,13 @@
         <v>3</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J202" s="12"/>
     </row>
@@ -8522,7 +8522,7 @@
         <v>14.09.2016</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -8531,13 +8531,13 @@
         <v>1</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I203" s="15" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J203" s="12"/>
     </row>
@@ -8554,13 +8554,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I204" s="15" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J204" s="12"/>
     </row>
@@ -8577,13 +8577,13 @@
         <v>3</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I205" s="15" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J205" s="12"/>
     </row>
@@ -8600,13 +8600,13 @@
         <v>4</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I206" s="15" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J206" s="12"/>
     </row>
@@ -8629,7 +8629,7 @@
         <v>69</v>
       </c>
       <c r="I207" s="15" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J207" s="12"/>
     </row>
@@ -8646,13 +8646,13 @@
         <v>6</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J208" s="12"/>
     </row>
@@ -8662,7 +8662,7 @@
         <v>04.05.2016</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -8671,13 +8671,13 @@
         <v>1</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J209" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -8693,13 +8693,13 @@
         <v>2</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I210" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8715,13 +8715,13 @@
         <v>3</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I211" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8737,10 +8737,10 @@
         <v>4</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I212" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J212" s="12"/>
     </row>
@@ -8750,7 +8750,7 @@
         <v>28.04.2016</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -8762,7 +8762,7 @@
         <v>177</v>
       </c>
       <c r="I213" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J213" s="12" t="s">
         <v>169</v>
@@ -8781,14 +8781,14 @@
         <v>2</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J214" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -8804,11 +8804,11 @@
         <v>3</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8824,14 +8824,14 @@
         <v>4</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8847,14 +8847,14 @@
         <v>5</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J217" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8870,14 +8870,14 @@
         <v>6</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8893,14 +8893,14 @@
         <v>7</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8916,11 +8916,11 @@
         <v>8</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J220" s="9"/>
     </row>
@@ -8937,17 +8937,17 @@
         <v>9</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
         <f t="shared" si="31"/>
         <v>28.04.2016</v>
@@ -8960,11 +8960,11 @@
         <v>10</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="1" t="s">
-        <v>549</v>
+        <v>1048</v>
       </c>
       <c r="J222" s="9"/>
     </row>
@@ -8974,7 +8974,7 @@
         <v>13.01.2016</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -8987,10 +8987,10 @@
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -9006,14 +9006,14 @@
         <v>2</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9029,14 +9029,14 @@
         <v>3</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J225" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9052,17 +9052,17 @@
         <v>4</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="str">
         <f t="shared" si="32"/>
         <v>13.01.2016</v>
@@ -9075,11 +9075,11 @@
         <v>5</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="1" t="s">
-        <v>565</v>
+        <v>1049</v>
       </c>
       <c r="J227" s="9"/>
     </row>
@@ -9096,14 +9096,14 @@
         <v>6</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>27.10.2015</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J229" s="9" t="s">
         <v>169</v>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J230" s="9"/>
     </row>
@@ -9158,7 +9158,7 @@
         <v>23.06.2015</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -9167,13 +9167,13 @@
         <v>1</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J231" s="9"/>
     </row>
@@ -9190,11 +9190,11 @@
         <v>2</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J232" s="9"/>
     </row>
@@ -9211,13 +9211,13 @@
         <v>3</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="J233" s="9"/>
     </row>
@@ -9234,13 +9234,13 @@
         <v>4</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J234" s="9"/>
     </row>
@@ -9257,13 +9257,13 @@
         <v>5</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J235" s="9"/>
     </row>
@@ -9280,13 +9280,13 @@
         <v>6</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J236" s="9"/>
     </row>
@@ -9303,13 +9303,13 @@
         <v>7</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J237" s="9"/>
     </row>
@@ -9326,13 +9326,13 @@
         <v>8</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="J238" s="9"/>
     </row>
@@ -9349,13 +9349,13 @@
         <v>9</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="J239" s="9"/>
     </row>
@@ -9372,13 +9372,13 @@
         <v>10</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J240" s="9"/>
     </row>
@@ -9395,13 +9395,13 @@
         <v>11</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="J241" s="9"/>
     </row>
@@ -9411,7 +9411,7 @@
         <v>13.04.2015</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -9420,14 +9420,14 @@
         <v>1</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -9443,14 +9443,14 @@
         <v>2</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9466,14 +9466,14 @@
         <v>3</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9482,7 +9482,7 @@
         <v>13.11.2014</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -9491,14 +9491,14 @@
         <v>1</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9514,14 +9514,14 @@
         <v>2</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -9537,14 +9537,14 @@
         <v>3</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9560,14 +9560,14 @@
         <v>4</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9583,14 +9583,14 @@
         <v>5</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9606,14 +9606,14 @@
         <v>6</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9629,14 +9629,14 @@
         <v>7</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9652,14 +9652,14 @@
         <v>8</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9668,7 +9668,7 @@
         <v>02.10.2014</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -9677,14 +9677,14 @@
         <v>1</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J253" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -9700,14 +9700,14 @@
         <v>2</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H254" s="4"/>
       <c r="I254" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9723,14 +9723,14 @@
         <v>3</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H255" s="4"/>
       <c r="I255" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9746,14 +9746,14 @@
         <v>4</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H256" s="4"/>
       <c r="I256" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J256" s="9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -9769,14 +9769,14 @@
         <v>5</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H257" s="4"/>
       <c r="I257" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J257" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9792,14 +9792,14 @@
         <v>6</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H258" s="4"/>
       <c r="I258" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J258" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9815,14 +9815,14 @@
         <v>7</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H259" s="4"/>
       <c r="I259" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J259" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9831,7 +9831,7 @@
         <v>07.05.2014</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -9840,11 +9840,11 @@
         <v>1</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H260" s="4"/>
       <c r="I260" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J260" s="9"/>
     </row>
@@ -9873,7 +9873,7 @@
         <v>04.02.2014</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -9892,7 +9892,7 @@
         <v>18.06.2013</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -9901,14 +9901,14 @@
         <v>1</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H263" s="4"/>
       <c r="I263" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J263" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9924,14 +9924,14 @@
         <v>2</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H264" s="4"/>
       <c r="I264" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J264" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9947,14 +9947,14 @@
         <v>3</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H265" s="4"/>
       <c r="I265" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9963,7 +9963,7 @@
         <v>04.06.2013</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -9972,14 +9972,14 @@
         <v>1</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H266" s="4"/>
       <c r="I266" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J266" s="9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9999,10 +9999,10 @@
       </c>
       <c r="H267" s="4"/>
       <c r="I267" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10018,14 +10018,14 @@
         <v>3</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H268" s="4"/>
       <c r="I268" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10041,14 +10041,14 @@
         <v>4</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H269" s="4"/>
       <c r="I269" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10064,14 +10064,14 @@
         <v>5</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H270" s="4"/>
       <c r="I270" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -10087,14 +10087,14 @@
         <v>6</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H271" s="4"/>
       <c r="I271" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J271" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -10110,14 +10110,14 @@
         <v>7</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H272" s="4"/>
       <c r="I272" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J272" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10133,14 +10133,14 @@
         <v>8</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H273" s="4"/>
       <c r="I273" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J273" s="9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10156,14 +10156,14 @@
         <v>9</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H274" s="4"/>
       <c r="I274" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J274" s="9" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10179,14 +10179,14 @@
         <v>10</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H275" s="4"/>
       <c r="I275" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J275" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10202,14 +10202,14 @@
         <v>11</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H276" s="4"/>
       <c r="I276" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J276" s="9" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10225,14 +10225,14 @@
         <v>12</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H277" s="4"/>
       <c r="I277" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10252,10 +10252,10 @@
       </c>
       <c r="H278" s="4"/>
       <c r="I278" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J278" s="9" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -10275,10 +10275,10 @@
       </c>
       <c r="H279" s="4"/>
       <c r="I279" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10287,7 +10287,7 @@
         <v>28.11.2012</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -10296,13 +10296,13 @@
         <v>1</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J280" s="9"/>
     </row>
@@ -10319,13 +10319,13 @@
         <v>2</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J281" s="9"/>
     </row>
@@ -10342,13 +10342,13 @@
         <v>3</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J282" s="9"/>
     </row>
@@ -10358,7 +10358,7 @@
         <v>25.09.2012</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -10367,14 +10367,14 @@
         <v>1</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H283" s="4"/>
       <c r="I283" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J283" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10390,14 +10390,14 @@
         <v>2</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H284" s="4"/>
       <c r="I284" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J284" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10413,14 +10413,14 @@
         <v>3</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H285" s="4"/>
       <c r="I285" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J285" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10436,14 +10436,14 @@
         <v>4</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H286" s="4"/>
       <c r="I286" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J286" s="9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="H287" s="4"/>
       <c r="I287" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>219</v>
@@ -10475,7 +10475,7 @@
         <v>09.07.2012</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -10484,14 +10484,14 @@
         <v>1</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H288" s="4"/>
       <c r="I288" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J288" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="J288" s="9" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10507,14 +10507,14 @@
         <v>2</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H289" s="4"/>
       <c r="I289" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J289" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="J289" s="9" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10530,11 +10530,11 @@
         <v>3</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H290" s="4"/>
       <c r="I290" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J290" s="9"/>
     </row>
@@ -10551,14 +10551,14 @@
         <v>4</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H291" s="4"/>
       <c r="I291" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J291" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
         <v>22.05.2012</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -10586,7 +10586,7 @@
         <v>29.11.2011</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -10595,13 +10595,13 @@
         <v>1</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J293" s="9"/>
     </row>
@@ -10624,7 +10624,7 @@
         <v>69</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="J294" s="9"/>
     </row>
@@ -10634,7 +10634,7 @@
         <v>16.09.2011</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -10643,14 +10643,14 @@
         <v>1</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H295" s="4"/>
       <c r="I295" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J295" s="9" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10666,14 +10666,14 @@
         <v>2</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H296" s="4"/>
       <c r="I296" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J296" s="9" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10689,14 +10689,14 @@
         <v>3</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H297" s="4"/>
       <c r="I297" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10712,11 +10712,11 @@
         <v>4</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H298" s="4"/>
       <c r="I298" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J298" s="9"/>
     </row>
@@ -10733,14 +10733,14 @@
         <v>5</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H299" s="4"/>
       <c r="I299" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -10756,14 +10756,14 @@
         <v>6</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H300" s="4"/>
       <c r="I300" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10779,11 +10779,11 @@
         <v>7</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H301" s="4"/>
       <c r="I301" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J301" s="9"/>
     </row>
@@ -10800,14 +10800,14 @@
         <v>8</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H302" s="4"/>
       <c r="I302" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="J302" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10816,7 +10816,7 @@
         <v>21.07.2011</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -10825,14 +10825,14 @@
         <v>1</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H303" s="4"/>
       <c r="I303" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J303" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10848,14 +10848,14 @@
         <v>2</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J304" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10871,14 +10871,14 @@
         <v>3</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H305" s="4"/>
       <c r="I305" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J305" s="9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10894,14 +10894,14 @@
         <v>4</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H306" s="4"/>
       <c r="I306" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J306" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -10910,7 +10910,7 @@
         <v>10.05.2011</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="H307" s="4"/>
       <c r="I307" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>215</v>
@@ -10942,14 +10942,14 @@
         <v>2</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H308" s="4"/>
       <c r="I308" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J308" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10965,14 +10965,14 @@
         <v>3</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H309" s="4"/>
       <c r="I309" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J309" s="9" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10988,14 +10988,14 @@
         <v>4</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H310" s="4"/>
       <c r="I310" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J310" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11011,14 +11011,14 @@
         <v>5</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H311" s="4"/>
       <c r="I311" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J311" s="9" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11034,14 +11034,14 @@
         <v>6</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H312" s="4"/>
       <c r="I312" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J312" s="9" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11057,14 +11057,14 @@
         <v>7</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H313" s="4"/>
       <c r="I313" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J313" s="9" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11080,14 +11080,14 @@
         <v>8</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H314" s="4"/>
       <c r="I314" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J314" s="9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11103,14 +11103,14 @@
         <v>9</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H315" s="4"/>
       <c r="I315" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J315" s="9" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
         <v>07.05.2011</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -11128,14 +11128,14 @@
         <v>1</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H316" s="4"/>
       <c r="I316" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J316" s="9" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11151,14 +11151,14 @@
         <v>2</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H317" s="4"/>
       <c r="I317" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="J317" s="9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11174,11 +11174,11 @@
         <v>3</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="H318" s="4"/>
       <c r="I318" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="J318" s="9"/>
     </row>
@@ -11195,14 +11195,14 @@
         <v>4</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H319" s="4"/>
       <c r="I319" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="J319" s="9" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11218,14 +11218,14 @@
         <v>5</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="H320" s="4"/>
       <c r="I320" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="J320" s="9" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11234,7 +11234,7 @@
         <v>13.01.2011</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -11243,14 +11243,14 @@
         <v>1</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H321" s="4"/>
       <c r="I321" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="J321" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11266,14 +11266,14 @@
         <v>2</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H322" s="4"/>
       <c r="I322" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="J322" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11282,7 +11282,7 @@
         <v>30.11.2010</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -11291,11 +11291,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="H323" s="4"/>
       <c r="I323" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J323" s="9"/>
     </row>
@@ -11312,11 +11312,11 @@
         <v>2</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J324" s="9"/>
     </row>
@@ -11326,7 +11326,7 @@
         <v>04.10.2010</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -11335,13 +11335,13 @@
         <v>1</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11357,13 +11357,13 @@
         <v>2</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11379,13 +11379,13 @@
         <v>3</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H327" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11401,13 +11401,13 @@
         <v>4</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11426,10 +11426,10 @@
         <v>10</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="J329" s="9"/>
     </row>
@@ -11446,16 +11446,16 @@
         <v>6</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J330" s="12" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11471,16 +11471,16 @@
         <v>7</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H331" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="I331" s="1" t="s">
-        <v>817</v>
-      </c>
       <c r="J331" s="12" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -11496,7 +11496,7 @@
         <v>8</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H332" s="4" t="s">
         <v>261</v>
@@ -11516,16 +11516,16 @@
         <v>9</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J333" s="12" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11541,13 +11541,13 @@
         <v>10</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H334" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J334" s="9"/>
     </row>
@@ -11564,16 +11564,16 @@
         <v>11</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H335" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="J335" s="9" t="s">
         <v>822</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="J335" s="9" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11582,7 +11582,7 @@
         <v>24.06.2010</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -11591,13 +11591,13 @@
         <v>1</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="J336" s="9"/>
     </row>
@@ -11617,10 +11617,10 @@
         <v>41</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J337" s="9"/>
     </row>
@@ -11637,13 +11637,13 @@
         <v>3</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="H338" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J338" s="9"/>
     </row>
@@ -11660,13 +11660,13 @@
         <v>4</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H339" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J339" s="9"/>
     </row>
@@ -11683,13 +11683,13 @@
         <v>5</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J340" s="9"/>
     </row>
@@ -11706,13 +11706,13 @@
         <v>6</v>
       </c>
       <c r="G341" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H341" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="J341" s="9"/>
     </row>
@@ -11729,13 +11729,13 @@
         <v>7</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="J342" s="9"/>
     </row>
@@ -11745,7 +11745,7 @@
         <v>28.04.2010</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -11754,13 +11754,13 @@
         <v>1</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H343" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J343" s="9"/>
     </row>
@@ -11777,16 +11777,16 @@
         <v>2</v>
       </c>
       <c r="G344" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="J344" s="9" t="s">
         <v>849</v>
-      </c>
-      <c r="H344" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="I344" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="J344" s="9" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11795,7 +11795,7 @@
         <v>12.03.2010</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -11804,14 +11804,14 @@
         <v>1</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H345" s="4"/>
       <c r="I345" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J345" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11827,14 +11827,14 @@
         <v>2</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H346" s="4"/>
       <c r="I346" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J346" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11850,14 +11850,14 @@
         <v>3</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H347" s="4"/>
       <c r="I347" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J347" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11873,14 +11873,14 @@
         <v>4</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H348" s="4"/>
       <c r="I348" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J348" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11896,14 +11896,14 @@
         <v>5</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H349" s="4"/>
       <c r="I349" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J349" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11919,14 +11919,14 @@
         <v>6</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H350" s="4"/>
       <c r="I350" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J350" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11942,14 +11942,14 @@
         <v>7</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H351" s="4"/>
       <c r="I351" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J351" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11958,7 +11958,7 @@
         <v>12.01.2010</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -11967,13 +11967,13 @@
         <v>1</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H352" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J352" s="9"/>
     </row>
@@ -11993,10 +11993,10 @@
         <v>177</v>
       </c>
       <c r="H353" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I353" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="I353" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="J353" s="9"/>
     </row>
@@ -12006,7 +12006,7 @@
         <v>07.12.2009</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -12015,13 +12015,13 @@
         <v>1</v>
       </c>
       <c r="G354" s="4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="H354" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J354" s="9"/>
     </row>
@@ -12038,13 +12038,13 @@
         <v>2</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H355" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="J355" s="9"/>
     </row>
@@ -12054,7 +12054,7 @@
         <v>26.10.2009</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -12063,13 +12063,13 @@
         <v>1</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H356" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J356" s="9"/>
     </row>
@@ -12086,13 +12086,13 @@
         <v>2</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H357" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="J357" s="9"/>
     </row>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="1060">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -975,9 +975,6 @@
     <t>summary</t>
   </si>
   <si>
-    <t>20191101_summary.html</t>
-  </si>
-  <si>
     <t>BBS/BES Seminar: Causal inference in drug development: why, when, how?</t>
   </si>
   <si>
@@ -3172,6 +3169,36 @@
   </si>
   <si>
     <t xml:space="preserve"> An experience with indirect treatment comparisons using MAIC methods in a rare disease</t>
+  </si>
+  <si>
+    <t>talks/20191101/20191101_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20192201_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20193301_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20194401_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20195501_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20196601_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20197701_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20198801_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20191101/20199901_summary.html</t>
+  </si>
+  <si>
+    <t>talks/20190821/20191121_summary.html</t>
   </si>
 </sst>
 </file>
@@ -3635,9 +3662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>317</v>
@@ -3697,10 +3724,10 @@
         <v>15.07.2022</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3708,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3726,7 +3753,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3735,13 +3762,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>1036</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>1037</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>234</v>
@@ -3753,7 +3780,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3762,16 +3789,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3780,7 +3807,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3789,16 +3816,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3807,7 +3834,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3816,16 +3843,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3834,7 +3861,7 @@
         <v>15.07.2022</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3843,11 +3870,11 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -3857,10 +3884,10 @@
         <v>23.06.2022</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3871,7 +3898,7 @@
         <v>209</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>35</v>
@@ -3884,7 +3911,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3893,13 +3920,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>1002</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -3909,7 +3936,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3918,16 +3945,16 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>1005</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3936,7 +3963,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3945,16 +3972,16 @@
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>1008</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3963,7 +3990,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3972,16 +3999,16 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>1011</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3990,7 +4017,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3999,16 +4026,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>1014</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -4017,7 +4044,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4026,16 +4053,16 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>1017</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.25">
@@ -4044,7 +4071,7 @@
         <v>23.06.2022</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4053,13 +4080,13 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>1020</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -4069,20 +4096,20 @@
         <v>24.05.2022</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>995</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>996</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>66</v>
@@ -4105,37 +4132,37 @@
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>994</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>984</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>69</v>
@@ -4147,7 +4174,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4157,16 +4184,16 @@
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>983</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -4175,10 +4202,10 @@
         <v>21.02.2022</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>973</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4186,16 +4213,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -4211,16 +4238,16 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4236,16 +4263,16 @@
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4261,16 +4288,16 @@
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5567,7 +5594,7 @@
         <v>191</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -6016,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>261</v>
@@ -6264,7 +6291,7 @@
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J102" s="16"/>
     </row>
@@ -6289,7 +6316,7 @@
       </c>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="str">
         <f>"01.11.2019"</f>
         <v>01.11.2019</v>
@@ -6300,7 +6327,7 @@
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="3" t="s">
-        <v>318</v>
+        <v>1050</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -6503,7 +6530,7 @@
         <v>21.08.2019</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -6512,13 +6539,13 @@
         <v>1</v>
       </c>
       <c r="G113" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I113" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="I113" s="17" t="s">
-        <v>321</v>
-      </c>
       <c r="J113" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -6534,13 +6561,13 @@
         <v>2</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I114" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="I114" s="17" t="s">
-        <v>323</v>
-      </c>
       <c r="J114" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -6556,10 +6583,10 @@
         <v>3</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I115" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="I115" s="17" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6575,10 +6602,10 @@
         <v>4</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J116" s="16"/>
     </row>
@@ -6595,10 +6622,10 @@
         <v>5</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J117" s="16"/>
     </row>
@@ -6618,7 +6645,7 @@
         <v>146</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J118" s="16"/>
     </row>
@@ -6638,10 +6665,10 @@
         <v>179</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -6650,7 +6677,7 @@
         <v>04.06.2019</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -6659,10 +6686,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6678,13 +6705,13 @@
         <v>2</v>
       </c>
       <c r="G121" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I121" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I121" s="17" t="s">
-        <v>338</v>
-      </c>
       <c r="J121" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6700,13 +6727,13 @@
         <v>3</v>
       </c>
       <c r="G122" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="I122" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I122" s="17" t="s">
-        <v>340</v>
-      </c>
       <c r="J122" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6722,13 +6749,13 @@
         <v>4</v>
       </c>
       <c r="G123" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I123" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="I123" s="17" t="s">
-        <v>342</v>
-      </c>
       <c r="J123" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6744,13 +6771,13 @@
         <v>5</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I124" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6766,13 +6793,13 @@
         <v>6</v>
       </c>
       <c r="G125" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I125" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="I125" s="17" t="s">
-        <v>345</v>
-      </c>
       <c r="J125" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -6788,13 +6815,13 @@
         <v>7</v>
       </c>
       <c r="G126" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I126" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="I126" s="17" t="s">
-        <v>347</v>
-      </c>
       <c r="J126" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6810,13 +6837,13 @@
         <v>8</v>
       </c>
       <c r="G127" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I127" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="I127" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="J127" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -6825,7 +6852,7 @@
         <v>10.05.2019</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -6834,13 +6861,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I128" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I128" s="17" t="s">
-        <v>361</v>
-      </c>
       <c r="J128" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6856,13 +6883,13 @@
         <v>2</v>
       </c>
       <c r="G129" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I129" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="I129" s="17" t="s">
-        <v>363</v>
-      </c>
       <c r="J129" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6878,13 +6905,13 @@
         <v>3</v>
       </c>
       <c r="G130" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I130" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="I130" s="17" t="s">
-        <v>365</v>
-      </c>
       <c r="J130" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6900,13 +6927,13 @@
         <v>4</v>
       </c>
       <c r="G131" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I131" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="I131" s="17" t="s">
-        <v>367</v>
-      </c>
       <c r="J131" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6922,13 +6949,13 @@
         <v>5</v>
       </c>
       <c r="G132" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I132" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="I132" s="17" t="s">
-        <v>369</v>
-      </c>
       <c r="J132" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -6944,13 +6971,13 @@
         <v>6</v>
       </c>
       <c r="G133" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I133" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="I133" s="17" t="s">
-        <v>371</v>
-      </c>
       <c r="J133" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6969,10 +6996,10 @@
         <v>305</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J134" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6988,13 +7015,13 @@
         <v>8</v>
       </c>
       <c r="G135" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I135" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="I135" s="17" t="s">
-        <v>374</v>
-      </c>
       <c r="J135" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7010,13 +7037,13 @@
         <v>9</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7032,13 +7059,13 @@
         <v>10</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I137" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J137" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7054,10 +7081,10 @@
         <v>11</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7076,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7085,7 +7112,7 @@
         <v>27.06.2018</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -7097,7 +7124,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J140" s="16" t="s">
         <v>53</v>
@@ -7116,10 +7143,10 @@
         <v>2</v>
       </c>
       <c r="G141" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I141" s="17" t="s">
         <v>389</v>
-      </c>
-      <c r="I141" s="17" t="s">
-        <v>390</v>
       </c>
       <c r="J141" s="16" t="s">
         <v>54</v>
@@ -7138,13 +7165,13 @@
         <v>3</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I142" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J142" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7160,13 +7187,13 @@
         <v>4</v>
       </c>
       <c r="G143" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I143" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="I143" s="17" t="s">
-        <v>393</v>
-      </c>
       <c r="J143" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7185,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J144" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7204,13 +7231,13 @@
         <v>6</v>
       </c>
       <c r="G145" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I145" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="I145" s="17" t="s">
-        <v>396</v>
-      </c>
       <c r="J145" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7226,13 +7253,13 @@
         <v>7</v>
       </c>
       <c r="G146" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I146" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="I146" s="17" t="s">
-        <v>398</v>
-      </c>
       <c r="J146" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7251,10 +7278,10 @@
         <v>97</v>
       </c>
       <c r="I147" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7270,13 +7297,13 @@
         <v>9</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J148" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7285,7 +7312,7 @@
         <v>26.06.2018</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -7294,13 +7321,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I149" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7316,13 +7343,13 @@
         <v>2</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7341,10 +7368,10 @@
         <v>41</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J151" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -7353,7 +7380,7 @@
         <v>17.04.2018</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -7362,13 +7389,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7384,13 +7411,13 @@
         <v>2</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7406,13 +7433,13 @@
         <v>3</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7428,13 +7455,13 @@
         <v>4</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7453,10 +7480,10 @@
         <v>10</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7465,7 +7492,7 @@
         <v>20.03.2018</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -7474,13 +7501,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I157" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="I157" s="15" t="s">
-        <v>435</v>
-      </c>
       <c r="J157" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7496,13 +7523,13 @@
         <v>2</v>
       </c>
       <c r="G158" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I158" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="I158" s="15" t="s">
-        <v>437</v>
-      </c>
       <c r="J158" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7518,13 +7545,13 @@
         <v>3</v>
       </c>
       <c r="G159" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="I159" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="I159" s="15" t="s">
-        <v>439</v>
-      </c>
       <c r="J159" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -7533,7 +7560,7 @@
         <v>14.11.2017</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -7542,13 +7569,13 @@
         <v>1</v>
       </c>
       <c r="G160" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="H160" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="I160" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="J160" s="16"/>
     </row>
@@ -7565,13 +7592,13 @@
         <v>2</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J161" s="16"/>
     </row>
@@ -7594,7 +7621,7 @@
         <v>66</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J162" s="16"/>
     </row>
@@ -7604,7 +7631,7 @@
         <v>11.09.2017</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -7613,13 +7640,13 @@
         <v>1</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J163" s="16"/>
     </row>
@@ -7636,13 +7663,13 @@
         <v>2</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J164" s="16"/>
     </row>
@@ -7659,13 +7686,13 @@
         <v>3</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J165" s="16"/>
     </row>
@@ -7682,13 +7709,13 @@
         <v>4</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J166" s="16"/>
     </row>
@@ -7705,13 +7732,13 @@
         <v>5</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J167" s="16"/>
     </row>
@@ -7728,13 +7755,13 @@
         <v>6</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J168" s="16"/>
     </row>
@@ -7751,13 +7778,13 @@
         <v>7</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J169" s="16"/>
     </row>
@@ -7774,13 +7801,13 @@
         <v>8</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J170" s="16"/>
     </row>
@@ -7790,7 +7817,7 @@
         <v>26.06.2017</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -7799,14 +7826,14 @@
         <v>1</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J171" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -7822,14 +7849,14 @@
         <v>2</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -7845,14 +7872,14 @@
         <v>3</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -7861,7 +7888,7 @@
         <v>15.06.2017</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -7870,13 +7897,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I174" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="I174" s="15" t="s">
-        <v>447</v>
-      </c>
       <c r="J174" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7892,13 +7919,13 @@
         <v>2</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I175" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7914,13 +7941,13 @@
         <v>3</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I176" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7936,13 +7963,13 @@
         <v>4</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I177" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7961,10 +7988,10 @@
         <v>121</v>
       </c>
       <c r="I178" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7980,13 +8007,13 @@
         <v>6</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I179" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8002,13 +8029,13 @@
         <v>7</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I180" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8027,10 +8054,10 @@
         <v>209</v>
       </c>
       <c r="I181" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -8046,13 +8073,13 @@
         <v>9</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I182" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8061,7 +8088,7 @@
         <v>05.05.2017</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -8070,13 +8097,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I183" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="J183" s="12" t="s">
         <v>491</v>
-      </c>
-      <c r="J183" s="12" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8092,13 +8119,13 @@
         <v>2</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I184" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8114,13 +8141,13 @@
         <v>3</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -8136,13 +8163,13 @@
         <v>4</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I186" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -8158,13 +8185,13 @@
         <v>5</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8183,10 +8210,10 @@
         <v>10</v>
       </c>
       <c r="I188" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8195,7 +8222,7 @@
         <v>13.03.2017</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -8204,13 +8231,13 @@
         <v>1</v>
       </c>
       <c r="G189" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="H189" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="H189" s="8" t="s">
-        <v>915</v>
-      </c>
       <c r="I189" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J189" s="12"/>
     </row>
@@ -8233,10 +8260,10 @@
         <v>66</v>
       </c>
       <c r="I190" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8245,7 +8272,7 @@
         <v>29.11.2016</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -8254,13 +8281,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I191" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="J191" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="J191" s="12" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8276,13 +8303,13 @@
         <v>2</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8298,13 +8325,13 @@
         <v>3</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8320,13 +8347,13 @@
         <v>4</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8342,13 +8369,13 @@
         <v>5</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8357,7 +8384,7 @@
         <v>14.11.2016</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -8366,13 +8393,13 @@
         <v>1</v>
       </c>
       <c r="G196" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="H196" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="H196" s="8" t="s">
+      <c r="I196" s="15" t="s">
         <v>918</v>
-      </c>
-      <c r="I196" s="15" t="s">
-        <v>919</v>
       </c>
       <c r="J196" s="12"/>
     </row>
@@ -8389,13 +8416,13 @@
         <v>2</v>
       </c>
       <c r="G197" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="H197" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="H197" s="8" t="s">
+      <c r="I197" s="15" t="s">
         <v>921</v>
-      </c>
-      <c r="I197" s="15" t="s">
-        <v>922</v>
       </c>
       <c r="J197" s="12"/>
     </row>
@@ -8412,13 +8439,13 @@
         <v>3</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J198" s="12"/>
     </row>
@@ -8435,13 +8462,13 @@
         <v>4</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H199" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="I199" s="15" t="s">
         <v>925</v>
-      </c>
-      <c r="I199" s="15" t="s">
-        <v>926</v>
       </c>
       <c r="J199" s="12"/>
     </row>
@@ -8451,7 +8478,7 @@
         <v>17.10.2016</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -8460,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="H200" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="H200" s="8" t="s">
+      <c r="I200" s="15" t="s">
         <v>928</v>
-      </c>
-      <c r="I200" s="15" t="s">
-        <v>929</v>
       </c>
       <c r="J200" s="12"/>
     </row>
@@ -8489,7 +8516,7 @@
         <v>69</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J201" s="12"/>
     </row>
@@ -8506,13 +8533,13 @@
         <v>3</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I202" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J202" s="12"/>
     </row>
@@ -8522,7 +8549,7 @@
         <v>14.09.2016</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -8531,13 +8558,13 @@
         <v>1</v>
       </c>
       <c r="G203" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="H203" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="H203" s="8" t="s">
+      <c r="I203" s="15" t="s">
         <v>934</v>
-      </c>
-      <c r="I203" s="15" t="s">
-        <v>935</v>
       </c>
       <c r="J203" s="12"/>
     </row>
@@ -8554,13 +8581,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="I204" s="15" t="s">
         <v>936</v>
-      </c>
-      <c r="H204" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="I204" s="15" t="s">
-        <v>937</v>
       </c>
       <c r="J204" s="12"/>
     </row>
@@ -8577,13 +8604,13 @@
         <v>3</v>
       </c>
       <c r="G205" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="H205" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="H205" s="8" t="s">
+      <c r="I205" s="15" t="s">
         <v>939</v>
-      </c>
-      <c r="I205" s="15" t="s">
-        <v>940</v>
       </c>
       <c r="J205" s="12"/>
     </row>
@@ -8600,13 +8627,13 @@
         <v>4</v>
       </c>
       <c r="G206" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="H206" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="I206" s="15" t="s">
         <v>942</v>
-      </c>
-      <c r="I206" s="15" t="s">
-        <v>943</v>
       </c>
       <c r="J206" s="12"/>
     </row>
@@ -8629,7 +8656,7 @@
         <v>69</v>
       </c>
       <c r="I207" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J207" s="12"/>
     </row>
@@ -8646,13 +8673,13 @@
         <v>6</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J208" s="12"/>
     </row>
@@ -8662,7 +8689,7 @@
         <v>04.05.2016</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -8671,13 +8698,13 @@
         <v>1</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J209" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -8693,13 +8720,13 @@
         <v>2</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I210" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8715,13 +8742,13 @@
         <v>3</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I211" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8737,10 +8764,10 @@
         <v>4</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I212" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J212" s="12"/>
     </row>
@@ -8750,7 +8777,7 @@
         <v>28.04.2016</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -8762,7 +8789,7 @@
         <v>177</v>
       </c>
       <c r="I213" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J213" s="12" t="s">
         <v>169</v>
@@ -8781,14 +8808,14 @@
         <v>2</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J214" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -8804,11 +8831,11 @@
         <v>3</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8824,14 +8851,14 @@
         <v>4</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8847,14 +8874,14 @@
         <v>5</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J217" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -8870,14 +8897,14 @@
         <v>6</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8893,14 +8920,14 @@
         <v>7</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8916,11 +8943,11 @@
         <v>8</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J220" s="9"/>
     </row>
@@ -8937,14 +8964,14 @@
         <v>9</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -8960,11 +8987,11 @@
         <v>10</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J222" s="9"/>
     </row>
@@ -8974,7 +9001,7 @@
         <v>13.01.2016</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -8987,10 +9014,10 @@
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -9006,14 +9033,14 @@
         <v>2</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9029,14 +9056,14 @@
         <v>3</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J225" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9052,14 +9079,14 @@
         <v>4</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9075,11 +9102,11 @@
         <v>5</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J227" s="9"/>
     </row>
@@ -9096,14 +9123,14 @@
         <v>6</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9112,7 +9139,7 @@
         <v>27.10.2015</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -9125,7 +9152,7 @@
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J229" s="9" t="s">
         <v>169</v>
@@ -9148,7 +9175,7 @@
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J230" s="9"/>
     </row>
@@ -9158,7 +9185,7 @@
         <v>23.06.2015</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -9167,13 +9194,13 @@
         <v>1</v>
       </c>
       <c r="G231" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="H231" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>949</v>
-      </c>
       <c r="I231" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J231" s="9"/>
     </row>
@@ -9190,11 +9217,11 @@
         <v>2</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J232" s="9"/>
     </row>
@@ -9211,13 +9238,13 @@
         <v>3</v>
       </c>
       <c r="G233" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H233" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="H233" s="4" t="s">
+      <c r="I233" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="J233" s="9"/>
     </row>
@@ -9234,13 +9261,13 @@
         <v>4</v>
       </c>
       <c r="G234" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="H234" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="H234" s="4" t="s">
-        <v>957</v>
-      </c>
       <c r="I234" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J234" s="9"/>
     </row>
@@ -9257,13 +9284,13 @@
         <v>5</v>
       </c>
       <c r="G235" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="H235" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="H235" s="4" t="s">
-        <v>960</v>
-      </c>
       <c r="I235" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J235" s="9"/>
     </row>
@@ -9280,13 +9307,13 @@
         <v>6</v>
       </c>
       <c r="G236" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="I236" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="J236" s="9"/>
     </row>
@@ -9303,13 +9330,13 @@
         <v>7</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J237" s="9"/>
     </row>
@@ -9326,13 +9353,13 @@
         <v>8</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J238" s="9"/>
     </row>
@@ -9349,13 +9376,13 @@
         <v>9</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J239" s="9"/>
     </row>
@@ -9372,13 +9399,13 @@
         <v>10</v>
       </c>
       <c r="G240" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="I240" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="J240" s="9"/>
     </row>
@@ -9395,13 +9422,13 @@
         <v>11</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J241" s="9"/>
     </row>
@@ -9411,7 +9438,7 @@
         <v>13.04.2015</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -9420,14 +9447,14 @@
         <v>1</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H242" s="4"/>
       <c r="I242" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -9443,14 +9470,14 @@
         <v>2</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H243" s="4"/>
       <c r="I243" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9466,14 +9493,14 @@
         <v>3</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H244" s="4"/>
       <c r="I244" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9482,7 +9509,7 @@
         <v>13.11.2014</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -9491,14 +9518,14 @@
         <v>1</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H245" s="4"/>
       <c r="I245" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9514,14 +9541,14 @@
         <v>2</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H246" s="4"/>
       <c r="I246" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -9537,14 +9564,14 @@
         <v>3</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H247" s="4"/>
       <c r="I247" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9560,14 +9587,14 @@
         <v>4</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9583,14 +9610,14 @@
         <v>5</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H249" s="4"/>
       <c r="I249" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9606,14 +9633,14 @@
         <v>6</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H250" s="4"/>
       <c r="I250" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9629,14 +9656,14 @@
         <v>7</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H251" s="4"/>
       <c r="I251" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9652,14 +9679,14 @@
         <v>8</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H252" s="4"/>
       <c r="I252" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9668,7 +9695,7 @@
         <v>02.10.2014</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -9677,14 +9704,14 @@
         <v>1</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H253" s="4"/>
       <c r="I253" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J253" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -9700,14 +9727,14 @@
         <v>2</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H254" s="4"/>
       <c r="I254" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9723,14 +9750,14 @@
         <v>3</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H255" s="4"/>
       <c r="I255" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9746,14 +9773,14 @@
         <v>4</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H256" s="4"/>
       <c r="I256" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J256" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -9769,14 +9796,14 @@
         <v>5</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H257" s="4"/>
       <c r="I257" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J257" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9792,14 +9819,14 @@
         <v>6</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H258" s="4"/>
       <c r="I258" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J258" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9815,14 +9842,14 @@
         <v>7</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H259" s="4"/>
       <c r="I259" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J259" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -9831,7 +9858,7 @@
         <v>07.05.2014</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -9840,11 +9867,11 @@
         <v>1</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H260" s="4"/>
       <c r="I260" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J260" s="9"/>
     </row>
@@ -9873,7 +9900,7 @@
         <v>04.02.2014</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -9892,7 +9919,7 @@
         <v>18.06.2013</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -9901,14 +9928,14 @@
         <v>1</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H263" s="4"/>
       <c r="I263" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J263" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9924,11 +9951,11 @@
         <v>2</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H264" s="4"/>
       <c r="I264" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>308</v>
@@ -9947,14 +9974,14 @@
         <v>3</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H265" s="4"/>
       <c r="I265" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9963,7 +9990,7 @@
         <v>04.06.2013</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -9972,14 +9999,14 @@
         <v>1</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H266" s="4"/>
       <c r="I266" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J266" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -9999,10 +10026,10 @@
       </c>
       <c r="H267" s="4"/>
       <c r="I267" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10018,14 +10045,14 @@
         <v>3</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H268" s="4"/>
       <c r="I268" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10041,14 +10068,14 @@
         <v>4</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H269" s="4"/>
       <c r="I269" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10064,14 +10091,14 @@
         <v>5</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H270" s="4"/>
       <c r="I270" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -10087,14 +10114,14 @@
         <v>6</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H271" s="4"/>
       <c r="I271" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J271" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -10110,14 +10137,14 @@
         <v>7</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H272" s="4"/>
       <c r="I272" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J272" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10133,14 +10160,14 @@
         <v>8</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H273" s="4"/>
       <c r="I273" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J273" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10156,14 +10183,14 @@
         <v>9</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H274" s="4"/>
       <c r="I274" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J274" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10179,14 +10206,14 @@
         <v>10</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H275" s="4"/>
       <c r="I275" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J275" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10202,14 +10229,14 @@
         <v>11</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H276" s="4"/>
       <c r="I276" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J276" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10225,14 +10252,14 @@
         <v>12</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H277" s="4"/>
       <c r="I277" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10252,10 +10279,10 @@
       </c>
       <c r="H278" s="4"/>
       <c r="I278" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J278" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -10275,10 +10302,10 @@
       </c>
       <c r="H279" s="4"/>
       <c r="I279" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10287,7 +10314,7 @@
         <v>28.11.2012</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -10296,13 +10323,13 @@
         <v>1</v>
       </c>
       <c r="G280" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="H280" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="H280" s="4" t="s">
-        <v>679</v>
-      </c>
       <c r="I280" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J280" s="9"/>
     </row>
@@ -10319,13 +10346,13 @@
         <v>2</v>
       </c>
       <c r="G281" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="H281" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="H281" s="4" t="s">
-        <v>681</v>
-      </c>
       <c r="I281" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J281" s="9"/>
     </row>
@@ -10342,13 +10369,13 @@
         <v>3</v>
       </c>
       <c r="G282" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="H282" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="H282" s="4" t="s">
+      <c r="I282" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="J282" s="9"/>
     </row>
@@ -10358,7 +10385,7 @@
         <v>25.09.2012</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -10367,14 +10394,14 @@
         <v>1</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H283" s="4"/>
       <c r="I283" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J283" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10390,14 +10417,14 @@
         <v>2</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H284" s="4"/>
       <c r="I284" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J284" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10413,14 +10440,14 @@
         <v>3</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H285" s="4"/>
       <c r="I285" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J285" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10436,14 +10463,14 @@
         <v>4</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H286" s="4"/>
       <c r="I286" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J286" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10463,7 +10490,7 @@
       </c>
       <c r="H287" s="4"/>
       <c r="I287" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>219</v>
@@ -10475,7 +10502,7 @@
         <v>09.07.2012</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -10484,14 +10511,14 @@
         <v>1</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H288" s="4"/>
       <c r="I288" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J288" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10507,14 +10534,14 @@
         <v>2</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H289" s="4"/>
       <c r="I289" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J289" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10530,11 +10557,11 @@
         <v>3</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H290" s="4"/>
       <c r="I290" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J290" s="9"/>
     </row>
@@ -10551,14 +10578,14 @@
         <v>4</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H291" s="4"/>
       <c r="I291" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J291" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10567,7 +10594,7 @@
         <v>22.05.2012</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -10586,7 +10613,7 @@
         <v>29.11.2011</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -10595,13 +10622,13 @@
         <v>1</v>
       </c>
       <c r="G293" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="H293" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="H293" s="4" t="s">
+      <c r="I293" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="I293" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="J293" s="9"/>
     </row>
@@ -10624,7 +10651,7 @@
         <v>69</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J294" s="9"/>
     </row>
@@ -10634,7 +10661,7 @@
         <v>16.09.2011</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -10643,14 +10670,14 @@
         <v>1</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H295" s="4"/>
       <c r="I295" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J295" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10666,14 +10693,14 @@
         <v>2</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H296" s="4"/>
       <c r="I296" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J296" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10689,14 +10716,14 @@
         <v>3</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H297" s="4"/>
       <c r="I297" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="298" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10712,11 +10739,11 @@
         <v>4</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H298" s="4"/>
       <c r="I298" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J298" s="9"/>
     </row>
@@ -10733,14 +10760,14 @@
         <v>5</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H299" s="4"/>
       <c r="I299" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -10756,14 +10783,14 @@
         <v>6</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H300" s="4"/>
       <c r="I300" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10779,11 +10806,11 @@
         <v>7</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H301" s="4"/>
       <c r="I301" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J301" s="9"/>
     </row>
@@ -10800,14 +10827,14 @@
         <v>8</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H302" s="4"/>
       <c r="I302" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J302" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10816,7 +10843,7 @@
         <v>21.07.2011</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -10825,14 +10852,14 @@
         <v>1</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H303" s="4"/>
       <c r="I303" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J303" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10848,14 +10875,14 @@
         <v>2</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J304" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -10871,14 +10898,14 @@
         <v>3</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H305" s="4"/>
       <c r="I305" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J305" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10894,14 +10921,14 @@
         <v>4</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H306" s="4"/>
       <c r="I306" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J306" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
@@ -10910,7 +10937,7 @@
         <v>10.05.2011</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -10923,7 +10950,7 @@
       </c>
       <c r="H307" s="4"/>
       <c r="I307" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>215</v>
@@ -10942,14 +10969,14 @@
         <v>2</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H308" s="4"/>
       <c r="I308" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J308" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -10965,14 +10992,14 @@
         <v>3</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H309" s="4"/>
       <c r="I309" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J309" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -10988,14 +11015,14 @@
         <v>4</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H310" s="4"/>
       <c r="I310" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J310" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11011,14 +11038,14 @@
         <v>5</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H311" s="4"/>
       <c r="I311" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J311" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11034,14 +11061,14 @@
         <v>6</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H312" s="4"/>
       <c r="I312" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J312" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11057,14 +11084,14 @@
         <v>7</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H313" s="4"/>
       <c r="I313" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J313" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11080,14 +11107,14 @@
         <v>8</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H314" s="4"/>
       <c r="I314" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J314" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11103,14 +11130,14 @@
         <v>9</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H315" s="4"/>
       <c r="I315" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J315" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11119,7 +11146,7 @@
         <v>07.05.2011</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -11128,14 +11155,14 @@
         <v>1</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H316" s="4"/>
       <c r="I316" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J316" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11151,14 +11178,14 @@
         <v>2</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H317" s="4"/>
       <c r="I317" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J317" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11174,11 +11201,11 @@
         <v>3</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H318" s="4"/>
       <c r="I318" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J318" s="9"/>
     </row>
@@ -11195,14 +11222,14 @@
         <v>4</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H319" s="4"/>
       <c r="I319" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J319" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11218,14 +11245,14 @@
         <v>5</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H320" s="4"/>
       <c r="I320" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J320" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11234,7 +11261,7 @@
         <v>13.01.2011</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -11243,14 +11270,14 @@
         <v>1</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H321" s="4"/>
       <c r="I321" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J321" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11266,11 +11293,11 @@
         <v>2</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H322" s="4"/>
       <c r="I322" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>308</v>
@@ -11282,7 +11309,7 @@
         <v>30.11.2010</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -11291,11 +11318,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H323" s="4"/>
       <c r="I323" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J323" s="9"/>
     </row>
@@ -11312,11 +11339,11 @@
         <v>2</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J324" s="9"/>
     </row>
@@ -11326,7 +11353,7 @@
         <v>04.10.2010</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -11335,13 +11362,13 @@
         <v>1</v>
       </c>
       <c r="G325" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H325" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="H325" s="4" t="s">
+      <c r="I325" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11357,13 +11384,13 @@
         <v>2</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11379,13 +11406,13 @@
         <v>3</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H327" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11401,13 +11428,13 @@
         <v>4</v>
       </c>
       <c r="G328" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H328" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="H328" s="4" t="s">
+      <c r="I328" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11426,10 +11453,10 @@
         <v>10</v>
       </c>
       <c r="H329" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="I329" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="J329" s="9"/>
     </row>
@@ -11446,16 +11473,16 @@
         <v>6</v>
       </c>
       <c r="G330" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H330" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="H330" s="4" t="s">
+      <c r="I330" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="I330" s="1" t="s">
-        <v>812</v>
-      </c>
       <c r="J330" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11471,16 +11498,16 @@
         <v>7</v>
       </c>
       <c r="G331" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="H331" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H331" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="J331" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -11496,7 +11523,7 @@
         <v>8</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H332" s="4" t="s">
         <v>261</v>
@@ -11516,16 +11543,16 @@
         <v>9</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H333" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I333" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="I333" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="J333" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11541,13 +11568,13 @@
         <v>10</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H334" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J334" s="9"/>
     </row>
@@ -11564,16 +11591,16 @@
         <v>11</v>
       </c>
       <c r="G335" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="H335" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I335" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="H335" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="I335" s="1" t="s">
+      <c r="J335" s="9" t="s">
         <v>821</v>
-      </c>
-      <c r="J335" s="9" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11582,7 +11609,7 @@
         <v>24.06.2010</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -11591,13 +11618,13 @@
         <v>1</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J336" s="9"/>
     </row>
@@ -11617,10 +11644,10 @@
         <v>41</v>
       </c>
       <c r="H337" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I337" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="J337" s="9"/>
     </row>
@@ -11637,13 +11664,13 @@
         <v>3</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H338" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J338" s="9"/>
     </row>
@@ -11660,13 +11687,13 @@
         <v>4</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H339" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J339" s="9"/>
     </row>
@@ -11683,13 +11710,13 @@
         <v>5</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J340" s="9"/>
     </row>
@@ -11706,13 +11733,13 @@
         <v>6</v>
       </c>
       <c r="G341" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="H341" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="H341" s="4" t="s">
-        <v>841</v>
-      </c>
       <c r="I341" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J341" s="9"/>
     </row>
@@ -11729,13 +11756,13 @@
         <v>7</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J342" s="9"/>
     </row>
@@ -11745,7 +11772,7 @@
         <v>28.04.2010</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -11754,13 +11781,13 @@
         <v>1</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H343" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J343" s="9"/>
     </row>
@@ -11777,16 +11804,16 @@
         <v>2</v>
       </c>
       <c r="G344" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="I344" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="H344" s="4" t="s">
+      <c r="J344" s="9" t="s">
         <v>848</v>
-      </c>
-      <c r="I344" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="J344" s="9" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11795,7 +11822,7 @@
         <v>12.03.2010</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -11804,14 +11831,14 @@
         <v>1</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H345" s="4"/>
       <c r="I345" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J345" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11827,14 +11854,14 @@
         <v>2</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H346" s="4"/>
       <c r="I346" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J346" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11850,14 +11877,14 @@
         <v>3</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H347" s="4"/>
       <c r="I347" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J347" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11873,14 +11900,14 @@
         <v>4</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H348" s="4"/>
       <c r="I348" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J348" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11896,14 +11923,14 @@
         <v>5</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H349" s="4"/>
       <c r="I349" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J349" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
@@ -11919,14 +11946,14 @@
         <v>6</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H350" s="4"/>
       <c r="I350" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J350" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="57" x14ac:dyDescent="0.25">
@@ -11942,14 +11969,14 @@
         <v>7</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H351" s="4"/>
       <c r="I351" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J351" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -11958,7 +11985,7 @@
         <v>12.01.2010</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -11967,13 +11994,13 @@
         <v>1</v>
       </c>
       <c r="G352" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="H352" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="I352" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="H352" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="J352" s="9"/>
     </row>
@@ -11993,10 +12020,10 @@
         <v>177</v>
       </c>
       <c r="H353" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J353" s="9"/>
     </row>
@@ -12006,7 +12033,7 @@
         <v>07.12.2009</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -12015,13 +12042,13 @@
         <v>1</v>
       </c>
       <c r="G354" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H354" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="H354" s="4" t="s">
+      <c r="I354" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="I354" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="J354" s="9"/>
     </row>
@@ -12038,13 +12065,13 @@
         <v>2</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H355" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J355" s="9"/>
     </row>
@@ -12054,7 +12081,7 @@
         <v>26.10.2009</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -12063,13 +12090,13 @@
         <v>1</v>
       </c>
       <c r="G356" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="H356" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="H356" s="4" t="s">
+      <c r="I356" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="I356" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="J356" s="9"/>
     </row>
@@ -12086,13 +12113,13 @@
         <v>2</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H357" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J357" s="9"/>
     </row>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1051">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3172,33 +3172,6 @@
   </si>
   <si>
     <t>talks/20191101/20191101_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20192201_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20193301_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20194401_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20195501_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20196601_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20197701_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20198801_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20191101/20199901_summary.html</t>
-  </si>
-  <si>
-    <t>talks/20190821/20191121_summary.html</t>
   </si>
 </sst>
 </file>
@@ -3664,7 +3637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,8 +3645,8 @@
     <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="59.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="168.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="89.28515625" style="8" bestFit="1" customWidth="1"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27680" windowHeight="13190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -3704,28 +3704,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.26953125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.7265625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="44.26953125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="61.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" style="8" customWidth="1"/>
     <col min="6" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="168.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.81640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="168.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" style="15" customWidth="1"/>
     <col min="10" max="10" width="69" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.453125" style="7"/>
+    <col min="11" max="11" width="65.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -3760,9 +3760,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
-        <f>"08.12.2022"</f>
+        <f t="shared" ref="A2:A7" si="0">"08.12.2022"</f>
         <v>08.12.2022</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3791,9 +3791,9 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
-        <f>"08.12.2022"</f>
+        <f t="shared" si="0"/>
         <v>08.12.2022</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3818,9 +3818,9 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
-        <f>"08.12.2022"</f>
+        <f t="shared" si="0"/>
         <v>08.12.2022</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3845,9 +3845,9 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
-        <f>"08.12.2022"</f>
+        <f t="shared" si="0"/>
         <v>08.12.2022</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3873,9 +3873,9 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
-        <f>"08.12.2022"</f>
+        <f t="shared" si="0"/>
         <v>08.12.2022</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3900,9 +3900,9 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
-        <f>"08.12.2022"</f>
+        <f t="shared" si="0"/>
         <v>08.12.2022</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3927,9 +3927,9 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="str">
-        <f t="shared" ref="A8:A13" si="0">"15.07.2022"</f>
+        <f t="shared" ref="A8:A13" si="1">"15.07.2022"</f>
         <v>15.07.2022</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -3956,9 +3956,9 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.07.2022</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3983,9 +3983,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.07.2022</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -4010,9 +4010,9 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.07.2022</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -4037,9 +4037,9 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.07.2022</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -4064,9 +4064,9 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.07.2022</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="str">
         <f>"23.06.2022"</f>
         <v>23.06.2022</v>
@@ -4114,9 +4114,9 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="str">
-        <f t="shared" ref="A15:A21" si="1">"23.06.2022"</f>
+        <f t="shared" ref="A15:A21" si="2">"23.06.2022"</f>
         <v>23.06.2022</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4139,9 +4139,9 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.06.2022</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4166,9 +4166,9 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.06.2022</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4193,9 +4193,9 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.06.2022</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4220,9 +4220,9 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.06.2022</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4247,9 +4247,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.06.2022</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4274,9 +4274,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.06.2022</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f>"24.05.2022"</f>
         <v>24.05.2022</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f>"24.05.2022"</f>
         <v>24.05.2022</v>
@@ -4353,7 +4353,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>981</v>
       </c>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>981</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -4434,9 +4434,9 @@
         <v>973</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
-        <f t="shared" ref="A27:A29" si="2">"21.02.2022"</f>
+        <f t="shared" ref="A27:A29" si="3">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B27" s="3"/>
@@ -4459,9 +4459,9 @@
         <v>975</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.02.2022</v>
       </c>
       <c r="B28" s="3"/>
@@ -4484,9 +4484,9 @@
         <v>977</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.02.2022</v>
       </c>
       <c r="B29" s="3"/>
@@ -4509,7 +4509,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f>"27.07.2021"</f>
         <v>27.07.2021</v>
@@ -4536,9 +4536,9 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
-        <f t="shared" ref="A31:A34" si="3">"27.07.2021"</f>
+        <f t="shared" ref="A31:A34" si="4">"27.07.2021"</f>
         <v>27.07.2021</v>
       </c>
       <c r="B31" s="13"/>
@@ -4561,9 +4561,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.07.2021</v>
       </c>
       <c r="B32" s="13"/>
@@ -4586,9 +4586,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.07.2021</v>
       </c>
       <c r="B33" s="13"/>
@@ -4611,9 +4611,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.07.2021</v>
       </c>
       <c r="B34" s="13"/>
@@ -4636,7 +4636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f>"28.06.2021"</f>
         <v>28.06.2021</v>
@@ -4665,9 +4665,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
-        <f t="shared" ref="A36:A42" si="4">"28.06.2021"</f>
+        <f t="shared" ref="A36:A42" si="5">"28.06.2021"</f>
         <v>28.06.2021</v>
       </c>
       <c r="B36" s="13"/>
@@ -4690,9 +4690,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.06.2021</v>
       </c>
       <c r="B37" s="13"/>
@@ -4715,9 +4715,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.06.2021</v>
       </c>
       <c r="B38" s="13"/>
@@ -4740,9 +4740,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.06.2021</v>
       </c>
       <c r="B39" s="13"/>
@@ -4765,9 +4765,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.06.2021</v>
       </c>
       <c r="B40" s="13"/>
@@ -4790,9 +4790,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.06.2021</v>
       </c>
       <c r="B41" s="13"/>
@@ -4815,9 +4815,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.06.2021</v>
       </c>
       <c r="B42" s="13"/>
@@ -4840,7 +4840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f>"16.06.2021"</f>
         <v>16.06.2021</v>
@@ -4869,9 +4869,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
-        <f t="shared" ref="A44:A46" si="5">"16.06.2021"</f>
+        <f t="shared" ref="A44:A46" si="6">"16.06.2021"</f>
         <v>16.06.2021</v>
       </c>
       <c r="B44" s="13"/>
@@ -4894,9 +4894,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.06.2021</v>
       </c>
       <c r="B45" s="13"/>
@@ -4919,9 +4919,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.06.2021</v>
       </c>
       <c r="B46" s="13"/>
@@ -4944,7 +4944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>"22.03.2021"</f>
         <v>22.03.2021</v>
@@ -4973,9 +4973,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
-        <f t="shared" ref="A48:A56" si="6">"22.03.2021"</f>
+        <f t="shared" ref="A48:A56" si="7">"22.03.2021"</f>
         <v>22.03.2021</v>
       </c>
       <c r="B48" s="13"/>
@@ -4998,9 +4998,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B49" s="13"/>
@@ -5023,9 +5023,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B50" s="13"/>
@@ -5048,9 +5048,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B51" s="13"/>
@@ -5073,9 +5073,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B52" s="13"/>
@@ -5098,9 +5098,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B53" s="13"/>
@@ -5123,9 +5123,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B54" s="13"/>
@@ -5148,9 +5148,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B55" s="13"/>
@@ -5173,9 +5173,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.03.2021</v>
       </c>
       <c r="B56" s="13"/>
@@ -5198,7 +5198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>"08.03.2021"</f>
         <v>08.03.2021</v>
@@ -5225,9 +5225,9 @@
       </c>
       <c r="J57" s="16"/>
     </row>
-    <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
-        <f t="shared" ref="A58:A63" si="7">"08.03.2021"</f>
+        <f t="shared" ref="A58:A63" si="8">"08.03.2021"</f>
         <v>08.03.2021</v>
       </c>
       <c r="B58" s="13"/>
@@ -5250,9 +5250,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>08.03.2021</v>
       </c>
       <c r="B59" s="13"/>
@@ -5275,9 +5275,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>08.03.2021</v>
       </c>
       <c r="B60" s="13"/>
@@ -5300,9 +5300,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>08.03.2021</v>
       </c>
       <c r="B61" s="13"/>
@@ -5325,9 +5325,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>08.03.2021</v>
       </c>
       <c r="B62" s="13"/>
@@ -5350,9 +5350,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>08.03.2021</v>
       </c>
       <c r="B63" s="13"/>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="str">
         <f>"03.11.2020"</f>
         <v>03.11.2020</v>
@@ -5402,9 +5402,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="str">
-        <f t="shared" ref="A65:A71" si="8">"03.11.2020"</f>
+        <f t="shared" ref="A65:A71" si="9">"03.11.2020"</f>
         <v>03.11.2020</v>
       </c>
       <c r="B65" s="13"/>
@@ -5427,9 +5427,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>03.11.2020</v>
       </c>
       <c r="B66" s="13"/>
@@ -5452,9 +5452,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>03.11.2020</v>
       </c>
       <c r="B67" s="13"/>
@@ -5477,9 +5477,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>03.11.2020</v>
       </c>
       <c r="B68" s="13"/>
@@ -5502,9 +5502,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>03.11.2020</v>
       </c>
       <c r="B69" s="13"/>
@@ -5527,9 +5527,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>03.11.2020</v>
       </c>
       <c r="B70" s="13"/>
@@ -5552,9 +5552,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>03.11.2020</v>
       </c>
       <c r="B71" s="13"/>
@@ -5577,7 +5577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="str">
         <f>"07.09.2020"</f>
         <v>07.09.2020</v>
@@ -5606,9 +5606,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="str">
-        <f t="shared" ref="A73:A81" si="9">"07.09.2020"</f>
+        <f t="shared" ref="A73:A81" si="10">"07.09.2020"</f>
         <v>07.09.2020</v>
       </c>
       <c r="B73" s="13"/>
@@ -5631,9 +5631,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B74" s="13"/>
@@ -5656,9 +5656,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B75" s="13"/>
@@ -5681,9 +5681,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B76" s="13"/>
@@ -5706,9 +5706,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B77" s="13"/>
@@ -5731,9 +5731,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B78" s="13"/>
@@ -5756,9 +5756,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B79" s="13"/>
@@ -5781,9 +5781,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B80" s="13"/>
@@ -5806,9 +5806,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>07.09.2020</v>
       </c>
       <c r="B81" s="13"/>
@@ -5829,7 +5829,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="str">
         <f>"30.06.2020"</f>
         <v>30.06.2020</v>
@@ -5858,9 +5858,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="str">
-        <f t="shared" ref="A83:A86" si="10">"30.06.2020"</f>
+        <f t="shared" ref="A83:A86" si="11">"30.06.2020"</f>
         <v>30.06.2020</v>
       </c>
       <c r="B83" s="13"/>
@@ -5883,9 +5883,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.06.2020</v>
       </c>
       <c r="B84" s="13"/>
@@ -5908,9 +5908,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.06.2020</v>
       </c>
       <c r="B85" s="13"/>
@@ -5933,9 +5933,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.06.2020</v>
       </c>
       <c r="B86" s="13"/>
@@ -5958,7 +5958,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f>"29.06.2020"</f>
         <v>29.06.2020</v>
@@ -5987,9 +5987,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
-        <f t="shared" ref="A88:A93" si="11">"29.06.2020"</f>
+        <f t="shared" ref="A88:A93" si="12">"29.06.2020"</f>
         <v>29.06.2020</v>
       </c>
       <c r="B88" s="13"/>
@@ -6012,9 +6012,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.06.2020</v>
       </c>
       <c r="B89" s="13"/>
@@ -6037,9 +6037,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.06.2020</v>
       </c>
       <c r="B90" s="13"/>
@@ -6062,9 +6062,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.06.2020</v>
       </c>
       <c r="B91" s="13"/>
@@ -6087,9 +6087,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.06.2020</v>
       </c>
       <c r="B92" s="13"/>
@@ -6112,9 +6112,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.06.2020</v>
       </c>
       <c r="B93" s="13"/>
@@ -6135,7 +6135,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>"03.06.2020"</f>
         <v>03.06.2020</v>
@@ -6162,9 +6162,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="str">
-        <f t="shared" ref="A95:A97" si="12">"03.06.2020"</f>
+        <f t="shared" ref="A95:A97" si="13">"03.06.2020"</f>
         <v>03.06.2020</v>
       </c>
       <c r="B95" s="13"/>
@@ -6187,9 +6187,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03.06.2020</v>
       </c>
       <c r="B96" s="13"/>
@@ -6212,9 +6212,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>03.06.2020</v>
       </c>
       <c r="B97" s="13"/>
@@ -6237,7 +6237,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
         <f>"06.05.2020"</f>
         <v>06.05.2020</v>
@@ -6264,9 +6264,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
-        <f t="shared" ref="A99:A103" si="13">"06.05.2020"</f>
+        <f t="shared" ref="A99:A103" si="14">"06.05.2020"</f>
         <v>06.05.2020</v>
       </c>
       <c r="B99" s="13"/>
@@ -6289,9 +6289,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06.05.2020</v>
       </c>
       <c r="B100" s="13"/>
@@ -6314,9 +6314,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06.05.2020</v>
       </c>
       <c r="B101" s="13"/>
@@ -6339,9 +6339,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06.05.2020</v>
       </c>
       <c r="B102" s="13"/>
@@ -6364,9 +6364,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>06.05.2020</v>
       </c>
       <c r="B103" s="13"/>
@@ -6389,7 +6389,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="str">
         <f>"04.02.2020"</f>
         <v>04.02.2020</v>
@@ -6414,9 +6414,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="str">
-        <f t="shared" ref="A105:A109" si="14">"04.02.2020"</f>
+        <f t="shared" ref="A105:A109" si="15">"04.02.2020"</f>
         <v>04.02.2020</v>
       </c>
       <c r="B105" s="13"/>
@@ -6437,9 +6437,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.02.2020</v>
       </c>
       <c r="B106" s="13"/>
@@ -6460,9 +6460,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.02.2020</v>
       </c>
       <c r="B107" s="13"/>
@@ -6483,9 +6483,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.02.2020</v>
       </c>
       <c r="B108" s="13"/>
@@ -6504,9 +6504,9 @@
       </c>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.02.2020</v>
       </c>
       <c r="B109" s="13"/>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="str">
         <f>"01.11.2019"</f>
         <v>01.11.2019</v>
@@ -6552,9 +6552,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="str">
-        <f t="shared" ref="A111:A118" si="15">"01.11.2019"</f>
+        <f t="shared" ref="A111:A118" si="16">"01.11.2019"</f>
         <v>01.11.2019</v>
       </c>
       <c r="B111" s="13"/>
@@ -6575,9 +6575,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B112" s="13"/>
@@ -6598,9 +6598,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B113" s="13"/>
@@ -6621,9 +6621,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B114" s="13"/>
@@ -6644,9 +6644,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B115" s="13"/>
@@ -6664,9 +6664,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B116" s="13"/>
@@ -6687,9 +6687,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B117" s="13"/>
@@ -6710,9 +6710,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>01.11.2019</v>
       </c>
       <c r="B118" s="13"/>
@@ -6733,7 +6733,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
         <f>"21.08.2019"</f>
         <v>21.08.2019</v>
@@ -6757,9 +6757,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="str">
-        <f t="shared" ref="A120:A125" si="16">"21.08.2019"</f>
+        <f t="shared" ref="A120:A125" si="17">"21.08.2019"</f>
         <v>21.08.2019</v>
       </c>
       <c r="B120" s="13"/>
@@ -6779,9 +6779,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.08.2019</v>
       </c>
       <c r="B121" s="13"/>
@@ -6798,9 +6798,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.08.2019</v>
       </c>
       <c r="B122" s="13"/>
@@ -6818,9 +6818,9 @@
       </c>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.08.2019</v>
       </c>
       <c r="B123" s="13"/>
@@ -6838,9 +6838,9 @@
       </c>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.08.2019</v>
       </c>
       <c r="B124" s="13"/>
@@ -6858,9 +6858,9 @@
       </c>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.08.2019</v>
       </c>
       <c r="B125" s="13"/>
@@ -6880,7 +6880,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
         <f>"04.06.2019"</f>
         <v>04.06.2019</v>
@@ -6901,9 +6901,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="str">
-        <f t="shared" ref="A127:A133" si="17">"04.06.2019"</f>
+        <f t="shared" ref="A127:A133" si="18">"04.06.2019"</f>
         <v>04.06.2019</v>
       </c>
       <c r="B127" s="13"/>
@@ -6923,9 +6923,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.06.2019</v>
       </c>
       <c r="B128" s="13"/>
@@ -6945,9 +6945,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.06.2019</v>
       </c>
       <c r="B129" s="13"/>
@@ -6967,9 +6967,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.06.2019</v>
       </c>
       <c r="B130" s="13"/>
@@ -6989,9 +6989,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.06.2019</v>
       </c>
       <c r="B131" s="13"/>
@@ -7011,9 +7011,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.06.2019</v>
       </c>
       <c r="B132" s="13"/>
@@ -7033,9 +7033,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.06.2019</v>
       </c>
       <c r="B133" s="13"/>
@@ -7055,7 +7055,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="str">
         <f>"10.05.2019"</f>
         <v>10.05.2019</v>
@@ -7079,9 +7079,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="str">
-        <f t="shared" ref="A135:A145" si="18">"10.05.2019"</f>
+        <f t="shared" ref="A135:A145" si="19">"10.05.2019"</f>
         <v>10.05.2019</v>
       </c>
       <c r="B135" s="13"/>
@@ -7101,9 +7101,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B136" s="13"/>
@@ -7123,9 +7123,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B137" s="13"/>
@@ -7145,9 +7145,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B138" s="13"/>
@@ -7167,9 +7167,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B139" s="13"/>
@@ -7189,9 +7189,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B140" s="13"/>
@@ -7211,9 +7211,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B141" s="13"/>
@@ -7233,9 +7233,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B142" s="13"/>
@@ -7255,9 +7255,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B143" s="13"/>
@@ -7277,9 +7277,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B144" s="13"/>
@@ -7296,9 +7296,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.05.2019</v>
       </c>
       <c r="B145" s="13"/>
@@ -7315,7 +7315,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
         <f>"27.06.2018"</f>
         <v>27.06.2018</v>
@@ -7339,9 +7339,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
-        <f t="shared" ref="A147:A154" si="19">"27.06.2018"</f>
+        <f t="shared" ref="A147:A154" si="20">"27.06.2018"</f>
         <v>27.06.2018</v>
       </c>
       <c r="B147" s="13"/>
@@ -7361,9 +7361,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B148" s="13"/>
@@ -7383,9 +7383,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B149" s="13"/>
@@ -7405,9 +7405,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B150" s="13"/>
@@ -7427,9 +7427,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B151" s="13"/>
@@ -7449,9 +7449,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B152" s="13"/>
@@ -7471,9 +7471,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B153" s="13"/>
@@ -7493,9 +7493,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27.06.2018</v>
       </c>
       <c r="B154" s="13"/>
@@ -7515,7 +7515,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
         <f>"26.06.2018"</f>
         <v>26.06.2018</v>
@@ -7539,9 +7539,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
-        <f t="shared" ref="A156:A157" si="20">"26.06.2018"</f>
+        <f t="shared" ref="A156:A157" si="21">"26.06.2018"</f>
         <v>26.06.2018</v>
       </c>
       <c r="B156" s="13"/>
@@ -7561,9 +7561,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>26.06.2018</v>
       </c>
       <c r="B157" s="13"/>
@@ -7583,7 +7583,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
         <f>"17.04.2018"</f>
         <v>17.04.2018</v>
@@ -7607,9 +7607,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
-        <f t="shared" ref="A159:A162" si="21">"17.04.2018"</f>
+        <f t="shared" ref="A159:A162" si="22">"17.04.2018"</f>
         <v>17.04.2018</v>
       </c>
       <c r="B159" s="13"/>
@@ -7629,9 +7629,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17.04.2018</v>
       </c>
       <c r="B160" s="13"/>
@@ -7651,9 +7651,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17.04.2018</v>
       </c>
       <c r="B161" s="13"/>
@@ -7673,9 +7673,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17.04.2018</v>
       </c>
       <c r="B162" s="13"/>
@@ -7695,7 +7695,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="str">
         <f>"20.03.2018"</f>
         <v>20.03.2018</v>
@@ -7719,9 +7719,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
-        <f t="shared" ref="A164:A165" si="22">"20.03.2018"</f>
+        <f t="shared" ref="A164:A165" si="23">"20.03.2018"</f>
         <v>20.03.2018</v>
       </c>
       <c r="B164" s="13"/>
@@ -7741,9 +7741,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20.03.2018</v>
       </c>
       <c r="B165" s="13"/>
@@ -7763,7 +7763,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="J166" s="16"/>
     </row>
-    <row r="167" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="J167" s="16"/>
     </row>
-    <row r="168" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="J168" s="16"/>
     </row>
-    <row r="169" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
         <f>"11.09.2017"</f>
         <v>11.09.2017</v>
@@ -7859,9 +7859,9 @@
       </c>
       <c r="J169" s="16"/>
     </row>
-    <row r="170" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
-        <f t="shared" ref="A170:A176" si="23">"11.09.2017"</f>
+        <f t="shared" ref="A170:A176" si="24">"11.09.2017"</f>
         <v>11.09.2017</v>
       </c>
       <c r="B170" s="13"/>
@@ -7882,9 +7882,9 @@
       </c>
       <c r="J170" s="16"/>
     </row>
-    <row r="171" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.09.2017</v>
       </c>
       <c r="B171" s="13"/>
@@ -7905,9 +7905,9 @@
       </c>
       <c r="J171" s="16"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.09.2017</v>
       </c>
       <c r="B172" s="13"/>
@@ -7928,9 +7928,9 @@
       </c>
       <c r="J172" s="16"/>
     </row>
-    <row r="173" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.09.2017</v>
       </c>
       <c r="B173" s="13"/>
@@ -7951,9 +7951,9 @@
       </c>
       <c r="J173" s="16"/>
     </row>
-    <row r="174" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.09.2017</v>
       </c>
       <c r="B174" s="13"/>
@@ -7974,9 +7974,9 @@
       </c>
       <c r="J174" s="16"/>
     </row>
-    <row r="175" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.09.2017</v>
       </c>
       <c r="B175" s="13"/>
@@ -7997,9 +7997,9 @@
       </c>
       <c r="J175" s="16"/>
     </row>
-    <row r="176" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.09.2017</v>
       </c>
       <c r="B176" s="13"/>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="J176" s="16"/>
     </row>
-    <row r="177" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="str">
         <f>"26.06.2017"</f>
         <v>26.06.2017</v>
@@ -8045,9 +8045,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="str">
-        <f t="shared" ref="A178:A179" si="24">"26.06.2017"</f>
+        <f t="shared" ref="A178:A179" si="25">"26.06.2017"</f>
         <v>26.06.2017</v>
       </c>
       <c r="B178" s="13"/>
@@ -8068,9 +8068,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26.06.2017</v>
       </c>
       <c r="B179" s="13"/>
@@ -8091,9 +8091,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="str">
-        <f t="shared" ref="A180:A188" si="25">"15.06.2017"</f>
+        <f t="shared" ref="A180:A188" si="26">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
       <c r="B180" s="13" t="s">
@@ -8115,9 +8115,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B181" s="13"/>
@@ -8137,9 +8137,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B182" s="13"/>
@@ -8159,9 +8159,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B183" s="13"/>
@@ -8181,9 +8181,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B184" s="13"/>
@@ -8203,9 +8203,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B185" s="13"/>
@@ -8225,9 +8225,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B186" s="13"/>
@@ -8247,9 +8247,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B187" s="13"/>
@@ -8269,9 +8269,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15.06.2017</v>
       </c>
       <c r="B188" s="13"/>
@@ -8291,7 +8291,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="str">
         <f>"05.05.2017"</f>
         <v>05.05.2017</v>
@@ -8315,9 +8315,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="str">
-        <f t="shared" ref="A190:A194" si="26">"05.05.2017"</f>
+        <f t="shared" ref="A190:A194" si="27">"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
       <c r="B190" s="13"/>
@@ -8337,9 +8337,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>05.05.2017</v>
       </c>
       <c r="B191" s="13"/>
@@ -8359,9 +8359,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>05.05.2017</v>
       </c>
       <c r="B192" s="13"/>
@@ -8381,9 +8381,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>05.05.2017</v>
       </c>
       <c r="B193" s="13"/>
@@ -8403,9 +8403,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>05.05.2017</v>
       </c>
       <c r="B194" s="13"/>
@@ -8425,7 +8425,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
         <f>"13.03.2017"</f>
         <v>13.03.2017</v>
@@ -8450,7 +8450,7 @@
       </c>
       <c r="J195" s="12"/>
     </row>
-    <row r="196" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="str">
         <f>"13.03.2017"</f>
         <v>13.03.2017</v>
@@ -8475,7 +8475,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
         <f>"29.11.2016"</f>
         <v>29.11.2016</v>
@@ -8499,9 +8499,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
-        <f t="shared" ref="A198:A201" si="27">"29.11.2016"</f>
+        <f t="shared" ref="A198:A201" si="28">"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
       <c r="B198" s="13"/>
@@ -8521,9 +8521,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29.11.2016</v>
       </c>
       <c r="B199" s="13"/>
@@ -8543,9 +8543,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29.11.2016</v>
       </c>
       <c r="B200" s="13"/>
@@ -8565,9 +8565,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29.11.2016</v>
       </c>
       <c r="B201" s="13"/>
@@ -8587,7 +8587,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
         <f>"14.11.2016"</f>
         <v>14.11.2016</v>
@@ -8612,9 +8612,9 @@
       </c>
       <c r="J202" s="12"/>
     </row>
-    <row r="203" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
-        <f t="shared" ref="A203:A205" si="28">"14.11.2016"</f>
+        <f t="shared" ref="A203:A205" si="29">"14.11.2016"</f>
         <v>14.11.2016</v>
       </c>
       <c r="B203" s="13"/>
@@ -8635,9 +8635,9 @@
       </c>
       <c r="J203" s="12"/>
     </row>
-    <row r="204" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.11.2016</v>
       </c>
       <c r="B204" s="13"/>
@@ -8658,9 +8658,9 @@
       </c>
       <c r="J204" s="12"/>
     </row>
-    <row r="205" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.11.2016</v>
       </c>
       <c r="B205" s="13"/>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="J205" s="12"/>
     </row>
-    <row r="206" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="str">
         <f>"17.10.2016"</f>
         <v>17.10.2016</v>
@@ -8706,9 +8706,9 @@
       </c>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
-        <f t="shared" ref="A207:A208" si="29">"17.10.2016"</f>
+        <f t="shared" ref="A207:A208" si="30">"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
       <c r="B207" s="13"/>
@@ -8729,9 +8729,9 @@
       </c>
       <c r="J207" s="12"/>
     </row>
-    <row r="208" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.10.2016</v>
       </c>
       <c r="B208" s="13"/>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="J208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="str">
         <f>"14.09.2016"</f>
         <v>14.09.2016</v>
@@ -8777,9 +8777,9 @@
       </c>
       <c r="J209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="str">
-        <f t="shared" ref="A210:A214" si="30">"14.09.2016"</f>
+        <f t="shared" ref="A210:A214" si="31">"14.09.2016"</f>
         <v>14.09.2016</v>
       </c>
       <c r="B210" s="13"/>
@@ -8800,9 +8800,9 @@
       </c>
       <c r="J210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.09.2016</v>
       </c>
       <c r="B211" s="13"/>
@@ -8823,9 +8823,9 @@
       </c>
       <c r="J211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.09.2016</v>
       </c>
       <c r="B212" s="13"/>
@@ -8846,9 +8846,9 @@
       </c>
       <c r="J212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.09.2016</v>
       </c>
       <c r="B213" s="13"/>
@@ -8869,9 +8869,9 @@
       </c>
       <c r="J213" s="12"/>
     </row>
-    <row r="214" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.09.2016</v>
       </c>
       <c r="B214" s="13"/>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="J214" s="12"/>
     </row>
-    <row r="215" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8916,7 +8916,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8938,7 +8938,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8960,7 +8960,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="J218" s="12"/>
     </row>
-    <row r="219" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
@@ -9004,9 +9004,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
-        <f t="shared" ref="A220:A228" si="31">"28.04.2016"</f>
+        <f t="shared" ref="A220:A228" si="32">"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
       <c r="B220" s="13"/>
@@ -9027,9 +9027,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B221" s="13"/>
@@ -9047,9 +9047,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B222" s="13"/>
@@ -9070,9 +9070,9 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B223" s="13"/>
@@ -9093,9 +9093,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B224" s="13"/>
@@ -9116,9 +9116,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B225" s="13"/>
@@ -9139,9 +9139,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B226" s="13"/>
@@ -9160,9 +9160,9 @@
       </c>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B227" s="13"/>
@@ -9183,9 +9183,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>28.04.2016</v>
       </c>
       <c r="B228" s="13"/>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="str">
         <f>"13.01.2016"</f>
         <v>13.01.2016</v>
@@ -9229,9 +9229,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="str">
-        <f t="shared" ref="A230:A234" si="32">"13.01.2016"</f>
+        <f t="shared" ref="A230:A234" si="33">"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
       <c r="B230" s="13"/>
@@ -9252,9 +9252,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.01.2016</v>
       </c>
       <c r="B231" s="13"/>
@@ -9275,9 +9275,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.01.2016</v>
       </c>
       <c r="B232" s="13"/>
@@ -9298,9 +9298,9 @@
         <v>566</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.01.2016</v>
       </c>
       <c r="B233" s="13"/>
@@ -9319,9 +9319,9 @@
       </c>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.01.2016</v>
       </c>
       <c r="B234" s="13"/>
@@ -9342,7 +9342,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="str">
         <f>"27.10.2015"</f>
         <v>27.10.2015</v>
@@ -9367,7 +9367,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="str">
         <f>"27.10.2015"</f>
         <v>27.10.2015</v>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="J236" s="9"/>
     </row>
-    <row r="237" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="str">
         <f>"23.06.2015"</f>
         <v>23.06.2015</v>
@@ -9413,9 +9413,9 @@
       </c>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="str">
-        <f t="shared" ref="A238:A247" si="33">"23.06.2015"</f>
+        <f t="shared" ref="A238:A247" si="34">"23.06.2015"</f>
         <v>23.06.2015</v>
       </c>
       <c r="B238" s="13"/>
@@ -9434,9 +9434,9 @@
       </c>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B239" s="13"/>
@@ -9457,9 +9457,9 @@
       </c>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B240" s="13"/>
@@ -9480,9 +9480,9 @@
       </c>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B241" s="13"/>
@@ -9503,9 +9503,9 @@
       </c>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B242" s="13"/>
@@ -9526,9 +9526,9 @@
       </c>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B243" s="13"/>
@@ -9549,9 +9549,9 @@
       </c>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B244" s="13"/>
@@ -9572,9 +9572,9 @@
       </c>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B245" s="13"/>
@@ -9595,9 +9595,9 @@
       </c>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B246" s="13"/>
@@ -9618,9 +9618,9 @@
       </c>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23.06.2015</v>
       </c>
       <c r="B247" s="13"/>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
@@ -9666,7 +9666,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
@@ -9689,7 +9689,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
         <f>"13.04.2015"</f>
         <v>13.04.2015</v>
@@ -9712,7 +9712,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="str">
         <f>"13.11.2014"</f>
         <v>13.11.2014</v>
@@ -9737,9 +9737,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
-        <f t="shared" ref="A252:A258" si="34">"13.11.2014"</f>
+        <f t="shared" ref="A252:A258" si="35">"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
       <c r="B252" s="13"/>
@@ -9760,9 +9760,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.11.2014</v>
       </c>
       <c r="B253" s="13"/>
@@ -9783,9 +9783,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.11.2014</v>
       </c>
       <c r="B254" s="13"/>
@@ -9806,9 +9806,9 @@
         <v>598</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.11.2014</v>
       </c>
       <c r="B255" s="13"/>
@@ -9829,9 +9829,9 @@
         <v>599</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.11.2014</v>
       </c>
       <c r="B256" s="13"/>
@@ -9852,9 +9852,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.11.2014</v>
       </c>
       <c r="B257" s="13"/>
@@ -9875,9 +9875,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>13.11.2014</v>
       </c>
       <c r="B258" s="13"/>
@@ -9898,7 +9898,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="str">
         <f>"02.10.2014"</f>
         <v>02.10.2014</v>
@@ -9923,9 +9923,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="str">
-        <f t="shared" ref="A260:A265" si="35">"02.10.2014"</f>
+        <f t="shared" ref="A260:A265" si="36">"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
       <c r="B260" s="13"/>
@@ -9946,9 +9946,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>02.10.2014</v>
       </c>
       <c r="B261" s="13"/>
@@ -9969,9 +9969,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>02.10.2014</v>
       </c>
       <c r="B262" s="13"/>
@@ -9992,9 +9992,9 @@
         <v>620</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>02.10.2014</v>
       </c>
       <c r="B263" s="13"/>
@@ -10015,9 +10015,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>02.10.2014</v>
       </c>
       <c r="B264" s="13"/>
@@ -10038,9 +10038,9 @@
         <v>622</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>02.10.2014</v>
       </c>
       <c r="B265" s="13"/>
@@ -10061,7 +10061,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="str">
         <f>"07.05.2014"</f>
         <v>07.05.2014</v>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="str">
         <f>"07.05.2014"</f>
         <v>07.05.2014</v>
@@ -10103,7 +10103,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="str">
         <f>"04.02.2014"</f>
         <v>04.02.2014</v>
@@ -10122,7 +10122,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
@@ -10147,7 +10147,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
@@ -10170,7 +10170,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="str">
         <f>"18.06.2013"</f>
         <v>18.06.2013</v>
@@ -10193,7 +10193,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="str">
         <f>"04.06.2013"</f>
         <v>04.06.2013</v>
@@ -10218,9 +10218,9 @@
         <v>660</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="str">
-        <f t="shared" ref="A273:A285" si="36">"04.06.2013"</f>
+        <f t="shared" ref="A273:A285" si="37">"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
       <c r="B273" s="13"/>
@@ -10241,9 +10241,9 @@
         <v>661</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B274" s="13"/>
@@ -10264,9 +10264,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B275" s="13"/>
@@ -10287,9 +10287,9 @@
         <v>663</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B276" s="13"/>
@@ -10310,9 +10310,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B277" s="13"/>
@@ -10333,9 +10333,9 @@
         <v>665</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B278" s="13"/>
@@ -10356,9 +10356,9 @@
         <v>666</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B279" s="13"/>
@@ -10379,9 +10379,9 @@
         <v>667</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B280" s="13"/>
@@ -10402,9 +10402,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B281" s="13"/>
@@ -10425,9 +10425,9 @@
         <v>669</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B282" s="13"/>
@@ -10448,9 +10448,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B283" s="13"/>
@@ -10471,9 +10471,9 @@
         <v>671</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B284" s="13"/>
@@ -10494,9 +10494,9 @@
         <v>672</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>04.06.2013</v>
       </c>
       <c r="B285" s="13"/>
@@ -10517,7 +10517,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="str">
         <f>"28.11.2012"</f>
         <v>28.11.2012</v>
@@ -10542,9 +10542,9 @@
       </c>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="str">
-        <f t="shared" ref="A287:A288" si="37">"28.11.2012"</f>
+        <f t="shared" ref="A287:A288" si="38">"28.11.2012"</f>
         <v>28.11.2012</v>
       </c>
       <c r="B287" s="13"/>
@@ -10565,9 +10565,9 @@
       </c>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>28.11.2012</v>
       </c>
       <c r="B288" s="13"/>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="str">
         <f>"25.09.2012"</f>
         <v>25.09.2012</v>
@@ -10613,9 +10613,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="str">
-        <f t="shared" ref="A290:A293" si="38">"25.09.2012"</f>
+        <f t="shared" ref="A290:A293" si="39">"25.09.2012"</f>
         <v>25.09.2012</v>
       </c>
       <c r="B290" s="13"/>
@@ -10636,9 +10636,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>25.09.2012</v>
       </c>
       <c r="B291" s="13"/>
@@ -10659,9 +10659,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>25.09.2012</v>
       </c>
       <c r="B292" s="13"/>
@@ -10682,9 +10682,9 @@
         <v>696</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>25.09.2012</v>
       </c>
       <c r="B293" s="13"/>
@@ -10705,7 +10705,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="str">
         <f>"09.07.2012"</f>
         <v>09.07.2012</v>
@@ -10730,9 +10730,9 @@
         <v>704</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="str">
-        <f t="shared" ref="A295:A297" si="39">"09.07.2012"</f>
+        <f t="shared" ref="A295:A297" si="40">"09.07.2012"</f>
         <v>09.07.2012</v>
       </c>
       <c r="B295" s="13"/>
@@ -10753,9 +10753,9 @@
         <v>705</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>09.07.2012</v>
       </c>
       <c r="B296" s="13"/>
@@ -10774,9 +10774,9 @@
       </c>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>09.07.2012</v>
       </c>
       <c r="B297" s="13"/>
@@ -10797,7 +10797,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="str">
         <f>"22.05.2012"</f>
         <v>22.05.2012</v>
@@ -10816,7 +10816,7 @@
       <c r="I298" s="1"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="str">
         <f>"29.11.2011"</f>
         <v>29.11.2011</v>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="str">
         <f>"29.11.2011"</f>
         <v>29.11.2011</v>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="str">
         <f>"16.09.2011"</f>
         <v>16.09.2011</v>
@@ -10889,9 +10889,9 @@
         <v>729</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="str">
-        <f t="shared" ref="A302:A308" si="40">"16.09.2011"</f>
+        <f t="shared" ref="A302:A308" si="41">"16.09.2011"</f>
         <v>16.09.2011</v>
       </c>
       <c r="B302" s="13"/>
@@ -10912,9 +10912,9 @@
         <v>730</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.09.2011</v>
       </c>
       <c r="B303" s="13"/>
@@ -10935,9 +10935,9 @@
         <v>731</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.09.2011</v>
       </c>
       <c r="B304" s="13"/>
@@ -10956,9 +10956,9 @@
       </c>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.09.2011</v>
       </c>
       <c r="B305" s="13"/>
@@ -10979,9 +10979,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.09.2011</v>
       </c>
       <c r="B306" s="13"/>
@@ -11002,9 +11002,9 @@
         <v>736</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.09.2011</v>
       </c>
       <c r="B307" s="13"/>
@@ -11023,9 +11023,9 @@
       </c>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.09.2011</v>
       </c>
       <c r="B308" s="13"/>
@@ -11046,7 +11046,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="str">
         <f>"21.07.2011"</f>
         <v>21.07.2011</v>
@@ -11071,9 +11071,9 @@
         <v>746</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="str">
-        <f t="shared" ref="A310:A312" si="41">"21.07.2011"</f>
+        <f t="shared" ref="A310:A312" si="42">"21.07.2011"</f>
         <v>21.07.2011</v>
       </c>
       <c r="B310" s="13"/>
@@ -11094,9 +11094,9 @@
         <v>747</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21.07.2011</v>
       </c>
       <c r="B311" s="13"/>
@@ -11117,9 +11117,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21.07.2011</v>
       </c>
       <c r="B312" s="13"/>
@@ -11140,7 +11140,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="str">
         <f>"10.05.2011"</f>
         <v>10.05.2011</v>
@@ -11165,9 +11165,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="str">
-        <f t="shared" ref="A314:A321" si="42">"10.05.2011"</f>
+        <f t="shared" ref="A314:A321" si="43">"10.05.2011"</f>
         <v>10.05.2011</v>
       </c>
       <c r="B314" s="13"/>
@@ -11188,9 +11188,9 @@
         <v>764</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B315" s="13"/>
@@ -11211,9 +11211,9 @@
         <v>765</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B316" s="13"/>
@@ -11234,9 +11234,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B317" s="13"/>
@@ -11257,9 +11257,9 @@
         <v>767</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B318" s="13"/>
@@ -11280,9 +11280,9 @@
         <v>768</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B319" s="13"/>
@@ -11303,9 +11303,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B320" s="13"/>
@@ -11326,9 +11326,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10.05.2011</v>
       </c>
       <c r="B321" s="13"/>
@@ -11349,7 +11349,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="str">
         <f>"07.05.2011"</f>
         <v>07.05.2011</v>
@@ -11374,9 +11374,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="str">
-        <f t="shared" ref="A323:A326" si="43">"07.05.2011"</f>
+        <f t="shared" ref="A323:A326" si="44">"07.05.2011"</f>
         <v>07.05.2011</v>
       </c>
       <c r="B323" s="13"/>
@@ -11397,9 +11397,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>07.05.2011</v>
       </c>
       <c r="B324" s="13"/>
@@ -11418,9 +11418,9 @@
       </c>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>07.05.2011</v>
       </c>
       <c r="B325" s="13"/>
@@ -11441,9 +11441,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>07.05.2011</v>
       </c>
       <c r="B326" s="13"/>
@@ -11464,7 +11464,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="str">
         <f>"13.01.2011"</f>
         <v>13.01.2011</v>
@@ -11489,7 +11489,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="str">
         <f>"13.01.2011"</f>
         <v>13.01.2011</v>
@@ -11512,7 +11512,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="str">
         <f>"30.11.2010"</f>
         <v>30.11.2010</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="str">
         <f>"30.11.2010"</f>
         <v>30.11.2010</v>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="str">
         <f>"04.10.2010"</f>
         <v>04.10.2010</v>
@@ -11580,9 +11580,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="str">
-        <f t="shared" ref="A332:A341" si="44">"04.10.2010"</f>
+        <f t="shared" ref="A332:A341" si="45">"04.10.2010"</f>
         <v>04.10.2010</v>
       </c>
       <c r="B332" s="13"/>
@@ -11602,9 +11602,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B333" s="13"/>
@@ -11624,9 +11624,9 @@
         <v>803</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B334" s="13"/>
@@ -11646,9 +11646,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B335" s="13"/>
@@ -11669,9 +11669,9 @@
       </c>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B336" s="13"/>
@@ -11694,9 +11694,9 @@
         <v>822</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B337" s="13"/>
@@ -11719,9 +11719,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B338" s="13"/>
@@ -11739,9 +11739,9 @@
       </c>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B339" s="13"/>
@@ -11764,9 +11764,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B340" s="13"/>
@@ -11787,9 +11787,9 @@
       </c>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>04.10.2010</v>
       </c>
       <c r="B341" s="13"/>
@@ -11812,7 +11812,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="str">
         <f>"24.06.2010"</f>
         <v>24.06.2010</v>
@@ -11837,9 +11837,9 @@
       </c>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="str">
-        <f t="shared" ref="A343:A348" si="45">"24.06.2010"</f>
+        <f t="shared" ref="A343:A348" si="46">"24.06.2010"</f>
         <v>24.06.2010</v>
       </c>
       <c r="B343" s="13"/>
@@ -11860,9 +11860,9 @@
       </c>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24.06.2010</v>
       </c>
       <c r="B344" s="13"/>
@@ -11883,9 +11883,9 @@
       </c>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24.06.2010</v>
       </c>
       <c r="B345" s="13"/>
@@ -11906,9 +11906,9 @@
       </c>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24.06.2010</v>
       </c>
       <c r="B346" s="13"/>
@@ -11929,9 +11929,9 @@
       </c>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24.06.2010</v>
       </c>
       <c r="B347" s="13"/>
@@ -11952,9 +11952,9 @@
       </c>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>24.06.2010</v>
       </c>
       <c r="B348" s="13"/>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="str">
         <f>"28.04.2010"</f>
         <v>28.04.2010</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="str">
         <f>"28.04.2010"</f>
         <v>28.04.2010</v>
@@ -12025,7 +12025,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="str">
         <f>"12.03.2010"</f>
         <v>12.03.2010</v>
@@ -12050,9 +12050,9 @@
         <v>863</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="str">
-        <f t="shared" ref="A352:A357" si="46">"12.03.2010"</f>
+        <f t="shared" ref="A352:A357" si="47">"12.03.2010"</f>
         <v>12.03.2010</v>
       </c>
       <c r="B352" s="13"/>
@@ -12073,9 +12073,9 @@
         <v>864</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12.03.2010</v>
       </c>
       <c r="B353" s="13"/>
@@ -12096,9 +12096,9 @@
         <v>865</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12.03.2010</v>
       </c>
       <c r="B354" s="13"/>
@@ -12119,9 +12119,9 @@
         <v>866</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12.03.2010</v>
       </c>
       <c r="B355" s="13"/>
@@ -12142,9 +12142,9 @@
         <v>867</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12.03.2010</v>
       </c>
       <c r="B356" s="13"/>
@@ -12165,9 +12165,9 @@
         <v>868</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12.03.2010</v>
       </c>
       <c r="B357" s="13"/>
@@ -12188,7 +12188,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="str">
         <f>"12.01.2010"</f>
         <v>12.01.2010</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="J358" s="9"/>
     </row>
-    <row r="359" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="str">
         <f>"12.01.2010"</f>
         <v>12.01.2010</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="str">
         <f>"07.12.2009"</f>
         <v>07.12.2009</v>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="str">
         <f>"07.12.2009"</f>
         <v>07.12.2009</v>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="str">
         <f>"26.10.2009"</f>
         <v>26.10.2009</v>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="str">
         <f>"26.10.2009"</f>
         <v>26.10.2009</v>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="13"/>
       <c r="C364" s="11"/>
@@ -12344,7 +12344,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="16"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
       <c r="B365" s="13"/>
       <c r="C365" s="11"/>
@@ -12356,7 +12356,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="16"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
       <c r="B366" s="13"/>
       <c r="C366" s="11"/>
@@ -12368,7 +12368,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="16"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="9"/>
       <c r="B367" s="13"/>
       <c r="C367" s="11"/>
@@ -12380,7 +12380,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="16"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="13"/>
       <c r="C368" s="11"/>
@@ -12392,7 +12392,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="16"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="13"/>
       <c r="C369" s="11"/>
@@ -12404,7 +12404,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="16"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="13"/>
       <c r="C370" s="11"/>
@@ -12416,7 +12416,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="16"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="13"/>
       <c r="C371" s="11"/>
@@ -12428,7 +12428,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="16"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="13"/>
       <c r="C372" s="11"/>
@@ -12440,7 +12440,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="16"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="13"/>
       <c r="C373" s="11"/>
@@ -12452,7 +12452,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="16"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
       <c r="B374" s="13"/>
       <c r="C374" s="11"/>
@@ -12464,7 +12464,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="16"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
       <c r="B375" s="13"/>
       <c r="C375" s="11"/>
@@ -12476,7 +12476,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="16"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
       <c r="B376" s="13"/>
       <c r="C376" s="11"/>
@@ -12488,7 +12488,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="16"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
       <c r="B377" s="13"/>
       <c r="C377" s="11"/>
@@ -12500,7 +12500,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="16"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="9"/>
       <c r="B378" s="13"/>
       <c r="C378" s="11"/>
@@ -12512,7 +12512,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="16"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
       <c r="B379" s="13"/>
       <c r="C379" s="11"/>
@@ -12524,7 +12524,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="16"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
       <c r="B380" s="13"/>
       <c r="C380" s="11"/>
@@ -12536,7 +12536,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="16"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
       <c r="B381" s="13"/>
       <c r="C381" s="11"/>
@@ -12548,7 +12548,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="16"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
       <c r="B382" s="13"/>
       <c r="C382" s="11"/>
@@ -12560,7 +12560,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="16"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
       <c r="B383" s="13"/>
       <c r="C383" s="11"/>
@@ -12572,7 +12572,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="16"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="13"/>
       <c r="C384" s="11"/>
@@ -12584,7 +12584,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="16"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="13"/>
       <c r="C385" s="11"/>
@@ -12596,7 +12596,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="16"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="13"/>
       <c r="C386" s="11"/>
@@ -12608,7 +12608,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="16"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
       <c r="B387" s="13"/>
       <c r="C387" s="11"/>
@@ -12620,7 +12620,7 @@
       <c r="I387" s="1"/>
       <c r="J387" s="16"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
       <c r="B388" s="13"/>
       <c r="C388" s="11"/>
@@ -12632,7 +12632,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="16"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="13"/>
       <c r="C389" s="11"/>
@@ -12644,7 +12644,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="16"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="13"/>
       <c r="C390" s="11"/>
@@ -12656,7 +12656,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="16"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="13"/>
       <c r="C391" s="11"/>
@@ -12668,7 +12668,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="16"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
       <c r="B392" s="13"/>
       <c r="C392" s="11"/>
@@ -12680,7 +12680,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="16"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="13"/>
       <c r="C393" s="11"/>
@@ -12692,7 +12692,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="16"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="13"/>
       <c r="C394" s="11"/>
@@ -12704,7 +12704,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="16"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="13"/>
       <c r="C395" s="11"/>
@@ -12716,7 +12716,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="16"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="13"/>
       <c r="C396" s="11"/>
@@ -12728,7 +12728,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="16"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="13"/>
       <c r="C397" s="11"/>
@@ -12740,7 +12740,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="16"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="13"/>
       <c r="C398" s="11"/>
@@ -12752,7 +12752,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="16"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="13"/>
       <c r="C399" s="11"/>
@@ -12764,7 +12764,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="16"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
       <c r="B400" s="13"/>
       <c r="C400" s="11"/>
@@ -12776,7 +12776,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="16"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="13"/>
       <c r="C401" s="11"/>
@@ -12788,7 +12788,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="16"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="9"/>
       <c r="B402" s="13"/>
       <c r="C402" s="11"/>
@@ -12800,7 +12800,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="16"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="9"/>
       <c r="B403" s="13"/>
       <c r="C403" s="11"/>
@@ -12812,7 +12812,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="16"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="9"/>
       <c r="B404" s="13"/>
       <c r="C404" s="11"/>
@@ -12824,7 +12824,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="16"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="9"/>
       <c r="B405" s="13"/>
       <c r="C405" s="11"/>
@@ -12836,7 +12836,7 @@
       <c r="I405" s="1"/>
       <c r="J405" s="16"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="9"/>
       <c r="B406" s="13"/>
       <c r="C406" s="11"/>
@@ -12848,7 +12848,7 @@
       <c r="I406" s="1"/>
       <c r="J406" s="16"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="9"/>
       <c r="B407" s="13"/>
       <c r="C407" s="11"/>
@@ -12860,7 +12860,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="16"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="9"/>
       <c r="B408" s="13"/>
       <c r="C408" s="11"/>
@@ -12872,7 +12872,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="16"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="9"/>
       <c r="B409" s="13"/>
       <c r="C409" s="11"/>
@@ -12884,7 +12884,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="16"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="9"/>
       <c r="B410" s="13"/>
       <c r="C410" s="11"/>
@@ -12896,7 +12896,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="16"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="9"/>
       <c r="B411" s="13"/>
       <c r="C411" s="11"/>
@@ -12908,7 +12908,7 @@
       <c r="I411" s="1"/>
       <c r="J411" s="16"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="9"/>
       <c r="B412" s="13"/>
       <c r="C412" s="11"/>
@@ -12920,7 +12920,7 @@
       <c r="I412" s="1"/>
       <c r="J412" s="16"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="9"/>
       <c r="B413" s="13"/>
       <c r="C413" s="11"/>
@@ -12932,7 +12932,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="16"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="9"/>
       <c r="B414" s="13"/>
       <c r="C414" s="11"/>
@@ -12944,7 +12944,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="16"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="9"/>
       <c r="B415" s="13"/>
       <c r="C415" s="11"/>
@@ -12956,7 +12956,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="16"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="9"/>
       <c r="B416" s="13"/>
       <c r="C416" s="11"/>
@@ -12968,7 +12968,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="16"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="9"/>
       <c r="B417" s="13"/>
       <c r="C417" s="11"/>
@@ -12980,7 +12980,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="16"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="9"/>
       <c r="B418" s="13"/>
       <c r="C418" s="11"/>
@@ -12992,7 +12992,7 @@
       <c r="I418" s="1"/>
       <c r="J418" s="16"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="13"/>
       <c r="C419" s="11"/>
@@ -13004,7 +13004,7 @@
       <c r="I419" s="1"/>
       <c r="J419" s="16"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="9"/>
       <c r="B420" s="13"/>
       <c r="C420" s="11"/>
@@ -13016,7 +13016,7 @@
       <c r="I420" s="1"/>
       <c r="J420" s="16"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="9"/>
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
@@ -13028,7 +13028,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="16"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="9"/>
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
@@ -13040,7 +13040,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="16"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="9"/>
       <c r="B423" s="13"/>
       <c r="C423" s="11"/>
@@ -13052,7 +13052,7 @@
       <c r="I423" s="1"/>
       <c r="J423" s="16"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="9"/>
       <c r="B424" s="13"/>
       <c r="C424" s="11"/>
@@ -13064,7 +13064,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="16"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="9"/>
       <c r="B425" s="13"/>
       <c r="C425" s="11"/>
@@ -13076,7 +13076,7 @@
       <c r="I425" s="1"/>
       <c r="J425" s="16"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="9"/>
       <c r="B426" s="13"/>
       <c r="C426" s="11"/>
@@ -13088,7 +13088,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="16"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="9"/>
       <c r="B427" s="13"/>
       <c r="C427" s="11"/>
@@ -13100,7 +13100,7 @@
       <c r="I427" s="1"/>
       <c r="J427" s="16"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="13"/>
       <c r="C428" s="11"/>
@@ -13112,7 +13112,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="16"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="13"/>
       <c r="C429" s="11"/>
@@ -13124,7 +13124,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="16"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="13"/>
       <c r="C430" s="11"/>
@@ -13136,7 +13136,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="16"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="9"/>
       <c r="B431" s="13"/>
       <c r="C431" s="11"/>
@@ -13148,7 +13148,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="16"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="9"/>
       <c r="B432" s="13"/>
       <c r="C432" s="11"/>
@@ -13160,7 +13160,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="16"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
       <c r="B433" s="13"/>
       <c r="C433" s="11"/>
@@ -13172,7 +13172,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="16"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="13"/>
       <c r="C434" s="11"/>
@@ -13184,7 +13184,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="16"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="13"/>
       <c r="C435" s="11"/>
@@ -13196,7 +13196,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="16"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
       <c r="B436" s="13"/>
       <c r="C436" s="11"/>
@@ -13208,7 +13208,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="16"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
       <c r="B437" s="13"/>
       <c r="C437" s="11"/>
@@ -13220,7 +13220,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="16"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="13"/>
       <c r="C438" s="11"/>
@@ -13232,7 +13232,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="16"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="9"/>
       <c r="B439" s="13"/>
       <c r="C439" s="11"/>
@@ -13244,7 +13244,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="16"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="9"/>
       <c r="B440" s="13"/>
       <c r="C440" s="11"/>
@@ -13256,7 +13256,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="16"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="9"/>
       <c r="B441" s="13"/>
       <c r="C441" s="11"/>
@@ -13268,7 +13268,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="16"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="13"/>
       <c r="C442" s="11"/>
@@ -13280,7 +13280,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="16"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="9"/>
       <c r="B443" s="13"/>
       <c r="C443" s="11"/>
@@ -13292,7 +13292,7 @@
       <c r="I443" s="1"/>
       <c r="J443" s="16"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="9"/>
       <c r="B444" s="13"/>
       <c r="C444" s="11"/>
@@ -13304,7 +13304,7 @@
       <c r="I444" s="1"/>
       <c r="J444" s="16"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="9"/>
       <c r="B445" s="13"/>
       <c r="C445" s="11"/>
@@ -13316,7 +13316,7 @@
       <c r="I445" s="1"/>
       <c r="J445" s="16"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="9"/>
       <c r="B446" s="13"/>
       <c r="C446" s="11"/>
@@ -13328,7 +13328,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="16"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="9"/>
       <c r="B447" s="13"/>
       <c r="C447" s="11"/>
@@ -13340,7 +13340,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="16"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="13"/>
       <c r="C448" s="11"/>
@@ -13352,7 +13352,7 @@
       <c r="I448" s="1"/>
       <c r="J448" s="16"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="13"/>
       <c r="C449" s="11"/>
@@ -13364,7 +13364,7 @@
       <c r="I449" s="1"/>
       <c r="J449" s="16"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="9"/>
       <c r="B450" s="13"/>
       <c r="C450" s="11"/>
@@ -13376,7 +13376,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="16"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="9"/>
       <c r="B451" s="13"/>
       <c r="C451" s="11"/>
@@ -13388,7 +13388,7 @@
       <c r="I451" s="1"/>
       <c r="J451" s="16"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="13"/>
       <c r="C452" s="11"/>
@@ -13400,7 +13400,7 @@
       <c r="I452" s="1"/>
       <c r="J452" s="16"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="13"/>
       <c r="C453" s="11"/>
@@ -13412,7 +13412,7 @@
       <c r="I453" s="1"/>
       <c r="J453" s="16"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="13"/>
       <c r="C454" s="11"/>
@@ -13424,7 +13424,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="16"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="13"/>
       <c r="C455" s="11"/>
@@ -13436,7 +13436,7 @@
       <c r="I455" s="1"/>
       <c r="J455" s="16"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="9"/>
       <c r="B456" s="13"/>
       <c r="C456" s="11"/>
@@ -13448,7 +13448,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="16"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="9"/>
       <c r="B457" s="13"/>
       <c r="C457" s="11"/>
@@ -13460,7 +13460,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="16"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="9"/>
       <c r="B458" s="13"/>
       <c r="C458" s="11"/>
@@ -13472,7 +13472,7 @@
       <c r="I458" s="1"/>
       <c r="J458" s="16"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="9"/>
       <c r="B459" s="13"/>
       <c r="C459" s="11"/>
@@ -13484,7 +13484,7 @@
       <c r="I459" s="1"/>
       <c r="J459" s="16"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="9"/>
       <c r="B460" s="13"/>
       <c r="C460" s="11"/>
@@ -13496,7 +13496,7 @@
       <c r="I460" s="1"/>
       <c r="J460" s="16"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="13"/>
       <c r="C461" s="11"/>
@@ -13508,7 +13508,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="16"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="13"/>
       <c r="C462" s="11"/>
@@ -13520,7 +13520,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="16"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
       <c r="B463" s="13"/>
       <c r="C463" s="11"/>
@@ -13532,7 +13532,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="16"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="9"/>
       <c r="B464" s="13"/>
       <c r="C464" s="11"/>
@@ -13544,7 +13544,7 @@
       <c r="I464" s="1"/>
       <c r="J464" s="16"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="10"/>
       <c r="B465" s="6"/>
       <c r="C465" s="4"/>
@@ -13556,7 +13556,7 @@
       <c r="I465" s="14"/>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="10"/>
       <c r="B466" s="6"/>
       <c r="C466" s="4"/>
@@ -13568,7 +13568,7 @@
       <c r="I466" s="14"/>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="10"/>
       <c r="B467" s="6"/>
       <c r="C467" s="4"/>
@@ -13580,7 +13580,7 @@
       <c r="I467" s="14"/>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="10"/>
       <c r="B468" s="6"/>
       <c r="C468" s="4"/>
@@ -13592,7 +13592,7 @@
       <c r="I468" s="14"/>
       <c r="J468" s="2"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="10"/>
       <c r="B469" s="6"/>
       <c r="C469" s="4"/>
@@ -13604,7 +13604,7 @@
       <c r="I469" s="14"/>
       <c r="J469" s="2"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="10"/>
       <c r="B470" s="6"/>
       <c r="C470" s="4"/>
@@ -13616,7 +13616,7 @@
       <c r="I470" s="14"/>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="10"/>
       <c r="B471" s="6"/>
       <c r="C471" s="4"/>
@@ -13628,7 +13628,7 @@
       <c r="I471" s="14"/>
       <c r="J471" s="2"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="10"/>
       <c r="B472" s="6"/>
       <c r="C472" s="4"/>
@@ -13640,7 +13640,7 @@
       <c r="I472" s="14"/>
       <c r="J472" s="2"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="10"/>
       <c r="B473" s="6"/>
       <c r="C473" s="4"/>
@@ -13652,7 +13652,7 @@
       <c r="I473" s="14"/>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="10"/>
       <c r="B474" s="6"/>
       <c r="C474" s="4"/>
@@ -13664,7 +13664,7 @@
       <c r="I474" s="14"/>
       <c r="J474" s="2"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="10"/>
       <c r="B475" s="6"/>
       <c r="C475" s="4"/>
@@ -13676,7 +13676,7 @@
       <c r="I475" s="14"/>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="10"/>
       <c r="B476" s="6"/>
       <c r="C476" s="4"/>
@@ -13688,7 +13688,7 @@
       <c r="I476" s="14"/>
       <c r="J476" s="2"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="10"/>
       <c r="B477" s="6"/>
       <c r="C477" s="4"/>
@@ -13700,7 +13700,7 @@
       <c r="I477" s="14"/>
       <c r="J477" s="2"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="10"/>
       <c r="B478" s="6"/>
       <c r="C478" s="4"/>
@@ -13712,7 +13712,7 @@
       <c r="I478" s="14"/>
       <c r="J478" s="2"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="10"/>
       <c r="B479" s="6"/>
       <c r="C479" s="4"/>
@@ -13724,7 +13724,7 @@
       <c r="I479" s="14"/>
       <c r="J479" s="2"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="10"/>
       <c r="B480" s="6"/>
       <c r="C480" s="4"/>
@@ -13736,7 +13736,7 @@
       <c r="I480" s="14"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="10"/>
       <c r="B481" s="6"/>
       <c r="C481" s="4"/>
@@ -13748,7 +13748,7 @@
       <c r="I481" s="14"/>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="10"/>
       <c r="B482" s="6"/>
       <c r="C482" s="4"/>
@@ -13760,7 +13760,7 @@
       <c r="I482" s="14"/>
       <c r="J482" s="2"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="10"/>
       <c r="B483" s="6"/>
       <c r="C483" s="4"/>
@@ -13772,7 +13772,7 @@
       <c r="I483" s="14"/>
       <c r="J483" s="2"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="10"/>
       <c r="B484" s="6"/>
       <c r="C484" s="4"/>
@@ -13784,7 +13784,7 @@
       <c r="I484" s="14"/>
       <c r="J484" s="2"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="10"/>
       <c r="B485" s="6"/>
       <c r="C485" s="4"/>
@@ -13796,7 +13796,7 @@
       <c r="I485" s="14"/>
       <c r="J485" s="2"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="10"/>
       <c r="B486" s="6"/>
       <c r="C486" s="4"/>
@@ -13808,7 +13808,7 @@
       <c r="I486" s="14"/>
       <c r="J486" s="2"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="10"/>
       <c r="B487" s="6"/>
       <c r="C487" s="4"/>
@@ -13820,7 +13820,7 @@
       <c r="I487" s="14"/>
       <c r="J487" s="2"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="10"/>
       <c r="B488" s="6"/>
       <c r="C488" s="4"/>
@@ -13832,7 +13832,7 @@
       <c r="I488" s="14"/>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="10"/>
       <c r="B489" s="6"/>
       <c r="C489" s="4"/>
@@ -13844,7 +13844,7 @@
       <c r="I489" s="14"/>
       <c r="J489" s="2"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="10"/>
       <c r="B490" s="6"/>
       <c r="C490" s="4"/>
@@ -13856,7 +13856,7 @@
       <c r="I490" s="14"/>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="10"/>
       <c r="B491" s="6"/>
       <c r="C491" s="4"/>
@@ -13868,7 +13868,7 @@
       <c r="I491" s="14"/>
       <c r="J491" s="2"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="10"/>
       <c r="B492" s="6"/>
       <c r="C492" s="4"/>
@@ -13880,7 +13880,7 @@
       <c r="I492" s="14"/>
       <c r="J492" s="2"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="10"/>
       <c r="B493" s="6"/>
       <c r="C493" s="4"/>
@@ -13892,7 +13892,7 @@
       <c r="I493" s="14"/>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="10"/>
       <c r="B494" s="6"/>
       <c r="C494" s="4"/>
@@ -13904,7 +13904,7 @@
       <c r="I494" s="14"/>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="10"/>
       <c r="B495" s="6"/>
       <c r="C495" s="4"/>
@@ -13916,7 +13916,7 @@
       <c r="I495" s="14"/>
       <c r="J495" s="2"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="10"/>
       <c r="B496" s="6"/>
       <c r="C496" s="4"/>
@@ -13928,7 +13928,7 @@
       <c r="I496" s="14"/>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="10"/>
       <c r="B497" s="6"/>
       <c r="C497" s="4"/>
@@ -13940,7 +13940,7 @@
       <c r="I497" s="14"/>
       <c r="J497" s="2"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="10"/>
       <c r="B498" s="6"/>
       <c r="C498" s="4"/>
@@ -13952,7 +13952,7 @@
       <c r="I498" s="14"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="10"/>
       <c r="B499" s="6"/>
       <c r="C499" s="4"/>
@@ -13964,7 +13964,7 @@
       <c r="I499" s="14"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="10"/>
       <c r="B500" s="6"/>
       <c r="C500" s="4"/>
@@ -13976,7 +13976,7 @@
       <c r="I500" s="14"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="10"/>
       <c r="B501" s="6"/>
       <c r="C501" s="4"/>
@@ -13988,7 +13988,7 @@
       <c r="I501" s="14"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="10"/>
       <c r="B502" s="6"/>
       <c r="C502" s="4"/>
@@ -14000,7 +14000,7 @@
       <c r="I502" s="14"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="10"/>
       <c r="B503" s="6"/>
       <c r="C503" s="4"/>
@@ -14012,7 +14012,7 @@
       <c r="I503" s="14"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="10"/>
       <c r="B504" s="6"/>
       <c r="C504" s="4"/>
@@ -14024,7 +14024,7 @@
       <c r="I504" s="14"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="10"/>
       <c r="B505" s="6"/>
       <c r="C505" s="4"/>
@@ -14036,7 +14036,7 @@
       <c r="I505" s="14"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="10"/>
       <c r="B506" s="6"/>
       <c r="C506" s="4"/>
@@ -14048,7 +14048,7 @@
       <c r="I506" s="14"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="10"/>
       <c r="B507" s="6"/>
       <c r="C507" s="4"/>
@@ -14060,7 +14060,7 @@
       <c r="I507" s="14"/>
       <c r="J507" s="2"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="10"/>
       <c r="B508" s="6"/>
       <c r="C508" s="4"/>
@@ -14072,7 +14072,7 @@
       <c r="I508" s="14"/>
       <c r="J508" s="2"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="10"/>
       <c r="B509" s="6"/>
       <c r="C509" s="4"/>
@@ -14084,7 +14084,7 @@
       <c r="I509" s="14"/>
       <c r="J509" s="2"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="10"/>
       <c r="B510" s="6"/>
       <c r="C510" s="4"/>
@@ -14096,7 +14096,7 @@
       <c r="I510" s="14"/>
       <c r="J510" s="2"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="10"/>
       <c r="B511" s="6"/>
       <c r="C511" s="4"/>
@@ -14108,7 +14108,7 @@
       <c r="I511" s="14"/>
       <c r="J511" s="2"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" s="10"/>
       <c r="B512" s="6"/>
       <c r="C512" s="4"/>
@@ -14120,7 +14120,7 @@
       <c r="I512" s="14"/>
       <c r="J512" s="2"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="10"/>
       <c r="B513" s="6"/>
       <c r="C513" s="4"/>
@@ -14132,7 +14132,7 @@
       <c r="I513" s="14"/>
       <c r="J513" s="2"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" s="10"/>
       <c r="B514" s="6"/>
       <c r="C514" s="4"/>
@@ -14144,7 +14144,7 @@
       <c r="I514" s="14"/>
       <c r="J514" s="2"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="10"/>
       <c r="B515" s="6"/>
       <c r="C515" s="4"/>
@@ -14156,7 +14156,7 @@
       <c r="I515" s="14"/>
       <c r="J515" s="2"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" s="10"/>
       <c r="B516" s="6"/>
       <c r="C516" s="4"/>
@@ -14168,7 +14168,7 @@
       <c r="I516" s="14"/>
       <c r="J516" s="2"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="10"/>
       <c r="B517" s="6"/>
       <c r="C517" s="4"/>
@@ -14180,7 +14180,7 @@
       <c r="I517" s="14"/>
       <c r="J517" s="2"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" s="10"/>
       <c r="B518" s="6"/>
       <c r="C518" s="4"/>
@@ -14192,7 +14192,7 @@
       <c r="I518" s="14"/>
       <c r="J518" s="2"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" s="10"/>
       <c r="B519" s="6"/>
       <c r="C519" s="4"/>
@@ -14204,7 +14204,7 @@
       <c r="I519" s="14"/>
       <c r="J519" s="2"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" s="10"/>
       <c r="B520" s="6"/>
       <c r="C520" s="4"/>
@@ -14216,7 +14216,7 @@
       <c r="I520" s="14"/>
       <c r="J520" s="2"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" s="10"/>
       <c r="B521" s="6"/>
       <c r="C521" s="4"/>
@@ -14228,7 +14228,7 @@
       <c r="I521" s="14"/>
       <c r="J521" s="2"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" s="10"/>
       <c r="B522" s="6"/>
       <c r="C522" s="4"/>
@@ -14240,7 +14240,7 @@
       <c r="I522" s="14"/>
       <c r="J522" s="2"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" s="10"/>
       <c r="B523" s="6"/>
       <c r="C523" s="4"/>
@@ -14252,7 +14252,7 @@
       <c r="I523" s="14"/>
       <c r="J523" s="2"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="10"/>
       <c r="B524" s="6"/>
       <c r="C524" s="4"/>
@@ -14264,7 +14264,7 @@
       <c r="I524" s="14"/>
       <c r="J524" s="2"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" s="10"/>
       <c r="B525" s="6"/>
       <c r="C525" s="4"/>
@@ -14276,7 +14276,7 @@
       <c r="I525" s="14"/>
       <c r="J525" s="2"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" s="10"/>
       <c r="B526" s="6"/>
       <c r="C526" s="4"/>
@@ -14288,7 +14288,7 @@
       <c r="I526" s="14"/>
       <c r="J526" s="2"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="10"/>
       <c r="B527" s="6"/>
       <c r="C527" s="4"/>
@@ -14300,7 +14300,7 @@
       <c r="I527" s="14"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" s="10"/>
       <c r="B528" s="6"/>
       <c r="C528" s="4"/>
@@ -14312,7 +14312,7 @@
       <c r="I528" s="14"/>
       <c r="J528" s="2"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" s="10"/>
       <c r="B529" s="6"/>
       <c r="C529" s="4"/>
@@ -14324,7 +14324,7 @@
       <c r="I529" s="14"/>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" s="10"/>
       <c r="B530" s="6"/>
       <c r="C530" s="4"/>
@@ -14336,7 +14336,7 @@
       <c r="I530" s="14"/>
       <c r="J530" s="2"/>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" s="10"/>
       <c r="B531" s="6"/>
       <c r="C531" s="4"/>
@@ -14348,7 +14348,7 @@
       <c r="I531" s="14"/>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" s="10"/>
       <c r="B532" s="6"/>
       <c r="C532" s="4"/>
@@ -14360,7 +14360,7 @@
       <c r="I532" s="14"/>
       <c r="J532" s="2"/>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" s="10"/>
       <c r="B533" s="6"/>
       <c r="C533" s="4"/>
@@ -14372,7 +14372,7 @@
       <c r="I533" s="14"/>
       <c r="J533" s="2"/>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="10"/>
       <c r="B534" s="6"/>
       <c r="C534" s="4"/>
@@ -14384,7 +14384,7 @@
       <c r="I534" s="14"/>
       <c r="J534" s="2"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="10"/>
       <c r="B535" s="6"/>
       <c r="C535" s="4"/>
@@ -14396,7 +14396,7 @@
       <c r="I535" s="14"/>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="10"/>
       <c r="B536" s="6"/>
       <c r="C536" s="4"/>
@@ -14408,7 +14408,7 @@
       <c r="I536" s="14"/>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="10"/>
       <c r="B537" s="6"/>
       <c r="C537" s="4"/>
@@ -14420,7 +14420,7 @@
       <c r="I537" s="14"/>
       <c r="J537" s="2"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" s="10"/>
       <c r="B538" s="6"/>
       <c r="C538" s="4"/>
@@ -14432,7 +14432,7 @@
       <c r="I538" s="14"/>
       <c r="J538" s="2"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="10"/>
       <c r="B539" s="6"/>
       <c r="C539" s="4"/>
@@ -14444,7 +14444,7 @@
       <c r="I539" s="14"/>
       <c r="J539" s="2"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="10"/>
       <c r="B540" s="6"/>
       <c r="C540" s="4"/>
@@ -14456,7 +14456,7 @@
       <c r="I540" s="14"/>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" s="10"/>
       <c r="B541" s="6"/>
       <c r="C541" s="4"/>
@@ -14468,7 +14468,7 @@
       <c r="I541" s="14"/>
       <c r="J541" s="2"/>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" s="10"/>
       <c r="B542" s="6"/>
       <c r="C542" s="4"/>
@@ -14480,7 +14480,7 @@
       <c r="I542" s="14"/>
       <c r="J542" s="2"/>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="10"/>
       <c r="B543" s="6"/>
       <c r="C543" s="4"/>
@@ -14492,7 +14492,7 @@
       <c r="I543" s="14"/>
       <c r="J543" s="2"/>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="10"/>
       <c r="B544" s="6"/>
       <c r="C544" s="4"/>
@@ -14504,7 +14504,7 @@
       <c r="I544" s="14"/>
       <c r="J544" s="2"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" s="10"/>
       <c r="B545" s="6"/>
       <c r="C545" s="4"/>
@@ -14516,7 +14516,7 @@
       <c r="I545" s="14"/>
       <c r="J545" s="2"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="10"/>
       <c r="B546" s="6"/>
       <c r="C546" s="4"/>
@@ -14528,7 +14528,7 @@
       <c r="I546" s="14"/>
       <c r="J546" s="2"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="10"/>
       <c r="B547" s="6"/>
       <c r="C547" s="4"/>
@@ -14540,7 +14540,7 @@
       <c r="I547" s="14"/>
       <c r="J547" s="2"/>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="10"/>
       <c r="B548" s="6"/>
       <c r="C548" s="4"/>
@@ -14552,7 +14552,7 @@
       <c r="I548" s="14"/>
       <c r="J548" s="2"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="10"/>
       <c r="B549" s="6"/>
       <c r="C549" s="4"/>
@@ -14564,7 +14564,7 @@
       <c r="I549" s="14"/>
       <c r="J549" s="2"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="10"/>
       <c r="B550" s="6"/>
       <c r="C550" s="4"/>
@@ -14576,7 +14576,7 @@
       <c r="I550" s="14"/>
       <c r="J550" s="2"/>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" s="10"/>
       <c r="B551" s="6"/>
       <c r="C551" s="4"/>
@@ -14588,7 +14588,7 @@
       <c r="I551" s="14"/>
       <c r="J551" s="2"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="10"/>
       <c r="B552" s="6"/>
       <c r="C552" s="4"/>
@@ -14600,7 +14600,7 @@
       <c r="I552" s="14"/>
       <c r="J552" s="2"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" s="10"/>
       <c r="B553" s="6"/>
       <c r="C553" s="4"/>
@@ -14612,7 +14612,7 @@
       <c r="I553" s="14"/>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" s="10"/>
       <c r="B554" s="6"/>
       <c r="C554" s="4"/>
@@ -14624,7 +14624,7 @@
       <c r="I554" s="14"/>
       <c r="J554" s="2"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="10"/>
       <c r="B555" s="6"/>
       <c r="C555" s="4"/>
@@ -14636,7 +14636,7 @@
       <c r="I555" s="14"/>
       <c r="J555" s="2"/>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" s="10"/>
       <c r="B556" s="6"/>
       <c r="C556" s="4"/>
@@ -14648,7 +14648,7 @@
       <c r="I556" s="14"/>
       <c r="J556" s="2"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="10"/>
       <c r="B557" s="6"/>
       <c r="C557" s="4"/>
@@ -14660,7 +14660,7 @@
       <c r="I557" s="14"/>
       <c r="J557" s="2"/>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="10"/>
       <c r="B558" s="6"/>
       <c r="C558" s="4"/>
@@ -14672,7 +14672,7 @@
       <c r="I558" s="14"/>
       <c r="J558" s="2"/>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" s="10"/>
       <c r="B559" s="6"/>
       <c r="C559" s="4"/>
@@ -14684,7 +14684,7 @@
       <c r="I559" s="14"/>
       <c r="J559" s="2"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" s="10"/>
       <c r="B560" s="6"/>
       <c r="C560" s="4"/>
@@ -14696,7 +14696,7 @@
       <c r="I560" s="14"/>
       <c r="J560" s="2"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="10"/>
       <c r="B561" s="6"/>
       <c r="C561" s="4"/>
@@ -14708,7 +14708,7 @@
       <c r="I561" s="14"/>
       <c r="J561" s="2"/>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="10"/>
       <c r="B562" s="6"/>
       <c r="C562" s="4"/>
@@ -14720,7 +14720,7 @@
       <c r="I562" s="14"/>
       <c r="J562" s="2"/>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="10"/>
       <c r="B563" s="6"/>
       <c r="C563" s="4"/>
@@ -14732,7 +14732,7 @@
       <c r="I563" s="14"/>
       <c r="J563" s="2"/>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="10"/>
       <c r="B564" s="6"/>
       <c r="C564" s="4"/>
@@ -14744,7 +14744,7 @@
       <c r="I564" s="14"/>
       <c r="J564" s="2"/>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="10"/>
       <c r="B565" s="6"/>
       <c r="C565" s="4"/>
@@ -14756,7 +14756,7 @@
       <c r="I565" s="14"/>
       <c r="J565" s="2"/>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" s="10"/>
       <c r="B566" s="6"/>
       <c r="C566" s="4"/>
@@ -14768,7 +14768,7 @@
       <c r="I566" s="14"/>
       <c r="J566" s="2"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="10"/>
       <c r="B567" s="6"/>
       <c r="C567" s="4"/>
@@ -14780,7 +14780,7 @@
       <c r="I567" s="14"/>
       <c r="J567" s="2"/>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" s="10"/>
       <c r="B568" s="6"/>
       <c r="C568" s="4"/>
@@ -14792,7 +14792,7 @@
       <c r="I568" s="14"/>
       <c r="J568" s="2"/>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" s="10"/>
       <c r="B569" s="6"/>
       <c r="C569" s="4"/>
@@ -14804,7 +14804,7 @@
       <c r="I569" s="14"/>
       <c r="J569" s="2"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" s="10"/>
       <c r="B570" s="6"/>
       <c r="C570" s="4"/>
@@ -14816,7 +14816,7 @@
       <c r="I570" s="14"/>
       <c r="J570" s="2"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" s="10"/>
       <c r="B571" s="6"/>
       <c r="C571" s="4"/>
@@ -14828,7 +14828,7 @@
       <c r="I571" s="14"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" s="10"/>
       <c r="B572" s="6"/>
       <c r="C572" s="4"/>
@@ -14840,7 +14840,7 @@
       <c r="I572" s="14"/>
       <c r="J572" s="2"/>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="10"/>
       <c r="B573" s="6"/>
       <c r="C573" s="4"/>
@@ -14852,7 +14852,7 @@
       <c r="I573" s="14"/>
       <c r="J573" s="2"/>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" s="10"/>
       <c r="B574" s="6"/>
       <c r="C574" s="4"/>
@@ -14864,7 +14864,7 @@
       <c r="I574" s="14"/>
       <c r="J574" s="2"/>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" s="10"/>
       <c r="B575" s="6"/>
       <c r="C575" s="4"/>
@@ -14876,7 +14876,7 @@
       <c r="I575" s="14"/>
       <c r="J575" s="2"/>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" s="10"/>
       <c r="B576" s="6"/>
       <c r="C576" s="4"/>
@@ -14888,7 +14888,7 @@
       <c r="I576" s="14"/>
       <c r="J576" s="2"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="10"/>
       <c r="B577" s="6"/>
       <c r="C577" s="4"/>
@@ -14900,7 +14900,7 @@
       <c r="I577" s="14"/>
       <c r="J577" s="2"/>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="10"/>
       <c r="B578" s="6"/>
       <c r="C578" s="4"/>
@@ -14912,7 +14912,7 @@
       <c r="I578" s="14"/>
       <c r="J578" s="2"/>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" s="10"/>
       <c r="B579" s="6"/>
       <c r="C579" s="4"/>
@@ -14924,7 +14924,7 @@
       <c r="I579" s="14"/>
       <c r="J579" s="2"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" s="10"/>
       <c r="B580" s="6"/>
       <c r="C580" s="4"/>
@@ -14936,7 +14936,7 @@
       <c r="I580" s="14"/>
       <c r="J580" s="2"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" s="10"/>
       <c r="B581" s="6"/>
       <c r="C581" s="4"/>
@@ -14948,7 +14948,7 @@
       <c r="I581" s="14"/>
       <c r="J581" s="2"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" s="10"/>
       <c r="B582" s="6"/>
       <c r="C582" s="4"/>
@@ -14960,7 +14960,7 @@
       <c r="I582" s="14"/>
       <c r="J582" s="2"/>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" s="10"/>
       <c r="B583" s="6"/>
       <c r="C583" s="4"/>
@@ -14972,7 +14972,7 @@
       <c r="I583" s="14"/>
       <c r="J583" s="2"/>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" s="10"/>
       <c r="B584" s="6"/>
       <c r="C584" s="4"/>
@@ -14984,7 +14984,7 @@
       <c r="I584" s="14"/>
       <c r="J584" s="2"/>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" s="10"/>
       <c r="B585" s="6"/>
       <c r="C585" s="4"/>
@@ -14996,7 +14996,7 @@
       <c r="I585" s="14"/>
       <c r="J585" s="2"/>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" s="10"/>
       <c r="B586" s="6"/>
       <c r="C586" s="4"/>
@@ -15008,7 +15008,7 @@
       <c r="I586" s="14"/>
       <c r="J586" s="2"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="10"/>
       <c r="B587" s="6"/>
       <c r="C587" s="4"/>
@@ -15020,7 +15020,7 @@
       <c r="I587" s="14"/>
       <c r="J587" s="2"/>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="10"/>
       <c r="B588" s="6"/>
       <c r="C588" s="4"/>
@@ -15032,7 +15032,7 @@
       <c r="I588" s="14"/>
       <c r="J588" s="2"/>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" s="10"/>
       <c r="B589" s="6"/>
       <c r="C589" s="4"/>
@@ -15044,7 +15044,7 @@
       <c r="I589" s="14"/>
       <c r="J589" s="2"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" s="10"/>
       <c r="B590" s="6"/>
       <c r="C590" s="4"/>
@@ -15056,7 +15056,7 @@
       <c r="I590" s="14"/>
       <c r="J590" s="2"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" s="10"/>
       <c r="B591" s="6"/>
       <c r="C591" s="4"/>
@@ -15068,7 +15068,7 @@
       <c r="I591" s="14"/>
       <c r="J591" s="2"/>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" s="10"/>
       <c r="B592" s="6"/>
       <c r="C592" s="4"/>
@@ -15080,7 +15080,7 @@
       <c r="I592" s="14"/>
       <c r="J592" s="2"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" s="10"/>
       <c r="B593" s="6"/>
       <c r="C593" s="4"/>
@@ -15092,7 +15092,7 @@
       <c r="I593" s="14"/>
       <c r="J593" s="2"/>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" s="10"/>
       <c r="B594" s="6"/>
       <c r="C594" s="4"/>
@@ -15104,7 +15104,7 @@
       <c r="I594" s="14"/>
       <c r="J594" s="2"/>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" s="10"/>
       <c r="B595" s="6"/>
       <c r="C595" s="4"/>
@@ -15116,7 +15116,7 @@
       <c r="I595" s="14"/>
       <c r="J595" s="2"/>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" s="10"/>
       <c r="B596" s="6"/>
       <c r="C596" s="4"/>
@@ -15128,7 +15128,7 @@
       <c r="I596" s="14"/>
       <c r="J596" s="2"/>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" s="10"/>
       <c r="B597" s="6"/>
       <c r="C597" s="4"/>
@@ -15140,7 +15140,7 @@
       <c r="I597" s="14"/>
       <c r="J597" s="2"/>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" s="10"/>
       <c r="B598" s="6"/>
       <c r="C598" s="4"/>
@@ -15152,7 +15152,7 @@
       <c r="I598" s="14"/>
       <c r="J598" s="2"/>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" s="10"/>
       <c r="B599" s="6"/>
       <c r="C599" s="4"/>
@@ -15164,7 +15164,7 @@
       <c r="I599" s="14"/>
       <c r="J599" s="2"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" s="10"/>
       <c r="B600" s="6"/>
       <c r="C600" s="4"/>
@@ -15176,7 +15176,7 @@
       <c r="I600" s="14"/>
       <c r="J600" s="2"/>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" s="10"/>
       <c r="B601" s="6"/>
       <c r="C601" s="4"/>
@@ -15188,7 +15188,7 @@
       <c r="I601" s="14"/>
       <c r="J601" s="2"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" s="10"/>
       <c r="B602" s="6"/>
       <c r="C602" s="4"/>
@@ -15200,7 +15200,7 @@
       <c r="I602" s="14"/>
       <c r="J602" s="2"/>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="10"/>
       <c r="B603" s="6"/>
       <c r="C603" s="4"/>
@@ -15212,7 +15212,7 @@
       <c r="I603" s="14"/>
       <c r="J603" s="2"/>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" s="10"/>
       <c r="B604" s="6"/>
       <c r="C604" s="4"/>
@@ -15224,7 +15224,7 @@
       <c r="I604" s="14"/>
       <c r="J604" s="2"/>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" s="10"/>
       <c r="B605" s="6"/>
       <c r="C605" s="4"/>
@@ -15236,7 +15236,7 @@
       <c r="I605" s="14"/>
       <c r="J605" s="2"/>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" s="10"/>
       <c r="B606" s="6"/>
       <c r="C606" s="4"/>
@@ -15248,7 +15248,7 @@
       <c r="I606" s="14"/>
       <c r="J606" s="2"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="10"/>
       <c r="B607" s="6"/>
       <c r="C607" s="4"/>
@@ -15260,7 +15260,7 @@
       <c r="I607" s="14"/>
       <c r="J607" s="2"/>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="10"/>
       <c r="B608" s="6"/>
       <c r="C608" s="4"/>
@@ -15272,7 +15272,7 @@
       <c r="I608" s="14"/>
       <c r="J608" s="2"/>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" s="10"/>
       <c r="B609" s="6"/>
       <c r="C609" s="4"/>
@@ -15284,7 +15284,7 @@
       <c r="I609" s="14"/>
       <c r="J609" s="2"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" s="10"/>
       <c r="B610" s="6"/>
       <c r="C610" s="4"/>
@@ -15296,7 +15296,7 @@
       <c r="I610" s="14"/>
       <c r="J610" s="2"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" s="10"/>
       <c r="B611" s="6"/>
       <c r="C611" s="4"/>
@@ -15308,7 +15308,7 @@
       <c r="I611" s="14"/>
       <c r="J611" s="2"/>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" s="10"/>
       <c r="B612" s="6"/>
       <c r="C612" s="4"/>
@@ -15320,7 +15320,7 @@
       <c r="I612" s="14"/>
       <c r="J612" s="2"/>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" s="10"/>
       <c r="B613" s="6"/>
       <c r="C613" s="4"/>
@@ -15332,7 +15332,7 @@
       <c r="I613" s="14"/>
       <c r="J613" s="2"/>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" s="10"/>
       <c r="B614" s="6"/>
       <c r="C614" s="4"/>
@@ -15344,7 +15344,7 @@
       <c r="I614" s="14"/>
       <c r="J614" s="2"/>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="10"/>
       <c r="B615" s="6"/>
       <c r="C615" s="4"/>
@@ -15356,7 +15356,7 @@
       <c r="I615" s="14"/>
       <c r="J615" s="2"/>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="10"/>
       <c r="B616" s="6"/>
       <c r="C616" s="4"/>
@@ -15368,7 +15368,7 @@
       <c r="I616" s="14"/>
       <c r="J616" s="2"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="10"/>
       <c r="B617" s="6"/>
       <c r="C617" s="4"/>
@@ -15380,7 +15380,7 @@
       <c r="I617" s="14"/>
       <c r="J617" s="2"/>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="10"/>
       <c r="B618" s="6"/>
       <c r="C618" s="4"/>
@@ -15392,7 +15392,7 @@
       <c r="I618" s="14"/>
       <c r="J618" s="2"/>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="10"/>
       <c r="B619" s="6"/>
       <c r="C619" s="4"/>
@@ -15404,7 +15404,7 @@
       <c r="I619" s="14"/>
       <c r="J619" s="2"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="10"/>
       <c r="B620" s="6"/>
       <c r="C620" s="4"/>
@@ -15416,7 +15416,7 @@
       <c r="I620" s="14"/>
       <c r="J620" s="2"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="10"/>
       <c r="B621" s="6"/>
       <c r="C621" s="4"/>
@@ -15428,7 +15428,7 @@
       <c r="I621" s="14"/>
       <c r="J621" s="2"/>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" s="10"/>
       <c r="B622" s="6"/>
       <c r="C622" s="4"/>
@@ -15440,7 +15440,7 @@
       <c r="I622" s="14"/>
       <c r="J622" s="2"/>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" s="10"/>
       <c r="B623" s="6"/>
       <c r="C623" s="4"/>
@@ -15452,7 +15452,7 @@
       <c r="I623" s="14"/>
       <c r="J623" s="2"/>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" s="10"/>
       <c r="B624" s="6"/>
       <c r="C624" s="4"/>
@@ -15464,7 +15464,7 @@
       <c r="I624" s="14"/>
       <c r="J624" s="2"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="10"/>
       <c r="B625" s="6"/>
       <c r="C625" s="4"/>
@@ -15476,7 +15476,7 @@
       <c r="I625" s="14"/>
       <c r="J625" s="2"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" s="10"/>
       <c r="B626" s="6"/>
       <c r="C626" s="4"/>
@@ -15488,7 +15488,7 @@
       <c r="I626" s="14"/>
       <c r="J626" s="2"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="10"/>
       <c r="B627" s="6"/>
       <c r="C627" s="4"/>
@@ -15500,7 +15500,7 @@
       <c r="I627" s="14"/>
       <c r="J627" s="2"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" s="10"/>
       <c r="B628" s="6"/>
       <c r="C628" s="4"/>
@@ -15512,7 +15512,7 @@
       <c r="I628" s="14"/>
       <c r="J628" s="2"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" s="10"/>
       <c r="B629" s="6"/>
       <c r="C629" s="4"/>
@@ -15524,7 +15524,7 @@
       <c r="I629" s="14"/>
       <c r="J629" s="2"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" s="10"/>
       <c r="B630" s="6"/>
       <c r="C630" s="4"/>
@@ -15536,7 +15536,7 @@
       <c r="I630" s="14"/>
       <c r="J630" s="2"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" s="10"/>
       <c r="B631" s="6"/>
       <c r="C631" s="4"/>
@@ -15548,7 +15548,7 @@
       <c r="I631" s="14"/>
       <c r="J631" s="2"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" s="10"/>
       <c r="B632" s="6"/>
       <c r="C632" s="4"/>
@@ -15560,7 +15560,7 @@
       <c r="I632" s="14"/>
       <c r="J632" s="2"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="10"/>
       <c r="B633" s="6"/>
       <c r="C633" s="4"/>
@@ -15572,7 +15572,7 @@
       <c r="I633" s="14"/>
       <c r="J633" s="2"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" s="10"/>
       <c r="B634" s="6"/>
       <c r="C634" s="4"/>
@@ -15584,7 +15584,7 @@
       <c r="I634" s="14"/>
       <c r="J634" s="2"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" s="10"/>
       <c r="B635" s="6"/>
       <c r="C635" s="4"/>
@@ -15596,7 +15596,7 @@
       <c r="I635" s="14"/>
       <c r="J635" s="2"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" s="10"/>
       <c r="B636" s="6"/>
       <c r="C636" s="4"/>
@@ -15608,7 +15608,7 @@
       <c r="I636" s="14"/>
       <c r="J636" s="2"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="10"/>
       <c r="B637" s="6"/>
       <c r="C637" s="4"/>
@@ -15620,7 +15620,7 @@
       <c r="I637" s="14"/>
       <c r="J637" s="2"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" s="10"/>
       <c r="B638" s="6"/>
       <c r="C638" s="4"/>
@@ -15632,7 +15632,7 @@
       <c r="I638" s="14"/>
       <c r="J638" s="2"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" s="10"/>
       <c r="B639" s="6"/>
       <c r="C639" s="4"/>
@@ -15644,7 +15644,7 @@
       <c r="I639" s="14"/>
       <c r="J639" s="2"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" s="10"/>
       <c r="B640" s="6"/>
       <c r="C640" s="4"/>
@@ -15656,7 +15656,7 @@
       <c r="I640" s="14"/>
       <c r="J640" s="2"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" s="10"/>
       <c r="B641" s="6"/>
       <c r="C641" s="4"/>
@@ -15668,7 +15668,7 @@
       <c r="I641" s="14"/>
       <c r="J641" s="2"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" s="10"/>
       <c r="B642" s="6"/>
       <c r="C642" s="4"/>
@@ -15680,7 +15680,7 @@
       <c r="I642" s="14"/>
       <c r="J642" s="2"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" s="10"/>
       <c r="B643" s="6"/>
       <c r="C643" s="4"/>
@@ -15692,7 +15692,7 @@
       <c r="I643" s="14"/>
       <c r="J643" s="2"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" s="10"/>
       <c r="B644" s="6"/>
       <c r="C644" s="4"/>
@@ -15704,7 +15704,7 @@
       <c r="I644" s="14"/>
       <c r="J644" s="2"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" s="10"/>
       <c r="B645" s="6"/>
       <c r="C645" s="4"/>
@@ -15716,7 +15716,7 @@
       <c r="I645" s="14"/>
       <c r="J645" s="2"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" s="10"/>
       <c r="B646" s="6"/>
       <c r="C646" s="4"/>
@@ -15728,7 +15728,7 @@
       <c r="I646" s="14"/>
       <c r="J646" s="2"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="10"/>
       <c r="B647" s="6"/>
       <c r="C647" s="4"/>
@@ -15740,7 +15740,7 @@
       <c r="I647" s="14"/>
       <c r="J647" s="2"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="10"/>
       <c r="B648" s="6"/>
       <c r="C648" s="4"/>
@@ -15752,7 +15752,7 @@
       <c r="I648" s="14"/>
       <c r="J648" s="2"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" s="10"/>
       <c r="B649" s="6"/>
       <c r="C649" s="4"/>
@@ -15764,7 +15764,7 @@
       <c r="I649" s="14"/>
       <c r="J649" s="2"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" s="10"/>
       <c r="B650" s="6"/>
       <c r="C650" s="4"/>
@@ -15776,7 +15776,7 @@
       <c r="I650" s="14"/>
       <c r="J650" s="2"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" s="10"/>
       <c r="B651" s="6"/>
       <c r="C651" s="4"/>
@@ -15788,7 +15788,7 @@
       <c r="I651" s="14"/>
       <c r="J651" s="2"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" s="10"/>
       <c r="B652" s="6"/>
       <c r="C652" s="4"/>
@@ -15800,7 +15800,7 @@
       <c r="I652" s="14"/>
       <c r="J652" s="2"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" s="10"/>
       <c r="B653" s="6"/>
       <c r="C653" s="4"/>
@@ -15812,7 +15812,7 @@
       <c r="I653" s="14"/>
       <c r="J653" s="2"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" s="10"/>
       <c r="B654" s="6"/>
       <c r="C654" s="4"/>
@@ -15824,7 +15824,7 @@
       <c r="I654" s="14"/>
       <c r="J654" s="2"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" s="10"/>
       <c r="B655" s="6"/>
       <c r="C655" s="4"/>
@@ -15836,7 +15836,7 @@
       <c r="I655" s="14"/>
       <c r="J655" s="2"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="10"/>
       <c r="B656" s="6"/>
       <c r="C656" s="4"/>
@@ -15848,7 +15848,7 @@
       <c r="I656" s="14"/>
       <c r="J656" s="2"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="10"/>
       <c r="B657" s="6"/>
       <c r="C657" s="4"/>
@@ -15860,7 +15860,7 @@
       <c r="I657" s="14"/>
       <c r="J657" s="2"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" s="10"/>
       <c r="B658" s="6"/>
       <c r="C658" s="4"/>
@@ -15872,7 +15872,7 @@
       <c r="I658" s="14"/>
       <c r="J658" s="2"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" s="10"/>
       <c r="B659" s="6"/>
       <c r="C659" s="4"/>
@@ -15884,7 +15884,7 @@
       <c r="I659" s="14"/>
       <c r="J659" s="2"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" s="10"/>
       <c r="B660" s="6"/>
       <c r="C660" s="4"/>
@@ -15896,7 +15896,7 @@
       <c r="I660" s="14"/>
       <c r="J660" s="2"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" s="10"/>
       <c r="B661" s="6"/>
       <c r="C661" s="4"/>
@@ -15908,7 +15908,7 @@
       <c r="I661" s="14"/>
       <c r="J661" s="2"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" s="10"/>
       <c r="B662" s="6"/>
       <c r="C662" s="4"/>
@@ -15920,7 +15920,7 @@
       <c r="I662" s="14"/>
       <c r="J662" s="2"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="10"/>
       <c r="B663" s="6"/>
       <c r="C663" s="4"/>
@@ -15932,7 +15932,7 @@
       <c r="I663" s="14"/>
       <c r="J663" s="2"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" s="10"/>
       <c r="B664" s="6"/>
       <c r="C664" s="4"/>
@@ -15944,7 +15944,7 @@
       <c r="I664" s="14"/>
       <c r="J664" s="2"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" s="10"/>
       <c r="B665" s="6"/>
       <c r="C665" s="4"/>
@@ -15956,7 +15956,7 @@
       <c r="I665" s="14"/>
       <c r="J665" s="2"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" s="10"/>
       <c r="B666" s="6"/>
       <c r="C666" s="4"/>
@@ -15968,7 +15968,7 @@
       <c r="I666" s="14"/>
       <c r="J666" s="2"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="10"/>
       <c r="B667" s="6"/>
       <c r="C667" s="4"/>
@@ -15980,7 +15980,7 @@
       <c r="I667" s="14"/>
       <c r="J667" s="2"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" s="10"/>
       <c r="B668" s="6"/>
       <c r="C668" s="4"/>
@@ -15992,7 +15992,7 @@
       <c r="I668" s="14"/>
       <c r="J668" s="2"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" s="10"/>
       <c r="B669" s="6"/>
       <c r="C669" s="4"/>
@@ -16004,7 +16004,7 @@
       <c r="I669" s="14"/>
       <c r="J669" s="2"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" s="10"/>
       <c r="B670" s="6"/>
       <c r="C670" s="4"/>
@@ -16016,7 +16016,7 @@
       <c r="I670" s="14"/>
       <c r="J670" s="2"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" s="10"/>
       <c r="B671" s="6"/>
       <c r="C671" s="4"/>
@@ -16028,7 +16028,7 @@
       <c r="I671" s="14"/>
       <c r="J671" s="2"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" s="10"/>
       <c r="B672" s="6"/>
       <c r="C672" s="4"/>
@@ -16040,7 +16040,7 @@
       <c r="I672" s="14"/>
       <c r="J672" s="2"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" s="10"/>
       <c r="B673" s="6"/>
       <c r="C673" s="4"/>
@@ -16052,7 +16052,7 @@
       <c r="I673" s="14"/>
       <c r="J673" s="2"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" s="10"/>
       <c r="B674" s="6"/>
       <c r="C674" s="4"/>
@@ -16064,7 +16064,7 @@
       <c r="I674" s="14"/>
       <c r="J674" s="2"/>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" s="10"/>
       <c r="B675" s="6"/>
       <c r="C675" s="4"/>
@@ -16076,7 +16076,7 @@
       <c r="I675" s="14"/>
       <c r="J675" s="2"/>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" s="10"/>
       <c r="B676" s="6"/>
       <c r="C676" s="4"/>
@@ -16088,7 +16088,7 @@
       <c r="I676" s="14"/>
       <c r="J676" s="2"/>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" s="10"/>
       <c r="B677" s="6"/>
       <c r="C677" s="4"/>
@@ -16100,7 +16100,7 @@
       <c r="I677" s="14"/>
       <c r="J677" s="2"/>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="10"/>
       <c r="B678" s="6"/>
       <c r="C678" s="4"/>
@@ -16112,7 +16112,7 @@
       <c r="I678" s="14"/>
       <c r="J678" s="2"/>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" s="10"/>
       <c r="B679" s="6"/>
       <c r="C679" s="4"/>
@@ -16124,7 +16124,7 @@
       <c r="I679" s="14"/>
       <c r="J679" s="2"/>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" s="10"/>
       <c r="B680" s="6"/>
       <c r="C680" s="4"/>
@@ -16136,7 +16136,7 @@
       <c r="I680" s="14"/>
       <c r="J680" s="2"/>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" s="10"/>
       <c r="B681" s="6"/>
       <c r="C681" s="4"/>
@@ -16148,7 +16148,7 @@
       <c r="I681" s="14"/>
       <c r="J681" s="2"/>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" s="10"/>
       <c r="B682" s="6"/>
       <c r="C682" s="4"/>
@@ -16160,7 +16160,7 @@
       <c r="I682" s="14"/>
       <c r="J682" s="2"/>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" s="10"/>
       <c r="B683" s="6"/>
       <c r="C683" s="4"/>
@@ -16172,7 +16172,7 @@
       <c r="I683" s="14"/>
       <c r="J683" s="2"/>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" s="10"/>
       <c r="B684" s="6"/>
       <c r="C684" s="4"/>
@@ -16184,7 +16184,7 @@
       <c r="I684" s="14"/>
       <c r="J684" s="2"/>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" s="10"/>
       <c r="B685" s="6"/>
       <c r="C685" s="4"/>
@@ -16196,7 +16196,7 @@
       <c r="I685" s="14"/>
       <c r="J685" s="2"/>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" s="10"/>
       <c r="B686" s="6"/>
       <c r="C686" s="4"/>
@@ -16208,7 +16208,7 @@
       <c r="I686" s="14"/>
       <c r="J686" s="2"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" s="10"/>
       <c r="B687" s="6"/>
       <c r="C687" s="4"/>
@@ -16220,7 +16220,7 @@
       <c r="I687" s="14"/>
       <c r="J687" s="2"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" s="10"/>
       <c r="B688" s="6"/>
       <c r="C688" s="4"/>
@@ -16232,7 +16232,7 @@
       <c r="I688" s="14"/>
       <c r="J688" s="2"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" s="10"/>
       <c r="B689" s="6"/>
       <c r="C689" s="4"/>
@@ -16244,7 +16244,7 @@
       <c r="I689" s="14"/>
       <c r="J689" s="2"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" s="10"/>
       <c r="B690" s="6"/>
       <c r="C690" s="4"/>
@@ -16256,7 +16256,7 @@
       <c r="I690" s="14"/>
       <c r="J690" s="2"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" s="10"/>
       <c r="B691" s="6"/>
       <c r="C691" s="4"/>
@@ -16268,7 +16268,7 @@
       <c r="I691" s="14"/>
       <c r="J691" s="2"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" s="10"/>
       <c r="B692" s="6"/>
       <c r="C692" s="4"/>
@@ -16280,7 +16280,7 @@
       <c r="I692" s="14"/>
       <c r="J692" s="2"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" s="10"/>
       <c r="B693" s="6"/>
       <c r="C693" s="4"/>
@@ -16292,7 +16292,7 @@
       <c r="I693" s="14"/>
       <c r="J693" s="2"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" s="10"/>
       <c r="B694" s="6"/>
       <c r="C694" s="4"/>
@@ -16304,7 +16304,7 @@
       <c r="I694" s="14"/>
       <c r="J694" s="2"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" s="10"/>
       <c r="B695" s="6"/>
       <c r="C695" s="4"/>
@@ -16316,7 +16316,7 @@
       <c r="I695" s="14"/>
       <c r="J695" s="2"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" s="10"/>
       <c r="B696" s="6"/>
       <c r="C696" s="4"/>
@@ -16328,7 +16328,7 @@
       <c r="I696" s="14"/>
       <c r="J696" s="2"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" s="10"/>
       <c r="B697" s="6"/>
       <c r="C697" s="4"/>
@@ -16340,7 +16340,7 @@
       <c r="I697" s="14"/>
       <c r="J697" s="2"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" s="10"/>
       <c r="B698" s="6"/>
       <c r="C698" s="4"/>
@@ -16352,7 +16352,7 @@
       <c r="I698" s="14"/>
       <c r="J698" s="2"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" s="10"/>
       <c r="B699" s="6"/>
       <c r="C699" s="4"/>
@@ -16364,7 +16364,7 @@
       <c r="I699" s="14"/>
       <c r="J699" s="2"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" s="10"/>
       <c r="B700" s="6"/>
       <c r="C700" s="4"/>
@@ -16376,7 +16376,7 @@
       <c r="I700" s="14"/>
       <c r="J700" s="2"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" s="10"/>
       <c r="B701" s="6"/>
       <c r="C701" s="4"/>
@@ -16388,7 +16388,7 @@
       <c r="I701" s="14"/>
       <c r="J701" s="2"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" s="10"/>
       <c r="B702" s="6"/>
       <c r="C702" s="4"/>
@@ -16400,7 +16400,7 @@
       <c r="I702" s="14"/>
       <c r="J702" s="2"/>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" s="10"/>
       <c r="B703" s="6"/>
       <c r="C703" s="4"/>
@@ -16412,7 +16412,7 @@
       <c r="I703" s="14"/>
       <c r="J703" s="2"/>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" s="10"/>
       <c r="B704" s="6"/>
       <c r="C704" s="4"/>
@@ -16424,7 +16424,7 @@
       <c r="I704" s="14"/>
       <c r="J704" s="2"/>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" s="10"/>
       <c r="B705" s="6"/>
       <c r="C705" s="4"/>
@@ -16436,7 +16436,7 @@
       <c r="I705" s="14"/>
       <c r="J705" s="2"/>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" s="10"/>
       <c r="B706" s="6"/>
       <c r="C706" s="4"/>
@@ -16448,7 +16448,7 @@
       <c r="I706" s="14"/>
       <c r="J706" s="2"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" s="10"/>
       <c r="B707" s="6"/>
       <c r="C707" s="4"/>
@@ -16460,7 +16460,7 @@
       <c r="I707" s="14"/>
       <c r="J707" s="2"/>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" s="10"/>
       <c r="B708" s="6"/>
       <c r="C708" s="4"/>
@@ -16472,7 +16472,7 @@
       <c r="I708" s="14"/>
       <c r="J708" s="2"/>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" s="10"/>
       <c r="B709" s="6"/>
       <c r="C709" s="4"/>
@@ -16484,7 +16484,7 @@
       <c r="I709" s="14"/>
       <c r="J709" s="2"/>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" s="10"/>
       <c r="B710" s="6"/>
       <c r="C710" s="4"/>
@@ -16496,7 +16496,7 @@
       <c r="I710" s="14"/>
       <c r="J710" s="2"/>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" s="10"/>
       <c r="B711" s="6"/>
       <c r="C711" s="4"/>
@@ -16508,7 +16508,7 @@
       <c r="I711" s="14"/>
       <c r="J711" s="2"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" s="10"/>
       <c r="B712" s="6"/>
       <c r="C712" s="4"/>
@@ -16520,7 +16520,7 @@
       <c r="I712" s="14"/>
       <c r="J712" s="2"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" s="10"/>
       <c r="B713" s="6"/>
       <c r="C713" s="4"/>
@@ -16532,7 +16532,7 @@
       <c r="I713" s="14"/>
       <c r="J713" s="2"/>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" s="10"/>
       <c r="B714" s="6"/>
       <c r="C714" s="4"/>
@@ -16544,7 +16544,7 @@
       <c r="I714" s="14"/>
       <c r="J714" s="2"/>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" s="10"/>
       <c r="B715" s="6"/>
       <c r="C715" s="4"/>
@@ -16556,7 +16556,7 @@
       <c r="I715" s="14"/>
       <c r="J715" s="2"/>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" s="10"/>
       <c r="B716" s="6"/>
       <c r="C716" s="4"/>
@@ -16568,7 +16568,7 @@
       <c r="I716" s="14"/>
       <c r="J716" s="2"/>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" s="10"/>
       <c r="B717" s="6"/>
       <c r="C717" s="4"/>
@@ -16580,7 +16580,7 @@
       <c r="I717" s="14"/>
       <c r="J717" s="2"/>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" s="10"/>
       <c r="B718" s="6"/>
       <c r="C718" s="4"/>
@@ -16592,7 +16592,7 @@
       <c r="I718" s="14"/>
       <c r="J718" s="2"/>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" s="10"/>
       <c r="B719" s="6"/>
       <c r="C719" s="4"/>
@@ -16604,7 +16604,7 @@
       <c r="I719" s="14"/>
       <c r="J719" s="2"/>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" s="10"/>
       <c r="B720" s="6"/>
       <c r="C720" s="4"/>
@@ -16616,7 +16616,7 @@
       <c r="I720" s="14"/>
       <c r="J720" s="2"/>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" s="10"/>
       <c r="B721" s="6"/>
       <c r="C721" s="4"/>
@@ -16628,7 +16628,7 @@
       <c r="I721" s="14"/>
       <c r="J721" s="2"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" s="10"/>
       <c r="B722" s="6"/>
       <c r="C722" s="4"/>
@@ -16640,7 +16640,7 @@
       <c r="I722" s="14"/>
       <c r="J722" s="2"/>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" s="10"/>
       <c r="B723" s="6"/>
       <c r="C723" s="4"/>
@@ -16652,7 +16652,7 @@
       <c r="I723" s="14"/>
       <c r="J723" s="2"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" s="10"/>
       <c r="B724" s="6"/>
       <c r="C724" s="4"/>
@@ -16664,7 +16664,7 @@
       <c r="I724" s="14"/>
       <c r="J724" s="2"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" s="10"/>
       <c r="B725" s="6"/>
       <c r="C725" s="4"/>
@@ -16676,7 +16676,7 @@
       <c r="I725" s="14"/>
       <c r="J725" s="2"/>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" s="10"/>
       <c r="B726" s="6"/>
       <c r="C726" s="4"/>
@@ -16688,7 +16688,7 @@
       <c r="I726" s="14"/>
       <c r="J726" s="2"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" s="10"/>
       <c r="B727" s="6"/>
       <c r="C727" s="4"/>
@@ -16700,7 +16700,7 @@
       <c r="I727" s="14"/>
       <c r="J727" s="2"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" s="10"/>
       <c r="B728" s="6"/>
       <c r="C728" s="4"/>
@@ -16712,7 +16712,7 @@
       <c r="I728" s="14"/>
       <c r="J728" s="2"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" s="10"/>
       <c r="B729" s="6"/>
       <c r="C729" s="4"/>
@@ -16724,7 +16724,7 @@
       <c r="I729" s="14"/>
       <c r="J729" s="2"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" s="10"/>
       <c r="B730" s="6"/>
       <c r="C730" s="4"/>
@@ -16736,7 +16736,7 @@
       <c r="I730" s="14"/>
       <c r="J730" s="2"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" s="10"/>
       <c r="B731" s="6"/>
       <c r="C731" s="4"/>
@@ -16748,7 +16748,7 @@
       <c r="I731" s="14"/>
       <c r="J731" s="2"/>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" s="10"/>
       <c r="B732" s="6"/>
       <c r="C732" s="4"/>
@@ -16760,7 +16760,7 @@
       <c r="I732" s="14"/>
       <c r="J732" s="2"/>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" s="10"/>
       <c r="B733" s="6"/>
       <c r="C733" s="4"/>
@@ -16772,7 +16772,7 @@
       <c r="I733" s="14"/>
       <c r="J733" s="2"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" s="10"/>
       <c r="B734" s="6"/>
       <c r="C734" s="4"/>
@@ -16784,7 +16784,7 @@
       <c r="I734" s="14"/>
       <c r="J734" s="2"/>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" s="10"/>
       <c r="B735" s="6"/>
       <c r="C735" s="4"/>
@@ -16796,7 +16796,7 @@
       <c r="I735" s="14"/>
       <c r="J735" s="2"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" s="10"/>
       <c r="B736" s="6"/>
       <c r="C736" s="4"/>
@@ -16808,7 +16808,7 @@
       <c r="I736" s="14"/>
       <c r="J736" s="2"/>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A737" s="10"/>
       <c r="B737" s="6"/>
       <c r="C737" s="4"/>
@@ -16820,7 +16820,7 @@
       <c r="I737" s="14"/>
       <c r="J737" s="2"/>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" s="10"/>
       <c r="B738" s="6"/>
       <c r="C738" s="4"/>
@@ -16832,7 +16832,7 @@
       <c r="I738" s="14"/>
       <c r="J738" s="2"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" s="10"/>
       <c r="B739" s="6"/>
       <c r="C739" s="4"/>
@@ -16844,7 +16844,7 @@
       <c r="I739" s="14"/>
       <c r="J739" s="2"/>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" s="10"/>
       <c r="B740" s="6"/>
       <c r="C740" s="4"/>
@@ -16856,7 +16856,7 @@
       <c r="I740" s="14"/>
       <c r="J740" s="2"/>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" s="10"/>
       <c r="B741" s="6"/>
       <c r="C741" s="4"/>
@@ -16868,7 +16868,7 @@
       <c r="I741" s="14"/>
       <c r="J741" s="2"/>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" s="10"/>
       <c r="B742" s="6"/>
       <c r="C742" s="4"/>
@@ -16880,7 +16880,7 @@
       <c r="I742" s="14"/>
       <c r="J742" s="2"/>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" s="10"/>
       <c r="B743" s="6"/>
       <c r="C743" s="4"/>
@@ -16892,7 +16892,7 @@
       <c r="I743" s="14"/>
       <c r="J743" s="2"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" s="10"/>
       <c r="B744" s="6"/>
       <c r="C744" s="4"/>
@@ -16904,7 +16904,7 @@
       <c r="I744" s="14"/>
       <c r="J744" s="2"/>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" s="10"/>
       <c r="B745" s="6"/>
       <c r="C745" s="4"/>
@@ -16916,7 +16916,7 @@
       <c r="I745" s="14"/>
       <c r="J745" s="2"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746" s="10"/>
       <c r="B746" s="6"/>
       <c r="C746" s="4"/>
@@ -16928,7 +16928,7 @@
       <c r="I746" s="14"/>
       <c r="J746" s="2"/>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" s="10"/>
       <c r="B747" s="6"/>
       <c r="C747" s="4"/>
@@ -16940,7 +16940,7 @@
       <c r="I747" s="14"/>
       <c r="J747" s="2"/>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748" s="10"/>
       <c r="B748" s="6"/>
       <c r="C748" s="4"/>
@@ -16952,7 +16952,7 @@
       <c r="I748" s="14"/>
       <c r="J748" s="2"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" s="10"/>
       <c r="B749" s="6"/>
       <c r="C749" s="4"/>
@@ -16964,7 +16964,7 @@
       <c r="I749" s="14"/>
       <c r="J749" s="2"/>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750" s="10"/>
       <c r="B750" s="6"/>
       <c r="C750" s="4"/>
@@ -16976,7 +16976,7 @@
       <c r="I750" s="14"/>
       <c r="J750" s="2"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751" s="10"/>
       <c r="B751" s="6"/>
       <c r="C751" s="4"/>
@@ -16988,7 +16988,7 @@
       <c r="I751" s="14"/>
       <c r="J751" s="2"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752" s="10"/>
       <c r="B752" s="6"/>
       <c r="C752" s="4"/>
@@ -17000,7 +17000,7 @@
       <c r="I752" s="14"/>
       <c r="J752" s="2"/>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" s="10"/>
       <c r="B753" s="6"/>
       <c r="C753" s="4"/>
@@ -17012,7 +17012,7 @@
       <c r="I753" s="14"/>
       <c r="J753" s="2"/>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" s="10"/>
       <c r="B754" s="6"/>
       <c r="C754" s="4"/>
@@ -17024,7 +17024,7 @@
       <c r="I754" s="14"/>
       <c r="J754" s="2"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" s="10"/>
       <c r="B755" s="6"/>
       <c r="C755" s="4"/>
@@ -17036,7 +17036,7 @@
       <c r="I755" s="14"/>
       <c r="J755" s="2"/>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" s="10"/>
       <c r="B756" s="6"/>
       <c r="C756" s="4"/>
@@ -17048,7 +17048,7 @@
       <c r="I756" s="14"/>
       <c r="J756" s="2"/>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" s="10"/>
       <c r="B757" s="6"/>
       <c r="C757" s="4"/>
@@ -17060,7 +17060,7 @@
       <c r="I757" s="14"/>
       <c r="J757" s="2"/>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" s="10"/>
       <c r="B758" s="6"/>
       <c r="C758" s="4"/>
@@ -17072,7 +17072,7 @@
       <c r="I758" s="14"/>
       <c r="J758" s="2"/>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759" s="10"/>
       <c r="B759" s="6"/>
       <c r="C759" s="4"/>
@@ -17084,7 +17084,7 @@
       <c r="I759" s="14"/>
       <c r="J759" s="2"/>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" s="10"/>
       <c r="B760" s="6"/>
       <c r="C760" s="4"/>
@@ -17096,7 +17096,7 @@
       <c r="I760" s="14"/>
       <c r="J760" s="2"/>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" s="10"/>
       <c r="B761" s="6"/>
       <c r="C761" s="4"/>
@@ -17108,7 +17108,7 @@
       <c r="I761" s="14"/>
       <c r="J761" s="2"/>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" s="10"/>
       <c r="B762" s="6"/>
       <c r="C762" s="4"/>
@@ -17120,7 +17120,7 @@
       <c r="I762" s="14"/>
       <c r="J762" s="2"/>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" s="10"/>
       <c r="B763" s="6"/>
       <c r="C763" s="4"/>
@@ -17132,7 +17132,7 @@
       <c r="I763" s="14"/>
       <c r="J763" s="2"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" s="10"/>
       <c r="B764" s="6"/>
       <c r="C764" s="4"/>
@@ -17144,7 +17144,7 @@
       <c r="I764" s="14"/>
       <c r="J764" s="2"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" s="10"/>
       <c r="B765" s="6"/>
       <c r="C765" s="4"/>
@@ -17156,7 +17156,7 @@
       <c r="I765" s="14"/>
       <c r="J765" s="2"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" s="10"/>
       <c r="B766" s="6"/>
       <c r="C766" s="4"/>
@@ -17168,7 +17168,7 @@
       <c r="I766" s="14"/>
       <c r="J766" s="2"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" s="10"/>
       <c r="B767" s="6"/>
       <c r="C767" s="4"/>
@@ -17180,7 +17180,7 @@
       <c r="I767" s="14"/>
       <c r="J767" s="2"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" s="10"/>
       <c r="B768" s="6"/>
       <c r="C768" s="4"/>
@@ -17192,7 +17192,7 @@
       <c r="I768" s="14"/>
       <c r="J768" s="2"/>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" s="10"/>
       <c r="B769" s="6"/>
       <c r="C769" s="4"/>
@@ -17204,7 +17204,7 @@
       <c r="I769" s="14"/>
       <c r="J769" s="2"/>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" s="10"/>
       <c r="B770" s="6"/>
       <c r="C770" s="4"/>
@@ -17216,7 +17216,7 @@
       <c r="I770" s="14"/>
       <c r="J770" s="2"/>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" s="10"/>
       <c r="B771" s="6"/>
       <c r="C771" s="4"/>
@@ -17228,7 +17228,7 @@
       <c r="I771" s="14"/>
       <c r="J771" s="2"/>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" s="10"/>
       <c r="B772" s="6"/>
       <c r="C772" s="4"/>
@@ -17240,7 +17240,7 @@
       <c r="I772" s="14"/>
       <c r="J772" s="2"/>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A773" s="10"/>
       <c r="B773" s="6"/>
       <c r="C773" s="4"/>
@@ -17252,7 +17252,7 @@
       <c r="I773" s="14"/>
       <c r="J773" s="2"/>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" s="10"/>
       <c r="B774" s="6"/>
       <c r="C774" s="4"/>
@@ -17264,7 +17264,7 @@
       <c r="I774" s="14"/>
       <c r="J774" s="2"/>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" s="10"/>
       <c r="B775" s="6"/>
       <c r="C775" s="4"/>
@@ -17276,7 +17276,7 @@
       <c r="I775" s="14"/>
       <c r="J775" s="2"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776" s="10"/>
       <c r="B776" s="6"/>
       <c r="C776" s="4"/>
@@ -17288,7 +17288,7 @@
       <c r="I776" s="14"/>
       <c r="J776" s="2"/>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" s="10"/>
       <c r="B777" s="6"/>
       <c r="C777" s="4"/>
@@ -17300,7 +17300,7 @@
       <c r="I777" s="14"/>
       <c r="J777" s="2"/>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" s="10"/>
       <c r="B778" s="6"/>
       <c r="C778" s="4"/>
@@ -17312,7 +17312,7 @@
       <c r="I778" s="14"/>
       <c r="J778" s="2"/>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779" s="10"/>
       <c r="B779" s="6"/>
       <c r="C779" s="4"/>
@@ -17324,7 +17324,7 @@
       <c r="I779" s="14"/>
       <c r="J779" s="2"/>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" s="10"/>
       <c r="B780" s="6"/>
       <c r="C780" s="4"/>
@@ -17336,7 +17336,7 @@
       <c r="I780" s="14"/>
       <c r="J780" s="2"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" s="10"/>
       <c r="B781" s="6"/>
       <c r="C781" s="4"/>
@@ -17348,7 +17348,7 @@
       <c r="I781" s="14"/>
       <c r="J781" s="2"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A782" s="10"/>
       <c r="B782" s="6"/>
       <c r="C782" s="4"/>
@@ -17360,7 +17360,7 @@
       <c r="I782" s="14"/>
       <c r="J782" s="2"/>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A783" s="10"/>
       <c r="B783" s="6"/>
       <c r="C783" s="4"/>
@@ -17372,7 +17372,7 @@
       <c r="I783" s="14"/>
       <c r="J783" s="2"/>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A784" s="10"/>
       <c r="B784" s="6"/>
       <c r="C784" s="4"/>
@@ -17384,7 +17384,7 @@
       <c r="I784" s="14"/>
       <c r="J784" s="2"/>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A785" s="10"/>
       <c r="B785" s="6"/>
       <c r="C785" s="4"/>
@@ -17396,7 +17396,7 @@
       <c r="I785" s="14"/>
       <c r="J785" s="2"/>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A786" s="10"/>
       <c r="B786" s="6"/>
       <c r="C786" s="4"/>
@@ -17408,7 +17408,7 @@
       <c r="I786" s="14"/>
       <c r="J786" s="2"/>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A787" s="10"/>
       <c r="B787" s="6"/>
       <c r="C787" s="4"/>
@@ -17420,7 +17420,7 @@
       <c r="I787" s="14"/>
       <c r="J787" s="2"/>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" s="10"/>
       <c r="B788" s="6"/>
       <c r="C788" s="4"/>
@@ -17432,7 +17432,7 @@
       <c r="I788" s="14"/>
       <c r="J788" s="2"/>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A789" s="10"/>
       <c r="B789" s="6"/>
       <c r="C789" s="4"/>
@@ -17444,7 +17444,7 @@
       <c r="I789" s="14"/>
       <c r="J789" s="2"/>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A790" s="10"/>
       <c r="B790" s="6"/>
       <c r="C790" s="4"/>
@@ -17456,7 +17456,7 @@
       <c r="I790" s="14"/>
       <c r="J790" s="2"/>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A791" s="10"/>
       <c r="B791" s="6"/>
       <c r="C791" s="4"/>
@@ -17468,7 +17468,7 @@
       <c r="I791" s="14"/>
       <c r="J791" s="2"/>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A792" s="10"/>
       <c r="B792" s="6"/>
       <c r="C792" s="4"/>
@@ -17480,7 +17480,7 @@
       <c r="I792" s="14"/>
       <c r="J792" s="2"/>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A793" s="10"/>
       <c r="B793" s="6"/>
       <c r="C793" s="4"/>
@@ -17492,7 +17492,7 @@
       <c r="I793" s="14"/>
       <c r="J793" s="2"/>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A794" s="10"/>
       <c r="B794" s="6"/>
       <c r="C794" s="4"/>
@@ -17504,7 +17504,7 @@
       <c r="I794" s="14"/>
       <c r="J794" s="2"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A795" s="10"/>
       <c r="B795" s="6"/>
       <c r="C795" s="4"/>
@@ -17516,7 +17516,7 @@
       <c r="I795" s="14"/>
       <c r="J795" s="2"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A796" s="10"/>
       <c r="B796" s="6"/>
       <c r="C796" s="4"/>
@@ -17528,7 +17528,7 @@
       <c r="I796" s="14"/>
       <c r="J796" s="2"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A797" s="10"/>
       <c r="B797" s="6"/>
       <c r="C797" s="4"/>
@@ -17540,7 +17540,7 @@
       <c r="I797" s="14"/>
       <c r="J797" s="2"/>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A798" s="10"/>
       <c r="B798" s="6"/>
       <c r="C798" s="4"/>
@@ -17552,7 +17552,7 @@
       <c r="I798" s="14"/>
       <c r="J798" s="2"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A799" s="10"/>
       <c r="B799" s="6"/>
       <c r="C799" s="4"/>
@@ -17564,7 +17564,7 @@
       <c r="I799" s="14"/>
       <c r="J799" s="2"/>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A800" s="10"/>
       <c r="B800" s="6"/>
       <c r="C800" s="4"/>
@@ -17576,7 +17576,7 @@
       <c r="I800" s="14"/>
       <c r="J800" s="2"/>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A801" s="10"/>
       <c r="B801" s="6"/>
       <c r="C801" s="4"/>
@@ -17588,7 +17588,7 @@
       <c r="I801" s="14"/>
       <c r="J801" s="2"/>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A802" s="10"/>
       <c r="B802" s="6"/>
       <c r="C802" s="4"/>
@@ -17600,7 +17600,7 @@
       <c r="I802" s="14"/>
       <c r="J802" s="2"/>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A803" s="10"/>
       <c r="B803" s="6"/>
       <c r="C803" s="4"/>
@@ -17612,7 +17612,7 @@
       <c r="I803" s="14"/>
       <c r="J803" s="2"/>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A804" s="10"/>
       <c r="B804" s="6"/>
       <c r="C804" s="4"/>
@@ -17624,7 +17624,7 @@
       <c r="I804" s="14"/>
       <c r="J804" s="2"/>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A805" s="10"/>
       <c r="B805" s="6"/>
       <c r="C805" s="4"/>
@@ -17636,7 +17636,7 @@
       <c r="I805" s="14"/>
       <c r="J805" s="2"/>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A806" s="10"/>
       <c r="B806" s="6"/>
       <c r="C806" s="4"/>
@@ -17648,7 +17648,7 @@
       <c r="I806" s="14"/>
       <c r="J806" s="2"/>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A807" s="10"/>
       <c r="B807" s="6"/>
       <c r="C807" s="4"/>
@@ -17660,7 +17660,7 @@
       <c r="I807" s="14"/>
       <c r="J807" s="2"/>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A808" s="10"/>
       <c r="B808" s="6"/>
       <c r="C808" s="4"/>
@@ -17672,7 +17672,7 @@
       <c r="I808" s="14"/>
       <c r="J808" s="2"/>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A809" s="10"/>
       <c r="B809" s="6"/>
       <c r="C809" s="4"/>
@@ -17684,7 +17684,7 @@
       <c r="I809" s="14"/>
       <c r="J809" s="2"/>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A810" s="10"/>
       <c r="B810" s="6"/>
       <c r="C810" s="4"/>
@@ -17696,7 +17696,7 @@
       <c r="I810" s="14"/>
       <c r="J810" s="2"/>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A811" s="10"/>
       <c r="B811" s="6"/>
       <c r="C811" s="4"/>
@@ -17708,7 +17708,7 @@
       <c r="I811" s="14"/>
       <c r="J811" s="2"/>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" s="10"/>
       <c r="B812" s="6"/>
       <c r="C812" s="4"/>
@@ -17720,7 +17720,7 @@
       <c r="I812" s="14"/>
       <c r="J812" s="2"/>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A813" s="10"/>
       <c r="B813" s="6"/>
       <c r="C813" s="4"/>
@@ -17732,7 +17732,7 @@
       <c r="I813" s="14"/>
       <c r="J813" s="2"/>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A814" s="10"/>
       <c r="B814" s="6"/>
       <c r="C814" s="4"/>
@@ -17744,7 +17744,7 @@
       <c r="I814" s="14"/>
       <c r="J814" s="2"/>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A815" s="10"/>
       <c r="B815" s="6"/>
       <c r="C815" s="4"/>
@@ -17756,7 +17756,7 @@
       <c r="I815" s="14"/>
       <c r="J815" s="2"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A816" s="10"/>
       <c r="B816" s="6"/>
       <c r="C816" s="4"/>
@@ -17768,7 +17768,7 @@
       <c r="I816" s="14"/>
       <c r="J816" s="2"/>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A817" s="10"/>
       <c r="B817" s="6"/>
       <c r="C817" s="4"/>
@@ -17780,7 +17780,7 @@
       <c r="I817" s="14"/>
       <c r="J817" s="2"/>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A818" s="10"/>
       <c r="B818" s="6"/>
       <c r="C818" s="4"/>
@@ -17792,7 +17792,7 @@
       <c r="I818" s="14"/>
       <c r="J818" s="2"/>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A819" s="10"/>
       <c r="B819" s="6"/>
       <c r="C819" s="4"/>
@@ -17804,7 +17804,7 @@
       <c r="I819" s="14"/>
       <c r="J819" s="2"/>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A820" s="10"/>
       <c r="B820" s="6"/>
       <c r="C820" s="4"/>
@@ -17816,7 +17816,7 @@
       <c r="I820" s="14"/>
       <c r="J820" s="2"/>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A821" s="10"/>
       <c r="B821" s="6"/>
       <c r="C821" s="4"/>
@@ -17828,7 +17828,7 @@
       <c r="I821" s="14"/>
       <c r="J821" s="2"/>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A822" s="10"/>
       <c r="B822" s="6"/>
       <c r="C822" s="4"/>
@@ -17840,7 +17840,7 @@
       <c r="I822" s="14"/>
       <c r="J822" s="2"/>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A823" s="10"/>
       <c r="B823" s="6"/>
       <c r="C823" s="4"/>
@@ -17852,7 +17852,7 @@
       <c r="I823" s="14"/>
       <c r="J823" s="2"/>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A824" s="10"/>
       <c r="B824" s="6"/>
       <c r="C824" s="4"/>
@@ -17864,7 +17864,7 @@
       <c r="I824" s="14"/>
       <c r="J824" s="2"/>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A825" s="10"/>
       <c r="B825" s="6"/>
       <c r="C825" s="4"/>
@@ -17876,7 +17876,7 @@
       <c r="I825" s="14"/>
       <c r="J825" s="2"/>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A826" s="10"/>
       <c r="B826" s="6"/>
       <c r="C826" s="4"/>
@@ -17888,7 +17888,7 @@
       <c r="I826" s="14"/>
       <c r="J826" s="2"/>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A827" s="10"/>
       <c r="B827" s="6"/>
       <c r="C827" s="4"/>
@@ -17900,7 +17900,7 @@
       <c r="I827" s="14"/>
       <c r="J827" s="2"/>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" s="10"/>
       <c r="B828" s="6"/>
       <c r="C828" s="4"/>
@@ -17912,7 +17912,7 @@
       <c r="I828" s="14"/>
       <c r="J828" s="2"/>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A829" s="10"/>
       <c r="B829" s="6"/>
       <c r="C829" s="4"/>
@@ -17924,7 +17924,7 @@
       <c r="I829" s="14"/>
       <c r="J829" s="2"/>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A830" s="10"/>
       <c r="B830" s="6"/>
       <c r="C830" s="4"/>
@@ -17936,7 +17936,7 @@
       <c r="I830" s="14"/>
       <c r="J830" s="2"/>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A831" s="10"/>
       <c r="B831" s="6"/>
       <c r="C831" s="4"/>
@@ -17948,7 +17948,7 @@
       <c r="I831" s="14"/>
       <c r="J831" s="2"/>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A832" s="10"/>
       <c r="B832" s="6"/>
       <c r="C832" s="4"/>
@@ -17960,7 +17960,7 @@
       <c r="I832" s="14"/>
       <c r="J832" s="2"/>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A833" s="10"/>
       <c r="B833" s="6"/>
       <c r="C833" s="4"/>
@@ -17972,7 +17972,7 @@
       <c r="I833" s="14"/>
       <c r="J833" s="2"/>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A834" s="10"/>
       <c r="B834" s="6"/>
       <c r="C834" s="4"/>
@@ -17984,7 +17984,7 @@
       <c r="I834" s="14"/>
       <c r="J834" s="2"/>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A835" s="10"/>
       <c r="B835" s="6"/>
       <c r="C835" s="4"/>
@@ -17996,7 +17996,7 @@
       <c r="I835" s="14"/>
       <c r="J835" s="2"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A836" s="10"/>
       <c r="B836" s="6"/>
       <c r="C836" s="4"/>
@@ -18008,7 +18008,7 @@
       <c r="I836" s="14"/>
       <c r="J836" s="2"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A837" s="10"/>
       <c r="B837" s="6"/>
       <c r="C837" s="4"/>
@@ -18020,7 +18020,7 @@
       <c r="I837" s="14"/>
       <c r="J837" s="2"/>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A838" s="10"/>
       <c r="B838" s="6"/>
       <c r="C838" s="4"/>
@@ -18032,7 +18032,7 @@
       <c r="I838" s="14"/>
       <c r="J838" s="2"/>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A839" s="10"/>
       <c r="B839" s="6"/>
       <c r="C839" s="4"/>
@@ -18044,7 +18044,7 @@
       <c r="I839" s="14"/>
       <c r="J839" s="2"/>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A840" s="10"/>
       <c r="B840" s="6"/>
       <c r="C840" s="4"/>
@@ -18056,7 +18056,7 @@
       <c r="I840" s="14"/>
       <c r="J840" s="2"/>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A841" s="10"/>
       <c r="B841" s="6"/>
       <c r="C841" s="4"/>
@@ -18068,7 +18068,7 @@
       <c r="I841" s="14"/>
       <c r="J841" s="2"/>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A842" s="10"/>
       <c r="B842" s="6"/>
       <c r="C842" s="4"/>
@@ -18080,7 +18080,7 @@
       <c r="I842" s="14"/>
       <c r="J842" s="2"/>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" s="10"/>
       <c r="B843" s="6"/>
       <c r="C843" s="4"/>
@@ -18092,7 +18092,7 @@
       <c r="I843" s="14"/>
       <c r="J843" s="2"/>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A844" s="10"/>
       <c r="B844" s="6"/>
       <c r="C844" s="4"/>
@@ -18104,7 +18104,7 @@
       <c r="I844" s="14"/>
       <c r="J844" s="2"/>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A845" s="10"/>
       <c r="B845" s="6"/>
       <c r="C845" s="4"/>
@@ -18116,7 +18116,7 @@
       <c r="I845" s="14"/>
       <c r="J845" s="2"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A846" s="10"/>
       <c r="B846" s="6"/>
       <c r="C846" s="4"/>
@@ -18128,7 +18128,7 @@
       <c r="I846" s="14"/>
       <c r="J846" s="2"/>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A847" s="10"/>
       <c r="B847" s="6"/>
       <c r="C847" s="4"/>
@@ -18140,7 +18140,7 @@
       <c r="I847" s="14"/>
       <c r="J847" s="2"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A848" s="10"/>
       <c r="B848" s="6"/>
       <c r="C848" s="4"/>
@@ -18152,7 +18152,7 @@
       <c r="I848" s="14"/>
       <c r="J848" s="2"/>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A849" s="10"/>
       <c r="B849" s="6"/>
       <c r="C849" s="4"/>
@@ -18164,7 +18164,7 @@
       <c r="I849" s="14"/>
       <c r="J849" s="2"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A850" s="10"/>
       <c r="B850" s="6"/>
       <c r="C850" s="4"/>
@@ -18176,7 +18176,7 @@
       <c r="I850" s="14"/>
       <c r="J850" s="2"/>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A851" s="10"/>
       <c r="B851" s="6"/>
       <c r="C851" s="4"/>
@@ -18188,7 +18188,7 @@
       <c r="I851" s="14"/>
       <c r="J851" s="2"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A852" s="10"/>
       <c r="B852" s="6"/>
       <c r="C852" s="4"/>
@@ -18200,7 +18200,7 @@
       <c r="I852" s="14"/>
       <c r="J852" s="2"/>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A853" s="10"/>
       <c r="B853" s="6"/>
       <c r="C853" s="4"/>
@@ -18212,7 +18212,7 @@
       <c r="I853" s="14"/>
       <c r="J853" s="2"/>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A854" s="10"/>
       <c r="B854" s="6"/>
       <c r="C854" s="4"/>
@@ -18224,7 +18224,7 @@
       <c r="I854" s="14"/>
       <c r="J854" s="2"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A855" s="10"/>
       <c r="B855" s="6"/>
       <c r="C855" s="4"/>
@@ -18236,7 +18236,7 @@
       <c r="I855" s="14"/>
       <c r="J855" s="2"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A856" s="10"/>
       <c r="B856" s="6"/>
       <c r="C856" s="4"/>
@@ -18248,7 +18248,7 @@
       <c r="I856" s="14"/>
       <c r="J856" s="2"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A857" s="10"/>
       <c r="B857" s="6"/>
       <c r="C857" s="4"/>
@@ -18260,7 +18260,7 @@
       <c r="I857" s="14"/>
       <c r="J857" s="2"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A858" s="10"/>
       <c r="B858" s="6"/>
       <c r="C858" s="4"/>
@@ -18272,7 +18272,7 @@
       <c r="I858" s="14"/>
       <c r="J858" s="2"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A859" s="10"/>
       <c r="B859" s="6"/>
       <c r="C859" s="4"/>
@@ -18284,7 +18284,7 @@
       <c r="I859" s="14"/>
       <c r="J859" s="2"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A860" s="10"/>
       <c r="B860" s="6"/>
       <c r="C860" s="4"/>
@@ -18296,7 +18296,7 @@
       <c r="I860" s="14"/>
       <c r="J860" s="2"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A861" s="10"/>
       <c r="B861" s="6"/>
       <c r="C861" s="4"/>
@@ -18308,7 +18308,7 @@
       <c r="I861" s="14"/>
       <c r="J861" s="2"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A862" s="10"/>
       <c r="B862" s="6"/>
       <c r="C862" s="4"/>
@@ -18320,7 +18320,7 @@
       <c r="I862" s="14"/>
       <c r="J862" s="2"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A863" s="10"/>
       <c r="B863" s="6"/>
       <c r="C863" s="4"/>
@@ -18332,7 +18332,7 @@
       <c r="I863" s="14"/>
       <c r="J863" s="2"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A864" s="10"/>
       <c r="B864" s="6"/>
       <c r="C864" s="4"/>
@@ -18344,7 +18344,7 @@
       <c r="I864" s="14"/>
       <c r="J864" s="2"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A865" s="10"/>
       <c r="B865" s="6"/>
       <c r="C865" s="4"/>
@@ -18356,7 +18356,7 @@
       <c r="I865" s="14"/>
       <c r="J865" s="2"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A866" s="10"/>
       <c r="B866" s="6"/>
       <c r="C866" s="4"/>
@@ -18368,7 +18368,7 @@
       <c r="I866" s="14"/>
       <c r="J866" s="2"/>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A867" s="10"/>
       <c r="B867" s="6"/>
       <c r="C867" s="4"/>
@@ -18380,7 +18380,7 @@
       <c r="I867" s="14"/>
       <c r="J867" s="2"/>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A868" s="10"/>
       <c r="B868" s="6"/>
       <c r="C868" s="4"/>
@@ -18392,7 +18392,7 @@
       <c r="I868" s="14"/>
       <c r="J868" s="2"/>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A869" s="10"/>
       <c r="B869" s="6"/>
       <c r="C869" s="4"/>
@@ -18404,7 +18404,7 @@
       <c r="I869" s="14"/>
       <c r="J869" s="2"/>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A870" s="10"/>
       <c r="B870" s="6"/>
       <c r="C870" s="4"/>
@@ -18416,7 +18416,7 @@
       <c r="I870" s="14"/>
       <c r="J870" s="2"/>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A871" s="10"/>
       <c r="B871" s="6"/>
       <c r="C871" s="4"/>
@@ -18428,7 +18428,7 @@
       <c r="I871" s="14"/>
       <c r="J871" s="2"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A872" s="10"/>
       <c r="B872" s="6"/>
       <c r="C872" s="4"/>
@@ -18440,7 +18440,7 @@
       <c r="I872" s="14"/>
       <c r="J872" s="2"/>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A873" s="10"/>
       <c r="B873" s="6"/>
       <c r="C873" s="4"/>
@@ -18452,7 +18452,7 @@
       <c r="I873" s="14"/>
       <c r="J873" s="2"/>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A874" s="10"/>
       <c r="B874" s="6"/>
       <c r="C874" s="4"/>
@@ -18464,7 +18464,7 @@
       <c r="I874" s="14"/>
       <c r="J874" s="2"/>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A875" s="10"/>
       <c r="B875" s="6"/>
       <c r="C875" s="4"/>
@@ -18476,7 +18476,7 @@
       <c r="I875" s="14"/>
       <c r="J875" s="2"/>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A876" s="10"/>
       <c r="B876" s="6"/>
       <c r="C876" s="4"/>
@@ -18488,7 +18488,7 @@
       <c r="I876" s="14"/>
       <c r="J876" s="2"/>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A877" s="10"/>
       <c r="B877" s="6"/>
       <c r="C877" s="4"/>
@@ -18500,7 +18500,7 @@
       <c r="I877" s="14"/>
       <c r="J877" s="2"/>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A878" s="10"/>
       <c r="B878" s="6"/>
       <c r="C878" s="4"/>
@@ -18512,7 +18512,7 @@
       <c r="I878" s="14"/>
       <c r="J878" s="2"/>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A879" s="10"/>
       <c r="B879" s="6"/>
       <c r="C879" s="4"/>
@@ -18524,7 +18524,7 @@
       <c r="I879" s="14"/>
       <c r="J879" s="2"/>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A880" s="10"/>
       <c r="B880" s="6"/>
       <c r="C880" s="4"/>
@@ -18536,7 +18536,7 @@
       <c r="I880" s="14"/>
       <c r="J880" s="2"/>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A881" s="10"/>
       <c r="B881" s="6"/>
       <c r="C881" s="4"/>
@@ -18548,7 +18548,7 @@
       <c r="I881" s="14"/>
       <c r="J881" s="2"/>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A882" s="10"/>
       <c r="B882" s="6"/>
       <c r="C882" s="4"/>
@@ -18560,7 +18560,7 @@
       <c r="I882" s="14"/>
       <c r="J882" s="2"/>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A883" s="10"/>
       <c r="B883" s="6"/>
       <c r="C883" s="4"/>
@@ -18572,7 +18572,7 @@
       <c r="I883" s="14"/>
       <c r="J883" s="2"/>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A884" s="10"/>
       <c r="B884" s="6"/>
       <c r="C884" s="4"/>
@@ -18584,7 +18584,7 @@
       <c r="I884" s="14"/>
       <c r="J884" s="2"/>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A885" s="10"/>
       <c r="B885" s="6"/>
       <c r="C885" s="4"/>
@@ -18596,7 +18596,7 @@
       <c r="I885" s="14"/>
       <c r="J885" s="2"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A886" s="10"/>
       <c r="B886" s="6"/>
       <c r="C886" s="4"/>
@@ -18608,7 +18608,7 @@
       <c r="I886" s="14"/>
       <c r="J886" s="2"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A887" s="10"/>
       <c r="B887" s="6"/>
       <c r="C887" s="4"/>
@@ -18620,7 +18620,7 @@
       <c r="I887" s="14"/>
       <c r="J887" s="2"/>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A888" s="10"/>
       <c r="B888" s="6"/>
       <c r="C888" s="4"/>
@@ -18632,7 +18632,7 @@
       <c r="I888" s="14"/>
       <c r="J888" s="2"/>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A889" s="10"/>
       <c r="B889" s="6"/>
       <c r="C889" s="4"/>
@@ -18644,7 +18644,7 @@
       <c r="I889" s="14"/>
       <c r="J889" s="2"/>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A890" s="10"/>
       <c r="B890" s="6"/>
       <c r="C890" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="I890" s="14"/>
       <c r="J890" s="2"/>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A891" s="10"/>
       <c r="B891" s="6"/>
       <c r="C891" s="4"/>
@@ -18668,7 +18668,7 @@
       <c r="I891" s="14"/>
       <c r="J891" s="2"/>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A892" s="10"/>
       <c r="B892" s="6"/>
       <c r="C892" s="4"/>
@@ -18680,7 +18680,7 @@
       <c r="I892" s="14"/>
       <c r="J892" s="2"/>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A893" s="10"/>
       <c r="B893" s="6"/>
       <c r="C893" s="4"/>
@@ -18692,7 +18692,7 @@
       <c r="I893" s="14"/>
       <c r="J893" s="2"/>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A894" s="10"/>
       <c r="B894" s="6"/>
       <c r="C894" s="4"/>
@@ -18704,7 +18704,7 @@
       <c r="I894" s="14"/>
       <c r="J894" s="2"/>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A895" s="10"/>
       <c r="B895" s="6"/>
       <c r="C895" s="4"/>
@@ -18716,7 +18716,7 @@
       <c r="I895" s="14"/>
       <c r="J895" s="2"/>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A896" s="10"/>
       <c r="B896" s="6"/>
       <c r="C896" s="4"/>
@@ -18728,7 +18728,7 @@
       <c r="I896" s="14"/>
       <c r="J896" s="2"/>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A897" s="10"/>
       <c r="B897" s="6"/>
       <c r="C897" s="4"/>
@@ -18740,7 +18740,7 @@
       <c r="I897" s="14"/>
       <c r="J897" s="2"/>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A898" s="10"/>
       <c r="B898" s="6"/>
       <c r="C898" s="4"/>
@@ -18752,7 +18752,7 @@
       <c r="I898" s="14"/>
       <c r="J898" s="2"/>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A899" s="10"/>
       <c r="B899" s="6"/>
       <c r="C899" s="4"/>
@@ -18764,7 +18764,7 @@
       <c r="I899" s="14"/>
       <c r="J899" s="2"/>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A900" s="10"/>
       <c r="B900" s="6"/>
       <c r="C900" s="4"/>
@@ -18776,7 +18776,7 @@
       <c r="I900" s="14"/>
       <c r="J900" s="2"/>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A901" s="10"/>
       <c r="B901" s="6"/>
       <c r="C901" s="4"/>
@@ -18788,7 +18788,7 @@
       <c r="I901" s="14"/>
       <c r="J901" s="2"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A902" s="10"/>
       <c r="B902" s="6"/>
       <c r="C902" s="4"/>
@@ -18800,7 +18800,7 @@
       <c r="I902" s="14"/>
       <c r="J902" s="2"/>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A903" s="10"/>
       <c r="B903" s="6"/>
       <c r="C903" s="4"/>
@@ -18812,7 +18812,7 @@
       <c r="I903" s="14"/>
       <c r="J903" s="2"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A904" s="10"/>
       <c r="B904" s="6"/>
       <c r="C904" s="4"/>
@@ -18824,7 +18824,7 @@
       <c r="I904" s="14"/>
       <c r="J904" s="2"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A905" s="10"/>
       <c r="B905" s="6"/>
       <c r="C905" s="4"/>
@@ -18836,7 +18836,7 @@
       <c r="I905" s="14"/>
       <c r="J905" s="2"/>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A906" s="10"/>
       <c r="B906" s="6"/>
       <c r="C906" s="4"/>
@@ -18848,7 +18848,7 @@
       <c r="I906" s="14"/>
       <c r="J906" s="2"/>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A907" s="10"/>
       <c r="B907" s="6"/>
       <c r="C907" s="4"/>
@@ -18860,7 +18860,7 @@
       <c r="I907" s="14"/>
       <c r="J907" s="2"/>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A908" s="10"/>
       <c r="B908" s="6"/>
       <c r="C908" s="4"/>
@@ -18872,7 +18872,7 @@
       <c r="I908" s="14"/>
       <c r="J908" s="2"/>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A909" s="10"/>
       <c r="B909" s="6"/>
       <c r="C909" s="4"/>
@@ -18884,7 +18884,7 @@
       <c r="I909" s="14"/>
       <c r="J909" s="2"/>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A910" s="10"/>
       <c r="B910" s="6"/>
       <c r="C910" s="4"/>
@@ -18896,7 +18896,7 @@
       <c r="I910" s="14"/>
       <c r="J910" s="2"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A911" s="10"/>
       <c r="B911" s="6"/>
       <c r="C911" s="4"/>
@@ -18908,7 +18908,7 @@
       <c r="I911" s="14"/>
       <c r="J911" s="2"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A912" s="10"/>
       <c r="B912" s="6"/>
       <c r="C912" s="4"/>
@@ -18920,7 +18920,7 @@
       <c r="I912" s="14"/>
       <c r="J912" s="2"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A913" s="10"/>
       <c r="B913" s="6"/>
       <c r="C913" s="4"/>
@@ -18932,7 +18932,7 @@
       <c r="I913" s="14"/>
       <c r="J913" s="2"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A914" s="10"/>
       <c r="B914" s="6"/>
       <c r="C914" s="4"/>
@@ -18944,7 +18944,7 @@
       <c r="I914" s="14"/>
       <c r="J914" s="2"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A915" s="10"/>
       <c r="B915" s="6"/>
       <c r="C915" s="4"/>
@@ -18956,7 +18956,7 @@
       <c r="I915" s="14"/>
       <c r="J915" s="2"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A916" s="10"/>
       <c r="B916" s="6"/>
       <c r="C916" s="4"/>
@@ -18968,7 +18968,7 @@
       <c r="I916" s="14"/>
       <c r="J916" s="2"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A917" s="10"/>
       <c r="B917" s="6"/>
       <c r="C917" s="4"/>
@@ -18980,7 +18980,7 @@
       <c r="I917" s="14"/>
       <c r="J917" s="2"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A918" s="10"/>
       <c r="B918" s="6"/>
       <c r="C918" s="4"/>
@@ -18992,7 +18992,7 @@
       <c r="I918" s="14"/>
       <c r="J918" s="2"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A919" s="10"/>
       <c r="B919" s="6"/>
       <c r="C919" s="4"/>
@@ -19004,7 +19004,7 @@
       <c r="I919" s="14"/>
       <c r="J919" s="2"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A920" s="10"/>
       <c r="B920" s="6"/>
       <c r="C920" s="4"/>
@@ -19016,7 +19016,7 @@
       <c r="I920" s="14"/>
       <c r="J920" s="2"/>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A921" s="10"/>
       <c r="B921" s="6"/>
       <c r="C921" s="4"/>
@@ -19028,7 +19028,7 @@
       <c r="I921" s="14"/>
       <c r="J921" s="2"/>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A922" s="10"/>
       <c r="B922" s="6"/>
       <c r="C922" s="4"/>
@@ -19040,7 +19040,7 @@
       <c r="I922" s="14"/>
       <c r="J922" s="2"/>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A923" s="10"/>
       <c r="B923" s="6"/>
       <c r="C923" s="4"/>
@@ -19052,7 +19052,7 @@
       <c r="I923" s="14"/>
       <c r="J923" s="2"/>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A924" s="10"/>
       <c r="B924" s="6"/>
       <c r="C924" s="4"/>
@@ -19064,7 +19064,7 @@
       <c r="I924" s="14"/>
       <c r="J924" s="2"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A925" s="10"/>
       <c r="B925" s="6"/>
       <c r="C925" s="4"/>
@@ -19076,7 +19076,7 @@
       <c r="I925" s="14"/>
       <c r="J925" s="2"/>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A926" s="10"/>
       <c r="B926" s="6"/>
       <c r="C926" s="4"/>
@@ -19088,7 +19088,7 @@
       <c r="I926" s="14"/>
       <c r="J926" s="2"/>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A927" s="10"/>
       <c r="B927" s="6"/>
       <c r="C927" s="4"/>
@@ -19100,7 +19100,7 @@
       <c r="I927" s="14"/>
       <c r="J927" s="2"/>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A928" s="10"/>
       <c r="B928" s="6"/>
       <c r="C928" s="4"/>
@@ -19112,7 +19112,7 @@
       <c r="I928" s="14"/>
       <c r="J928" s="2"/>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A929" s="10"/>
       <c r="B929" s="6"/>
       <c r="C929" s="4"/>
@@ -19124,7 +19124,7 @@
       <c r="I929" s="14"/>
       <c r="J929" s="2"/>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A930" s="10"/>
       <c r="B930" s="6"/>
       <c r="C930" s="4"/>
@@ -19136,7 +19136,7 @@
       <c r="I930" s="14"/>
       <c r="J930" s="2"/>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A931" s="10"/>
       <c r="B931" s="6"/>
       <c r="C931" s="4"/>
@@ -19148,7 +19148,7 @@
       <c r="I931" s="14"/>
       <c r="J931" s="2"/>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A932" s="10"/>
       <c r="B932" s="6"/>
       <c r="C932" s="4"/>
@@ -19160,7 +19160,7 @@
       <c r="I932" s="14"/>
       <c r="J932" s="2"/>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A933" s="10"/>
       <c r="B933" s="6"/>
       <c r="C933" s="4"/>
@@ -19172,7 +19172,7 @@
       <c r="I933" s="14"/>
       <c r="J933" s="2"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A934" s="10"/>
       <c r="B934" s="6"/>
       <c r="C934" s="4"/>
@@ -19184,7 +19184,7 @@
       <c r="I934" s="14"/>
       <c r="J934" s="2"/>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A935" s="10"/>
       <c r="B935" s="6"/>
       <c r="C935" s="4"/>
@@ -19196,7 +19196,7 @@
       <c r="I935" s="14"/>
       <c r="J935" s="2"/>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A936" s="10"/>
       <c r="B936" s="6"/>
       <c r="C936" s="4"/>
@@ -19208,7 +19208,7 @@
       <c r="I936" s="14"/>
       <c r="J936" s="2"/>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A937" s="10"/>
       <c r="B937" s="6"/>
       <c r="C937" s="4"/>
@@ -19220,7 +19220,7 @@
       <c r="I937" s="14"/>
       <c r="J937" s="2"/>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A938" s="10"/>
       <c r="B938" s="6"/>
       <c r="C938" s="4"/>
@@ -19232,7 +19232,7 @@
       <c r="I938" s="14"/>
       <c r="J938" s="2"/>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A939" s="10"/>
       <c r="B939" s="6"/>
       <c r="C939" s="4"/>
@@ -19244,7 +19244,7 @@
       <c r="I939" s="14"/>
       <c r="J939" s="2"/>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A940" s="10"/>
       <c r="B940" s="6"/>
       <c r="C940" s="4"/>
@@ -19256,7 +19256,7 @@
       <c r="I940" s="14"/>
       <c r="J940" s="2"/>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A941" s="10"/>
       <c r="B941" s="6"/>
       <c r="C941" s="4"/>
@@ -19268,7 +19268,7 @@
       <c r="I941" s="14"/>
       <c r="J941" s="2"/>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A942" s="10"/>
       <c r="B942" s="6"/>
       <c r="C942" s="4"/>
@@ -19280,7 +19280,7 @@
       <c r="I942" s="14"/>
       <c r="J942" s="2"/>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A943" s="10"/>
       <c r="B943" s="6"/>
       <c r="C943" s="4"/>
@@ -19292,7 +19292,7 @@
       <c r="I943" s="14"/>
       <c r="J943" s="2"/>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A944" s="10"/>
       <c r="B944" s="6"/>
       <c r="C944" s="4"/>
@@ -19304,7 +19304,7 @@
       <c r="I944" s="14"/>
       <c r="J944" s="2"/>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A945" s="10"/>
       <c r="B945" s="6"/>
       <c r="C945" s="4"/>
@@ -19316,7 +19316,7 @@
       <c r="I945" s="14"/>
       <c r="J945" s="2"/>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A946" s="10"/>
       <c r="B946" s="6"/>
       <c r="C946" s="4"/>
@@ -19328,7 +19328,7 @@
       <c r="I946" s="14"/>
       <c r="J946" s="2"/>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A947" s="10"/>
       <c r="B947" s="6"/>
       <c r="C947" s="4"/>
@@ -19340,7 +19340,7 @@
       <c r="I947" s="14"/>
       <c r="J947" s="2"/>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A948" s="10"/>
       <c r="B948" s="6"/>
       <c r="C948" s="4"/>
@@ -19352,7 +19352,7 @@
       <c r="I948" s="14"/>
       <c r="J948" s="2"/>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A949" s="10"/>
       <c r="B949" s="6"/>
       <c r="C949" s="4"/>
@@ -19364,7 +19364,7 @@
       <c r="I949" s="14"/>
       <c r="J949" s="2"/>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A950" s="10"/>
       <c r="B950" s="6"/>
       <c r="C950" s="4"/>
@@ -19376,7 +19376,7 @@
       <c r="I950" s="14"/>
       <c r="J950" s="2"/>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A951" s="10"/>
       <c r="B951" s="6"/>
       <c r="C951" s="4"/>
@@ -19388,7 +19388,7 @@
       <c r="I951" s="14"/>
       <c r="J951" s="2"/>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A952" s="10"/>
       <c r="B952" s="6"/>
       <c r="C952" s="4"/>
@@ -19400,7 +19400,7 @@
       <c r="I952" s="14"/>
       <c r="J952" s="2"/>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A953" s="10"/>
       <c r="B953" s="6"/>
       <c r="C953" s="4"/>
@@ -19412,7 +19412,7 @@
       <c r="I953" s="14"/>
       <c r="J953" s="2"/>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A954" s="10"/>
       <c r="B954" s="6"/>
       <c r="C954" s="4"/>
@@ -19424,7 +19424,7 @@
       <c r="I954" s="14"/>
       <c r="J954" s="2"/>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A955" s="10"/>
       <c r="B955" s="6"/>
       <c r="C955" s="4"/>
@@ -19436,7 +19436,7 @@
       <c r="I955" s="14"/>
       <c r="J955" s="2"/>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A956" s="10"/>
       <c r="B956" s="6"/>
       <c r="C956" s="4"/>
@@ -19448,7 +19448,7 @@
       <c r="I956" s="14"/>
       <c r="J956" s="2"/>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A957" s="10"/>
       <c r="B957" s="6"/>
       <c r="C957" s="4"/>
@@ -19460,7 +19460,7 @@
       <c r="I957" s="14"/>
       <c r="J957" s="2"/>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A958" s="10"/>
       <c r="B958" s="6"/>
       <c r="C958" s="4"/>
@@ -19472,7 +19472,7 @@
       <c r="I958" s="14"/>
       <c r="J958" s="2"/>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A959" s="10"/>
       <c r="B959" s="6"/>
       <c r="C959" s="4"/>
@@ -19484,7 +19484,7 @@
       <c r="I959" s="14"/>
       <c r="J959" s="2"/>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A960" s="10"/>
       <c r="B960" s="6"/>
       <c r="C960" s="4"/>
@@ -19496,7 +19496,7 @@
       <c r="I960" s="14"/>
       <c r="J960" s="2"/>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A961" s="10"/>
       <c r="B961" s="6"/>
       <c r="C961" s="4"/>
@@ -19508,7 +19508,7 @@
       <c r="I961" s="14"/>
       <c r="J961" s="2"/>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A962" s="10"/>
       <c r="B962" s="6"/>
       <c r="C962" s="4"/>
@@ -19520,7 +19520,7 @@
       <c r="I962" s="14"/>
       <c r="J962" s="2"/>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A963" s="10"/>
       <c r="B963" s="6"/>
       <c r="C963" s="4"/>
@@ -19532,7 +19532,7 @@
       <c r="I963" s="14"/>
       <c r="J963" s="2"/>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A964" s="10"/>
       <c r="B964" s="6"/>
       <c r="C964" s="4"/>
@@ -19544,7 +19544,7 @@
       <c r="I964" s="14"/>
       <c r="J964" s="2"/>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A965" s="10"/>
       <c r="B965" s="6"/>
       <c r="C965" s="4"/>
@@ -19556,7 +19556,7 @@
       <c r="I965" s="14"/>
       <c r="J965" s="2"/>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A966" s="10"/>
       <c r="B966" s="6"/>
       <c r="C966" s="4"/>
@@ -19568,7 +19568,7 @@
       <c r="I966" s="14"/>
       <c r="J966" s="2"/>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A967" s="10"/>
       <c r="B967" s="6"/>
       <c r="C967" s="4"/>
@@ -19580,7 +19580,7 @@
       <c r="I967" s="14"/>
       <c r="J967" s="2"/>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A968" s="10"/>
       <c r="B968" s="6"/>
       <c r="C968" s="4"/>
@@ -19592,7 +19592,7 @@
       <c r="I968" s="14"/>
       <c r="J968" s="2"/>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A969" s="10"/>
       <c r="B969" s="6"/>
       <c r="C969" s="4"/>
@@ -19604,7 +19604,7 @@
       <c r="I969" s="14"/>
       <c r="J969" s="2"/>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A970" s="10"/>
       <c r="B970" s="6"/>
       <c r="C970" s="4"/>
@@ -19616,7 +19616,7 @@
       <c r="I970" s="14"/>
       <c r="J970" s="2"/>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A971" s="10"/>
       <c r="B971" s="6"/>
       <c r="C971" s="4"/>
@@ -19628,7 +19628,7 @@
       <c r="I971" s="14"/>
       <c r="J971" s="2"/>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A972" s="10"/>
       <c r="B972" s="6"/>
       <c r="C972" s="4"/>
@@ -19640,7 +19640,7 @@
       <c r="I972" s="14"/>
       <c r="J972" s="2"/>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A973" s="10"/>
       <c r="B973" s="6"/>
       <c r="C973" s="4"/>
@@ -19652,7 +19652,7 @@
       <c r="I973" s="14"/>
       <c r="J973" s="2"/>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A974" s="10"/>
       <c r="B974" s="6"/>
       <c r="C974" s="4"/>
@@ -19664,7 +19664,7 @@
       <c r="I974" s="14"/>
       <c r="J974" s="2"/>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A975" s="10"/>
       <c r="B975" s="6"/>
       <c r="C975" s="4"/>
@@ -19676,7 +19676,7 @@
       <c r="I975" s="14"/>
       <c r="J975" s="2"/>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A976" s="10"/>
       <c r="B976" s="6"/>
       <c r="C976" s="4"/>
@@ -19688,7 +19688,7 @@
       <c r="I976" s="14"/>
       <c r="J976" s="2"/>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A977" s="10"/>
       <c r="B977" s="6"/>
       <c r="C977" s="4"/>
@@ -19700,7 +19700,7 @@
       <c r="I977" s="14"/>
       <c r="J977" s="2"/>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A978" s="10"/>
       <c r="B978" s="6"/>
       <c r="C978" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="I978" s="14"/>
       <c r="J978" s="2"/>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A979" s="10"/>
       <c r="B979" s="6"/>
       <c r="C979" s="4"/>
@@ -19724,7 +19724,7 @@
       <c r="I979" s="14"/>
       <c r="J979" s="2"/>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A980" s="10"/>
       <c r="B980" s="6"/>
       <c r="C980" s="4"/>
@@ -19736,7 +19736,7 @@
       <c r="I980" s="14"/>
       <c r="J980" s="2"/>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A981" s="10"/>
       <c r="B981" s="6"/>
       <c r="C981" s="4"/>
@@ -19748,7 +19748,7 @@
       <c r="I981" s="14"/>
       <c r="J981" s="2"/>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A982" s="10"/>
       <c r="B982" s="6"/>
       <c r="C982" s="4"/>
@@ -19760,7 +19760,7 @@
       <c r="I982" s="14"/>
       <c r="J982" s="2"/>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A983" s="10"/>
       <c r="B983" s="6"/>
       <c r="C983" s="4"/>
@@ -19772,7 +19772,7 @@
       <c r="I983" s="14"/>
       <c r="J983" s="2"/>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A984" s="10"/>
       <c r="B984" s="6"/>
       <c r="C984" s="4"/>
@@ -19784,7 +19784,7 @@
       <c r="I984" s="14"/>
       <c r="J984" s="2"/>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A985" s="10"/>
       <c r="B985" s="6"/>
       <c r="C985" s="4"/>
@@ -19796,7 +19796,7 @@
       <c r="I985" s="14"/>
       <c r="J985" s="2"/>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A986" s="10"/>
       <c r="B986" s="6"/>
       <c r="C986" s="4"/>
@@ -19808,7 +19808,7 @@
       <c r="I986" s="14"/>
       <c r="J986" s="2"/>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A987" s="10"/>
       <c r="B987" s="6"/>
       <c r="C987" s="4"/>
@@ -19820,7 +19820,7 @@
       <c r="I987" s="14"/>
       <c r="J987" s="2"/>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A988" s="10"/>
       <c r="B988" s="6"/>
       <c r="C988" s="4"/>
@@ -19832,7 +19832,7 @@
       <c r="I988" s="14"/>
       <c r="J988" s="2"/>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A989" s="10"/>
       <c r="B989" s="6"/>
       <c r="C989" s="4"/>
@@ -19844,7 +19844,7 @@
       <c r="I989" s="14"/>
       <c r="J989" s="2"/>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A990" s="10"/>
       <c r="B990" s="6"/>
       <c r="C990" s="4"/>
@@ -19856,7 +19856,7 @@
       <c r="I990" s="14"/>
       <c r="J990" s="2"/>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A991" s="10"/>
       <c r="B991" s="6"/>
       <c r="C991" s="4"/>
@@ -19868,7 +19868,7 @@
       <c r="I991" s="14"/>
       <c r="J991" s="2"/>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A992" s="10"/>
       <c r="B992" s="6"/>
       <c r="C992" s="4"/>
@@ -19880,7 +19880,7 @@
       <c r="I992" s="14"/>
       <c r="J992" s="2"/>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A993" s="10"/>
       <c r="B993" s="6"/>
       <c r="C993" s="4"/>
@@ -19892,7 +19892,7 @@
       <c r="I993" s="14"/>
       <c r="J993" s="2"/>
     </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A994" s="10"/>
       <c r="B994" s="6"/>
       <c r="C994" s="4"/>
@@ -19904,7 +19904,7 @@
       <c r="I994" s="14"/>
       <c r="J994" s="2"/>
     </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A995" s="10"/>
       <c r="B995" s="6"/>
       <c r="C995" s="4"/>
@@ -19916,7 +19916,7 @@
       <c r="I995" s="14"/>
       <c r="J995" s="2"/>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A996" s="10"/>
       <c r="B996" s="6"/>
       <c r="C996" s="4"/>
@@ -19928,7 +19928,7 @@
       <c r="I996" s="14"/>
       <c r="J996" s="2"/>
     </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A997" s="10"/>
       <c r="B997" s="6"/>
       <c r="C997" s="4"/>
@@ -19940,7 +19940,7 @@
       <c r="I997" s="14"/>
       <c r="J997" s="2"/>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A998" s="10"/>
       <c r="B998" s="6"/>
       <c r="C998" s="4"/>
@@ -19952,7 +19952,7 @@
       <c r="I998" s="14"/>
       <c r="J998" s="2"/>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A999" s="10"/>
       <c r="B999" s="6"/>
       <c r="C999" s="4"/>
@@ -19964,7 +19964,7 @@
       <c r="I999" s="14"/>
       <c r="J999" s="2"/>
     </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1000" s="10"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="4"/>
@@ -19976,7 +19976,7 @@
       <c r="I1000" s="14"/>
       <c r="J1000" s="2"/>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1001" s="10"/>
       <c r="B1001" s="6"/>
       <c r="C1001" s="4"/>
@@ -19988,7 +19988,7 @@
       <c r="I1001" s="14"/>
       <c r="J1001" s="2"/>
     </row>
-    <row r="1002" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1002" s="10"/>
       <c r="B1002" s="6"/>
       <c r="C1002" s="4"/>
@@ -20000,7 +20000,7 @@
       <c r="I1002" s="14"/>
       <c r="J1002" s="2"/>
     </row>
-    <row r="1003" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1003" s="10"/>
       <c r="B1003" s="6"/>
       <c r="C1003" s="4"/>
@@ -20012,7 +20012,7 @@
       <c r="I1003" s="14"/>
       <c r="J1003" s="2"/>
     </row>
-    <row r="1004" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1004" s="10"/>
       <c r="B1004" s="6"/>
       <c r="C1004" s="4"/>
@@ -20024,7 +20024,7 @@
       <c r="I1004" s="14"/>
       <c r="J1004" s="2"/>
     </row>
-    <row r="1005" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1005" s="10"/>
       <c r="B1005" s="6"/>
       <c r="C1005" s="4"/>
@@ -20036,7 +20036,7 @@
       <c r="I1005" s="14"/>
       <c r="J1005" s="2"/>
     </row>
-    <row r="1006" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1006" s="10"/>
       <c r="B1006" s="6"/>
       <c r="C1006" s="4"/>
@@ -20048,7 +20048,7 @@
       <c r="I1006" s="14"/>
       <c r="J1006" s="2"/>
     </row>
-    <row r="1007" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1007" s="10"/>
       <c r="B1007" s="6"/>
       <c r="C1007" s="4"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="1088">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3280,6 +3280,9 @@
   </si>
   <si>
     <t>Roche, Roche, Novartis, Novartis, Roche</t>
+  </si>
+  <si>
+    <t>https://streamingmedia.roche.com/media/t/1_u19b7s0j</t>
   </si>
 </sst>
 </file>
@@ -3744,8 +3747,8 @@
   <dimension ref="A1:K1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,7 +3977,9 @@
       <c r="B8" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>1087</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="1">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1111">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3328,6 +3328,30 @@
   </si>
   <si>
     <t>Lei Nie</t>
+  </si>
+  <si>
+    <t>1_BretzAchaka.pdf</t>
+  </si>
+  <si>
+    <t>2_Zhong.pdf</t>
+  </si>
+  <si>
+    <t>3_Bartlett.pdf</t>
+  </si>
+  <si>
+    <t>4_Lasch.pdf</t>
+  </si>
+  <si>
+    <t>5_White.pdf</t>
+  </si>
+  <si>
+    <t>6_vanLancker.pdf</t>
+  </si>
+  <si>
+    <t>https://streamingmedia.roche.com/media/t/1_y45grhzp</t>
+  </si>
+  <si>
+    <t>https://streamingmedia.roche.com/media/t/1_qnzqeq5b</t>
   </si>
 </sst>
 </file>
@@ -3794,9 +3818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,8 +3882,12 @@
       <c r="B2" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1110</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1">
         <v>1</v>
@@ -3873,7 +3901,9 @@
       <c r="I2" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="12" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
@@ -3898,7 +3928,9 @@
       <c r="I3" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="12" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
@@ -3923,7 +3955,9 @@
       <c r="I4" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="12" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
@@ -3948,7 +3982,9 @@
       <c r="I5" s="14" t="s">
         <v>1096</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="12" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
@@ -3973,7 +4009,9 @@
       <c r="I6" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="12" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
@@ -3998,7 +4036,9 @@
       <c r="I7" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="12" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1134">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3360,52 +3360,67 @@
     <t>https://streamingmedia.roche.com/media/t/1_xg0j74n0</t>
   </si>
   <si>
-    <t>Massoud Toussi</t>
-  </si>
-  <si>
     <t>IQVIA</t>
   </si>
   <si>
     <t>What is data quality, and how data types differ in terms of data quality</t>
   </si>
   <si>
-    <t>Nicole Mahoney</t>
-  </si>
-  <si>
     <t>RWD for regulatory decisions</t>
   </si>
   <si>
-    <t>Clair Blacketer</t>
-  </si>
-  <si>
     <t>EHDEN: Data Quality Dashboard</t>
   </si>
   <si>
-    <t>Daniel Morales</t>
-  </si>
-  <si>
     <t>EU Data quality framework</t>
   </si>
   <si>
-    <t>Dalia Dawoud</t>
-  </si>
-  <si>
     <t>COPD case study - The Use of the OMOP Common Data Model in Health Technology Assessment</t>
   </si>
   <si>
-    <t>Spencer James</t>
-  </si>
-  <si>
     <t>Roche/Genentech</t>
   </si>
   <si>
     <t>Data quality in Flatiron</t>
   </si>
   <si>
-    <t>Gracy Crane</t>
-  </si>
-  <si>
     <t>Transcelerate - How to bridge from framework to fitness for purpose demonstration?</t>
+  </si>
+  <si>
+    <t>Massoud Toussi (starts at 5:38)</t>
+  </si>
+  <si>
+    <t>Nicole Mahoney (25:35)</t>
+  </si>
+  <si>
+    <t>Clair Blacketer (39:48)</t>
+  </si>
+  <si>
+    <t>Daniel Morales (59:40)</t>
+  </si>
+  <si>
+    <t>Dalia Dawoud (1:18:43)</t>
+  </si>
+  <si>
+    <t>Spencer James (1:41:34)</t>
+  </si>
+  <si>
+    <t>Gracy Crane (NB this talk in the panel discussion section was not recorded, but the slides are attached)</t>
+  </si>
+  <si>
+    <t>1_Toussi.pdf</t>
+  </si>
+  <si>
+    <t>2_Mahoney.pdf</t>
+  </si>
+  <si>
+    <t>3_Blacketer.pdf</t>
+  </si>
+  <si>
+    <t>5_Dawoud.pdf</t>
+  </si>
+  <si>
+    <t>7_Crane</t>
   </si>
 </sst>
 </file>
@@ -3876,9 +3891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3934,7 +3949,7 @@
     </row>
     <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" ref="A2:A8" si="0">"15.03.2023"</f>
         <v>15.03.2023</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3949,19 +3964,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>1113</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>1114</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" si="0"/>
         <v>15.03.2023</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3974,19 +3991,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>897</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>1115</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" si="0"/>
         <v>15.03.2023</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3999,19 +4018,21 @@
         <v>3</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>1116</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" si="0"/>
         <v>15.03.2023</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4024,19 +4045,19 @@
         <v>4</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" si="0"/>
         <v>15.03.2023</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4049,19 +4070,21 @@
         <v>5</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>956</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>1123</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>1118</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" si="0"/>
         <v>15.03.2023</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4074,19 +4097,19 @@
         <v>6</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
-        <f>"15.03.2023"</f>
+        <f t="shared" si="0"/>
         <v>15.03.2023</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4099,15 +4122,17 @@
         <v>7</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>1032</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>1121</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="str">
@@ -4142,7 +4167,7 @@
     </row>
     <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="str">
-        <f t="shared" ref="A10:A15" si="0">"15.12.2022"</f>
+        <f t="shared" ref="A10:A15" si="1">"15.12.2022"</f>
         <v>15.12.2022</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4169,7 +4194,7 @@
     </row>
     <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.12.2022</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -4196,7 +4221,7 @@
     </row>
     <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.12.2022</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4223,7 +4248,7 @@
     </row>
     <row r="13" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.12.2022</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4250,7 +4275,7 @@
     </row>
     <row r="14" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.12.2022</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4277,7 +4302,7 @@
     </row>
     <row r="15" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.12.2022</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4302,7 +4327,7 @@
     </row>
     <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="str">
-        <f t="shared" ref="A16:A21" si="1">"08.12.2022"</f>
+        <f t="shared" ref="A16:A21" si="2">"08.12.2022"</f>
         <v>08.12.2022</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4333,7 +4358,7 @@
     </row>
     <row r="17" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>08.12.2022</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4360,7 +4385,7 @@
     </row>
     <row r="18" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>08.12.2022</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4387,7 +4412,7 @@
     </row>
     <row r="19" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>08.12.2022</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4415,7 +4440,7 @@
     </row>
     <row r="20" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>08.12.2022</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4442,7 +4467,7 @@
     </row>
     <row r="21" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>08.12.2022</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4521,7 +4546,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="str">
-        <f t="shared" ref="A24:A26" si="2">"30.11.2022"</f>
+        <f t="shared" ref="A24:A26" si="3">"30.11.2022"</f>
         <v>30.11.2022</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4546,7 +4571,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.11.2022</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4571,7 +4596,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.11.2022</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4596,7 +4621,7 @@
     </row>
     <row r="27" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="str">
-        <f t="shared" ref="A27:A32" si="3">"15.07.2022"</f>
+        <f t="shared" ref="A27:A32" si="4">"15.07.2022"</f>
         <v>15.07.2022</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -4625,7 +4650,7 @@
     </row>
     <row r="28" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.07.2022</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -4652,7 +4677,7 @@
     </row>
     <row r="29" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.07.2022</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -4679,7 +4704,7 @@
     </row>
     <row r="30" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.07.2022</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -4706,7 +4731,7 @@
     </row>
     <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.07.2022</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -4733,7 +4758,7 @@
     </row>
     <row r="32" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.07.2022</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -4783,7 +4808,7 @@
     </row>
     <row r="34" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="str">
-        <f t="shared" ref="A34:A40" si="4">"23.06.2022"</f>
+        <f t="shared" ref="A34:A40" si="5">"23.06.2022"</f>
         <v>23.06.2022</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4808,7 +4833,7 @@
     </row>
     <row r="35" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.06.2022</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4835,7 +4860,7 @@
     </row>
     <row r="36" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.06.2022</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4862,7 +4887,7 @@
     </row>
     <row r="37" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.06.2022</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4889,7 +4914,7 @@
     </row>
     <row r="38" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.06.2022</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4916,7 +4941,7 @@
     </row>
     <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.06.2022</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4943,7 +4968,7 @@
     </row>
     <row r="40" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.06.2022</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5103,7 +5128,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="str">
-        <f t="shared" ref="A46:A48" si="5">"21.02.2022"</f>
+        <f t="shared" ref="A46:A48" si="6">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B46" s="3"/>
@@ -5128,7 +5153,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.02.2022</v>
       </c>
       <c r="B47" s="3"/>
@@ -5153,7 +5178,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.02.2022</v>
       </c>
       <c r="B48" s="3"/>
@@ -5205,7 +5230,7 @@
     </row>
     <row r="50" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="str">
-        <f t="shared" ref="A50:A53" si="6">"27.07.2021"</f>
+        <f t="shared" ref="A50:A53" si="7">"27.07.2021"</f>
         <v>27.07.2021</v>
       </c>
       <c r="B50" s="13"/>
@@ -5230,7 +5255,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.07.2021</v>
       </c>
       <c r="B51" s="13"/>
@@ -5255,7 +5280,7 @@
     </row>
     <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.07.2021</v>
       </c>
       <c r="B52" s="13"/>
@@ -5280,7 +5305,7 @@
     </row>
     <row r="53" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.07.2021</v>
       </c>
       <c r="B53" s="13"/>
@@ -5334,7 +5359,7 @@
     </row>
     <row r="55" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="str">
-        <f t="shared" ref="A55:A61" si="7">"28.06.2021"</f>
+        <f t="shared" ref="A55:A61" si="8">"28.06.2021"</f>
         <v>28.06.2021</v>
       </c>
       <c r="B55" s="13"/>
@@ -5359,7 +5384,7 @@
     </row>
     <row r="56" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.06.2021</v>
       </c>
       <c r="B56" s="13"/>
@@ -5384,7 +5409,7 @@
     </row>
     <row r="57" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.06.2021</v>
       </c>
       <c r="B57" s="13"/>
@@ -5409,7 +5434,7 @@
     </row>
     <row r="58" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.06.2021</v>
       </c>
       <c r="B58" s="13"/>
@@ -5434,7 +5459,7 @@
     </row>
     <row r="59" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.06.2021</v>
       </c>
       <c r="B59" s="13"/>
@@ -5459,7 +5484,7 @@
     </row>
     <row r="60" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.06.2021</v>
       </c>
       <c r="B60" s="13"/>
@@ -5484,7 +5509,7 @@
     </row>
     <row r="61" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.06.2021</v>
       </c>
       <c r="B61" s="13"/>
@@ -5538,7 +5563,7 @@
     </row>
     <row r="63" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="str">
-        <f t="shared" ref="A63:A65" si="8">"16.06.2021"</f>
+        <f t="shared" ref="A63:A65" si="9">"16.06.2021"</f>
         <v>16.06.2021</v>
       </c>
       <c r="B63" s="13"/>
@@ -5563,7 +5588,7 @@
     </row>
     <row r="64" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.06.2021</v>
       </c>
       <c r="B64" s="13"/>
@@ -5588,7 +5613,7 @@
     </row>
     <row r="65" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.06.2021</v>
       </c>
       <c r="B65" s="13"/>
@@ -5642,7 +5667,7 @@
     </row>
     <row r="67" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="str">
-        <f t="shared" ref="A67:A75" si="9">"22.03.2021"</f>
+        <f t="shared" ref="A67:A75" si="10">"22.03.2021"</f>
         <v>22.03.2021</v>
       </c>
       <c r="B67" s="13"/>
@@ -5667,7 +5692,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B68" s="13"/>
@@ -5692,7 +5717,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B69" s="13"/>
@@ -5717,7 +5742,7 @@
     </row>
     <row r="70" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B70" s="13"/>
@@ -5742,7 +5767,7 @@
     </row>
     <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B71" s="13"/>
@@ -5767,7 +5792,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B72" s="13"/>
@@ -5792,7 +5817,7 @@
     </row>
     <row r="73" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B73" s="13"/>
@@ -5817,7 +5842,7 @@
     </row>
     <row r="74" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B74" s="13"/>
@@ -5842,7 +5867,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.03.2021</v>
       </c>
       <c r="B75" s="13"/>
@@ -5894,7 +5919,7 @@
     </row>
     <row r="77" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="str">
-        <f t="shared" ref="A77:A82" si="10">"08.03.2021"</f>
+        <f t="shared" ref="A77:A82" si="11">"08.03.2021"</f>
         <v>08.03.2021</v>
       </c>
       <c r="B77" s="13"/>
@@ -5919,7 +5944,7 @@
     </row>
     <row r="78" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>08.03.2021</v>
       </c>
       <c r="B78" s="13"/>
@@ -5944,7 +5969,7 @@
     </row>
     <row r="79" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>08.03.2021</v>
       </c>
       <c r="B79" s="13"/>
@@ -5969,7 +5994,7 @@
     </row>
     <row r="80" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>08.03.2021</v>
       </c>
       <c r="B80" s="13"/>
@@ -5994,7 +6019,7 @@
     </row>
     <row r="81" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>08.03.2021</v>
       </c>
       <c r="B81" s="13"/>
@@ -6019,7 +6044,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>08.03.2021</v>
       </c>
       <c r="B82" s="13"/>
@@ -6071,7 +6096,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="str">
-        <f t="shared" ref="A84:A90" si="11">"03.11.2020"</f>
+        <f t="shared" ref="A84:A90" si="12">"03.11.2020"</f>
         <v>03.11.2020</v>
       </c>
       <c r="B84" s="13"/>
@@ -6096,7 +6121,7 @@
     </row>
     <row r="85" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.11.2020</v>
       </c>
       <c r="B85" s="13"/>
@@ -6121,7 +6146,7 @@
     </row>
     <row r="86" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.11.2020</v>
       </c>
       <c r="B86" s="13"/>
@@ -6146,7 +6171,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.11.2020</v>
       </c>
       <c r="B87" s="13"/>
@@ -6171,7 +6196,7 @@
     </row>
     <row r="88" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.11.2020</v>
       </c>
       <c r="B88" s="13"/>
@@ -6196,7 +6221,7 @@
     </row>
     <row r="89" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.11.2020</v>
       </c>
       <c r="B89" s="13"/>
@@ -6221,7 +6246,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>03.11.2020</v>
       </c>
       <c r="B90" s="13"/>
@@ -6275,7 +6300,7 @@
     </row>
     <row r="92" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="str">
-        <f t="shared" ref="A92:A100" si="12">"07.09.2020"</f>
+        <f t="shared" ref="A92:A100" si="13">"07.09.2020"</f>
         <v>07.09.2020</v>
       </c>
       <c r="B92" s="13"/>
@@ -6300,7 +6325,7 @@
     </row>
     <row r="93" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B93" s="13"/>
@@ -6325,7 +6350,7 @@
     </row>
     <row r="94" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B94" s="13"/>
@@ -6350,7 +6375,7 @@
     </row>
     <row r="95" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B95" s="13"/>
@@ -6375,7 +6400,7 @@
     </row>
     <row r="96" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B96" s="13"/>
@@ -6400,7 +6425,7 @@
     </row>
     <row r="97" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B97" s="13"/>
@@ -6425,7 +6450,7 @@
     </row>
     <row r="98" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B98" s="13"/>
@@ -6450,7 +6475,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B99" s="13"/>
@@ -6475,7 +6500,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07.09.2020</v>
       </c>
       <c r="B100" s="13"/>
@@ -6527,7 +6552,7 @@
     </row>
     <row r="102" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="str">
-        <f t="shared" ref="A102:A105" si="13">"30.06.2020"</f>
+        <f t="shared" ref="A102:A105" si="14">"30.06.2020"</f>
         <v>30.06.2020</v>
       </c>
       <c r="B102" s="13"/>
@@ -6552,7 +6577,7 @@
     </row>
     <row r="103" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.06.2020</v>
       </c>
       <c r="B103" s="13"/>
@@ -6577,7 +6602,7 @@
     </row>
     <row r="104" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.06.2020</v>
       </c>
       <c r="B104" s="13"/>
@@ -6602,7 +6627,7 @@
     </row>
     <row r="105" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.06.2020</v>
       </c>
       <c r="B105" s="13"/>
@@ -6656,7 +6681,7 @@
     </row>
     <row r="107" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="str">
-        <f t="shared" ref="A107:A112" si="14">"29.06.2020"</f>
+        <f t="shared" ref="A107:A112" si="15">"29.06.2020"</f>
         <v>29.06.2020</v>
       </c>
       <c r="B107" s="13"/>
@@ -6681,7 +6706,7 @@
     </row>
     <row r="108" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.06.2020</v>
       </c>
       <c r="B108" s="13"/>
@@ -6706,7 +6731,7 @@
     </row>
     <row r="109" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.06.2020</v>
       </c>
       <c r="B109" s="13"/>
@@ -6731,7 +6756,7 @@
     </row>
     <row r="110" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.06.2020</v>
       </c>
       <c r="B110" s="13"/>
@@ -6756,7 +6781,7 @@
     </row>
     <row r="111" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.06.2020</v>
       </c>
       <c r="B111" s="13"/>
@@ -6781,7 +6806,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.06.2020</v>
       </c>
       <c r="B112" s="13"/>
@@ -6831,7 +6856,7 @@
     </row>
     <row r="114" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="str">
-        <f t="shared" ref="A114:A116" si="15">"03.06.2020"</f>
+        <f t="shared" ref="A114:A116" si="16">"03.06.2020"</f>
         <v>03.06.2020</v>
       </c>
       <c r="B114" s="13"/>
@@ -6856,7 +6881,7 @@
     </row>
     <row r="115" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>03.06.2020</v>
       </c>
       <c r="B115" s="13"/>
@@ -6881,7 +6906,7 @@
     </row>
     <row r="116" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>03.06.2020</v>
       </c>
       <c r="B116" s="13"/>
@@ -6933,7 +6958,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="str">
-        <f t="shared" ref="A118:A122" si="16">"06.05.2020"</f>
+        <f t="shared" ref="A118:A122" si="17">"06.05.2020"</f>
         <v>06.05.2020</v>
       </c>
       <c r="B118" s="13"/>
@@ -6958,7 +6983,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>06.05.2020</v>
       </c>
       <c r="B119" s="13"/>
@@ -6983,7 +7008,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>06.05.2020</v>
       </c>
       <c r="B120" s="13"/>
@@ -7008,7 +7033,7 @@
     </row>
     <row r="121" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>06.05.2020</v>
       </c>
       <c r="B121" s="13"/>
@@ -7033,7 +7058,7 @@
     </row>
     <row r="122" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>06.05.2020</v>
       </c>
       <c r="B122" s="13"/>
@@ -7083,7 +7108,7 @@
     </row>
     <row r="124" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="str">
-        <f t="shared" ref="A124:A128" si="17">"04.02.2020"</f>
+        <f t="shared" ref="A124:A128" si="18">"04.02.2020"</f>
         <v>04.02.2020</v>
       </c>
       <c r="B124" s="13"/>
@@ -7106,7 +7131,7 @@
     </row>
     <row r="125" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.02.2020</v>
       </c>
       <c r="B125" s="13"/>
@@ -7129,7 +7154,7 @@
     </row>
     <row r="126" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.02.2020</v>
       </c>
       <c r="B126" s="13"/>
@@ -7152,7 +7177,7 @@
     </row>
     <row r="127" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.02.2020</v>
       </c>
       <c r="B127" s="13"/>
@@ -7173,7 +7198,7 @@
     </row>
     <row r="128" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>04.02.2020</v>
       </c>
       <c r="B128" s="13"/>
@@ -7221,7 +7246,7 @@
     </row>
     <row r="130" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="str">
-        <f t="shared" ref="A130:A137" si="18">"01.11.2019"</f>
+        <f t="shared" ref="A130:A137" si="19">"01.11.2019"</f>
         <v>01.11.2019</v>
       </c>
       <c r="B130" s="13"/>
@@ -7244,7 +7269,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B131" s="13"/>
@@ -7267,7 +7292,7 @@
     </row>
     <row r="132" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B132" s="13"/>
@@ -7290,7 +7315,7 @@
     </row>
     <row r="133" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B133" s="13"/>
@@ -7313,7 +7338,7 @@
     </row>
     <row r="134" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B134" s="13"/>
@@ -7333,7 +7358,7 @@
     </row>
     <row r="135" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B135" s="13"/>
@@ -7356,7 +7381,7 @@
     </row>
     <row r="136" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B136" s="13"/>
@@ -7379,7 +7404,7 @@
     </row>
     <row r="137" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>01.11.2019</v>
       </c>
       <c r="B137" s="13"/>
@@ -7426,7 +7451,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="str">
-        <f t="shared" ref="A139:A144" si="19">"21.08.2019"</f>
+        <f t="shared" ref="A139:A144" si="20">"21.08.2019"</f>
         <v>21.08.2019</v>
       </c>
       <c r="B139" s="13"/>
@@ -7448,7 +7473,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.08.2019</v>
       </c>
       <c r="B140" s="13"/>
@@ -7467,7 +7492,7 @@
     </row>
     <row r="141" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.08.2019</v>
       </c>
       <c r="B141" s="13"/>
@@ -7487,7 +7512,7 @@
     </row>
     <row r="142" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.08.2019</v>
       </c>
       <c r="B142" s="13"/>
@@ -7507,7 +7532,7 @@
     </row>
     <row r="143" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.08.2019</v>
       </c>
       <c r="B143" s="13"/>
@@ -7527,7 +7552,7 @@
     </row>
     <row r="144" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.08.2019</v>
       </c>
       <c r="B144" s="13"/>
@@ -7570,7 +7595,7 @@
     </row>
     <row r="146" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="str">
-        <f t="shared" ref="A146:A152" si="20">"04.06.2019"</f>
+        <f t="shared" ref="A146:A152" si="21">"04.06.2019"</f>
         <v>04.06.2019</v>
       </c>
       <c r="B146" s="13"/>
@@ -7592,7 +7617,7 @@
     </row>
     <row r="147" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>04.06.2019</v>
       </c>
       <c r="B147" s="13"/>
@@ -7614,7 +7639,7 @@
     </row>
     <row r="148" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>04.06.2019</v>
       </c>
       <c r="B148" s="13"/>
@@ -7636,7 +7661,7 @@
     </row>
     <row r="149" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>04.06.2019</v>
       </c>
       <c r="B149" s="13"/>
@@ -7658,7 +7683,7 @@
     </row>
     <row r="150" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>04.06.2019</v>
       </c>
       <c r="B150" s="13"/>
@@ -7680,7 +7705,7 @@
     </row>
     <row r="151" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>04.06.2019</v>
       </c>
       <c r="B151" s="13"/>
@@ -7702,7 +7727,7 @@
     </row>
     <row r="152" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>04.06.2019</v>
       </c>
       <c r="B152" s="13"/>
@@ -7748,7 +7773,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="str">
-        <f t="shared" ref="A154:A164" si="21">"10.05.2019"</f>
+        <f t="shared" ref="A154:A164" si="22">"10.05.2019"</f>
         <v>10.05.2019</v>
       </c>
       <c r="B154" s="13"/>
@@ -7770,7 +7795,7 @@
     </row>
     <row r="155" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B155" s="13"/>
@@ -7792,7 +7817,7 @@
     </row>
     <row r="156" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B156" s="13"/>
@@ -7814,7 +7839,7 @@
     </row>
     <row r="157" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B157" s="13"/>
@@ -7836,7 +7861,7 @@
     </row>
     <row r="158" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B158" s="13"/>
@@ -7858,7 +7883,7 @@
     </row>
     <row r="159" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B159" s="13"/>
@@ -7880,7 +7905,7 @@
     </row>
     <row r="160" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B160" s="13"/>
@@ -7902,7 +7927,7 @@
     </row>
     <row r="161" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B161" s="13"/>
@@ -7924,7 +7949,7 @@
     </row>
     <row r="162" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B162" s="13"/>
@@ -7946,7 +7971,7 @@
     </row>
     <row r="163" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B163" s="13"/>
@@ -7965,7 +7990,7 @@
     </row>
     <row r="164" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.05.2019</v>
       </c>
       <c r="B164" s="13"/>
@@ -8008,7 +8033,7 @@
     </row>
     <row r="166" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="str">
-        <f t="shared" ref="A166:A173" si="22">"27.06.2018"</f>
+        <f t="shared" ref="A166:A173" si="23">"27.06.2018"</f>
         <v>27.06.2018</v>
       </c>
       <c r="B166" s="13"/>
@@ -8030,7 +8055,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B167" s="13"/>
@@ -8052,7 +8077,7 @@
     </row>
     <row r="168" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B168" s="13"/>
@@ -8074,7 +8099,7 @@
     </row>
     <row r="169" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B169" s="13"/>
@@ -8096,7 +8121,7 @@
     </row>
     <row r="170" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B170" s="13"/>
@@ -8118,7 +8143,7 @@
     </row>
     <row r="171" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B171" s="13"/>
@@ -8140,7 +8165,7 @@
     </row>
     <row r="172" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B172" s="13"/>
@@ -8162,7 +8187,7 @@
     </row>
     <row r="173" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27.06.2018</v>
       </c>
       <c r="B173" s="13"/>
@@ -8208,7 +8233,7 @@
     </row>
     <row r="175" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="str">
-        <f t="shared" ref="A175:A176" si="23">"26.06.2018"</f>
+        <f t="shared" ref="A175:A176" si="24">"26.06.2018"</f>
         <v>26.06.2018</v>
       </c>
       <c r="B175" s="13"/>
@@ -8230,7 +8255,7 @@
     </row>
     <row r="176" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26.06.2018</v>
       </c>
       <c r="B176" s="13"/>
@@ -8276,7 +8301,7 @@
     </row>
     <row r="178" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="str">
-        <f t="shared" ref="A178:A181" si="24">"17.04.2018"</f>
+        <f t="shared" ref="A178:A181" si="25">"17.04.2018"</f>
         <v>17.04.2018</v>
       </c>
       <c r="B178" s="13"/>
@@ -8298,7 +8323,7 @@
     </row>
     <row r="179" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>17.04.2018</v>
       </c>
       <c r="B179" s="13"/>
@@ -8320,7 +8345,7 @@
     </row>
     <row r="180" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>17.04.2018</v>
       </c>
       <c r="B180" s="13"/>
@@ -8342,7 +8367,7 @@
     </row>
     <row r="181" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>17.04.2018</v>
       </c>
       <c r="B181" s="13"/>
@@ -8388,7 +8413,7 @@
     </row>
     <row r="183" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="str">
-        <f t="shared" ref="A183:A184" si="25">"20.03.2018"</f>
+        <f t="shared" ref="A183:A184" si="26">"20.03.2018"</f>
         <v>20.03.2018</v>
       </c>
       <c r="B183" s="13"/>
@@ -8410,7 +8435,7 @@
     </row>
     <row r="184" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20.03.2018</v>
       </c>
       <c r="B184" s="13"/>
@@ -8528,7 +8553,7 @@
     </row>
     <row r="189" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="str">
-        <f t="shared" ref="A189:A195" si="26">"11.09.2017"</f>
+        <f t="shared" ref="A189:A195" si="27">"11.09.2017"</f>
         <v>11.09.2017</v>
       </c>
       <c r="B189" s="13"/>
@@ -8551,7 +8576,7 @@
     </row>
     <row r="190" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.09.2017</v>
       </c>
       <c r="B190" s="13"/>
@@ -8574,7 +8599,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.09.2017</v>
       </c>
       <c r="B191" s="13"/>
@@ -8597,7 +8622,7 @@
     </row>
     <row r="192" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.09.2017</v>
       </c>
       <c r="B192" s="13"/>
@@ -8620,7 +8645,7 @@
     </row>
     <row r="193" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.09.2017</v>
       </c>
       <c r="B193" s="13"/>
@@ -8643,7 +8668,7 @@
     </row>
     <row r="194" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.09.2017</v>
       </c>
       <c r="B194" s="13"/>
@@ -8666,7 +8691,7 @@
     </row>
     <row r="195" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11.09.2017</v>
       </c>
       <c r="B195" s="13"/>
@@ -8714,7 +8739,7 @@
     </row>
     <row r="197" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="str">
-        <f t="shared" ref="A197:A198" si="27">"26.06.2017"</f>
+        <f t="shared" ref="A197:A198" si="28">"26.06.2017"</f>
         <v>26.06.2017</v>
       </c>
       <c r="B197" s="13"/>
@@ -8737,7 +8762,7 @@
     </row>
     <row r="198" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>26.06.2017</v>
       </c>
       <c r="B198" s="13"/>
@@ -8760,7 +8785,7 @@
     </row>
     <row r="199" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="str">
-        <f t="shared" ref="A199:A207" si="28">"15.06.2017"</f>
+        <f t="shared" ref="A199:A207" si="29">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
       <c r="B199" s="13" t="s">
@@ -8784,7 +8809,7 @@
     </row>
     <row r="200" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B200" s="13"/>
@@ -8806,7 +8831,7 @@
     </row>
     <row r="201" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B201" s="13"/>
@@ -8828,7 +8853,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B202" s="13"/>
@@ -8850,7 +8875,7 @@
     </row>
     <row r="203" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B203" s="13"/>
@@ -8872,7 +8897,7 @@
     </row>
     <row r="204" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B204" s="13"/>
@@ -8894,7 +8919,7 @@
     </row>
     <row r="205" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B205" s="13"/>
@@ -8916,7 +8941,7 @@
     </row>
     <row r="206" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B206" s="13"/>
@@ -8938,7 +8963,7 @@
     </row>
     <row r="207" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15.06.2017</v>
       </c>
       <c r="B207" s="13"/>
@@ -8984,7 +9009,7 @@
     </row>
     <row r="209" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="str">
-        <f t="shared" ref="A209:A213" si="29">"05.05.2017"</f>
+        <f t="shared" ref="A209:A213" si="30">"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
       <c r="B209" s="13"/>
@@ -9006,7 +9031,7 @@
     </row>
     <row r="210" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>05.05.2017</v>
       </c>
       <c r="B210" s="13"/>
@@ -9028,7 +9053,7 @@
     </row>
     <row r="211" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>05.05.2017</v>
       </c>
       <c r="B211" s="13"/>
@@ -9050,7 +9075,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>05.05.2017</v>
       </c>
       <c r="B212" s="13"/>
@@ -9072,7 +9097,7 @@
     </row>
     <row r="213" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>05.05.2017</v>
       </c>
       <c r="B213" s="13"/>
@@ -9168,7 +9193,7 @@
     </row>
     <row r="217" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="str">
-        <f t="shared" ref="A217:A220" si="30">"29.11.2016"</f>
+        <f t="shared" ref="A217:A220" si="31">"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
       <c r="B217" s="13"/>
@@ -9190,7 +9215,7 @@
     </row>
     <row r="218" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>29.11.2016</v>
       </c>
       <c r="B218" s="13"/>
@@ -9212,7 +9237,7 @@
     </row>
     <row r="219" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>29.11.2016</v>
       </c>
       <c r="B219" s="13"/>
@@ -9234,7 +9259,7 @@
     </row>
     <row r="220" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>29.11.2016</v>
       </c>
       <c r="B220" s="13"/>
@@ -9281,7 +9306,7 @@
     </row>
     <row r="222" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="str">
-        <f t="shared" ref="A222:A224" si="31">"14.11.2016"</f>
+        <f t="shared" ref="A222:A224" si="32">"14.11.2016"</f>
         <v>14.11.2016</v>
       </c>
       <c r="B222" s="13"/>
@@ -9304,7 +9329,7 @@
     </row>
     <row r="223" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14.11.2016</v>
       </c>
       <c r="B223" s="13"/>
@@ -9327,7 +9352,7 @@
     </row>
     <row r="224" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14.11.2016</v>
       </c>
       <c r="B224" s="13"/>
@@ -9375,7 +9400,7 @@
     </row>
     <row r="226" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="str">
-        <f t="shared" ref="A226:A227" si="32">"17.10.2016"</f>
+        <f t="shared" ref="A226:A227" si="33">"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
       <c r="B226" s="13"/>
@@ -9398,7 +9423,7 @@
     </row>
     <row r="227" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>17.10.2016</v>
       </c>
       <c r="B227" s="13"/>
@@ -9446,7 +9471,7 @@
     </row>
     <row r="229" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="str">
-        <f t="shared" ref="A229:A233" si="33">"14.09.2016"</f>
+        <f t="shared" ref="A229:A233" si="34">"14.09.2016"</f>
         <v>14.09.2016</v>
       </c>
       <c r="B229" s="13"/>
@@ -9469,7 +9494,7 @@
     </row>
     <row r="230" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14.09.2016</v>
       </c>
       <c r="B230" s="13"/>
@@ -9492,7 +9517,7 @@
     </row>
     <row r="231" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14.09.2016</v>
       </c>
       <c r="B231" s="13"/>
@@ -9515,7 +9540,7 @@
     </row>
     <row r="232" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14.09.2016</v>
       </c>
       <c r="B232" s="13"/>
@@ -9538,7 +9563,7 @@
     </row>
     <row r="233" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14.09.2016</v>
       </c>
       <c r="B233" s="13"/>
@@ -9673,7 +9698,7 @@
     </row>
     <row r="239" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="str">
-        <f t="shared" ref="A239:A247" si="34">"28.04.2016"</f>
+        <f t="shared" ref="A239:A247" si="35">"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
       <c r="B239" s="13"/>
@@ -9696,7 +9721,7 @@
     </row>
     <row r="240" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B240" s="13"/>
@@ -9716,7 +9741,7 @@
     </row>
     <row r="241" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B241" s="13"/>
@@ -9739,7 +9764,7 @@
     </row>
     <row r="242" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B242" s="13"/>
@@ -9762,7 +9787,7 @@
     </row>
     <row r="243" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B243" s="13"/>
@@ -9785,7 +9810,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B244" s="13"/>
@@ -9808,7 +9833,7 @@
     </row>
     <row r="245" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B245" s="13"/>
@@ -9829,7 +9854,7 @@
     </row>
     <row r="246" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B246" s="13"/>
@@ -9852,7 +9877,7 @@
     </row>
     <row r="247" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>28.04.2016</v>
       </c>
       <c r="B247" s="13"/>
@@ -9898,7 +9923,7 @@
     </row>
     <row r="249" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="str">
-        <f t="shared" ref="A249:A253" si="35">"13.01.2016"</f>
+        <f t="shared" ref="A249:A253" si="36">"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
       <c r="B249" s="13"/>
@@ -9921,7 +9946,7 @@
     </row>
     <row r="250" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13.01.2016</v>
       </c>
       <c r="B250" s="13"/>
@@ -9944,7 +9969,7 @@
     </row>
     <row r="251" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A251" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13.01.2016</v>
       </c>
       <c r="B251" s="13"/>
@@ -9967,7 +9992,7 @@
     </row>
     <row r="252" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13.01.2016</v>
       </c>
       <c r="B252" s="13"/>
@@ -9988,7 +10013,7 @@
     </row>
     <row r="253" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13.01.2016</v>
       </c>
       <c r="B253" s="13"/>
@@ -10082,7 +10107,7 @@
     </row>
     <row r="257" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="str">
-        <f t="shared" ref="A257:A266" si="36">"23.06.2015"</f>
+        <f t="shared" ref="A257:A266" si="37">"23.06.2015"</f>
         <v>23.06.2015</v>
       </c>
       <c r="B257" s="13"/>
@@ -10103,7 +10128,7 @@
     </row>
     <row r="258" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B258" s="13"/>
@@ -10126,7 +10151,7 @@
     </row>
     <row r="259" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B259" s="13"/>
@@ -10149,7 +10174,7 @@
     </row>
     <row r="260" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B260" s="13"/>
@@ -10172,7 +10197,7 @@
     </row>
     <row r="261" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B261" s="13"/>
@@ -10195,7 +10220,7 @@
     </row>
     <row r="262" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B262" s="13"/>
@@ -10218,7 +10243,7 @@
     </row>
     <row r="263" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B263" s="13"/>
@@ -10241,7 +10266,7 @@
     </row>
     <row r="264" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B264" s="13"/>
@@ -10264,7 +10289,7 @@
     </row>
     <row r="265" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B265" s="13"/>
@@ -10287,7 +10312,7 @@
     </row>
     <row r="266" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>23.06.2015</v>
       </c>
       <c r="B266" s="13"/>
@@ -10406,7 +10431,7 @@
     </row>
     <row r="271" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="str">
-        <f t="shared" ref="A271:A277" si="37">"13.11.2014"</f>
+        <f t="shared" ref="A271:A277" si="38">"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
       <c r="B271" s="13"/>
@@ -10429,7 +10454,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.11.2014</v>
       </c>
       <c r="B272" s="13"/>
@@ -10452,7 +10477,7 @@
     </row>
     <row r="273" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.11.2014</v>
       </c>
       <c r="B273" s="13"/>
@@ -10475,7 +10500,7 @@
     </row>
     <row r="274" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.11.2014</v>
       </c>
       <c r="B274" s="13"/>
@@ -10498,7 +10523,7 @@
     </row>
     <row r="275" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.11.2014</v>
       </c>
       <c r="B275" s="13"/>
@@ -10521,7 +10546,7 @@
     </row>
     <row r="276" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.11.2014</v>
       </c>
       <c r="B276" s="13"/>
@@ -10544,7 +10569,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.11.2014</v>
       </c>
       <c r="B277" s="13"/>
@@ -10592,7 +10617,7 @@
     </row>
     <row r="279" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="str">
-        <f t="shared" ref="A279:A284" si="38">"02.10.2014"</f>
+        <f t="shared" ref="A279:A284" si="39">"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
       <c r="B279" s="13"/>
@@ -10615,7 +10640,7 @@
     </row>
     <row r="280" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>02.10.2014</v>
       </c>
       <c r="B280" s="13"/>
@@ -10638,7 +10663,7 @@
     </row>
     <row r="281" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>02.10.2014</v>
       </c>
       <c r="B281" s="13"/>
@@ -10661,7 +10686,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>02.10.2014</v>
       </c>
       <c r="B282" s="13"/>
@@ -10684,7 +10709,7 @@
     </row>
     <row r="283" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>02.10.2014</v>
       </c>
       <c r="B283" s="13"/>
@@ -10707,7 +10732,7 @@
     </row>
     <row r="284" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>02.10.2014</v>
       </c>
       <c r="B284" s="13"/>
@@ -10887,7 +10912,7 @@
     </row>
     <row r="292" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="str">
-        <f t="shared" ref="A292:A304" si="39">"04.06.2013"</f>
+        <f t="shared" ref="A292:A304" si="40">"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
       <c r="B292" s="13"/>
@@ -10910,7 +10935,7 @@
     </row>
     <row r="293" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B293" s="13"/>
@@ -10933,7 +10958,7 @@
     </row>
     <row r="294" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B294" s="13"/>
@@ -10956,7 +10981,7 @@
     </row>
     <row r="295" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B295" s="13"/>
@@ -10979,7 +11004,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B296" s="13"/>
@@ -11002,7 +11027,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B297" s="13"/>
@@ -11025,7 +11050,7 @@
     </row>
     <row r="298" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B298" s="13"/>
@@ -11048,7 +11073,7 @@
     </row>
     <row r="299" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B299" s="13"/>
@@ -11071,7 +11096,7 @@
     </row>
     <row r="300" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B300" s="13"/>
@@ -11094,7 +11119,7 @@
     </row>
     <row r="301" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B301" s="13"/>
@@ -11117,7 +11142,7 @@
     </row>
     <row r="302" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B302" s="13"/>
@@ -11140,7 +11165,7 @@
     </row>
     <row r="303" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B303" s="13"/>
@@ -11163,7 +11188,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>04.06.2013</v>
       </c>
       <c r="B304" s="13"/>
@@ -11211,7 +11236,7 @@
     </row>
     <row r="306" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A306" s="9" t="str">
-        <f t="shared" ref="A306:A307" si="40">"28.11.2012"</f>
+        <f t="shared" ref="A306:A307" si="41">"28.11.2012"</f>
         <v>28.11.2012</v>
       </c>
       <c r="B306" s="13"/>
@@ -11234,7 +11259,7 @@
     </row>
     <row r="307" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>28.11.2012</v>
       </c>
       <c r="B307" s="13"/>
@@ -11282,7 +11307,7 @@
     </row>
     <row r="309" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="str">
-        <f t="shared" ref="A309:A312" si="41">"25.09.2012"</f>
+        <f t="shared" ref="A309:A312" si="42">"25.09.2012"</f>
         <v>25.09.2012</v>
       </c>
       <c r="B309" s="13"/>
@@ -11305,7 +11330,7 @@
     </row>
     <row r="310" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25.09.2012</v>
       </c>
       <c r="B310" s="13"/>
@@ -11328,7 +11353,7 @@
     </row>
     <row r="311" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25.09.2012</v>
       </c>
       <c r="B311" s="13"/>
@@ -11351,7 +11376,7 @@
     </row>
     <row r="312" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25.09.2012</v>
       </c>
       <c r="B312" s="13"/>
@@ -11399,7 +11424,7 @@
     </row>
     <row r="314" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="str">
-        <f t="shared" ref="A314:A316" si="42">"09.07.2012"</f>
+        <f t="shared" ref="A314:A316" si="43">"09.07.2012"</f>
         <v>09.07.2012</v>
       </c>
       <c r="B314" s="13"/>
@@ -11422,7 +11447,7 @@
     </row>
     <row r="315" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>09.07.2012</v>
       </c>
       <c r="B315" s="13"/>
@@ -11443,7 +11468,7 @@
     </row>
     <row r="316" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>09.07.2012</v>
       </c>
       <c r="B316" s="13"/>
@@ -11558,7 +11583,7 @@
     </row>
     <row r="321" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="str">
-        <f t="shared" ref="A321:A327" si="43">"16.09.2011"</f>
+        <f t="shared" ref="A321:A327" si="44">"16.09.2011"</f>
         <v>16.09.2011</v>
       </c>
       <c r="B321" s="13"/>
@@ -11581,7 +11606,7 @@
     </row>
     <row r="322" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.09.2011</v>
       </c>
       <c r="B322" s="13"/>
@@ -11604,7 +11629,7 @@
     </row>
     <row r="323" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.09.2011</v>
       </c>
       <c r="B323" s="13"/>
@@ -11625,7 +11650,7 @@
     </row>
     <row r="324" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.09.2011</v>
       </c>
       <c r="B324" s="13"/>
@@ -11648,7 +11673,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.09.2011</v>
       </c>
       <c r="B325" s="13"/>
@@ -11671,7 +11696,7 @@
     </row>
     <row r="326" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.09.2011</v>
       </c>
       <c r="B326" s="13"/>
@@ -11692,7 +11717,7 @@
     </row>
     <row r="327" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.09.2011</v>
       </c>
       <c r="B327" s="13"/>
@@ -11740,7 +11765,7 @@
     </row>
     <row r="329" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="str">
-        <f t="shared" ref="A329:A331" si="44">"21.07.2011"</f>
+        <f t="shared" ref="A329:A331" si="45">"21.07.2011"</f>
         <v>21.07.2011</v>
       </c>
       <c r="B329" s="13"/>
@@ -11763,7 +11788,7 @@
     </row>
     <row r="330" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>21.07.2011</v>
       </c>
       <c r="B330" s="13"/>
@@ -11786,7 +11811,7 @@
     </row>
     <row r="331" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>21.07.2011</v>
       </c>
       <c r="B331" s="13"/>
@@ -11834,7 +11859,7 @@
     </row>
     <row r="333" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="str">
-        <f t="shared" ref="A333:A340" si="45">"10.05.2011"</f>
+        <f t="shared" ref="A333:A340" si="46">"10.05.2011"</f>
         <v>10.05.2011</v>
       </c>
       <c r="B333" s="13"/>
@@ -11857,7 +11882,7 @@
     </row>
     <row r="334" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B334" s="13"/>
@@ -11880,7 +11905,7 @@
     </row>
     <row r="335" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B335" s="13"/>
@@ -11903,7 +11928,7 @@
     </row>
     <row r="336" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B336" s="13"/>
@@ -11926,7 +11951,7 @@
     </row>
     <row r="337" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B337" s="13"/>
@@ -11949,7 +11974,7 @@
     </row>
     <row r="338" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B338" s="13"/>
@@ -11972,7 +11997,7 @@
     </row>
     <row r="339" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B339" s="13"/>
@@ -11995,7 +12020,7 @@
     </row>
     <row r="340" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10.05.2011</v>
       </c>
       <c r="B340" s="13"/>
@@ -12043,7 +12068,7 @@
     </row>
     <row r="342" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="str">
-        <f t="shared" ref="A342:A345" si="46">"07.05.2011"</f>
+        <f t="shared" ref="A342:A345" si="47">"07.05.2011"</f>
         <v>07.05.2011</v>
       </c>
       <c r="B342" s="13"/>
@@ -12066,7 +12091,7 @@
     </row>
     <row r="343" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>07.05.2011</v>
       </c>
       <c r="B343" s="13"/>
@@ -12087,7 +12112,7 @@
     </row>
     <row r="344" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>07.05.2011</v>
       </c>
       <c r="B344" s="13"/>
@@ -12110,7 +12135,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>07.05.2011</v>
       </c>
       <c r="B345" s="13"/>
@@ -12249,7 +12274,7 @@
     </row>
     <row r="351" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="str">
-        <f t="shared" ref="A351:A360" si="47">"04.10.2010"</f>
+        <f t="shared" ref="A351:A360" si="48">"04.10.2010"</f>
         <v>04.10.2010</v>
       </c>
       <c r="B351" s="13"/>
@@ -12271,7 +12296,7 @@
     </row>
     <row r="352" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B352" s="13"/>
@@ -12293,7 +12318,7 @@
     </row>
     <row r="353" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B353" s="13"/>
@@ -12315,7 +12340,7 @@
     </row>
     <row r="354" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B354" s="13"/>
@@ -12338,7 +12363,7 @@
     </row>
     <row r="355" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B355" s="13"/>
@@ -12363,7 +12388,7 @@
     </row>
     <row r="356" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B356" s="13"/>
@@ -12388,7 +12413,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B357" s="13"/>
@@ -12408,7 +12433,7 @@
     </row>
     <row r="358" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B358" s="13"/>
@@ -12433,7 +12458,7 @@
     </row>
     <row r="359" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A359" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B359" s="13"/>
@@ -12456,7 +12481,7 @@
     </row>
     <row r="360" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A360" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.10.2010</v>
       </c>
       <c r="B360" s="13"/>
@@ -12506,7 +12531,7 @@
     </row>
     <row r="362" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="str">
-        <f t="shared" ref="A362:A367" si="48">"24.06.2010"</f>
+        <f t="shared" ref="A362:A367" si="49">"24.06.2010"</f>
         <v>24.06.2010</v>
       </c>
       <c r="B362" s="13"/>
@@ -12529,7 +12554,7 @@
     </row>
     <row r="363" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24.06.2010</v>
       </c>
       <c r="B363" s="13"/>
@@ -12552,7 +12577,7 @@
     </row>
     <row r="364" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24.06.2010</v>
       </c>
       <c r="B364" s="13"/>
@@ -12575,7 +12600,7 @@
     </row>
     <row r="365" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24.06.2010</v>
       </c>
       <c r="B365" s="13"/>
@@ -12598,7 +12623,7 @@
     </row>
     <row r="366" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24.06.2010</v>
       </c>
       <c r="B366" s="13"/>
@@ -12621,7 +12646,7 @@
     </row>
     <row r="367" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>24.06.2010</v>
       </c>
       <c r="B367" s="13"/>
@@ -12719,7 +12744,7 @@
     </row>
     <row r="371" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="str">
-        <f t="shared" ref="A371:A376" si="49">"12.03.2010"</f>
+        <f t="shared" ref="A371:A376" si="50">"12.03.2010"</f>
         <v>12.03.2010</v>
       </c>
       <c r="B371" s="13"/>
@@ -12742,7 +12767,7 @@
     </row>
     <row r="372" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>12.03.2010</v>
       </c>
       <c r="B372" s="13"/>
@@ -12765,7 +12790,7 @@
     </row>
     <row r="373" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>12.03.2010</v>
       </c>
       <c r="B373" s="13"/>
@@ -12788,7 +12813,7 @@
     </row>
     <row r="374" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>12.03.2010</v>
       </c>
       <c r="B374" s="13"/>
@@ -12811,7 +12836,7 @@
     </row>
     <row r="375" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>12.03.2010</v>
       </c>
       <c r="B375" s="13"/>
@@ -12834,7 +12859,7 @@
     </row>
     <row r="376" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>12.03.2010</v>
       </c>
       <c r="B376" s="13"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -3420,7 +3420,7 @@
     <t>5_Dawoud.pdf</t>
   </si>
   <si>
-    <t>7_Crane</t>
+    <t>7_Crane.pdf</t>
   </si>
 </sst>
 </file>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1136">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3421,6 +3421,12 @@
   </si>
   <si>
     <t>7_Crane.pdf</t>
+  </si>
+  <si>
+    <t>4_Morales.pdf</t>
+  </si>
+  <si>
+    <t>6_James.pdf</t>
   </si>
 </sst>
 </file>
@@ -3891,9 +3897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="149" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4053,7 +4059,9 @@
       <c r="I5" s="21" t="s">
         <v>1117</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
@@ -4105,7 +4113,9 @@
       <c r="I7" s="21" t="s">
         <v>1120</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1141">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3439,6 +3439,9 @@
   </si>
   <si>
     <t>Welcome, scene setting and “Let us put the scientific objective first!”</t>
+  </si>
+  <si>
+    <t>1_Izem.pdf</t>
   </si>
 </sst>
 </file>
@@ -3988,7 +3991,9 @@
       <c r="I2" t="s">
         <v>1139</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1166">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -3521,6 +3521,15 @@
   </si>
   <si>
     <t>Idorsia</t>
+  </si>
+  <si>
+    <t>4_Bacchi.pdf</t>
+  </si>
+  <si>
+    <t>5_Buri.pdf</t>
+  </si>
+  <si>
+    <t>6_Lozachmeur.pdf</t>
   </si>
 </sst>
 </file>
@@ -4009,9 +4018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4140,7 +4149,9 @@
       <c r="I4" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
@@ -4165,7 +4176,9 @@
       <c r="I5" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
@@ -4190,7 +4203,9 @@
       <c r="I6" s="14" t="s">
         <v>1158</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
@@ -4215,7 +4230,9 @@
       <c r="I7" s="14" t="s">
         <v>1159</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039799B-05C8-40DC-86B5-CDD9FC20CCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E170B6-0448-4B7E-B0A2-6BF7079C9627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3070" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3548,9 +3548,6 @@
     <t>1_Patel.pdf</t>
   </si>
   <si>
-    <t>CAR--T regulatory and clinical development T regulatory and clinical development considerations: perspectives for today and the futureconsiderations: perspectives for today and the future</t>
-  </si>
-  <si>
     <t>2_Ananthakrishnan.pdf</t>
   </si>
   <si>
@@ -3596,13 +3593,16 @@
     <t>EBMT</t>
   </si>
   <si>
-    <t>RWE data: EBMT Registry Challenges in Data Collection Challenges in Data Collection &amp; Use of Data (in PASS)&amp; Use of Data (in PASS)</t>
-  </si>
-  <si>
     <t>6_vanBiezen.pdf</t>
   </si>
   <si>
     <t>4_Vadgama_Nissen.pdf</t>
+  </si>
+  <si>
+    <t>CAR-T regulatory and clinical development considerations: perspectives for today and the future</t>
+  </si>
+  <si>
+    <t>RWE data: EBMT Registry – Challenges in Data Collection &amp; Use of Data (in PASS)</t>
   </si>
 </sst>
 </file>
@@ -4091,23 +4091,23 @@
   <dimension ref="A1:K1044"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.26953125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.7265625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="44.26953125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="61.453125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="30.1796875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="35.81640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="69" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="186.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="187.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="155.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="160" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
@@ -4167,7 +4167,7 @@
         <v>897</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1171</v>
+        <v>1188</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>1170</v>
@@ -4188,16 +4188,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>1175</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.35">
@@ -4215,16 +4215,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>1178</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.35">
@@ -4242,16 +4242,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>1182</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.35">
@@ -4272,10 +4272,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>1031</v>
@@ -4296,16 +4296,16 @@
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>1186</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.35">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C8CBC-38FC-432C-92E7-36E6E4A2DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DC0B1-652B-438A-AFE6-006AC817D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="1030" windowWidth="14380" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4096,9 +4096,6 @@
     <t>A deep learning model for automated total metabolic tumor volume quantification in patients with FDG-avid lymphomas</t>
   </si>
   <si>
-    <t>Kristine Blackham</t>
-  </si>
-  <si>
     <t>University Hospital Basel</t>
   </si>
   <si>
@@ -4139,6 +4136,9 @@
   </si>
   <si>
     <t>9_Nicolas_Regulator in the Loop - Swissmedic_V1.pdf</t>
+  </si>
+  <si>
+    <t>Kristine Blackham &amp; Matthias Mutke</t>
   </si>
 </sst>
 </file>
@@ -4659,9 +4659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" ref="A2:A10" si="0">"25.09.2024"</f>
         <v>25.09.2024</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4739,12 +4739,12 @@
         <v>1342</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4766,12 +4766,12 @@
         <v>1343</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4793,12 +4793,12 @@
         <v>1345</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4820,12 +4820,12 @@
         <v>1347</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4847,12 +4847,12 @@
         <v>1349</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4874,12 +4874,12 @@
         <v>1351</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4901,12 +4901,12 @@
         <v>1353</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4919,21 +4919,21 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H9" t="s">
         <v>1354</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>1355</v>
       </c>
-      <c r="I9" t="s">
-        <v>1356</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="str">
-        <f>"25.09.2024"</f>
+        <f t="shared" si="0"/>
         <v>25.09.2024</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4946,16 +4946,16 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H10" t="s">
         <v>1357</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>1358</v>
       </c>
-      <c r="I10" t="s">
-        <v>1359</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.35">
@@ -4977,7 +4977,7 @@
     </row>
     <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="str">
-        <f t="shared" ref="A12:A18" si="0">"29.08.2024"</f>
+        <f t="shared" ref="A12:A18" si="1">"29.08.2024"</f>
         <v>29.08.2024</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5008,7 +5008,7 @@
     </row>
     <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.08.2024</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -5035,7 +5035,7 @@
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.08.2024</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5062,7 +5062,7 @@
     </row>
     <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.08.2024</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -5089,7 +5089,7 @@
     </row>
     <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.08.2024</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5116,7 +5116,7 @@
     </row>
     <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.08.2024</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -5143,7 +5143,7 @@
     </row>
     <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.08.2024</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5170,7 +5170,7 @@
     </row>
     <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="str">
-        <f t="shared" ref="A19:A24" si="1">"16.05.2024"</f>
+        <f t="shared" ref="A19:A24" si="2">"16.05.2024"</f>
         <v>16.05.2024</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -5197,7 +5197,7 @@
     </row>
     <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.05.2024</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -5224,7 +5224,7 @@
     </row>
     <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.05.2024</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5251,7 +5251,7 @@
     </row>
     <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.05.2024</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -5278,7 +5278,7 @@
     </row>
     <row r="23" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.05.2024</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5305,7 +5305,7 @@
     </row>
     <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.05.2024</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -5332,7 +5332,7 @@
     </row>
     <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="str">
-        <f t="shared" ref="A25:A29" si="2">"16.05.2024"</f>
+        <f t="shared" ref="A25:A29" si="3">"16.05.2024"</f>
         <v>16.05.2024</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -5359,7 +5359,7 @@
     </row>
     <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.05.2024</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5387,7 +5387,7 @@
     </row>
     <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.05.2024</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5414,7 +5414,7 @@
     </row>
     <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.05.2024</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5441,7 +5441,7 @@
     </row>
     <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.05.2024</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5668,7 +5668,7 @@
     </row>
     <row r="38" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="str">
-        <f t="shared" ref="A38:A45" si="3">"06.11.2023"</f>
+        <f t="shared" ref="A38:A45" si="4">"06.11.2023"</f>
         <v>06.11.2023</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5699,7 +5699,7 @@
     </row>
     <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5726,7 +5726,7 @@
     </row>
     <row r="40" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5753,7 +5753,7 @@
     </row>
     <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -5780,7 +5780,7 @@
     </row>
     <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5807,7 +5807,7 @@
     </row>
     <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5834,7 +5834,7 @@
     </row>
     <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -5861,7 +5861,7 @@
     </row>
     <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>06.11.2023</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -5886,7 +5886,7 @@
     </row>
     <row r="46" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="str">
-        <f t="shared" ref="A46:A52" si="4">"16.10.2023"</f>
+        <f t="shared" ref="A46:A52" si="5">"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -5913,7 +5913,7 @@
     </row>
     <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.10.2023</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -5940,7 +5940,7 @@
     </row>
     <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.10.2023</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="49" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.10.2023</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5994,7 +5994,7 @@
     </row>
     <row r="50" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.10.2023</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -6021,7 +6021,7 @@
     </row>
     <row r="51" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.10.2023</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -6048,7 +6048,7 @@
     </row>
     <row r="52" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.10.2023</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6075,7 +6075,7 @@
     </row>
     <row r="53" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="str">
-        <f t="shared" ref="A53:A58" si="5">"04.10.2023"</f>
+        <f t="shared" ref="A53:A58" si="6">"04.10.2023"</f>
         <v>04.10.2023</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -6102,7 +6102,7 @@
     </row>
     <row r="54" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>04.10.2023</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -6129,7 +6129,7 @@
     </row>
     <row r="55" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>04.10.2023</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -6156,7 +6156,7 @@
     </row>
     <row r="56" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>04.10.2023</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -6183,7 +6183,7 @@
     </row>
     <row r="57" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>04.10.2023</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -6210,7 +6210,7 @@
     </row>
     <row r="58" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>04.10.2023</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -6283,7 +6283,7 @@
     </row>
     <row r="61" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="str">
-        <f t="shared" ref="A61:A65" si="6">"21.06.2023"</f>
+        <f t="shared" ref="A61:A65" si="7">"21.06.2023"</f>
         <v>21.06.2023</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -6310,7 +6310,7 @@
     </row>
     <row r="62" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.06.2023</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -6337,7 +6337,7 @@
     </row>
     <row r="63" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.06.2023</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="64" spans="1:11" ht="42" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.06.2023</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -6391,7 +6391,7 @@
     </row>
     <row r="65" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.06.2023</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -6545,7 +6545,7 @@
     </row>
     <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="str">
-        <f t="shared" ref="A71:A77" si="7">"15.03.2023"</f>
+        <f t="shared" ref="A71:A77" si="8">"15.03.2023"</f>
         <v>15.03.2023</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -6574,7 +6574,7 @@
     </row>
     <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.03.2023</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -6601,7 +6601,7 @@
     </row>
     <row r="73" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.03.2023</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -6628,7 +6628,7 @@
     </row>
     <row r="74" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.03.2023</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -6655,7 +6655,7 @@
     </row>
     <row r="75" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.03.2023</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -6682,7 +6682,7 @@
     </row>
     <row r="76" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.03.2023</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -6709,7 +6709,7 @@
     </row>
     <row r="77" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.03.2023</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -6767,7 +6767,7 @@
     </row>
     <row r="79" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="str">
-        <f t="shared" ref="A79:A84" si="8">"15.12.2022"</f>
+        <f t="shared" ref="A79:A84" si="9">"15.12.2022"</f>
         <v>15.12.2022</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -6794,7 +6794,7 @@
     </row>
     <row r="80" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.12.2022</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -6821,7 +6821,7 @@
     </row>
     <row r="81" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.12.2022</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -6848,7 +6848,7 @@
     </row>
     <row r="82" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.12.2022</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -6875,7 +6875,7 @@
     </row>
     <row r="83" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.12.2022</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -6902,7 +6902,7 @@
     </row>
     <row r="84" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.12.2022</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -6927,7 +6927,7 @@
     </row>
     <row r="85" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="str">
-        <f t="shared" ref="A85:A90" si="9">"08.12.2022"</f>
+        <f t="shared" ref="A85:A90" si="10">"08.12.2022"</f>
         <v>08.12.2022</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -6958,7 +6958,7 @@
     </row>
     <row r="86" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>08.12.2022</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -6985,7 +6985,7 @@
     </row>
     <row r="87" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>08.12.2022</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -7012,7 +7012,7 @@
     </row>
     <row r="88" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>08.12.2022</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -7040,7 +7040,7 @@
     </row>
     <row r="89" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>08.12.2022</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -7067,7 +7067,7 @@
     </row>
     <row r="90" spans="1:11" ht="56" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>08.12.2022</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -7146,7 +7146,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="str">
-        <f t="shared" ref="A93:A95" si="10">"30.11.2022"</f>
+        <f t="shared" ref="A93:A95" si="11">"30.11.2022"</f>
         <v>30.11.2022</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -7171,7 +7171,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.11.2022</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -7196,7 +7196,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.11.2022</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -7221,7 +7221,7 @@
     </row>
     <row r="96" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="str">
-        <f t="shared" ref="A96:A101" si="11">"15.07.2022"</f>
+        <f t="shared" ref="A96:A101" si="12">"15.07.2022"</f>
         <v>15.07.2022</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -7250,7 +7250,7 @@
     </row>
     <row r="97" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.07.2022</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -7277,7 +7277,7 @@
     </row>
     <row r="98" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.07.2022</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -7304,7 +7304,7 @@
     </row>
     <row r="99" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.07.2022</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -7331,7 +7331,7 @@
     </row>
     <row r="100" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.07.2022</v>
       </c>
       <c r="B100" s="14" t="s">
@@ -7358,7 +7358,7 @@
     </row>
     <row r="101" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.07.2022</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -7408,7 +7408,7 @@
     </row>
     <row r="103" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="str">
-        <f t="shared" ref="A103:A109" si="12">"23.06.2022"</f>
+        <f t="shared" ref="A103:A109" si="13">"23.06.2022"</f>
         <v>23.06.2022</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -7433,7 +7433,7 @@
     </row>
     <row r="104" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.06.2022</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -7460,7 +7460,7 @@
     </row>
     <row r="105" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.06.2022</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -7487,7 +7487,7 @@
     </row>
     <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.06.2022</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -7514,7 +7514,7 @@
     </row>
     <row r="107" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.06.2022</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -7541,7 +7541,7 @@
     </row>
     <row r="108" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.06.2022</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -7568,7 +7568,7 @@
     </row>
     <row r="109" spans="1:10" ht="28" x14ac:dyDescent="0.35">
       <c r="A109" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23.06.2022</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -7728,7 +7728,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="str">
-        <f t="shared" ref="A115:A117" si="13">"21.02.2022"</f>
+        <f t="shared" ref="A115:A117" si="14">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B115" s="3"/>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.02.2022</v>
       </c>
       <c r="B116" s="3"/>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.02.2022</v>
       </c>
       <c r="B117" s="3"/>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="str">
-        <f t="shared" ref="A119:A122" si="14">"27.07.2021"</f>
+        <f t="shared" ref="A119:A122" si="15">"27.07.2021"</f>
         <v>27.07.2021</v>
       </c>
       <c r="B119" s="12"/>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.07.2021</v>
       </c>
       <c r="B120" s="12"/>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.07.2021</v>
       </c>
       <c r="B121" s="12"/>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.07.2021</v>
       </c>
       <c r="B122" s="12"/>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="str">
-        <f t="shared" ref="A124:A130" si="15">"28.06.2021"</f>
+        <f t="shared" ref="A124:A130" si="16">"28.06.2021"</f>
         <v>28.06.2021</v>
       </c>
       <c r="B124" s="12"/>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.06.2021</v>
       </c>
       <c r="B125" s="12"/>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.06.2021</v>
       </c>
       <c r="B126" s="12"/>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.06.2021</v>
       </c>
       <c r="B127" s="12"/>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.06.2021</v>
       </c>
       <c r="B128" s="12"/>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.06.2021</v>
       </c>
       <c r="B129" s="12"/>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.06.2021</v>
       </c>
       <c r="B130" s="12"/>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="str">
-        <f t="shared" ref="A132:A134" si="16">"16.06.2021"</f>
+        <f t="shared" ref="A132:A134" si="17">"16.06.2021"</f>
         <v>16.06.2021</v>
       </c>
       <c r="B132" s="12"/>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.06.2021</v>
       </c>
       <c r="B133" s="12"/>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.06.2021</v>
       </c>
       <c r="B134" s="12"/>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="str">
-        <f t="shared" ref="A136:A144" si="17">"22.03.2021"</f>
+        <f t="shared" ref="A136:A144" si="18">"22.03.2021"</f>
         <v>22.03.2021</v>
       </c>
       <c r="B136" s="12"/>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B137" s="12"/>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B138" s="12"/>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B139" s="12"/>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B140" s="12"/>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B141" s="12"/>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B142" s="12"/>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B143" s="12"/>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.03.2021</v>
       </c>
       <c r="B144" s="12"/>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="str">
-        <f t="shared" ref="A146:A151" si="18">"08.03.2021"</f>
+        <f t="shared" ref="A146:A151" si="19">"08.03.2021"</f>
         <v>08.03.2021</v>
       </c>
       <c r="B146" s="12"/>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08.03.2021</v>
       </c>
       <c r="B147" s="12"/>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08.03.2021</v>
       </c>
       <c r="B148" s="12"/>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08.03.2021</v>
       </c>
       <c r="B149" s="12"/>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08.03.2021</v>
       </c>
       <c r="B150" s="12"/>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>08.03.2021</v>
       </c>
       <c r="B151" s="12"/>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="str">
-        <f t="shared" ref="A153:A159" si="19">"03.11.2020"</f>
+        <f t="shared" ref="A153:A159" si="20">"03.11.2020"</f>
         <v>03.11.2020</v>
       </c>
       <c r="B153" s="12"/>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>03.11.2020</v>
       </c>
       <c r="B154" s="12"/>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>03.11.2020</v>
       </c>
       <c r="B155" s="12"/>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>03.11.2020</v>
       </c>
       <c r="B156" s="12"/>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>03.11.2020</v>
       </c>
       <c r="B157" s="12"/>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>03.11.2020</v>
       </c>
       <c r="B158" s="12"/>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>03.11.2020</v>
       </c>
       <c r="B159" s="12"/>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="str">
-        <f t="shared" ref="A161:A169" si="20">"07.09.2020"</f>
+        <f t="shared" ref="A161:A169" si="21">"07.09.2020"</f>
         <v>07.09.2020</v>
       </c>
       <c r="B161" s="12"/>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B162" s="12"/>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B163" s="12"/>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B164" s="12"/>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B165" s="12"/>
@@ -9025,7 +9025,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B166" s="12"/>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B167" s="12"/>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B168" s="12"/>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>07.09.2020</v>
       </c>
       <c r="B169" s="12"/>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="str">
-        <f t="shared" ref="A171:A174" si="21">"30.06.2020"</f>
+        <f t="shared" ref="A171:A174" si="22">"30.06.2020"</f>
         <v>30.06.2020</v>
       </c>
       <c r="B171" s="12"/>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.06.2020</v>
       </c>
       <c r="B172" s="12"/>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.06.2020</v>
       </c>
       <c r="B173" s="12"/>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30.06.2020</v>
       </c>
       <c r="B174" s="12"/>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="str">
-        <f t="shared" ref="A176:A181" si="22">"29.06.2020"</f>
+        <f t="shared" ref="A176:A181" si="23">"29.06.2020"</f>
         <v>29.06.2020</v>
       </c>
       <c r="B176" s="12"/>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.06.2020</v>
       </c>
       <c r="B177" s="12"/>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.06.2020</v>
       </c>
       <c r="B178" s="12"/>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.06.2020</v>
       </c>
       <c r="B179" s="12"/>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.06.2020</v>
       </c>
       <c r="B180" s="12"/>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>29.06.2020</v>
       </c>
       <c r="B181" s="12"/>
@@ -9456,7 +9456,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="str">
-        <f t="shared" ref="A183:A185" si="23">"03.06.2020"</f>
+        <f t="shared" ref="A183:A185" si="24">"03.06.2020"</f>
         <v>03.06.2020</v>
       </c>
       <c r="B183" s="12"/>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>03.06.2020</v>
       </c>
       <c r="B184" s="12"/>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>03.06.2020</v>
       </c>
       <c r="B185" s="12"/>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="str">
-        <f t="shared" ref="A187:A191" si="24">"06.05.2020"</f>
+        <f t="shared" ref="A187:A191" si="25">"06.05.2020"</f>
         <v>06.05.2020</v>
       </c>
       <c r="B187" s="12"/>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>06.05.2020</v>
       </c>
       <c r="B188" s="12"/>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>06.05.2020</v>
       </c>
       <c r="B189" s="12"/>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>06.05.2020</v>
       </c>
       <c r="B190" s="12"/>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>06.05.2020</v>
       </c>
       <c r="B191" s="12"/>
@@ -9708,7 +9708,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="str">
-        <f t="shared" ref="A193:A197" si="25">"04.02.2020"</f>
+        <f t="shared" ref="A193:A197" si="26">"04.02.2020"</f>
         <v>04.02.2020</v>
       </c>
       <c r="B193" s="12"/>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>04.02.2020</v>
       </c>
       <c r="B194" s="12"/>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>04.02.2020</v>
       </c>
       <c r="B195" s="12"/>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>04.02.2020</v>
       </c>
       <c r="B196" s="12"/>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>04.02.2020</v>
       </c>
       <c r="B197" s="12"/>
@@ -9846,7 +9846,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="str">
-        <f t="shared" ref="A199:A206" si="26">"01.11.2019"</f>
+        <f t="shared" ref="A199:A206" si="27">"01.11.2019"</f>
         <v>01.11.2019</v>
       </c>
       <c r="B199" s="12"/>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B200" s="12"/>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B201" s="12"/>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B202" s="12"/>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B203" s="12"/>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B204" s="12"/>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B205" s="12"/>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>01.11.2019</v>
       </c>
       <c r="B206" s="12"/>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="str">
-        <f t="shared" ref="A208:A213" si="27">"21.08.2019"</f>
+        <f t="shared" ref="A208:A213" si="28">"21.08.2019"</f>
         <v>21.08.2019</v>
       </c>
       <c r="B208" s="12"/>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21.08.2019</v>
       </c>
       <c r="B209" s="12"/>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21.08.2019</v>
       </c>
       <c r="B210" s="12"/>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21.08.2019</v>
       </c>
       <c r="B211" s="12"/>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21.08.2019</v>
       </c>
       <c r="B212" s="12"/>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21.08.2019</v>
       </c>
       <c r="B213" s="12"/>
@@ -10195,7 +10195,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="str">
-        <f t="shared" ref="A215:A221" si="28">"04.06.2019"</f>
+        <f t="shared" ref="A215:A221" si="29">"04.06.2019"</f>
         <v>04.06.2019</v>
       </c>
       <c r="B215" s="12"/>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>04.06.2019</v>
       </c>
       <c r="B216" s="12"/>
@@ -10239,7 +10239,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>04.06.2019</v>
       </c>
       <c r="B217" s="12"/>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>04.06.2019</v>
       </c>
       <c r="B218" s="12"/>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>04.06.2019</v>
       </c>
       <c r="B219" s="12"/>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>04.06.2019</v>
       </c>
       <c r="B220" s="12"/>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>04.06.2019</v>
       </c>
       <c r="B221" s="12"/>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="str">
-        <f t="shared" ref="A223:A233" si="29">"10.05.2019"</f>
+        <f t="shared" ref="A223:A233" si="30">"10.05.2019"</f>
         <v>10.05.2019</v>
       </c>
       <c r="B223" s="12"/>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B224" s="12"/>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B225" s="12"/>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B226" s="12"/>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B227" s="12"/>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B228" s="12"/>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B229" s="12"/>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B230" s="12"/>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B231" s="12"/>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B232" s="12"/>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>10.05.2019</v>
       </c>
       <c r="B233" s="12"/>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="str">
-        <f t="shared" ref="A235:A242" si="30">"27.06.2018"</f>
+        <f t="shared" ref="A235:A242" si="31">"27.06.2018"</f>
         <v>27.06.2018</v>
       </c>
       <c r="B235" s="12"/>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B236" s="12"/>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B237" s="12"/>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B238" s="12"/>
@@ -10721,7 +10721,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B239" s="12"/>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B240" s="12"/>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B241" s="12"/>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27.06.2018</v>
       </c>
       <c r="B242" s="12"/>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="str">
-        <f t="shared" ref="A244:A245" si="31">"26.06.2018"</f>
+        <f t="shared" ref="A244:A245" si="32">"26.06.2018"</f>
         <v>26.06.2018</v>
       </c>
       <c r="B244" s="12"/>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>26.06.2018</v>
       </c>
       <c r="B245" s="12"/>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="str">
-        <f t="shared" ref="A247:A250" si="32">"17.04.2018"</f>
+        <f t="shared" ref="A247:A250" si="33">"17.04.2018"</f>
         <v>17.04.2018</v>
       </c>
       <c r="B247" s="12"/>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>17.04.2018</v>
       </c>
       <c r="B248" s="12"/>
@@ -10945,7 +10945,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>17.04.2018</v>
       </c>
       <c r="B249" s="12"/>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>17.04.2018</v>
       </c>
       <c r="B250" s="12"/>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="str">
-        <f t="shared" ref="A252:A253" si="33">"20.03.2018"</f>
+        <f t="shared" ref="A252:A253" si="34">"20.03.2018"</f>
         <v>20.03.2018</v>
       </c>
       <c r="B252" s="12"/>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20.03.2018</v>
       </c>
       <c r="B253" s="12"/>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="str">
-        <f t="shared" ref="A258:A264" si="34">"11.09.2017"</f>
+        <f t="shared" ref="A258:A264" si="35">"11.09.2017"</f>
         <v>11.09.2017</v>
       </c>
       <c r="B258" s="12"/>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.09.2017</v>
       </c>
       <c r="B259" s="12"/>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.09.2017</v>
       </c>
       <c r="B260" s="12"/>
@@ -11222,7 +11222,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.09.2017</v>
       </c>
       <c r="B261" s="12"/>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.09.2017</v>
       </c>
       <c r="B262" s="12"/>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.09.2017</v>
       </c>
       <c r="B263" s="12"/>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11.09.2017</v>
       </c>
       <c r="B264" s="12"/>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="str">
-        <f t="shared" ref="A266:A267" si="35">"26.06.2017"</f>
+        <f t="shared" ref="A266:A267" si="36">"26.06.2017"</f>
         <v>26.06.2017</v>
       </c>
       <c r="B266" s="12"/>
@@ -11362,7 +11362,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>26.06.2017</v>
       </c>
       <c r="B267" s="12"/>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="268" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="str">
-        <f t="shared" ref="A268:A276" si="36">"15.06.2017"</f>
+        <f t="shared" ref="A268:A276" si="37">"15.06.2017"</f>
         <v>15.06.2017</v>
       </c>
       <c r="B268" s="12" t="s">
@@ -11409,7 +11409,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B269" s="12"/>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B270" s="12"/>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B271" s="12"/>
@@ -11475,7 +11475,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B272" s="12"/>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B273" s="12"/>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B274" s="12"/>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B275" s="12"/>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15.06.2017</v>
       </c>
       <c r="B276" s="12"/>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="str">
-        <f t="shared" ref="A278:A282" si="37">"05.05.2017"</f>
+        <f t="shared" ref="A278:A282" si="38">"05.05.2017"</f>
         <v>05.05.2017</v>
       </c>
       <c r="B278" s="12"/>
@@ -11631,7 +11631,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>05.05.2017</v>
       </c>
       <c r="B279" s="12"/>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>05.05.2017</v>
       </c>
       <c r="B280" s="12"/>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>05.05.2017</v>
       </c>
       <c r="B281" s="12"/>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>05.05.2017</v>
       </c>
       <c r="B282" s="12"/>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="str">
-        <f t="shared" ref="A286:A289" si="38">"29.11.2016"</f>
+        <f t="shared" ref="A286:A289" si="39">"29.11.2016"</f>
         <v>29.11.2016</v>
       </c>
       <c r="B286" s="12"/>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>29.11.2016</v>
       </c>
       <c r="B287" s="12"/>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>29.11.2016</v>
       </c>
       <c r="B288" s="12"/>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>29.11.2016</v>
       </c>
       <c r="B289" s="12"/>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="str">
-        <f t="shared" ref="A291:A293" si="39">"14.11.2016"</f>
+        <f t="shared" ref="A291:A293" si="40">"14.11.2016"</f>
         <v>14.11.2016</v>
       </c>
       <c r="B291" s="12"/>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>14.11.2016</v>
       </c>
       <c r="B292" s="12"/>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>14.11.2016</v>
       </c>
       <c r="B293" s="12"/>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="str">
-        <f t="shared" ref="A295:A296" si="40">"17.10.2016"</f>
+        <f t="shared" ref="A295:A296" si="41">"17.10.2016"</f>
         <v>17.10.2016</v>
       </c>
       <c r="B295" s="12"/>
@@ -12023,7 +12023,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17.10.2016</v>
       </c>
       <c r="B296" s="12"/>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="str">
-        <f t="shared" ref="A298:A302" si="41">"14.09.2016"</f>
+        <f t="shared" ref="A298:A302" si="42">"14.09.2016"</f>
         <v>14.09.2016</v>
       </c>
       <c r="B298" s="12"/>
@@ -12094,7 +12094,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14.09.2016</v>
       </c>
       <c r="B299" s="12"/>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14.09.2016</v>
       </c>
       <c r="B300" s="12"/>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14.09.2016</v>
       </c>
       <c r="B301" s="12"/>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14.09.2016</v>
       </c>
       <c r="B302" s="12"/>
@@ -12298,7 +12298,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="str">
-        <f t="shared" ref="A308:A316" si="42">"28.04.2016"</f>
+        <f t="shared" ref="A308:A316" si="43">"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
       <c r="B308" s="12"/>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B309" s="12"/>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B310" s="12"/>
@@ -12364,7 +12364,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B311" s="12"/>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B312" s="12"/>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B313" s="12"/>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B314" s="12"/>
@@ -12454,7 +12454,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B315" s="12"/>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28.04.2016</v>
       </c>
       <c r="B316" s="12"/>
@@ -12523,7 +12523,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="str">
-        <f t="shared" ref="A318:A322" si="43">"13.01.2016"</f>
+        <f t="shared" ref="A318:A322" si="44">"13.01.2016"</f>
         <v>13.01.2016</v>
       </c>
       <c r="B318" s="12"/>
@@ -12546,7 +12546,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13.01.2016</v>
       </c>
       <c r="B319" s="12"/>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13.01.2016</v>
       </c>
       <c r="B320" s="12"/>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13.01.2016</v>
       </c>
       <c r="B321" s="12"/>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13.01.2016</v>
       </c>
       <c r="B322" s="12"/>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="str">
-        <f t="shared" ref="A326:A335" si="44">"23.06.2015"</f>
+        <f t="shared" ref="A326:A335" si="45">"23.06.2015"</f>
         <v>23.06.2015</v>
       </c>
       <c r="B326" s="12"/>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B327" s="12"/>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B328" s="12"/>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B329" s="12"/>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B330" s="12"/>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B331" s="12"/>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B332" s="12"/>
@@ -12866,7 +12866,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B333" s="12"/>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B334" s="12"/>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23.06.2015</v>
       </c>
       <c r="B335" s="12"/>
@@ -13031,7 +13031,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="str">
-        <f t="shared" ref="A340:A346" si="45">"13.11.2014"</f>
+        <f t="shared" ref="A340:A346" si="46">"13.11.2014"</f>
         <v>13.11.2014</v>
       </c>
       <c r="B340" s="12"/>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.11.2014</v>
       </c>
       <c r="B341" s="12"/>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.11.2014</v>
       </c>
       <c r="B342" s="12"/>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.11.2014</v>
       </c>
       <c r="B343" s="12"/>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.11.2014</v>
       </c>
       <c r="B344" s="12"/>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.11.2014</v>
       </c>
       <c r="B345" s="12"/>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13.11.2014</v>
       </c>
       <c r="B346" s="12"/>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="str">
-        <f t="shared" ref="A348:A353" si="46">"02.10.2014"</f>
+        <f t="shared" ref="A348:A353" si="47">"02.10.2014"</f>
         <v>02.10.2014</v>
       </c>
       <c r="B348" s="12"/>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>02.10.2014</v>
       </c>
       <c r="B349" s="12"/>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>02.10.2014</v>
       </c>
       <c r="B350" s="12"/>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>02.10.2014</v>
       </c>
       <c r="B351" s="12"/>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>02.10.2014</v>
       </c>
       <c r="B352" s="12"/>
@@ -13332,7 +13332,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>02.10.2014</v>
       </c>
       <c r="B353" s="12"/>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="str">
-        <f t="shared" ref="A361:A373" si="47">"04.06.2013"</f>
+        <f t="shared" ref="A361:A373" si="48">"04.06.2013"</f>
         <v>04.06.2013</v>
       </c>
       <c r="B361" s="12"/>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B362" s="12"/>
@@ -13558,7 +13558,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B363" s="12"/>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B364" s="12"/>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B365" s="12"/>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B366" s="12"/>
@@ -13650,7 +13650,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B367" s="12"/>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B368" s="12"/>
@@ -13696,7 +13696,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B369" s="12"/>
@@ -13719,7 +13719,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B370" s="12"/>
@@ -13742,7 +13742,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B371" s="12"/>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B372" s="12"/>
@@ -13788,7 +13788,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>04.06.2013</v>
       </c>
       <c r="B373" s="12"/>
@@ -13836,7 +13836,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="str">
-        <f t="shared" ref="A375:A376" si="48">"28.11.2012"</f>
+        <f t="shared" ref="A375:A376" si="49">"28.11.2012"</f>
         <v>28.11.2012</v>
       </c>
       <c r="B375" s="12"/>
@@ -13859,7 +13859,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>28.11.2012</v>
       </c>
       <c r="B376" s="12"/>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="str">
-        <f t="shared" ref="A378:A381" si="49">"25.09.2012"</f>
+        <f t="shared" ref="A378:A381" si="50">"25.09.2012"</f>
         <v>25.09.2012</v>
       </c>
       <c r="B378" s="12"/>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>25.09.2012</v>
       </c>
       <c r="B379" s="12"/>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>25.09.2012</v>
       </c>
       <c r="B380" s="12"/>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" s="9" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>25.09.2012</v>
       </c>
       <c r="B381" s="12"/>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="str">
-        <f t="shared" ref="A383:A385" si="50">"09.07.2012"</f>
+        <f t="shared" ref="A383:A385" si="51">"09.07.2012"</f>
         <v>09.07.2012</v>
       </c>
       <c r="B383" s="12"/>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>09.07.2012</v>
       </c>
       <c r="B384" s="12"/>
@@ -14068,7 +14068,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>09.07.2012</v>
       </c>
       <c r="B385" s="12"/>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" s="9" t="str">
-        <f t="shared" ref="A390:A396" si="51">"16.09.2011"</f>
+        <f t="shared" ref="A390:A396" si="52">"16.09.2011"</f>
         <v>16.09.2011</v>
       </c>
       <c r="B390" s="12"/>
@@ -14206,7 +14206,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.09.2011</v>
       </c>
       <c r="B391" s="12"/>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.09.2011</v>
       </c>
       <c r="B392" s="12"/>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.09.2011</v>
       </c>
       <c r="B393" s="12"/>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.09.2011</v>
       </c>
       <c r="B394" s="12"/>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.09.2011</v>
       </c>
       <c r="B395" s="12"/>
@@ -14317,7 +14317,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.09.2011</v>
       </c>
       <c r="B396" s="12"/>
@@ -14365,7 +14365,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" s="9" t="str">
-        <f t="shared" ref="A398:A400" si="52">"21.07.2011"</f>
+        <f t="shared" ref="A398:A400" si="53">"21.07.2011"</f>
         <v>21.07.2011</v>
       </c>
       <c r="B398" s="12"/>
@@ -14388,7 +14388,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>21.07.2011</v>
       </c>
       <c r="B399" s="12"/>
@@ -14411,7 +14411,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>21.07.2011</v>
       </c>
       <c r="B400" s="12"/>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" s="9" t="str">
-        <f t="shared" ref="A402:A409" si="53">"10.05.2011"</f>
+        <f t="shared" ref="A402:A409" si="54">"10.05.2011"</f>
         <v>10.05.2011</v>
       </c>
       <c r="B402" s="12"/>
@@ -14482,7 +14482,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B403" s="12"/>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B404" s="12"/>
@@ -14528,7 +14528,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B405" s="12"/>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B406" s="12"/>
@@ -14574,7 +14574,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B407" s="12"/>
@@ -14597,7 +14597,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B408" s="12"/>
@@ -14620,7 +14620,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>10.05.2011</v>
       </c>
       <c r="B409" s="12"/>
@@ -14668,7 +14668,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" s="9" t="str">
-        <f t="shared" ref="A411:A414" si="54">"07.05.2011"</f>
+        <f t="shared" ref="A411:A414" si="55">"07.05.2011"</f>
         <v>07.05.2011</v>
       </c>
       <c r="B411" s="12"/>
@@ -14691,7 +14691,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>07.05.2011</v>
       </c>
       <c r="B412" s="12"/>
@@ -14712,7 +14712,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>07.05.2011</v>
       </c>
       <c r="B413" s="12"/>
@@ -14735,7 +14735,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>07.05.2011</v>
       </c>
       <c r="B414" s="12"/>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="9" t="str">
-        <f t="shared" ref="A420:A429" si="55">"04.10.2010"</f>
+        <f t="shared" ref="A420:A429" si="56">"04.10.2010"</f>
         <v>04.10.2010</v>
       </c>
       <c r="B420" s="12"/>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B421" s="12"/>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B422" s="12"/>
@@ -14940,7 +14940,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B423" s="12"/>
@@ -14963,7 +14963,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B424" s="12"/>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B425" s="12"/>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B426" s="12"/>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B427" s="12"/>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B428" s="12"/>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>04.10.2010</v>
       </c>
       <c r="B429" s="12"/>
@@ -15131,7 +15131,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="9" t="str">
-        <f t="shared" ref="A431:A436" si="56">"24.06.2010"</f>
+        <f t="shared" ref="A431:A436" si="57">"24.06.2010"</f>
         <v>24.06.2010</v>
       </c>
       <c r="B431" s="12"/>
@@ -15154,7 +15154,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24.06.2010</v>
       </c>
       <c r="B432" s="12"/>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" s="9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24.06.2010</v>
       </c>
       <c r="B433" s="12"/>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" s="9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24.06.2010</v>
       </c>
       <c r="B434" s="12"/>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" s="9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24.06.2010</v>
       </c>
       <c r="B435" s="12"/>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" s="9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>24.06.2010</v>
       </c>
       <c r="B436" s="12"/>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" s="9" t="str">
-        <f t="shared" ref="A440:A445" si="57">"12.03.2010"</f>
+        <f t="shared" ref="A440:A445" si="58">"12.03.2010"</f>
         <v>12.03.2010</v>
       </c>
       <c r="B440" s="12"/>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12.03.2010</v>
       </c>
       <c r="B441" s="12"/>
@@ -15390,7 +15390,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12.03.2010</v>
       </c>
       <c r="B442" s="12"/>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12.03.2010</v>
       </c>
       <c r="B443" s="12"/>
@@ -15436,7 +15436,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12.03.2010</v>
       </c>
       <c r="B444" s="12"/>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12.03.2010</v>
       </c>
       <c r="B445" s="12"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DC0B1-652B-438A-AFE6-006AC817D430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20724CE8-9034-4FE3-AC7A-368750C319D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1030" windowWidth="14380" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conferences" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1371">
   <si>
     <t>Anja Schiel</t>
   </si>
@@ -4139,6 +4139,12 @@
   </si>
   <si>
     <t>Kristine Blackham &amp; Matthias Mutke</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Sja4Gi-f0sw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SuoJRBGt5vc</t>
   </si>
 </sst>
 </file>
@@ -4301,8 +4307,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4659,28 +4665,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="67.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="187.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="187.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="155.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="83.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="155.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="160" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.453125" style="7"/>
+    <col min="10" max="10" width="64.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A10" si="0">"25.09.2024"</f>
         <v>25.09.2024</v>
@@ -4723,8 +4729,12 @@
       <c r="B2" s="3" t="s">
         <v>1338</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1370</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1">
         <v>1</v>
@@ -4742,7 +4752,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4769,7 +4779,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4796,7 +4806,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4823,7 +4833,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4850,7 +4860,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4877,7 +4887,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4904,7 +4914,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4931,7 +4941,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25.09.2024</v>
@@ -4958,7 +4968,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>"20.09.2024"</f>
         <v>20.09.2024</v>
@@ -4975,7 +4985,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" ref="A12:A18" si="1">"29.08.2024"</f>
         <v>29.08.2024</v>
@@ -5006,7 +5016,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>29.08.2024</v>
@@ -5033,7 +5043,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>29.08.2024</v>
@@ -5060,7 +5070,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>29.08.2024</v>
@@ -5087,7 +5097,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>29.08.2024</v>
@@ -5114,7 +5124,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>29.08.2024</v>
@@ -5141,7 +5151,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>29.08.2024</v>
@@ -5168,7 +5178,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="str">
         <f t="shared" ref="A19:A24" si="2">"16.05.2024"</f>
         <v>16.05.2024</v>
@@ -5195,7 +5205,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>16.05.2024</v>
@@ -5222,7 +5232,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>16.05.2024</v>
@@ -5249,7 +5259,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>16.05.2024</v>
@@ -5276,7 +5286,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>16.05.2024</v>
@@ -5303,7 +5313,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>16.05.2024</v>
@@ -5330,7 +5340,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f t="shared" ref="A25:A29" si="3">"16.05.2024"</f>
         <v>16.05.2024</v>
@@ -5357,7 +5367,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="str">
         <f t="shared" si="3"/>
         <v>16.05.2024</v>
@@ -5385,7 +5395,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="str">
         <f t="shared" si="3"/>
         <v>16.05.2024</v>
@@ -5412,7 +5422,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="str">
         <f t="shared" si="3"/>
         <v>16.05.2024</v>
@@ -5439,7 +5449,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="str">
         <f t="shared" si="3"/>
         <v>16.05.2024</v>
@@ -5466,7 +5476,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1266</v>
       </c>
@@ -5482,7 +5492,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5510,7 +5520,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5588,7 +5598,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5614,7 +5624,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>1264</v>
       </c>
@@ -5666,7 +5676,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f t="shared" ref="A38:A45" si="4">"06.11.2023"</f>
         <v>06.11.2023</v>
@@ -5697,7 +5707,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5724,7 +5734,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5751,7 +5761,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5778,7 +5788,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5805,7 +5815,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5832,7 +5842,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5859,7 +5869,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06.11.2023</v>
@@ -5884,7 +5894,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="str">
         <f t="shared" ref="A46:A52" si="5">"16.10.2023"</f>
         <v>16.10.2023</v>
@@ -5911,7 +5921,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="str">
         <f t="shared" si="5"/>
         <v>16.10.2023</v>
@@ -5938,7 +5948,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="str">
         <f t="shared" si="5"/>
         <v>16.10.2023</v>
@@ -5965,7 +5975,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="str">
         <f t="shared" si="5"/>
         <v>16.10.2023</v>
@@ -5992,7 +6002,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
         <f t="shared" si="5"/>
         <v>16.10.2023</v>
@@ -6019,7 +6029,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="str">
         <f t="shared" si="5"/>
         <v>16.10.2023</v>
@@ -6046,7 +6056,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="str">
         <f t="shared" si="5"/>
         <v>16.10.2023</v>
@@ -6073,7 +6083,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="str">
         <f t="shared" ref="A53:A58" si="6">"04.10.2023"</f>
         <v>04.10.2023</v>
@@ -6100,7 +6110,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="str">
         <f t="shared" si="6"/>
         <v>04.10.2023</v>
@@ -6127,7 +6137,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="str">
         <f t="shared" si="6"/>
         <v>04.10.2023</v>
@@ -6154,7 +6164,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="str">
         <f t="shared" si="6"/>
         <v>04.10.2023</v>
@@ -6181,7 +6191,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="str">
         <f t="shared" si="6"/>
         <v>04.10.2023</v>
@@ -6208,7 +6218,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="str">
         <f t="shared" si="6"/>
         <v>04.10.2023</v>
@@ -6235,7 +6245,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="str">
         <f>"03.09.2023"</f>
         <v>03.09.2023</v>
@@ -6256,7 +6266,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="str">
         <f>"21.06.2023"</f>
         <v>21.06.2023</v>
@@ -6281,7 +6291,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="str">
         <f t="shared" ref="A61:A65" si="7">"21.06.2023"</f>
         <v>21.06.2023</v>
@@ -6308,7 +6318,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="str">
         <f t="shared" si="7"/>
         <v>21.06.2023</v>
@@ -6335,7 +6345,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="str">
         <f t="shared" si="7"/>
         <v>21.06.2023</v>
@@ -6362,7 +6372,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="str">
         <f t="shared" si="7"/>
         <v>21.06.2023</v>
@@ -6389,7 +6399,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="str">
         <f t="shared" si="7"/>
         <v>21.06.2023</v>
@@ -6416,7 +6426,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="str">
         <f>"19.04.2023"</f>
         <v>19.04.2023</v>
@@ -6433,7 +6443,7 @@
       <c r="I66" s="13"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
@@ -6464,7 +6474,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
@@ -6491,7 +6501,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
@@ -6516,7 +6526,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
@@ -6543,7 +6553,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f t="shared" ref="A71:A77" si="8">"15.03.2023"</f>
         <v>15.03.2023</v>
@@ -6572,7 +6582,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f t="shared" si="8"/>
         <v>15.03.2023</v>
@@ -6599,7 +6609,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f t="shared" si="8"/>
         <v>15.03.2023</v>
@@ -6626,7 +6636,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f t="shared" si="8"/>
         <v>15.03.2023</v>
@@ -6653,7 +6663,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f t="shared" si="8"/>
         <v>15.03.2023</v>
@@ -6680,7 +6690,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f t="shared" si="8"/>
         <v>15.03.2023</v>
@@ -6707,7 +6717,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f t="shared" si="8"/>
         <v>15.03.2023</v>
@@ -6734,7 +6744,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="str">
         <f>"15.12.2022"</f>
         <v>15.12.2022</v>
@@ -6765,7 +6775,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="str">
         <f t="shared" ref="A79:A84" si="9">"15.12.2022"</f>
         <v>15.12.2022</v>
@@ -6792,7 +6802,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="str">
         <f t="shared" si="9"/>
         <v>15.12.2022</v>
@@ -6819,7 +6829,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="str">
         <f t="shared" si="9"/>
         <v>15.12.2022</v>
@@ -6846,7 +6856,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="str">
         <f t="shared" si="9"/>
         <v>15.12.2022</v>
@@ -6873,7 +6883,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="str">
         <f t="shared" si="9"/>
         <v>15.12.2022</v>
@@ -6900,7 +6910,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="str">
         <f t="shared" si="9"/>
         <v>15.12.2022</v>
@@ -6925,7 +6935,7 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="str">
         <f t="shared" ref="A85:A90" si="10">"08.12.2022"</f>
         <v>08.12.2022</v>
@@ -6956,7 +6966,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="str">
         <f t="shared" si="10"/>
         <v>08.12.2022</v>
@@ -6983,7 +6993,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="str">
         <f t="shared" si="10"/>
         <v>08.12.2022</v>
@@ -7010,7 +7020,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="str">
         <f t="shared" si="10"/>
         <v>08.12.2022</v>
@@ -7038,7 +7048,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="str">
         <f t="shared" si="10"/>
         <v>08.12.2022</v>
@@ -7065,7 +7075,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="str">
         <f t="shared" si="10"/>
         <v>08.12.2022</v>
@@ -7092,7 +7102,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="str">
         <f>"30.11.2022"</f>
         <v>30.11.2022</v>
@@ -7119,7 +7129,7 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="str">
         <f>"30.11.2022"</f>
         <v>30.11.2022</v>
@@ -7144,7 +7154,7 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="str">
         <f t="shared" ref="A93:A95" si="11">"30.11.2022"</f>
         <v>30.11.2022</v>
@@ -7169,7 +7179,7 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="str">
         <f t="shared" si="11"/>
         <v>30.11.2022</v>
@@ -7194,7 +7204,7 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="str">
         <f t="shared" si="11"/>
         <v>30.11.2022</v>
@@ -7219,7 +7229,7 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="str">
         <f t="shared" ref="A96:A101" si="12">"15.07.2022"</f>
         <v>15.07.2022</v>
@@ -7248,7 +7258,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="str">
         <f t="shared" si="12"/>
         <v>15.07.2022</v>
@@ -7275,7 +7285,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="str">
         <f t="shared" si="12"/>
         <v>15.07.2022</v>
@@ -7302,7 +7312,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="str">
         <f t="shared" si="12"/>
         <v>15.07.2022</v>
@@ -7329,7 +7339,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="str">
         <f t="shared" si="12"/>
         <v>15.07.2022</v>
@@ -7356,7 +7366,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="str">
         <f t="shared" si="12"/>
         <v>15.07.2022</v>
@@ -7379,7 +7389,7 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="str">
         <f>"23.06.2022"</f>
         <v>23.06.2022</v>
@@ -7406,7 +7416,7 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="str">
         <f t="shared" ref="A103:A109" si="13">"23.06.2022"</f>
         <v>23.06.2022</v>
@@ -7431,7 +7441,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="str">
         <f t="shared" si="13"/>
         <v>23.06.2022</v>
@@ -7458,7 +7468,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="str">
         <f t="shared" si="13"/>
         <v>23.06.2022</v>
@@ -7485,7 +7495,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="str">
         <f t="shared" si="13"/>
         <v>23.06.2022</v>
@@ -7512,7 +7522,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="str">
         <f t="shared" si="13"/>
         <v>23.06.2022</v>
@@ -7539,7 +7549,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="str">
         <f t="shared" si="13"/>
         <v>23.06.2022</v>
@@ -7566,7 +7576,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="str">
         <f t="shared" si="13"/>
         <v>23.06.2022</v>
@@ -7591,7 +7601,7 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="str">
         <f>"24.05.2022"</f>
         <v>24.05.2022</v>
@@ -7620,7 +7630,7 @@
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="str">
         <f>"24.05.2022"</f>
         <v>24.05.2022</v>
@@ -7645,7 +7655,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>981</v>
       </c>
@@ -7673,7 +7683,7 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>981</v>
       </c>
@@ -7697,7 +7707,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -7726,7 +7736,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="str">
         <f t="shared" ref="A115:A117" si="14">"21.02.2022"</f>
         <v>21.02.2022</v>
@@ -7751,7 +7761,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="str">
         <f t="shared" si="14"/>
         <v>21.02.2022</v>
@@ -7776,7 +7786,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="str">
         <f t="shared" si="14"/>
         <v>21.02.2022</v>
@@ -7801,7 +7811,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
         <f>"27.07.2021"</f>
         <v>27.07.2021</v>
@@ -7828,7 +7838,7 @@
       </c>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
         <f t="shared" ref="A119:A122" si="15">"27.07.2021"</f>
         <v>27.07.2021</v>
@@ -7853,7 +7863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="str">
         <f t="shared" si="15"/>
         <v>27.07.2021</v>
@@ -7878,7 +7888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="str">
         <f t="shared" si="15"/>
         <v>27.07.2021</v>
@@ -7903,7 +7913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="str">
         <f t="shared" si="15"/>
         <v>27.07.2021</v>
@@ -7928,7 +7938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
         <f>"28.06.2021"</f>
         <v>28.06.2021</v>
@@ -7957,7 +7967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="str">
         <f t="shared" ref="A124:A130" si="16">"28.06.2021"</f>
         <v>28.06.2021</v>
@@ -7982,7 +7992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="str">
         <f t="shared" si="16"/>
         <v>28.06.2021</v>
@@ -8007,7 +8017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
         <f t="shared" si="16"/>
         <v>28.06.2021</v>
@@ -8032,7 +8042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="str">
         <f t="shared" si="16"/>
         <v>28.06.2021</v>
@@ -8057,7 +8067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="str">
         <f t="shared" si="16"/>
         <v>28.06.2021</v>
@@ -8082,7 +8092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="str">
         <f t="shared" si="16"/>
         <v>28.06.2021</v>
@@ -8107,7 +8117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
         <f t="shared" si="16"/>
         <v>28.06.2021</v>
@@ -8132,7 +8142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="str">
         <f>"16.06.2021"</f>
         <v>16.06.2021</v>
@@ -8161,7 +8171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="str">
         <f t="shared" ref="A132:A134" si="17">"16.06.2021"</f>
         <v>16.06.2021</v>
@@ -8186,7 +8196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="str">
         <f t="shared" si="17"/>
         <v>16.06.2021</v>
@@ -8211,7 +8221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="str">
         <f t="shared" si="17"/>
         <v>16.06.2021</v>
@@ -8236,7 +8246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="str">
         <f>"22.03.2021"</f>
         <v>22.03.2021</v>
@@ -8265,7 +8275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="str">
         <f t="shared" ref="A136:A144" si="18">"22.03.2021"</f>
         <v>22.03.2021</v>
@@ -8290,7 +8300,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8315,7 +8325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8340,7 +8350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8365,7 +8375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8390,7 +8400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8415,7 +8425,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8440,7 +8450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8465,7 +8475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
         <f t="shared" si="18"/>
         <v>22.03.2021</v>
@@ -8490,7 +8500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
         <f>"08.03.2021"</f>
         <v>08.03.2021</v>
@@ -8517,7 +8527,7 @@
       </c>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
         <f t="shared" ref="A146:A151" si="19">"08.03.2021"</f>
         <v>08.03.2021</v>
@@ -8542,7 +8552,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
         <f t="shared" si="19"/>
         <v>08.03.2021</v>
@@ -8567,7 +8577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
         <f t="shared" si="19"/>
         <v>08.03.2021</v>
@@ -8592,7 +8602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
         <f t="shared" si="19"/>
         <v>08.03.2021</v>
@@ -8617,7 +8627,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
         <f t="shared" si="19"/>
         <v>08.03.2021</v>
@@ -8642,7 +8652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
         <f t="shared" si="19"/>
         <v>08.03.2021</v>
@@ -8665,7 +8675,7 @@
       </c>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
         <f>"03.11.2020"</f>
         <v>03.11.2020</v>
@@ -8694,7 +8704,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
         <f t="shared" ref="A153:A159" si="20">"03.11.2020"</f>
         <v>03.11.2020</v>
@@ -8719,7 +8729,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
         <f t="shared" si="20"/>
         <v>03.11.2020</v>
@@ -8744,7 +8754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
         <f t="shared" si="20"/>
         <v>03.11.2020</v>
@@ -8769,7 +8779,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
         <f t="shared" si="20"/>
         <v>03.11.2020</v>
@@ -8794,7 +8804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="str">
         <f t="shared" si="20"/>
         <v>03.11.2020</v>
@@ -8819,7 +8829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
         <f t="shared" si="20"/>
         <v>03.11.2020</v>
@@ -8844,7 +8854,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
         <f t="shared" si="20"/>
         <v>03.11.2020</v>
@@ -8869,7 +8879,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
         <f>"07.09.2020"</f>
         <v>07.09.2020</v>
@@ -8898,7 +8908,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
         <f t="shared" ref="A161:A169" si="21">"07.09.2020"</f>
         <v>07.09.2020</v>
@@ -8923,7 +8933,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -8948,7 +8958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -8973,7 +8983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -8998,7 +9008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -9023,7 +9033,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -9048,7 +9058,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -9073,7 +9083,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -9098,7 +9108,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
         <f t="shared" si="21"/>
         <v>07.09.2020</v>
@@ -9121,7 +9131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
         <f>"30.06.2020"</f>
         <v>30.06.2020</v>
@@ -9150,7 +9160,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="str">
         <f t="shared" ref="A171:A174" si="22">"30.06.2020"</f>
         <v>30.06.2020</v>
@@ -9175,7 +9185,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
         <f t="shared" si="22"/>
         <v>30.06.2020</v>
@@ -9200,7 +9210,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
         <f t="shared" si="22"/>
         <v>30.06.2020</v>
@@ -9225,7 +9235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
         <f t="shared" si="22"/>
         <v>30.06.2020</v>
@@ -9250,7 +9260,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
         <f>"29.06.2020"</f>
         <v>29.06.2020</v>
@@ -9279,7 +9289,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="str">
         <f t="shared" ref="A176:A181" si="23">"29.06.2020"</f>
         <v>29.06.2020</v>
@@ -9304,7 +9314,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="str">
         <f t="shared" si="23"/>
         <v>29.06.2020</v>
@@ -9329,7 +9339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="str">
         <f t="shared" si="23"/>
         <v>29.06.2020</v>
@@ -9354,7 +9364,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="str">
         <f t="shared" si="23"/>
         <v>29.06.2020</v>
@@ -9379,7 +9389,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="str">
         <f t="shared" si="23"/>
         <v>29.06.2020</v>
@@ -9404,7 +9414,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="str">
         <f t="shared" si="23"/>
         <v>29.06.2020</v>
@@ -9427,7 +9437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="str">
         <f>"03.06.2020"</f>
         <v>03.06.2020</v>
@@ -9454,7 +9464,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="str">
         <f t="shared" ref="A183:A185" si="24">"03.06.2020"</f>
         <v>03.06.2020</v>
@@ -9479,7 +9489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="str">
         <f t="shared" si="24"/>
         <v>03.06.2020</v>
@@ -9504,7 +9514,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="str">
         <f t="shared" si="24"/>
         <v>03.06.2020</v>
@@ -9529,7 +9539,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="str">
         <f>"06.05.2020"</f>
         <v>06.05.2020</v>
@@ -9556,7 +9566,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="str">
         <f t="shared" ref="A187:A191" si="25">"06.05.2020"</f>
         <v>06.05.2020</v>
@@ -9581,7 +9591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="str">
         <f t="shared" si="25"/>
         <v>06.05.2020</v>
@@ -9606,7 +9616,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="str">
         <f t="shared" si="25"/>
         <v>06.05.2020</v>
@@ -9631,7 +9641,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="str">
         <f t="shared" si="25"/>
         <v>06.05.2020</v>
@@ -9656,7 +9666,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="str">
         <f t="shared" si="25"/>
         <v>06.05.2020</v>
@@ -9681,7 +9691,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="str">
         <f>"04.02.2020"</f>
         <v>04.02.2020</v>
@@ -9706,7 +9716,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="str">
         <f t="shared" ref="A193:A197" si="26">"04.02.2020"</f>
         <v>04.02.2020</v>
@@ -9729,7 +9739,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="str">
         <f t="shared" si="26"/>
         <v>04.02.2020</v>
@@ -9752,7 +9762,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="str">
         <f t="shared" si="26"/>
         <v>04.02.2020</v>
@@ -9775,7 +9785,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="str">
         <f t="shared" si="26"/>
         <v>04.02.2020</v>
@@ -9796,7 +9806,7 @@
       </c>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="str">
         <f t="shared" si="26"/>
         <v>04.02.2020</v>
@@ -9817,7 +9827,7 @@
       </c>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="str">
         <f>"01.11.2019"</f>
         <v>01.11.2019</v>
@@ -9844,7 +9854,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="str">
         <f t="shared" ref="A199:A206" si="27">"01.11.2019"</f>
         <v>01.11.2019</v>
@@ -9867,7 +9877,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -9890,7 +9900,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -9913,7 +9923,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -9936,7 +9946,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -9956,7 +9966,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -9979,7 +9989,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -10002,7 +10012,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="str">
         <f t="shared" si="27"/>
         <v>01.11.2019</v>
@@ -10025,7 +10035,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="str">
         <f>"21.08.2019"</f>
         <v>21.08.2019</v>
@@ -10049,7 +10059,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="str">
         <f t="shared" ref="A208:A213" si="28">"21.08.2019"</f>
         <v>21.08.2019</v>
@@ -10071,7 +10081,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="str">
         <f t="shared" si="28"/>
         <v>21.08.2019</v>
@@ -10090,7 +10100,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="str">
         <f t="shared" si="28"/>
         <v>21.08.2019</v>
@@ -10110,7 +10120,7 @@
       </c>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="str">
         <f t="shared" si="28"/>
         <v>21.08.2019</v>
@@ -10130,7 +10140,7 @@
       </c>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="str">
         <f t="shared" si="28"/>
         <v>21.08.2019</v>
@@ -10150,7 +10160,7 @@
       </c>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="str">
         <f t="shared" si="28"/>
         <v>21.08.2019</v>
@@ -10172,7 +10182,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="str">
         <f>"04.06.2019"</f>
         <v>04.06.2019</v>
@@ -10193,7 +10203,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="str">
         <f t="shared" ref="A215:A221" si="29">"04.06.2019"</f>
         <v>04.06.2019</v>
@@ -10215,7 +10225,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="str">
         <f t="shared" si="29"/>
         <v>04.06.2019</v>
@@ -10237,7 +10247,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="str">
         <f t="shared" si="29"/>
         <v>04.06.2019</v>
@@ -10259,7 +10269,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="str">
         <f t="shared" si="29"/>
         <v>04.06.2019</v>
@@ -10281,7 +10291,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="str">
         <f t="shared" si="29"/>
         <v>04.06.2019</v>
@@ -10303,7 +10313,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="str">
         <f t="shared" si="29"/>
         <v>04.06.2019</v>
@@ -10325,7 +10335,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="str">
         <f t="shared" si="29"/>
         <v>04.06.2019</v>
@@ -10347,7 +10357,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="str">
         <f>"10.05.2019"</f>
         <v>10.05.2019</v>
@@ -10371,7 +10381,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="str">
         <f t="shared" ref="A223:A233" si="30">"10.05.2019"</f>
         <v>10.05.2019</v>
@@ -10393,7 +10403,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10415,7 +10425,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10437,7 +10447,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10459,7 +10469,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10481,7 +10491,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10503,7 +10513,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10525,7 +10535,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10547,7 +10557,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10569,7 +10579,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10588,7 +10598,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="str">
         <f t="shared" si="30"/>
         <v>10.05.2019</v>
@@ -10607,7 +10617,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="str">
         <f>"27.06.2018"</f>
         <v>27.06.2018</v>
@@ -10631,7 +10641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="str">
         <f t="shared" ref="A235:A242" si="31">"27.06.2018"</f>
         <v>27.06.2018</v>
@@ -10653,7 +10663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10675,7 +10685,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10697,7 +10707,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10719,7 +10729,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10741,7 +10751,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10763,7 +10773,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10785,7 +10795,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="str">
         <f t="shared" si="31"/>
         <v>27.06.2018</v>
@@ -10807,7 +10817,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="str">
         <f>"26.06.2018"</f>
         <v>26.06.2018</v>
@@ -10831,7 +10841,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="str">
         <f t="shared" ref="A244:A245" si="32">"26.06.2018"</f>
         <v>26.06.2018</v>
@@ -10853,7 +10863,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="str">
         <f t="shared" si="32"/>
         <v>26.06.2018</v>
@@ -10875,7 +10885,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="str">
         <f>"17.04.2018"</f>
         <v>17.04.2018</v>
@@ -10899,7 +10909,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="str">
         <f t="shared" ref="A247:A250" si="33">"17.04.2018"</f>
         <v>17.04.2018</v>
@@ -10921,7 +10931,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="str">
         <f t="shared" si="33"/>
         <v>17.04.2018</v>
@@ -10943,7 +10953,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="str">
         <f t="shared" si="33"/>
         <v>17.04.2018</v>
@@ -10965,7 +10975,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="str">
         <f t="shared" si="33"/>
         <v>17.04.2018</v>
@@ -10987,7 +10997,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="str">
         <f>"20.03.2018"</f>
         <v>20.03.2018</v>
@@ -11011,7 +11021,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="str">
         <f t="shared" ref="A252:A253" si="34">"20.03.2018"</f>
         <v>20.03.2018</v>
@@ -11033,7 +11043,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="str">
         <f t="shared" si="34"/>
         <v>20.03.2018</v>
@@ -11055,7 +11065,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -11080,7 +11090,7 @@
       </c>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -11103,7 +11113,7 @@
       </c>
       <c r="J255" s="15"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="str">
         <f>"14.11.2017"</f>
         <v>14.11.2017</v>
@@ -11126,7 +11136,7 @@
       </c>
       <c r="J256" s="15"/>
     </row>
-    <row r="257" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="str">
         <f>"11.09.2017"</f>
         <v>11.09.2017</v>
@@ -11151,7 +11161,7 @@
       </c>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="str">
         <f t="shared" ref="A258:A264" si="35">"11.09.2017"</f>
         <v>11.09.2017</v>
@@ -11174,7 +11184,7 @@
       </c>
       <c r="J258" s="15"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="str">
         <f t="shared" si="35"/>
         <v>11.09.2017</v>
@@ -11197,7 +11207,7 @@
       </c>
       <c r="J259" s="15"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="str">
         <f t="shared" si="35"/>
         <v>11.09.2017</v>
@@ -11220,7 +11230,7 @@
       </c>
       <c r="J260" s="15"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="str">
         <f t="shared" si="35"/>
         <v>11.09.2017</v>
@@ -11243,7 +11253,7 @@
       </c>
       <c r="J261" s="15"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="str">
         <f t="shared" si="35"/>
         <v>11.09.2017</v>
@@ -11266,7 +11276,7 @@
       </c>
       <c r="J262" s="15"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="str">
         <f t="shared" si="35"/>
         <v>11.09.2017</v>
@@ -11289,7 +11299,7 @@
       </c>
       <c r="J263" s="15"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="str">
         <f t="shared" si="35"/>
         <v>11.09.2017</v>
@@ -11312,7 +11322,7 @@
       </c>
       <c r="J264" s="15"/>
     </row>
-    <row r="265" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="str">
         <f>"26.06.2017"</f>
         <v>26.06.2017</v>
@@ -11337,7 +11347,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="str">
         <f t="shared" ref="A266:A267" si="36">"26.06.2017"</f>
         <v>26.06.2017</v>
@@ -11360,7 +11370,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="str">
         <f t="shared" si="36"/>
         <v>26.06.2017</v>
@@ -11383,7 +11393,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="str">
         <f t="shared" ref="A268:A276" si="37">"15.06.2017"</f>
         <v>15.06.2017</v>
@@ -11407,7 +11417,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11429,7 +11439,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11451,7 +11461,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11473,7 +11483,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11495,7 +11505,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11517,7 +11527,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11539,7 +11549,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11561,7 +11571,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="str">
         <f t="shared" si="37"/>
         <v>15.06.2017</v>
@@ -11583,7 +11593,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="str">
         <f>"05.05.2017"</f>
         <v>05.05.2017</v>
@@ -11607,7 +11617,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="str">
         <f t="shared" ref="A278:A282" si="38">"05.05.2017"</f>
         <v>05.05.2017</v>
@@ -11629,7 +11639,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="str">
         <f t="shared" si="38"/>
         <v>05.05.2017</v>
@@ -11651,7 +11661,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="str">
         <f t="shared" si="38"/>
         <v>05.05.2017</v>
@@ -11673,7 +11683,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="str">
         <f t="shared" si="38"/>
         <v>05.05.2017</v>
@@ -11695,7 +11705,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="str">
         <f t="shared" si="38"/>
         <v>05.05.2017</v>
@@ -11717,7 +11727,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="str">
         <f>"13.03.2017"</f>
         <v>13.03.2017</v>
@@ -11742,7 +11752,7 @@
       </c>
       <c r="J283"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="str">
         <f>"13.03.2017"</f>
         <v>13.03.2017</v>
@@ -11767,7 +11777,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="str">
         <f>"29.11.2016"</f>
         <v>29.11.2016</v>
@@ -11791,7 +11801,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="str">
         <f t="shared" ref="A286:A289" si="39">"29.11.2016"</f>
         <v>29.11.2016</v>
@@ -11813,7 +11823,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="str">
         <f t="shared" si="39"/>
         <v>29.11.2016</v>
@@ -11835,7 +11845,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="str">
         <f t="shared" si="39"/>
         <v>29.11.2016</v>
@@ -11857,7 +11867,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="str">
         <f t="shared" si="39"/>
         <v>29.11.2016</v>
@@ -11879,7 +11889,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="str">
         <f>"14.11.2016"</f>
         <v>14.11.2016</v>
@@ -11904,7 +11914,7 @@
       </c>
       <c r="J290"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="str">
         <f t="shared" ref="A291:A293" si="40">"14.11.2016"</f>
         <v>14.11.2016</v>
@@ -11927,7 +11937,7 @@
       </c>
       <c r="J291"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="str">
         <f t="shared" si="40"/>
         <v>14.11.2016</v>
@@ -11950,7 +11960,7 @@
       </c>
       <c r="J292"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="str">
         <f t="shared" si="40"/>
         <v>14.11.2016</v>
@@ -11973,7 +11983,7 @@
       </c>
       <c r="J293"/>
     </row>
-    <row r="294" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="str">
         <f>"17.10.2016"</f>
         <v>17.10.2016</v>
@@ -11998,7 +12008,7 @@
       </c>
       <c r="J294"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="str">
         <f t="shared" ref="A295:A296" si="41">"17.10.2016"</f>
         <v>17.10.2016</v>
@@ -12021,7 +12031,7 @@
       </c>
       <c r="J295"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="str">
         <f t="shared" si="41"/>
         <v>17.10.2016</v>
@@ -12044,7 +12054,7 @@
       </c>
       <c r="J296"/>
     </row>
-    <row r="297" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="str">
         <f>"14.09.2016"</f>
         <v>14.09.2016</v>
@@ -12069,7 +12079,7 @@
       </c>
       <c r="J297"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="str">
         <f t="shared" ref="A298:A302" si="42">"14.09.2016"</f>
         <v>14.09.2016</v>
@@ -12092,7 +12102,7 @@
       </c>
       <c r="J298"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="str">
         <f t="shared" si="42"/>
         <v>14.09.2016</v>
@@ -12115,7 +12125,7 @@
       </c>
       <c r="J299"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="str">
         <f t="shared" si="42"/>
         <v>14.09.2016</v>
@@ -12138,7 +12148,7 @@
       </c>
       <c r="J300"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="str">
         <f t="shared" si="42"/>
         <v>14.09.2016</v>
@@ -12161,7 +12171,7 @@
       </c>
       <c r="J301"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="str">
         <f t="shared" si="42"/>
         <v>14.09.2016</v>
@@ -12184,7 +12194,7 @@
       </c>
       <c r="J302"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -12208,7 +12218,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -12230,7 +12240,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -12252,7 +12262,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="str">
         <f>"04.05.2016"</f>
         <v>04.05.2016</v>
@@ -12272,7 +12282,7 @@
       </c>
       <c r="J306"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
@@ -12296,7 +12306,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="str">
         <f t="shared" ref="A308:A316" si="43">"28.04.2016"</f>
         <v>28.04.2016</v>
@@ -12319,7 +12329,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12339,7 +12349,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12362,7 +12372,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12385,7 +12395,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12408,7 +12418,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12431,7 +12441,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12452,7 +12462,7 @@
       </c>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12475,7 +12485,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="str">
         <f t="shared" si="43"/>
         <v>28.04.2016</v>
@@ -12496,7 +12506,7 @@
       </c>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="str">
         <f>"13.01.2016"</f>
         <v>13.01.2016</v>
@@ -12521,7 +12531,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="str">
         <f t="shared" ref="A318:A322" si="44">"13.01.2016"</f>
         <v>13.01.2016</v>
@@ -12544,7 +12554,7 @@
         <v>564</v>
       </c>
    